--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14">
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="15">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>881</v>
+        <v>887</v>
       </c>
     </row>
     <row r="16">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E16" t="n">
         <v>11</v>
@@ -1075,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>1025</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="17">
@@ -1085,13 +1085,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1118,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>1651</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="18">
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>2381</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="19">
@@ -1204,7 +1204,7 @@
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>3232</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="20">
@@ -1214,13 +1214,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="E20" t="n">
         <v>23</v>
@@ -1247,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>4304</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="21">
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E21" t="n">
         <v>45</v>
@@ -1290,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>6031</v>
+        <v>6047</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1333,7 @@
         <v>14</v>
       </c>
       <c r="M22" t="n">
-        <v>6730</v>
+        <v>6746</v>
       </c>
     </row>
     <row r="23">
@@ -1376,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="M23" t="n">
-        <v>7751</v>
+        <v>7767</v>
       </c>
     </row>
     <row r="24">
@@ -1419,7 +1419,7 @@
         <v>24</v>
       </c>
       <c r="M24" t="n">
-        <v>9202</v>
+        <v>9218</v>
       </c>
     </row>
     <row r="25">
@@ -1429,13 +1429,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="E25" t="n">
         <v>113</v>
@@ -1462,7 +1462,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="n">
-        <v>10801</v>
+        <v>10816</v>
       </c>
     </row>
     <row r="26">
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2301</v>
+        <v>2307</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2301</v>
+        <v>2307</v>
       </c>
       <c r="E26" t="n">
         <v>162</v>
@@ -1505,7 +1505,7 @@
         <v>35</v>
       </c>
       <c r="M26" t="n">
-        <v>13102</v>
+        <v>13123</v>
       </c>
     </row>
     <row r="27">
@@ -1515,13 +1515,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2598</v>
+        <v>2600</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2598</v>
+        <v>2600</v>
       </c>
       <c r="E27" t="n">
         <v>303</v>
@@ -1548,7 +1548,7 @@
         <v>44</v>
       </c>
       <c r="M27" t="n">
-        <v>15700</v>
+        <v>15723</v>
       </c>
     </row>
     <row r="28">
@@ -1558,13 +1558,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>2156</v>
+        <v>2159</v>
       </c>
       <c r="E28" t="n">
         <v>282</v>
@@ -1591,7 +1591,7 @@
         <v>47</v>
       </c>
       <c r="M28" t="n">
-        <v>17856</v>
+        <v>17883</v>
       </c>
     </row>
     <row r="29">
@@ -1601,13 +1601,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="E29" t="n">
         <v>288</v>
@@ -1619,22 +1619,22 @@
         <v>288</v>
       </c>
       <c r="H29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K29" t="n">
         <v>1509</v>
       </c>
       <c r="L29" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M29" t="n">
-        <v>19128</v>
+        <v>19154</v>
       </c>
     </row>
     <row r="30">
@@ -1674,10 +1674,10 @@
         <v>1780</v>
       </c>
       <c r="L30" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M30" t="n">
-        <v>20761</v>
+        <v>20787</v>
       </c>
     </row>
     <row r="31">
@@ -1687,10 +1687,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>1955</v>
@@ -1717,10 +1717,10 @@
         <v>2153</v>
       </c>
       <c r="L31" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M31" t="n">
-        <v>22716</v>
+        <v>22743</v>
       </c>
     </row>
     <row r="32">
@@ -1760,10 +1760,10 @@
         <v>2559</v>
       </c>
       <c r="L32" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M32" t="n">
-        <v>25025</v>
+        <v>25052</v>
       </c>
     </row>
     <row r="33">
@@ -1803,10 +1803,10 @@
         <v>3028</v>
       </c>
       <c r="L33" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M33" t="n">
-        <v>27552</v>
+        <v>27579</v>
       </c>
     </row>
     <row r="34">
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2686</v>
+        <v>2689</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2686</v>
+        <v>2689</v>
       </c>
       <c r="E34" t="n">
         <v>396</v>
@@ -1846,10 +1846,10 @@
         <v>3424</v>
       </c>
       <c r="L34" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M34" t="n">
-        <v>30238</v>
+        <v>30268</v>
       </c>
     </row>
     <row r="35">
@@ -1859,13 +1859,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="E35" t="n">
         <v>513</v>
@@ -1889,10 +1889,10 @@
         <v>3937</v>
       </c>
       <c r="L35" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M35" t="n">
-        <v>33028</v>
+        <v>33057</v>
       </c>
     </row>
     <row r="36">
@@ -1902,13 +1902,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="E36" t="n">
         <v>461</v>
@@ -1932,10 +1932,10 @@
         <v>4398</v>
       </c>
       <c r="L36" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M36" t="n">
-        <v>34669</v>
+        <v>34696</v>
       </c>
     </row>
     <row r="37">
@@ -1975,10 +1975,10 @@
         <v>4925</v>
       </c>
       <c r="L37" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M37" t="n">
-        <v>35763</v>
+        <v>35790</v>
       </c>
     </row>
     <row r="38">
@@ -1991,10 +1991,10 @@
         <v>2418</v>
       </c>
       <c r="C38" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2386</v>
+        <v>2418</v>
       </c>
       <c r="E38" t="n">
         <v>558</v>
@@ -2018,10 +2018,10 @@
         <v>5483</v>
       </c>
       <c r="L38" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M38" t="n">
-        <v>38181</v>
+        <v>38208</v>
       </c>
     </row>
     <row r="39">
@@ -2031,13 +2031,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2766</v>
+        <v>2768</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>2766</v>
+        <v>2768</v>
       </c>
       <c r="E39" t="n">
         <v>423</v>
@@ -2049,22 +2049,22 @@
         <v>423</v>
       </c>
       <c r="H39" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K39" t="n">
         <v>5906</v>
       </c>
       <c r="L39" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M39" t="n">
-        <v>40947</v>
+        <v>40976</v>
       </c>
     </row>
     <row r="40">
@@ -2074,13 +2074,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3066</v>
+        <v>3067</v>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>3063</v>
+        <v>3067</v>
       </c>
       <c r="E40" t="n">
         <v>422</v>
@@ -2104,10 +2104,10 @@
         <v>6328</v>
       </c>
       <c r="L40" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M40" t="n">
-        <v>44013</v>
+        <v>44043</v>
       </c>
     </row>
     <row r="41">
@@ -2147,10 +2147,10 @@
         <v>6886</v>
       </c>
       <c r="L41" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M41" t="n">
-        <v>46754</v>
+        <v>46784</v>
       </c>
     </row>
     <row r="42">
@@ -2163,10 +2163,10 @@
         <v>2710</v>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>2695</v>
+        <v>2710</v>
       </c>
       <c r="E42" t="n">
         <v>515</v>
@@ -2181,19 +2181,19 @@
         <v>25</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K42" t="n">
         <v>7401</v>
       </c>
       <c r="L42" t="n">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M42" t="n">
-        <v>49464</v>
+        <v>49494</v>
       </c>
     </row>
     <row r="43">
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1499</v>
+        <v>1517</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1499</v>
+        <v>1517</v>
       </c>
       <c r="E43" t="n">
         <v>486</v>
@@ -2233,10 +2233,10 @@
         <v>7887</v>
       </c>
       <c r="L43" t="n">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M43" t="n">
-        <v>50963</v>
+        <v>51011</v>
       </c>
     </row>
     <row r="44">
@@ -2246,13 +2246,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E44" t="n">
         <v>319</v>
@@ -2267,19 +2267,19 @@
         <v>28</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K44" t="n">
         <v>8206</v>
       </c>
       <c r="L44" t="n">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M44" t="n">
-        <v>51660</v>
+        <v>51709</v>
       </c>
     </row>
     <row r="45">
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3435</v>
+        <v>3458</v>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>3430</v>
+        <v>3458</v>
       </c>
       <c r="E45" t="n">
         <v>293</v>
@@ -2319,10 +2319,10 @@
         <v>8499</v>
       </c>
       <c r="L45" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M45" t="n">
-        <v>55095</v>
+        <v>55167</v>
       </c>
     </row>
     <row r="46">
@@ -2332,13 +2332,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3520</v>
+        <v>3547</v>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>3516</v>
+        <v>3546</v>
       </c>
       <c r="E46" t="n">
         <v>419</v>
@@ -2350,22 +2350,22 @@
         <v>419</v>
       </c>
       <c r="H46" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K46" t="n">
         <v>8918</v>
       </c>
       <c r="L46" t="n">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="M46" t="n">
-        <v>58615</v>
+        <v>58714</v>
       </c>
     </row>
     <row r="47">
@@ -2375,13 +2375,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3137</v>
+        <v>3209</v>
       </c>
       <c r="C47" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D47" t="n">
-        <v>3114</v>
+        <v>3189</v>
       </c>
       <c r="E47" t="n">
         <v>581</v>
@@ -2405,10 +2405,10 @@
         <v>9499</v>
       </c>
       <c r="L47" t="n">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="M47" t="n">
-        <v>61752</v>
+        <v>61923</v>
       </c>
     </row>
     <row r="48">
@@ -2418,40 +2418,40 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3645</v>
+        <v>3765</v>
       </c>
       <c r="C48" t="n">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="D48" t="n">
-        <v>3482</v>
+        <v>3749</v>
       </c>
       <c r="E48" t="n">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H48" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K48" t="n">
-        <v>10102</v>
+        <v>10100</v>
       </c>
       <c r="L48" t="n">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="M48" t="n">
-        <v>65397</v>
+        <v>65688</v>
       </c>
     </row>
     <row r="49">
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3780</v>
+        <v>3920</v>
       </c>
       <c r="C49" t="n">
-        <v>184</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>3596</v>
+        <v>3916</v>
       </c>
       <c r="E49" t="n">
         <v>505</v>
@@ -2479,22 +2479,22 @@
         <v>505</v>
       </c>
       <c r="H49" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K49" t="n">
-        <v>10607</v>
+        <v>10605</v>
       </c>
       <c r="L49" t="n">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="M49" t="n">
-        <v>69177</v>
+        <v>69608</v>
       </c>
     </row>
     <row r="50">
@@ -2504,13 +2504,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1607</v>
+        <v>1676</v>
       </c>
       <c r="C50" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>1595</v>
+        <v>1673</v>
       </c>
       <c r="E50" t="n">
         <v>559</v>
@@ -2522,22 +2522,22 @@
         <v>559</v>
       </c>
       <c r="H50" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K50" t="n">
-        <v>11166</v>
+        <v>11164</v>
       </c>
       <c r="L50" t="n">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="M50" t="n">
-        <v>70784</v>
+        <v>71284</v>
       </c>
     </row>
     <row r="51">
@@ -2547,40 +2547,40 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>968</v>
+        <v>1017</v>
       </c>
       <c r="C51" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>952</v>
+        <v>1016</v>
       </c>
       <c r="E51" t="n">
         <v>480</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H51" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K51" t="n">
-        <v>11646</v>
+        <v>11644</v>
       </c>
       <c r="L51" t="n">
-        <v>673</v>
+        <v>688</v>
       </c>
       <c r="M51" t="n">
-        <v>71752</v>
+        <v>72301</v>
       </c>
     </row>
     <row r="52">
@@ -2590,13 +2590,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3818</v>
+        <v>4063</v>
       </c>
       <c r="C52" t="n">
-        <v>157</v>
+        <v>21</v>
       </c>
       <c r="D52" t="n">
-        <v>3661</v>
+        <v>4042</v>
       </c>
       <c r="E52" t="n">
         <v>388</v>
@@ -2608,22 +2608,22 @@
         <v>388</v>
       </c>
       <c r="H52" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K52" t="n">
-        <v>12034</v>
+        <v>12032</v>
       </c>
       <c r="L52" t="n">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="M52" t="n">
-        <v>75570</v>
+        <v>76364</v>
       </c>
     </row>
     <row r="53">
@@ -2633,40 +2633,40 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3340</v>
+        <v>3729</v>
       </c>
       <c r="C53" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>3236</v>
+        <v>3729</v>
       </c>
       <c r="E53" t="n">
         <v>380</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H53" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K53" t="n">
-        <v>12414</v>
+        <v>12412</v>
       </c>
       <c r="L53" t="n">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="M53" t="n">
-        <v>78910</v>
+        <v>80093</v>
       </c>
     </row>
     <row r="54">
@@ -2676,40 +2676,40 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3116</v>
+        <v>3529</v>
       </c>
       <c r="C54" t="n">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="D54" t="n">
-        <v>3027</v>
+        <v>3522</v>
       </c>
       <c r="E54" t="n">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H54" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K54" t="n">
-        <v>13021</v>
+        <v>13018</v>
       </c>
       <c r="L54" t="n">
-        <v>789</v>
+        <v>816</v>
       </c>
       <c r="M54" t="n">
-        <v>82026</v>
+        <v>83622</v>
       </c>
     </row>
     <row r="55">
@@ -2719,40 +2719,40 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3465</v>
+        <v>3749</v>
       </c>
       <c r="C55" t="n">
-        <v>247</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>3218</v>
+        <v>3747</v>
       </c>
       <c r="E55" t="n">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H55" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K55" t="n">
-        <v>13666</v>
+        <v>13662</v>
       </c>
       <c r="L55" t="n">
-        <v>817</v>
+        <v>852</v>
       </c>
       <c r="M55" t="n">
-        <v>85491</v>
+        <v>87371</v>
       </c>
     </row>
     <row r="56">
@@ -2762,40 +2762,40 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2433</v>
+        <v>2903</v>
       </c>
       <c r="C56" t="n">
-        <v>797</v>
+        <v>13</v>
       </c>
       <c r="D56" t="n">
-        <v>1636</v>
+        <v>2890</v>
       </c>
       <c r="E56" t="n">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="H56" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K56" t="n">
-        <v>14372</v>
+        <v>14364</v>
       </c>
       <c r="L56" t="n">
-        <v>843</v>
+        <v>885</v>
       </c>
       <c r="M56" t="n">
-        <v>87924</v>
+        <v>90274</v>
       </c>
     </row>
     <row r="57">
@@ -2805,13 +2805,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1566</v>
+        <v>2006</v>
       </c>
       <c r="C57" t="n">
-        <v>940</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>626</v>
+        <v>2005</v>
       </c>
       <c r="E57" t="n">
         <v>626</v>
@@ -2823,22 +2823,22 @@
         <v>626</v>
       </c>
       <c r="H57" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K57" t="n">
-        <v>14998</v>
+        <v>14990</v>
       </c>
       <c r="L57" t="n">
-        <v>879</v>
+        <v>925</v>
       </c>
       <c r="M57" t="n">
-        <v>89490</v>
+        <v>92280</v>
       </c>
     </row>
     <row r="58">
@@ -2848,13 +2848,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1225</v>
+        <v>1676</v>
       </c>
       <c r="C58" t="n">
-        <v>941</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>284</v>
+        <v>1672</v>
       </c>
       <c r="E58" t="n">
         <v>952</v>
@@ -2866,22 +2866,22 @@
         <v>952</v>
       </c>
       <c r="H58" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K58" t="n">
-        <v>15950</v>
+        <v>15942</v>
       </c>
       <c r="L58" t="n">
-        <v>910</v>
+        <v>957</v>
       </c>
       <c r="M58" t="n">
-        <v>90715</v>
+        <v>93956</v>
       </c>
     </row>
     <row r="59">
@@ -2891,40 +2891,40 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>710</v>
+        <v>3909</v>
       </c>
       <c r="C59" t="n">
-        <v>646</v>
+        <v>39</v>
       </c>
       <c r="D59" t="n">
-        <v>64</v>
+        <v>3870</v>
       </c>
       <c r="E59" t="n">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H59" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I59" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="K59" t="n">
-        <v>16579</v>
+        <v>16567</v>
       </c>
       <c r="L59" t="n">
-        <v>943</v>
+        <v>997</v>
       </c>
       <c r="M59" t="n">
-        <v>91425</v>
+        <v>97865</v>
       </c>
     </row>
     <row r="60">
@@ -2934,40 +2934,255 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>125</v>
+        <v>4069</v>
       </c>
       <c r="C60" t="n">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>4018</v>
       </c>
       <c r="E60" t="n">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="F60" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
+        <v>594</v>
+      </c>
+      <c r="H60" t="n">
+        <v>33</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>33</v>
+      </c>
+      <c r="K60" t="n">
+        <v>17161</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1030</v>
+      </c>
+      <c r="M60" t="n">
+        <v>101934</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>3965</v>
+      </c>
+      <c r="C61" t="n">
+        <v>196</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3769</v>
+      </c>
+      <c r="E61" t="n">
+        <v>661</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>661</v>
+      </c>
+      <c r="H61" t="n">
+        <v>35</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>35</v>
+      </c>
+      <c r="K61" t="n">
+        <v>17822</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1065</v>
+      </c>
+      <c r="M61" t="n">
+        <v>105899</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>3491</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1113</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2378</v>
+      </c>
+      <c r="E62" t="n">
+        <v>803</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>803</v>
+      </c>
+      <c r="H62" t="n">
+        <v>39</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>38</v>
+      </c>
+      <c r="K62" t="n">
+        <v>18625</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1104</v>
+      </c>
+      <c r="M62" t="n">
+        <v>109390</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2020-05-01</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>3235</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2457</v>
+      </c>
+      <c r="D63" t="n">
+        <v>778</v>
+      </c>
+      <c r="E63" t="n">
+        <v>664</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>663</v>
+      </c>
+      <c r="H63" t="n">
+        <v>19</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>19</v>
+      </c>
+      <c r="K63" t="n">
+        <v>19289</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1123</v>
+      </c>
+      <c r="M63" t="n">
+        <v>112625</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2020-05-02</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>526</v>
+      </c>
+      <c r="C64" t="n">
+        <v>373</v>
+      </c>
+      <c r="D64" t="n">
+        <v>153</v>
+      </c>
+      <c r="E64" t="n">
+        <v>639</v>
+      </c>
+      <c r="F64" t="n">
         <v>3</v>
       </c>
-      <c r="H60" t="n">
-        <v>21</v>
-      </c>
-      <c r="I60" t="n">
-        <v>21</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="n">
-        <v>17182</v>
-      </c>
-      <c r="L60" t="n">
-        <v>964</v>
-      </c>
-      <c r="M60" t="n">
-        <v>91550</v>
+      <c r="G64" t="n">
+        <v>636</v>
+      </c>
+      <c r="H64" t="n">
+        <v>23</v>
+      </c>
+      <c r="I64" t="n">
+        <v>13</v>
+      </c>
+      <c r="J64" t="n">
+        <v>10</v>
+      </c>
+      <c r="K64" t="n">
+        <v>19928</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1146</v>
+      </c>
+      <c r="M64" t="n">
+        <v>113151</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2020-05-03</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>146</v>
+      </c>
+      <c r="C65" t="n">
+        <v>146</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>579</v>
+      </c>
+      <c r="F65" t="n">
+        <v>579</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>20507</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1151</v>
+      </c>
+      <c r="M65" t="n">
+        <v>113297</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1561,10 +1561,10 @@
         <v>2160</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="E28" t="n">
         <v>282</v>
@@ -1604,10 +1604,10 @@
         <v>1271</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="E29" t="n">
         <v>288</v>
@@ -1690,10 +1690,10 @@
         <v>1956</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="E31" t="n">
         <v>373</v>
@@ -1748,10 +1748,10 @@
         <v>406</v>
       </c>
       <c r="H32" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
         <v>21</v>
@@ -1760,7 +1760,7 @@
         <v>2559</v>
       </c>
       <c r="L32" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M32" t="n">
         <v>25052</v>
@@ -1803,7 +1803,7 @@
         <v>3028</v>
       </c>
       <c r="L33" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M33" t="n">
         <v>27579</v>
@@ -1846,7 +1846,7 @@
         <v>3424</v>
       </c>
       <c r="L34" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M34" t="n">
         <v>30268</v>
@@ -1877,10 +1877,10 @@
         <v>513</v>
       </c>
       <c r="H35" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>31</v>
@@ -1889,7 +1889,7 @@
         <v>3937</v>
       </c>
       <c r="L35" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M35" t="n">
         <v>33057</v>
@@ -1932,7 +1932,7 @@
         <v>4398</v>
       </c>
       <c r="L36" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M36" t="n">
         <v>34696</v>
@@ -1945,10 +1945,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
         <v>1094</v>
@@ -1975,10 +1975,10 @@
         <v>4925</v>
       </c>
       <c r="L37" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M37" t="n">
-        <v>35790</v>
+        <v>35791</v>
       </c>
     </row>
     <row r="38">
@@ -2018,10 +2018,10 @@
         <v>5483</v>
       </c>
       <c r="L38" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M38" t="n">
-        <v>38208</v>
+        <v>38209</v>
       </c>
     </row>
     <row r="39">
@@ -2061,10 +2061,10 @@
         <v>5906</v>
       </c>
       <c r="L39" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M39" t="n">
-        <v>40976</v>
+        <v>40977</v>
       </c>
     </row>
     <row r="40">
@@ -2104,10 +2104,10 @@
         <v>6328</v>
       </c>
       <c r="L40" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M40" t="n">
-        <v>44043</v>
+        <v>44044</v>
       </c>
     </row>
     <row r="41">
@@ -2147,10 +2147,10 @@
         <v>6886</v>
       </c>
       <c r="L41" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M41" t="n">
-        <v>46784</v>
+        <v>46785</v>
       </c>
     </row>
     <row r="42">
@@ -2190,10 +2190,10 @@
         <v>7401</v>
       </c>
       <c r="L42" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M42" t="n">
-        <v>49494</v>
+        <v>49495</v>
       </c>
     </row>
     <row r="43">
@@ -2233,10 +2233,10 @@
         <v>7887</v>
       </c>
       <c r="L43" t="n">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M43" t="n">
-        <v>51011</v>
+        <v>51012</v>
       </c>
     </row>
     <row r="44">
@@ -2264,10 +2264,10 @@
         <v>319</v>
       </c>
       <c r="H44" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
         <v>28</v>
@@ -2276,10 +2276,10 @@
         <v>8206</v>
       </c>
       <c r="L44" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="M44" t="n">
-        <v>51709</v>
+        <v>51710</v>
       </c>
     </row>
     <row r="45">
@@ -2307,10 +2307,10 @@
         <v>293</v>
       </c>
       <c r="H45" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
         <v>33</v>
@@ -2319,10 +2319,10 @@
         <v>8499</v>
       </c>
       <c r="L45" t="n">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="M45" t="n">
-        <v>55167</v>
+        <v>55168</v>
       </c>
     </row>
     <row r="46">
@@ -2335,10 +2335,10 @@
         <v>3547</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>3546</v>
+        <v>3547</v>
       </c>
       <c r="E46" t="n">
         <v>419</v>
@@ -2362,10 +2362,10 @@
         <v>8918</v>
       </c>
       <c r="L46" t="n">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="M46" t="n">
-        <v>58714</v>
+        <v>58715</v>
       </c>
     </row>
     <row r="47">
@@ -2375,13 +2375,13 @@
         </is>
       </c>
       <c r="B47" t="n">
+        <v>3211</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" t="n">
         <v>3209</v>
-      </c>
-      <c r="C47" t="n">
-        <v>20</v>
-      </c>
-      <c r="D47" t="n">
-        <v>3189</v>
       </c>
       <c r="E47" t="n">
         <v>581</v>
@@ -2405,10 +2405,10 @@
         <v>9499</v>
       </c>
       <c r="L47" t="n">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="M47" t="n">
-        <v>61923</v>
+        <v>61926</v>
       </c>
     </row>
     <row r="48">
@@ -2418,13 +2418,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3765</v>
+        <v>3775</v>
       </c>
       <c r="C48" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D48" t="n">
-        <v>3749</v>
+        <v>3763</v>
       </c>
       <c r="E48" t="n">
         <v>601</v>
@@ -2436,10 +2436,10 @@
         <v>601</v>
       </c>
       <c r="H48" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
         <v>33</v>
@@ -2448,10 +2448,10 @@
         <v>10100</v>
       </c>
       <c r="L48" t="n">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="M48" t="n">
-        <v>65688</v>
+        <v>65701</v>
       </c>
     </row>
     <row r="49">
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3920</v>
+        <v>3956</v>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D49" t="n">
-        <v>3916</v>
+        <v>3921</v>
       </c>
       <c r="E49" t="n">
         <v>505</v>
@@ -2491,10 +2491,10 @@
         <v>10605</v>
       </c>
       <c r="L49" t="n">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="M49" t="n">
-        <v>69608</v>
+        <v>69657</v>
       </c>
     </row>
     <row r="50">
@@ -2507,10 +2507,10 @@
         <v>1676</v>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="E50" t="n">
         <v>559</v>
@@ -2534,10 +2534,10 @@
         <v>11164</v>
       </c>
       <c r="L50" t="n">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="M50" t="n">
-        <v>71284</v>
+        <v>71333</v>
       </c>
     </row>
     <row r="51">
@@ -2550,10 +2550,10 @@
         <v>1017</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E51" t="n">
         <v>480</v>
@@ -2577,10 +2577,10 @@
         <v>11644</v>
       </c>
       <c r="L51" t="n">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="M51" t="n">
-        <v>72301</v>
+        <v>72350</v>
       </c>
     </row>
     <row r="52">
@@ -2590,13 +2590,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4063</v>
+        <v>4139</v>
       </c>
       <c r="C52" t="n">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="D52" t="n">
-        <v>4042</v>
+        <v>4064</v>
       </c>
       <c r="E52" t="n">
         <v>388</v>
@@ -2620,10 +2620,10 @@
         <v>12032</v>
       </c>
       <c r="L52" t="n">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="M52" t="n">
-        <v>76364</v>
+        <v>76489</v>
       </c>
     </row>
     <row r="53">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3729</v>
+        <v>3738</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D53" t="n">
         <v>3729</v>
@@ -2663,10 +2663,10 @@
         <v>12412</v>
       </c>
       <c r="L53" t="n">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="M53" t="n">
-        <v>80093</v>
+        <v>80227</v>
       </c>
     </row>
     <row r="54">
@@ -2676,13 +2676,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3529</v>
+        <v>3562</v>
       </c>
       <c r="C54" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D54" t="n">
-        <v>3522</v>
+        <v>3528</v>
       </c>
       <c r="E54" t="n">
         <v>606</v>
@@ -2706,10 +2706,10 @@
         <v>13018</v>
       </c>
       <c r="L54" t="n">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="M54" t="n">
-        <v>83622</v>
+        <v>83789</v>
       </c>
     </row>
     <row r="55">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="B55" t="n">
+        <v>3769</v>
+      </c>
+      <c r="C55" t="n">
+        <v>20</v>
+      </c>
+      <c r="D55" t="n">
         <v>3749</v>
-      </c>
-      <c r="C55" t="n">
-        <v>2</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3747</v>
       </c>
       <c r="E55" t="n">
         <v>644</v>
@@ -2737,10 +2737,10 @@
         <v>644</v>
       </c>
       <c r="H55" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
         <v>36</v>
@@ -2749,10 +2749,10 @@
         <v>13662</v>
       </c>
       <c r="L55" t="n">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="M55" t="n">
-        <v>87371</v>
+        <v>87558</v>
       </c>
     </row>
     <row r="56">
@@ -2762,13 +2762,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2903</v>
+        <v>2955</v>
       </c>
       <c r="C56" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D56" t="n">
-        <v>2890</v>
+        <v>2904</v>
       </c>
       <c r="E56" t="n">
         <v>702</v>
@@ -2792,10 +2792,10 @@
         <v>14364</v>
       </c>
       <c r="L56" t="n">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="M56" t="n">
-        <v>90274</v>
+        <v>90513</v>
       </c>
     </row>
     <row r="57">
@@ -2805,13 +2805,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2006</v>
+        <v>2042</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D57" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E57" t="n">
         <v>626</v>
@@ -2835,10 +2835,10 @@
         <v>14990</v>
       </c>
       <c r="L57" t="n">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="M57" t="n">
-        <v>92280</v>
+        <v>92555</v>
       </c>
     </row>
     <row r="58">
@@ -2848,13 +2848,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1676</v>
+        <v>1700</v>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D58" t="n">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="E58" t="n">
         <v>952</v>
@@ -2866,10 +2866,10 @@
         <v>952</v>
       </c>
       <c r="H58" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
         <v>32</v>
@@ -2878,10 +2878,10 @@
         <v>15942</v>
       </c>
       <c r="L58" t="n">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="M58" t="n">
-        <v>93956</v>
+        <v>94255</v>
       </c>
     </row>
     <row r="59">
@@ -2891,13 +2891,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3909</v>
+        <v>3946</v>
       </c>
       <c r="C59" t="n">
         <v>39</v>
       </c>
       <c r="D59" t="n">
-        <v>3870</v>
+        <v>3907</v>
       </c>
       <c r="E59" t="n">
         <v>625</v>
@@ -2921,10 +2921,10 @@
         <v>16567</v>
       </c>
       <c r="L59" t="n">
-        <v>997</v>
+        <v>1004</v>
       </c>
       <c r="M59" t="n">
-        <v>97865</v>
+        <v>98201</v>
       </c>
     </row>
     <row r="60">
@@ -2934,13 +2934,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4069</v>
+        <v>4186</v>
       </c>
       <c r="C60" t="n">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="D60" t="n">
-        <v>4018</v>
+        <v>4095</v>
       </c>
       <c r="E60" t="n">
         <v>594</v>
@@ -2964,10 +2964,10 @@
         <v>17161</v>
       </c>
       <c r="L60" t="n">
-        <v>1030</v>
+        <v>1037</v>
       </c>
       <c r="M60" t="n">
-        <v>101934</v>
+        <v>102387</v>
       </c>
     </row>
     <row r="61">
@@ -2977,40 +2977,40 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>3965</v>
+        <v>4230</v>
       </c>
       <c r="C61" t="n">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="D61" t="n">
-        <v>3769</v>
+        <v>4047</v>
       </c>
       <c r="E61" t="n">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H61" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
         <v>35</v>
       </c>
       <c r="K61" t="n">
-        <v>17822</v>
+        <v>17821</v>
       </c>
       <c r="L61" t="n">
-        <v>1065</v>
+        <v>1075</v>
       </c>
       <c r="M61" t="n">
-        <v>105899</v>
+        <v>106617</v>
       </c>
     </row>
     <row r="62">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>3491</v>
+        <v>3927</v>
       </c>
       <c r="C62" t="n">
-        <v>1113</v>
+        <v>364</v>
       </c>
       <c r="D62" t="n">
-        <v>2378</v>
+        <v>3563</v>
       </c>
       <c r="E62" t="n">
         <v>803</v>
@@ -3038,22 +3038,22 @@
         <v>803</v>
       </c>
       <c r="H62" t="n">
+        <v>42</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3</v>
+      </c>
+      <c r="J62" t="n">
         <v>39</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="n">
-        <v>38</v>
-      </c>
       <c r="K62" t="n">
-        <v>18625</v>
+        <v>18624</v>
       </c>
       <c r="L62" t="n">
-        <v>1104</v>
+        <v>1117</v>
       </c>
       <c r="M62" t="n">
-        <v>109390</v>
+        <v>110544</v>
       </c>
     </row>
     <row r="63">
@@ -3063,40 +3063,40 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>3235</v>
+        <v>4014</v>
       </c>
       <c r="C63" t="n">
-        <v>2457</v>
+        <v>817</v>
       </c>
       <c r="D63" t="n">
-        <v>778</v>
+        <v>3197</v>
       </c>
       <c r="E63" t="n">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="H63" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J63" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K63" t="n">
-        <v>19289</v>
+        <v>19282</v>
       </c>
       <c r="L63" t="n">
-        <v>1123</v>
+        <v>1144</v>
       </c>
       <c r="M63" t="n">
-        <v>112625</v>
+        <v>114558</v>
       </c>
     </row>
     <row r="64">
@@ -3106,40 +3106,40 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>526</v>
+        <v>1034</v>
       </c>
       <c r="C64" t="n">
-        <v>373</v>
+        <v>582</v>
       </c>
       <c r="D64" t="n">
-        <v>153</v>
+        <v>452</v>
       </c>
       <c r="E64" t="n">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>636</v>
       </c>
       <c r="H64" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I64" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J64" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="K64" t="n">
-        <v>19928</v>
+        <v>19918</v>
       </c>
       <c r="L64" t="n">
-        <v>1146</v>
+        <v>1176</v>
       </c>
       <c r="M64" t="n">
-        <v>113151</v>
+        <v>115592</v>
       </c>
     </row>
     <row r="65">
@@ -3149,40 +3149,83 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="C65" t="n">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E65" t="n">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F65" t="n">
-        <v>579</v>
+        <v>3</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="H65" t="n">
+        <v>23</v>
+      </c>
+      <c r="I65" t="n">
+        <v>18</v>
+      </c>
+      <c r="J65" t="n">
         <v>5</v>
       </c>
-      <c r="I65" t="n">
-        <v>5</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
       <c r="K65" t="n">
-        <v>20507</v>
+        <v>20495</v>
       </c>
       <c r="L65" t="n">
-        <v>1151</v>
+        <v>1199</v>
       </c>
       <c r="M65" t="n">
-        <v>113297</v>
+        <v>115765</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>69</v>
+      </c>
+      <c r="C66" t="n">
+        <v>69</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>538</v>
+      </c>
+      <c r="F66" t="n">
+        <v>538</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>14</v>
+      </c>
+      <c r="I66" t="n">
+        <v>14</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>21033</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1213</v>
+      </c>
+      <c r="M66" t="n">
+        <v>115834</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1687,10 +1687,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>1956</v>
@@ -1720,7 +1720,7 @@
         <v>91</v>
       </c>
       <c r="M31" t="n">
-        <v>22743</v>
+        <v>22744</v>
       </c>
     </row>
     <row r="32">
@@ -1751,10 +1751,10 @@
         <v>22</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K32" t="n">
         <v>2559</v>
@@ -1763,7 +1763,7 @@
         <v>113</v>
       </c>
       <c r="M32" t="n">
-        <v>25052</v>
+        <v>25053</v>
       </c>
     </row>
     <row r="33">
@@ -1806,7 +1806,7 @@
         <v>135</v>
       </c>
       <c r="M33" t="n">
-        <v>27579</v>
+        <v>27580</v>
       </c>
     </row>
     <row r="34">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2689</v>
+        <v>2690</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>2689</v>
@@ -1849,7 +1849,7 @@
         <v>156</v>
       </c>
       <c r="M34" t="n">
-        <v>30268</v>
+        <v>30270</v>
       </c>
     </row>
     <row r="35">
@@ -1859,10 +1859,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2789</v>
+        <v>2790</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
         <v>2789</v>
@@ -1880,10 +1880,10 @@
         <v>32</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K35" t="n">
         <v>3937</v>
@@ -1892,7 +1892,7 @@
         <v>188</v>
       </c>
       <c r="M35" t="n">
-        <v>33057</v>
+        <v>33060</v>
       </c>
     </row>
     <row r="36">
@@ -1902,13 +1902,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="E36" t="n">
         <v>461</v>
@@ -1935,7 +1935,7 @@
         <v>213</v>
       </c>
       <c r="M36" t="n">
-        <v>34696</v>
+        <v>34698</v>
       </c>
     </row>
     <row r="37">
@@ -1948,10 +1948,10 @@
         <v>1095</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E37" t="n">
         <v>527</v>
@@ -1978,7 +1978,7 @@
         <v>247</v>
       </c>
       <c r="M37" t="n">
-        <v>35791</v>
+        <v>35793</v>
       </c>
     </row>
     <row r="38">
@@ -2021,7 +2021,7 @@
         <v>272</v>
       </c>
       <c r="M38" t="n">
-        <v>38209</v>
+        <v>38211</v>
       </c>
     </row>
     <row r="39">
@@ -2064,7 +2064,7 @@
         <v>308</v>
       </c>
       <c r="M39" t="n">
-        <v>40977</v>
+        <v>40979</v>
       </c>
     </row>
     <row r="40">
@@ -2107,7 +2107,7 @@
         <v>336</v>
       </c>
       <c r="M40" t="n">
-        <v>44044</v>
+        <v>44046</v>
       </c>
     </row>
     <row r="41">
@@ -2150,7 +2150,7 @@
         <v>371</v>
       </c>
       <c r="M41" t="n">
-        <v>46785</v>
+        <v>46787</v>
       </c>
     </row>
     <row r="42">
@@ -2193,7 +2193,7 @@
         <v>396</v>
       </c>
       <c r="M42" t="n">
-        <v>49495</v>
+        <v>49497</v>
       </c>
     </row>
     <row r="43">
@@ -2236,7 +2236,7 @@
         <v>416</v>
       </c>
       <c r="M43" t="n">
-        <v>51012</v>
+        <v>51014</v>
       </c>
     </row>
     <row r="44">
@@ -2267,10 +2267,10 @@
         <v>29</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K44" t="n">
         <v>8206</v>
@@ -2279,7 +2279,7 @@
         <v>445</v>
       </c>
       <c r="M44" t="n">
-        <v>51710</v>
+        <v>51712</v>
       </c>
     </row>
     <row r="45">
@@ -2310,10 +2310,10 @@
         <v>34</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K45" t="n">
         <v>8499</v>
@@ -2322,7 +2322,7 @@
         <v>479</v>
       </c>
       <c r="M45" t="n">
-        <v>55168</v>
+        <v>55170</v>
       </c>
     </row>
     <row r="46">
@@ -2332,13 +2332,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3547</v>
+        <v>3549</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>3547</v>
+        <v>3546</v>
       </c>
       <c r="E46" t="n">
         <v>419</v>
@@ -2365,7 +2365,7 @@
         <v>524</v>
       </c>
       <c r="M46" t="n">
-        <v>58715</v>
+        <v>58719</v>
       </c>
     </row>
     <row r="47">
@@ -2378,10 +2378,10 @@
         <v>3211</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>3209</v>
+        <v>3211</v>
       </c>
       <c r="E47" t="n">
         <v>581</v>
@@ -2408,7 +2408,7 @@
         <v>561</v>
       </c>
       <c r="M47" t="n">
-        <v>61926</v>
+        <v>61930</v>
       </c>
     </row>
     <row r="48">
@@ -2421,37 +2421,37 @@
         <v>3775</v>
       </c>
       <c r="C48" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>3763</v>
+        <v>3774</v>
       </c>
       <c r="E48" t="n">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H48" t="n">
         <v>34</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K48" t="n">
-        <v>10100</v>
+        <v>10099</v>
       </c>
       <c r="L48" t="n">
         <v>595</v>
       </c>
       <c r="M48" t="n">
-        <v>65701</v>
+        <v>65705</v>
       </c>
     </row>
     <row r="49">
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3956</v>
+        <v>3961</v>
       </c>
       <c r="C49" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>3921</v>
+        <v>3955</v>
       </c>
       <c r="E49" t="n">
         <v>505</v>
@@ -2488,13 +2488,13 @@
         <v>35</v>
       </c>
       <c r="K49" t="n">
-        <v>10605</v>
+        <v>10604</v>
       </c>
       <c r="L49" t="n">
         <v>630</v>
       </c>
       <c r="M49" t="n">
-        <v>69657</v>
+        <v>69666</v>
       </c>
     </row>
     <row r="50">
@@ -2504,13 +2504,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E50" t="n">
         <v>559</v>
@@ -2531,13 +2531,13 @@
         <v>28</v>
       </c>
       <c r="K50" t="n">
-        <v>11164</v>
+        <v>11163</v>
       </c>
       <c r="L50" t="n">
         <v>658</v>
       </c>
       <c r="M50" t="n">
-        <v>71333</v>
+        <v>71341</v>
       </c>
     </row>
     <row r="51">
@@ -2547,22 +2547,22 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="C51" t="n">
         <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="E51" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H51" t="n">
         <v>35</v>
@@ -2574,13 +2574,13 @@
         <v>35</v>
       </c>
       <c r="K51" t="n">
-        <v>11644</v>
+        <v>11642</v>
       </c>
       <c r="L51" t="n">
         <v>693</v>
       </c>
       <c r="M51" t="n">
-        <v>72350</v>
+        <v>72360</v>
       </c>
     </row>
     <row r="52">
@@ -2590,13 +2590,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4139</v>
+        <v>4212</v>
       </c>
       <c r="C52" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D52" t="n">
-        <v>4064</v>
+        <v>4141</v>
       </c>
       <c r="E52" t="n">
         <v>388</v>
@@ -2608,22 +2608,22 @@
         <v>388</v>
       </c>
       <c r="H52" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
         <v>36</v>
       </c>
       <c r="K52" t="n">
-        <v>12032</v>
+        <v>12030</v>
       </c>
       <c r="L52" t="n">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M52" t="n">
-        <v>76489</v>
+        <v>76572</v>
       </c>
     </row>
     <row r="53">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B53" t="n">
+        <v>3743</v>
+      </c>
+      <c r="C53" t="n">
+        <v>5</v>
+      </c>
+      <c r="D53" t="n">
         <v>3738</v>
-      </c>
-      <c r="C53" t="n">
-        <v>9</v>
-      </c>
-      <c r="D53" t="n">
-        <v>3729</v>
       </c>
       <c r="E53" t="n">
         <v>380</v>
@@ -2651,22 +2651,22 @@
         <v>380</v>
       </c>
       <c r="H53" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
         <v>45</v>
       </c>
       <c r="K53" t="n">
-        <v>12412</v>
+        <v>12410</v>
       </c>
       <c r="L53" t="n">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="M53" t="n">
-        <v>80227</v>
+        <v>80315</v>
       </c>
     </row>
     <row r="54">
@@ -2676,22 +2676,22 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3562</v>
+        <v>3580</v>
       </c>
       <c r="C54" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D54" t="n">
-        <v>3528</v>
+        <v>3561</v>
       </c>
       <c r="E54" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H54" t="n">
         <v>47</v>
@@ -2703,13 +2703,13 @@
         <v>47</v>
       </c>
       <c r="K54" t="n">
-        <v>13018</v>
+        <v>13015</v>
       </c>
       <c r="L54" t="n">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="M54" t="n">
-        <v>83789</v>
+        <v>83895</v>
       </c>
     </row>
     <row r="55">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3769</v>
+        <v>3807</v>
       </c>
       <c r="C55" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D55" t="n">
-        <v>3749</v>
+        <v>3766</v>
       </c>
       <c r="E55" t="n">
         <v>644</v>
@@ -2737,22 +2737,22 @@
         <v>644</v>
       </c>
       <c r="H55" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K55" t="n">
-        <v>13662</v>
+        <v>13659</v>
       </c>
       <c r="L55" t="n">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="M55" t="n">
-        <v>87558</v>
+        <v>87702</v>
       </c>
     </row>
     <row r="56">
@@ -2762,13 +2762,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2955</v>
+        <v>2976</v>
       </c>
       <c r="C56" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D56" t="n">
-        <v>2904</v>
+        <v>2953</v>
       </c>
       <c r="E56" t="n">
         <v>702</v>
@@ -2789,13 +2789,13 @@
         <v>33</v>
       </c>
       <c r="K56" t="n">
-        <v>14364</v>
+        <v>14361</v>
       </c>
       <c r="L56" t="n">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="M56" t="n">
-        <v>90513</v>
+        <v>90678</v>
       </c>
     </row>
     <row r="57">
@@ -2805,19 +2805,19 @@
         </is>
       </c>
       <c r="B57" t="n">
+        <v>2052</v>
+      </c>
+      <c r="C57" t="n">
+        <v>10</v>
+      </c>
+      <c r="D57" t="n">
         <v>2042</v>
       </c>
-      <c r="C57" t="n">
-        <v>35</v>
-      </c>
-      <c r="D57" t="n">
-        <v>2007</v>
-      </c>
       <c r="E57" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
         <v>626</v>
@@ -2832,13 +2832,13 @@
         <v>40</v>
       </c>
       <c r="K57" t="n">
-        <v>14990</v>
+        <v>14988</v>
       </c>
       <c r="L57" t="n">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="M57" t="n">
-        <v>92555</v>
+        <v>92730</v>
       </c>
     </row>
     <row r="58">
@@ -2848,40 +2848,40 @@
         </is>
       </c>
       <c r="B58" t="n">
+        <v>1722</v>
+      </c>
+      <c r="C58" t="n">
+        <v>22</v>
+      </c>
+      <c r="D58" t="n">
         <v>1700</v>
       </c>
-      <c r="C58" t="n">
-        <v>26</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1674</v>
-      </c>
       <c r="E58" t="n">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H58" t="n">
         <v>33</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K58" t="n">
-        <v>15942</v>
+        <v>15939</v>
       </c>
       <c r="L58" t="n">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="M58" t="n">
-        <v>94255</v>
+        <v>94452</v>
       </c>
     </row>
     <row r="59">
@@ -2891,13 +2891,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3946</v>
+        <v>4005</v>
       </c>
       <c r="C59" t="n">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D59" t="n">
-        <v>3907</v>
+        <v>3945</v>
       </c>
       <c r="E59" t="n">
         <v>625</v>
@@ -2909,22 +2909,22 @@
         <v>625</v>
       </c>
       <c r="H59" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
         <v>40</v>
       </c>
       <c r="K59" t="n">
-        <v>16567</v>
+        <v>16564</v>
       </c>
       <c r="L59" t="n">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="M59" t="n">
-        <v>98201</v>
+        <v>98457</v>
       </c>
     </row>
     <row r="60">
@@ -2934,19 +2934,19 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4186</v>
+        <v>4245</v>
       </c>
       <c r="C60" t="n">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="D60" t="n">
-        <v>4095</v>
+        <v>4187</v>
       </c>
       <c r="E60" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
         <v>594</v>
@@ -2961,13 +2961,13 @@
         <v>33</v>
       </c>
       <c r="K60" t="n">
-        <v>17161</v>
+        <v>17160</v>
       </c>
       <c r="L60" t="n">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="M60" t="n">
-        <v>102387</v>
+        <v>102702</v>
       </c>
     </row>
     <row r="61">
@@ -2977,40 +2977,40 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4230</v>
+        <v>4329</v>
       </c>
       <c r="C61" t="n">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="D61" t="n">
-        <v>4047</v>
+        <v>4229</v>
       </c>
       <c r="E61" t="n">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H61" t="n">
         <v>38</v>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K61" t="n">
-        <v>17821</v>
+        <v>17819</v>
       </c>
       <c r="L61" t="n">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="M61" t="n">
-        <v>106617</v>
+        <v>107031</v>
       </c>
     </row>
     <row r="62">
@@ -3020,40 +3020,40 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>3927</v>
+        <v>4213</v>
       </c>
       <c r="C62" t="n">
-        <v>364</v>
+        <v>289</v>
       </c>
       <c r="D62" t="n">
-        <v>3563</v>
+        <v>3924</v>
       </c>
       <c r="E62" t="n">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="H62" t="n">
         <v>42</v>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K62" t="n">
-        <v>18624</v>
+        <v>18619</v>
       </c>
       <c r="L62" t="n">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="M62" t="n">
-        <v>110544</v>
+        <v>111244</v>
       </c>
     </row>
     <row r="63">
@@ -3063,40 +3063,40 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4014</v>
+        <v>4917</v>
       </c>
       <c r="C63" t="n">
-        <v>817</v>
+        <v>914</v>
       </c>
       <c r="D63" t="n">
-        <v>3197</v>
+        <v>4003</v>
       </c>
       <c r="E63" t="n">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G63" t="n">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="H63" t="n">
+        <v>30</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3</v>
+      </c>
+      <c r="J63" t="n">
         <v>27</v>
       </c>
-      <c r="I63" t="n">
-        <v>7</v>
-      </c>
-      <c r="J63" t="n">
-        <v>20</v>
-      </c>
       <c r="K63" t="n">
-        <v>19282</v>
+        <v>19276</v>
       </c>
       <c r="L63" t="n">
-        <v>1144</v>
+        <v>1151</v>
       </c>
       <c r="M63" t="n">
-        <v>114558</v>
+        <v>116161</v>
       </c>
     </row>
     <row r="64">
@@ -3106,40 +3106,40 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1034</v>
+        <v>2316</v>
       </c>
       <c r="C64" t="n">
-        <v>582</v>
+        <v>1284</v>
       </c>
       <c r="D64" t="n">
-        <v>452</v>
+        <v>1032</v>
       </c>
       <c r="E64" t="n">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
         <v>636</v>
       </c>
       <c r="H64" t="n">
+        <v>35</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3</v>
+      </c>
+      <c r="J64" t="n">
         <v>32</v>
       </c>
-      <c r="I64" t="n">
-        <v>10</v>
-      </c>
-      <c r="J64" t="n">
-        <v>22</v>
-      </c>
       <c r="K64" t="n">
-        <v>19918</v>
+        <v>19913</v>
       </c>
       <c r="L64" t="n">
-        <v>1176</v>
+        <v>1186</v>
       </c>
       <c r="M64" t="n">
-        <v>115592</v>
+        <v>118477</v>
       </c>
     </row>
     <row r="65">
@@ -3149,40 +3149,40 @@
         </is>
       </c>
       <c r="B65" t="n">
+        <v>1191</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D65" t="n">
         <v>173</v>
       </c>
-      <c r="C65" t="n">
-        <v>103</v>
-      </c>
-      <c r="D65" t="n">
-        <v>70</v>
-      </c>
       <c r="E65" t="n">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G65" t="n">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H65" t="n">
+        <v>28</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5</v>
+      </c>
+      <c r="J65" t="n">
         <v>23</v>
       </c>
-      <c r="I65" t="n">
-        <v>18</v>
-      </c>
-      <c r="J65" t="n">
-        <v>5</v>
-      </c>
       <c r="K65" t="n">
-        <v>20495</v>
+        <v>20488</v>
       </c>
       <c r="L65" t="n">
-        <v>1199</v>
+        <v>1214</v>
       </c>
       <c r="M65" t="n">
-        <v>115765</v>
+        <v>119668</v>
       </c>
     </row>
     <row r="66">
@@ -3192,40 +3192,83 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>69</v>
+        <v>705</v>
       </c>
       <c r="C66" t="n">
-        <v>69</v>
+        <v>640</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E66" t="n">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F66" t="n">
-        <v>538</v>
+        <v>3</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="H66" t="n">
+        <v>33</v>
+      </c>
+      <c r="I66" t="n">
+        <v>19</v>
+      </c>
+      <c r="J66" t="n">
         <v>14</v>
       </c>
-      <c r="I66" t="n">
-        <v>14</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
       <c r="K66" t="n">
-        <v>21033</v>
+        <v>21019</v>
       </c>
       <c r="L66" t="n">
-        <v>1213</v>
+        <v>1247</v>
       </c>
       <c r="M66" t="n">
-        <v>115834</v>
+        <v>120373</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>123</v>
+      </c>
+      <c r="C67" t="n">
+        <v>123</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>851</v>
+      </c>
+      <c r="F67" t="n">
+        <v>850</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="n">
+        <v>17</v>
+      </c>
+      <c r="I67" t="n">
+        <v>17</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>21870</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1264</v>
+      </c>
+      <c r="M67" t="n">
+        <v>120496</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1690,10 +1690,10 @@
         <v>1957</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="E31" t="n">
         <v>373</v>
@@ -1819,10 +1819,10 @@
         <v>2690</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2689</v>
+        <v>2690</v>
       </c>
       <c r="E34" t="n">
         <v>396</v>
@@ -1862,10 +1862,10 @@
         <v>2790</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2789</v>
+        <v>2790</v>
       </c>
       <c r="E35" t="n">
         <v>513</v>
@@ -1988,13 +1988,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="E38" t="n">
         <v>558</v>
@@ -2021,7 +2021,7 @@
         <v>272</v>
       </c>
       <c r="M38" t="n">
-        <v>38211</v>
+        <v>38210</v>
       </c>
     </row>
     <row r="39">
@@ -2064,7 +2064,7 @@
         <v>308</v>
       </c>
       <c r="M39" t="n">
-        <v>40979</v>
+        <v>40978</v>
       </c>
     </row>
     <row r="40">
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
         <v>3067</v>
@@ -2332,13 +2332,13 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>3550</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
         <v>3549</v>
-      </c>
-      <c r="C46" t="n">
-        <v>3</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3546</v>
       </c>
       <c r="E46" t="n">
         <v>419</v>
@@ -2365,7 +2365,7 @@
         <v>524</v>
       </c>
       <c r="M46" t="n">
-        <v>58719</v>
+        <v>58720</v>
       </c>
     </row>
     <row r="47">
@@ -2408,7 +2408,7 @@
         <v>561</v>
       </c>
       <c r="M47" t="n">
-        <v>61930</v>
+        <v>61931</v>
       </c>
     </row>
     <row r="48">
@@ -2418,22 +2418,22 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>3774</v>
       </c>
       <c r="E48" t="n">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H48" t="n">
         <v>34</v>
@@ -2445,7 +2445,7 @@
         <v>34</v>
       </c>
       <c r="K48" t="n">
-        <v>10099</v>
+        <v>10100</v>
       </c>
       <c r="L48" t="n">
         <v>595</v>
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="B49" t="n">
+        <v>3962</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
         <v>3961</v>
-      </c>
-      <c r="C49" t="n">
-        <v>6</v>
-      </c>
-      <c r="D49" t="n">
-        <v>3955</v>
       </c>
       <c r="E49" t="n">
         <v>505</v>
@@ -2488,13 +2488,13 @@
         <v>35</v>
       </c>
       <c r="K49" t="n">
-        <v>10604</v>
+        <v>10605</v>
       </c>
       <c r="L49" t="n">
         <v>630</v>
       </c>
       <c r="M49" t="n">
-        <v>69666</v>
+        <v>69667</v>
       </c>
     </row>
     <row r="50">
@@ -2531,13 +2531,13 @@
         <v>28</v>
       </c>
       <c r="K50" t="n">
-        <v>11163</v>
+        <v>11164</v>
       </c>
       <c r="L50" t="n">
         <v>658</v>
       </c>
       <c r="M50" t="n">
-        <v>71341</v>
+        <v>71342</v>
       </c>
     </row>
     <row r="51">
@@ -2550,10 +2550,10 @@
         <v>1019</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="E51" t="n">
         <v>479</v>
@@ -2574,13 +2574,13 @@
         <v>35</v>
       </c>
       <c r="K51" t="n">
-        <v>11642</v>
+        <v>11643</v>
       </c>
       <c r="L51" t="n">
         <v>693</v>
       </c>
       <c r="M51" t="n">
-        <v>72360</v>
+        <v>72361</v>
       </c>
     </row>
     <row r="52">
@@ -2590,13 +2590,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4212</v>
+        <v>4224</v>
       </c>
       <c r="C52" t="n">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D52" t="n">
-        <v>4141</v>
+        <v>4211</v>
       </c>
       <c r="E52" t="n">
         <v>388</v>
@@ -2611,19 +2611,19 @@
         <v>37</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K52" t="n">
-        <v>12030</v>
+        <v>12031</v>
       </c>
       <c r="L52" t="n">
         <v>730</v>
       </c>
       <c r="M52" t="n">
-        <v>76572</v>
+        <v>76585</v>
       </c>
     </row>
     <row r="53">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3743</v>
+        <v>3755</v>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D53" t="n">
-        <v>3738</v>
+        <v>3744</v>
       </c>
       <c r="E53" t="n">
         <v>380</v>
@@ -2651,22 +2651,22 @@
         <v>380</v>
       </c>
       <c r="H53" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K53" t="n">
-        <v>12410</v>
+        <v>12411</v>
       </c>
       <c r="L53" t="n">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="M53" t="n">
-        <v>80315</v>
+        <v>80340</v>
       </c>
     </row>
     <row r="54">
@@ -2676,13 +2676,13 @@
         </is>
       </c>
       <c r="B54" t="n">
+        <v>3588</v>
+      </c>
+      <c r="C54" t="n">
+        <v>8</v>
+      </c>
+      <c r="D54" t="n">
         <v>3580</v>
-      </c>
-      <c r="C54" t="n">
-        <v>19</v>
-      </c>
-      <c r="D54" t="n">
-        <v>3561</v>
       </c>
       <c r="E54" t="n">
         <v>605</v>
@@ -2703,13 +2703,13 @@
         <v>47</v>
       </c>
       <c r="K54" t="n">
-        <v>13015</v>
+        <v>13016</v>
       </c>
       <c r="L54" t="n">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="M54" t="n">
-        <v>83895</v>
+        <v>83928</v>
       </c>
     </row>
     <row r="55">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3807</v>
+        <v>3846</v>
       </c>
       <c r="C55" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D55" t="n">
-        <v>3766</v>
+        <v>3809</v>
       </c>
       <c r="E55" t="n">
         <v>644</v>
@@ -2740,19 +2740,19 @@
         <v>38</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K55" t="n">
-        <v>13659</v>
+        <v>13660</v>
       </c>
       <c r="L55" t="n">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="M55" t="n">
-        <v>87702</v>
+        <v>87774</v>
       </c>
     </row>
     <row r="56">
@@ -2762,13 +2762,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2976</v>
+        <v>3073</v>
       </c>
       <c r="C56" t="n">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D56" t="n">
-        <v>2953</v>
+        <v>2975</v>
       </c>
       <c r="E56" t="n">
         <v>702</v>
@@ -2789,13 +2789,13 @@
         <v>33</v>
       </c>
       <c r="K56" t="n">
-        <v>14361</v>
+        <v>14362</v>
       </c>
       <c r="L56" t="n">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="M56" t="n">
-        <v>90678</v>
+        <v>90847</v>
       </c>
     </row>
     <row r="57">
@@ -2805,22 +2805,22 @@
         </is>
       </c>
       <c r="B57" t="n">
+        <v>2060</v>
+      </c>
+      <c r="C57" t="n">
+        <v>8</v>
+      </c>
+      <c r="D57" t="n">
         <v>2052</v>
-      </c>
-      <c r="C57" t="n">
-        <v>10</v>
-      </c>
-      <c r="D57" t="n">
-        <v>2042</v>
       </c>
       <c r="E57" t="n">
         <v>627</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H57" t="n">
         <v>40</v>
@@ -2832,13 +2832,13 @@
         <v>40</v>
       </c>
       <c r="K57" t="n">
-        <v>14988</v>
+        <v>14989</v>
       </c>
       <c r="L57" t="n">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="M57" t="n">
-        <v>92730</v>
+        <v>92907</v>
       </c>
     </row>
     <row r="58">
@@ -2848,13 +2848,13 @@
         </is>
       </c>
       <c r="B58" t="n">
+        <v>1728</v>
+      </c>
+      <c r="C58" t="n">
+        <v>6</v>
+      </c>
+      <c r="D58" t="n">
         <v>1722</v>
-      </c>
-      <c r="C58" t="n">
-        <v>22</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1700</v>
       </c>
       <c r="E58" t="n">
         <v>951</v>
@@ -2875,13 +2875,13 @@
         <v>33</v>
       </c>
       <c r="K58" t="n">
-        <v>15939</v>
+        <v>15940</v>
       </c>
       <c r="L58" t="n">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="M58" t="n">
-        <v>94452</v>
+        <v>94635</v>
       </c>
     </row>
     <row r="59">
@@ -2891,13 +2891,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4005</v>
+        <v>4047</v>
       </c>
       <c r="C59" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D59" t="n">
-        <v>3945</v>
+        <v>4009</v>
       </c>
       <c r="E59" t="n">
         <v>625</v>
@@ -2912,19 +2912,19 @@
         <v>41</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K59" t="n">
-        <v>16564</v>
+        <v>16565</v>
       </c>
       <c r="L59" t="n">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="M59" t="n">
-        <v>98457</v>
+        <v>98682</v>
       </c>
     </row>
     <row r="60">
@@ -2934,22 +2934,22 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4245</v>
+        <v>4279</v>
       </c>
       <c r="C60" t="n">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D60" t="n">
-        <v>4187</v>
+        <v>4246</v>
       </c>
       <c r="E60" t="n">
         <v>596</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H60" t="n">
         <v>33</v>
@@ -2961,13 +2961,13 @@
         <v>33</v>
       </c>
       <c r="K60" t="n">
-        <v>17160</v>
+        <v>17161</v>
       </c>
       <c r="L60" t="n">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="M60" t="n">
-        <v>102702</v>
+        <v>102961</v>
       </c>
     </row>
     <row r="61">
@@ -2977,13 +2977,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4329</v>
+        <v>4382</v>
       </c>
       <c r="C61" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="D61" t="n">
-        <v>4229</v>
+        <v>4325</v>
       </c>
       <c r="E61" t="n">
         <v>659</v>
@@ -3004,13 +3004,13 @@
         <v>38</v>
       </c>
       <c r="K61" t="n">
-        <v>17819</v>
+        <v>17820</v>
       </c>
       <c r="L61" t="n">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="M61" t="n">
-        <v>107031</v>
+        <v>107343</v>
       </c>
     </row>
     <row r="62">
@@ -3020,22 +3020,22 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4213</v>
+        <v>4283</v>
       </c>
       <c r="C62" t="n">
-        <v>289</v>
+        <v>71</v>
       </c>
       <c r="D62" t="n">
-        <v>3924</v>
+        <v>4212</v>
       </c>
       <c r="E62" t="n">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H62" t="n">
         <v>42</v>
@@ -3047,13 +3047,13 @@
         <v>42</v>
       </c>
       <c r="K62" t="n">
-        <v>18619</v>
+        <v>18618</v>
       </c>
       <c r="L62" t="n">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="M62" t="n">
-        <v>111244</v>
+        <v>111626</v>
       </c>
     </row>
     <row r="63">
@@ -3063,19 +3063,19 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4917</v>
+        <v>5444</v>
       </c>
       <c r="C63" t="n">
-        <v>914</v>
+        <v>532</v>
       </c>
       <c r="D63" t="n">
-        <v>4003</v>
+        <v>4912</v>
       </c>
       <c r="E63" t="n">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>654</v>
@@ -3084,19 +3084,19 @@
         <v>30</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K63" t="n">
-        <v>19276</v>
+        <v>19272</v>
       </c>
       <c r="L63" t="n">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="M63" t="n">
-        <v>116161</v>
+        <v>117070</v>
       </c>
     </row>
     <row r="64">
@@ -3106,19 +3106,19 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2316</v>
+        <v>2626</v>
       </c>
       <c r="C64" t="n">
-        <v>1284</v>
+        <v>312</v>
       </c>
       <c r="D64" t="n">
-        <v>1032</v>
+        <v>2314</v>
       </c>
       <c r="E64" t="n">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>636</v>
@@ -3127,19 +3127,19 @@
         <v>35</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K64" t="n">
-        <v>19913</v>
+        <v>19908</v>
       </c>
       <c r="L64" t="n">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="M64" t="n">
-        <v>118477</v>
+        <v>119696</v>
       </c>
     </row>
     <row r="65">
@@ -3149,40 +3149,40 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1191</v>
+        <v>1519</v>
       </c>
       <c r="C65" t="n">
-        <v>1018</v>
+        <v>338</v>
       </c>
       <c r="D65" t="n">
-        <v>173</v>
+        <v>1181</v>
       </c>
       <c r="E65" t="n">
         <v>575</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H65" t="n">
+        <v>29</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
         <v>28</v>
       </c>
-      <c r="I65" t="n">
-        <v>5</v>
-      </c>
-      <c r="J65" t="n">
-        <v>23</v>
-      </c>
       <c r="K65" t="n">
-        <v>20488</v>
+        <v>20483</v>
       </c>
       <c r="L65" t="n">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="M65" t="n">
-        <v>119668</v>
+        <v>121215</v>
       </c>
     </row>
     <row r="66">
@@ -3192,40 +3192,40 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>705</v>
+        <v>2848</v>
       </c>
       <c r="C66" t="n">
-        <v>640</v>
+        <v>2149</v>
       </c>
       <c r="D66" t="n">
-        <v>65</v>
+        <v>699</v>
       </c>
       <c r="E66" t="n">
+        <v>532</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="n">
         <v>531</v>
       </c>
-      <c r="F66" t="n">
-        <v>3</v>
-      </c>
-      <c r="G66" t="n">
-        <v>528</v>
-      </c>
       <c r="H66" t="n">
+        <v>34</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
         <v>33</v>
       </c>
-      <c r="I66" t="n">
-        <v>19</v>
-      </c>
-      <c r="J66" t="n">
-        <v>14</v>
-      </c>
       <c r="K66" t="n">
-        <v>21019</v>
+        <v>21015</v>
       </c>
       <c r="L66" t="n">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="M66" t="n">
-        <v>120373</v>
+        <v>124063</v>
       </c>
     </row>
     <row r="67">
@@ -3235,40 +3235,83 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>123</v>
+        <v>621</v>
       </c>
       <c r="C67" t="n">
-        <v>123</v>
+        <v>504</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="E67" t="n">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="F67" t="n">
-        <v>850</v>
+        <v>4</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>840</v>
       </c>
       <c r="H67" t="n">
+        <v>31</v>
+      </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
         <v>17</v>
       </c>
-      <c r="I67" t="n">
-        <v>17</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
       <c r="K67" t="n">
-        <v>21870</v>
+        <v>21859</v>
       </c>
       <c r="L67" t="n">
-        <v>1264</v>
+        <v>1281</v>
       </c>
       <c r="M67" t="n">
-        <v>120496</v>
+        <v>124684</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2020-05-06</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>98</v>
+      </c>
+      <c r="C68" t="n">
+        <v>98</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>644</v>
+      </c>
+      <c r="F68" t="n">
+        <v>644</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>14</v>
+      </c>
+      <c r="I68" t="n">
+        <v>14</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>22503</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1295</v>
+      </c>
+      <c r="M68" t="n">
+        <v>124782</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>2768</v>
@@ -2064,7 +2064,7 @@
         <v>308</v>
       </c>
       <c r="M39" t="n">
-        <v>40978</v>
+        <v>40979</v>
       </c>
     </row>
     <row r="40">
@@ -2107,7 +2107,7 @@
         <v>336</v>
       </c>
       <c r="M40" t="n">
-        <v>44046</v>
+        <v>44047</v>
       </c>
     </row>
     <row r="41">
@@ -2150,7 +2150,7 @@
         <v>371</v>
       </c>
       <c r="M41" t="n">
-        <v>46787</v>
+        <v>46788</v>
       </c>
     </row>
     <row r="42">
@@ -2193,7 +2193,7 @@
         <v>396</v>
       </c>
       <c r="M42" t="n">
-        <v>49497</v>
+        <v>49498</v>
       </c>
     </row>
     <row r="43">
@@ -2236,7 +2236,7 @@
         <v>416</v>
       </c>
       <c r="M43" t="n">
-        <v>51014</v>
+        <v>51015</v>
       </c>
     </row>
     <row r="44">
@@ -2279,7 +2279,7 @@
         <v>445</v>
       </c>
       <c r="M44" t="n">
-        <v>51712</v>
+        <v>51713</v>
       </c>
     </row>
     <row r="45">
@@ -2322,7 +2322,7 @@
         <v>479</v>
       </c>
       <c r="M45" t="n">
-        <v>55170</v>
+        <v>55171</v>
       </c>
     </row>
     <row r="46">
@@ -2335,10 +2335,10 @@
         <v>3550</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>3549</v>
+        <v>3550</v>
       </c>
       <c r="E46" t="n">
         <v>419</v>
@@ -2365,7 +2365,7 @@
         <v>524</v>
       </c>
       <c r="M46" t="n">
-        <v>58720</v>
+        <v>58721</v>
       </c>
     </row>
     <row r="47">
@@ -2375,10 +2375,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
         <v>3211</v>
@@ -2408,7 +2408,7 @@
         <v>561</v>
       </c>
       <c r="M47" t="n">
-        <v>61931</v>
+        <v>61933</v>
       </c>
     </row>
     <row r="48">
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3774</v>
+        <v>3778</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>3774</v>
@@ -2451,7 +2451,7 @@
         <v>595</v>
       </c>
       <c r="M48" t="n">
-        <v>65705</v>
+        <v>65711</v>
       </c>
     </row>
     <row r="49">
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="B49" t="n">
+        <v>3964</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" t="n">
         <v>3962</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" t="n">
-        <v>3961</v>
       </c>
       <c r="E49" t="n">
         <v>505</v>
@@ -2494,7 +2494,7 @@
         <v>630</v>
       </c>
       <c r="M49" t="n">
-        <v>69667</v>
+        <v>69675</v>
       </c>
     </row>
     <row r="50">
@@ -2504,10 +2504,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
         <v>1675</v>
@@ -2537,7 +2537,7 @@
         <v>658</v>
       </c>
       <c r="M50" t="n">
-        <v>71342</v>
+        <v>71351</v>
       </c>
     </row>
     <row r="51">
@@ -2580,7 +2580,7 @@
         <v>693</v>
       </c>
       <c r="M51" t="n">
-        <v>72361</v>
+        <v>72370</v>
       </c>
     </row>
     <row r="52">
@@ -2590,22 +2590,22 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4224</v>
+        <v>4229</v>
       </c>
       <c r="C52" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>4211</v>
+        <v>4223</v>
       </c>
       <c r="E52" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H52" t="n">
         <v>37</v>
@@ -2617,13 +2617,13 @@
         <v>37</v>
       </c>
       <c r="K52" t="n">
-        <v>12031</v>
+        <v>12030</v>
       </c>
       <c r="L52" t="n">
         <v>730</v>
       </c>
       <c r="M52" t="n">
-        <v>76585</v>
+        <v>76599</v>
       </c>
     </row>
     <row r="53">
@@ -2633,40 +2633,40 @@
         </is>
       </c>
       <c r="B53" t="n">
+        <v>3756</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
         <v>3755</v>
       </c>
-      <c r="C53" t="n">
-        <v>11</v>
-      </c>
-      <c r="D53" t="n">
-        <v>3744</v>
-      </c>
       <c r="E53" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H53" t="n">
         <v>47</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K53" t="n">
-        <v>12411</v>
+        <v>12409</v>
       </c>
       <c r="L53" t="n">
         <v>777</v>
       </c>
       <c r="M53" t="n">
-        <v>80340</v>
+        <v>80355</v>
       </c>
     </row>
     <row r="54">
@@ -2676,13 +2676,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3588</v>
+        <v>3592</v>
       </c>
       <c r="C54" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>3580</v>
+        <v>3587</v>
       </c>
       <c r="E54" t="n">
         <v>605</v>
@@ -2703,13 +2703,13 @@
         <v>47</v>
       </c>
       <c r="K54" t="n">
-        <v>13016</v>
+        <v>13014</v>
       </c>
       <c r="L54" t="n">
         <v>824</v>
       </c>
       <c r="M54" t="n">
-        <v>83928</v>
+        <v>83947</v>
       </c>
     </row>
     <row r="55">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3846</v>
+        <v>3887</v>
       </c>
       <c r="C55" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D55" t="n">
-        <v>3809</v>
+        <v>3843</v>
       </c>
       <c r="E55" t="n">
         <v>644</v>
@@ -2746,13 +2746,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="n">
-        <v>13660</v>
+        <v>13658</v>
       </c>
       <c r="L55" t="n">
         <v>862</v>
       </c>
       <c r="M55" t="n">
-        <v>87774</v>
+        <v>87834</v>
       </c>
     </row>
     <row r="56">
@@ -2762,13 +2762,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3073</v>
+        <v>3153</v>
       </c>
       <c r="C56" t="n">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D56" t="n">
-        <v>2975</v>
+        <v>3075</v>
       </c>
       <c r="E56" t="n">
         <v>702</v>
@@ -2789,13 +2789,13 @@
         <v>33</v>
       </c>
       <c r="K56" t="n">
-        <v>14362</v>
+        <v>14360</v>
       </c>
       <c r="L56" t="n">
         <v>895</v>
       </c>
       <c r="M56" t="n">
-        <v>90847</v>
+        <v>90987</v>
       </c>
     </row>
     <row r="57">
@@ -2805,13 +2805,13 @@
         </is>
       </c>
       <c r="B57" t="n">
+        <v>2071</v>
+      </c>
+      <c r="C57" t="n">
+        <v>11</v>
+      </c>
+      <c r="D57" t="n">
         <v>2060</v>
-      </c>
-      <c r="C57" t="n">
-        <v>8</v>
-      </c>
-      <c r="D57" t="n">
-        <v>2052</v>
       </c>
       <c r="E57" t="n">
         <v>627</v>
@@ -2823,22 +2823,22 @@
         <v>627</v>
       </c>
       <c r="H57" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
         <v>40</v>
       </c>
       <c r="K57" t="n">
-        <v>14989</v>
+        <v>14987</v>
       </c>
       <c r="L57" t="n">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="M57" t="n">
-        <v>92907</v>
+        <v>93058</v>
       </c>
     </row>
     <row r="58">
@@ -2848,22 +2848,22 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1728</v>
+        <v>1731</v>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>1722</v>
+        <v>1727</v>
       </c>
       <c r="E58" t="n">
         <v>951</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H58" t="n">
         <v>33</v>
@@ -2875,13 +2875,13 @@
         <v>33</v>
       </c>
       <c r="K58" t="n">
-        <v>15940</v>
+        <v>15938</v>
       </c>
       <c r="L58" t="n">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="M58" t="n">
-        <v>94635</v>
+        <v>94789</v>
       </c>
     </row>
     <row r="59">
@@ -2891,13 +2891,13 @@
         </is>
       </c>
       <c r="B59" t="n">
+        <v>4094</v>
+      </c>
+      <c r="C59" t="n">
+        <v>47</v>
+      </c>
+      <c r="D59" t="n">
         <v>4047</v>
-      </c>
-      <c r="C59" t="n">
-        <v>38</v>
-      </c>
-      <c r="D59" t="n">
-        <v>4009</v>
       </c>
       <c r="E59" t="n">
         <v>625</v>
@@ -2918,13 +2918,13 @@
         <v>41</v>
       </c>
       <c r="K59" t="n">
-        <v>16565</v>
+        <v>16563</v>
       </c>
       <c r="L59" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="M59" t="n">
-        <v>98682</v>
+        <v>98883</v>
       </c>
     </row>
     <row r="60">
@@ -2934,22 +2934,22 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4279</v>
+        <v>4315</v>
       </c>
       <c r="C60" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D60" t="n">
-        <v>4246</v>
+        <v>4278</v>
       </c>
       <c r="E60" t="n">
         <v>596</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H60" t="n">
         <v>33</v>
@@ -2961,13 +2961,13 @@
         <v>33</v>
       </c>
       <c r="K60" t="n">
-        <v>17161</v>
+        <v>17159</v>
       </c>
       <c r="L60" t="n">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="M60" t="n">
-        <v>102961</v>
+        <v>103198</v>
       </c>
     </row>
     <row r="61">
@@ -2977,22 +2977,22 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4382</v>
+        <v>4433</v>
       </c>
       <c r="C61" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D61" t="n">
-        <v>4325</v>
+        <v>4385</v>
       </c>
       <c r="E61" t="n">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H61" t="n">
         <v>38</v>
@@ -3004,13 +3004,13 @@
         <v>38</v>
       </c>
       <c r="K61" t="n">
-        <v>17820</v>
+        <v>17817</v>
       </c>
       <c r="L61" t="n">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="M61" t="n">
-        <v>107343</v>
+        <v>107631</v>
       </c>
     </row>
     <row r="62">
@@ -3020,40 +3020,40 @@
         </is>
       </c>
       <c r="B62" t="n">
+        <v>4340</v>
+      </c>
+      <c r="C62" t="n">
+        <v>57</v>
+      </c>
+      <c r="D62" t="n">
         <v>4283</v>
       </c>
-      <c r="C62" t="n">
-        <v>71</v>
-      </c>
-      <c r="D62" t="n">
-        <v>4212</v>
-      </c>
       <c r="E62" t="n">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H62" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
         <v>42</v>
       </c>
       <c r="K62" t="n">
-        <v>18618</v>
+        <v>18614</v>
       </c>
       <c r="L62" t="n">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="M62" t="n">
-        <v>111626</v>
+        <v>111971</v>
       </c>
     </row>
     <row r="63">
@@ -3063,40 +3063,40 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5444</v>
+        <v>5547</v>
       </c>
       <c r="C63" t="n">
-        <v>532</v>
+        <v>107</v>
       </c>
       <c r="D63" t="n">
-        <v>4912</v>
+        <v>5440</v>
       </c>
       <c r="E63" t="n">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G63" t="n">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H63" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
         <v>30</v>
       </c>
       <c r="K63" t="n">
-        <v>19272</v>
+        <v>19270</v>
       </c>
       <c r="L63" t="n">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="M63" t="n">
-        <v>117070</v>
+        <v>117518</v>
       </c>
     </row>
     <row r="64">
@@ -3106,13 +3106,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2626</v>
+        <v>2732</v>
       </c>
       <c r="C64" t="n">
-        <v>312</v>
+        <v>109</v>
       </c>
       <c r="D64" t="n">
-        <v>2314</v>
+        <v>2623</v>
       </c>
       <c r="E64" t="n">
         <v>636</v>
@@ -3133,13 +3133,13 @@
         <v>35</v>
       </c>
       <c r="K64" t="n">
-        <v>19908</v>
+        <v>19906</v>
       </c>
       <c r="L64" t="n">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="M64" t="n">
-        <v>119696</v>
+        <v>120250</v>
       </c>
     </row>
     <row r="65">
@@ -3149,40 +3149,40 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1519</v>
+        <v>1571</v>
       </c>
       <c r="C65" t="n">
-        <v>338</v>
+        <v>59</v>
       </c>
       <c r="D65" t="n">
-        <v>1181</v>
+        <v>1512</v>
       </c>
       <c r="E65" t="n">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H65" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K65" t="n">
-        <v>20483</v>
+        <v>20480</v>
       </c>
       <c r="L65" t="n">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="M65" t="n">
-        <v>121215</v>
+        <v>121821</v>
       </c>
     </row>
     <row r="66">
@@ -3192,40 +3192,40 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2848</v>
+        <v>4311</v>
       </c>
       <c r="C66" t="n">
-        <v>2149</v>
+        <v>1464</v>
       </c>
       <c r="D66" t="n">
-        <v>699</v>
+        <v>2847</v>
       </c>
       <c r="E66" t="n">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H66" t="n">
         <v>34</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K66" t="n">
-        <v>21015</v>
+        <v>21010</v>
       </c>
       <c r="L66" t="n">
-        <v>1250</v>
+        <v>1254</v>
       </c>
       <c r="M66" t="n">
-        <v>124063</v>
+        <v>126132</v>
       </c>
     </row>
     <row r="67">
@@ -3235,40 +3235,40 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>621</v>
+        <v>3395</v>
       </c>
       <c r="C67" t="n">
-        <v>504</v>
+        <v>2785</v>
       </c>
       <c r="D67" t="n">
-        <v>117</v>
+        <v>610</v>
       </c>
       <c r="E67" t="n">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G67" t="n">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H67" t="n">
+        <v>34</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
         <v>31</v>
       </c>
-      <c r="I67" t="n">
-        <v>14</v>
-      </c>
-      <c r="J67" t="n">
-        <v>17</v>
-      </c>
       <c r="K67" t="n">
-        <v>21859</v>
+        <v>21852</v>
       </c>
       <c r="L67" t="n">
-        <v>1281</v>
+        <v>1288</v>
       </c>
       <c r="M67" t="n">
-        <v>124684</v>
+        <v>129527</v>
       </c>
     </row>
     <row r="68">
@@ -3278,40 +3278,83 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>98</v>
+        <v>454</v>
       </c>
       <c r="C68" t="n">
-        <v>98</v>
+        <v>364</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E68" t="n">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="F68" t="n">
-        <v>644</v>
+        <v>3</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>627</v>
       </c>
       <c r="H68" t="n">
+        <v>27</v>
+      </c>
+      <c r="I68" t="n">
+        <v>13</v>
+      </c>
+      <c r="J68" t="n">
         <v>14</v>
       </c>
-      <c r="I68" t="n">
-        <v>14</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
       <c r="K68" t="n">
-        <v>22503</v>
+        <v>22482</v>
       </c>
       <c r="L68" t="n">
-        <v>1295</v>
+        <v>1315</v>
       </c>
       <c r="M68" t="n">
-        <v>124782</v>
+        <v>129981</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2020-05-07</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>147</v>
+      </c>
+      <c r="C69" t="n">
+        <v>147</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>664</v>
+      </c>
+      <c r="F69" t="n">
+        <v>663</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>13</v>
+      </c>
+      <c r="I69" t="n">
+        <v>13</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>23146</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1328</v>
+      </c>
+      <c r="M69" t="n">
+        <v>130128</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1128,10 +1128,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>730</v>
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>2397</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="19">
@@ -1204,7 +1204,7 @@
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>3248</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="20">
@@ -1247,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>4321</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="21">
@@ -1290,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>6047</v>
+        <v>6048</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1333,7 @@
         <v>14</v>
       </c>
       <c r="M22" t="n">
-        <v>6746</v>
+        <v>6747</v>
       </c>
     </row>
     <row r="23">
@@ -1376,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="M23" t="n">
-        <v>7767</v>
+        <v>7768</v>
       </c>
     </row>
     <row r="24">
@@ -1419,7 +1419,7 @@
         <v>24</v>
       </c>
       <c r="M24" t="n">
-        <v>9218</v>
+        <v>9219</v>
       </c>
     </row>
     <row r="25">
@@ -1462,7 +1462,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="n">
-        <v>10816</v>
+        <v>10817</v>
       </c>
     </row>
     <row r="26">
@@ -1505,7 +1505,7 @@
         <v>35</v>
       </c>
       <c r="M26" t="n">
-        <v>13123</v>
+        <v>13124</v>
       </c>
     </row>
     <row r="27">
@@ -1548,7 +1548,7 @@
         <v>44</v>
       </c>
       <c r="M27" t="n">
-        <v>15723</v>
+        <v>15724</v>
       </c>
     </row>
     <row r="28">
@@ -1591,7 +1591,7 @@
         <v>47</v>
       </c>
       <c r="M28" t="n">
-        <v>17883</v>
+        <v>17884</v>
       </c>
     </row>
     <row r="29">
@@ -1634,7 +1634,7 @@
         <v>58</v>
       </c>
       <c r="M29" t="n">
-        <v>19154</v>
+        <v>19155</v>
       </c>
     </row>
     <row r="30">
@@ -1677,7 +1677,7 @@
         <v>76</v>
       </c>
       <c r="M30" t="n">
-        <v>20787</v>
+        <v>20788</v>
       </c>
     </row>
     <row r="31">
@@ -1720,7 +1720,7 @@
         <v>91</v>
       </c>
       <c r="M31" t="n">
-        <v>22744</v>
+        <v>22745</v>
       </c>
     </row>
     <row r="32">
@@ -1763,7 +1763,7 @@
         <v>113</v>
       </c>
       <c r="M32" t="n">
-        <v>25053</v>
+        <v>25054</v>
       </c>
     </row>
     <row r="33">
@@ -1806,7 +1806,7 @@
         <v>135</v>
       </c>
       <c r="M33" t="n">
-        <v>27580</v>
+        <v>27581</v>
       </c>
     </row>
     <row r="34">
@@ -1834,10 +1834,10 @@
         <v>396</v>
       </c>
       <c r="H34" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>21</v>
@@ -1846,10 +1846,10 @@
         <v>3424</v>
       </c>
       <c r="L34" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M34" t="n">
-        <v>30270</v>
+        <v>30271</v>
       </c>
     </row>
     <row r="35">
@@ -1889,10 +1889,10 @@
         <v>3937</v>
       </c>
       <c r="L35" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M35" t="n">
-        <v>33060</v>
+        <v>33061</v>
       </c>
     </row>
     <row r="36">
@@ -1932,10 +1932,10 @@
         <v>4398</v>
       </c>
       <c r="L36" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M36" t="n">
-        <v>34698</v>
+        <v>34699</v>
       </c>
     </row>
     <row r="37">
@@ -1975,10 +1975,10 @@
         <v>4925</v>
       </c>
       <c r="L37" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M37" t="n">
-        <v>35793</v>
+        <v>35794</v>
       </c>
     </row>
     <row r="38">
@@ -2018,10 +2018,10 @@
         <v>5483</v>
       </c>
       <c r="L38" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>38210</v>
+        <v>38211</v>
       </c>
     </row>
     <row r="39">
@@ -2034,10 +2034,10 @@
         <v>2769</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="E39" t="n">
         <v>423</v>
@@ -2061,10 +2061,10 @@
         <v>5906</v>
       </c>
       <c r="L39" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>40979</v>
+        <v>40980</v>
       </c>
     </row>
     <row r="40">
@@ -2077,10 +2077,10 @@
         <v>3068</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="E40" t="n">
         <v>422</v>
@@ -2104,10 +2104,10 @@
         <v>6328</v>
       </c>
       <c r="L40" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M40" t="n">
-        <v>44047</v>
+        <v>44048</v>
       </c>
     </row>
     <row r="41">
@@ -2147,10 +2147,10 @@
         <v>6886</v>
       </c>
       <c r="L41" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M41" t="n">
-        <v>46788</v>
+        <v>46789</v>
       </c>
     </row>
     <row r="42">
@@ -2190,10 +2190,10 @@
         <v>7401</v>
       </c>
       <c r="L42" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M42" t="n">
-        <v>49498</v>
+        <v>49499</v>
       </c>
     </row>
     <row r="43">
@@ -2233,10 +2233,10 @@
         <v>7887</v>
       </c>
       <c r="L43" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M43" t="n">
-        <v>51015</v>
+        <v>51016</v>
       </c>
     </row>
     <row r="44">
@@ -2276,10 +2276,10 @@
         <v>8206</v>
       </c>
       <c r="L44" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M44" t="n">
-        <v>51713</v>
+        <v>51714</v>
       </c>
     </row>
     <row r="45">
@@ -2319,10 +2319,10 @@
         <v>8499</v>
       </c>
       <c r="L45" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M45" t="n">
-        <v>55171</v>
+        <v>55172</v>
       </c>
     </row>
     <row r="46">
@@ -2332,13 +2332,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3550</v>
+        <v>3585</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D46" t="n">
-        <v>3550</v>
+        <v>3571</v>
       </c>
       <c r="E46" t="n">
         <v>419</v>
@@ -2362,10 +2362,10 @@
         <v>8918</v>
       </c>
       <c r="L46" t="n">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M46" t="n">
-        <v>58721</v>
+        <v>58757</v>
       </c>
     </row>
     <row r="47">
@@ -2405,10 +2405,10 @@
         <v>9499</v>
       </c>
       <c r="L47" t="n">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M47" t="n">
-        <v>61933</v>
+        <v>61969</v>
       </c>
     </row>
     <row r="48">
@@ -2421,10 +2421,10 @@
         <v>3778</v>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>3774</v>
+        <v>3778</v>
       </c>
       <c r="E48" t="n">
         <v>601</v>
@@ -2448,10 +2448,10 @@
         <v>10100</v>
       </c>
       <c r="L48" t="n">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M48" t="n">
-        <v>65711</v>
+        <v>65747</v>
       </c>
     </row>
     <row r="49">
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3964</v>
+        <v>3975</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D49" t="n">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="E49" t="n">
         <v>505</v>
@@ -2491,10 +2491,10 @@
         <v>10605</v>
       </c>
       <c r="L49" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M49" t="n">
-        <v>69675</v>
+        <v>69722</v>
       </c>
     </row>
     <row r="50">
@@ -2507,10 +2507,10 @@
         <v>1676</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="E50" t="n">
         <v>559</v>
@@ -2534,10 +2534,10 @@
         <v>11164</v>
       </c>
       <c r="L50" t="n">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M50" t="n">
-        <v>71351</v>
+        <v>71398</v>
       </c>
     </row>
     <row r="51">
@@ -2577,10 +2577,10 @@
         <v>11643</v>
       </c>
       <c r="L51" t="n">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="M51" t="n">
-        <v>72370</v>
+        <v>72417</v>
       </c>
     </row>
     <row r="52">
@@ -2593,10 +2593,10 @@
         <v>4229</v>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>4223</v>
+        <v>4228</v>
       </c>
       <c r="E52" t="n">
         <v>387</v>
@@ -2620,10 +2620,10 @@
         <v>12030</v>
       </c>
       <c r="L52" t="n">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M52" t="n">
-        <v>76599</v>
+        <v>76646</v>
       </c>
     </row>
     <row r="53">
@@ -2636,10 +2636,10 @@
         <v>3756</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>3755</v>
+        <v>3756</v>
       </c>
       <c r="E53" t="n">
         <v>379</v>
@@ -2663,10 +2663,10 @@
         <v>12409</v>
       </c>
       <c r="L53" t="n">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M53" t="n">
-        <v>80355</v>
+        <v>80402</v>
       </c>
     </row>
     <row r="54">
@@ -2679,10 +2679,10 @@
         <v>3592</v>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>3587</v>
+        <v>3592</v>
       </c>
       <c r="E54" t="n">
         <v>605</v>
@@ -2706,10 +2706,10 @@
         <v>13014</v>
       </c>
       <c r="L54" t="n">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="M54" t="n">
-        <v>83947</v>
+        <v>83994</v>
       </c>
     </row>
     <row r="55">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3887</v>
+        <v>3911</v>
       </c>
       <c r="C55" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D55" t="n">
-        <v>3843</v>
+        <v>3889</v>
       </c>
       <c r="E55" t="n">
         <v>644</v>
@@ -2749,10 +2749,10 @@
         <v>13658</v>
       </c>
       <c r="L55" t="n">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="M55" t="n">
-        <v>87834</v>
+        <v>87905</v>
       </c>
     </row>
     <row r="56">
@@ -2762,13 +2762,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3153</v>
+        <v>3264</v>
       </c>
       <c r="C56" t="n">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="D56" t="n">
-        <v>3075</v>
+        <v>3149</v>
       </c>
       <c r="E56" t="n">
         <v>702</v>
@@ -2792,10 +2792,10 @@
         <v>14360</v>
       </c>
       <c r="L56" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="M56" t="n">
-        <v>90987</v>
+        <v>91169</v>
       </c>
     </row>
     <row r="57">
@@ -2805,13 +2805,13 @@
         </is>
       </c>
       <c r="B57" t="n">
+        <v>2093</v>
+      </c>
+      <c r="C57" t="n">
+        <v>22</v>
+      </c>
+      <c r="D57" t="n">
         <v>2071</v>
-      </c>
-      <c r="C57" t="n">
-        <v>11</v>
-      </c>
-      <c r="D57" t="n">
-        <v>2060</v>
       </c>
       <c r="E57" t="n">
         <v>627</v>
@@ -2826,19 +2826,19 @@
         <v>41</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K57" t="n">
         <v>14987</v>
       </c>
       <c r="L57" t="n">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="M57" t="n">
-        <v>93058</v>
+        <v>93262</v>
       </c>
     </row>
     <row r="58">
@@ -2848,22 +2848,22 @@
         </is>
       </c>
       <c r="B58" t="n">
+        <v>1733</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2</v>
+      </c>
+      <c r="D58" t="n">
         <v>1731</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1727</v>
       </c>
       <c r="E58" t="n">
         <v>951</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H58" t="n">
         <v>33</v>
@@ -2878,10 +2878,10 @@
         <v>15938</v>
       </c>
       <c r="L58" t="n">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="M58" t="n">
-        <v>94789</v>
+        <v>94995</v>
       </c>
     </row>
     <row r="59">
@@ -2891,22 +2891,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4094</v>
+        <v>4127</v>
       </c>
       <c r="C59" t="n">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D59" t="n">
-        <v>4047</v>
+        <v>4093</v>
       </c>
       <c r="E59" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H59" t="n">
         <v>41</v>
@@ -2918,13 +2918,13 @@
         <v>41</v>
       </c>
       <c r="K59" t="n">
-        <v>16563</v>
+        <v>16562</v>
       </c>
       <c r="L59" t="n">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="M59" t="n">
-        <v>98883</v>
+        <v>99122</v>
       </c>
     </row>
     <row r="60">
@@ -2934,13 +2934,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4315</v>
+        <v>4345</v>
       </c>
       <c r="C60" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D60" t="n">
-        <v>4278</v>
+        <v>4316</v>
       </c>
       <c r="E60" t="n">
         <v>596</v>
@@ -2961,13 +2961,13 @@
         <v>33</v>
       </c>
       <c r="K60" t="n">
-        <v>17159</v>
+        <v>17158</v>
       </c>
       <c r="L60" t="n">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="M60" t="n">
-        <v>103198</v>
+        <v>103467</v>
       </c>
     </row>
     <row r="61">
@@ -2977,19 +2977,19 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4433</v>
+        <v>4498</v>
       </c>
       <c r="C61" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D61" t="n">
-        <v>4385</v>
+        <v>4436</v>
       </c>
       <c r="E61" t="n">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>657</v>
@@ -3004,13 +3004,13 @@
         <v>38</v>
       </c>
       <c r="K61" t="n">
-        <v>17817</v>
+        <v>17815</v>
       </c>
       <c r="L61" t="n">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="M61" t="n">
-        <v>107631</v>
+        <v>107965</v>
       </c>
     </row>
     <row r="62">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4340</v>
+        <v>4450</v>
       </c>
       <c r="C62" t="n">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="D62" t="n">
-        <v>4283</v>
+        <v>4326</v>
       </c>
       <c r="E62" t="n">
         <v>797</v>
@@ -3041,19 +3041,19 @@
         <v>43</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K62" t="n">
-        <v>18614</v>
+        <v>18612</v>
       </c>
       <c r="L62" t="n">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="M62" t="n">
-        <v>111971</v>
+        <v>112415</v>
       </c>
     </row>
     <row r="63">
@@ -3063,40 +3063,40 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5547</v>
+        <v>5561</v>
       </c>
       <c r="C63" t="n">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="D63" t="n">
-        <v>5440</v>
+        <v>5540</v>
       </c>
       <c r="E63" t="n">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H63" t="n">
         <v>31</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K63" t="n">
-        <v>19270</v>
+        <v>19267</v>
       </c>
       <c r="L63" t="n">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="M63" t="n">
-        <v>117518</v>
+        <v>117976</v>
       </c>
     </row>
     <row r="64">
@@ -3106,13 +3106,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2732</v>
+        <v>2747</v>
       </c>
       <c r="C64" t="n">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="D64" t="n">
-        <v>2623</v>
+        <v>2730</v>
       </c>
       <c r="E64" t="n">
         <v>636</v>
@@ -3124,22 +3124,22 @@
         <v>636</v>
       </c>
       <c r="H64" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
         <v>35</v>
       </c>
       <c r="K64" t="n">
-        <v>19906</v>
+        <v>19903</v>
       </c>
       <c r="L64" t="n">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="M64" t="n">
-        <v>120250</v>
+        <v>120723</v>
       </c>
     </row>
     <row r="65">
@@ -3149,19 +3149,19 @@
         </is>
       </c>
       <c r="B65" t="n">
+        <v>1582</v>
+      </c>
+      <c r="C65" t="n">
+        <v>11</v>
+      </c>
+      <c r="D65" t="n">
         <v>1571</v>
       </c>
-      <c r="C65" t="n">
-        <v>59</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1512</v>
-      </c>
       <c r="E65" t="n">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>573</v>
@@ -3170,19 +3170,19 @@
         <v>30</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K65" t="n">
-        <v>20480</v>
+        <v>20476</v>
       </c>
       <c r="L65" t="n">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="M65" t="n">
-        <v>121821</v>
+        <v>122305</v>
       </c>
     </row>
     <row r="66">
@@ -3192,13 +3192,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4311</v>
+        <v>4639</v>
       </c>
       <c r="C66" t="n">
-        <v>1464</v>
+        <v>338</v>
       </c>
       <c r="D66" t="n">
-        <v>2847</v>
+        <v>4301</v>
       </c>
       <c r="E66" t="n">
         <v>530</v>
@@ -3219,13 +3219,13 @@
         <v>34</v>
       </c>
       <c r="K66" t="n">
-        <v>21010</v>
+        <v>21006</v>
       </c>
       <c r="L66" t="n">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="M66" t="n">
-        <v>126132</v>
+        <v>126944</v>
       </c>
     </row>
     <row r="67">
@@ -3235,40 +3235,40 @@
         </is>
       </c>
       <c r="B67" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1538</v>
+      </c>
+      <c r="D67" t="n">
         <v>3395</v>
       </c>
-      <c r="C67" t="n">
-        <v>2785</v>
-      </c>
-      <c r="D67" t="n">
-        <v>610</v>
-      </c>
       <c r="E67" t="n">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="H67" t="n">
+        <v>35</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
         <v>34</v>
       </c>
-      <c r="I67" t="n">
-        <v>3</v>
-      </c>
-      <c r="J67" t="n">
-        <v>31</v>
-      </c>
       <c r="K67" t="n">
-        <v>21852</v>
+        <v>21847</v>
       </c>
       <c r="L67" t="n">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="M67" t="n">
-        <v>129527</v>
+        <v>131877</v>
       </c>
     </row>
     <row r="68">
@@ -3278,40 +3278,40 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>454</v>
+        <v>3080</v>
       </c>
       <c r="C68" t="n">
-        <v>364</v>
+        <v>2649</v>
       </c>
       <c r="D68" t="n">
-        <v>90</v>
+        <v>431</v>
       </c>
       <c r="E68" t="n">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>627</v>
       </c>
       <c r="H68" t="n">
+        <v>32</v>
+      </c>
+      <c r="I68" t="n">
+        <v>5</v>
+      </c>
+      <c r="J68" t="n">
         <v>27</v>
       </c>
-      <c r="I68" t="n">
-        <v>13</v>
-      </c>
-      <c r="J68" t="n">
-        <v>14</v>
-      </c>
       <c r="K68" t="n">
-        <v>22482</v>
+        <v>22474</v>
       </c>
       <c r="L68" t="n">
-        <v>1315</v>
+        <v>1323</v>
       </c>
       <c r="M68" t="n">
-        <v>129981</v>
+        <v>134957</v>
       </c>
     </row>
     <row r="69">
@@ -3321,40 +3321,83 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>147</v>
+        <v>621</v>
       </c>
       <c r="C69" t="n">
-        <v>147</v>
+        <v>485</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="E69" t="n">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="F69" t="n">
-        <v>663</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>652</v>
       </c>
       <c r="H69" t="n">
+        <v>27</v>
+      </c>
+      <c r="I69" t="n">
+        <v>14</v>
+      </c>
+      <c r="J69" t="n">
         <v>13</v>
       </c>
-      <c r="I69" t="n">
-        <v>13</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
       <c r="K69" t="n">
-        <v>23146</v>
+        <v>23126</v>
       </c>
       <c r="L69" t="n">
-        <v>1328</v>
+        <v>1350</v>
       </c>
       <c r="M69" t="n">
-        <v>130128</v>
+        <v>135578</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2020-05-08</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>108</v>
+      </c>
+      <c r="C70" t="n">
+        <v>108</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>606</v>
+      </c>
+      <c r="F70" t="n">
+        <v>606</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>12</v>
+      </c>
+      <c r="I70" t="n">
+        <v>12</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>23732</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1362</v>
+      </c>
+      <c r="M70" t="n">
+        <v>135686</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1131,10 +1131,10 @@
         <v>731</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1837,10 +1837,10 @@
         <v>22</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K34" t="n">
         <v>3424</v>
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
         <v>1638</v>
@@ -1935,7 +1935,7 @@
         <v>214</v>
       </c>
       <c r="M36" t="n">
-        <v>34699</v>
+        <v>34700</v>
       </c>
     </row>
     <row r="37">
@@ -1978,7 +1978,7 @@
         <v>248</v>
       </c>
       <c r="M37" t="n">
-        <v>35794</v>
+        <v>35795</v>
       </c>
     </row>
     <row r="38">
@@ -2021,7 +2021,7 @@
         <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>38211</v>
+        <v>38212</v>
       </c>
     </row>
     <row r="39">
@@ -2064,7 +2064,7 @@
         <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>40980</v>
+        <v>40981</v>
       </c>
     </row>
     <row r="40">
@@ -2107,7 +2107,7 @@
         <v>337</v>
       </c>
       <c r="M40" t="n">
-        <v>44048</v>
+        <v>44049</v>
       </c>
     </row>
     <row r="41">
@@ -2150,7 +2150,7 @@
         <v>372</v>
       </c>
       <c r="M41" t="n">
-        <v>46789</v>
+        <v>46790</v>
       </c>
     </row>
     <row r="42">
@@ -2193,7 +2193,7 @@
         <v>397</v>
       </c>
       <c r="M42" t="n">
-        <v>49499</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="43">
@@ -2236,7 +2236,7 @@
         <v>417</v>
       </c>
       <c r="M43" t="n">
-        <v>51016</v>
+        <v>51017</v>
       </c>
     </row>
     <row r="44">
@@ -2279,7 +2279,7 @@
         <v>446</v>
       </c>
       <c r="M44" t="n">
-        <v>51714</v>
+        <v>51715</v>
       </c>
     </row>
     <row r="45">
@@ -2292,10 +2292,10 @@
         <v>3458</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="E45" t="n">
         <v>293</v>
@@ -2322,7 +2322,7 @@
         <v>480</v>
       </c>
       <c r="M45" t="n">
-        <v>55172</v>
+        <v>55173</v>
       </c>
     </row>
     <row r="46">
@@ -2335,10 +2335,10 @@
         <v>3585</v>
       </c>
       <c r="C46" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>3571</v>
+        <v>3585</v>
       </c>
       <c r="E46" t="n">
         <v>419</v>
@@ -2365,7 +2365,7 @@
         <v>525</v>
       </c>
       <c r="M46" t="n">
-        <v>58757</v>
+        <v>58758</v>
       </c>
     </row>
     <row r="47">
@@ -2375,13 +2375,13 @@
         </is>
       </c>
       <c r="B47" t="n">
+        <v>3214</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D47" t="n">
         <v>3212</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" t="n">
-        <v>3211</v>
       </c>
       <c r="E47" t="n">
         <v>581</v>
@@ -2408,7 +2408,7 @@
         <v>562</v>
       </c>
       <c r="M47" t="n">
-        <v>61969</v>
+        <v>61972</v>
       </c>
     </row>
     <row r="48">
@@ -2451,7 +2451,7 @@
         <v>596</v>
       </c>
       <c r="M48" t="n">
-        <v>65747</v>
+        <v>65750</v>
       </c>
     </row>
     <row r="49">
@@ -2464,10 +2464,10 @@
         <v>3975</v>
       </c>
       <c r="C49" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>3961</v>
+        <v>3975</v>
       </c>
       <c r="E49" t="n">
         <v>505</v>
@@ -2494,7 +2494,7 @@
         <v>631</v>
       </c>
       <c r="M49" t="n">
-        <v>69722</v>
+        <v>69725</v>
       </c>
     </row>
     <row r="50">
@@ -2504,10 +2504,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>1676</v>
@@ -2537,7 +2537,7 @@
         <v>659</v>
       </c>
       <c r="M50" t="n">
-        <v>71398</v>
+        <v>71403</v>
       </c>
     </row>
     <row r="51">
@@ -2580,7 +2580,7 @@
         <v>694</v>
       </c>
       <c r="M51" t="n">
-        <v>72417</v>
+        <v>72422</v>
       </c>
     </row>
     <row r="52">
@@ -2593,10 +2593,10 @@
         <v>4229</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>4228</v>
+        <v>4229</v>
       </c>
       <c r="E52" t="n">
         <v>387</v>
@@ -2623,7 +2623,7 @@
         <v>731</v>
       </c>
       <c r="M52" t="n">
-        <v>76646</v>
+        <v>76651</v>
       </c>
     </row>
     <row r="53">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3756</v>
+        <v>3757</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
         <v>3756</v>
@@ -2666,7 +2666,7 @@
         <v>778</v>
       </c>
       <c r="M53" t="n">
-        <v>80402</v>
+        <v>80408</v>
       </c>
     </row>
     <row r="54">
@@ -2676,10 +2676,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3592</v>
+        <v>3608</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D54" t="n">
         <v>3592</v>
@@ -2709,7 +2709,7 @@
         <v>825</v>
       </c>
       <c r="M54" t="n">
-        <v>83994</v>
+        <v>84016</v>
       </c>
     </row>
     <row r="55">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="B55" t="n">
+        <v>3929</v>
+      </c>
+      <c r="C55" t="n">
+        <v>18</v>
+      </c>
+      <c r="D55" t="n">
         <v>3911</v>
-      </c>
-      <c r="C55" t="n">
-        <v>22</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3889</v>
       </c>
       <c r="E55" t="n">
         <v>644</v>
@@ -2752,7 +2752,7 @@
         <v>863</v>
       </c>
       <c r="M55" t="n">
-        <v>87905</v>
+        <v>87945</v>
       </c>
     </row>
     <row r="56">
@@ -2762,13 +2762,13 @@
         </is>
       </c>
       <c r="B56" t="n">
+        <v>3305</v>
+      </c>
+      <c r="C56" t="n">
+        <v>41</v>
+      </c>
+      <c r="D56" t="n">
         <v>3264</v>
-      </c>
-      <c r="C56" t="n">
-        <v>115</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3149</v>
       </c>
       <c r="E56" t="n">
         <v>702</v>
@@ -2795,7 +2795,7 @@
         <v>896</v>
       </c>
       <c r="M56" t="n">
-        <v>91169</v>
+        <v>91250</v>
       </c>
     </row>
     <row r="57">
@@ -2805,13 +2805,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2093</v>
+        <v>2119</v>
       </c>
       <c r="C57" t="n">
         <v>22</v>
       </c>
       <c r="D57" t="n">
-        <v>2071</v>
+        <v>2097</v>
       </c>
       <c r="E57" t="n">
         <v>627</v>
@@ -2838,7 +2838,7 @@
         <v>937</v>
       </c>
       <c r="M57" t="n">
-        <v>93262</v>
+        <v>93369</v>
       </c>
     </row>
     <row r="58">
@@ -2848,13 +2848,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1733</v>
+        <v>1748</v>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D58" t="n">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="E58" t="n">
         <v>951</v>
@@ -2881,7 +2881,7 @@
         <v>970</v>
       </c>
       <c r="M58" t="n">
-        <v>94995</v>
+        <v>95117</v>
       </c>
     </row>
     <row r="59">
@@ -2891,13 +2891,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4127</v>
+        <v>4157</v>
       </c>
       <c r="C59" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D59" t="n">
-        <v>4093</v>
+        <v>4128</v>
       </c>
       <c r="E59" t="n">
         <v>624</v>
@@ -2924,7 +2924,7 @@
         <v>1011</v>
       </c>
       <c r="M59" t="n">
-        <v>99122</v>
+        <v>99274</v>
       </c>
     </row>
     <row r="60">
@@ -2934,13 +2934,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4345</v>
+        <v>4350</v>
       </c>
       <c r="C60" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>4316</v>
+        <v>4344</v>
       </c>
       <c r="E60" t="n">
         <v>596</v>
@@ -2967,7 +2967,7 @@
         <v>1044</v>
       </c>
       <c r="M60" t="n">
-        <v>103467</v>
+        <v>103624</v>
       </c>
     </row>
     <row r="61">
@@ -2977,13 +2977,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4498</v>
+        <v>4499</v>
       </c>
       <c r="C61" t="n">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>4436</v>
+        <v>4494</v>
       </c>
       <c r="E61" t="n">
         <v>657</v>
@@ -3010,7 +3010,7 @@
         <v>1082</v>
       </c>
       <c r="M61" t="n">
-        <v>107965</v>
+        <v>108123</v>
       </c>
     </row>
     <row r="62">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4450</v>
+        <v>4466</v>
       </c>
       <c r="C62" t="n">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="D62" t="n">
-        <v>4326</v>
+        <v>4449</v>
       </c>
       <c r="E62" t="n">
         <v>797</v>
@@ -3053,7 +3053,7 @@
         <v>1125</v>
       </c>
       <c r="M62" t="n">
-        <v>112415</v>
+        <v>112589</v>
       </c>
     </row>
     <row r="63">
@@ -3063,13 +3063,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5561</v>
+        <v>5584</v>
       </c>
       <c r="C63" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D63" t="n">
-        <v>5540</v>
+        <v>5556</v>
       </c>
       <c r="E63" t="n">
         <v>655</v>
@@ -3096,7 +3096,7 @@
         <v>1156</v>
       </c>
       <c r="M63" t="n">
-        <v>117976</v>
+        <v>118173</v>
       </c>
     </row>
     <row r="64">
@@ -3106,13 +3106,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2747</v>
+        <v>2758</v>
       </c>
       <c r="C64" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D64" t="n">
-        <v>2730</v>
+        <v>2746</v>
       </c>
       <c r="E64" t="n">
         <v>636</v>
@@ -3127,10 +3127,10 @@
         <v>36</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K64" t="n">
         <v>19903</v>
@@ -3139,7 +3139,7 @@
         <v>1192</v>
       </c>
       <c r="M64" t="n">
-        <v>120723</v>
+        <v>120931</v>
       </c>
     </row>
     <row r="65">
@@ -3149,13 +3149,13 @@
         </is>
       </c>
       <c r="B65" t="n">
+        <v>1586</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4</v>
+      </c>
+      <c r="D65" t="n">
         <v>1582</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1571</v>
       </c>
       <c r="E65" t="n">
         <v>573</v>
@@ -3182,7 +3182,7 @@
         <v>1222</v>
       </c>
       <c r="M65" t="n">
-        <v>122305</v>
+        <v>122517</v>
       </c>
     </row>
     <row r="66">
@@ -3192,22 +3192,22 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4639</v>
+        <v>4747</v>
       </c>
       <c r="C66" t="n">
-        <v>338</v>
+        <v>111</v>
       </c>
       <c r="D66" t="n">
-        <v>4301</v>
+        <v>4636</v>
       </c>
       <c r="E66" t="n">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H66" t="n">
         <v>34</v>
@@ -3219,13 +3219,13 @@
         <v>34</v>
       </c>
       <c r="K66" t="n">
-        <v>21006</v>
+        <v>21004</v>
       </c>
       <c r="L66" t="n">
         <v>1256</v>
       </c>
       <c r="M66" t="n">
-        <v>126944</v>
+        <v>127264</v>
       </c>
     </row>
     <row r="67">
@@ -3235,13 +3235,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4933</v>
+        <v>5168</v>
       </c>
       <c r="C67" t="n">
-        <v>1538</v>
+        <v>239</v>
       </c>
       <c r="D67" t="n">
-        <v>3395</v>
+        <v>4929</v>
       </c>
       <c r="E67" t="n">
         <v>841</v>
@@ -3256,19 +3256,19 @@
         <v>35</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K67" t="n">
-        <v>21847</v>
+        <v>21845</v>
       </c>
       <c r="L67" t="n">
         <v>1291</v>
       </c>
       <c r="M67" t="n">
-        <v>131877</v>
+        <v>132432</v>
       </c>
     </row>
     <row r="68">
@@ -3278,40 +3278,40 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3080</v>
+        <v>4056</v>
       </c>
       <c r="C68" t="n">
-        <v>2649</v>
+        <v>987</v>
       </c>
       <c r="D68" t="n">
-        <v>431</v>
+        <v>3069</v>
       </c>
       <c r="E68" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H68" t="n">
+        <v>34</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
         <v>32</v>
       </c>
-      <c r="I68" t="n">
-        <v>5</v>
-      </c>
-      <c r="J68" t="n">
-        <v>27</v>
-      </c>
       <c r="K68" t="n">
-        <v>22474</v>
+        <v>22471</v>
       </c>
       <c r="L68" t="n">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="M68" t="n">
-        <v>134957</v>
+        <v>136488</v>
       </c>
     </row>
     <row r="69">
@@ -3321,40 +3321,40 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>621</v>
+        <v>2854</v>
       </c>
       <c r="C69" t="n">
-        <v>485</v>
+        <v>2237</v>
       </c>
       <c r="D69" t="n">
-        <v>136</v>
+        <v>617</v>
       </c>
       <c r="E69" t="n">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H69" t="n">
         <v>27</v>
       </c>
       <c r="I69" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="K69" t="n">
-        <v>23126</v>
+        <v>23122</v>
       </c>
       <c r="L69" t="n">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="M69" t="n">
-        <v>135578</v>
+        <v>139342</v>
       </c>
     </row>
     <row r="70">
@@ -3364,40 +3364,83 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>108</v>
+        <v>548</v>
       </c>
       <c r="C70" t="n">
-        <v>108</v>
+        <v>441</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="E70" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F70" t="n">
-        <v>606</v>
+        <v>3</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="H70" t="n">
+        <v>18</v>
+      </c>
+      <c r="I70" t="n">
+        <v>6</v>
+      </c>
+      <c r="J70" t="n">
         <v>12</v>
       </c>
-      <c r="I70" t="n">
-        <v>12</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
       <c r="K70" t="n">
-        <v>23732</v>
+        <v>23727</v>
       </c>
       <c r="L70" t="n">
-        <v>1362</v>
+        <v>1370</v>
       </c>
       <c r="M70" t="n">
-        <v>135686</v>
+        <v>139890</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2020-05-09</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>139</v>
+      </c>
+      <c r="C71" t="n">
+        <v>139</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>399</v>
+      </c>
+      <c r="F71" t="n">
+        <v>398</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+      <c r="I71" t="n">
+        <v>9</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>24126</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1379</v>
+      </c>
+      <c r="M71" t="n">
+        <v>140029</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1905,10 +1905,10 @@
         <v>1639</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="E36" t="n">
         <v>461</v>
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3458</v>
+        <v>3459</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>3457</v>
+        <v>3459</v>
       </c>
       <c r="E45" t="n">
         <v>293</v>
@@ -2322,7 +2322,7 @@
         <v>480</v>
       </c>
       <c r="M45" t="n">
-        <v>55173</v>
+        <v>55174</v>
       </c>
     </row>
     <row r="46">
@@ -2332,10 +2332,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3585</v>
+        <v>3586</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
         <v>3585</v>
@@ -2365,7 +2365,7 @@
         <v>525</v>
       </c>
       <c r="M46" t="n">
-        <v>58758</v>
+        <v>58760</v>
       </c>
     </row>
     <row r="47">
@@ -2378,10 +2378,10 @@
         <v>3214</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>3212</v>
+        <v>3214</v>
       </c>
       <c r="E47" t="n">
         <v>581</v>
@@ -2408,7 +2408,7 @@
         <v>562</v>
       </c>
       <c r="M47" t="n">
-        <v>61972</v>
+        <v>61974</v>
       </c>
     </row>
     <row r="48">
@@ -2451,7 +2451,7 @@
         <v>596</v>
       </c>
       <c r="M48" t="n">
-        <v>65750</v>
+        <v>65752</v>
       </c>
     </row>
     <row r="49">
@@ -2494,7 +2494,7 @@
         <v>631</v>
       </c>
       <c r="M49" t="n">
-        <v>69725</v>
+        <v>69727</v>
       </c>
     </row>
     <row r="50">
@@ -2504,13 +2504,13 @@
         </is>
       </c>
       <c r="B50" t="n">
+        <v>1679</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
         <v>1678</v>
-      </c>
-      <c r="C50" t="n">
-        <v>2</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1676</v>
       </c>
       <c r="E50" t="n">
         <v>559</v>
@@ -2537,7 +2537,7 @@
         <v>659</v>
       </c>
       <c r="M50" t="n">
-        <v>71403</v>
+        <v>71406</v>
       </c>
     </row>
     <row r="51">
@@ -2547,10 +2547,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>1019</v>
@@ -2580,7 +2580,7 @@
         <v>694</v>
       </c>
       <c r="M51" t="n">
-        <v>72422</v>
+        <v>72426</v>
       </c>
     </row>
     <row r="52">
@@ -2623,7 +2623,7 @@
         <v>731</v>
       </c>
       <c r="M52" t="n">
-        <v>76651</v>
+        <v>76655</v>
       </c>
     </row>
     <row r="53">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3757</v>
+        <v>3758</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>3756</v>
+        <v>3757</v>
       </c>
       <c r="E53" t="n">
         <v>379</v>
@@ -2666,7 +2666,7 @@
         <v>778</v>
       </c>
       <c r="M53" t="n">
-        <v>80408</v>
+        <v>80413</v>
       </c>
     </row>
     <row r="54">
@@ -2679,10 +2679,10 @@
         <v>3608</v>
       </c>
       <c r="C54" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>3592</v>
+        <v>3608</v>
       </c>
       <c r="E54" t="n">
         <v>605</v>
@@ -2709,7 +2709,7 @@
         <v>825</v>
       </c>
       <c r="M54" t="n">
-        <v>84016</v>
+        <v>84021</v>
       </c>
     </row>
     <row r="55">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="B55" t="n">
+        <v>3931</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
         <v>3929</v>
-      </c>
-      <c r="C55" t="n">
-        <v>18</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3911</v>
       </c>
       <c r="E55" t="n">
         <v>644</v>
@@ -2752,7 +2752,7 @@
         <v>863</v>
       </c>
       <c r="M55" t="n">
-        <v>87945</v>
+        <v>87952</v>
       </c>
     </row>
     <row r="56">
@@ -2762,13 +2762,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3305</v>
+        <v>3335</v>
       </c>
       <c r="C56" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D56" t="n">
-        <v>3264</v>
+        <v>3306</v>
       </c>
       <c r="E56" t="n">
         <v>702</v>
@@ -2780,10 +2780,10 @@
         <v>702</v>
       </c>
       <c r="H56" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
         <v>33</v>
@@ -2792,10 +2792,10 @@
         <v>14360</v>
       </c>
       <c r="L56" t="n">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="M56" t="n">
-        <v>91250</v>
+        <v>91287</v>
       </c>
     </row>
     <row r="57">
@@ -2805,13 +2805,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2119</v>
+        <v>2137</v>
       </c>
       <c r="C57" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D57" t="n">
-        <v>2097</v>
+        <v>2122</v>
       </c>
       <c r="E57" t="n">
         <v>627</v>
@@ -2835,10 +2835,10 @@
         <v>14987</v>
       </c>
       <c r="L57" t="n">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="M57" t="n">
-        <v>93369</v>
+        <v>93424</v>
       </c>
     </row>
     <row r="58">
@@ -2848,13 +2848,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1748</v>
+        <v>1762</v>
       </c>
       <c r="C58" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58" t="n">
-        <v>1734</v>
+        <v>1747</v>
       </c>
       <c r="E58" t="n">
         <v>951</v>
@@ -2866,10 +2866,10 @@
         <v>951</v>
       </c>
       <c r="H58" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
         <v>33</v>
@@ -2878,10 +2878,10 @@
         <v>15938</v>
       </c>
       <c r="L58" t="n">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="M58" t="n">
-        <v>95117</v>
+        <v>95186</v>
       </c>
     </row>
     <row r="59">
@@ -2891,13 +2891,13 @@
         </is>
       </c>
       <c r="B59" t="n">
+        <v>4168</v>
+      </c>
+      <c r="C59" t="n">
+        <v>11</v>
+      </c>
+      <c r="D59" t="n">
         <v>4157</v>
-      </c>
-      <c r="C59" t="n">
-        <v>29</v>
-      </c>
-      <c r="D59" t="n">
-        <v>4128</v>
       </c>
       <c r="E59" t="n">
         <v>624</v>
@@ -2921,10 +2921,10 @@
         <v>16562</v>
       </c>
       <c r="L59" t="n">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="M59" t="n">
-        <v>99274</v>
+        <v>99354</v>
       </c>
     </row>
     <row r="60">
@@ -2934,13 +2934,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4350</v>
+        <v>4371</v>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D60" t="n">
-        <v>4344</v>
+        <v>4349</v>
       </c>
       <c r="E60" t="n">
         <v>596</v>
@@ -2952,10 +2952,10 @@
         <v>596</v>
       </c>
       <c r="H60" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
         <v>33</v>
@@ -2964,10 +2964,10 @@
         <v>17158</v>
       </c>
       <c r="L60" t="n">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="M60" t="n">
-        <v>103624</v>
+        <v>103725</v>
       </c>
     </row>
     <row r="61">
@@ -2977,13 +2977,13 @@
         </is>
       </c>
       <c r="B61" t="n">
+        <v>4500</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
         <v>4499</v>
-      </c>
-      <c r="C61" t="n">
-        <v>5</v>
-      </c>
-      <c r="D61" t="n">
-        <v>4494</v>
       </c>
       <c r="E61" t="n">
         <v>657</v>
@@ -2995,10 +2995,10 @@
         <v>657</v>
       </c>
       <c r="H61" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
         <v>38</v>
@@ -3007,10 +3007,10 @@
         <v>17815</v>
       </c>
       <c r="L61" t="n">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="M61" t="n">
-        <v>108123</v>
+        <v>108225</v>
       </c>
     </row>
     <row r="62">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4466</v>
+        <v>4473</v>
       </c>
       <c r="C62" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D62" t="n">
-        <v>4449</v>
+        <v>4465</v>
       </c>
       <c r="E62" t="n">
         <v>797</v>
@@ -3038,10 +3038,10 @@
         <v>797</v>
       </c>
       <c r="H62" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
         <v>43</v>
@@ -3050,10 +3050,10 @@
         <v>18612</v>
       </c>
       <c r="L62" t="n">
-        <v>1125</v>
+        <v>1133</v>
       </c>
       <c r="M62" t="n">
-        <v>112589</v>
+        <v>112698</v>
       </c>
     </row>
     <row r="63">
@@ -3063,13 +3063,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5584</v>
+        <v>5583</v>
       </c>
       <c r="C63" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>5556</v>
+        <v>5582</v>
       </c>
       <c r="E63" t="n">
         <v>655</v>
@@ -3081,10 +3081,10 @@
         <v>655</v>
       </c>
       <c r="H63" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
         <v>31</v>
@@ -3093,10 +3093,10 @@
         <v>19267</v>
       </c>
       <c r="L63" t="n">
-        <v>1156</v>
+        <v>1166</v>
       </c>
       <c r="M63" t="n">
-        <v>118173</v>
+        <v>118281</v>
       </c>
     </row>
     <row r="64">
@@ -3109,10 +3109,10 @@
         <v>2758</v>
       </c>
       <c r="C64" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>2746</v>
+        <v>2758</v>
       </c>
       <c r="E64" t="n">
         <v>636</v>
@@ -3124,10 +3124,10 @@
         <v>636</v>
       </c>
       <c r="H64" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J64" t="n">
         <v>36</v>
@@ -3136,10 +3136,10 @@
         <v>19903</v>
       </c>
       <c r="L64" t="n">
-        <v>1192</v>
+        <v>1206</v>
       </c>
       <c r="M64" t="n">
-        <v>120931</v>
+        <v>121039</v>
       </c>
     </row>
     <row r="65">
@@ -3149,13 +3149,13 @@
         </is>
       </c>
       <c r="B65" t="n">
+        <v>1596</v>
+      </c>
+      <c r="C65" t="n">
+        <v>10</v>
+      </c>
+      <c r="D65" t="n">
         <v>1586</v>
-      </c>
-      <c r="C65" t="n">
-        <v>4</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1582</v>
       </c>
       <c r="E65" t="n">
         <v>573</v>
@@ -3179,10 +3179,10 @@
         <v>20476</v>
       </c>
       <c r="L65" t="n">
-        <v>1222</v>
+        <v>1236</v>
       </c>
       <c r="M65" t="n">
-        <v>122517</v>
+        <v>122635</v>
       </c>
     </row>
     <row r="66">
@@ -3192,13 +3192,13 @@
         </is>
       </c>
       <c r="B66" t="n">
+        <v>4788</v>
+      </c>
+      <c r="C66" t="n">
+        <v>41</v>
+      </c>
+      <c r="D66" t="n">
         <v>4747</v>
-      </c>
-      <c r="C66" t="n">
-        <v>111</v>
-      </c>
-      <c r="D66" t="n">
-        <v>4636</v>
       </c>
       <c r="E66" t="n">
         <v>528</v>
@@ -3222,10 +3222,10 @@
         <v>21004</v>
       </c>
       <c r="L66" t="n">
-        <v>1256</v>
+        <v>1270</v>
       </c>
       <c r="M66" t="n">
-        <v>127264</v>
+        <v>127423</v>
       </c>
     </row>
     <row r="67">
@@ -3235,13 +3235,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5168</v>
+        <v>5286</v>
       </c>
       <c r="C67" t="n">
-        <v>239</v>
+        <v>119</v>
       </c>
       <c r="D67" t="n">
-        <v>4929</v>
+        <v>5167</v>
       </c>
       <c r="E67" t="n">
         <v>841</v>
@@ -3265,10 +3265,10 @@
         <v>21845</v>
       </c>
       <c r="L67" t="n">
-        <v>1291</v>
+        <v>1305</v>
       </c>
       <c r="M67" t="n">
-        <v>132432</v>
+        <v>132709</v>
       </c>
     </row>
     <row r="68">
@@ -3278,40 +3278,40 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>4056</v>
+        <v>4804</v>
       </c>
       <c r="C68" t="n">
-        <v>987</v>
+        <v>751</v>
       </c>
       <c r="D68" t="n">
-        <v>3069</v>
+        <v>4053</v>
       </c>
       <c r="E68" t="n">
         <v>626</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H68" t="n">
         <v>34</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K68" t="n">
         <v>22471</v>
       </c>
       <c r="L68" t="n">
-        <v>1325</v>
+        <v>1339</v>
       </c>
       <c r="M68" t="n">
-        <v>136488</v>
+        <v>137513</v>
       </c>
     </row>
     <row r="69">
@@ -3321,28 +3321,28 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2854</v>
+        <v>4918</v>
       </c>
       <c r="C69" t="n">
-        <v>2237</v>
+        <v>2065</v>
       </c>
       <c r="D69" t="n">
-        <v>617</v>
+        <v>2853</v>
       </c>
       <c r="E69" t="n">
         <v>651</v>
       </c>
       <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>651</v>
+      </c>
+      <c r="H69" t="n">
+        <v>28</v>
+      </c>
+      <c r="I69" t="n">
         <v>1</v>
-      </c>
-      <c r="G69" t="n">
-        <v>650</v>
-      </c>
-      <c r="H69" t="n">
-        <v>27</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
       </c>
       <c r="J69" t="n">
         <v>27</v>
@@ -3351,10 +3351,10 @@
         <v>23122</v>
       </c>
       <c r="L69" t="n">
-        <v>1352</v>
+        <v>1367</v>
       </c>
       <c r="M69" t="n">
-        <v>139342</v>
+        <v>142431</v>
       </c>
     </row>
     <row r="70">
@@ -3364,40 +3364,40 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>548</v>
+        <v>3797</v>
       </c>
       <c r="C70" t="n">
-        <v>441</v>
+        <v>3250</v>
       </c>
       <c r="D70" t="n">
-        <v>107</v>
+        <v>547</v>
       </c>
       <c r="E70" t="n">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H70" t="n">
         <v>18</v>
       </c>
       <c r="I70" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K70" t="n">
-        <v>23727</v>
+        <v>23725</v>
       </c>
       <c r="L70" t="n">
-        <v>1370</v>
+        <v>1385</v>
       </c>
       <c r="M70" t="n">
-        <v>139890</v>
+        <v>146228</v>
       </c>
     </row>
     <row r="71">
@@ -3407,40 +3407,83 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>139</v>
+        <v>403</v>
       </c>
       <c r="C71" t="n">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="E71" t="n">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F71" t="n">
-        <v>398</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>392</v>
       </c>
       <c r="H71" t="n">
+        <v>14</v>
+      </c>
+      <c r="I71" t="n">
+        <v>5</v>
+      </c>
+      <c r="J71" t="n">
         <v>9</v>
       </c>
-      <c r="I71" t="n">
-        <v>9</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
       <c r="K71" t="n">
-        <v>24126</v>
+        <v>24117</v>
       </c>
       <c r="L71" t="n">
-        <v>1379</v>
+        <v>1399</v>
       </c>
       <c r="M71" t="n">
-        <v>140029</v>
+        <v>146631</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2020-05-10</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>57</v>
+      </c>
+      <c r="C72" t="n">
+        <v>57</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>510</v>
+      </c>
+      <c r="F72" t="n">
+        <v>510</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>12</v>
+      </c>
+      <c r="I72" t="n">
+        <v>12</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>24627</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1411</v>
+      </c>
+      <c r="M72" t="n">
+        <v>146688</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>57</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13">
@@ -913,10 +913,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>195</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14">
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="15">
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>887</v>
+        <v>893</v>
       </c>
     </row>
     <row r="16">
@@ -1075,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>1032</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="17">
@@ -1085,10 +1085,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>635</v>
@@ -1118,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>1667</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="18">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>742</v>
+      </c>
+      <c r="C18" t="n">
+        <v>11</v>
+      </c>
+      <c r="D18" t="n">
         <v>731</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>730</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>2398</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="19">
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>851</v>
+        <v>866</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
         <v>851</v>
@@ -1204,7 +1204,7 @@
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>3249</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="20">
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1072</v>
+        <v>1082</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D20" t="n">
         <v>1072</v>
@@ -1247,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>4321</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="21">
@@ -1257,10 +1257,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1726</v>
+        <v>1730</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>1726</v>
@@ -1290,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>6047</v>
+        <v>6098</v>
       </c>
     </row>
     <row r="22">
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>698</v>
@@ -1333,7 +1333,7 @@
         <v>14</v>
       </c>
       <c r="M22" t="n">
-        <v>6746</v>
+        <v>6796</v>
       </c>
     </row>
     <row r="23">
@@ -1376,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="M23" t="n">
-        <v>7767</v>
+        <v>7817</v>
       </c>
     </row>
     <row r="24">
@@ -1386,22 +1386,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E24" t="n">
         <v>105</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H24" t="n">
         <v>5</v>
@@ -1419,7 +1419,7 @@
         <v>24</v>
       </c>
       <c r="M24" t="n">
-        <v>9218</v>
+        <v>9269</v>
       </c>
     </row>
     <row r="25">
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1598</v>
+        <v>1603</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>1598</v>
@@ -1462,7 +1462,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="n">
-        <v>10816</v>
+        <v>10872</v>
       </c>
     </row>
     <row r="26">
@@ -1472,10 +1472,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2307</v>
+        <v>2314</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D26" t="n">
         <v>2307</v>
@@ -1505,7 +1505,7 @@
         <v>35</v>
       </c>
       <c r="M26" t="n">
-        <v>13123</v>
+        <v>13186</v>
       </c>
     </row>
     <row r="27">
@@ -1515,10 +1515,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2600</v>
+        <v>2603</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>2600</v>
@@ -1548,7 +1548,7 @@
         <v>44</v>
       </c>
       <c r="M27" t="n">
-        <v>15723</v>
+        <v>15789</v>
       </c>
     </row>
     <row r="28">
@@ -1561,10 +1561,10 @@
         <v>2159</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="E28" t="n">
         <v>282</v>
@@ -1591,7 +1591,7 @@
         <v>47</v>
       </c>
       <c r="M28" t="n">
-        <v>17882</v>
+        <v>17948</v>
       </c>
     </row>
     <row r="29">
@@ -1604,10 +1604,10 @@
         <v>1271</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E29" t="n">
         <v>288</v>
@@ -1634,7 +1634,7 @@
         <v>58</v>
       </c>
       <c r="M29" t="n">
-        <v>19153</v>
+        <v>19219</v>
       </c>
     </row>
     <row r="30">
@@ -1656,10 +1656,10 @@
         <v>271</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H30" t="n">
         <v>18</v>
@@ -1677,7 +1677,7 @@
         <v>76</v>
       </c>
       <c r="M30" t="n">
-        <v>20786</v>
+        <v>20852</v>
       </c>
     </row>
     <row r="31">
@@ -1687,10 +1687,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1957</v>
+        <v>1962</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>1957</v>
@@ -1720,7 +1720,7 @@
         <v>91</v>
       </c>
       <c r="M31" t="n">
-        <v>22743</v>
+        <v>22814</v>
       </c>
     </row>
     <row r="32">
@@ -1730,13 +1730,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2309</v>
+        <v>2314</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="E32" t="n">
         <v>406</v>
@@ -1763,7 +1763,7 @@
         <v>113</v>
       </c>
       <c r="M32" t="n">
-        <v>25052</v>
+        <v>25128</v>
       </c>
     </row>
     <row r="33">
@@ -1773,13 +1773,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2527</v>
+        <v>2534</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D33" t="n">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="E33" t="n">
         <v>469</v>
@@ -1806,7 +1806,7 @@
         <v>135</v>
       </c>
       <c r="M33" t="n">
-        <v>27579</v>
+        <v>27662</v>
       </c>
     </row>
     <row r="34">
@@ -1819,10 +1819,10 @@
         <v>2690</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="E34" t="n">
         <v>396</v>
@@ -1849,7 +1849,7 @@
         <v>157</v>
       </c>
       <c r="M34" t="n">
-        <v>30269</v>
+        <v>30352</v>
       </c>
     </row>
     <row r="35">
@@ -1859,13 +1859,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="E35" t="n">
         <v>513</v>
@@ -1892,7 +1892,7 @@
         <v>189</v>
       </c>
       <c r="M35" t="n">
-        <v>33059</v>
+        <v>33141</v>
       </c>
     </row>
     <row r="36">
@@ -1902,13 +1902,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="E36" t="n">
         <v>461</v>
@@ -1935,7 +1935,7 @@
         <v>214</v>
       </c>
       <c r="M36" t="n">
-        <v>34698</v>
+        <v>34779</v>
       </c>
     </row>
     <row r="37">
@@ -1945,10 +1945,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
         <v>1094</v>
@@ -1978,7 +1978,7 @@
         <v>248</v>
       </c>
       <c r="M37" t="n">
-        <v>35792</v>
+        <v>35874</v>
       </c>
     </row>
     <row r="38">
@@ -1988,13 +1988,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2417</v>
+        <v>2419</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="E38" t="n">
         <v>557</v>
@@ -2021,7 +2021,7 @@
         <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>38209</v>
+        <v>38293</v>
       </c>
     </row>
     <row r="39">
@@ -2031,22 +2031,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>2769</v>
       </c>
       <c r="E39" t="n">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H39" t="n">
         <v>36</v>
@@ -2058,13 +2058,13 @@
         <v>36</v>
       </c>
       <c r="K39" t="n">
-        <v>5905</v>
+        <v>5904</v>
       </c>
       <c r="L39" t="n">
         <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>40978</v>
+        <v>41063</v>
       </c>
     </row>
     <row r="40">
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3068</v>
+        <v>3071</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>3068</v>
@@ -2101,13 +2101,13 @@
         <v>28</v>
       </c>
       <c r="K40" t="n">
-        <v>6327</v>
+        <v>6326</v>
       </c>
       <c r="L40" t="n">
         <v>337</v>
       </c>
       <c r="M40" t="n">
-        <v>44046</v>
+        <v>44134</v>
       </c>
     </row>
     <row r="41">
@@ -2120,10 +2120,10 @@
         <v>2741</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="E41" t="n">
         <v>558</v>
@@ -2144,13 +2144,13 @@
         <v>35</v>
       </c>
       <c r="K41" t="n">
-        <v>6885</v>
+        <v>6884</v>
       </c>
       <c r="L41" t="n">
         <v>372</v>
       </c>
       <c r="M41" t="n">
-        <v>46787</v>
+        <v>46875</v>
       </c>
     </row>
     <row r="42">
@@ -2160,13 +2160,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2709</v>
+        <v>2716</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D42" t="n">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="E42" t="n">
         <v>515</v>
@@ -2187,13 +2187,13 @@
         <v>25</v>
       </c>
       <c r="K42" t="n">
-        <v>7400</v>
+        <v>7399</v>
       </c>
       <c r="L42" t="n">
         <v>397</v>
       </c>
       <c r="M42" t="n">
-        <v>49496</v>
+        <v>49591</v>
       </c>
     </row>
     <row r="43">
@@ -2206,10 +2206,10 @@
         <v>1517</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="E43" t="n">
         <v>486</v>
@@ -2230,13 +2230,13 @@
         <v>20</v>
       </c>
       <c r="K43" t="n">
-        <v>7886</v>
+        <v>7885</v>
       </c>
       <c r="L43" t="n">
         <v>417</v>
       </c>
       <c r="M43" t="n">
-        <v>51013</v>
+        <v>51108</v>
       </c>
     </row>
     <row r="44">
@@ -2246,10 +2246,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
         <v>698</v>
@@ -2273,13 +2273,13 @@
         <v>29</v>
       </c>
       <c r="K44" t="n">
-        <v>8205</v>
+        <v>8204</v>
       </c>
       <c r="L44" t="n">
         <v>446</v>
       </c>
       <c r="M44" t="n">
-        <v>51711</v>
+        <v>51807</v>
       </c>
     </row>
     <row r="45">
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3459</v>
+        <v>3465</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D45" t="n">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="E45" t="n">
         <v>293</v>
@@ -2316,13 +2316,13 @@
         <v>34</v>
       </c>
       <c r="K45" t="n">
-        <v>8498</v>
+        <v>8497</v>
       </c>
       <c r="L45" t="n">
         <v>480</v>
       </c>
       <c r="M45" t="n">
-        <v>55170</v>
+        <v>55272</v>
       </c>
     </row>
     <row r="46">
@@ -2332,22 +2332,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3586</v>
+        <v>3594</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D46" t="n">
         <v>3584</v>
       </c>
       <c r="E46" t="n">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H46" t="n">
         <v>45</v>
@@ -2359,13 +2359,13 @@
         <v>45</v>
       </c>
       <c r="K46" t="n">
-        <v>8917</v>
+        <v>8915</v>
       </c>
       <c r="L46" t="n">
         <v>525</v>
       </c>
       <c r="M46" t="n">
-        <v>58756</v>
+        <v>58866</v>
       </c>
     </row>
     <row r="47">
@@ -2375,13 +2375,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3223</v>
+        <v>3260</v>
       </c>
       <c r="C47" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D47" t="n">
-        <v>3215</v>
+        <v>3222</v>
       </c>
       <c r="E47" t="n">
         <v>581</v>
@@ -2402,13 +2402,13 @@
         <v>37</v>
       </c>
       <c r="K47" t="n">
-        <v>9498</v>
+        <v>9496</v>
       </c>
       <c r="L47" t="n">
         <v>562</v>
       </c>
       <c r="M47" t="n">
-        <v>61979</v>
+        <v>62126</v>
       </c>
     </row>
     <row r="48">
@@ -2418,13 +2418,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3834</v>
+        <v>3902</v>
       </c>
       <c r="C48" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D48" t="n">
-        <v>3779</v>
+        <v>3833</v>
       </c>
       <c r="E48" t="n">
         <v>601</v>
@@ -2445,13 +2445,13 @@
         <v>34</v>
       </c>
       <c r="K48" t="n">
-        <v>10099</v>
+        <v>10097</v>
       </c>
       <c r="L48" t="n">
         <v>596</v>
       </c>
       <c r="M48" t="n">
-        <v>65813</v>
+        <v>66028</v>
       </c>
     </row>
     <row r="49">
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3982</v>
+        <v>4016</v>
       </c>
       <c r="C49" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D49" t="n">
-        <v>3975</v>
+        <v>3983</v>
       </c>
       <c r="E49" t="n">
         <v>505</v>
@@ -2488,13 +2488,13 @@
         <v>35</v>
       </c>
       <c r="K49" t="n">
-        <v>10604</v>
+        <v>10602</v>
       </c>
       <c r="L49" t="n">
         <v>631</v>
       </c>
       <c r="M49" t="n">
-        <v>69795</v>
+        <v>70044</v>
       </c>
     </row>
     <row r="50">
@@ -2504,22 +2504,22 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1680</v>
+        <v>1705</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D50" t="n">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="E50" t="n">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H50" t="n">
         <v>28</v>
@@ -2531,13 +2531,13 @@
         <v>28</v>
       </c>
       <c r="K50" t="n">
-        <v>11163</v>
+        <v>11160</v>
       </c>
       <c r="L50" t="n">
         <v>659</v>
       </c>
       <c r="M50" t="n">
-        <v>71475</v>
+        <v>71749</v>
       </c>
     </row>
     <row r="51">
@@ -2547,13 +2547,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1020</v>
+        <v>1102</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="D51" t="n">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="E51" t="n">
         <v>479</v>
@@ -2574,13 +2574,13 @@
         <v>35</v>
       </c>
       <c r="K51" t="n">
-        <v>11642</v>
+        <v>11639</v>
       </c>
       <c r="L51" t="n">
         <v>694</v>
       </c>
       <c r="M51" t="n">
-        <v>72495</v>
+        <v>72851</v>
       </c>
     </row>
     <row r="52">
@@ -2590,22 +2590,22 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4230</v>
+        <v>4290</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D52" t="n">
-        <v>4229</v>
+        <v>4227</v>
       </c>
       <c r="E52" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H52" t="n">
         <v>37</v>
@@ -2617,13 +2617,13 @@
         <v>37</v>
       </c>
       <c r="K52" t="n">
-        <v>12029</v>
+        <v>12025</v>
       </c>
       <c r="L52" t="n">
         <v>731</v>
       </c>
       <c r="M52" t="n">
-        <v>76725</v>
+        <v>77141</v>
       </c>
     </row>
     <row r="53">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3758</v>
+        <v>3816</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D53" t="n">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="E53" t="n">
         <v>379</v>
@@ -2660,13 +2660,13 @@
         <v>47</v>
       </c>
       <c r="K53" t="n">
-        <v>12408</v>
+        <v>12404</v>
       </c>
       <c r="L53" t="n">
         <v>778</v>
       </c>
       <c r="M53" t="n">
-        <v>80483</v>
+        <v>80957</v>
       </c>
     </row>
     <row r="54">
@@ -2676,13 +2676,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3610</v>
+        <v>3689</v>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D54" t="n">
-        <v>3608</v>
+        <v>3605</v>
       </c>
       <c r="E54" t="n">
         <v>605</v>
@@ -2694,22 +2694,22 @@
         <v>605</v>
       </c>
       <c r="H54" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
         <v>47</v>
       </c>
       <c r="K54" t="n">
-        <v>13013</v>
+        <v>13009</v>
       </c>
       <c r="L54" t="n">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M54" t="n">
-        <v>84093</v>
+        <v>84646</v>
       </c>
     </row>
     <row r="55">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4013</v>
+        <v>4077</v>
       </c>
       <c r="C55" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D55" t="n">
-        <v>3933</v>
+        <v>4009</v>
       </c>
       <c r="E55" t="n">
         <v>644</v>
@@ -2746,13 +2746,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="n">
-        <v>13657</v>
+        <v>13653</v>
       </c>
       <c r="L55" t="n">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="M55" t="n">
-        <v>88106</v>
+        <v>88723</v>
       </c>
     </row>
     <row r="56">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3348</v>
+        <v>3389</v>
       </c>
       <c r="C56" t="n">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D56" t="n">
-        <v>3335</v>
+        <v>3341</v>
       </c>
       <c r="E56" t="n">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H56" t="n">
         <v>35</v>
@@ -2789,13 +2789,13 @@
         <v>35</v>
       </c>
       <c r="K56" t="n">
-        <v>14359</v>
+        <v>14353</v>
       </c>
       <c r="L56" t="n">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="M56" t="n">
-        <v>91454</v>
+        <v>92112</v>
       </c>
     </row>
     <row r="57">
@@ -2805,22 +2805,22 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2178</v>
+        <v>2193</v>
       </c>
       <c r="C57" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D57" t="n">
-        <v>2141</v>
+        <v>2175</v>
       </c>
       <c r="E57" t="n">
         <v>626</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H57" t="n">
         <v>41</v>
@@ -2832,13 +2832,13 @@
         <v>41</v>
       </c>
       <c r="K57" t="n">
-        <v>14985</v>
+        <v>14979</v>
       </c>
       <c r="L57" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="M57" t="n">
-        <v>93632</v>
+        <v>94305</v>
       </c>
     </row>
     <row r="58">
@@ -2848,22 +2848,22 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1776</v>
+        <v>1783</v>
       </c>
       <c r="C58" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>1762</v>
+        <v>1778</v>
       </c>
       <c r="E58" t="n">
         <v>951</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="H58" t="n">
         <v>34</v>
@@ -2875,13 +2875,13 @@
         <v>34</v>
       </c>
       <c r="K58" t="n">
-        <v>15936</v>
+        <v>15930</v>
       </c>
       <c r="L58" t="n">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="M58" t="n">
-        <v>95408</v>
+        <v>96088</v>
       </c>
     </row>
     <row r="59">
@@ -2891,22 +2891,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4180</v>
+        <v>4206</v>
       </c>
       <c r="C59" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D59" t="n">
-        <v>4169</v>
+        <v>4174</v>
       </c>
       <c r="E59" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H59" t="n">
         <v>41</v>
@@ -2918,13 +2918,13 @@
         <v>41</v>
       </c>
       <c r="K59" t="n">
-        <v>16560</v>
+        <v>16553</v>
       </c>
       <c r="L59" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="M59" t="n">
-        <v>99588</v>
+        <v>100294</v>
       </c>
     </row>
     <row r="60">
@@ -2934,13 +2934,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4387</v>
+        <v>4428</v>
       </c>
       <c r="C60" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D60" t="n">
-        <v>4372</v>
+        <v>4383</v>
       </c>
       <c r="E60" t="n">
         <v>596</v>
@@ -2961,13 +2961,13 @@
         <v>34</v>
       </c>
       <c r="K60" t="n">
-        <v>17156</v>
+        <v>17149</v>
       </c>
       <c r="L60" t="n">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="M60" t="n">
-        <v>103975</v>
+        <v>104722</v>
       </c>
     </row>
     <row r="61">
@@ -2977,13 +2977,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4520</v>
+        <v>4540</v>
       </c>
       <c r="C61" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D61" t="n">
-        <v>4498</v>
+        <v>4517</v>
       </c>
       <c r="E61" t="n">
         <v>657</v>
@@ -3004,13 +3004,13 @@
         <v>40</v>
       </c>
       <c r="K61" t="n">
-        <v>17813</v>
+        <v>17806</v>
       </c>
       <c r="L61" t="n">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="M61" t="n">
-        <v>108495</v>
+        <v>109262</v>
       </c>
     </row>
     <row r="62">
@@ -3020,22 +3020,22 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4537</v>
+        <v>4605</v>
       </c>
       <c r="C62" t="n">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D62" t="n">
-        <v>4470</v>
+        <v>4526</v>
       </c>
       <c r="E62" t="n">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G62" t="n">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="H62" t="n">
         <v>45</v>
@@ -3047,13 +3047,13 @@
         <v>45</v>
       </c>
       <c r="K62" t="n">
-        <v>18610</v>
+        <v>18602</v>
       </c>
       <c r="L62" t="n">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="M62" t="n">
-        <v>113032</v>
+        <v>113867</v>
       </c>
     </row>
     <row r="63">
@@ -3063,13 +3063,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5611</v>
+        <v>5705</v>
       </c>
       <c r="C63" t="n">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D63" t="n">
-        <v>5580</v>
+        <v>5605</v>
       </c>
       <c r="E63" t="n">
         <v>655</v>
@@ -3090,13 +3090,13 @@
         <v>33</v>
       </c>
       <c r="K63" t="n">
-        <v>19265</v>
+        <v>19257</v>
       </c>
       <c r="L63" t="n">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="M63" t="n">
-        <v>118643</v>
+        <v>119572</v>
       </c>
     </row>
     <row r="64">
@@ -3106,22 +3106,22 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2773</v>
+        <v>2789</v>
       </c>
       <c r="C64" t="n">
         <v>18</v>
       </c>
       <c r="D64" t="n">
-        <v>2755</v>
+        <v>2771</v>
       </c>
       <c r="E64" t="n">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H64" t="n">
         <v>40</v>
@@ -3133,13 +3133,13 @@
         <v>40</v>
       </c>
       <c r="K64" t="n">
-        <v>19901</v>
+        <v>19892</v>
       </c>
       <c r="L64" t="n">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="M64" t="n">
-        <v>121416</v>
+        <v>122361</v>
       </c>
     </row>
     <row r="65">
@@ -3149,13 +3149,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1639</v>
+        <v>1647</v>
       </c>
       <c r="C65" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D65" t="n">
-        <v>1593</v>
+        <v>1635</v>
       </c>
       <c r="E65" t="n">
         <v>571</v>
@@ -3176,13 +3176,13 @@
         <v>30</v>
       </c>
       <c r="K65" t="n">
-        <v>20472</v>
+        <v>20463</v>
       </c>
       <c r="L65" t="n">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="M65" t="n">
-        <v>123055</v>
+        <v>124008</v>
       </c>
     </row>
     <row r="66">
@@ -3192,40 +3192,40 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4889</v>
+        <v>5093</v>
       </c>
       <c r="C66" t="n">
-        <v>102</v>
+        <v>209</v>
       </c>
       <c r="D66" t="n">
-        <v>4787</v>
+        <v>4884</v>
       </c>
       <c r="E66" t="n">
         <v>528</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H66" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
         <v>34</v>
       </c>
       <c r="K66" t="n">
-        <v>21000</v>
+        <v>20991</v>
       </c>
       <c r="L66" t="n">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="M66" t="n">
-        <v>127944</v>
+        <v>129101</v>
       </c>
     </row>
     <row r="67">
@@ -3235,13 +3235,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5464</v>
+        <v>5608</v>
       </c>
       <c r="C67" t="n">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="D67" t="n">
-        <v>5285</v>
+        <v>5456</v>
       </c>
       <c r="E67" t="n">
         <v>841</v>
@@ -3253,22 +3253,22 @@
         <v>841</v>
       </c>
       <c r="H67" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
         <v>34</v>
       </c>
       <c r="K67" t="n">
-        <v>21841</v>
+        <v>21832</v>
       </c>
       <c r="L67" t="n">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="M67" t="n">
-        <v>133408</v>
+        <v>134709</v>
       </c>
     </row>
     <row r="68">
@@ -3278,13 +3278,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5233</v>
+        <v>5363</v>
       </c>
       <c r="C68" t="n">
-        <v>436</v>
+        <v>271</v>
       </c>
       <c r="D68" t="n">
-        <v>4797</v>
+        <v>5092</v>
       </c>
       <c r="E68" t="n">
         <v>626</v>
@@ -3296,22 +3296,22 @@
         <v>626</v>
       </c>
       <c r="H68" t="n">
+        <v>38</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
         <v>37</v>
       </c>
-      <c r="I68" t="n">
-        <v>3</v>
-      </c>
-      <c r="J68" t="n">
-        <v>34</v>
-      </c>
       <c r="K68" t="n">
-        <v>22467</v>
+        <v>22458</v>
       </c>
       <c r="L68" t="n">
-        <v>1341</v>
+        <v>1345</v>
       </c>
       <c r="M68" t="n">
-        <v>138641</v>
+        <v>140072</v>
       </c>
     </row>
     <row r="69">
@@ -3321,40 +3321,40 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>5325</v>
+        <v>5377</v>
       </c>
       <c r="C69" t="n">
-        <v>632</v>
+        <v>402</v>
       </c>
       <c r="D69" t="n">
-        <v>4693</v>
+        <v>4975</v>
       </c>
       <c r="E69" t="n">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="H69" t="n">
         <v>30</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K69" t="n">
-        <v>23116</v>
+        <v>23104</v>
       </c>
       <c r="L69" t="n">
-        <v>1371</v>
+        <v>1375</v>
       </c>
       <c r="M69" t="n">
-        <v>143966</v>
+        <v>145449</v>
       </c>
     </row>
     <row r="70">
@@ -3364,40 +3364,40 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>4519</v>
+        <v>5002</v>
       </c>
       <c r="C70" t="n">
-        <v>1274</v>
+        <v>542</v>
       </c>
       <c r="D70" t="n">
-        <v>3245</v>
+        <v>4460</v>
       </c>
       <c r="E70" t="n">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H70" t="n">
         <v>20</v>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K70" t="n">
-        <v>23716</v>
+        <v>23702</v>
       </c>
       <c r="L70" t="n">
-        <v>1391</v>
+        <v>1395</v>
       </c>
       <c r="M70" t="n">
-        <v>148485</v>
+        <v>150451</v>
       </c>
     </row>
     <row r="71">
@@ -3407,40 +3407,40 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1523</v>
+        <v>2375</v>
       </c>
       <c r="C71" t="n">
-        <v>1196</v>
+        <v>870</v>
       </c>
       <c r="D71" t="n">
-        <v>327</v>
+        <v>1505</v>
       </c>
       <c r="E71" t="n">
         <v>389</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H71" t="n">
+        <v>18</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
         <v>17</v>
       </c>
-      <c r="I71" t="n">
-        <v>3</v>
-      </c>
-      <c r="J71" t="n">
-        <v>14</v>
-      </c>
       <c r="K71" t="n">
-        <v>24105</v>
+        <v>24091</v>
       </c>
       <c r="L71" t="n">
-        <v>1408</v>
+        <v>1413</v>
       </c>
       <c r="M71" t="n">
-        <v>150008</v>
+        <v>152826</v>
       </c>
     </row>
     <row r="72">
@@ -3450,40 +3450,40 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>349</v>
+        <v>536</v>
       </c>
       <c r="C72" t="n">
-        <v>292</v>
+        <v>191</v>
       </c>
       <c r="D72" t="n">
-        <v>57</v>
+        <v>345</v>
       </c>
       <c r="E72" t="n">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F72" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="H72" t="n">
+        <v>23</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" t="n">
         <v>21</v>
       </c>
-      <c r="I72" t="n">
-        <v>9</v>
-      </c>
-      <c r="J72" t="n">
-        <v>12</v>
-      </c>
       <c r="K72" t="n">
-        <v>24572</v>
+        <v>24554</v>
       </c>
       <c r="L72" t="n">
-        <v>1429</v>
+        <v>1436</v>
       </c>
       <c r="M72" t="n">
-        <v>150357</v>
+        <v>153362</v>
       </c>
     </row>
     <row r="73">
@@ -3493,40 +3493,83 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>153</v>
+        <v>609</v>
       </c>
       <c r="C73" t="n">
-        <v>153</v>
+        <v>475</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="E73" t="n">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="F73" t="n">
-        <v>555</v>
+        <v>8</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>518</v>
       </c>
       <c r="H73" t="n">
+        <v>31</v>
+      </c>
+      <c r="I73" t="n">
+        <v>16</v>
+      </c>
+      <c r="J73" t="n">
         <v>15</v>
       </c>
-      <c r="I73" t="n">
+      <c r="K73" t="n">
+        <v>25080</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1467</v>
+      </c>
+      <c r="M73" t="n">
+        <v>153971</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2020-05-12</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>112</v>
+      </c>
+      <c r="C74" t="n">
+        <v>112</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>393</v>
+      </c>
+      <c r="F74" t="n">
+        <v>390</v>
+      </c>
+      <c r="G74" t="n">
+        <v>3</v>
+      </c>
+      <c r="H74" t="n">
         <v>15</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>25127</v>
-      </c>
-      <c r="L73" t="n">
-        <v>1444</v>
-      </c>
-      <c r="M73" t="n">
-        <v>150510</v>
+      <c r="I74" t="n">
+        <v>15</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>25473</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1482</v>
+      </c>
+      <c r="M74" t="n">
+        <v>154083</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -873,10 +873,10 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -916,10 +916,10 @@
         <v>198</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -1088,10 +1088,10 @@
         <v>640</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1131,10 +1131,10 @@
         <v>742</v>
       </c>
       <c r="C18" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>731</v>
+        <v>742</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1174,10 +1174,10 @@
         <v>866</v>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>851</v>
+        <v>866</v>
       </c>
       <c r="E19" t="n">
         <v>17</v>
@@ -1217,10 +1217,10 @@
         <v>1082</v>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1072</v>
+        <v>1082</v>
       </c>
       <c r="E20" t="n">
         <v>23</v>
@@ -1260,10 +1260,10 @@
         <v>1730</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1726</v>
+        <v>1730</v>
       </c>
       <c r="E21" t="n">
         <v>45</v>
@@ -1300,13 +1300,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E22" t="n">
         <v>75</v>
@@ -1333,7 +1333,7 @@
         <v>14</v>
       </c>
       <c r="M22" t="n">
-        <v>6796</v>
+        <v>6795</v>
       </c>
     </row>
     <row r="23">
@@ -1376,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="M23" t="n">
-        <v>7817</v>
+        <v>7816</v>
       </c>
     </row>
     <row r="24">
@@ -1389,10 +1389,10 @@
         <v>1452</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="E24" t="n">
         <v>105</v>
@@ -1419,7 +1419,7 @@
         <v>24</v>
       </c>
       <c r="M24" t="n">
-        <v>9269</v>
+        <v>9268</v>
       </c>
     </row>
     <row r="25">
@@ -1429,13 +1429,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1598</v>
+        <v>1602</v>
       </c>
       <c r="E25" t="n">
         <v>113</v>
@@ -1462,7 +1462,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="n">
-        <v>10872</v>
+        <v>10870</v>
       </c>
     </row>
     <row r="26">
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2307</v>
+        <v>2312</v>
       </c>
       <c r="E26" t="n">
         <v>162</v>
@@ -1505,7 +1505,7 @@
         <v>35</v>
       </c>
       <c r="M26" t="n">
-        <v>13186</v>
+        <v>13182</v>
       </c>
     </row>
     <row r="27">
@@ -1518,10 +1518,10 @@
         <v>2603</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>2600</v>
+        <v>2602</v>
       </c>
       <c r="E27" t="n">
         <v>303</v>
@@ -1548,7 +1548,7 @@
         <v>44</v>
       </c>
       <c r="M27" t="n">
-        <v>15789</v>
+        <v>15785</v>
       </c>
     </row>
     <row r="28">
@@ -1561,10 +1561,10 @@
         <v>2159</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="E28" t="n">
         <v>282</v>
@@ -1591,7 +1591,7 @@
         <v>47</v>
       </c>
       <c r="M28" t="n">
-        <v>17948</v>
+        <v>17944</v>
       </c>
     </row>
     <row r="29">
@@ -1604,10 +1604,10 @@
         <v>1271</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="E29" t="n">
         <v>288</v>
@@ -1634,7 +1634,7 @@
         <v>58</v>
       </c>
       <c r="M29" t="n">
-        <v>19219</v>
+        <v>19215</v>
       </c>
     </row>
     <row r="30">
@@ -1644,22 +1644,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="E30" t="n">
         <v>271</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H30" t="n">
         <v>18</v>
@@ -1677,7 +1677,7 @@
         <v>76</v>
       </c>
       <c r="M30" t="n">
-        <v>20852</v>
+        <v>20847</v>
       </c>
     </row>
     <row r="31">
@@ -1687,13 +1687,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1957</v>
+        <v>1960</v>
       </c>
       <c r="E31" t="n">
         <v>373</v>
@@ -1720,7 +1720,7 @@
         <v>91</v>
       </c>
       <c r="M31" t="n">
-        <v>22814</v>
+        <v>22808</v>
       </c>
     </row>
     <row r="32">
@@ -1730,13 +1730,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>2308</v>
+        <v>2312</v>
       </c>
       <c r="E32" t="n">
         <v>406</v>
@@ -1763,7 +1763,7 @@
         <v>113</v>
       </c>
       <c r="M32" t="n">
-        <v>25128</v>
+        <v>25121</v>
       </c>
     </row>
     <row r="33">
@@ -1776,10 +1776,10 @@
         <v>2534</v>
       </c>
       <c r="C33" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2525</v>
+        <v>2534</v>
       </c>
       <c r="E33" t="n">
         <v>469</v>
@@ -1806,7 +1806,7 @@
         <v>135</v>
       </c>
       <c r="M33" t="n">
-        <v>27662</v>
+        <v>27655</v>
       </c>
     </row>
     <row r="34">
@@ -1819,10 +1819,10 @@
         <v>2690</v>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2688</v>
+        <v>2690</v>
       </c>
       <c r="E34" t="n">
         <v>396</v>
@@ -1849,7 +1849,7 @@
         <v>157</v>
       </c>
       <c r="M34" t="n">
-        <v>30352</v>
+        <v>30345</v>
       </c>
     </row>
     <row r="35">
@@ -1871,10 +1871,10 @@
         <v>513</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H35" t="n">
         <v>32</v>
@@ -1892,7 +1892,7 @@
         <v>189</v>
       </c>
       <c r="M35" t="n">
-        <v>33141</v>
+        <v>33134</v>
       </c>
     </row>
     <row r="36">
@@ -1902,13 +1902,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="E36" t="n">
         <v>461</v>
@@ -1935,7 +1935,7 @@
         <v>214</v>
       </c>
       <c r="M36" t="n">
-        <v>34779</v>
+        <v>34770</v>
       </c>
     </row>
     <row r="37">
@@ -1948,10 +1948,10 @@
         <v>1095</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E37" t="n">
         <v>527</v>
@@ -1978,7 +1978,7 @@
         <v>248</v>
       </c>
       <c r="M37" t="n">
-        <v>35874</v>
+        <v>35865</v>
       </c>
     </row>
     <row r="38">
@@ -1988,13 +1988,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2415</v>
+        <v>2417</v>
       </c>
       <c r="E38" t="n">
         <v>557</v>
@@ -2021,7 +2021,7 @@
         <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>38293</v>
+        <v>38282</v>
       </c>
     </row>
     <row r="39">
@@ -2034,10 +2034,10 @@
         <v>2770</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="E39" t="n">
         <v>422</v>
@@ -2064,7 +2064,7 @@
         <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>41063</v>
+        <v>41052</v>
       </c>
     </row>
     <row r="40">
@@ -2077,10 +2077,10 @@
         <v>3071</v>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="E40" t="n">
         <v>422</v>
@@ -2107,7 +2107,7 @@
         <v>337</v>
       </c>
       <c r="M40" t="n">
-        <v>44134</v>
+        <v>44123</v>
       </c>
     </row>
     <row r="41">
@@ -2117,13 +2117,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>2740</v>
+        <v>2738</v>
       </c>
       <c r="E41" t="n">
         <v>558</v>
@@ -2150,7 +2150,7 @@
         <v>372</v>
       </c>
       <c r="M41" t="n">
-        <v>46875</v>
+        <v>46863</v>
       </c>
     </row>
     <row r="42">
@@ -2163,10 +2163,10 @@
         <v>2716</v>
       </c>
       <c r="C42" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>2708</v>
+        <v>2716</v>
       </c>
       <c r="E42" t="n">
         <v>515</v>
@@ -2193,7 +2193,7 @@
         <v>397</v>
       </c>
       <c r="M42" t="n">
-        <v>49591</v>
+        <v>49579</v>
       </c>
     </row>
     <row r="43">
@@ -2206,19 +2206,19 @@
         <v>1517</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="E43" t="n">
         <v>486</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H43" t="n">
         <v>20</v>
@@ -2236,7 +2236,7 @@
         <v>417</v>
       </c>
       <c r="M43" t="n">
-        <v>51108</v>
+        <v>51096</v>
       </c>
     </row>
     <row r="44">
@@ -2249,10 +2249,10 @@
         <v>699</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E44" t="n">
         <v>319</v>
@@ -2279,7 +2279,7 @@
         <v>446</v>
       </c>
       <c r="M44" t="n">
-        <v>51807</v>
+        <v>51795</v>
       </c>
     </row>
     <row r="45">
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3465</v>
+        <v>3460</v>
       </c>
       <c r="C45" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>3456</v>
+        <v>3460</v>
       </c>
       <c r="E45" t="n">
         <v>293</v>
@@ -2322,7 +2322,7 @@
         <v>480</v>
       </c>
       <c r="M45" t="n">
-        <v>55272</v>
+        <v>55255</v>
       </c>
     </row>
     <row r="46">
@@ -2335,19 +2335,19 @@
         <v>3594</v>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>3584</v>
+        <v>3592</v>
       </c>
       <c r="E46" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H46" t="n">
         <v>45</v>
@@ -2359,13 +2359,13 @@
         <v>45</v>
       </c>
       <c r="K46" t="n">
-        <v>8915</v>
+        <v>8914</v>
       </c>
       <c r="L46" t="n">
         <v>525</v>
       </c>
       <c r="M46" t="n">
-        <v>58866</v>
+        <v>58849</v>
       </c>
     </row>
     <row r="47">
@@ -2375,13 +2375,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="C47" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>3222</v>
+        <v>3257</v>
       </c>
       <c r="E47" t="n">
         <v>581</v>
@@ -2402,13 +2402,13 @@
         <v>37</v>
       </c>
       <c r="K47" t="n">
-        <v>9496</v>
+        <v>9495</v>
       </c>
       <c r="L47" t="n">
         <v>562</v>
       </c>
       <c r="M47" t="n">
-        <v>62126</v>
+        <v>62108</v>
       </c>
     </row>
     <row r="48">
@@ -2418,22 +2418,22 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3902</v>
+        <v>3901</v>
       </c>
       <c r="C48" t="n">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>3833</v>
+        <v>3899</v>
       </c>
       <c r="E48" t="n">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H48" t="n">
         <v>34</v>
@@ -2445,13 +2445,13 @@
         <v>34</v>
       </c>
       <c r="K48" t="n">
-        <v>10097</v>
+        <v>10095</v>
       </c>
       <c r="L48" t="n">
         <v>596</v>
       </c>
       <c r="M48" t="n">
-        <v>66028</v>
+        <v>66009</v>
       </c>
     </row>
     <row r="49">
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="C49" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>3983</v>
+        <v>4014</v>
       </c>
       <c r="E49" t="n">
         <v>505</v>
@@ -2488,13 +2488,13 @@
         <v>35</v>
       </c>
       <c r="K49" t="n">
-        <v>10602</v>
+        <v>10600</v>
       </c>
       <c r="L49" t="n">
         <v>631</v>
       </c>
       <c r="M49" t="n">
-        <v>70044</v>
+        <v>70024</v>
       </c>
     </row>
     <row r="50">
@@ -2504,22 +2504,22 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="C50" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1678</v>
+        <v>1703</v>
       </c>
       <c r="E50" t="n">
         <v>558</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H50" t="n">
         <v>28</v>
@@ -2531,13 +2531,13 @@
         <v>28</v>
       </c>
       <c r="K50" t="n">
-        <v>11160</v>
+        <v>11158</v>
       </c>
       <c r="L50" t="n">
         <v>659</v>
       </c>
       <c r="M50" t="n">
-        <v>71749</v>
+        <v>71727</v>
       </c>
     </row>
     <row r="51">
@@ -2547,13 +2547,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C51" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>1021</v>
+        <v>1100</v>
       </c>
       <c r="E51" t="n">
         <v>479</v>
@@ -2574,13 +2574,13 @@
         <v>35</v>
       </c>
       <c r="K51" t="n">
-        <v>11639</v>
+        <v>11637</v>
       </c>
       <c r="L51" t="n">
         <v>694</v>
       </c>
       <c r="M51" t="n">
-        <v>72851</v>
+        <v>72827</v>
       </c>
     </row>
     <row r="52">
@@ -2590,13 +2590,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4290</v>
+        <v>4288</v>
       </c>
       <c r="C52" t="n">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>4227</v>
+        <v>4286</v>
       </c>
       <c r="E52" t="n">
         <v>386</v>
@@ -2617,13 +2617,13 @@
         <v>37</v>
       </c>
       <c r="K52" t="n">
-        <v>12025</v>
+        <v>12023</v>
       </c>
       <c r="L52" t="n">
         <v>731</v>
       </c>
       <c r="M52" t="n">
-        <v>77141</v>
+        <v>77115</v>
       </c>
     </row>
     <row r="53">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3816</v>
+        <v>3814</v>
       </c>
       <c r="C53" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>3757</v>
+        <v>3811</v>
       </c>
       <c r="E53" t="n">
         <v>379</v>
@@ -2660,13 +2660,13 @@
         <v>47</v>
       </c>
       <c r="K53" t="n">
-        <v>12404</v>
+        <v>12402</v>
       </c>
       <c r="L53" t="n">
         <v>778</v>
       </c>
       <c r="M53" t="n">
-        <v>80957</v>
+        <v>80929</v>
       </c>
     </row>
     <row r="54">
@@ -2676,13 +2676,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3689</v>
+        <v>3692</v>
       </c>
       <c r="C54" t="n">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>3605</v>
+        <v>3686</v>
       </c>
       <c r="E54" t="n">
         <v>605</v>
@@ -2697,19 +2697,19 @@
         <v>48</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K54" t="n">
-        <v>13009</v>
+        <v>13007</v>
       </c>
       <c r="L54" t="n">
         <v>826</v>
       </c>
       <c r="M54" t="n">
-        <v>84646</v>
+        <v>84621</v>
       </c>
     </row>
     <row r="55">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4077</v>
+        <v>4125</v>
       </c>
       <c r="C55" t="n">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D55" t="n">
-        <v>4009</v>
+        <v>4071</v>
       </c>
       <c r="E55" t="n">
         <v>644</v>
@@ -2746,13 +2746,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="n">
-        <v>13653</v>
+        <v>13651</v>
       </c>
       <c r="L55" t="n">
         <v>864</v>
       </c>
       <c r="M55" t="n">
-        <v>88723</v>
+        <v>88746</v>
       </c>
     </row>
     <row r="56">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3389</v>
+        <v>3415</v>
       </c>
       <c r="C56" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D56" t="n">
-        <v>3341</v>
+        <v>3384</v>
       </c>
       <c r="E56" t="n">
         <v>700</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H56" t="n">
         <v>35</v>
@@ -2789,13 +2789,13 @@
         <v>35</v>
       </c>
       <c r="K56" t="n">
-        <v>14353</v>
+        <v>14351</v>
       </c>
       <c r="L56" t="n">
         <v>899</v>
       </c>
       <c r="M56" t="n">
-        <v>92112</v>
+        <v>92161</v>
       </c>
     </row>
     <row r="57">
@@ -2805,22 +2805,22 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2193</v>
+        <v>2204</v>
       </c>
       <c r="C57" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D57" t="n">
-        <v>2175</v>
+        <v>2192</v>
       </c>
       <c r="E57" t="n">
         <v>626</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H57" t="n">
         <v>41</v>
@@ -2832,13 +2832,13 @@
         <v>41</v>
       </c>
       <c r="K57" t="n">
-        <v>14979</v>
+        <v>14977</v>
       </c>
       <c r="L57" t="n">
         <v>940</v>
       </c>
       <c r="M57" t="n">
-        <v>94305</v>
+        <v>94365</v>
       </c>
     </row>
     <row r="58">
@@ -2848,22 +2848,22 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1778</v>
+        <v>1782</v>
       </c>
       <c r="E58" t="n">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H58" t="n">
         <v>34</v>
@@ -2875,13 +2875,13 @@
         <v>34</v>
       </c>
       <c r="K58" t="n">
-        <v>15930</v>
+        <v>15927</v>
       </c>
       <c r="L58" t="n">
         <v>974</v>
       </c>
       <c r="M58" t="n">
-        <v>96088</v>
+        <v>96147</v>
       </c>
     </row>
     <row r="59">
@@ -2891,22 +2891,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4206</v>
+        <v>4202</v>
       </c>
       <c r="C59" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>4174</v>
+        <v>4200</v>
       </c>
       <c r="E59" t="n">
         <v>623</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H59" t="n">
         <v>41</v>
@@ -2918,13 +2918,13 @@
         <v>41</v>
       </c>
       <c r="K59" t="n">
-        <v>16553</v>
+        <v>16550</v>
       </c>
       <c r="L59" t="n">
         <v>1015</v>
       </c>
       <c r="M59" t="n">
-        <v>100294</v>
+        <v>100349</v>
       </c>
     </row>
     <row r="60">
@@ -2934,13 +2934,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4428</v>
+        <v>4438</v>
       </c>
       <c r="C60" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D60" t="n">
-        <v>4383</v>
+        <v>4426</v>
       </c>
       <c r="E60" t="n">
         <v>596</v>
@@ -2961,13 +2961,13 @@
         <v>34</v>
       </c>
       <c r="K60" t="n">
-        <v>17149</v>
+        <v>17146</v>
       </c>
       <c r="L60" t="n">
         <v>1049</v>
       </c>
       <c r="M60" t="n">
-        <v>104722</v>
+        <v>104787</v>
       </c>
     </row>
     <row r="61">
@@ -2977,22 +2977,22 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4540</v>
+        <v>4541</v>
       </c>
       <c r="C61" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>4517</v>
+        <v>4537</v>
       </c>
       <c r="E61" t="n">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="H61" t="n">
         <v>40</v>
@@ -3004,13 +3004,13 @@
         <v>40</v>
       </c>
       <c r="K61" t="n">
-        <v>17806</v>
+        <v>17800</v>
       </c>
       <c r="L61" t="n">
         <v>1089</v>
       </c>
       <c r="M61" t="n">
-        <v>109262</v>
+        <v>109328</v>
       </c>
     </row>
     <row r="62">
@@ -3020,22 +3020,22 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4605</v>
+        <v>4640</v>
       </c>
       <c r="C62" t="n">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="D62" t="n">
-        <v>4526</v>
+        <v>4600</v>
       </c>
       <c r="E62" t="n">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H62" t="n">
         <v>45</v>
@@ -3047,13 +3047,13 @@
         <v>45</v>
       </c>
       <c r="K62" t="n">
-        <v>18602</v>
+        <v>18595</v>
       </c>
       <c r="L62" t="n">
         <v>1134</v>
       </c>
       <c r="M62" t="n">
-        <v>113867</v>
+        <v>113968</v>
       </c>
     </row>
     <row r="63">
@@ -3063,22 +3063,22 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5705</v>
+        <v>5716</v>
       </c>
       <c r="C63" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D63" t="n">
-        <v>5605</v>
+        <v>5694</v>
       </c>
       <c r="E63" t="n">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H63" t="n">
         <v>33</v>
@@ -3090,13 +3090,13 @@
         <v>33</v>
       </c>
       <c r="K63" t="n">
-        <v>19257</v>
+        <v>19249</v>
       </c>
       <c r="L63" t="n">
         <v>1167</v>
       </c>
       <c r="M63" t="n">
-        <v>119572</v>
+        <v>119684</v>
       </c>
     </row>
     <row r="64">
@@ -3106,13 +3106,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2789</v>
+        <v>2827</v>
       </c>
       <c r="C64" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D64" t="n">
-        <v>2771</v>
+        <v>2786</v>
       </c>
       <c r="E64" t="n">
         <v>635</v>
@@ -3133,13 +3133,13 @@
         <v>40</v>
       </c>
       <c r="K64" t="n">
-        <v>19892</v>
+        <v>19884</v>
       </c>
       <c r="L64" t="n">
         <v>1207</v>
       </c>
       <c r="M64" t="n">
-        <v>122361</v>
+        <v>122511</v>
       </c>
     </row>
     <row r="65">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1647</v>
+        <v>1652</v>
       </c>
       <c r="C65" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D65" t="n">
-        <v>1635</v>
+        <v>1645</v>
       </c>
       <c r="E65" t="n">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H65" t="n">
         <v>30</v>
@@ -3176,13 +3176,13 @@
         <v>30</v>
       </c>
       <c r="K65" t="n">
-        <v>20463</v>
+        <v>20454</v>
       </c>
       <c r="L65" t="n">
         <v>1237</v>
       </c>
       <c r="M65" t="n">
-        <v>124008</v>
+        <v>124163</v>
       </c>
     </row>
     <row r="66">
@@ -3192,40 +3192,40 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5093</v>
+        <v>5159</v>
       </c>
       <c r="C66" t="n">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="D66" t="n">
-        <v>4884</v>
+        <v>5092</v>
       </c>
       <c r="E66" t="n">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H66" t="n">
         <v>35</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K66" t="n">
-        <v>20991</v>
+        <v>20981</v>
       </c>
       <c r="L66" t="n">
         <v>1272</v>
       </c>
       <c r="M66" t="n">
-        <v>129101</v>
+        <v>129322</v>
       </c>
     </row>
     <row r="67">
@@ -3235,40 +3235,40 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5608</v>
+        <v>5701</v>
       </c>
       <c r="C67" t="n">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="D67" t="n">
-        <v>5456</v>
+        <v>5598</v>
       </c>
       <c r="E67" t="n">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="H67" t="n">
         <v>35</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K67" t="n">
-        <v>21832</v>
+        <v>21819</v>
       </c>
       <c r="L67" t="n">
         <v>1307</v>
       </c>
       <c r="M67" t="n">
-        <v>134709</v>
+        <v>135023</v>
       </c>
     </row>
     <row r="68">
@@ -3278,40 +3278,40 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5363</v>
+        <v>5524</v>
       </c>
       <c r="C68" t="n">
-        <v>271</v>
+        <v>170</v>
       </c>
       <c r="D68" t="n">
-        <v>5092</v>
+        <v>5354</v>
       </c>
       <c r="E68" t="n">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H68" t="n">
         <v>38</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K68" t="n">
-        <v>22458</v>
+        <v>22443</v>
       </c>
       <c r="L68" t="n">
         <v>1345</v>
       </c>
       <c r="M68" t="n">
-        <v>140072</v>
+        <v>140547</v>
       </c>
     </row>
     <row r="69">
@@ -3321,40 +3321,40 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>5377</v>
+        <v>5662</v>
       </c>
       <c r="C69" t="n">
-        <v>402</v>
+        <v>308</v>
       </c>
       <c r="D69" t="n">
-        <v>4975</v>
+        <v>5354</v>
       </c>
       <c r="E69" t="n">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F69" t="n">
+        <v>2</v>
+      </c>
+      <c r="G69" t="n">
+        <v>642</v>
+      </c>
+      <c r="H69" t="n">
+        <v>31</v>
+      </c>
+      <c r="I69" t="n">
         <v>1</v>
-      </c>
-      <c r="G69" t="n">
-        <v>645</v>
-      </c>
-      <c r="H69" t="n">
-        <v>30</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
       </c>
       <c r="J69" t="n">
         <v>30</v>
       </c>
       <c r="K69" t="n">
-        <v>23104</v>
+        <v>23087</v>
       </c>
       <c r="L69" t="n">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="M69" t="n">
-        <v>145449</v>
+        <v>146209</v>
       </c>
     </row>
     <row r="70">
@@ -3364,22 +3364,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>5002</v>
+        <v>5417</v>
       </c>
       <c r="C70" t="n">
-        <v>542</v>
+        <v>423</v>
       </c>
       <c r="D70" t="n">
-        <v>4460</v>
+        <v>4994</v>
       </c>
       <c r="E70" t="n">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H70" t="n">
         <v>20</v>
@@ -3391,13 +3391,13 @@
         <v>20</v>
       </c>
       <c r="K70" t="n">
-        <v>23702</v>
+        <v>23683</v>
       </c>
       <c r="L70" t="n">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="M70" t="n">
-        <v>150451</v>
+        <v>151626</v>
       </c>
     </row>
     <row r="71">
@@ -3407,40 +3407,40 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2375</v>
+        <v>2724</v>
       </c>
       <c r="C71" t="n">
-        <v>870</v>
+        <v>352</v>
       </c>
       <c r="D71" t="n">
-        <v>1505</v>
+        <v>2372</v>
       </c>
       <c r="E71" t="n">
         <v>389</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H71" t="n">
+        <v>20</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" t="n">
         <v>18</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>17</v>
-      </c>
       <c r="K71" t="n">
-        <v>24091</v>
+        <v>24072</v>
       </c>
       <c r="L71" t="n">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="M71" t="n">
-        <v>152826</v>
+        <v>154350</v>
       </c>
     </row>
     <row r="72">
@@ -3450,13 +3450,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>536</v>
+        <v>1010</v>
       </c>
       <c r="C72" t="n">
-        <v>191</v>
+        <v>475</v>
       </c>
       <c r="D72" t="n">
-        <v>345</v>
+        <v>535</v>
       </c>
       <c r="E72" t="n">
         <v>463</v>
@@ -3468,22 +3468,22 @@
         <v>463</v>
       </c>
       <c r="H72" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I72" t="n">
         <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K72" t="n">
-        <v>24554</v>
+        <v>24535</v>
       </c>
       <c r="L72" t="n">
-        <v>1436</v>
+        <v>1441</v>
       </c>
       <c r="M72" t="n">
-        <v>153362</v>
+        <v>155360</v>
       </c>
     </row>
     <row r="73">
@@ -3493,40 +3493,40 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>609</v>
+        <v>4086</v>
       </c>
       <c r="C73" t="n">
-        <v>475</v>
+        <v>3487</v>
       </c>
       <c r="D73" t="n">
-        <v>134</v>
+        <v>599</v>
       </c>
       <c r="E73" t="n">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F73" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="H73" t="n">
+        <v>33</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
         <v>31</v>
       </c>
-      <c r="I73" t="n">
-        <v>16</v>
-      </c>
-      <c r="J73" t="n">
-        <v>15</v>
-      </c>
       <c r="K73" t="n">
-        <v>25080</v>
+        <v>25058</v>
       </c>
       <c r="L73" t="n">
-        <v>1467</v>
+        <v>1474</v>
       </c>
       <c r="M73" t="n">
-        <v>153971</v>
+        <v>159446</v>
       </c>
     </row>
     <row r="74">
@@ -3536,40 +3536,83 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>112</v>
+        <v>693</v>
       </c>
       <c r="C74" t="n">
-        <v>112</v>
+        <v>589</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="E74" t="n">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="F74" t="n">
-        <v>390</v>
+        <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>376</v>
       </c>
       <c r="H74" t="n">
+        <v>25</v>
+      </c>
+      <c r="I74" t="n">
+        <v>10</v>
+      </c>
+      <c r="J74" t="n">
         <v>15</v>
       </c>
-      <c r="I74" t="n">
-        <v>15</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
       <c r="K74" t="n">
-        <v>25473</v>
+        <v>25436</v>
       </c>
       <c r="L74" t="n">
-        <v>1482</v>
+        <v>1499</v>
       </c>
       <c r="M74" t="n">
-        <v>154083</v>
+        <v>160139</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2020-05-13</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>100</v>
+      </c>
+      <c r="C75" t="n">
+        <v>100</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>617</v>
+      </c>
+      <c r="F75" t="n">
+        <v>617</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+      <c r="I75" t="n">
+        <v>9</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>26053</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1508</v>
+      </c>
+      <c r="M75" t="n">
+        <v>160239</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1518,10 +1518,10 @@
         <v>2603</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="E27" t="n">
         <v>303</v>
@@ -1690,10 +1690,10 @@
         <v>1961</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="E31" t="n">
         <v>373</v>
@@ -1730,13 +1730,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="E32" t="n">
         <v>406</v>
@@ -1763,7 +1763,7 @@
         <v>113</v>
       </c>
       <c r="M32" t="n">
-        <v>25121</v>
+        <v>25122</v>
       </c>
     </row>
     <row r="33">
@@ -1806,7 +1806,7 @@
         <v>135</v>
       </c>
       <c r="M33" t="n">
-        <v>27655</v>
+        <v>27656</v>
       </c>
     </row>
     <row r="34">
@@ -1849,7 +1849,7 @@
         <v>157</v>
       </c>
       <c r="M34" t="n">
-        <v>30345</v>
+        <v>30346</v>
       </c>
     </row>
     <row r="35">
@@ -1862,19 +1862,19 @@
         <v>2789</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2788</v>
+        <v>2789</v>
       </c>
       <c r="E35" t="n">
         <v>513</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H35" t="n">
         <v>32</v>
@@ -1892,7 +1892,7 @@
         <v>189</v>
       </c>
       <c r="M35" t="n">
-        <v>33134</v>
+        <v>33135</v>
       </c>
     </row>
     <row r="36">
@@ -1935,7 +1935,7 @@
         <v>214</v>
       </c>
       <c r="M36" t="n">
-        <v>34770</v>
+        <v>34771</v>
       </c>
     </row>
     <row r="37">
@@ -1978,7 +1978,7 @@
         <v>248</v>
       </c>
       <c r="M37" t="n">
-        <v>35865</v>
+        <v>35866</v>
       </c>
     </row>
     <row r="38">
@@ -2021,7 +2021,7 @@
         <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>38282</v>
+        <v>38283</v>
       </c>
     </row>
     <row r="39">
@@ -2064,7 +2064,7 @@
         <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>41052</v>
+        <v>41053</v>
       </c>
     </row>
     <row r="40">
@@ -2077,10 +2077,10 @@
         <v>3071</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>3069</v>
+        <v>3071</v>
       </c>
       <c r="E40" t="n">
         <v>422</v>
@@ -2107,7 +2107,7 @@
         <v>337</v>
       </c>
       <c r="M40" t="n">
-        <v>44123</v>
+        <v>44124</v>
       </c>
     </row>
     <row r="41">
@@ -2120,19 +2120,19 @@
         <v>2740</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>2738</v>
+        <v>2740</v>
       </c>
       <c r="E41" t="n">
         <v>558</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H41" t="n">
         <v>35</v>
@@ -2150,7 +2150,7 @@
         <v>372</v>
       </c>
       <c r="M41" t="n">
-        <v>46863</v>
+        <v>46864</v>
       </c>
     </row>
     <row r="42">
@@ -2160,10 +2160,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2716</v>
+        <v>2717</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
         <v>2716</v>
@@ -2193,7 +2193,7 @@
         <v>397</v>
       </c>
       <c r="M42" t="n">
-        <v>49579</v>
+        <v>49581</v>
       </c>
     </row>
     <row r="43">
@@ -2215,10 +2215,10 @@
         <v>486</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H43" t="n">
         <v>20</v>
@@ -2236,7 +2236,7 @@
         <v>417</v>
       </c>
       <c r="M43" t="n">
-        <v>51096</v>
+        <v>51098</v>
       </c>
     </row>
     <row r="44">
@@ -2279,7 +2279,7 @@
         <v>446</v>
       </c>
       <c r="M44" t="n">
-        <v>51795</v>
+        <v>51797</v>
       </c>
     </row>
     <row r="45">
@@ -2322,7 +2322,7 @@
         <v>480</v>
       </c>
       <c r="M45" t="n">
-        <v>55255</v>
+        <v>55257</v>
       </c>
     </row>
     <row r="46">
@@ -2332,13 +2332,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3594</v>
+        <v>3593</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>3592</v>
+        <v>3593</v>
       </c>
       <c r="E46" t="n">
         <v>417</v>
@@ -2365,7 +2365,7 @@
         <v>525</v>
       </c>
       <c r="M46" t="n">
-        <v>58849</v>
+        <v>58850</v>
       </c>
     </row>
     <row r="47">
@@ -2375,13 +2375,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>3257</v>
+        <v>3258</v>
       </c>
       <c r="E47" t="n">
         <v>581</v>
@@ -2421,10 +2421,10 @@
         <v>3901</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>3899</v>
+        <v>3901</v>
       </c>
       <c r="E48" t="n">
         <v>600</v>
@@ -2464,10 +2464,10 @@
         <v>4015</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>4014</v>
+        <v>4015</v>
       </c>
       <c r="E49" t="n">
         <v>505</v>
@@ -2516,10 +2516,10 @@
         <v>558</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H50" t="n">
         <v>28</v>
@@ -2590,13 +2590,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4288</v>
+        <v>4287</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>4286</v>
+        <v>4287</v>
       </c>
       <c r="E52" t="n">
         <v>386</v>
@@ -2623,7 +2623,7 @@
         <v>731</v>
       </c>
       <c r="M52" t="n">
-        <v>77115</v>
+        <v>77114</v>
       </c>
     </row>
     <row r="53">
@@ -2636,10 +2636,10 @@
         <v>3814</v>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>3811</v>
+        <v>3814</v>
       </c>
       <c r="E53" t="n">
         <v>379</v>
@@ -2666,7 +2666,7 @@
         <v>778</v>
       </c>
       <c r="M53" t="n">
-        <v>80929</v>
+        <v>80928</v>
       </c>
     </row>
     <row r="54">
@@ -2676,22 +2676,22 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3692</v>
+        <v>3697</v>
       </c>
       <c r="C54" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>3686</v>
+        <v>3693</v>
       </c>
       <c r="E54" t="n">
         <v>605</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H54" t="n">
         <v>48</v>
@@ -2709,7 +2709,7 @@
         <v>826</v>
       </c>
       <c r="M54" t="n">
-        <v>84621</v>
+        <v>84625</v>
       </c>
     </row>
     <row r="55">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4125</v>
+        <v>4192</v>
       </c>
       <c r="C55" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D55" t="n">
-        <v>4071</v>
+        <v>4126</v>
       </c>
       <c r="E55" t="n">
         <v>644</v>
@@ -2752,7 +2752,7 @@
         <v>864</v>
       </c>
       <c r="M55" t="n">
-        <v>88746</v>
+        <v>88817</v>
       </c>
     </row>
     <row r="56">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3415</v>
+        <v>3473</v>
       </c>
       <c r="C56" t="n">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D56" t="n">
-        <v>3384</v>
+        <v>3416</v>
       </c>
       <c r="E56" t="n">
         <v>700</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H56" t="n">
         <v>35</v>
@@ -2795,7 +2795,7 @@
         <v>899</v>
       </c>
       <c r="M56" t="n">
-        <v>92161</v>
+        <v>92290</v>
       </c>
     </row>
     <row r="57">
@@ -2805,22 +2805,22 @@
         </is>
       </c>
       <c r="B57" t="n">
+        <v>2212</v>
+      </c>
+      <c r="C57" t="n">
+        <v>8</v>
+      </c>
+      <c r="D57" t="n">
         <v>2204</v>
-      </c>
-      <c r="C57" t="n">
-        <v>12</v>
-      </c>
-      <c r="D57" t="n">
-        <v>2192</v>
       </c>
       <c r="E57" t="n">
         <v>626</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="H57" t="n">
         <v>41</v>
@@ -2838,7 +2838,7 @@
         <v>940</v>
       </c>
       <c r="M57" t="n">
-        <v>94365</v>
+        <v>94502</v>
       </c>
     </row>
     <row r="58">
@@ -2851,10 +2851,10 @@
         <v>1782</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="E58" t="n">
         <v>950</v>
@@ -2881,7 +2881,7 @@
         <v>974</v>
       </c>
       <c r="M58" t="n">
-        <v>96147</v>
+        <v>96284</v>
       </c>
     </row>
     <row r="59">
@@ -2891,22 +2891,22 @@
         </is>
       </c>
       <c r="B59" t="n">
+        <v>4208</v>
+      </c>
+      <c r="C59" t="n">
+        <v>6</v>
+      </c>
+      <c r="D59" t="n">
         <v>4202</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2</v>
-      </c>
-      <c r="D59" t="n">
-        <v>4200</v>
       </c>
       <c r="E59" t="n">
         <v>623</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H59" t="n">
         <v>41</v>
@@ -2924,7 +2924,7 @@
         <v>1015</v>
       </c>
       <c r="M59" t="n">
-        <v>100349</v>
+        <v>100492</v>
       </c>
     </row>
     <row r="60">
@@ -2934,13 +2934,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4438</v>
+        <v>4471</v>
       </c>
       <c r="C60" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D60" t="n">
-        <v>4426</v>
+        <v>4439</v>
       </c>
       <c r="E60" t="n">
         <v>596</v>
@@ -2967,7 +2967,7 @@
         <v>1049</v>
       </c>
       <c r="M60" t="n">
-        <v>104787</v>
+        <v>104963</v>
       </c>
     </row>
     <row r="61">
@@ -2977,13 +2977,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4541</v>
+        <v>4569</v>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D61" t="n">
-        <v>4537</v>
+        <v>4540</v>
       </c>
       <c r="E61" t="n">
         <v>654</v>
@@ -3010,7 +3010,7 @@
         <v>1089</v>
       </c>
       <c r="M61" t="n">
-        <v>109328</v>
+        <v>109532</v>
       </c>
     </row>
     <row r="62">
@@ -3020,22 +3020,22 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4640</v>
+        <v>4672</v>
       </c>
       <c r="C62" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
-        <v>4600</v>
+        <v>4642</v>
       </c>
       <c r="E62" t="n">
         <v>795</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H62" t="n">
         <v>45</v>
@@ -3053,7 +3053,7 @@
         <v>1134</v>
       </c>
       <c r="M62" t="n">
-        <v>113968</v>
+        <v>114204</v>
       </c>
     </row>
     <row r="63">
@@ -3063,22 +3063,22 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5716</v>
+        <v>5746</v>
       </c>
       <c r="C63" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D63" t="n">
-        <v>5694</v>
+        <v>5718</v>
       </c>
       <c r="E63" t="n">
         <v>654</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H63" t="n">
         <v>33</v>
@@ -3096,7 +3096,7 @@
         <v>1167</v>
       </c>
       <c r="M63" t="n">
-        <v>119684</v>
+        <v>119950</v>
       </c>
     </row>
     <row r="64">
@@ -3106,22 +3106,22 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2827</v>
+        <v>2824</v>
       </c>
       <c r="C64" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>2786</v>
+        <v>2820</v>
       </c>
       <c r="E64" t="n">
         <v>635</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H64" t="n">
         <v>40</v>
@@ -3139,7 +3139,7 @@
         <v>1207</v>
       </c>
       <c r="M64" t="n">
-        <v>122511</v>
+        <v>122774</v>
       </c>
     </row>
     <row r="65">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="B65" t="n">
+        <v>1656</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4</v>
+      </c>
+      <c r="D65" t="n">
         <v>1652</v>
-      </c>
-      <c r="C65" t="n">
-        <v>7</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1645</v>
       </c>
       <c r="E65" t="n">
         <v>570</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H65" t="n">
         <v>30</v>
@@ -3182,7 +3182,7 @@
         <v>1237</v>
       </c>
       <c r="M65" t="n">
-        <v>124163</v>
+        <v>124430</v>
       </c>
     </row>
     <row r="66">
@@ -3192,19 +3192,19 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5159</v>
+        <v>5202</v>
       </c>
       <c r="C66" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D66" t="n">
-        <v>5092</v>
+        <v>5161</v>
       </c>
       <c r="E66" t="n">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>526</v>
@@ -3219,13 +3219,13 @@
         <v>35</v>
       </c>
       <c r="K66" t="n">
-        <v>20981</v>
+        <v>20980</v>
       </c>
       <c r="L66" t="n">
         <v>1272</v>
       </c>
       <c r="M66" t="n">
-        <v>129322</v>
+        <v>129632</v>
       </c>
     </row>
     <row r="67">
@@ -3235,13 +3235,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5701</v>
+        <v>5734</v>
       </c>
       <c r="C67" t="n">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="D67" t="n">
-        <v>5598</v>
+        <v>5702</v>
       </c>
       <c r="E67" t="n">
         <v>838</v>
@@ -3253,22 +3253,22 @@
         <v>838</v>
       </c>
       <c r="H67" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
         <v>35</v>
       </c>
       <c r="K67" t="n">
-        <v>21819</v>
+        <v>21818</v>
       </c>
       <c r="L67" t="n">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="M67" t="n">
-        <v>135023</v>
+        <v>135366</v>
       </c>
     </row>
     <row r="68">
@@ -3278,13 +3278,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5524</v>
+        <v>5555</v>
       </c>
       <c r="C68" t="n">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="D68" t="n">
-        <v>5354</v>
+        <v>5521</v>
       </c>
       <c r="E68" t="n">
         <v>624</v>
@@ -3305,13 +3305,13 @@
         <v>38</v>
       </c>
       <c r="K68" t="n">
-        <v>22443</v>
+        <v>22442</v>
       </c>
       <c r="L68" t="n">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="M68" t="n">
-        <v>140547</v>
+        <v>140921</v>
       </c>
     </row>
     <row r="69">
@@ -3321,40 +3321,40 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>5662</v>
+        <v>5753</v>
       </c>
       <c r="C69" t="n">
-        <v>308</v>
+        <v>93</v>
       </c>
       <c r="D69" t="n">
-        <v>5354</v>
+        <v>5660</v>
       </c>
       <c r="E69" t="n">
         <v>644</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="H69" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K69" t="n">
-        <v>23087</v>
+        <v>23086</v>
       </c>
       <c r="L69" t="n">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="M69" t="n">
-        <v>146209</v>
+        <v>146674</v>
       </c>
     </row>
     <row r="70">
@@ -3364,22 +3364,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>5417</v>
+        <v>5778</v>
       </c>
       <c r="C70" t="n">
-        <v>423</v>
+        <v>360</v>
       </c>
       <c r="D70" t="n">
-        <v>4994</v>
+        <v>5418</v>
       </c>
       <c r="E70" t="n">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H70" t="n">
         <v>20</v>
@@ -3391,13 +3391,13 @@
         <v>20</v>
       </c>
       <c r="K70" t="n">
-        <v>23683</v>
+        <v>23680</v>
       </c>
       <c r="L70" t="n">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="M70" t="n">
-        <v>151626</v>
+        <v>152452</v>
       </c>
     </row>
     <row r="71">
@@ -3407,40 +3407,40 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2724</v>
+        <v>3058</v>
       </c>
       <c r="C71" t="n">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="D71" t="n">
-        <v>2372</v>
+        <v>2727</v>
       </c>
       <c r="E71" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F71" t="n">
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H71" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I71" t="n">
         <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K71" t="n">
-        <v>24072</v>
+        <v>24070</v>
       </c>
       <c r="L71" t="n">
-        <v>1416</v>
+        <v>1420</v>
       </c>
       <c r="M71" t="n">
-        <v>154350</v>
+        <v>155510</v>
       </c>
     </row>
     <row r="72">
@@ -3450,40 +3450,40 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1010</v>
+        <v>1217</v>
       </c>
       <c r="C72" t="n">
-        <v>475</v>
+        <v>211</v>
       </c>
       <c r="D72" t="n">
-        <v>535</v>
+        <v>1006</v>
       </c>
       <c r="E72" t="n">
         <v>463</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H72" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I72" t="n">
         <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K72" t="n">
-        <v>24535</v>
+        <v>24533</v>
       </c>
       <c r="L72" t="n">
-        <v>1441</v>
+        <v>1447</v>
       </c>
       <c r="M72" t="n">
-        <v>155360</v>
+        <v>156727</v>
       </c>
     </row>
     <row r="73">
@@ -3493,13 +3493,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>4086</v>
+        <v>5752</v>
       </c>
       <c r="C73" t="n">
-        <v>3487</v>
+        <v>1672</v>
       </c>
       <c r="D73" t="n">
-        <v>599</v>
+        <v>4080</v>
       </c>
       <c r="E73" t="n">
         <v>523</v>
@@ -3511,22 +3511,22 @@
         <v>523</v>
       </c>
       <c r="H73" t="n">
+        <v>34</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
         <v>33</v>
       </c>
-      <c r="I73" t="n">
-        <v>2</v>
-      </c>
-      <c r="J73" t="n">
-        <v>31</v>
-      </c>
       <c r="K73" t="n">
-        <v>25058</v>
+        <v>25056</v>
       </c>
       <c r="L73" t="n">
-        <v>1474</v>
+        <v>1481</v>
       </c>
       <c r="M73" t="n">
-        <v>159446</v>
+        <v>162479</v>
       </c>
     </row>
     <row r="74">
@@ -3536,40 +3536,40 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>693</v>
+        <v>2376</v>
       </c>
       <c r="C74" t="n">
-        <v>589</v>
+        <v>1696</v>
       </c>
       <c r="D74" t="n">
-        <v>104</v>
+        <v>680</v>
       </c>
       <c r="E74" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H74" t="n">
+        <v>29</v>
+      </c>
+      <c r="I74" t="n">
+        <v>4</v>
+      </c>
+      <c r="J74" t="n">
         <v>25</v>
       </c>
-      <c r="I74" t="n">
-        <v>10</v>
-      </c>
-      <c r="J74" t="n">
-        <v>15</v>
-      </c>
       <c r="K74" t="n">
-        <v>25436</v>
+        <v>25433</v>
       </c>
       <c r="L74" t="n">
-        <v>1499</v>
+        <v>1510</v>
       </c>
       <c r="M74" t="n">
-        <v>160139</v>
+        <v>164855</v>
       </c>
     </row>
     <row r="75">
@@ -3579,40 +3579,83 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>100</v>
+        <v>501</v>
       </c>
       <c r="C75" t="n">
-        <v>100</v>
+        <v>403</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E75" t="n">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F75" t="n">
-        <v>617</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>612</v>
       </c>
       <c r="H75" t="n">
+        <v>20</v>
+      </c>
+      <c r="I75" t="n">
+        <v>11</v>
+      </c>
+      <c r="J75" t="n">
         <v>9</v>
       </c>
-      <c r="I75" t="n">
-        <v>9</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
       <c r="K75" t="n">
-        <v>26053</v>
+        <v>26046</v>
       </c>
       <c r="L75" t="n">
-        <v>1508</v>
+        <v>1530</v>
       </c>
       <c r="M75" t="n">
-        <v>160239</v>
+        <v>165356</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2020-05-14</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>92</v>
+      </c>
+      <c r="C76" t="n">
+        <v>92</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>609</v>
+      </c>
+      <c r="F76" t="n">
+        <v>609</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>20</v>
+      </c>
+      <c r="I76" t="n">
+        <v>20</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>26655</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1550</v>
+      </c>
+      <c r="M76" t="n">
+        <v>165448</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1214,13 +1214,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E20" t="n">
         <v>23</v>
@@ -1247,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>4368</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="21">
@@ -1290,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>6098</v>
+        <v>6097</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1333,7 @@
         <v>14</v>
       </c>
       <c r="M22" t="n">
-        <v>6795</v>
+        <v>6794</v>
       </c>
     </row>
     <row r="23">
@@ -1376,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="M23" t="n">
-        <v>7816</v>
+        <v>7815</v>
       </c>
     </row>
     <row r="24">
@@ -1419,7 +1419,7 @@
         <v>24</v>
       </c>
       <c r="M24" t="n">
-        <v>9268</v>
+        <v>9267</v>
       </c>
     </row>
     <row r="25">
@@ -1462,7 +1462,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="n">
-        <v>10870</v>
+        <v>10869</v>
       </c>
     </row>
     <row r="26">
@@ -1505,7 +1505,7 @@
         <v>35</v>
       </c>
       <c r="M26" t="n">
-        <v>13182</v>
+        <v>13181</v>
       </c>
     </row>
     <row r="27">
@@ -1518,10 +1518,10 @@
         <v>2603</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="E27" t="n">
         <v>303</v>
@@ -1548,7 +1548,7 @@
         <v>44</v>
       </c>
       <c r="M27" t="n">
-        <v>15785</v>
+        <v>15784</v>
       </c>
     </row>
     <row r="28">
@@ -1591,7 +1591,7 @@
         <v>47</v>
       </c>
       <c r="M28" t="n">
-        <v>17944</v>
+        <v>17943</v>
       </c>
     </row>
     <row r="29">
@@ -1634,7 +1634,7 @@
         <v>58</v>
       </c>
       <c r="M29" t="n">
-        <v>19215</v>
+        <v>19214</v>
       </c>
     </row>
     <row r="30">
@@ -1677,7 +1677,7 @@
         <v>76</v>
       </c>
       <c r="M30" t="n">
-        <v>20847</v>
+        <v>20846</v>
       </c>
     </row>
     <row r="31">
@@ -1687,13 +1687,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="E31" t="n">
         <v>373</v>
@@ -1720,7 +1720,7 @@
         <v>91</v>
       </c>
       <c r="M31" t="n">
-        <v>22808</v>
+        <v>22805</v>
       </c>
     </row>
     <row r="32">
@@ -1730,10 +1730,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>2313</v>
@@ -1763,7 +1763,7 @@
         <v>113</v>
       </c>
       <c r="M32" t="n">
-        <v>25122</v>
+        <v>25118</v>
       </c>
     </row>
     <row r="33">
@@ -1806,7 +1806,7 @@
         <v>135</v>
       </c>
       <c r="M33" t="n">
-        <v>27656</v>
+        <v>27652</v>
       </c>
     </row>
     <row r="34">
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="E34" t="n">
         <v>396</v>
@@ -1849,7 +1849,7 @@
         <v>157</v>
       </c>
       <c r="M34" t="n">
-        <v>30346</v>
+        <v>30341</v>
       </c>
     </row>
     <row r="35">
@@ -1892,7 +1892,7 @@
         <v>189</v>
       </c>
       <c r="M35" t="n">
-        <v>33135</v>
+        <v>33130</v>
       </c>
     </row>
     <row r="36">
@@ -1935,7 +1935,7 @@
         <v>214</v>
       </c>
       <c r="M36" t="n">
-        <v>34771</v>
+        <v>34766</v>
       </c>
     </row>
     <row r="37">
@@ -1978,7 +1978,7 @@
         <v>248</v>
       </c>
       <c r="M37" t="n">
-        <v>35866</v>
+        <v>35861</v>
       </c>
     </row>
     <row r="38">
@@ -1988,13 +1988,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="E38" t="n">
         <v>557</v>
@@ -2021,7 +2021,7 @@
         <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>38283</v>
+        <v>38277</v>
       </c>
     </row>
     <row r="39">
@@ -2064,7 +2064,7 @@
         <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>41053</v>
+        <v>41047</v>
       </c>
     </row>
     <row r="40">
@@ -2107,7 +2107,7 @@
         <v>337</v>
       </c>
       <c r="M40" t="n">
-        <v>44124</v>
+        <v>44118</v>
       </c>
     </row>
     <row r="41">
@@ -2129,10 +2129,10 @@
         <v>558</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H41" t="n">
         <v>35</v>
@@ -2150,7 +2150,7 @@
         <v>372</v>
       </c>
       <c r="M41" t="n">
-        <v>46864</v>
+        <v>46858</v>
       </c>
     </row>
     <row r="42">
@@ -2163,10 +2163,10 @@
         <v>2717</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="E42" t="n">
         <v>515</v>
@@ -2193,7 +2193,7 @@
         <v>397</v>
       </c>
       <c r="M42" t="n">
-        <v>49581</v>
+        <v>49575</v>
       </c>
     </row>
     <row r="43">
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="E43" t="n">
         <v>486</v>
@@ -2236,7 +2236,7 @@
         <v>417</v>
       </c>
       <c r="M43" t="n">
-        <v>51098</v>
+        <v>51093</v>
       </c>
     </row>
     <row r="44">
@@ -2279,7 +2279,7 @@
         <v>446</v>
       </c>
       <c r="M44" t="n">
-        <v>51797</v>
+        <v>51792</v>
       </c>
     </row>
     <row r="45">
@@ -2289,22 +2289,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3460</v>
+        <v>3458</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>3460</v>
+        <v>3457</v>
       </c>
       <c r="E45" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H45" t="n">
         <v>34</v>
@@ -2316,13 +2316,13 @@
         <v>34</v>
       </c>
       <c r="K45" t="n">
-        <v>8497</v>
+        <v>8496</v>
       </c>
       <c r="L45" t="n">
         <v>480</v>
       </c>
       <c r="M45" t="n">
-        <v>55257</v>
+        <v>55250</v>
       </c>
     </row>
     <row r="46">
@@ -2359,13 +2359,13 @@
         <v>45</v>
       </c>
       <c r="K46" t="n">
-        <v>8914</v>
+        <v>8913</v>
       </c>
       <c r="L46" t="n">
         <v>525</v>
       </c>
       <c r="M46" t="n">
-        <v>58850</v>
+        <v>58843</v>
       </c>
     </row>
     <row r="47">
@@ -2375,22 +2375,22 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3258</v>
+        <v>3261</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>3258</v>
       </c>
       <c r="E47" t="n">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H47" t="n">
         <v>37</v>
@@ -2402,13 +2402,13 @@
         <v>37</v>
       </c>
       <c r="K47" t="n">
-        <v>9495</v>
+        <v>9493</v>
       </c>
       <c r="L47" t="n">
         <v>562</v>
       </c>
       <c r="M47" t="n">
-        <v>62108</v>
+        <v>62104</v>
       </c>
     </row>
     <row r="48">
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3901</v>
+        <v>3907</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
         <v>3901</v>
@@ -2445,13 +2445,13 @@
         <v>34</v>
       </c>
       <c r="K48" t="n">
-        <v>10095</v>
+        <v>10093</v>
       </c>
       <c r="L48" t="n">
         <v>596</v>
       </c>
       <c r="M48" t="n">
-        <v>66009</v>
+        <v>66011</v>
       </c>
     </row>
     <row r="49">
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4015</v>
+        <v>4022</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>4015</v>
+        <v>4016</v>
       </c>
       <c r="E49" t="n">
         <v>505</v>
@@ -2488,13 +2488,13 @@
         <v>35</v>
       </c>
       <c r="K49" t="n">
-        <v>10600</v>
+        <v>10598</v>
       </c>
       <c r="L49" t="n">
         <v>631</v>
       </c>
       <c r="M49" t="n">
-        <v>70024</v>
+        <v>70033</v>
       </c>
     </row>
     <row r="50">
@@ -2504,13 +2504,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="E50" t="n">
         <v>558</v>
@@ -2531,13 +2531,13 @@
         <v>28</v>
       </c>
       <c r="K50" t="n">
-        <v>11158</v>
+        <v>11156</v>
       </c>
       <c r="L50" t="n">
         <v>659</v>
       </c>
       <c r="M50" t="n">
-        <v>71727</v>
+        <v>71737</v>
       </c>
     </row>
     <row r="51">
@@ -2547,13 +2547,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="E51" t="n">
         <v>479</v>
@@ -2574,13 +2574,13 @@
         <v>35</v>
       </c>
       <c r="K51" t="n">
-        <v>11637</v>
+        <v>11635</v>
       </c>
       <c r="L51" t="n">
         <v>694</v>
       </c>
       <c r="M51" t="n">
-        <v>72827</v>
+        <v>72835</v>
       </c>
     </row>
     <row r="52">
@@ -2593,10 +2593,10 @@
         <v>4287</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>4287</v>
+        <v>4286</v>
       </c>
       <c r="E52" t="n">
         <v>386</v>
@@ -2617,13 +2617,13 @@
         <v>37</v>
       </c>
       <c r="K52" t="n">
-        <v>12023</v>
+        <v>12021</v>
       </c>
       <c r="L52" t="n">
         <v>731</v>
       </c>
       <c r="M52" t="n">
-        <v>77114</v>
+        <v>77122</v>
       </c>
     </row>
     <row r="53">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3814</v>
+        <v>3825</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D53" t="n">
         <v>3814</v>
@@ -2660,13 +2660,13 @@
         <v>47</v>
       </c>
       <c r="K53" t="n">
-        <v>12402</v>
+        <v>12400</v>
       </c>
       <c r="L53" t="n">
         <v>778</v>
       </c>
       <c r="M53" t="n">
-        <v>80928</v>
+        <v>80947</v>
       </c>
     </row>
     <row r="54">
@@ -2676,22 +2676,22 @@
         </is>
       </c>
       <c r="B54" t="n">
+        <v>3705</v>
+      </c>
+      <c r="C54" t="n">
+        <v>8</v>
+      </c>
+      <c r="D54" t="n">
         <v>3697</v>
-      </c>
-      <c r="C54" t="n">
-        <v>4</v>
-      </c>
-      <c r="D54" t="n">
-        <v>3693</v>
       </c>
       <c r="E54" t="n">
         <v>605</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H54" t="n">
         <v>48</v>
@@ -2703,13 +2703,13 @@
         <v>48</v>
       </c>
       <c r="K54" t="n">
-        <v>13007</v>
+        <v>13005</v>
       </c>
       <c r="L54" t="n">
         <v>826</v>
       </c>
       <c r="M54" t="n">
-        <v>84625</v>
+        <v>84652</v>
       </c>
     </row>
     <row r="55">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4192</v>
+        <v>4238</v>
       </c>
       <c r="C55" t="n">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D55" t="n">
-        <v>4126</v>
+        <v>4191</v>
       </c>
       <c r="E55" t="n">
         <v>644</v>
@@ -2746,13 +2746,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="n">
-        <v>13651</v>
+        <v>13649</v>
       </c>
       <c r="L55" t="n">
         <v>864</v>
       </c>
       <c r="M55" t="n">
-        <v>88817</v>
+        <v>88890</v>
       </c>
     </row>
     <row r="56">
@@ -2762,13 +2762,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3473</v>
+        <v>3491</v>
       </c>
       <c r="C56" t="n">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D56" t="n">
-        <v>3416</v>
+        <v>3472</v>
       </c>
       <c r="E56" t="n">
         <v>700</v>
@@ -2789,13 +2789,13 @@
         <v>35</v>
       </c>
       <c r="K56" t="n">
-        <v>14351</v>
+        <v>14349</v>
       </c>
       <c r="L56" t="n">
         <v>899</v>
       </c>
       <c r="M56" t="n">
-        <v>92290</v>
+        <v>92381</v>
       </c>
     </row>
     <row r="57">
@@ -2805,13 +2805,13 @@
         </is>
       </c>
       <c r="B57" t="n">
+        <v>2216</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" t="n">
         <v>2212</v>
-      </c>
-      <c r="C57" t="n">
-        <v>8</v>
-      </c>
-      <c r="D57" t="n">
-        <v>2204</v>
       </c>
       <c r="E57" t="n">
         <v>626</v>
@@ -2832,13 +2832,13 @@
         <v>41</v>
       </c>
       <c r="K57" t="n">
-        <v>14977</v>
+        <v>14975</v>
       </c>
       <c r="L57" t="n">
         <v>940</v>
       </c>
       <c r="M57" t="n">
-        <v>94502</v>
+        <v>94597</v>
       </c>
     </row>
     <row r="58">
@@ -2848,13 +2848,13 @@
         </is>
       </c>
       <c r="B58" t="n">
+        <v>1785</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3</v>
+      </c>
+      <c r="D58" t="n">
         <v>1782</v>
-      </c>
-      <c r="C58" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1781</v>
       </c>
       <c r="E58" t="n">
         <v>950</v>
@@ -2875,13 +2875,13 @@
         <v>34</v>
       </c>
       <c r="K58" t="n">
-        <v>15927</v>
+        <v>15925</v>
       </c>
       <c r="L58" t="n">
         <v>974</v>
       </c>
       <c r="M58" t="n">
-        <v>96284</v>
+        <v>96382</v>
       </c>
     </row>
     <row r="59">
@@ -2891,22 +2891,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4208</v>
+        <v>4274</v>
       </c>
       <c r="C59" t="n">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D59" t="n">
-        <v>4202</v>
+        <v>4210</v>
       </c>
       <c r="E59" t="n">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H59" t="n">
         <v>41</v>
@@ -2918,13 +2918,13 @@
         <v>41</v>
       </c>
       <c r="K59" t="n">
-        <v>16550</v>
+        <v>16547</v>
       </c>
       <c r="L59" t="n">
         <v>1015</v>
       </c>
       <c r="M59" t="n">
-        <v>100492</v>
+        <v>100656</v>
       </c>
     </row>
     <row r="60">
@@ -2934,22 +2934,22 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4471</v>
+        <v>4540</v>
       </c>
       <c r="C60" t="n">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="D60" t="n">
-        <v>4439</v>
+        <v>4469</v>
       </c>
       <c r="E60" t="n">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H60" t="n">
         <v>34</v>
@@ -2961,13 +2961,13 @@
         <v>34</v>
       </c>
       <c r="K60" t="n">
-        <v>17146</v>
+        <v>17142</v>
       </c>
       <c r="L60" t="n">
         <v>1049</v>
       </c>
       <c r="M60" t="n">
-        <v>104963</v>
+        <v>105196</v>
       </c>
     </row>
     <row r="61">
@@ -2977,13 +2977,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4569</v>
+        <v>4636</v>
       </c>
       <c r="C61" t="n">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D61" t="n">
-        <v>4540</v>
+        <v>4568</v>
       </c>
       <c r="E61" t="n">
         <v>654</v>
@@ -3004,13 +3004,13 @@
         <v>40</v>
       </c>
       <c r="K61" t="n">
-        <v>17800</v>
+        <v>17796</v>
       </c>
       <c r="L61" t="n">
         <v>1089</v>
       </c>
       <c r="M61" t="n">
-        <v>109532</v>
+        <v>109832</v>
       </c>
     </row>
     <row r="62">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4672</v>
+        <v>4685</v>
       </c>
       <c r="C62" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>4642</v>
+        <v>4674</v>
       </c>
       <c r="E62" t="n">
         <v>795</v>
@@ -3047,13 +3047,13 @@
         <v>45</v>
       </c>
       <c r="K62" t="n">
-        <v>18595</v>
+        <v>18591</v>
       </c>
       <c r="L62" t="n">
         <v>1134</v>
       </c>
       <c r="M62" t="n">
-        <v>114204</v>
+        <v>114517</v>
       </c>
     </row>
     <row r="63">
@@ -3063,13 +3063,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5746</v>
+        <v>5751</v>
       </c>
       <c r="C63" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>5718</v>
+        <v>5745</v>
       </c>
       <c r="E63" t="n">
         <v>654</v>
@@ -3090,13 +3090,13 @@
         <v>33</v>
       </c>
       <c r="K63" t="n">
-        <v>19249</v>
+        <v>19245</v>
       </c>
       <c r="L63" t="n">
         <v>1167</v>
       </c>
       <c r="M63" t="n">
-        <v>119950</v>
+        <v>120268</v>
       </c>
     </row>
     <row r="64">
@@ -3106,22 +3106,22 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>2820</v>
+        <v>2822</v>
       </c>
       <c r="E64" t="n">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H64" t="n">
         <v>40</v>
@@ -3133,13 +3133,13 @@
         <v>40</v>
       </c>
       <c r="K64" t="n">
-        <v>19884</v>
+        <v>19879</v>
       </c>
       <c r="L64" t="n">
         <v>1207</v>
       </c>
       <c r="M64" t="n">
-        <v>122774</v>
+        <v>123091</v>
       </c>
     </row>
     <row r="65">
@@ -3149,13 +3149,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>1652</v>
+        <v>1655</v>
       </c>
       <c r="E65" t="n">
         <v>570</v>
@@ -3176,13 +3176,13 @@
         <v>30</v>
       </c>
       <c r="K65" t="n">
-        <v>20454</v>
+        <v>20449</v>
       </c>
       <c r="L65" t="n">
         <v>1237</v>
       </c>
       <c r="M65" t="n">
-        <v>124430</v>
+        <v>124746</v>
       </c>
     </row>
     <row r="66">
@@ -3192,13 +3192,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5202</v>
+        <v>5209</v>
       </c>
       <c r="C66" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>5161</v>
+        <v>5198</v>
       </c>
       <c r="E66" t="n">
         <v>526</v>
@@ -3219,13 +3219,13 @@
         <v>35</v>
       </c>
       <c r="K66" t="n">
-        <v>20980</v>
+        <v>20975</v>
       </c>
       <c r="L66" t="n">
         <v>1272</v>
       </c>
       <c r="M66" t="n">
-        <v>129632</v>
+        <v>129955</v>
       </c>
     </row>
     <row r="67">
@@ -3235,13 +3235,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5734</v>
+        <v>5773</v>
       </c>
       <c r="C67" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D67" t="n">
-        <v>5702</v>
+        <v>5729</v>
       </c>
       <c r="E67" t="n">
         <v>838</v>
@@ -3256,19 +3256,19 @@
         <v>36</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K67" t="n">
-        <v>21818</v>
+        <v>21813</v>
       </c>
       <c r="L67" t="n">
         <v>1308</v>
       </c>
       <c r="M67" t="n">
-        <v>135366</v>
+        <v>135728</v>
       </c>
     </row>
     <row r="68">
@@ -3278,13 +3278,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5555</v>
+        <v>5570</v>
       </c>
       <c r="C68" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D68" t="n">
-        <v>5521</v>
+        <v>5549</v>
       </c>
       <c r="E68" t="n">
         <v>624</v>
@@ -3296,22 +3296,22 @@
         <v>624</v>
       </c>
       <c r="H68" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
         <v>38</v>
       </c>
       <c r="K68" t="n">
-        <v>22442</v>
+        <v>22437</v>
       </c>
       <c r="L68" t="n">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="M68" t="n">
-        <v>140921</v>
+        <v>141298</v>
       </c>
     </row>
     <row r="69">
@@ -3321,13 +3321,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>5753</v>
+        <v>5783</v>
       </c>
       <c r="C69" t="n">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="D69" t="n">
-        <v>5660</v>
+        <v>5746</v>
       </c>
       <c r="E69" t="n">
         <v>644</v>
@@ -3339,22 +3339,22 @@
         <v>644</v>
       </c>
       <c r="H69" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K69" t="n">
-        <v>23086</v>
+        <v>23081</v>
       </c>
       <c r="L69" t="n">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="M69" t="n">
-        <v>146674</v>
+        <v>147081</v>
       </c>
     </row>
     <row r="70">
@@ -3364,22 +3364,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>5778</v>
+        <v>5821</v>
       </c>
       <c r="C70" t="n">
-        <v>360</v>
+        <v>48</v>
       </c>
       <c r="D70" t="n">
-        <v>5418</v>
+        <v>5773</v>
       </c>
       <c r="E70" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H70" t="n">
         <v>20</v>
@@ -3391,13 +3391,13 @@
         <v>20</v>
       </c>
       <c r="K70" t="n">
-        <v>23680</v>
+        <v>23674</v>
       </c>
       <c r="L70" t="n">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="M70" t="n">
-        <v>152452</v>
+        <v>152902</v>
       </c>
     </row>
     <row r="71">
@@ -3407,40 +3407,40 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3058</v>
+        <v>3087</v>
       </c>
       <c r="C71" t="n">
-        <v>331</v>
+        <v>31</v>
       </c>
       <c r="D71" t="n">
-        <v>2727</v>
+        <v>3056</v>
       </c>
       <c r="E71" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>389</v>
       </c>
       <c r="H71" t="n">
+        <v>25</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3</v>
+      </c>
+      <c r="J71" t="n">
         <v>22</v>
       </c>
-      <c r="I71" t="n">
-        <v>2</v>
-      </c>
-      <c r="J71" t="n">
-        <v>20</v>
-      </c>
       <c r="K71" t="n">
-        <v>24070</v>
+        <v>24063</v>
       </c>
       <c r="L71" t="n">
-        <v>1420</v>
+        <v>1425</v>
       </c>
       <c r="M71" t="n">
-        <v>155510</v>
+        <v>155989</v>
       </c>
     </row>
     <row r="72">
@@ -3450,40 +3450,40 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1217</v>
+        <v>1227</v>
       </c>
       <c r="C72" t="n">
-        <v>211</v>
+        <v>13</v>
       </c>
       <c r="D72" t="n">
-        <v>1006</v>
+        <v>1214</v>
       </c>
       <c r="E72" t="n">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F72" t="n">
         <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H72" t="n">
         <v>27</v>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K72" t="n">
-        <v>24533</v>
+        <v>24527</v>
       </c>
       <c r="L72" t="n">
-        <v>1447</v>
+        <v>1452</v>
       </c>
       <c r="M72" t="n">
-        <v>156727</v>
+        <v>157216</v>
       </c>
     </row>
     <row r="73">
@@ -3493,40 +3493,40 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>5752</v>
+        <v>6237</v>
       </c>
       <c r="C73" t="n">
-        <v>1672</v>
+        <v>478</v>
       </c>
       <c r="D73" t="n">
-        <v>4080</v>
+        <v>5759</v>
       </c>
       <c r="E73" t="n">
         <v>523</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H73" t="n">
+        <v>37</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
         <v>34</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>33</v>
-      </c>
       <c r="K73" t="n">
-        <v>25056</v>
+        <v>25050</v>
       </c>
       <c r="L73" t="n">
-        <v>1481</v>
+        <v>1489</v>
       </c>
       <c r="M73" t="n">
-        <v>162479</v>
+        <v>163453</v>
       </c>
     </row>
     <row r="74">
@@ -3536,40 +3536,40 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2376</v>
+        <v>4998</v>
       </c>
       <c r="C74" t="n">
-        <v>1696</v>
+        <v>2668</v>
       </c>
       <c r="D74" t="n">
-        <v>680</v>
+        <v>2330</v>
       </c>
       <c r="E74" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H74" t="n">
+        <v>35</v>
+      </c>
+      <c r="I74" t="n">
+        <v>6</v>
+      </c>
+      <c r="J74" t="n">
         <v>29</v>
       </c>
-      <c r="I74" t="n">
-        <v>4</v>
-      </c>
-      <c r="J74" t="n">
-        <v>25</v>
-      </c>
       <c r="K74" t="n">
-        <v>25433</v>
+        <v>25426</v>
       </c>
       <c r="L74" t="n">
-        <v>1510</v>
+        <v>1524</v>
       </c>
       <c r="M74" t="n">
-        <v>164855</v>
+        <v>168451</v>
       </c>
     </row>
     <row r="75">
@@ -3579,40 +3579,40 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>501</v>
+        <v>2126</v>
       </c>
       <c r="C75" t="n">
-        <v>403</v>
+        <v>1627</v>
       </c>
       <c r="D75" t="n">
-        <v>98</v>
+        <v>499</v>
       </c>
       <c r="E75" t="n">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>609</v>
+      </c>
+      <c r="H75" t="n">
+        <v>21</v>
+      </c>
+      <c r="I75" t="n">
         <v>1</v>
       </c>
-      <c r="G75" t="n">
-        <v>612</v>
-      </c>
-      <c r="H75" t="n">
+      <c r="J75" t="n">
         <v>20</v>
       </c>
-      <c r="I75" t="n">
-        <v>11</v>
-      </c>
-      <c r="J75" t="n">
-        <v>9</v>
-      </c>
       <c r="K75" t="n">
-        <v>26046</v>
+        <v>26035</v>
       </c>
       <c r="L75" t="n">
-        <v>1530</v>
+        <v>1545</v>
       </c>
       <c r="M75" t="n">
-        <v>165356</v>
+        <v>170577</v>
       </c>
     </row>
     <row r="76">
@@ -3622,40 +3622,83 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>92</v>
+        <v>663</v>
       </c>
       <c r="C76" t="n">
-        <v>92</v>
+        <v>572</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E76" t="n">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="F76" t="n">
-        <v>609</v>
+        <v>3</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="H76" t="n">
+        <v>37</v>
+      </c>
+      <c r="I76" t="n">
+        <v>17</v>
+      </c>
+      <c r="J76" t="n">
         <v>20</v>
       </c>
-      <c r="I76" t="n">
-        <v>20</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
       <c r="K76" t="n">
-        <v>26655</v>
+        <v>26629</v>
       </c>
       <c r="L76" t="n">
-        <v>1550</v>
+        <v>1582</v>
       </c>
       <c r="M76" t="n">
-        <v>165448</v>
+        <v>171240</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2020-05-15</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>118</v>
+      </c>
+      <c r="C77" t="n">
+        <v>118</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>651</v>
+      </c>
+      <c r="F77" t="n">
+        <v>649</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="n">
+        <v>14</v>
+      </c>
+      <c r="I77" t="n">
+        <v>14</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>27280</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1596</v>
+      </c>
+      <c r="M77" t="n">
+        <v>171358</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1260,10 +1260,10 @@
         <v>1730</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E21" t="n">
         <v>45</v>
@@ -1518,10 +1518,10 @@
         <v>2603</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="E27" t="n">
         <v>303</v>
@@ -1819,10 +1819,10 @@
         <v>2689</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2688</v>
+        <v>2689</v>
       </c>
       <c r="E34" t="n">
         <v>396</v>
@@ -1991,10 +1991,10 @@
         <v>2416</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="E38" t="n">
         <v>557</v>
@@ -2163,10 +2163,10 @@
         <v>2717</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>2715</v>
+        <v>2717</v>
       </c>
       <c r="E42" t="n">
         <v>515</v>
@@ -2206,10 +2206,10 @@
         <v>1518</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="E43" t="n">
         <v>486</v>
@@ -2292,10 +2292,10 @@
         <v>3458</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>3457</v>
+        <v>3458</v>
       </c>
       <c r="E45" t="n">
         <v>292</v>
@@ -2375,13 +2375,13 @@
         </is>
       </c>
       <c r="B47" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
         <v>3261</v>
-      </c>
-      <c r="C47" t="n">
-        <v>3</v>
-      </c>
-      <c r="D47" t="n">
-        <v>3258</v>
       </c>
       <c r="E47" t="n">
         <v>580</v>
@@ -2408,7 +2408,7 @@
         <v>562</v>
       </c>
       <c r="M47" t="n">
-        <v>62104</v>
+        <v>62105</v>
       </c>
     </row>
     <row r="48">
@@ -2421,10 +2421,10 @@
         <v>3907</v>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>3901</v>
+        <v>3907</v>
       </c>
       <c r="E48" t="n">
         <v>600</v>
@@ -2451,7 +2451,7 @@
         <v>596</v>
       </c>
       <c r="M48" t="n">
-        <v>66011</v>
+        <v>66012</v>
       </c>
     </row>
     <row r="49">
@@ -2464,10 +2464,10 @@
         <v>4022</v>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>4016</v>
+        <v>4022</v>
       </c>
       <c r="E49" t="n">
         <v>505</v>
@@ -2494,7 +2494,7 @@
         <v>631</v>
       </c>
       <c r="M49" t="n">
-        <v>70033</v>
+        <v>70034</v>
       </c>
     </row>
     <row r="50">
@@ -2537,7 +2537,7 @@
         <v>659</v>
       </c>
       <c r="M50" t="n">
-        <v>71737</v>
+        <v>71738</v>
       </c>
     </row>
     <row r="51">
@@ -2550,10 +2550,10 @@
         <v>1098</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="E51" t="n">
         <v>479</v>
@@ -2580,7 +2580,7 @@
         <v>694</v>
       </c>
       <c r="M51" t="n">
-        <v>72835</v>
+        <v>72836</v>
       </c>
     </row>
     <row r="52">
@@ -2593,10 +2593,10 @@
         <v>4287</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>4286</v>
+        <v>4287</v>
       </c>
       <c r="E52" t="n">
         <v>386</v>
@@ -2623,7 +2623,7 @@
         <v>731</v>
       </c>
       <c r="M52" t="n">
-        <v>77122</v>
+        <v>77123</v>
       </c>
     </row>
     <row r="53">
@@ -2636,10 +2636,10 @@
         <v>3825</v>
       </c>
       <c r="C53" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>3814</v>
+        <v>3825</v>
       </c>
       <c r="E53" t="n">
         <v>379</v>
@@ -2666,7 +2666,7 @@
         <v>778</v>
       </c>
       <c r="M53" t="n">
-        <v>80947</v>
+        <v>80948</v>
       </c>
     </row>
     <row r="54">
@@ -2679,10 +2679,10 @@
         <v>3705</v>
       </c>
       <c r="C54" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>3697</v>
+        <v>3705</v>
       </c>
       <c r="E54" t="n">
         <v>605</v>
@@ -2709,7 +2709,7 @@
         <v>826</v>
       </c>
       <c r="M54" t="n">
-        <v>84652</v>
+        <v>84653</v>
       </c>
     </row>
     <row r="55">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="B55" t="n">
+        <v>4239</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
         <v>4238</v>
-      </c>
-      <c r="C55" t="n">
-        <v>47</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4191</v>
       </c>
       <c r="E55" t="n">
         <v>644</v>
@@ -2752,7 +2752,7 @@
         <v>864</v>
       </c>
       <c r="M55" t="n">
-        <v>88890</v>
+        <v>88892</v>
       </c>
     </row>
     <row r="56">
@@ -2765,10 +2765,10 @@
         <v>3491</v>
       </c>
       <c r="C56" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>3472</v>
+        <v>3491</v>
       </c>
       <c r="E56" t="n">
         <v>700</v>
@@ -2795,7 +2795,7 @@
         <v>899</v>
       </c>
       <c r="M56" t="n">
-        <v>92381</v>
+        <v>92383</v>
       </c>
     </row>
     <row r="57">
@@ -2808,10 +2808,10 @@
         <v>2216</v>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>2212</v>
+        <v>2216</v>
       </c>
       <c r="E57" t="n">
         <v>626</v>
@@ -2838,7 +2838,7 @@
         <v>940</v>
       </c>
       <c r="M57" t="n">
-        <v>94597</v>
+        <v>94599</v>
       </c>
     </row>
     <row r="58">
@@ -2851,10 +2851,10 @@
         <v>1785</v>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1782</v>
+        <v>1785</v>
       </c>
       <c r="E58" t="n">
         <v>950</v>
@@ -2881,7 +2881,7 @@
         <v>974</v>
       </c>
       <c r="M58" t="n">
-        <v>96382</v>
+        <v>96384</v>
       </c>
     </row>
     <row r="59">
@@ -2894,10 +2894,10 @@
         <v>4274</v>
       </c>
       <c r="C59" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>4210</v>
+        <v>4274</v>
       </c>
       <c r="E59" t="n">
         <v>622</v>
@@ -2924,7 +2924,7 @@
         <v>1015</v>
       </c>
       <c r="M59" t="n">
-        <v>100656</v>
+        <v>100658</v>
       </c>
     </row>
     <row r="60">
@@ -2934,13 +2934,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4540</v>
+        <v>4570</v>
       </c>
       <c r="C60" t="n">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D60" t="n">
-        <v>4469</v>
+        <v>4541</v>
       </c>
       <c r="E60" t="n">
         <v>595</v>
@@ -2967,7 +2967,7 @@
         <v>1049</v>
       </c>
       <c r="M60" t="n">
-        <v>105196</v>
+        <v>105228</v>
       </c>
     </row>
     <row r="61">
@@ -2977,13 +2977,13 @@
         </is>
       </c>
       <c r="B61" t="n">
+        <v>4637</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
         <v>4636</v>
-      </c>
-      <c r="C61" t="n">
-        <v>68</v>
-      </c>
-      <c r="D61" t="n">
-        <v>4568</v>
       </c>
       <c r="E61" t="n">
         <v>654</v>
@@ -3010,7 +3010,7 @@
         <v>1089</v>
       </c>
       <c r="M61" t="n">
-        <v>109832</v>
+        <v>109865</v>
       </c>
     </row>
     <row r="62">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="B62" t="n">
+        <v>4686</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
         <v>4685</v>
-      </c>
-      <c r="C62" t="n">
-        <v>11</v>
-      </c>
-      <c r="D62" t="n">
-        <v>4674</v>
       </c>
       <c r="E62" t="n">
         <v>795</v>
@@ -3053,7 +3053,7 @@
         <v>1134</v>
       </c>
       <c r="M62" t="n">
-        <v>114517</v>
+        <v>114551</v>
       </c>
     </row>
     <row r="63">
@@ -3063,13 +3063,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5751</v>
+        <v>5760</v>
       </c>
       <c r="C63" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D63" t="n">
-        <v>5745</v>
+        <v>5752</v>
       </c>
       <c r="E63" t="n">
         <v>654</v>
@@ -3096,7 +3096,7 @@
         <v>1167</v>
       </c>
       <c r="M63" t="n">
-        <v>120268</v>
+        <v>120311</v>
       </c>
     </row>
     <row r="64">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2823</v>
+        <v>2837</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D64" t="n">
         <v>2822</v>
@@ -3139,7 +3139,7 @@
         <v>1207</v>
       </c>
       <c r="M64" t="n">
-        <v>123091</v>
+        <v>123148</v>
       </c>
     </row>
     <row r="65">
@@ -3182,7 +3182,7 @@
         <v>1237</v>
       </c>
       <c r="M65" t="n">
-        <v>124746</v>
+        <v>124803</v>
       </c>
     </row>
     <row r="66">
@@ -3192,13 +3192,13 @@
         </is>
       </c>
       <c r="B66" t="n">
+        <v>5212</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3</v>
+      </c>
+      <c r="D66" t="n">
         <v>5209</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5198</v>
       </c>
       <c r="E66" t="n">
         <v>526</v>
@@ -3225,7 +3225,7 @@
         <v>1272</v>
       </c>
       <c r="M66" t="n">
-        <v>129955</v>
+        <v>130015</v>
       </c>
     </row>
     <row r="67">
@@ -3235,13 +3235,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5773</v>
+        <v>5797</v>
       </c>
       <c r="C67" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D67" t="n">
-        <v>5729</v>
+        <v>5772</v>
       </c>
       <c r="E67" t="n">
         <v>838</v>
@@ -3268,7 +3268,7 @@
         <v>1308</v>
       </c>
       <c r="M67" t="n">
-        <v>135728</v>
+        <v>135812</v>
       </c>
     </row>
     <row r="68">
@@ -3278,13 +3278,13 @@
         </is>
       </c>
       <c r="B68" t="n">
+        <v>5580</v>
+      </c>
+      <c r="C68" t="n">
+        <v>10</v>
+      </c>
+      <c r="D68" t="n">
         <v>5570</v>
-      </c>
-      <c r="C68" t="n">
-        <v>21</v>
-      </c>
-      <c r="D68" t="n">
-        <v>5549</v>
       </c>
       <c r="E68" t="n">
         <v>624</v>
@@ -3299,10 +3299,10 @@
         <v>39</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K68" t="n">
         <v>22437</v>
@@ -3311,7 +3311,7 @@
         <v>1347</v>
       </c>
       <c r="M68" t="n">
-        <v>141298</v>
+        <v>141392</v>
       </c>
     </row>
     <row r="69">
@@ -3321,40 +3321,40 @@
         </is>
       </c>
       <c r="B69" t="n">
+        <v>5800</v>
+      </c>
+      <c r="C69" t="n">
+        <v>17</v>
+      </c>
+      <c r="D69" t="n">
         <v>5783</v>
       </c>
-      <c r="C69" t="n">
-        <v>37</v>
-      </c>
-      <c r="D69" t="n">
-        <v>5746</v>
-      </c>
       <c r="E69" t="n">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H69" t="n">
         <v>33</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K69" t="n">
-        <v>23081</v>
+        <v>23079</v>
       </c>
       <c r="L69" t="n">
         <v>1380</v>
       </c>
       <c r="M69" t="n">
-        <v>147081</v>
+        <v>147192</v>
       </c>
     </row>
     <row r="70">
@@ -3364,22 +3364,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>5821</v>
+        <v>5832</v>
       </c>
       <c r="C70" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D70" t="n">
-        <v>5773</v>
+        <v>5820</v>
       </c>
       <c r="E70" t="n">
         <v>593</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H70" t="n">
         <v>20</v>
@@ -3391,13 +3391,13 @@
         <v>20</v>
       </c>
       <c r="K70" t="n">
-        <v>23674</v>
+        <v>23672</v>
       </c>
       <c r="L70" t="n">
         <v>1400</v>
       </c>
       <c r="M70" t="n">
-        <v>152902</v>
+        <v>153024</v>
       </c>
     </row>
     <row r="71">
@@ -3407,13 +3407,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3087</v>
+        <v>3100</v>
       </c>
       <c r="C71" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D71" t="n">
-        <v>3056</v>
+        <v>3086</v>
       </c>
       <c r="E71" t="n">
         <v>389</v>
@@ -3428,19 +3428,19 @@
         <v>25</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K71" t="n">
-        <v>24063</v>
+        <v>24061</v>
       </c>
       <c r="L71" t="n">
         <v>1425</v>
       </c>
       <c r="M71" t="n">
-        <v>155989</v>
+        <v>156124</v>
       </c>
     </row>
     <row r="72">
@@ -3453,16 +3453,16 @@
         <v>1227</v>
       </c>
       <c r="C72" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1214</v>
+        <v>1227</v>
       </c>
       <c r="E72" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
         <v>463</v>
@@ -3477,13 +3477,13 @@
         <v>27</v>
       </c>
       <c r="K72" t="n">
-        <v>24527</v>
+        <v>24526</v>
       </c>
       <c r="L72" t="n">
         <v>1452</v>
       </c>
       <c r="M72" t="n">
-        <v>157216</v>
+        <v>157351</v>
       </c>
     </row>
     <row r="73">
@@ -3493,19 +3493,19 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6237</v>
+        <v>6395</v>
       </c>
       <c r="C73" t="n">
-        <v>478</v>
+        <v>156</v>
       </c>
       <c r="D73" t="n">
-        <v>5759</v>
+        <v>6239</v>
       </c>
       <c r="E73" t="n">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
         <v>522</v>
@@ -3514,19 +3514,19 @@
         <v>37</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K73" t="n">
-        <v>25050</v>
+        <v>25048</v>
       </c>
       <c r="L73" t="n">
         <v>1489</v>
       </c>
       <c r="M73" t="n">
-        <v>163453</v>
+        <v>163746</v>
       </c>
     </row>
     <row r="74">
@@ -3536,40 +3536,40 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>4998</v>
+        <v>5559</v>
       </c>
       <c r="C74" t="n">
-        <v>2668</v>
+        <v>557</v>
       </c>
       <c r="D74" t="n">
-        <v>2330</v>
+        <v>5002</v>
       </c>
       <c r="E74" t="n">
         <v>376</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H74" t="n">
         <v>35</v>
       </c>
       <c r="I74" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K74" t="n">
-        <v>25426</v>
+        <v>25424</v>
       </c>
       <c r="L74" t="n">
         <v>1524</v>
       </c>
       <c r="M74" t="n">
-        <v>168451</v>
+        <v>169305</v>
       </c>
     </row>
     <row r="75">
@@ -3579,40 +3579,40 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2126</v>
+        <v>4217</v>
       </c>
       <c r="C75" t="n">
-        <v>1627</v>
+        <v>2109</v>
       </c>
       <c r="D75" t="n">
-        <v>499</v>
+        <v>2108</v>
       </c>
       <c r="E75" t="n">
         <v>609</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H75" t="n">
         <v>21</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K75" t="n">
-        <v>26035</v>
+        <v>26033</v>
       </c>
       <c r="L75" t="n">
         <v>1545</v>
       </c>
       <c r="M75" t="n">
-        <v>170577</v>
+        <v>173522</v>
       </c>
     </row>
     <row r="76">
@@ -3622,40 +3622,40 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>663</v>
+        <v>2803</v>
       </c>
       <c r="C76" t="n">
-        <v>572</v>
+        <v>2151</v>
       </c>
       <c r="D76" t="n">
-        <v>91</v>
+        <v>652</v>
       </c>
       <c r="E76" t="n">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H76" t="n">
+        <v>38</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
         <v>37</v>
       </c>
-      <c r="I76" t="n">
-        <v>17</v>
-      </c>
-      <c r="J76" t="n">
-        <v>20</v>
-      </c>
       <c r="K76" t="n">
-        <v>26629</v>
+        <v>26625</v>
       </c>
       <c r="L76" t="n">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="M76" t="n">
-        <v>171240</v>
+        <v>176325</v>
       </c>
     </row>
     <row r="77">
@@ -3665,40 +3665,83 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>118</v>
+        <v>855</v>
       </c>
       <c r="C77" t="n">
-        <v>118</v>
+        <v>739</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E77" t="n">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F77" t="n">
-        <v>649</v>
+        <v>6</v>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>642</v>
       </c>
       <c r="H77" t="n">
+        <v>18</v>
+      </c>
+      <c r="I77" t="n">
+        <v>4</v>
+      </c>
+      <c r="J77" t="n">
         <v>14</v>
       </c>
-      <c r="I77" t="n">
-        <v>14</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
       <c r="K77" t="n">
-        <v>27280</v>
+        <v>27273</v>
       </c>
       <c r="L77" t="n">
-        <v>1596</v>
+        <v>1601</v>
       </c>
       <c r="M77" t="n">
-        <v>171358</v>
+        <v>177180</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2020-05-16</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>63</v>
+      </c>
+      <c r="C78" t="n">
+        <v>63</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>505</v>
+      </c>
+      <c r="F78" t="n">
+        <v>502</v>
+      </c>
+      <c r="G78" t="n">
+        <v>3</v>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+      <c r="I78" t="n">
+        <v>6</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>27778</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1607</v>
+      </c>
+      <c r="M78" t="n">
+        <v>177243</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1260,10 +1260,10 @@
         <v>1730</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="E21" t="n">
         <v>45</v>
@@ -1687,13 +1687,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="E31" t="n">
         <v>373</v>
@@ -1720,7 +1720,7 @@
         <v>91</v>
       </c>
       <c r="M31" t="n">
-        <v>22805</v>
+        <v>22804</v>
       </c>
     </row>
     <row r="32">
@@ -1763,7 +1763,7 @@
         <v>113</v>
       </c>
       <c r="M32" t="n">
-        <v>25118</v>
+        <v>25117</v>
       </c>
     </row>
     <row r="33">
@@ -1773,13 +1773,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="E33" t="n">
         <v>469</v>
@@ -1806,7 +1806,7 @@
         <v>135</v>
       </c>
       <c r="M33" t="n">
-        <v>27652</v>
+        <v>27650</v>
       </c>
     </row>
     <row r="34">
@@ -1849,7 +1849,7 @@
         <v>157</v>
       </c>
       <c r="M34" t="n">
-        <v>30341</v>
+        <v>30339</v>
       </c>
     </row>
     <row r="35">
@@ -1892,7 +1892,7 @@
         <v>189</v>
       </c>
       <c r="M35" t="n">
-        <v>33130</v>
+        <v>33128</v>
       </c>
     </row>
     <row r="36">
@@ -1935,7 +1935,7 @@
         <v>214</v>
       </c>
       <c r="M36" t="n">
-        <v>34766</v>
+        <v>34764</v>
       </c>
     </row>
     <row r="37">
@@ -1978,7 +1978,7 @@
         <v>248</v>
       </c>
       <c r="M37" t="n">
-        <v>35861</v>
+        <v>35859</v>
       </c>
     </row>
     <row r="38">
@@ -2021,7 +2021,7 @@
         <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>38277</v>
+        <v>38275</v>
       </c>
     </row>
     <row r="39">
@@ -2064,7 +2064,7 @@
         <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>41047</v>
+        <v>41045</v>
       </c>
     </row>
     <row r="40">
@@ -2107,7 +2107,7 @@
         <v>337</v>
       </c>
       <c r="M40" t="n">
-        <v>44118</v>
+        <v>44116</v>
       </c>
     </row>
     <row r="41">
@@ -2150,7 +2150,7 @@
         <v>372</v>
       </c>
       <c r="M41" t="n">
-        <v>46858</v>
+        <v>46856</v>
       </c>
     </row>
     <row r="42">
@@ -2193,7 +2193,7 @@
         <v>397</v>
       </c>
       <c r="M42" t="n">
-        <v>49575</v>
+        <v>49573</v>
       </c>
     </row>
     <row r="43">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1518</v>
+        <v>1527</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D43" t="n">
         <v>1518</v>
@@ -2236,7 +2236,7 @@
         <v>417</v>
       </c>
       <c r="M43" t="n">
-        <v>51093</v>
+        <v>51100</v>
       </c>
     </row>
     <row r="44">
@@ -2246,13 +2246,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E44" t="n">
         <v>319</v>
@@ -2279,7 +2279,7 @@
         <v>446</v>
       </c>
       <c r="M44" t="n">
-        <v>51792</v>
+        <v>51798</v>
       </c>
     </row>
     <row r="45">
@@ -2322,7 +2322,7 @@
         <v>480</v>
       </c>
       <c r="M45" t="n">
-        <v>55250</v>
+        <v>55256</v>
       </c>
     </row>
     <row r="46">
@@ -2365,7 +2365,7 @@
         <v>525</v>
       </c>
       <c r="M46" t="n">
-        <v>58843</v>
+        <v>58849</v>
       </c>
     </row>
     <row r="47">
@@ -2378,10 +2378,10 @@
         <v>3262</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="E47" t="n">
         <v>580</v>
@@ -2408,7 +2408,7 @@
         <v>562</v>
       </c>
       <c r="M47" t="n">
-        <v>62105</v>
+        <v>62111</v>
       </c>
     </row>
     <row r="48">
@@ -2418,13 +2418,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3907</v>
+        <v>3908</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="E48" t="n">
         <v>600</v>
@@ -2451,7 +2451,7 @@
         <v>596</v>
       </c>
       <c r="M48" t="n">
-        <v>66012</v>
+        <v>66019</v>
       </c>
     </row>
     <row r="49">
@@ -2464,10 +2464,10 @@
         <v>4022</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>4022</v>
+        <v>4021</v>
       </c>
       <c r="E49" t="n">
         <v>505</v>
@@ -2494,7 +2494,7 @@
         <v>631</v>
       </c>
       <c r="M49" t="n">
-        <v>70034</v>
+        <v>70041</v>
       </c>
     </row>
     <row r="50">
@@ -2537,7 +2537,7 @@
         <v>659</v>
       </c>
       <c r="M50" t="n">
-        <v>71738</v>
+        <v>71745</v>
       </c>
     </row>
     <row r="51">
@@ -2547,10 +2547,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>1098</v>
@@ -2580,7 +2580,7 @@
         <v>694</v>
       </c>
       <c r="M51" t="n">
-        <v>72836</v>
+        <v>72844</v>
       </c>
     </row>
     <row r="52">
@@ -2590,13 +2590,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4287</v>
+        <v>4286</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>4287</v>
+        <v>4286</v>
       </c>
       <c r="E52" t="n">
         <v>386</v>
@@ -2623,7 +2623,7 @@
         <v>731</v>
       </c>
       <c r="M52" t="n">
-        <v>77123</v>
+        <v>77130</v>
       </c>
     </row>
     <row r="53">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3825</v>
+        <v>3827</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>3825</v>
@@ -2666,7 +2666,7 @@
         <v>778</v>
       </c>
       <c r="M53" t="n">
-        <v>80948</v>
+        <v>80957</v>
       </c>
     </row>
     <row r="54">
@@ -2709,7 +2709,7 @@
         <v>826</v>
       </c>
       <c r="M54" t="n">
-        <v>84653</v>
+        <v>84662</v>
       </c>
     </row>
     <row r="55">
@@ -2722,10 +2722,10 @@
         <v>4239</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>4238</v>
+        <v>4239</v>
       </c>
       <c r="E55" t="n">
         <v>644</v>
@@ -2752,7 +2752,7 @@
         <v>864</v>
       </c>
       <c r="M55" t="n">
-        <v>88892</v>
+        <v>88901</v>
       </c>
     </row>
     <row r="56">
@@ -2762,10 +2762,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3491</v>
+        <v>3492</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
         <v>3491</v>
@@ -2795,7 +2795,7 @@
         <v>899</v>
       </c>
       <c r="M56" t="n">
-        <v>92383</v>
+        <v>92393</v>
       </c>
     </row>
     <row r="57">
@@ -2805,10 +2805,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
         <v>2216</v>
@@ -2838,7 +2838,7 @@
         <v>940</v>
       </c>
       <c r="M57" t="n">
-        <v>94599</v>
+        <v>94610</v>
       </c>
     </row>
     <row r="58">
@@ -2848,10 +2848,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
         <v>1785</v>
@@ -2881,7 +2881,7 @@
         <v>974</v>
       </c>
       <c r="M58" t="n">
-        <v>96384</v>
+        <v>96396</v>
       </c>
     </row>
     <row r="59">
@@ -2891,22 +2891,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4274</v>
+        <v>4287</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D59" t="n">
         <v>4274</v>
       </c>
       <c r="E59" t="n">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H59" t="n">
         <v>41</v>
@@ -2918,13 +2918,13 @@
         <v>41</v>
       </c>
       <c r="K59" t="n">
-        <v>16547</v>
+        <v>16546</v>
       </c>
       <c r="L59" t="n">
         <v>1015</v>
       </c>
       <c r="M59" t="n">
-        <v>100658</v>
+        <v>100683</v>
       </c>
     </row>
     <row r="60">
@@ -2934,13 +2934,13 @@
         </is>
       </c>
       <c r="B60" t="n">
+        <v>4573</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3</v>
+      </c>
+      <c r="D60" t="n">
         <v>4570</v>
-      </c>
-      <c r="C60" t="n">
-        <v>29</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4541</v>
       </c>
       <c r="E60" t="n">
         <v>595</v>
@@ -2961,13 +2961,13 @@
         <v>34</v>
       </c>
       <c r="K60" t="n">
-        <v>17142</v>
+        <v>17141</v>
       </c>
       <c r="L60" t="n">
         <v>1049</v>
       </c>
       <c r="M60" t="n">
-        <v>105228</v>
+        <v>105256</v>
       </c>
     </row>
     <row r="61">
@@ -2977,13 +2977,13 @@
         </is>
       </c>
       <c r="B61" t="n">
+        <v>4641</v>
+      </c>
+      <c r="C61" t="n">
+        <v>4</v>
+      </c>
+      <c r="D61" t="n">
         <v>4637</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" t="n">
-        <v>4636</v>
       </c>
       <c r="E61" t="n">
         <v>654</v>
@@ -3004,13 +3004,13 @@
         <v>40</v>
       </c>
       <c r="K61" t="n">
-        <v>17796</v>
+        <v>17795</v>
       </c>
       <c r="L61" t="n">
         <v>1089</v>
       </c>
       <c r="M61" t="n">
-        <v>109865</v>
+        <v>109897</v>
       </c>
     </row>
     <row r="62">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="B62" t="n">
+        <v>4690</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4</v>
+      </c>
+      <c r="D62" t="n">
         <v>4686</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1</v>
-      </c>
-      <c r="D62" t="n">
-        <v>4685</v>
       </c>
       <c r="E62" t="n">
         <v>795</v>
@@ -3047,13 +3047,13 @@
         <v>45</v>
       </c>
       <c r="K62" t="n">
-        <v>18591</v>
+        <v>18590</v>
       </c>
       <c r="L62" t="n">
         <v>1134</v>
       </c>
       <c r="M62" t="n">
-        <v>114551</v>
+        <v>114587</v>
       </c>
     </row>
     <row r="63">
@@ -3066,10 +3066,10 @@
         <v>5760</v>
       </c>
       <c r="C63" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>5752</v>
+        <v>5760</v>
       </c>
       <c r="E63" t="n">
         <v>654</v>
@@ -3090,13 +3090,13 @@
         <v>33</v>
       </c>
       <c r="K63" t="n">
-        <v>19245</v>
+        <v>19244</v>
       </c>
       <c r="L63" t="n">
         <v>1167</v>
       </c>
       <c r="M63" t="n">
-        <v>120311</v>
+        <v>120347</v>
       </c>
     </row>
     <row r="64">
@@ -3106,13 +3106,13 @@
         </is>
       </c>
       <c r="B64" t="n">
+        <v>2843</v>
+      </c>
+      <c r="C64" t="n">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
         <v>2837</v>
-      </c>
-      <c r="C64" t="n">
-        <v>15</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2822</v>
       </c>
       <c r="E64" t="n">
         <v>634</v>
@@ -3133,13 +3133,13 @@
         <v>40</v>
       </c>
       <c r="K64" t="n">
-        <v>19879</v>
+        <v>19878</v>
       </c>
       <c r="L64" t="n">
         <v>1207</v>
       </c>
       <c r="M64" t="n">
-        <v>123148</v>
+        <v>123190</v>
       </c>
     </row>
     <row r="65">
@@ -3149,13 +3149,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="E65" t="n">
         <v>570</v>
@@ -3176,13 +3176,13 @@
         <v>30</v>
       </c>
       <c r="K65" t="n">
-        <v>20449</v>
+        <v>20448</v>
       </c>
       <c r="L65" t="n">
         <v>1237</v>
       </c>
       <c r="M65" t="n">
-        <v>124803</v>
+        <v>124844</v>
       </c>
     </row>
     <row r="66">
@@ -3195,10 +3195,10 @@
         <v>5212</v>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>5209</v>
+        <v>5211</v>
       </c>
       <c r="E66" t="n">
         <v>526</v>
@@ -3219,13 +3219,13 @@
         <v>35</v>
       </c>
       <c r="K66" t="n">
-        <v>20975</v>
+        <v>20974</v>
       </c>
       <c r="L66" t="n">
         <v>1272</v>
       </c>
       <c r="M66" t="n">
-        <v>130015</v>
+        <v>130056</v>
       </c>
     </row>
     <row r="67">
@@ -3235,13 +3235,13 @@
         </is>
       </c>
       <c r="B67" t="n">
+        <v>5801</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4</v>
+      </c>
+      <c r="D67" t="n">
         <v>5797</v>
-      </c>
-      <c r="C67" t="n">
-        <v>25</v>
-      </c>
-      <c r="D67" t="n">
-        <v>5772</v>
       </c>
       <c r="E67" t="n">
         <v>838</v>
@@ -3262,13 +3262,13 @@
         <v>36</v>
       </c>
       <c r="K67" t="n">
-        <v>21813</v>
+        <v>21812</v>
       </c>
       <c r="L67" t="n">
         <v>1308</v>
       </c>
       <c r="M67" t="n">
-        <v>135812</v>
+        <v>135857</v>
       </c>
     </row>
     <row r="68">
@@ -3278,22 +3278,22 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5580</v>
+        <v>5588</v>
       </c>
       <c r="C68" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D68" t="n">
-        <v>5570</v>
+        <v>5579</v>
       </c>
       <c r="E68" t="n">
         <v>624</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H68" t="n">
         <v>39</v>
@@ -3305,13 +3305,13 @@
         <v>39</v>
       </c>
       <c r="K68" t="n">
-        <v>22437</v>
+        <v>22436</v>
       </c>
       <c r="L68" t="n">
         <v>1347</v>
       </c>
       <c r="M68" t="n">
-        <v>141392</v>
+        <v>141445</v>
       </c>
     </row>
     <row r="69">
@@ -3324,10 +3324,10 @@
         <v>5800</v>
       </c>
       <c r="C69" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>5783</v>
+        <v>5798</v>
       </c>
       <c r="E69" t="n">
         <v>642</v>
@@ -3348,13 +3348,13 @@
         <v>33</v>
       </c>
       <c r="K69" t="n">
-        <v>23079</v>
+        <v>23078</v>
       </c>
       <c r="L69" t="n">
         <v>1380</v>
       </c>
       <c r="M69" t="n">
-        <v>147192</v>
+        <v>147245</v>
       </c>
     </row>
     <row r="70">
@@ -3364,13 +3364,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>5832</v>
+        <v>5836</v>
       </c>
       <c r="C70" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>5820</v>
+        <v>5831</v>
       </c>
       <c r="E70" t="n">
         <v>593</v>
@@ -3391,13 +3391,13 @@
         <v>20</v>
       </c>
       <c r="K70" t="n">
-        <v>23672</v>
+        <v>23671</v>
       </c>
       <c r="L70" t="n">
         <v>1400</v>
       </c>
       <c r="M70" t="n">
-        <v>153024</v>
+        <v>153081</v>
       </c>
     </row>
     <row r="71">
@@ -3407,22 +3407,22 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3100</v>
+        <v>3119</v>
       </c>
       <c r="C71" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D71" t="n">
-        <v>3086</v>
+        <v>3099</v>
       </c>
       <c r="E71" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H71" t="n">
         <v>25</v>
@@ -3434,13 +3434,13 @@
         <v>25</v>
       </c>
       <c r="K71" t="n">
-        <v>24061</v>
+        <v>24059</v>
       </c>
       <c r="L71" t="n">
         <v>1425</v>
       </c>
       <c r="M71" t="n">
-        <v>156124</v>
+        <v>156200</v>
       </c>
     </row>
     <row r="72">
@@ -3450,22 +3450,22 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>1227</v>
       </c>
       <c r="E72" t="n">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H72" t="n">
         <v>27</v>
@@ -3477,13 +3477,13 @@
         <v>27</v>
       </c>
       <c r="K72" t="n">
-        <v>24526</v>
+        <v>24523</v>
       </c>
       <c r="L72" t="n">
         <v>1452</v>
       </c>
       <c r="M72" t="n">
-        <v>157351</v>
+        <v>157430</v>
       </c>
     </row>
     <row r="73">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6395</v>
+        <v>6411</v>
       </c>
       <c r="C73" t="n">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="D73" t="n">
-        <v>6239</v>
+        <v>6394</v>
       </c>
       <c r="E73" t="n">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H73" t="n">
         <v>37</v>
@@ -3520,13 +3520,13 @@
         <v>37</v>
       </c>
       <c r="K73" t="n">
-        <v>25048</v>
+        <v>25044</v>
       </c>
       <c r="L73" t="n">
         <v>1489</v>
       </c>
       <c r="M73" t="n">
-        <v>163746</v>
+        <v>163841</v>
       </c>
     </row>
     <row r="74">
@@ -3536,13 +3536,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>5559</v>
+        <v>5623</v>
       </c>
       <c r="C74" t="n">
-        <v>557</v>
+        <v>55</v>
       </c>
       <c r="D74" t="n">
-        <v>5002</v>
+        <v>5568</v>
       </c>
       <c r="E74" t="n">
         <v>376</v>
@@ -3563,13 +3563,13 @@
         <v>35</v>
       </c>
       <c r="K74" t="n">
-        <v>25424</v>
+        <v>25420</v>
       </c>
       <c r="L74" t="n">
         <v>1524</v>
       </c>
       <c r="M74" t="n">
-        <v>169305</v>
+        <v>169464</v>
       </c>
     </row>
     <row r="75">
@@ -3579,22 +3579,22 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>4217</v>
+        <v>5474</v>
       </c>
       <c r="C75" t="n">
-        <v>2109</v>
+        <v>1243</v>
       </c>
       <c r="D75" t="n">
-        <v>2108</v>
+        <v>4231</v>
       </c>
       <c r="E75" t="n">
         <v>609</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H75" t="n">
         <v>21</v>
@@ -3606,13 +3606,13 @@
         <v>21</v>
       </c>
       <c r="K75" t="n">
-        <v>26033</v>
+        <v>26029</v>
       </c>
       <c r="L75" t="n">
         <v>1545</v>
       </c>
       <c r="M75" t="n">
-        <v>173522</v>
+        <v>174938</v>
       </c>
     </row>
     <row r="76">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2803</v>
+        <v>4861</v>
       </c>
       <c r="C76" t="n">
-        <v>2151</v>
+        <v>2090</v>
       </c>
       <c r="D76" t="n">
-        <v>652</v>
+        <v>2771</v>
       </c>
       <c r="E76" t="n">
         <v>592</v>
@@ -3643,19 +3643,19 @@
         <v>38</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K76" t="n">
-        <v>26625</v>
+        <v>26621</v>
       </c>
       <c r="L76" t="n">
         <v>1583</v>
       </c>
       <c r="M76" t="n">
-        <v>176325</v>
+        <v>179799</v>
       </c>
     </row>
     <row r="77">
@@ -3665,40 +3665,40 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>855</v>
+        <v>3595</v>
       </c>
       <c r="C77" t="n">
-        <v>739</v>
+        <v>2743</v>
       </c>
       <c r="D77" t="n">
-        <v>116</v>
+        <v>852</v>
       </c>
       <c r="E77" t="n">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F77" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="H77" t="n">
+        <v>19</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
         <v>18</v>
       </c>
-      <c r="I77" t="n">
-        <v>4</v>
-      </c>
-      <c r="J77" t="n">
-        <v>14</v>
-      </c>
       <c r="K77" t="n">
-        <v>27273</v>
+        <v>27267</v>
       </c>
       <c r="L77" t="n">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="M77" t="n">
-        <v>177180</v>
+        <v>183394</v>
       </c>
     </row>
     <row r="78">
@@ -3708,40 +3708,83 @@
         </is>
       </c>
       <c r="B78" t="n">
+        <v>428</v>
+      </c>
+      <c r="C78" t="n">
+        <v>365</v>
+      </c>
+      <c r="D78" t="n">
         <v>63</v>
       </c>
-      <c r="C78" t="n">
-        <v>63</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
       <c r="E78" t="n">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F78" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>497</v>
       </c>
       <c r="H78" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I78" t="n">
         <v>6</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K78" t="n">
-        <v>27778</v>
+        <v>27766</v>
       </c>
       <c r="L78" t="n">
-        <v>1607</v>
+        <v>1614</v>
       </c>
       <c r="M78" t="n">
-        <v>177243</v>
+        <v>183822</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2020-05-17</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>90</v>
+      </c>
+      <c r="C79" t="n">
+        <v>90</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>489</v>
+      </c>
+      <c r="F79" t="n">
+        <v>489</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+      <c r="I79" t="n">
+        <v>7</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>28255</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1621</v>
+      </c>
+      <c r="M79" t="n">
+        <v>183912</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1386,13 +1386,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E24" t="n">
         <v>105</v>
@@ -1419,7 +1419,7 @@
         <v>24</v>
       </c>
       <c r="M24" t="n">
-        <v>9267</v>
+        <v>9266</v>
       </c>
     </row>
     <row r="25">
@@ -1462,7 +1462,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="n">
-        <v>10869</v>
+        <v>10868</v>
       </c>
     </row>
     <row r="26">
@@ -1505,7 +1505,7 @@
         <v>35</v>
       </c>
       <c r="M26" t="n">
-        <v>13181</v>
+        <v>13180</v>
       </c>
     </row>
     <row r="27">
@@ -1548,7 +1548,7 @@
         <v>44</v>
       </c>
       <c r="M27" t="n">
-        <v>15784</v>
+        <v>15783</v>
       </c>
     </row>
     <row r="28">
@@ -1591,7 +1591,7 @@
         <v>47</v>
       </c>
       <c r="M28" t="n">
-        <v>17943</v>
+        <v>17942</v>
       </c>
     </row>
     <row r="29">
@@ -1601,13 +1601,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E29" t="n">
         <v>288</v>
@@ -1634,7 +1634,7 @@
         <v>58</v>
       </c>
       <c r="M29" t="n">
-        <v>19214</v>
+        <v>19212</v>
       </c>
     </row>
     <row r="30">
@@ -1677,7 +1677,7 @@
         <v>76</v>
       </c>
       <c r="M30" t="n">
-        <v>20846</v>
+        <v>20844</v>
       </c>
     </row>
     <row r="31">
@@ -1720,7 +1720,7 @@
         <v>91</v>
       </c>
       <c r="M31" t="n">
-        <v>22804</v>
+        <v>22802</v>
       </c>
     </row>
     <row r="32">
@@ -1763,7 +1763,7 @@
         <v>113</v>
       </c>
       <c r="M32" t="n">
-        <v>25117</v>
+        <v>25115</v>
       </c>
     </row>
     <row r="33">
@@ -1806,7 +1806,7 @@
         <v>135</v>
       </c>
       <c r="M33" t="n">
-        <v>27650</v>
+        <v>27648</v>
       </c>
     </row>
     <row r="34">
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="E34" t="n">
         <v>396</v>
@@ -1849,7 +1849,7 @@
         <v>157</v>
       </c>
       <c r="M34" t="n">
-        <v>30339</v>
+        <v>30336</v>
       </c>
     </row>
     <row r="35">
@@ -1892,7 +1892,7 @@
         <v>189</v>
       </c>
       <c r="M35" t="n">
-        <v>33128</v>
+        <v>33125</v>
       </c>
     </row>
     <row r="36">
@@ -1935,7 +1935,7 @@
         <v>214</v>
       </c>
       <c r="M36" t="n">
-        <v>34764</v>
+        <v>34761</v>
       </c>
     </row>
     <row r="37">
@@ -1978,7 +1978,7 @@
         <v>248</v>
       </c>
       <c r="M37" t="n">
-        <v>35859</v>
+        <v>35856</v>
       </c>
     </row>
     <row r="38">
@@ -1988,10 +1988,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>2416</v>
@@ -2021,7 +2021,7 @@
         <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>38275</v>
+        <v>38273</v>
       </c>
     </row>
     <row r="39">
@@ -2031,13 +2031,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="E39" t="n">
         <v>422</v>
@@ -2064,7 +2064,7 @@
         <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>41045</v>
+        <v>41042</v>
       </c>
     </row>
     <row r="40">
@@ -2077,10 +2077,10 @@
         <v>3071</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="E40" t="n">
         <v>422</v>
@@ -2107,7 +2107,7 @@
         <v>337</v>
       </c>
       <c r="M40" t="n">
-        <v>44116</v>
+        <v>44113</v>
       </c>
     </row>
     <row r="41">
@@ -2117,13 +2117,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="E41" t="n">
         <v>558</v>
@@ -2150,7 +2150,7 @@
         <v>372</v>
       </c>
       <c r="M41" t="n">
-        <v>46856</v>
+        <v>46852</v>
       </c>
     </row>
     <row r="42">
@@ -2160,13 +2160,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="E42" t="n">
         <v>515</v>
@@ -2193,7 +2193,7 @@
         <v>397</v>
       </c>
       <c r="M42" t="n">
-        <v>49573</v>
+        <v>49568</v>
       </c>
     </row>
     <row r="43">
@@ -2206,19 +2206,19 @@
         <v>1527</v>
       </c>
       <c r="C43" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1518</v>
+        <v>1527</v>
       </c>
       <c r="E43" t="n">
         <v>486</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H43" t="n">
         <v>20</v>
@@ -2236,7 +2236,7 @@
         <v>417</v>
       </c>
       <c r="M43" t="n">
-        <v>51100</v>
+        <v>51095</v>
       </c>
     </row>
     <row r="44">
@@ -2258,10 +2258,10 @@
         <v>319</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H44" t="n">
         <v>29</v>
@@ -2279,7 +2279,7 @@
         <v>446</v>
       </c>
       <c r="M44" t="n">
-        <v>51798</v>
+        <v>51793</v>
       </c>
     </row>
     <row r="45">
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="E45" t="n">
         <v>292</v>
@@ -2322,7 +2322,7 @@
         <v>480</v>
       </c>
       <c r="M45" t="n">
-        <v>55256</v>
+        <v>55250</v>
       </c>
     </row>
     <row r="46">
@@ -2365,7 +2365,7 @@
         <v>525</v>
       </c>
       <c r="M46" t="n">
-        <v>58849</v>
+        <v>58843</v>
       </c>
     </row>
     <row r="47">
@@ -2408,7 +2408,7 @@
         <v>562</v>
       </c>
       <c r="M47" t="n">
-        <v>62111</v>
+        <v>62105</v>
       </c>
     </row>
     <row r="48">
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
         <v>3906</v>
@@ -2451,7 +2451,7 @@
         <v>596</v>
       </c>
       <c r="M48" t="n">
-        <v>66019</v>
+        <v>66012</v>
       </c>
     </row>
     <row r="49">
@@ -2464,10 +2464,10 @@
         <v>4022</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>4021</v>
+        <v>4022</v>
       </c>
       <c r="E49" t="n">
         <v>505</v>
@@ -2479,10 +2479,10 @@
         <v>505</v>
       </c>
       <c r="H49" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
         <v>35</v>
@@ -2491,10 +2491,10 @@
         <v>10598</v>
       </c>
       <c r="L49" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M49" t="n">
-        <v>70041</v>
+        <v>70034</v>
       </c>
     </row>
     <row r="50">
@@ -2513,13 +2513,13 @@
         <v>1704</v>
       </c>
       <c r="E50" t="n">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H50" t="n">
         <v>28</v>
@@ -2531,13 +2531,13 @@
         <v>28</v>
       </c>
       <c r="K50" t="n">
-        <v>11156</v>
+        <v>11155</v>
       </c>
       <c r="L50" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="M50" t="n">
-        <v>71745</v>
+        <v>71738</v>
       </c>
     </row>
     <row r="51">
@@ -2547,10 +2547,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>1098</v>
@@ -2565,22 +2565,22 @@
         <v>479</v>
       </c>
       <c r="H51" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
         <v>35</v>
       </c>
       <c r="K51" t="n">
-        <v>11635</v>
+        <v>11634</v>
       </c>
       <c r="L51" t="n">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="M51" t="n">
-        <v>72844</v>
+        <v>72838</v>
       </c>
     </row>
     <row r="52">
@@ -2593,37 +2593,37 @@
         <v>4286</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>4286</v>
+        <v>4285</v>
       </c>
       <c r="E52" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H52" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
         <v>37</v>
       </c>
       <c r="K52" t="n">
-        <v>12021</v>
+        <v>12019</v>
       </c>
       <c r="L52" t="n">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="M52" t="n">
-        <v>77130</v>
+        <v>77124</v>
       </c>
     </row>
     <row r="53">
@@ -2636,10 +2636,10 @@
         <v>3827</v>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>3825</v>
+        <v>3826</v>
       </c>
       <c r="E53" t="n">
         <v>379</v>
@@ -2651,22 +2651,22 @@
         <v>379</v>
       </c>
       <c r="H53" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
         <v>47</v>
       </c>
       <c r="K53" t="n">
-        <v>12400</v>
+        <v>12398</v>
       </c>
       <c r="L53" t="n">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="M53" t="n">
-        <v>80957</v>
+        <v>80951</v>
       </c>
     </row>
     <row r="54">
@@ -2676,40 +2676,40 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3705</v>
+        <v>3710</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>3705</v>
+        <v>3704</v>
       </c>
       <c r="E54" t="n">
         <v>605</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H54" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
         <v>48</v>
       </c>
       <c r="K54" t="n">
-        <v>13005</v>
+        <v>13003</v>
       </c>
       <c r="L54" t="n">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="M54" t="n">
-        <v>84662</v>
+        <v>84661</v>
       </c>
     </row>
     <row r="55">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4239</v>
+        <v>4266</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D55" t="n">
-        <v>4239</v>
+        <v>4240</v>
       </c>
       <c r="E55" t="n">
         <v>644</v>
@@ -2746,13 +2746,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="n">
-        <v>13649</v>
+        <v>13647</v>
       </c>
       <c r="L55" t="n">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="M55" t="n">
-        <v>88901</v>
+        <v>88927</v>
       </c>
     </row>
     <row r="56">
@@ -2762,40 +2762,40 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3492</v>
+        <v>3493</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>3491</v>
+        <v>3493</v>
       </c>
       <c r="E56" t="n">
         <v>700</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H56" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
         <v>35</v>
       </c>
       <c r="K56" t="n">
-        <v>14349</v>
+        <v>14347</v>
       </c>
       <c r="L56" t="n">
-        <v>899</v>
+        <v>906</v>
       </c>
       <c r="M56" t="n">
-        <v>92393</v>
+        <v>92420</v>
       </c>
     </row>
     <row r="57">
@@ -2805,22 +2805,22 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="E57" t="n">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H57" t="n">
         <v>41</v>
@@ -2832,13 +2832,13 @@
         <v>41</v>
       </c>
       <c r="K57" t="n">
-        <v>14975</v>
+        <v>14971</v>
       </c>
       <c r="L57" t="n">
-        <v>940</v>
+        <v>947</v>
       </c>
       <c r="M57" t="n">
-        <v>94610</v>
+        <v>94636</v>
       </c>
     </row>
     <row r="58">
@@ -2848,13 +2848,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="E58" t="n">
         <v>950</v>
@@ -2875,13 +2875,13 @@
         <v>34</v>
       </c>
       <c r="K58" t="n">
-        <v>15925</v>
+        <v>15921</v>
       </c>
       <c r="L58" t="n">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="M58" t="n">
-        <v>96396</v>
+        <v>96421</v>
       </c>
     </row>
     <row r="59">
@@ -2891,13 +2891,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4287</v>
+        <v>4338</v>
       </c>
       <c r="C59" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D59" t="n">
-        <v>4274</v>
+        <v>4288</v>
       </c>
       <c r="E59" t="n">
         <v>621</v>
@@ -2918,13 +2918,13 @@
         <v>41</v>
       </c>
       <c r="K59" t="n">
-        <v>16546</v>
+        <v>16542</v>
       </c>
       <c r="L59" t="n">
-        <v>1015</v>
+        <v>1022</v>
       </c>
       <c r="M59" t="n">
-        <v>100683</v>
+        <v>100759</v>
       </c>
     </row>
     <row r="60">
@@ -2934,13 +2934,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4573</v>
+        <v>4686</v>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="D60" t="n">
-        <v>4570</v>
+        <v>4594</v>
       </c>
       <c r="E60" t="n">
         <v>595</v>
@@ -2961,13 +2961,13 @@
         <v>34</v>
       </c>
       <c r="K60" t="n">
-        <v>17141</v>
+        <v>17137</v>
       </c>
       <c r="L60" t="n">
-        <v>1049</v>
+        <v>1056</v>
       </c>
       <c r="M60" t="n">
-        <v>105256</v>
+        <v>105445</v>
       </c>
     </row>
     <row r="61">
@@ -2977,13 +2977,13 @@
         </is>
       </c>
       <c r="B61" t="n">
+        <v>4717</v>
+      </c>
+      <c r="C61" t="n">
+        <v>76</v>
+      </c>
+      <c r="D61" t="n">
         <v>4641</v>
-      </c>
-      <c r="C61" t="n">
-        <v>4</v>
-      </c>
-      <c r="D61" t="n">
-        <v>4637</v>
       </c>
       <c r="E61" t="n">
         <v>654</v>
@@ -3004,13 +3004,13 @@
         <v>40</v>
       </c>
       <c r="K61" t="n">
-        <v>17795</v>
+        <v>17791</v>
       </c>
       <c r="L61" t="n">
-        <v>1089</v>
+        <v>1096</v>
       </c>
       <c r="M61" t="n">
-        <v>109897</v>
+        <v>110162</v>
       </c>
     </row>
     <row r="62">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4690</v>
+        <v>4737</v>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D62" t="n">
-        <v>4686</v>
+        <v>4689</v>
       </c>
       <c r="E62" t="n">
         <v>795</v>
@@ -3047,13 +3047,13 @@
         <v>45</v>
       </c>
       <c r="K62" t="n">
-        <v>18590</v>
+        <v>18586</v>
       </c>
       <c r="L62" t="n">
-        <v>1134</v>
+        <v>1141</v>
       </c>
       <c r="M62" t="n">
-        <v>114587</v>
+        <v>114899</v>
       </c>
     </row>
     <row r="63">
@@ -3063,22 +3063,22 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5760</v>
+        <v>5764</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>5760</v>
+        <v>5758</v>
       </c>
       <c r="E63" t="n">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H63" t="n">
         <v>33</v>
@@ -3090,13 +3090,13 @@
         <v>33</v>
       </c>
       <c r="K63" t="n">
-        <v>19244</v>
+        <v>19239</v>
       </c>
       <c r="L63" t="n">
-        <v>1167</v>
+        <v>1174</v>
       </c>
       <c r="M63" t="n">
-        <v>120347</v>
+        <v>120663</v>
       </c>
     </row>
     <row r="64">
@@ -3106,19 +3106,19 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2843</v>
+        <v>2850</v>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D64" t="n">
-        <v>2837</v>
+        <v>2842</v>
       </c>
       <c r="E64" t="n">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
         <v>634</v>
@@ -3133,13 +3133,13 @@
         <v>40</v>
       </c>
       <c r="K64" t="n">
-        <v>19878</v>
+        <v>19874</v>
       </c>
       <c r="L64" t="n">
-        <v>1207</v>
+        <v>1214</v>
       </c>
       <c r="M64" t="n">
-        <v>123190</v>
+        <v>123513</v>
       </c>
     </row>
     <row r="65">
@@ -3149,13 +3149,13 @@
         </is>
       </c>
       <c r="B65" t="n">
+        <v>1658</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4</v>
+      </c>
+      <c r="D65" t="n">
         <v>1654</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1653</v>
       </c>
       <c r="E65" t="n">
         <v>570</v>
@@ -3176,13 +3176,13 @@
         <v>30</v>
       </c>
       <c r="K65" t="n">
-        <v>20448</v>
+        <v>20444</v>
       </c>
       <c r="L65" t="n">
-        <v>1237</v>
+        <v>1244</v>
       </c>
       <c r="M65" t="n">
-        <v>124844</v>
+        <v>125171</v>
       </c>
     </row>
     <row r="66">
@@ -3192,13 +3192,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5212</v>
+        <v>5277</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="D66" t="n">
-        <v>5211</v>
+        <v>5210</v>
       </c>
       <c r="E66" t="n">
         <v>526</v>
@@ -3219,13 +3219,13 @@
         <v>35</v>
       </c>
       <c r="K66" t="n">
-        <v>20974</v>
+        <v>20970</v>
       </c>
       <c r="L66" t="n">
-        <v>1272</v>
+        <v>1279</v>
       </c>
       <c r="M66" t="n">
-        <v>130056</v>
+        <v>130448</v>
       </c>
     </row>
     <row r="67">
@@ -3235,13 +3235,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5801</v>
+        <v>5866</v>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="D67" t="n">
-        <v>5797</v>
+        <v>5799</v>
       </c>
       <c r="E67" t="n">
         <v>838</v>
@@ -3262,13 +3262,13 @@
         <v>36</v>
       </c>
       <c r="K67" t="n">
-        <v>21812</v>
+        <v>21808</v>
       </c>
       <c r="L67" t="n">
-        <v>1308</v>
+        <v>1315</v>
       </c>
       <c r="M67" t="n">
-        <v>135857</v>
+        <v>136314</v>
       </c>
     </row>
     <row r="68">
@@ -3278,40 +3278,40 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5588</v>
+        <v>5584</v>
       </c>
       <c r="C68" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>5579</v>
+        <v>5580</v>
       </c>
       <c r="E68" t="n">
         <v>624</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H68" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
         <v>39</v>
       </c>
       <c r="K68" t="n">
-        <v>22436</v>
+        <v>22432</v>
       </c>
       <c r="L68" t="n">
-        <v>1347</v>
+        <v>1355</v>
       </c>
       <c r="M68" t="n">
-        <v>141445</v>
+        <v>141898</v>
       </c>
     </row>
     <row r="69">
@@ -3321,40 +3321,40 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>5800</v>
+        <v>5831</v>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D69" t="n">
-        <v>5798</v>
+        <v>5792</v>
       </c>
       <c r="E69" t="n">
         <v>642</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H69" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
         <v>33</v>
       </c>
       <c r="K69" t="n">
-        <v>23078</v>
+        <v>23074</v>
       </c>
       <c r="L69" t="n">
-        <v>1380</v>
+        <v>1389</v>
       </c>
       <c r="M69" t="n">
-        <v>147245</v>
+        <v>147729</v>
       </c>
     </row>
     <row r="70">
@@ -3364,22 +3364,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>5836</v>
+        <v>5990</v>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="D70" t="n">
-        <v>5831</v>
+        <v>5835</v>
       </c>
       <c r="E70" t="n">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H70" t="n">
         <v>20</v>
@@ -3391,13 +3391,13 @@
         <v>20</v>
       </c>
       <c r="K70" t="n">
-        <v>23671</v>
+        <v>23666</v>
       </c>
       <c r="L70" t="n">
-        <v>1400</v>
+        <v>1409</v>
       </c>
       <c r="M70" t="n">
-        <v>153081</v>
+        <v>153719</v>
       </c>
     </row>
     <row r="71">
@@ -3407,13 +3407,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3119</v>
+        <v>3131</v>
       </c>
       <c r="C71" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D71" t="n">
-        <v>3099</v>
+        <v>3116</v>
       </c>
       <c r="E71" t="n">
         <v>388</v>
@@ -3425,22 +3425,22 @@
         <v>388</v>
       </c>
       <c r="H71" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J71" t="n">
         <v>25</v>
       </c>
       <c r="K71" t="n">
-        <v>24059</v>
+        <v>24054</v>
       </c>
       <c r="L71" t="n">
-        <v>1425</v>
+        <v>1437</v>
       </c>
       <c r="M71" t="n">
-        <v>156200</v>
+        <v>156850</v>
       </c>
     </row>
     <row r="72">
@@ -3450,13 +3450,13 @@
         </is>
       </c>
       <c r="B72" t="n">
+        <v>1231</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
         <v>1230</v>
-      </c>
-      <c r="C72" t="n">
-        <v>3</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1227</v>
       </c>
       <c r="E72" t="n">
         <v>464</v>
@@ -3477,13 +3477,13 @@
         <v>27</v>
       </c>
       <c r="K72" t="n">
-        <v>24523</v>
+        <v>24518</v>
       </c>
       <c r="L72" t="n">
-        <v>1452</v>
+        <v>1464</v>
       </c>
       <c r="M72" t="n">
-        <v>157430</v>
+        <v>158081</v>
       </c>
     </row>
     <row r="73">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6411</v>
+        <v>6522</v>
       </c>
       <c r="C73" t="n">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="D73" t="n">
-        <v>6394</v>
+        <v>6403</v>
       </c>
       <c r="E73" t="n">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H73" t="n">
         <v>37</v>
@@ -3520,13 +3520,13 @@
         <v>37</v>
       </c>
       <c r="K73" t="n">
-        <v>25044</v>
+        <v>25038</v>
       </c>
       <c r="L73" t="n">
-        <v>1489</v>
+        <v>1501</v>
       </c>
       <c r="M73" t="n">
-        <v>163841</v>
+        <v>164603</v>
       </c>
     </row>
     <row r="74">
@@ -3536,13 +3536,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>5623</v>
+        <v>5773</v>
       </c>
       <c r="C74" t="n">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="D74" t="n">
-        <v>5568</v>
+        <v>5617</v>
       </c>
       <c r="E74" t="n">
         <v>376</v>
@@ -3563,13 +3563,13 @@
         <v>35</v>
       </c>
       <c r="K74" t="n">
-        <v>25420</v>
+        <v>25414</v>
       </c>
       <c r="L74" t="n">
-        <v>1524</v>
+        <v>1536</v>
       </c>
       <c r="M74" t="n">
-        <v>169464</v>
+        <v>170376</v>
       </c>
     </row>
     <row r="75">
@@ -3579,22 +3579,22 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>5474</v>
+        <v>5827</v>
       </c>
       <c r="C75" t="n">
-        <v>1243</v>
+        <v>373</v>
       </c>
       <c r="D75" t="n">
-        <v>4231</v>
+        <v>5454</v>
       </c>
       <c r="E75" t="n">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="H75" t="n">
         <v>21</v>
@@ -3606,13 +3606,13 @@
         <v>21</v>
       </c>
       <c r="K75" t="n">
-        <v>26029</v>
+        <v>26021</v>
       </c>
       <c r="L75" t="n">
-        <v>1545</v>
+        <v>1557</v>
       </c>
       <c r="M75" t="n">
-        <v>174938</v>
+        <v>176203</v>
       </c>
     </row>
     <row r="76">
@@ -3622,40 +3622,40 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4861</v>
+        <v>5477</v>
       </c>
       <c r="C76" t="n">
-        <v>2090</v>
+        <v>637</v>
       </c>
       <c r="D76" t="n">
-        <v>2771</v>
+        <v>4840</v>
       </c>
       <c r="E76" t="n">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="H76" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
         <v>38</v>
       </c>
       <c r="K76" t="n">
-        <v>26621</v>
+        <v>26610</v>
       </c>
       <c r="L76" t="n">
-        <v>1583</v>
+        <v>1596</v>
       </c>
       <c r="M76" t="n">
-        <v>179799</v>
+        <v>181680</v>
       </c>
     </row>
     <row r="77">
@@ -3665,40 +3665,40 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>3595</v>
+        <v>5762</v>
       </c>
       <c r="C77" t="n">
-        <v>2743</v>
+        <v>2177</v>
       </c>
       <c r="D77" t="n">
-        <v>852</v>
+        <v>3585</v>
       </c>
       <c r="E77" t="n">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="H77" t="n">
+        <v>24</v>
+      </c>
+      <c r="I77" t="n">
+        <v>5</v>
+      </c>
+      <c r="J77" t="n">
         <v>19</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>18</v>
-      </c>
       <c r="K77" t="n">
-        <v>27267</v>
+        <v>27253</v>
       </c>
       <c r="L77" t="n">
-        <v>1602</v>
+        <v>1620</v>
       </c>
       <c r="M77" t="n">
-        <v>183394</v>
+        <v>187442</v>
       </c>
     </row>
     <row r="78">
@@ -3708,40 +3708,40 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>428</v>
+        <v>1409</v>
       </c>
       <c r="C78" t="n">
-        <v>365</v>
+        <v>983</v>
       </c>
       <c r="D78" t="n">
-        <v>63</v>
+        <v>426</v>
       </c>
       <c r="E78" t="n">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H78" t="n">
+        <v>22</v>
+      </c>
+      <c r="I78" t="n">
+        <v>10</v>
+      </c>
+      <c r="J78" t="n">
         <v>12</v>
       </c>
-      <c r="I78" t="n">
-        <v>6</v>
-      </c>
-      <c r="J78" t="n">
-        <v>6</v>
-      </c>
       <c r="K78" t="n">
-        <v>27766</v>
+        <v>27749</v>
       </c>
       <c r="L78" t="n">
-        <v>1614</v>
+        <v>1642</v>
       </c>
       <c r="M78" t="n">
-        <v>183822</v>
+        <v>188851</v>
       </c>
     </row>
     <row r="79">
@@ -3751,40 +3751,83 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>90</v>
+        <v>327</v>
       </c>
       <c r="C79" t="n">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="E79" t="n">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F79" t="n">
-        <v>489</v>
+        <v>2</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="H79" t="n">
+        <v>21</v>
+      </c>
+      <c r="I79" t="n">
+        <v>14</v>
+      </c>
+      <c r="J79" t="n">
         <v>7</v>
       </c>
-      <c r="I79" t="n">
-        <v>7</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
       <c r="K79" t="n">
-        <v>28255</v>
+        <v>28234</v>
       </c>
       <c r="L79" t="n">
-        <v>1621</v>
+        <v>1663</v>
       </c>
       <c r="M79" t="n">
-        <v>183912</v>
+        <v>189178</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2020-05-18</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>152</v>
+      </c>
+      <c r="C80" t="n">
+        <v>152</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>471</v>
+      </c>
+      <c r="F80" t="n">
+        <v>471</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>15</v>
+      </c>
+      <c r="I80" t="n">
+        <v>15</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>28705</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1678</v>
+      </c>
+      <c r="M80" t="n">
+        <v>189330</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -956,13 +956,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="15">
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="16">
@@ -1075,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="17">
@@ -1118,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="18">
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="19">
@@ -1204,7 +1204,7 @@
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>3286</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="20">
@@ -1247,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>4367</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="21">
@@ -1290,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>6097</v>
+        <v>6096</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1333,7 @@
         <v>14</v>
       </c>
       <c r="M22" t="n">
-        <v>6794</v>
+        <v>6793</v>
       </c>
     </row>
     <row r="23">
@@ -1376,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="M23" t="n">
-        <v>7815</v>
+        <v>7814</v>
       </c>
     </row>
     <row r="24">
@@ -1419,7 +1419,7 @@
         <v>24</v>
       </c>
       <c r="M24" t="n">
-        <v>9266</v>
+        <v>9265</v>
       </c>
     </row>
     <row r="25">
@@ -1462,7 +1462,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="n">
-        <v>10868</v>
+        <v>10867</v>
       </c>
     </row>
     <row r="26">
@@ -1505,7 +1505,7 @@
         <v>35</v>
       </c>
       <c r="M26" t="n">
-        <v>13180</v>
+        <v>13179</v>
       </c>
     </row>
     <row r="27">
@@ -1548,7 +1548,7 @@
         <v>44</v>
       </c>
       <c r="M27" t="n">
-        <v>15783</v>
+        <v>15782</v>
       </c>
     </row>
     <row r="28">
@@ -1591,7 +1591,7 @@
         <v>47</v>
       </c>
       <c r="M28" t="n">
-        <v>17942</v>
+        <v>17941</v>
       </c>
     </row>
     <row r="29">
@@ -1634,7 +1634,7 @@
         <v>58</v>
       </c>
       <c r="M29" t="n">
-        <v>19212</v>
+        <v>19211</v>
       </c>
     </row>
     <row r="30">
@@ -1677,7 +1677,7 @@
         <v>76</v>
       </c>
       <c r="M30" t="n">
-        <v>20844</v>
+        <v>20843</v>
       </c>
     </row>
     <row r="31">
@@ -1720,7 +1720,7 @@
         <v>91</v>
       </c>
       <c r="M31" t="n">
-        <v>22802</v>
+        <v>22801</v>
       </c>
     </row>
     <row r="32">
@@ -1763,7 +1763,7 @@
         <v>113</v>
       </c>
       <c r="M32" t="n">
-        <v>25115</v>
+        <v>25114</v>
       </c>
     </row>
     <row r="33">
@@ -1806,7 +1806,7 @@
         <v>135</v>
       </c>
       <c r="M33" t="n">
-        <v>27648</v>
+        <v>27647</v>
       </c>
     </row>
     <row r="34">
@@ -1849,7 +1849,7 @@
         <v>157</v>
       </c>
       <c r="M34" t="n">
-        <v>30336</v>
+        <v>30335</v>
       </c>
     </row>
     <row r="35">
@@ -1892,7 +1892,7 @@
         <v>189</v>
       </c>
       <c r="M35" t="n">
-        <v>33125</v>
+        <v>33124</v>
       </c>
     </row>
     <row r="36">
@@ -1935,7 +1935,7 @@
         <v>214</v>
       </c>
       <c r="M36" t="n">
-        <v>34761</v>
+        <v>34760</v>
       </c>
     </row>
     <row r="37">
@@ -1978,7 +1978,7 @@
         <v>248</v>
       </c>
       <c r="M37" t="n">
-        <v>35856</v>
+        <v>35855</v>
       </c>
     </row>
     <row r="38">
@@ -1991,10 +1991,10 @@
         <v>2417</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="E38" t="n">
         <v>557</v>
@@ -2021,7 +2021,7 @@
         <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>38273</v>
+        <v>38272</v>
       </c>
     </row>
     <row r="39">
@@ -2064,7 +2064,7 @@
         <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>41042</v>
+        <v>41041</v>
       </c>
     </row>
     <row r="40">
@@ -2077,10 +2077,10 @@
         <v>3071</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="E40" t="n">
         <v>422</v>
@@ -2107,7 +2107,7 @@
         <v>337</v>
       </c>
       <c r="M40" t="n">
-        <v>44113</v>
+        <v>44112</v>
       </c>
     </row>
     <row r="41">
@@ -2150,7 +2150,7 @@
         <v>372</v>
       </c>
       <c r="M41" t="n">
-        <v>46852</v>
+        <v>46851</v>
       </c>
     </row>
     <row r="42">
@@ -2163,10 +2163,10 @@
         <v>2716</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="E42" t="n">
         <v>515</v>
@@ -2193,7 +2193,7 @@
         <v>397</v>
       </c>
       <c r="M42" t="n">
-        <v>49568</v>
+        <v>49567</v>
       </c>
     </row>
     <row r="43">
@@ -2215,10 +2215,10 @@
         <v>486</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H43" t="n">
         <v>20</v>
@@ -2236,7 +2236,7 @@
         <v>417</v>
       </c>
       <c r="M43" t="n">
-        <v>51095</v>
+        <v>51094</v>
       </c>
     </row>
     <row r="44">
@@ -2258,10 +2258,10 @@
         <v>319</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H44" t="n">
         <v>29</v>
@@ -2279,7 +2279,7 @@
         <v>446</v>
       </c>
       <c r="M44" t="n">
-        <v>51793</v>
+        <v>51792</v>
       </c>
     </row>
     <row r="45">
@@ -2322,7 +2322,7 @@
         <v>480</v>
       </c>
       <c r="M45" t="n">
-        <v>55250</v>
+        <v>55249</v>
       </c>
     </row>
     <row r="46">
@@ -2365,7 +2365,7 @@
         <v>525</v>
       </c>
       <c r="M46" t="n">
-        <v>58843</v>
+        <v>58842</v>
       </c>
     </row>
     <row r="47">
@@ -2375,10 +2375,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3262</v>
+        <v>3263</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
         <v>3262</v>
@@ -2421,10 +2421,10 @@
         <v>3907</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>3906</v>
+        <v>3907</v>
       </c>
       <c r="E48" t="n">
         <v>600</v>
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4022</v>
+        <v>4023</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>4022</v>
+        <v>4023</v>
       </c>
       <c r="E49" t="n">
         <v>505</v>
@@ -2482,10 +2482,10 @@
         <v>36</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K49" t="n">
         <v>10598</v>
@@ -2494,7 +2494,7 @@
         <v>632</v>
       </c>
       <c r="M49" t="n">
-        <v>70034</v>
+        <v>70035</v>
       </c>
     </row>
     <row r="50">
@@ -2537,7 +2537,7 @@
         <v>660</v>
       </c>
       <c r="M50" t="n">
-        <v>71738</v>
+        <v>71739</v>
       </c>
     </row>
     <row r="51">
@@ -2550,10 +2550,10 @@
         <v>1100</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="E51" t="n">
         <v>479</v>
@@ -2568,10 +2568,10 @@
         <v>36</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K51" t="n">
         <v>11634</v>
@@ -2580,7 +2580,7 @@
         <v>696</v>
       </c>
       <c r="M51" t="n">
-        <v>72838</v>
+        <v>72839</v>
       </c>
     </row>
     <row r="52">
@@ -2593,10 +2593,10 @@
         <v>4286</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>4285</v>
+        <v>4286</v>
       </c>
       <c r="E52" t="n">
         <v>385</v>
@@ -2611,10 +2611,10 @@
         <v>38</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K52" t="n">
         <v>12019</v>
@@ -2623,7 +2623,7 @@
         <v>734</v>
       </c>
       <c r="M52" t="n">
-        <v>77124</v>
+        <v>77125</v>
       </c>
     </row>
     <row r="53">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
         <v>3826</v>
@@ -2654,10 +2654,10 @@
         <v>48</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K53" t="n">
         <v>12398</v>
@@ -2676,31 +2676,31 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3710</v>
+        <v>3716</v>
       </c>
       <c r="C54" t="n">
         <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>3704</v>
+        <v>3710</v>
       </c>
       <c r="E54" t="n">
         <v>605</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H54" t="n">
         <v>50</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K54" t="n">
         <v>13003</v>
@@ -2709,7 +2709,7 @@
         <v>832</v>
       </c>
       <c r="M54" t="n">
-        <v>84661</v>
+        <v>84667</v>
       </c>
     </row>
     <row r="55">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4266</v>
+        <v>4304</v>
       </c>
       <c r="C55" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D55" t="n">
-        <v>4240</v>
+        <v>4271</v>
       </c>
       <c r="E55" t="n">
         <v>644</v>
@@ -2752,7 +2752,7 @@
         <v>870</v>
       </c>
       <c r="M55" t="n">
-        <v>88927</v>
+        <v>88971</v>
       </c>
     </row>
     <row r="56">
@@ -2762,31 +2762,31 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3493</v>
+        <v>3500</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D56" t="n">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="E56" t="n">
         <v>700</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H56" t="n">
         <v>36</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K56" t="n">
         <v>14347</v>
@@ -2795,7 +2795,7 @@
         <v>906</v>
       </c>
       <c r="M56" t="n">
-        <v>92420</v>
+        <v>92471</v>
       </c>
     </row>
     <row r="57">
@@ -2805,13 +2805,13 @@
         </is>
       </c>
       <c r="B57" t="n">
+        <v>2218</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" t="n">
         <v>2216</v>
-      </c>
-      <c r="C57" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" t="n">
-        <v>2215</v>
       </c>
       <c r="E57" t="n">
         <v>624</v>
@@ -2838,7 +2838,7 @@
         <v>947</v>
       </c>
       <c r="M57" t="n">
-        <v>94636</v>
+        <v>94689</v>
       </c>
     </row>
     <row r="58">
@@ -2848,13 +2848,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="E58" t="n">
         <v>950</v>
@@ -2881,7 +2881,7 @@
         <v>981</v>
       </c>
       <c r="M58" t="n">
-        <v>96421</v>
+        <v>96473</v>
       </c>
     </row>
     <row r="59">
@@ -2891,13 +2891,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4338</v>
+        <v>4365</v>
       </c>
       <c r="C59" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D59" t="n">
-        <v>4288</v>
+        <v>4340</v>
       </c>
       <c r="E59" t="n">
         <v>621</v>
@@ -2924,7 +2924,7 @@
         <v>1022</v>
       </c>
       <c r="M59" t="n">
-        <v>100759</v>
+        <v>100838</v>
       </c>
     </row>
     <row r="60">
@@ -2934,13 +2934,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4686</v>
+        <v>4754</v>
       </c>
       <c r="C60" t="n">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="D60" t="n">
-        <v>4594</v>
+        <v>4692</v>
       </c>
       <c r="E60" t="n">
         <v>595</v>
@@ -2967,7 +2967,7 @@
         <v>1056</v>
       </c>
       <c r="M60" t="n">
-        <v>105445</v>
+        <v>105592</v>
       </c>
     </row>
     <row r="61">
@@ -2977,13 +2977,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4717</v>
+        <v>4741</v>
       </c>
       <c r="C61" t="n">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="D61" t="n">
-        <v>4641</v>
+        <v>4716</v>
       </c>
       <c r="E61" t="n">
         <v>654</v>
@@ -3010,7 +3010,7 @@
         <v>1096</v>
       </c>
       <c r="M61" t="n">
-        <v>110162</v>
+        <v>110333</v>
       </c>
     </row>
     <row r="62">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4737</v>
+        <v>4738</v>
       </c>
       <c r="C62" t="n">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>4689</v>
+        <v>4736</v>
       </c>
       <c r="E62" t="n">
         <v>795</v>
@@ -3053,7 +3053,7 @@
         <v>1141</v>
       </c>
       <c r="M62" t="n">
-        <v>114899</v>
+        <v>115071</v>
       </c>
     </row>
     <row r="63">
@@ -3063,13 +3063,13 @@
         </is>
       </c>
       <c r="B63" t="n">
+        <v>5768</v>
+      </c>
+      <c r="C63" t="n">
+        <v>4</v>
+      </c>
+      <c r="D63" t="n">
         <v>5764</v>
-      </c>
-      <c r="C63" t="n">
-        <v>6</v>
-      </c>
-      <c r="D63" t="n">
-        <v>5758</v>
       </c>
       <c r="E63" t="n">
         <v>653</v>
@@ -3096,7 +3096,7 @@
         <v>1174</v>
       </c>
       <c r="M63" t="n">
-        <v>120663</v>
+        <v>120839</v>
       </c>
     </row>
     <row r="64">
@@ -3106,22 +3106,22 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="C64" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>2842</v>
+        <v>2849</v>
       </c>
       <c r="E64" t="n">
         <v>635</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H64" t="n">
         <v>40</v>
@@ -3139,7 +3139,7 @@
         <v>1214</v>
       </c>
       <c r="M64" t="n">
-        <v>123513</v>
+        <v>123688</v>
       </c>
     </row>
     <row r="65">
@@ -3149,13 +3149,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>1654</v>
+        <v>1657</v>
       </c>
       <c r="E65" t="n">
         <v>570</v>
@@ -3167,10 +3167,10 @@
         <v>570</v>
       </c>
       <c r="H65" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
         <v>30</v>
@@ -3179,10 +3179,10 @@
         <v>20444</v>
       </c>
       <c r="L65" t="n">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="M65" t="n">
-        <v>125171</v>
+        <v>125345</v>
       </c>
     </row>
     <row r="66">
@@ -3192,22 +3192,22 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5277</v>
+        <v>5276</v>
       </c>
       <c r="C66" t="n">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>5210</v>
+        <v>5275</v>
       </c>
       <c r="E66" t="n">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H66" t="n">
         <v>35</v>
@@ -3219,13 +3219,13 @@
         <v>35</v>
       </c>
       <c r="K66" t="n">
-        <v>20970</v>
+        <v>20969</v>
       </c>
       <c r="L66" t="n">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="M66" t="n">
-        <v>130448</v>
+        <v>130621</v>
       </c>
     </row>
     <row r="67">
@@ -3235,13 +3235,13 @@
         </is>
       </c>
       <c r="B67" t="n">
+        <v>5869</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3</v>
+      </c>
+      <c r="D67" t="n">
         <v>5866</v>
-      </c>
-      <c r="C67" t="n">
-        <v>67</v>
-      </c>
-      <c r="D67" t="n">
-        <v>5799</v>
       </c>
       <c r="E67" t="n">
         <v>838</v>
@@ -3262,13 +3262,13 @@
         <v>36</v>
       </c>
       <c r="K67" t="n">
-        <v>21808</v>
+        <v>21807</v>
       </c>
       <c r="L67" t="n">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="M67" t="n">
-        <v>136314</v>
+        <v>136490</v>
       </c>
     </row>
     <row r="68">
@@ -3281,10 +3281,10 @@
         <v>5584</v>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>5580</v>
+        <v>5583</v>
       </c>
       <c r="E68" t="n">
         <v>624</v>
@@ -3296,22 +3296,22 @@
         <v>624</v>
       </c>
       <c r="H68" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K68" t="n">
-        <v>22432</v>
+        <v>22431</v>
       </c>
       <c r="L68" t="n">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="M68" t="n">
-        <v>141898</v>
+        <v>142074</v>
       </c>
     </row>
     <row r="69">
@@ -3321,40 +3321,40 @@
         </is>
       </c>
       <c r="B69" t="n">
+        <v>5866</v>
+      </c>
+      <c r="C69" t="n">
+        <v>35</v>
+      </c>
+      <c r="D69" t="n">
         <v>5831</v>
-      </c>
-      <c r="C69" t="n">
-        <v>39</v>
-      </c>
-      <c r="D69" t="n">
-        <v>5792</v>
       </c>
       <c r="E69" t="n">
         <v>642</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H69" t="n">
         <v>34</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K69" t="n">
-        <v>23074</v>
+        <v>23073</v>
       </c>
       <c r="L69" t="n">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="M69" t="n">
-        <v>147729</v>
+        <v>147940</v>
       </c>
     </row>
     <row r="70">
@@ -3364,40 +3364,40 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>5990</v>
+        <v>6017</v>
       </c>
       <c r="C70" t="n">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="D70" t="n">
-        <v>5835</v>
+        <v>5988</v>
       </c>
       <c r="E70" t="n">
         <v>592</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H70" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
         <v>20</v>
       </c>
       <c r="K70" t="n">
-        <v>23666</v>
+        <v>23665</v>
       </c>
       <c r="L70" t="n">
-        <v>1409</v>
+        <v>1413</v>
       </c>
       <c r="M70" t="n">
-        <v>153719</v>
+        <v>153957</v>
       </c>
     </row>
     <row r="71">
@@ -3407,13 +3407,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3131</v>
+        <v>3139</v>
       </c>
       <c r="C71" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D71" t="n">
-        <v>3116</v>
+        <v>3129</v>
       </c>
       <c r="E71" t="n">
         <v>388</v>
@@ -3425,22 +3425,22 @@
         <v>388</v>
       </c>
       <c r="H71" t="n">
+        <v>29</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
         <v>28</v>
       </c>
-      <c r="I71" t="n">
-        <v>3</v>
-      </c>
-      <c r="J71" t="n">
-        <v>25</v>
-      </c>
       <c r="K71" t="n">
-        <v>24054</v>
+        <v>24053</v>
       </c>
       <c r="L71" t="n">
-        <v>1437</v>
+        <v>1442</v>
       </c>
       <c r="M71" t="n">
-        <v>156850</v>
+        <v>157096</v>
       </c>
     </row>
     <row r="72">
@@ -3450,10 +3450,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1231</v>
+        <v>1235</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>1230</v>
@@ -3468,22 +3468,22 @@
         <v>464</v>
       </c>
       <c r="H72" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
         <v>27</v>
       </c>
       <c r="K72" t="n">
-        <v>24518</v>
+        <v>24517</v>
       </c>
       <c r="L72" t="n">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="M72" t="n">
-        <v>158081</v>
+        <v>158331</v>
       </c>
     </row>
     <row r="73">
@@ -3493,13 +3493,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6522</v>
+        <v>6591</v>
       </c>
       <c r="C73" t="n">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D73" t="n">
-        <v>6403</v>
+        <v>6520</v>
       </c>
       <c r="E73" t="n">
         <v>520</v>
@@ -3520,13 +3520,13 @@
         <v>37</v>
       </c>
       <c r="K73" t="n">
-        <v>25038</v>
+        <v>25037</v>
       </c>
       <c r="L73" t="n">
-        <v>1501</v>
+        <v>1507</v>
       </c>
       <c r="M73" t="n">
-        <v>164603</v>
+        <v>164922</v>
       </c>
     </row>
     <row r="74">
@@ -3536,19 +3536,19 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>5773</v>
+        <v>5907</v>
       </c>
       <c r="C74" t="n">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="D74" t="n">
-        <v>5617</v>
+        <v>5777</v>
       </c>
       <c r="E74" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
         <v>376</v>
@@ -3566,10 +3566,10 @@
         <v>25414</v>
       </c>
       <c r="L74" t="n">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="M74" t="n">
-        <v>170376</v>
+        <v>170829</v>
       </c>
     </row>
     <row r="75">
@@ -3579,40 +3579,40 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>5827</v>
+        <v>6243</v>
       </c>
       <c r="C75" t="n">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="D75" t="n">
-        <v>5454</v>
+        <v>5831</v>
       </c>
       <c r="E75" t="n">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H75" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
         <v>21</v>
       </c>
       <c r="K75" t="n">
-        <v>26021</v>
+        <v>26020</v>
       </c>
       <c r="L75" t="n">
-        <v>1557</v>
+        <v>1564</v>
       </c>
       <c r="M75" t="n">
-        <v>176203</v>
+        <v>177072</v>
       </c>
     </row>
     <row r="76">
@@ -3622,40 +3622,40 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>5477</v>
+        <v>6706</v>
       </c>
       <c r="C76" t="n">
-        <v>637</v>
+        <v>1238</v>
       </c>
       <c r="D76" t="n">
-        <v>4840</v>
+        <v>5468</v>
       </c>
       <c r="E76" t="n">
         <v>589</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H76" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K76" t="n">
-        <v>26610</v>
+        <v>26609</v>
       </c>
       <c r="L76" t="n">
-        <v>1596</v>
+        <v>1604</v>
       </c>
       <c r="M76" t="n">
-        <v>181680</v>
+        <v>183778</v>
       </c>
     </row>
     <row r="77">
@@ -3665,19 +3665,19 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>5762</v>
+        <v>7210</v>
       </c>
       <c r="C77" t="n">
-        <v>2177</v>
+        <v>1455</v>
       </c>
       <c r="D77" t="n">
-        <v>3585</v>
+        <v>5755</v>
       </c>
       <c r="E77" t="n">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>642</v>
@@ -3686,19 +3686,19 @@
         <v>24</v>
       </c>
       <c r="I77" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K77" t="n">
-        <v>27253</v>
+        <v>27251</v>
       </c>
       <c r="L77" t="n">
-        <v>1620</v>
+        <v>1628</v>
       </c>
       <c r="M77" t="n">
-        <v>187442</v>
+        <v>190988</v>
       </c>
     </row>
     <row r="78">
@@ -3708,13 +3708,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1409</v>
+        <v>2562</v>
       </c>
       <c r="C78" t="n">
-        <v>983</v>
+        <v>1163</v>
       </c>
       <c r="D78" t="n">
-        <v>426</v>
+        <v>1399</v>
       </c>
       <c r="E78" t="n">
         <v>496</v>
@@ -3729,19 +3729,19 @@
         <v>22</v>
       </c>
       <c r="I78" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K78" t="n">
-        <v>27749</v>
+        <v>27747</v>
       </c>
       <c r="L78" t="n">
-        <v>1642</v>
+        <v>1650</v>
       </c>
       <c r="M78" t="n">
-        <v>188851</v>
+        <v>193550</v>
       </c>
     </row>
     <row r="79">
@@ -3751,40 +3751,40 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>327</v>
+        <v>1205</v>
       </c>
       <c r="C79" t="n">
-        <v>240</v>
+        <v>884</v>
       </c>
       <c r="D79" t="n">
-        <v>87</v>
+        <v>321</v>
       </c>
       <c r="E79" t="n">
         <v>485</v>
       </c>
       <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>485</v>
+      </c>
+      <c r="H79" t="n">
+        <v>23</v>
+      </c>
+      <c r="I79" t="n">
         <v>2</v>
       </c>
-      <c r="G79" t="n">
-        <v>483</v>
-      </c>
-      <c r="H79" t="n">
+      <c r="J79" t="n">
         <v>21</v>
       </c>
-      <c r="I79" t="n">
-        <v>14</v>
-      </c>
-      <c r="J79" t="n">
-        <v>7</v>
-      </c>
       <c r="K79" t="n">
-        <v>28234</v>
+        <v>28232</v>
       </c>
       <c r="L79" t="n">
-        <v>1663</v>
+        <v>1673</v>
       </c>
       <c r="M79" t="n">
-        <v>189178</v>
+        <v>194755</v>
       </c>
     </row>
     <row r="80">
@@ -3794,40 +3794,83 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>152</v>
+        <v>781</v>
       </c>
       <c r="C80" t="n">
-        <v>152</v>
+        <v>635</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="E80" t="n">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F80" t="n">
-        <v>471</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="H80" t="n">
+        <v>27</v>
+      </c>
+      <c r="I80" t="n">
+        <v>12</v>
+      </c>
+      <c r="J80" t="n">
         <v>15</v>
       </c>
-      <c r="I80" t="n">
-        <v>15</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
       <c r="K80" t="n">
-        <v>28705</v>
+        <v>28696</v>
       </c>
       <c r="L80" t="n">
-        <v>1678</v>
+        <v>1700</v>
       </c>
       <c r="M80" t="n">
-        <v>189330</v>
+        <v>195536</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2020-05-19</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>202</v>
+      </c>
+      <c r="C81" t="n">
+        <v>202</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>578</v>
+      </c>
+      <c r="F81" t="n">
+        <v>578</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>16</v>
+      </c>
+      <c r="I81" t="n">
+        <v>16</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>29274</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1716</v>
+      </c>
+      <c r="M81" t="n">
+        <v>195738</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>866</v>
@@ -1204,7 +1204,7 @@
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>3285</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="20">
@@ -1247,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>4366</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="21">
@@ -1290,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>6096</v>
+        <v>6099</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1333,7 @@
         <v>14</v>
       </c>
       <c r="M22" t="n">
-        <v>6793</v>
+        <v>6796</v>
       </c>
     </row>
     <row r="23">
@@ -1376,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="M23" t="n">
-        <v>7814</v>
+        <v>7817</v>
       </c>
     </row>
     <row r="24">
@@ -1419,7 +1419,7 @@
         <v>24</v>
       </c>
       <c r="M24" t="n">
-        <v>9265</v>
+        <v>9268</v>
       </c>
     </row>
     <row r="25">
@@ -1462,7 +1462,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="n">
-        <v>10867</v>
+        <v>10870</v>
       </c>
     </row>
     <row r="26">
@@ -1505,7 +1505,7 @@
         <v>35</v>
       </c>
       <c r="M26" t="n">
-        <v>13179</v>
+        <v>13182</v>
       </c>
     </row>
     <row r="27">
@@ -1548,7 +1548,7 @@
         <v>44</v>
       </c>
       <c r="M27" t="n">
-        <v>15782</v>
+        <v>15785</v>
       </c>
     </row>
     <row r="28">
@@ -1591,7 +1591,7 @@
         <v>47</v>
       </c>
       <c r="M28" t="n">
-        <v>17941</v>
+        <v>17944</v>
       </c>
     </row>
     <row r="29">
@@ -1634,7 +1634,7 @@
         <v>58</v>
       </c>
       <c r="M29" t="n">
-        <v>19211</v>
+        <v>19214</v>
       </c>
     </row>
     <row r="30">
@@ -1677,7 +1677,7 @@
         <v>76</v>
       </c>
       <c r="M30" t="n">
-        <v>20843</v>
+        <v>20846</v>
       </c>
     </row>
     <row r="31">
@@ -1720,7 +1720,7 @@
         <v>91</v>
       </c>
       <c r="M31" t="n">
-        <v>22801</v>
+        <v>22804</v>
       </c>
     </row>
     <row r="32">
@@ -1763,7 +1763,7 @@
         <v>113</v>
       </c>
       <c r="M32" t="n">
-        <v>25114</v>
+        <v>25117</v>
       </c>
     </row>
     <row r="33">
@@ -1806,7 +1806,7 @@
         <v>135</v>
       </c>
       <c r="M33" t="n">
-        <v>27647</v>
+        <v>27650</v>
       </c>
     </row>
     <row r="34">
@@ -1849,7 +1849,7 @@
         <v>157</v>
       </c>
       <c r="M34" t="n">
-        <v>30335</v>
+        <v>30338</v>
       </c>
     </row>
     <row r="35">
@@ -1859,10 +1859,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2789</v>
+        <v>2791</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>2789</v>
@@ -1892,7 +1892,7 @@
         <v>189</v>
       </c>
       <c r="M35" t="n">
-        <v>33124</v>
+        <v>33129</v>
       </c>
     </row>
     <row r="36">
@@ -1935,7 +1935,7 @@
         <v>214</v>
       </c>
       <c r="M36" t="n">
-        <v>34760</v>
+        <v>34765</v>
       </c>
     </row>
     <row r="37">
@@ -1978,7 +1978,7 @@
         <v>248</v>
       </c>
       <c r="M37" t="n">
-        <v>35855</v>
+        <v>35860</v>
       </c>
     </row>
     <row r="38">
@@ -2021,7 +2021,7 @@
         <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>38272</v>
+        <v>38277</v>
       </c>
     </row>
     <row r="39">
@@ -2064,7 +2064,7 @@
         <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>41041</v>
+        <v>41046</v>
       </c>
     </row>
     <row r="40">
@@ -2107,7 +2107,7 @@
         <v>337</v>
       </c>
       <c r="M40" t="n">
-        <v>44112</v>
+        <v>44117</v>
       </c>
     </row>
     <row r="41">
@@ -2117,10 +2117,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>2739</v>
@@ -2150,7 +2150,7 @@
         <v>372</v>
       </c>
       <c r="M41" t="n">
-        <v>46851</v>
+        <v>46857</v>
       </c>
     </row>
     <row r="42">
@@ -2163,10 +2163,10 @@
         <v>2716</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="E42" t="n">
         <v>515</v>
@@ -2193,7 +2193,7 @@
         <v>397</v>
       </c>
       <c r="M42" t="n">
-        <v>49567</v>
+        <v>49573</v>
       </c>
     </row>
     <row r="43">
@@ -2236,7 +2236,7 @@
         <v>417</v>
       </c>
       <c r="M43" t="n">
-        <v>51094</v>
+        <v>51100</v>
       </c>
     </row>
     <row r="44">
@@ -2279,7 +2279,7 @@
         <v>446</v>
       </c>
       <c r="M44" t="n">
-        <v>51792</v>
+        <v>51798</v>
       </c>
     </row>
     <row r="45">
@@ -2322,7 +2322,7 @@
         <v>480</v>
       </c>
       <c r="M45" t="n">
-        <v>55249</v>
+        <v>55255</v>
       </c>
     </row>
     <row r="46">
@@ -2332,13 +2332,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3593</v>
+        <v>3594</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>3593</v>
+        <v>3592</v>
       </c>
       <c r="E46" t="n">
         <v>417</v>
@@ -2365,7 +2365,7 @@
         <v>525</v>
       </c>
       <c r="M46" t="n">
-        <v>58842</v>
+        <v>58849</v>
       </c>
     </row>
     <row r="47">
@@ -2375,13 +2375,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>3262</v>
+        <v>3264</v>
       </c>
       <c r="E47" t="n">
         <v>580</v>
@@ -2408,7 +2408,7 @@
         <v>562</v>
       </c>
       <c r="M47" t="n">
-        <v>62105</v>
+        <v>62113</v>
       </c>
     </row>
     <row r="48">
@@ -2451,7 +2451,7 @@
         <v>596</v>
       </c>
       <c r="M48" t="n">
-        <v>66012</v>
+        <v>66020</v>
       </c>
     </row>
     <row r="49">
@@ -2461,10 +2461,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4023</v>
+        <v>4024</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
         <v>4023</v>
@@ -2494,7 +2494,7 @@
         <v>632</v>
       </c>
       <c r="M49" t="n">
-        <v>70035</v>
+        <v>70044</v>
       </c>
     </row>
     <row r="50">
@@ -2537,7 +2537,7 @@
         <v>660</v>
       </c>
       <c r="M50" t="n">
-        <v>71739</v>
+        <v>71748</v>
       </c>
     </row>
     <row r="51">
@@ -2580,7 +2580,7 @@
         <v>696</v>
       </c>
       <c r="M51" t="n">
-        <v>72839</v>
+        <v>72848</v>
       </c>
     </row>
     <row r="52">
@@ -2599,13 +2599,13 @@
         <v>4286</v>
       </c>
       <c r="E52" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H52" t="n">
         <v>38</v>
@@ -2617,13 +2617,13 @@
         <v>38</v>
       </c>
       <c r="K52" t="n">
-        <v>12019</v>
+        <v>12020</v>
       </c>
       <c r="L52" t="n">
         <v>734</v>
       </c>
       <c r="M52" t="n">
-        <v>77125</v>
+        <v>77134</v>
       </c>
     </row>
     <row r="53">
@@ -2660,13 +2660,13 @@
         <v>48</v>
       </c>
       <c r="K53" t="n">
-        <v>12398</v>
+        <v>12399</v>
       </c>
       <c r="L53" t="n">
         <v>782</v>
       </c>
       <c r="M53" t="n">
-        <v>80951</v>
+        <v>80960</v>
       </c>
     </row>
     <row r="54">
@@ -2679,10 +2679,10 @@
         <v>3716</v>
       </c>
       <c r="C54" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>3710</v>
+        <v>3716</v>
       </c>
       <c r="E54" t="n">
         <v>605</v>
@@ -2703,13 +2703,13 @@
         <v>50</v>
       </c>
       <c r="K54" t="n">
-        <v>13003</v>
+        <v>13004</v>
       </c>
       <c r="L54" t="n">
         <v>832</v>
       </c>
       <c r="M54" t="n">
-        <v>84667</v>
+        <v>84676</v>
       </c>
     </row>
     <row r="55">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="B55" t="n">
+        <v>4308</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4</v>
+      </c>
+      <c r="D55" t="n">
         <v>4304</v>
-      </c>
-      <c r="C55" t="n">
-        <v>33</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4271</v>
       </c>
       <c r="E55" t="n">
         <v>644</v>
@@ -2746,13 +2746,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="n">
-        <v>13647</v>
+        <v>13648</v>
       </c>
       <c r="L55" t="n">
         <v>870</v>
       </c>
       <c r="M55" t="n">
-        <v>88971</v>
+        <v>88984</v>
       </c>
     </row>
     <row r="56">
@@ -2765,19 +2765,19 @@
         <v>3500</v>
       </c>
       <c r="C56" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>3492</v>
+        <v>3500</v>
       </c>
       <c r="E56" t="n">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H56" t="n">
         <v>36</v>
@@ -2795,7 +2795,7 @@
         <v>906</v>
       </c>
       <c r="M56" t="n">
-        <v>92471</v>
+        <v>92484</v>
       </c>
     </row>
     <row r="57">
@@ -2808,10 +2808,10 @@
         <v>2218</v>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="E57" t="n">
         <v>624</v>
@@ -2838,7 +2838,7 @@
         <v>947</v>
       </c>
       <c r="M57" t="n">
-        <v>94689</v>
+        <v>94702</v>
       </c>
     </row>
     <row r="58">
@@ -2881,7 +2881,7 @@
         <v>981</v>
       </c>
       <c r="M58" t="n">
-        <v>96473</v>
+        <v>96486</v>
       </c>
     </row>
     <row r="59">
@@ -2891,13 +2891,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4365</v>
+        <v>4405</v>
       </c>
       <c r="C59" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D59" t="n">
-        <v>4340</v>
+        <v>4369</v>
       </c>
       <c r="E59" t="n">
         <v>621</v>
@@ -2924,7 +2924,7 @@
         <v>1022</v>
       </c>
       <c r="M59" t="n">
-        <v>100838</v>
+        <v>100891</v>
       </c>
     </row>
     <row r="60">
@@ -2934,13 +2934,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4754</v>
+        <v>4822</v>
       </c>
       <c r="C60" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D60" t="n">
-        <v>4692</v>
+        <v>4758</v>
       </c>
       <c r="E60" t="n">
         <v>595</v>
@@ -2967,7 +2967,7 @@
         <v>1056</v>
       </c>
       <c r="M60" t="n">
-        <v>105592</v>
+        <v>105713</v>
       </c>
     </row>
     <row r="61">
@@ -2977,13 +2977,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4741</v>
+        <v>4836</v>
       </c>
       <c r="C61" t="n">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="D61" t="n">
-        <v>4716</v>
+        <v>4742</v>
       </c>
       <c r="E61" t="n">
         <v>654</v>
@@ -3010,7 +3010,7 @@
         <v>1096</v>
       </c>
       <c r="M61" t="n">
-        <v>110333</v>
+        <v>110549</v>
       </c>
     </row>
     <row r="62">
@@ -3020,10 +3020,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4738</v>
+        <v>4814</v>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="D62" t="n">
         <v>4736</v>
@@ -3053,7 +3053,7 @@
         <v>1141</v>
       </c>
       <c r="M62" t="n">
-        <v>115071</v>
+        <v>115363</v>
       </c>
     </row>
     <row r="63">
@@ -3063,22 +3063,22 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5768</v>
+        <v>5769</v>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>5764</v>
+        <v>5767</v>
       </c>
       <c r="E63" t="n">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H63" t="n">
         <v>33</v>
@@ -3090,13 +3090,13 @@
         <v>33</v>
       </c>
       <c r="K63" t="n">
-        <v>19239</v>
+        <v>19238</v>
       </c>
       <c r="L63" t="n">
         <v>1174</v>
       </c>
       <c r="M63" t="n">
-        <v>120839</v>
+        <v>121132</v>
       </c>
     </row>
     <row r="64">
@@ -3106,28 +3106,28 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
         <v>2849</v>
       </c>
       <c r="E64" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
         <v>635</v>
       </c>
       <c r="H64" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
         <v>40</v>
@@ -3136,10 +3136,10 @@
         <v>19874</v>
       </c>
       <c r="L64" t="n">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="M64" t="n">
-        <v>123688</v>
+        <v>123982</v>
       </c>
     </row>
     <row r="65">
@@ -3149,13 +3149,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E65" t="n">
         <v>570</v>
@@ -3167,22 +3167,22 @@
         <v>570</v>
       </c>
       <c r="H65" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K65" t="n">
         <v>20444</v>
       </c>
       <c r="L65" t="n">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="M65" t="n">
-        <v>125345</v>
+        <v>125640</v>
       </c>
     </row>
     <row r="66">
@@ -3192,13 +3192,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5276</v>
+        <v>5278</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>5275</v>
+        <v>5274</v>
       </c>
       <c r="E66" t="n">
         <v>525</v>
@@ -3210,10 +3210,10 @@
         <v>525</v>
       </c>
       <c r="H66" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
         <v>35</v>
@@ -3222,10 +3222,10 @@
         <v>20969</v>
       </c>
       <c r="L66" t="n">
-        <v>1280</v>
+        <v>1284</v>
       </c>
       <c r="M66" t="n">
-        <v>130621</v>
+        <v>130918</v>
       </c>
     </row>
     <row r="67">
@@ -3235,13 +3235,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5869</v>
+        <v>5876</v>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D67" t="n">
-        <v>5866</v>
+        <v>5867</v>
       </c>
       <c r="E67" t="n">
         <v>838</v>
@@ -3253,10 +3253,10 @@
         <v>838</v>
       </c>
       <c r="H67" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
         <v>36</v>
@@ -3265,10 +3265,10 @@
         <v>21807</v>
       </c>
       <c r="L67" t="n">
-        <v>1316</v>
+        <v>1321</v>
       </c>
       <c r="M67" t="n">
-        <v>136490</v>
+        <v>136794</v>
       </c>
     </row>
     <row r="68">
@@ -3281,10 +3281,10 @@
         <v>5584</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>5583</v>
+        <v>5582</v>
       </c>
       <c r="E68" t="n">
         <v>624</v>
@@ -3296,22 +3296,22 @@
         <v>624</v>
       </c>
       <c r="H68" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K68" t="n">
         <v>22431</v>
       </c>
       <c r="L68" t="n">
-        <v>1357</v>
+        <v>1363</v>
       </c>
       <c r="M68" t="n">
-        <v>142074</v>
+        <v>142378</v>
       </c>
     </row>
     <row r="69">
@@ -3321,13 +3321,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>5866</v>
+        <v>5875</v>
       </c>
       <c r="C69" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D69" t="n">
-        <v>5831</v>
+        <v>5862</v>
       </c>
       <c r="E69" t="n">
         <v>642</v>
@@ -3351,10 +3351,10 @@
         <v>23073</v>
       </c>
       <c r="L69" t="n">
-        <v>1391</v>
+        <v>1397</v>
       </c>
       <c r="M69" t="n">
-        <v>147940</v>
+        <v>148253</v>
       </c>
     </row>
     <row r="70">
@@ -3364,40 +3364,40 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6017</v>
+        <v>6034</v>
       </c>
       <c r="C70" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D70" t="n">
-        <v>5988</v>
+        <v>6016</v>
       </c>
       <c r="E70" t="n">
         <v>592</v>
       </c>
       <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>592</v>
+      </c>
+      <c r="H70" t="n">
+        <v>23</v>
+      </c>
+      <c r="I70" t="n">
         <v>1</v>
       </c>
-      <c r="G70" t="n">
-        <v>591</v>
-      </c>
-      <c r="H70" t="n">
+      <c r="J70" t="n">
         <v>22</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2</v>
-      </c>
-      <c r="J70" t="n">
-        <v>20</v>
       </c>
       <c r="K70" t="n">
         <v>23665</v>
       </c>
       <c r="L70" t="n">
-        <v>1413</v>
+        <v>1420</v>
       </c>
       <c r="M70" t="n">
-        <v>153957</v>
+        <v>154287</v>
       </c>
     </row>
     <row r="71">
@@ -3407,13 +3407,13 @@
         </is>
       </c>
       <c r="B71" t="n">
+        <v>3155</v>
+      </c>
+      <c r="C71" t="n">
+        <v>16</v>
+      </c>
+      <c r="D71" t="n">
         <v>3139</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10</v>
-      </c>
-      <c r="D71" t="n">
-        <v>3129</v>
       </c>
       <c r="E71" t="n">
         <v>388</v>
@@ -3425,22 +3425,22 @@
         <v>388</v>
       </c>
       <c r="H71" t="n">
+        <v>32</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3</v>
+      </c>
+      <c r="J71" t="n">
         <v>29</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>28</v>
       </c>
       <c r="K71" t="n">
         <v>24053</v>
       </c>
       <c r="L71" t="n">
-        <v>1442</v>
+        <v>1452</v>
       </c>
       <c r="M71" t="n">
-        <v>157096</v>
+        <v>157442</v>
       </c>
     </row>
     <row r="72">
@@ -3450,13 +3450,13 @@
         </is>
       </c>
       <c r="B72" t="n">
+        <v>1253</v>
+      </c>
+      <c r="C72" t="n">
+        <v>18</v>
+      </c>
+      <c r="D72" t="n">
         <v>1235</v>
-      </c>
-      <c r="C72" t="n">
-        <v>5</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1230</v>
       </c>
       <c r="E72" t="n">
         <v>464</v>
@@ -3468,22 +3468,22 @@
         <v>464</v>
       </c>
       <c r="H72" t="n">
+        <v>32</v>
+      </c>
+      <c r="I72" t="n">
+        <v>4</v>
+      </c>
+      <c r="J72" t="n">
         <v>28</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>27</v>
       </c>
       <c r="K72" t="n">
         <v>24517</v>
       </c>
       <c r="L72" t="n">
-        <v>1470</v>
+        <v>1484</v>
       </c>
       <c r="M72" t="n">
-        <v>158331</v>
+        <v>158695</v>
       </c>
     </row>
     <row r="73">
@@ -3493,40 +3493,40 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6591</v>
+        <v>6615</v>
       </c>
       <c r="C73" t="n">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="D73" t="n">
-        <v>6520</v>
+        <v>6590</v>
       </c>
       <c r="E73" t="n">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H73" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
         <v>37</v>
       </c>
       <c r="K73" t="n">
-        <v>25037</v>
+        <v>25036</v>
       </c>
       <c r="L73" t="n">
-        <v>1507</v>
+        <v>1522</v>
       </c>
       <c r="M73" t="n">
-        <v>164922</v>
+        <v>165310</v>
       </c>
     </row>
     <row r="74">
@@ -3536,40 +3536,40 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>5907</v>
+        <v>5996</v>
       </c>
       <c r="C74" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D74" t="n">
-        <v>5777</v>
+        <v>5906</v>
       </c>
       <c r="E74" t="n">
         <v>377</v>
       </c>
       <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>377</v>
+      </c>
+      <c r="H74" t="n">
+        <v>36</v>
+      </c>
+      <c r="I74" t="n">
         <v>1</v>
-      </c>
-      <c r="G74" t="n">
-        <v>376</v>
-      </c>
-      <c r="H74" t="n">
-        <v>35</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
       </c>
       <c r="J74" t="n">
         <v>35</v>
       </c>
       <c r="K74" t="n">
-        <v>25414</v>
+        <v>25413</v>
       </c>
       <c r="L74" t="n">
-        <v>1542</v>
+        <v>1558</v>
       </c>
       <c r="M74" t="n">
-        <v>170829</v>
+        <v>171306</v>
       </c>
     </row>
     <row r="75">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>6243</v>
+        <v>6342</v>
       </c>
       <c r="C75" t="n">
-        <v>412</v>
+        <v>100</v>
       </c>
       <c r="D75" t="n">
-        <v>5831</v>
+        <v>6242</v>
       </c>
       <c r="E75" t="n">
         <v>606</v>
@@ -3597,22 +3597,22 @@
         <v>606</v>
       </c>
       <c r="H75" t="n">
+        <v>25</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3</v>
+      </c>
+      <c r="J75" t="n">
         <v>22</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>21</v>
-      </c>
       <c r="K75" t="n">
-        <v>26020</v>
+        <v>26019</v>
       </c>
       <c r="L75" t="n">
-        <v>1564</v>
+        <v>1583</v>
       </c>
       <c r="M75" t="n">
-        <v>177072</v>
+        <v>177648</v>
       </c>
     </row>
     <row r="76">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>6706</v>
+        <v>7162</v>
       </c>
       <c r="C76" t="n">
-        <v>1238</v>
+        <v>457</v>
       </c>
       <c r="D76" t="n">
-        <v>5468</v>
+        <v>6705</v>
       </c>
       <c r="E76" t="n">
         <v>589</v>
@@ -3640,22 +3640,22 @@
         <v>589</v>
       </c>
       <c r="H76" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K76" t="n">
-        <v>26609</v>
+        <v>26608</v>
       </c>
       <c r="L76" t="n">
-        <v>1604</v>
+        <v>1624</v>
       </c>
       <c r="M76" t="n">
-        <v>183778</v>
+        <v>184810</v>
       </c>
     </row>
     <row r="77">
@@ -3665,13 +3665,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>7210</v>
+        <v>8303</v>
       </c>
       <c r="C77" t="n">
-        <v>1455</v>
+        <v>1105</v>
       </c>
       <c r="D77" t="n">
-        <v>5755</v>
+        <v>7198</v>
       </c>
       <c r="E77" t="n">
         <v>642</v>
@@ -3683,22 +3683,22 @@
         <v>642</v>
       </c>
       <c r="H77" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J77" t="n">
         <v>24</v>
       </c>
       <c r="K77" t="n">
-        <v>27251</v>
+        <v>27250</v>
       </c>
       <c r="L77" t="n">
-        <v>1628</v>
+        <v>1654</v>
       </c>
       <c r="M77" t="n">
-        <v>190988</v>
+        <v>193113</v>
       </c>
     </row>
     <row r="78">
@@ -3708,13 +3708,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2562</v>
+        <v>2776</v>
       </c>
       <c r="C78" t="n">
-        <v>1163</v>
+        <v>216</v>
       </c>
       <c r="D78" t="n">
-        <v>1399</v>
+        <v>2560</v>
       </c>
       <c r="E78" t="n">
         <v>496</v>
@@ -3726,22 +3726,22 @@
         <v>496</v>
       </c>
       <c r="H78" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" t="n">
         <v>22</v>
       </c>
       <c r="K78" t="n">
-        <v>27747</v>
+        <v>27746</v>
       </c>
       <c r="L78" t="n">
-        <v>1650</v>
+        <v>1678</v>
       </c>
       <c r="M78" t="n">
-        <v>193550</v>
+        <v>195889</v>
       </c>
     </row>
     <row r="79">
@@ -3751,13 +3751,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1205</v>
+        <v>1727</v>
       </c>
       <c r="C79" t="n">
-        <v>884</v>
+        <v>529</v>
       </c>
       <c r="D79" t="n">
-        <v>321</v>
+        <v>1198</v>
       </c>
       <c r="E79" t="n">
         <v>485</v>
@@ -3772,19 +3772,19 @@
         <v>23</v>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K79" t="n">
-        <v>28232</v>
+        <v>28231</v>
       </c>
       <c r="L79" t="n">
-        <v>1673</v>
+        <v>1701</v>
       </c>
       <c r="M79" t="n">
-        <v>194755</v>
+        <v>197616</v>
       </c>
     </row>
     <row r="80">
@@ -3794,40 +3794,40 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>781</v>
+        <v>4470</v>
       </c>
       <c r="C80" t="n">
-        <v>635</v>
+        <v>3687</v>
       </c>
       <c r="D80" t="n">
-        <v>146</v>
+        <v>783</v>
       </c>
       <c r="E80" t="n">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
         <v>463</v>
       </c>
       <c r="H80" t="n">
+        <v>31</v>
+      </c>
+      <c r="I80" t="n">
+        <v>4</v>
+      </c>
+      <c r="J80" t="n">
         <v>27</v>
       </c>
-      <c r="I80" t="n">
-        <v>12</v>
-      </c>
-      <c r="J80" t="n">
-        <v>15</v>
-      </c>
       <c r="K80" t="n">
-        <v>28696</v>
+        <v>28694</v>
       </c>
       <c r="L80" t="n">
-        <v>1700</v>
+        <v>1732</v>
       </c>
       <c r="M80" t="n">
-        <v>195536</v>
+        <v>202086</v>
       </c>
     </row>
     <row r="81">
@@ -3837,40 +3837,83 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>202</v>
+        <v>785</v>
       </c>
       <c r="C81" t="n">
-        <v>202</v>
+        <v>614</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="E81" t="n">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="F81" t="n">
-        <v>578</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="H81" t="n">
+        <v>25</v>
+      </c>
+      <c r="I81" t="n">
+        <v>9</v>
+      </c>
+      <c r="J81" t="n">
         <v>16</v>
       </c>
-      <c r="I81" t="n">
-        <v>16</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
       <c r="K81" t="n">
-        <v>29274</v>
+        <v>29264</v>
       </c>
       <c r="L81" t="n">
-        <v>1716</v>
+        <v>1757</v>
       </c>
       <c r="M81" t="n">
-        <v>195738</v>
+        <v>202871</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2020-05-20</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>124</v>
+      </c>
+      <c r="C82" t="n">
+        <v>124</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>672</v>
+      </c>
+      <c r="F82" t="n">
+        <v>672</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+      <c r="I82" t="n">
+        <v>7</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>29936</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1764</v>
+      </c>
+      <c r="M82" t="n">
+        <v>202995</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -956,13 +956,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="15">
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="16">
@@ -1075,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="17">
@@ -1085,13 +1085,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1118,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>1678</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="18">
@@ -1128,10 +1128,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>742</v>
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>2420</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="19">
@@ -1171,13 +1171,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="E19" t="n">
         <v>17</v>
@@ -1204,7 +1204,7 @@
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>3286</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="20">
@@ -1247,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>4367</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="21">
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1730</v>
+        <v>1736</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1730</v>
+        <v>1736</v>
       </c>
       <c r="E21" t="n">
         <v>45</v>
@@ -1290,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>6097</v>
+        <v>6108</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1333,7 @@
         <v>14</v>
       </c>
       <c r="M22" t="n">
-        <v>6794</v>
+        <v>6805</v>
       </c>
     </row>
     <row r="23">
@@ -1376,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="M23" t="n">
-        <v>7815</v>
+        <v>7826</v>
       </c>
     </row>
     <row r="24">
@@ -1386,13 +1386,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="E24" t="n">
         <v>105</v>
@@ -1419,7 +1419,7 @@
         <v>24</v>
       </c>
       <c r="M24" t="n">
-        <v>9266</v>
+        <v>9278</v>
       </c>
     </row>
     <row r="25">
@@ -1429,13 +1429,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="E25" t="n">
         <v>113</v>
@@ -1462,7 +1462,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="n">
-        <v>10868</v>
+        <v>10882</v>
       </c>
     </row>
     <row r="26">
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2312</v>
+        <v>2319</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2312</v>
+        <v>2319</v>
       </c>
       <c r="E26" t="n">
         <v>162</v>
@@ -1505,7 +1505,7 @@
         <v>35</v>
       </c>
       <c r="M26" t="n">
-        <v>13180</v>
+        <v>13201</v>
       </c>
     </row>
     <row r="27">
@@ -1515,13 +1515,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2603</v>
+        <v>2607</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2603</v>
+        <v>2607</v>
       </c>
       <c r="E27" t="n">
         <v>303</v>
@@ -1548,7 +1548,7 @@
         <v>44</v>
       </c>
       <c r="M27" t="n">
-        <v>15783</v>
+        <v>15808</v>
       </c>
     </row>
     <row r="28">
@@ -1558,13 +1558,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c r="E28" t="n">
         <v>282</v>
@@ -1591,7 +1591,7 @@
         <v>47</v>
       </c>
       <c r="M28" t="n">
-        <v>17942</v>
+        <v>17969</v>
       </c>
     </row>
     <row r="29">
@@ -1634,7 +1634,7 @@
         <v>58</v>
       </c>
       <c r="M29" t="n">
-        <v>19212</v>
+        <v>19239</v>
       </c>
     </row>
     <row r="30">
@@ -1677,7 +1677,7 @@
         <v>76</v>
       </c>
       <c r="M30" t="n">
-        <v>20844</v>
+        <v>20871</v>
       </c>
     </row>
     <row r="31">
@@ -1687,13 +1687,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="E31" t="n">
         <v>373</v>
@@ -1720,7 +1720,7 @@
         <v>91</v>
       </c>
       <c r="M31" t="n">
-        <v>22802</v>
+        <v>22831</v>
       </c>
     </row>
     <row r="32">
@@ -1730,13 +1730,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2313</v>
+        <v>2316</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2313</v>
+        <v>2316</v>
       </c>
       <c r="E32" t="n">
         <v>406</v>
@@ -1763,7 +1763,7 @@
         <v>113</v>
       </c>
       <c r="M32" t="n">
-        <v>25115</v>
+        <v>25147</v>
       </c>
     </row>
     <row r="33">
@@ -1773,13 +1773,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2533</v>
+        <v>2537</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2533</v>
+        <v>2537</v>
       </c>
       <c r="E33" t="n">
         <v>469</v>
@@ -1806,7 +1806,7 @@
         <v>135</v>
       </c>
       <c r="M33" t="n">
-        <v>27648</v>
+        <v>27684</v>
       </c>
     </row>
     <row r="34">
@@ -1816,13 +1816,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2688</v>
+        <v>2695</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2688</v>
+        <v>2695</v>
       </c>
       <c r="E34" t="n">
         <v>396</v>
@@ -1849,7 +1849,7 @@
         <v>157</v>
       </c>
       <c r="M34" t="n">
-        <v>30336</v>
+        <v>30379</v>
       </c>
     </row>
     <row r="35">
@@ -1859,13 +1859,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2789</v>
+        <v>2798</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2789</v>
+        <v>2798</v>
       </c>
       <c r="E35" t="n">
         <v>513</v>
@@ -1892,7 +1892,7 @@
         <v>189</v>
       </c>
       <c r="M35" t="n">
-        <v>33125</v>
+        <v>33177</v>
       </c>
     </row>
     <row r="36">
@@ -1935,7 +1935,7 @@
         <v>214</v>
       </c>
       <c r="M36" t="n">
-        <v>34761</v>
+        <v>34813</v>
       </c>
     </row>
     <row r="37">
@@ -1978,7 +1978,7 @@
         <v>248</v>
       </c>
       <c r="M37" t="n">
-        <v>35856</v>
+        <v>35908</v>
       </c>
     </row>
     <row r="38">
@@ -1988,13 +1988,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2416</v>
+        <v>2418</v>
       </c>
       <c r="E38" t="n">
         <v>557</v>
@@ -2021,7 +2021,7 @@
         <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>38273</v>
+        <v>38326</v>
       </c>
     </row>
     <row r="39">
@@ -2031,13 +2031,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2769</v>
+        <v>2774</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>2769</v>
+        <v>2774</v>
       </c>
       <c r="E39" t="n">
         <v>422</v>
@@ -2064,7 +2064,7 @@
         <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>41042</v>
+        <v>41100</v>
       </c>
     </row>
     <row r="40">
@@ -2074,13 +2074,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>3070</v>
+        <v>3072</v>
       </c>
       <c r="E40" t="n">
         <v>422</v>
@@ -2107,7 +2107,7 @@
         <v>337</v>
       </c>
       <c r="M40" t="n">
-        <v>44113</v>
+        <v>44172</v>
       </c>
     </row>
     <row r="41">
@@ -2117,13 +2117,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2739</v>
+        <v>2746</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>2739</v>
+        <v>2746</v>
       </c>
       <c r="E41" t="n">
         <v>558</v>
@@ -2150,7 +2150,7 @@
         <v>372</v>
       </c>
       <c r="M41" t="n">
-        <v>46852</v>
+        <v>46918</v>
       </c>
     </row>
     <row r="42">
@@ -2160,13 +2160,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2716</v>
+        <v>2719</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>2715</v>
+        <v>2719</v>
       </c>
       <c r="E42" t="n">
         <v>515</v>
@@ -2193,7 +2193,7 @@
         <v>397</v>
       </c>
       <c r="M42" t="n">
-        <v>49568</v>
+        <v>49637</v>
       </c>
     </row>
     <row r="43">
@@ -2215,10 +2215,10 @@
         <v>486</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H43" t="n">
         <v>20</v>
@@ -2236,7 +2236,7 @@
         <v>417</v>
       </c>
       <c r="M43" t="n">
-        <v>51095</v>
+        <v>51164</v>
       </c>
     </row>
     <row r="44">
@@ -2258,10 +2258,10 @@
         <v>319</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H44" t="n">
         <v>29</v>
@@ -2279,7 +2279,7 @@
         <v>446</v>
       </c>
       <c r="M44" t="n">
-        <v>51793</v>
+        <v>51862</v>
       </c>
     </row>
     <row r="45">
@@ -2322,7 +2322,7 @@
         <v>480</v>
       </c>
       <c r="M45" t="n">
-        <v>55250</v>
+        <v>55319</v>
       </c>
     </row>
     <row r="46">
@@ -2332,13 +2332,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3593</v>
+        <v>3598</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>3593</v>
+        <v>3598</v>
       </c>
       <c r="E46" t="n">
         <v>417</v>
@@ -2365,7 +2365,7 @@
         <v>525</v>
       </c>
       <c r="M46" t="n">
-        <v>58843</v>
+        <v>58917</v>
       </c>
     </row>
     <row r="47">
@@ -2375,13 +2375,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3262</v>
+        <v>3274</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>3262</v>
+        <v>3274</v>
       </c>
       <c r="E47" t="n">
         <v>580</v>
@@ -2408,7 +2408,7 @@
         <v>562</v>
       </c>
       <c r="M47" t="n">
-        <v>62105</v>
+        <v>62191</v>
       </c>
     </row>
     <row r="48">
@@ -2418,13 +2418,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3907</v>
+        <v>3905</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>3906</v>
+        <v>3905</v>
       </c>
       <c r="E48" t="n">
         <v>600</v>
@@ -2451,7 +2451,7 @@
         <v>596</v>
       </c>
       <c r="M48" t="n">
-        <v>66012</v>
+        <v>66096</v>
       </c>
     </row>
     <row r="49">
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4022</v>
+        <v>4036</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>4022</v>
+        <v>4036</v>
       </c>
       <c r="E49" t="n">
         <v>505</v>
@@ -2482,10 +2482,10 @@
         <v>36</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K49" t="n">
         <v>10598</v>
@@ -2494,7 +2494,7 @@
         <v>632</v>
       </c>
       <c r="M49" t="n">
-        <v>70034</v>
+        <v>70132</v>
       </c>
     </row>
     <row r="50">
@@ -2537,7 +2537,7 @@
         <v>660</v>
       </c>
       <c r="M50" t="n">
-        <v>71738</v>
+        <v>71836</v>
       </c>
     </row>
     <row r="51">
@@ -2547,13 +2547,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="E51" t="n">
         <v>479</v>
@@ -2568,10 +2568,10 @@
         <v>36</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K51" t="n">
         <v>11634</v>
@@ -2580,7 +2580,7 @@
         <v>696</v>
       </c>
       <c r="M51" t="n">
-        <v>72838</v>
+        <v>72935</v>
       </c>
     </row>
     <row r="52">
@@ -2590,40 +2590,40 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4286</v>
+        <v>4300</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>4285</v>
+        <v>4300</v>
       </c>
       <c r="E52" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H52" t="n">
         <v>38</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K52" t="n">
-        <v>12019</v>
+        <v>12020</v>
       </c>
       <c r="L52" t="n">
         <v>734</v>
       </c>
       <c r="M52" t="n">
-        <v>77124</v>
+        <v>77235</v>
       </c>
     </row>
     <row r="53">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3827</v>
+        <v>3829</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>3826</v>
+        <v>3829</v>
       </c>
       <c r="E53" t="n">
         <v>379</v>
@@ -2654,19 +2654,19 @@
         <v>48</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K53" t="n">
-        <v>12398</v>
+        <v>12399</v>
       </c>
       <c r="L53" t="n">
         <v>782</v>
       </c>
       <c r="M53" t="n">
-        <v>80951</v>
+        <v>81064</v>
       </c>
     </row>
     <row r="54">
@@ -2676,40 +2676,40 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3710</v>
+        <v>3740</v>
       </c>
       <c r="C54" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>3704</v>
+        <v>3740</v>
       </c>
       <c r="E54" t="n">
         <v>605</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H54" t="n">
         <v>50</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K54" t="n">
-        <v>13003</v>
+        <v>13004</v>
       </c>
       <c r="L54" t="n">
         <v>832</v>
       </c>
       <c r="M54" t="n">
-        <v>84661</v>
+        <v>84804</v>
       </c>
     </row>
     <row r="55">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4266</v>
+        <v>4321</v>
       </c>
       <c r="C55" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>4240</v>
+        <v>4321</v>
       </c>
       <c r="E55" t="n">
         <v>644</v>
@@ -2746,13 +2746,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="n">
-        <v>13647</v>
+        <v>13648</v>
       </c>
       <c r="L55" t="n">
         <v>870</v>
       </c>
       <c r="M55" t="n">
-        <v>88927</v>
+        <v>89125</v>
       </c>
     </row>
     <row r="56">
@@ -2762,19 +2762,19 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3493</v>
+        <v>3507</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>3493</v>
+        <v>3506</v>
       </c>
       <c r="E56" t="n">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>699</v>
@@ -2783,10 +2783,10 @@
         <v>36</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K56" t="n">
         <v>14347</v>
@@ -2795,7 +2795,7 @@
         <v>906</v>
       </c>
       <c r="M56" t="n">
-        <v>92420</v>
+        <v>92632</v>
       </c>
     </row>
     <row r="57">
@@ -2805,13 +2805,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2216</v>
+        <v>2219</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>2215</v>
+        <v>2219</v>
       </c>
       <c r="E57" t="n">
         <v>624</v>
@@ -2838,7 +2838,7 @@
         <v>947</v>
       </c>
       <c r="M57" t="n">
-        <v>94636</v>
+        <v>94851</v>
       </c>
     </row>
     <row r="58">
@@ -2848,13 +2848,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1785</v>
+        <v>1787</v>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1783</v>
+        <v>1787</v>
       </c>
       <c r="E58" t="n">
         <v>950</v>
@@ -2881,7 +2881,7 @@
         <v>981</v>
       </c>
       <c r="M58" t="n">
-        <v>96421</v>
+        <v>96638</v>
       </c>
     </row>
     <row r="59">
@@ -2891,13 +2891,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4338</v>
+        <v>4470</v>
       </c>
       <c r="C59" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D59" t="n">
-        <v>4288</v>
+        <v>4425</v>
       </c>
       <c r="E59" t="n">
         <v>621</v>
@@ -2909,10 +2909,10 @@
         <v>621</v>
       </c>
       <c r="H59" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
         <v>41</v>
@@ -2921,10 +2921,10 @@
         <v>16542</v>
       </c>
       <c r="L59" t="n">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="M59" t="n">
-        <v>100759</v>
+        <v>101108</v>
       </c>
     </row>
     <row r="60">
@@ -2934,13 +2934,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4686</v>
+        <v>4858</v>
       </c>
       <c r="C60" t="n">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="D60" t="n">
-        <v>4594</v>
+        <v>4840</v>
       </c>
       <c r="E60" t="n">
         <v>595</v>
@@ -2964,10 +2964,10 @@
         <v>17137</v>
       </c>
       <c r="L60" t="n">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="M60" t="n">
-        <v>105445</v>
+        <v>105966</v>
       </c>
     </row>
     <row r="61">
@@ -2977,22 +2977,22 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4717</v>
+        <v>5067</v>
       </c>
       <c r="C61" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D61" t="n">
-        <v>4641</v>
+        <v>4983</v>
       </c>
       <c r="E61" t="n">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H61" t="n">
         <v>40</v>
@@ -3004,13 +3004,13 @@
         <v>40</v>
       </c>
       <c r="K61" t="n">
-        <v>17791</v>
+        <v>17790</v>
       </c>
       <c r="L61" t="n">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="M61" t="n">
-        <v>110162</v>
+        <v>111033</v>
       </c>
     </row>
     <row r="62">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4737</v>
+        <v>5001</v>
       </c>
       <c r="C62" t="n">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="D62" t="n">
-        <v>4689</v>
+        <v>4903</v>
       </c>
       <c r="E62" t="n">
         <v>795</v>
@@ -3047,13 +3047,13 @@
         <v>45</v>
       </c>
       <c r="K62" t="n">
-        <v>18586</v>
+        <v>18585</v>
       </c>
       <c r="L62" t="n">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="M62" t="n">
-        <v>114899</v>
+        <v>116034</v>
       </c>
     </row>
     <row r="63">
@@ -3063,22 +3063,22 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5764</v>
+        <v>5800</v>
       </c>
       <c r="C63" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D63" t="n">
-        <v>5758</v>
+        <v>5790</v>
       </c>
       <c r="E63" t="n">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H63" t="n">
         <v>33</v>
@@ -3090,13 +3090,13 @@
         <v>33</v>
       </c>
       <c r="K63" t="n">
-        <v>19239</v>
+        <v>19237</v>
       </c>
       <c r="L63" t="n">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="M63" t="n">
-        <v>120663</v>
+        <v>121834</v>
       </c>
     </row>
     <row r="64">
@@ -3106,40 +3106,40 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2850</v>
+        <v>2856</v>
       </c>
       <c r="C64" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>2842</v>
+        <v>2851</v>
       </c>
       <c r="E64" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H64" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K64" t="n">
-        <v>19874</v>
+        <v>19873</v>
       </c>
       <c r="L64" t="n">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="M64" t="n">
-        <v>123513</v>
+        <v>124690</v>
       </c>
     </row>
     <row r="65">
@@ -3149,13 +3149,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>1654</v>
+        <v>1659</v>
       </c>
       <c r="E65" t="n">
         <v>570</v>
@@ -3167,22 +3167,22 @@
         <v>570</v>
       </c>
       <c r="H65" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K65" t="n">
-        <v>20444</v>
+        <v>20443</v>
       </c>
       <c r="L65" t="n">
-        <v>1244</v>
+        <v>1249</v>
       </c>
       <c r="M65" t="n">
-        <v>125171</v>
+        <v>126349</v>
       </c>
     </row>
     <row r="66">
@@ -3192,40 +3192,40 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5277</v>
+        <v>5280</v>
       </c>
       <c r="C66" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>5210</v>
+        <v>5280</v>
       </c>
       <c r="E66" t="n">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H66" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K66" t="n">
-        <v>20970</v>
+        <v>20968</v>
       </c>
       <c r="L66" t="n">
-        <v>1279</v>
+        <v>1285</v>
       </c>
       <c r="M66" t="n">
-        <v>130448</v>
+        <v>131629</v>
       </c>
     </row>
     <row r="67">
@@ -3235,13 +3235,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5866</v>
+        <v>5896</v>
       </c>
       <c r="C67" t="n">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D67" t="n">
-        <v>5799</v>
+        <v>5882</v>
       </c>
       <c r="E67" t="n">
         <v>838</v>
@@ -3253,22 +3253,22 @@
         <v>838</v>
       </c>
       <c r="H67" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K67" t="n">
-        <v>21808</v>
+        <v>21806</v>
       </c>
       <c r="L67" t="n">
-        <v>1315</v>
+        <v>1322</v>
       </c>
       <c r="M67" t="n">
-        <v>136314</v>
+        <v>137525</v>
       </c>
     </row>
     <row r="68">
@@ -3278,13 +3278,13 @@
         </is>
       </c>
       <c r="B68" t="n">
+        <v>5585</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
         <v>5584</v>
-      </c>
-      <c r="C68" t="n">
-        <v>4</v>
-      </c>
-      <c r="D68" t="n">
-        <v>5580</v>
       </c>
       <c r="E68" t="n">
         <v>624</v>
@@ -3296,22 +3296,22 @@
         <v>624</v>
       </c>
       <c r="H68" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K68" t="n">
-        <v>22432</v>
+        <v>22430</v>
       </c>
       <c r="L68" t="n">
-        <v>1355</v>
+        <v>1365</v>
       </c>
       <c r="M68" t="n">
-        <v>141898</v>
+        <v>143110</v>
       </c>
     </row>
     <row r="69">
@@ -3321,40 +3321,40 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>5831</v>
+        <v>5899</v>
       </c>
       <c r="C69" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D69" t="n">
-        <v>5792</v>
+        <v>5884</v>
       </c>
       <c r="E69" t="n">
         <v>642</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H69" t="n">
         <v>34</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K69" t="n">
-        <v>23074</v>
+        <v>23072</v>
       </c>
       <c r="L69" t="n">
-        <v>1389</v>
+        <v>1399</v>
       </c>
       <c r="M69" t="n">
-        <v>147729</v>
+        <v>149009</v>
       </c>
     </row>
     <row r="70">
@@ -3364,40 +3364,40 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>5990</v>
+        <v>6035</v>
       </c>
       <c r="C70" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>5835</v>
+        <v>6035</v>
       </c>
       <c r="E70" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H70" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K70" t="n">
-        <v>23666</v>
+        <v>23663</v>
       </c>
       <c r="L70" t="n">
-        <v>1409</v>
+        <v>1422</v>
       </c>
       <c r="M70" t="n">
-        <v>153719</v>
+        <v>155044</v>
       </c>
     </row>
     <row r="71">
@@ -3407,13 +3407,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3131</v>
+        <v>3177</v>
       </c>
       <c r="C71" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>3116</v>
+        <v>3175</v>
       </c>
       <c r="E71" t="n">
         <v>388</v>
@@ -3425,22 +3425,22 @@
         <v>388</v>
       </c>
       <c r="H71" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K71" t="n">
-        <v>24054</v>
+        <v>24051</v>
       </c>
       <c r="L71" t="n">
-        <v>1437</v>
+        <v>1454</v>
       </c>
       <c r="M71" t="n">
-        <v>156850</v>
+        <v>158221</v>
       </c>
     </row>
     <row r="72">
@@ -3450,13 +3450,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1231</v>
+        <v>1259</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>1230</v>
+        <v>1258</v>
       </c>
       <c r="E72" t="n">
         <v>464</v>
@@ -3468,22 +3468,22 @@
         <v>464</v>
       </c>
       <c r="H72" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K72" t="n">
-        <v>24518</v>
+        <v>24515</v>
       </c>
       <c r="L72" t="n">
-        <v>1464</v>
+        <v>1486</v>
       </c>
       <c r="M72" t="n">
-        <v>158081</v>
+        <v>159480</v>
       </c>
     </row>
     <row r="73">
@@ -3493,40 +3493,40 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6522</v>
+        <v>6620</v>
       </c>
       <c r="C73" t="n">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>6403</v>
+        <v>6619</v>
       </c>
       <c r="E73" t="n">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H73" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K73" t="n">
-        <v>25038</v>
+        <v>25034</v>
       </c>
       <c r="L73" t="n">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="M73" t="n">
-        <v>164603</v>
+        <v>166100</v>
       </c>
     </row>
     <row r="74">
@@ -3536,13 +3536,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>5773</v>
+        <v>6008</v>
       </c>
       <c r="C74" t="n">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="D74" t="n">
-        <v>5617</v>
+        <v>5998</v>
       </c>
       <c r="E74" t="n">
         <v>376</v>
@@ -3554,22 +3554,22 @@
         <v>376</v>
       </c>
       <c r="H74" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K74" t="n">
-        <v>25414</v>
+        <v>25410</v>
       </c>
       <c r="L74" t="n">
-        <v>1536</v>
+        <v>1561</v>
       </c>
       <c r="M74" t="n">
-        <v>170376</v>
+        <v>172108</v>
       </c>
     </row>
     <row r="75">
@@ -3579,40 +3579,40 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>5827</v>
+        <v>6354</v>
       </c>
       <c r="C75" t="n">
-        <v>373</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>5454</v>
+        <v>6348</v>
       </c>
       <c r="E75" t="n">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H75" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K75" t="n">
-        <v>26021</v>
+        <v>26016</v>
       </c>
       <c r="L75" t="n">
-        <v>1557</v>
+        <v>1586</v>
       </c>
       <c r="M75" t="n">
-        <v>176203</v>
+        <v>178462</v>
       </c>
     </row>
     <row r="76">
@@ -3622,40 +3622,40 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>5477</v>
+        <v>7300</v>
       </c>
       <c r="C76" t="n">
-        <v>637</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>4840</v>
+        <v>7299</v>
       </c>
       <c r="E76" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>588</v>
       </c>
       <c r="H76" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K76" t="n">
-        <v>26610</v>
+        <v>26604</v>
       </c>
       <c r="L76" t="n">
-        <v>1596</v>
+        <v>1627</v>
       </c>
       <c r="M76" t="n">
-        <v>181680</v>
+        <v>185762</v>
       </c>
     </row>
     <row r="77">
@@ -3665,40 +3665,40 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>5762</v>
+        <v>8696</v>
       </c>
       <c r="C77" t="n">
-        <v>2177</v>
+        <v>19</v>
       </c>
       <c r="D77" t="n">
-        <v>3585</v>
+        <v>8677</v>
       </c>
       <c r="E77" t="n">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H77" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I77" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="K77" t="n">
-        <v>27253</v>
+        <v>27245</v>
       </c>
       <c r="L77" t="n">
-        <v>1620</v>
+        <v>1658</v>
       </c>
       <c r="M77" t="n">
-        <v>187442</v>
+        <v>194458</v>
       </c>
     </row>
     <row r="78">
@@ -3708,13 +3708,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1409</v>
+        <v>2816</v>
       </c>
       <c r="C78" t="n">
-        <v>983</v>
+        <v>20</v>
       </c>
       <c r="D78" t="n">
-        <v>426</v>
+        <v>2796</v>
       </c>
       <c r="E78" t="n">
         <v>496</v>
@@ -3726,22 +3726,22 @@
         <v>496</v>
       </c>
       <c r="H78" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I78" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K78" t="n">
-        <v>27749</v>
+        <v>27741</v>
       </c>
       <c r="L78" t="n">
-        <v>1642</v>
+        <v>1682</v>
       </c>
       <c r="M78" t="n">
-        <v>188851</v>
+        <v>197274</v>
       </c>
     </row>
     <row r="79">
@@ -3751,40 +3751,40 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>327</v>
+        <v>1785</v>
       </c>
       <c r="C79" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="D79" t="n">
-        <v>87</v>
+        <v>1755</v>
       </c>
       <c r="E79" t="n">
         <v>485</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H79" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I79" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="K79" t="n">
-        <v>28234</v>
+        <v>28226</v>
       </c>
       <c r="L79" t="n">
-        <v>1663</v>
+        <v>1705</v>
       </c>
       <c r="M79" t="n">
-        <v>189178</v>
+        <v>199059</v>
       </c>
     </row>
     <row r="80">
@@ -3794,40 +3794,212 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>152</v>
+        <v>7203</v>
       </c>
       <c r="C80" t="n">
-        <v>152</v>
+        <v>1076</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>6127</v>
       </c>
       <c r="E80" t="n">
+        <v>462</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>462</v>
+      </c>
+      <c r="H80" t="n">
+        <v>33</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" t="n">
+        <v>31</v>
+      </c>
+      <c r="K80" t="n">
+        <v>28688</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1738</v>
+      </c>
+      <c r="M80" t="n">
+        <v>206262</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2020-05-19</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>4780</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1834</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2946</v>
+      </c>
+      <c r="E81" t="n">
+        <v>569</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>569</v>
+      </c>
+      <c r="H81" t="n">
+        <v>27</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>25</v>
+      </c>
+      <c r="K81" t="n">
+        <v>29257</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1765</v>
+      </c>
+      <c r="M81" t="n">
+        <v>211042</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2020-05-20</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2919</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2259</v>
+      </c>
+      <c r="D82" t="n">
+        <v>660</v>
+      </c>
+      <c r="E82" t="n">
+        <v>660</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>660</v>
+      </c>
+      <c r="H82" t="n">
+        <v>20</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" t="n">
+        <v>18</v>
+      </c>
+      <c r="K82" t="n">
+        <v>29917</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1785</v>
+      </c>
+      <c r="M82" t="n">
+        <v>213961</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2020-05-21</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>841</v>
+      </c>
+      <c r="C83" t="n">
+        <v>740</v>
+      </c>
+      <c r="D83" t="n">
+        <v>101</v>
+      </c>
+      <c r="E83" t="n">
+        <v>472</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" t="n">
         <v>471</v>
       </c>
-      <c r="F80" t="n">
-        <v>471</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>15</v>
-      </c>
-      <c r="I80" t="n">
-        <v>15</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="n">
-        <v>28705</v>
-      </c>
-      <c r="L80" t="n">
-        <v>1678</v>
-      </c>
-      <c r="M80" t="n">
-        <v>189330</v>
+      <c r="H83" t="n">
+        <v>25</v>
+      </c>
+      <c r="I83" t="n">
+        <v>12</v>
+      </c>
+      <c r="J83" t="n">
+        <v>13</v>
+      </c>
+      <c r="K83" t="n">
+        <v>30389</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1810</v>
+      </c>
+      <c r="M83" t="n">
+        <v>214802</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2020-05-22</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>131</v>
+      </c>
+      <c r="C84" t="n">
+        <v>131</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>512</v>
+      </c>
+      <c r="F84" t="n">
+        <v>512</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>30901</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1812</v>
+      </c>
+      <c r="M84" t="n">
+        <v>214933</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2020-02-29</t>
+          <t>1970-03-13</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -479,93 +479,93 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-29</t>
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-03-02</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-03-03</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -602,23 +602,23 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -645,32 +645,32 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -682,38 +682,38 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2020-03-07</t>
+          <t>2020-03-06</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -731,32 +731,32 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2020-03-08</t>
+          <t>2020-03-07</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -768,38 +768,38 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-03-08</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -811,81 +811,81 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-03-09</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>5</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>10</v>
-      </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>109</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-03-10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -897,29 +897,29 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>169</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -940,38 +940,38 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>367</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2020-03-13</t>
+          <t>2020-03-12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -983,38 +983,38 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>614</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2020-03-14</t>
+          <t>2020-03-13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1032,75 +1032,75 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>892</v>
+        <v>615</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2020-03-15</t>
+          <t>2020-03-14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>145</v>
+        <v>278</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>145</v>
+        <v>278</v>
       </c>
       <c r="E16" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1037</v>
+        <v>893</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2020-03-16</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>642</v>
+        <v>145</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>641</v>
+        <v>145</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1112,253 +1112,253 @@
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>1679</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2020-03-17</t>
+          <t>2020-03-16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>743</v>
+        <v>642</v>
       </c>
       <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>642</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="D18" t="n">
-        <v>742</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>9</v>
-      </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>30</v>
+      </c>
+      <c r="L18" t="n">
         <v>2</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>39</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4</v>
-      </c>
       <c r="M18" t="n">
-        <v>2422</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2020-03-18</t>
+          <t>2020-03-17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869</v>
+        <v>743</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>869</v>
+        <v>743</v>
       </c>
       <c r="E19" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>3291</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2020-03-19</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1081</v>
+        <v>869</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1081</v>
+        <v>869</v>
       </c>
       <c r="E20" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="L20" t="n">
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>4372</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2020-03-20</t>
+          <t>2020-03-19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1736</v>
+        <v>1081</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1736</v>
+        <v>1081</v>
       </c>
       <c r="E21" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="L21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>6108</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2020-03-21</t>
+          <t>2020-03-20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>697</v>
+        <v>1736</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>697</v>
+        <v>1736</v>
       </c>
       <c r="E22" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>199</v>
+        <v>124</v>
       </c>
       <c r="L22" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M22" t="n">
-        <v>6805</v>
+        <v>6109</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2020-03-22</t>
+          <t>2020-03-21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1021</v>
+        <v>697</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1021</v>
+        <v>697</v>
       </c>
       <c r="E23" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="H23" t="n">
         <v>5</v>
@@ -1370,38 +1370,38 @@
         <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="L23" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M23" t="n">
-        <v>7826</v>
+        <v>6806</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2020-03-23</t>
+          <t>2020-03-22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1452</v>
+        <v>1021</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1452</v>
+        <v>1021</v>
       </c>
       <c r="E24" t="n">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="H24" t="n">
         <v>5</v>
@@ -1413,38 +1413,38 @@
         <v>5</v>
       </c>
       <c r="K24" t="n">
-        <v>361</v>
+        <v>256</v>
       </c>
       <c r="L24" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M24" t="n">
-        <v>9278</v>
+        <v>7827</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2020-03-24</t>
+          <t>2020-03-23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1604</v>
+        <v>1452</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1604</v>
+        <v>1452</v>
       </c>
       <c r="E25" t="n">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H25" t="n">
         <v>5</v>
@@ -1456,339 +1456,339 @@
         <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>474</v>
+        <v>361</v>
       </c>
       <c r="L25" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M25" t="n">
-        <v>10882</v>
+        <v>9279</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2020-03-25</t>
+          <t>2020-03-24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2319</v>
+        <v>1604</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2319</v>
+        <v>1604</v>
       </c>
       <c r="E26" t="n">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>636</v>
+        <v>474</v>
       </c>
       <c r="L26" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M26" t="n">
-        <v>13201</v>
+        <v>10883</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2020-03-26</t>
+          <t>2020-03-25</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2607</v>
+        <v>2319</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2607</v>
+        <v>2319</v>
       </c>
       <c r="E27" t="n">
-        <v>303</v>
+        <v>162</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>303</v>
+        <v>162</v>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K27" t="n">
-        <v>939</v>
+        <v>636</v>
       </c>
       <c r="L27" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M27" t="n">
-        <v>15808</v>
+        <v>13202</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2020-03-27</t>
+          <t>2020-03-26</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2161</v>
+        <v>2607</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2161</v>
+        <v>2607</v>
       </c>
       <c r="E28" t="n">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K28" t="n">
-        <v>1221</v>
+        <v>939</v>
       </c>
       <c r="L28" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M28" t="n">
-        <v>17969</v>
+        <v>15809</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2020-03-28</t>
+          <t>2020-03-27</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1270</v>
+        <v>2161</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1270</v>
+        <v>2161</v>
       </c>
       <c r="E29" t="n">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H29" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>1509</v>
+        <v>1221</v>
       </c>
       <c r="L29" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="M29" t="n">
-        <v>19239</v>
+        <v>17970</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2020-03-29</t>
+          <t>2020-03-28</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1632</v>
+        <v>1270</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1632</v>
+        <v>1270</v>
       </c>
       <c r="E30" t="n">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="H30" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K30" t="n">
-        <v>1780</v>
+        <v>1509</v>
       </c>
       <c r="L30" t="n">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="M30" t="n">
-        <v>20871</v>
+        <v>19240</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2020-03-30</t>
+          <t>2020-03-29</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1960</v>
+        <v>1632</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1960</v>
+        <v>1632</v>
       </c>
       <c r="E31" t="n">
-        <v>373</v>
+        <v>271</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>373</v>
+        <v>271</v>
       </c>
       <c r="H31" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K31" t="n">
-        <v>2153</v>
+        <v>1780</v>
       </c>
       <c r="L31" t="n">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="M31" t="n">
-        <v>22831</v>
+        <v>20872</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-03-30</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2316</v>
+        <v>1960</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2316</v>
+        <v>1960</v>
       </c>
       <c r="E32" t="n">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="H32" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K32" t="n">
-        <v>2559</v>
+        <v>2153</v>
       </c>
       <c r="L32" t="n">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="M32" t="n">
-        <v>25147</v>
+        <v>22832</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-03-31</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2537</v>
+        <v>2316</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2537</v>
+        <v>2316</v>
       </c>
       <c r="E33" t="n">
-        <v>469</v>
+        <v>406</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>469</v>
+        <v>406</v>
       </c>
       <c r="H33" t="n">
         <v>22</v>
@@ -1800,38 +1800,38 @@
         <v>22</v>
       </c>
       <c r="K33" t="n">
-        <v>3028</v>
+        <v>2559</v>
       </c>
       <c r="L33" t="n">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="M33" t="n">
-        <v>27684</v>
+        <v>25148</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2020-04-02</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2695</v>
+        <v>2537</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2695</v>
+        <v>2537</v>
       </c>
       <c r="E34" t="n">
-        <v>396</v>
+        <v>469</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>396</v>
+        <v>469</v>
       </c>
       <c r="H34" t="n">
         <v>22</v>
@@ -1843,244 +1843,244 @@
         <v>22</v>
       </c>
       <c r="K34" t="n">
-        <v>3424</v>
+        <v>3028</v>
       </c>
       <c r="L34" t="n">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="M34" t="n">
-        <v>30379</v>
+        <v>27685</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2020-04-03</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2798</v>
+        <v>2695</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2798</v>
+        <v>2695</v>
       </c>
       <c r="E35" t="n">
-        <v>513</v>
+        <v>396</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>513</v>
+        <v>396</v>
       </c>
       <c r="H35" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K35" t="n">
-        <v>3937</v>
+        <v>3424</v>
       </c>
       <c r="L35" t="n">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="M35" t="n">
-        <v>33177</v>
+        <v>30380</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2020-04-04</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1636</v>
+        <v>2798</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1636</v>
+        <v>2798</v>
       </c>
       <c r="E36" t="n">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="H36" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K36" t="n">
-        <v>4398</v>
+        <v>3937</v>
       </c>
       <c r="L36" t="n">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="M36" t="n">
-        <v>34813</v>
+        <v>33178</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2020-04-04</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1095</v>
+        <v>1636</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1095</v>
+        <v>1636</v>
       </c>
       <c r="E37" t="n">
-        <v>527</v>
+        <v>461</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>527</v>
+        <v>461</v>
       </c>
       <c r="H37" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K37" t="n">
-        <v>4925</v>
+        <v>4398</v>
       </c>
       <c r="L37" t="n">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="M37" t="n">
-        <v>35908</v>
+        <v>34814</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2020-04-06</t>
+          <t>2020-04-05</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2418</v>
+        <v>1095</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2418</v>
+        <v>1095</v>
       </c>
       <c r="E38" t="n">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="H38" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K38" t="n">
-        <v>5482</v>
+        <v>4925</v>
       </c>
       <c r="L38" t="n">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="M38" t="n">
-        <v>38326</v>
+        <v>35909</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>2020-04-06</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2774</v>
+        <v>2418</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>2774</v>
+        <v>2418</v>
       </c>
       <c r="E39" t="n">
-        <v>422</v>
+        <v>557</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>422</v>
+        <v>557</v>
       </c>
       <c r="H39" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="K39" t="n">
-        <v>5904</v>
+        <v>5482</v>
       </c>
       <c r="L39" t="n">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="M39" t="n">
-        <v>41100</v>
+        <v>38327</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2020-04-08</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3072</v>
+        <v>2774</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>3072</v>
+        <v>2774</v>
       </c>
       <c r="E40" t="n">
         <v>422</v>
@@ -2092,1380 +2092,1380 @@
         <v>422</v>
       </c>
       <c r="H40" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="K40" t="n">
-        <v>6326</v>
+        <v>5904</v>
       </c>
       <c r="L40" t="n">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="M40" t="n">
-        <v>44172</v>
+        <v>41101</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2020-04-08</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2746</v>
+        <v>3072</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>2746</v>
+        <v>3072</v>
       </c>
       <c r="E41" t="n">
-        <v>558</v>
+        <v>422</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>558</v>
+        <v>422</v>
       </c>
       <c r="H41" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K41" t="n">
-        <v>6884</v>
+        <v>6326</v>
       </c>
       <c r="L41" t="n">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="M41" t="n">
-        <v>46918</v>
+        <v>44173</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-09</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2719</v>
+        <v>2746</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>2719</v>
+        <v>2745</v>
       </c>
       <c r="E42" t="n">
-        <v>515</v>
+        <v>558</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>515</v>
+        <v>558</v>
       </c>
       <c r="H42" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K42" t="n">
-        <v>7399</v>
+        <v>6884</v>
       </c>
       <c r="L42" t="n">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="M42" t="n">
-        <v>49637</v>
+        <v>46919</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2020-04-11</t>
+          <t>2020-04-10</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1527</v>
+        <v>2719</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1527</v>
+        <v>2719</v>
       </c>
       <c r="E43" t="n">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="H43" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K43" t="n">
-        <v>7885</v>
+        <v>7399</v>
       </c>
       <c r="L43" t="n">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="M43" t="n">
-        <v>51164</v>
+        <v>49638</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2020-04-12</t>
+          <t>2020-04-11</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>698</v>
+        <v>1527</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>698</v>
+        <v>1527</v>
       </c>
       <c r="E44" t="n">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="H44" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="K44" t="n">
-        <v>8204</v>
+        <v>7885</v>
       </c>
       <c r="L44" t="n">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="M44" t="n">
-        <v>51862</v>
+        <v>51165</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-12</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3457</v>
+        <v>698</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>3457</v>
+        <v>698</v>
       </c>
       <c r="E45" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H45" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K45" t="n">
-        <v>8496</v>
+        <v>8204</v>
       </c>
       <c r="L45" t="n">
-        <v>480</v>
+        <v>446</v>
       </c>
       <c r="M45" t="n">
-        <v>55319</v>
+        <v>51863</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2020-04-14</t>
+          <t>2020-04-13</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3598</v>
+        <v>3457</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>3598</v>
+        <v>3457</v>
       </c>
       <c r="E46" t="n">
-        <v>417</v>
+        <v>292</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>417</v>
+        <v>292</v>
       </c>
       <c r="H46" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K46" t="n">
-        <v>8913</v>
+        <v>8496</v>
       </c>
       <c r="L46" t="n">
-        <v>525</v>
+        <v>480</v>
       </c>
       <c r="M46" t="n">
-        <v>58917</v>
+        <v>55320</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2020-04-15</t>
+          <t>2020-04-14</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3274</v>
+        <v>3598</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>3274</v>
+        <v>3598</v>
       </c>
       <c r="E47" t="n">
-        <v>580</v>
+        <v>417</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>580</v>
+        <v>417</v>
       </c>
       <c r="H47" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K47" t="n">
-        <v>9493</v>
+        <v>8913</v>
       </c>
       <c r="L47" t="n">
-        <v>562</v>
+        <v>525</v>
       </c>
       <c r="M47" t="n">
-        <v>62191</v>
+        <v>58918</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2020-04-16</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3905</v>
+        <v>3274</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>3905</v>
+        <v>3274</v>
       </c>
       <c r="E48" t="n">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="H48" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K48" t="n">
-        <v>10093</v>
+        <v>9493</v>
       </c>
       <c r="L48" t="n">
-        <v>596</v>
+        <v>562</v>
       </c>
       <c r="M48" t="n">
-        <v>66096</v>
+        <v>62192</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2020-04-17</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4036</v>
+        <v>3905</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>4036</v>
+        <v>3905</v>
       </c>
       <c r="E49" t="n">
-        <v>505</v>
+        <v>600</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>505</v>
+        <v>600</v>
       </c>
       <c r="H49" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K49" t="n">
-        <v>10598</v>
+        <v>10093</v>
       </c>
       <c r="L49" t="n">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="M49" t="n">
-        <v>70132</v>
+        <v>66097</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2020-04-18</t>
+          <t>2020-04-17</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1704</v>
+        <v>4036</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1704</v>
+        <v>4036</v>
       </c>
       <c r="E50" t="n">
-        <v>557</v>
+        <v>505</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>557</v>
+        <v>505</v>
       </c>
       <c r="H50" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="K50" t="n">
-        <v>11155</v>
+        <v>10598</v>
       </c>
       <c r="L50" t="n">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="M50" t="n">
-        <v>71836</v>
+        <v>70133</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2020-04-19</t>
+          <t>2020-04-18</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1099</v>
+        <v>1704</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>1099</v>
+        <v>1704</v>
       </c>
       <c r="E51" t="n">
-        <v>479</v>
+        <v>557</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>479</v>
+        <v>557</v>
       </c>
       <c r="H51" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K51" t="n">
-        <v>11634</v>
+        <v>11155</v>
       </c>
       <c r="L51" t="n">
-        <v>696</v>
+        <v>660</v>
       </c>
       <c r="M51" t="n">
-        <v>72935</v>
+        <v>71837</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2020-04-20</t>
+          <t>2020-04-19</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4300</v>
+        <v>1099</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>4300</v>
+        <v>1099</v>
       </c>
       <c r="E52" t="n">
-        <v>386</v>
+        <v>479</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>386</v>
+        <v>479</v>
       </c>
       <c r="H52" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K52" t="n">
-        <v>12020</v>
+        <v>11634</v>
       </c>
       <c r="L52" t="n">
-        <v>734</v>
+        <v>696</v>
       </c>
       <c r="M52" t="n">
-        <v>77235</v>
+        <v>72936</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2020-04-21</t>
+          <t>2020-04-20</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3829</v>
+        <v>4300</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>3829</v>
+        <v>4299</v>
       </c>
       <c r="E53" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="H53" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K53" t="n">
-        <v>12399</v>
+        <v>12020</v>
       </c>
       <c r="L53" t="n">
-        <v>782</v>
+        <v>734</v>
       </c>
       <c r="M53" t="n">
-        <v>81064</v>
+        <v>77236</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2020-04-21</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3740</v>
+        <v>3829</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>3740</v>
+        <v>3829</v>
       </c>
       <c r="E54" t="n">
-        <v>605</v>
+        <v>379</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>605</v>
+        <v>379</v>
       </c>
       <c r="H54" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K54" t="n">
-        <v>13004</v>
+        <v>12399</v>
       </c>
       <c r="L54" t="n">
-        <v>832</v>
+        <v>782</v>
       </c>
       <c r="M54" t="n">
-        <v>84804</v>
+        <v>81065</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2020-04-23</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4321</v>
+        <v>3740</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>4321</v>
+        <v>3740</v>
       </c>
       <c r="E55" t="n">
-        <v>644</v>
+        <v>605</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>644</v>
+        <v>605</v>
       </c>
       <c r="H55" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K55" t="n">
-        <v>13648</v>
+        <v>13004</v>
       </c>
       <c r="L55" t="n">
-        <v>870</v>
+        <v>832</v>
       </c>
       <c r="M55" t="n">
-        <v>89125</v>
+        <v>84805</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2020-04-24</t>
+          <t>2020-04-23</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3507</v>
+        <v>4321</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>3506</v>
+        <v>4321</v>
       </c>
       <c r="E56" t="n">
-        <v>699</v>
+        <v>644</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>699</v>
+        <v>644</v>
       </c>
       <c r="H56" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K56" t="n">
-        <v>14347</v>
+        <v>13648</v>
       </c>
       <c r="L56" t="n">
-        <v>906</v>
+        <v>870</v>
       </c>
       <c r="M56" t="n">
-        <v>92632</v>
+        <v>89126</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2020-04-25</t>
+          <t>2020-04-24</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2219</v>
+        <v>3507</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>2219</v>
+        <v>3507</v>
       </c>
       <c r="E57" t="n">
-        <v>624</v>
+        <v>699</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>624</v>
+        <v>699</v>
       </c>
       <c r="H57" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K57" t="n">
-        <v>14971</v>
+        <v>14347</v>
       </c>
       <c r="L57" t="n">
-        <v>947</v>
+        <v>906</v>
       </c>
       <c r="M57" t="n">
-        <v>94851</v>
+        <v>92633</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2020-04-26</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1787</v>
+        <v>2219</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1787</v>
+        <v>2219</v>
       </c>
       <c r="E58" t="n">
-        <v>950</v>
+        <v>624</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>950</v>
+        <v>624</v>
       </c>
       <c r="H58" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K58" t="n">
-        <v>15921</v>
+        <v>14971</v>
       </c>
       <c r="L58" t="n">
-        <v>981</v>
+        <v>947</v>
       </c>
       <c r="M58" t="n">
-        <v>96638</v>
+        <v>94852</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2020-04-27</t>
+          <t>2020-04-26</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4470</v>
+        <v>1787</v>
       </c>
       <c r="C59" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>4425</v>
+        <v>1787</v>
       </c>
       <c r="E59" t="n">
-        <v>621</v>
+        <v>950</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>621</v>
+        <v>950</v>
       </c>
       <c r="H59" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K59" t="n">
-        <v>16542</v>
+        <v>15921</v>
       </c>
       <c r="L59" t="n">
-        <v>1023</v>
+        <v>981</v>
       </c>
       <c r="M59" t="n">
-        <v>101108</v>
+        <v>96639</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2020-04-28</t>
+          <t>2020-04-27</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4858</v>
+        <v>4516</v>
       </c>
       <c r="C60" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D60" t="n">
-        <v>4840</v>
+        <v>4474</v>
       </c>
       <c r="E60" t="n">
-        <v>595</v>
+        <v>621</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>595</v>
+        <v>621</v>
       </c>
       <c r="H60" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K60" t="n">
-        <v>17137</v>
+        <v>16542</v>
       </c>
       <c r="L60" t="n">
-        <v>1057</v>
+        <v>1023</v>
       </c>
       <c r="M60" t="n">
-        <v>105966</v>
+        <v>101155</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2020-04-29</t>
+          <t>2020-04-28</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>5067</v>
+        <v>4874</v>
       </c>
       <c r="C61" t="n">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="D61" t="n">
-        <v>4983</v>
+        <v>4859</v>
       </c>
       <c r="E61" t="n">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="H61" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K61" t="n">
-        <v>17790</v>
+        <v>17137</v>
       </c>
       <c r="L61" t="n">
-        <v>1097</v>
+        <v>1057</v>
       </c>
       <c r="M61" t="n">
-        <v>111033</v>
+        <v>106029</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2020-04-30</t>
+          <t>2020-04-29</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5001</v>
+        <v>5085</v>
       </c>
       <c r="C62" t="n">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="D62" t="n">
-        <v>4903</v>
+        <v>5068</v>
       </c>
       <c r="E62" t="n">
-        <v>795</v>
+        <v>653</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>795</v>
+        <v>653</v>
       </c>
       <c r="H62" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K62" t="n">
-        <v>18585</v>
+        <v>17790</v>
       </c>
       <c r="L62" t="n">
-        <v>1142</v>
+        <v>1097</v>
       </c>
       <c r="M62" t="n">
-        <v>116034</v>
+        <v>111114</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2020-05-01</t>
+          <t>2020-04-30</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5800</v>
+        <v>5006</v>
       </c>
       <c r="C63" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>5790</v>
+        <v>5002</v>
       </c>
       <c r="E63" t="n">
-        <v>652</v>
+        <v>795</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>652</v>
+        <v>795</v>
       </c>
       <c r="H63" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K63" t="n">
-        <v>19237</v>
+        <v>18585</v>
       </c>
       <c r="L63" t="n">
-        <v>1175</v>
+        <v>1142</v>
       </c>
       <c r="M63" t="n">
-        <v>121834</v>
+        <v>116120</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2020-05-02</t>
+          <t>2020-05-01</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2856</v>
+        <v>5801</v>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>2851</v>
+        <v>5800</v>
       </c>
       <c r="E64" t="n">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="H64" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K64" t="n">
-        <v>19873</v>
+        <v>19237</v>
       </c>
       <c r="L64" t="n">
-        <v>1217</v>
+        <v>1175</v>
       </c>
       <c r="M64" t="n">
-        <v>124690</v>
+        <v>121921</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2020-05-03</t>
+          <t>2020-05-02</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1659</v>
+        <v>2856</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>1659</v>
+        <v>2856</v>
       </c>
       <c r="E65" t="n">
-        <v>570</v>
+        <v>636</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>570</v>
+        <v>636</v>
       </c>
       <c r="H65" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K65" t="n">
-        <v>20443</v>
+        <v>19873</v>
       </c>
       <c r="L65" t="n">
-        <v>1249</v>
+        <v>1217</v>
       </c>
       <c r="M65" t="n">
-        <v>126349</v>
+        <v>124777</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2020-05-04</t>
+          <t>2020-05-03</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5280</v>
+        <v>1659</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>5280</v>
+        <v>1659</v>
       </c>
       <c r="E66" t="n">
-        <v>525</v>
+        <v>570</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>525</v>
+        <v>570</v>
       </c>
       <c r="H66" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K66" t="n">
-        <v>20968</v>
+        <v>20443</v>
       </c>
       <c r="L66" t="n">
-        <v>1285</v>
+        <v>1249</v>
       </c>
       <c r="M66" t="n">
-        <v>131629</v>
+        <v>126436</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2020-05-05</t>
+          <t>2020-05-04</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5896</v>
+        <v>5280</v>
       </c>
       <c r="C67" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>5882</v>
+        <v>5280</v>
       </c>
       <c r="E67" t="n">
-        <v>838</v>
+        <v>525</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>838</v>
+        <v>525</v>
       </c>
       <c r="H67" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K67" t="n">
-        <v>21806</v>
+        <v>20968</v>
       </c>
       <c r="L67" t="n">
-        <v>1322</v>
+        <v>1285</v>
       </c>
       <c r="M67" t="n">
-        <v>137525</v>
+        <v>131716</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2020-05-06</t>
+          <t>2020-05-05</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5585</v>
+        <v>5904</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D68" t="n">
-        <v>5584</v>
+        <v>5896</v>
       </c>
       <c r="E68" t="n">
-        <v>624</v>
+        <v>838</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>624</v>
+        <v>838</v>
       </c>
       <c r="H68" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K68" t="n">
-        <v>22430</v>
+        <v>21806</v>
       </c>
       <c r="L68" t="n">
-        <v>1365</v>
+        <v>1322</v>
       </c>
       <c r="M68" t="n">
-        <v>143110</v>
+        <v>137620</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2020-05-07</t>
+          <t>2020-05-06</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>5899</v>
+        <v>5585</v>
       </c>
       <c r="C69" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>5884</v>
+        <v>5585</v>
       </c>
       <c r="E69" t="n">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="H69" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K69" t="n">
-        <v>23072</v>
+        <v>22430</v>
       </c>
       <c r="L69" t="n">
-        <v>1399</v>
+        <v>1365</v>
       </c>
       <c r="M69" t="n">
-        <v>149009</v>
+        <v>143205</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2020-05-08</t>
+          <t>2020-05-07</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6035</v>
+        <v>5899</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>6035</v>
+        <v>5899</v>
       </c>
       <c r="E70" t="n">
-        <v>591</v>
+        <v>642</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>591</v>
+        <v>642</v>
       </c>
       <c r="H70" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="K70" t="n">
-        <v>23663</v>
+        <v>23072</v>
       </c>
       <c r="L70" t="n">
-        <v>1422</v>
+        <v>1399</v>
       </c>
       <c r="M70" t="n">
-        <v>155044</v>
+        <v>149104</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2020-05-09</t>
+          <t>2020-05-08</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3177</v>
+        <v>6036</v>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>3175</v>
+        <v>6035</v>
       </c>
       <c r="E71" t="n">
-        <v>388</v>
+        <v>591</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>388</v>
+        <v>591</v>
       </c>
       <c r="H71" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K71" t="n">
-        <v>24051</v>
+        <v>23663</v>
       </c>
       <c r="L71" t="n">
-        <v>1454</v>
+        <v>1422</v>
       </c>
       <c r="M71" t="n">
-        <v>158221</v>
+        <v>155140</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2020-05-10</t>
+          <t>2020-05-09</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1259</v>
+        <v>3176</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1258</v>
+        <v>3176</v>
       </c>
       <c r="E72" t="n">
-        <v>464</v>
+        <v>388</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>464</v>
+        <v>388</v>
       </c>
       <c r="H72" t="n">
         <v>32</v>
@@ -3477,529 +3477,615 @@
         <v>32</v>
       </c>
       <c r="K72" t="n">
-        <v>24515</v>
+        <v>24051</v>
       </c>
       <c r="L72" t="n">
-        <v>1486</v>
+        <v>1454</v>
       </c>
       <c r="M72" t="n">
-        <v>159480</v>
+        <v>158316</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2020-05-10</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6620</v>
+        <v>1259</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>6619</v>
+        <v>1259</v>
       </c>
       <c r="E73" t="n">
-        <v>519</v>
+        <v>464</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>519</v>
+        <v>464</v>
       </c>
       <c r="H73" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K73" t="n">
-        <v>25034</v>
+        <v>24515</v>
       </c>
       <c r="L73" t="n">
-        <v>1524</v>
+        <v>1486</v>
       </c>
       <c r="M73" t="n">
-        <v>166100</v>
+        <v>159575</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2020-05-12</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6008</v>
+        <v>6620</v>
       </c>
       <c r="C74" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>5998</v>
+        <v>6619</v>
       </c>
       <c r="E74" t="n">
-        <v>376</v>
+        <v>519</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>376</v>
+        <v>519</v>
       </c>
       <c r="H74" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K74" t="n">
-        <v>25410</v>
+        <v>25034</v>
       </c>
       <c r="L74" t="n">
-        <v>1561</v>
+        <v>1524</v>
       </c>
       <c r="M74" t="n">
-        <v>172108</v>
+        <v>166195</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2020-05-13</t>
+          <t>2020-05-12</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>6354</v>
+        <v>6013</v>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>6348</v>
+        <v>6008</v>
       </c>
       <c r="E75" t="n">
-        <v>606</v>
+        <v>376</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>606</v>
+        <v>376</v>
       </c>
       <c r="H75" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K75" t="n">
-        <v>26016</v>
+        <v>25410</v>
       </c>
       <c r="L75" t="n">
-        <v>1586</v>
+        <v>1561</v>
       </c>
       <c r="M75" t="n">
-        <v>178462</v>
+        <v>172208</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2020-05-14</t>
+          <t>2020-05-13</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>7300</v>
+        <v>6358</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>7299</v>
+        <v>6354</v>
       </c>
       <c r="E76" t="n">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="H76" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="K76" t="n">
-        <v>26604</v>
+        <v>26016</v>
       </c>
       <c r="L76" t="n">
-        <v>1627</v>
+        <v>1586</v>
       </c>
       <c r="M76" t="n">
-        <v>185762</v>
+        <v>178566</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2020-05-15</t>
+          <t>2020-05-14</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>8696</v>
+        <v>7298</v>
       </c>
       <c r="C77" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>8677</v>
+        <v>7298</v>
       </c>
       <c r="E77" t="n">
-        <v>641</v>
+        <v>588</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>641</v>
+        <v>588</v>
       </c>
       <c r="H77" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K77" t="n">
-        <v>27245</v>
+        <v>26604</v>
       </c>
       <c r="L77" t="n">
-        <v>1658</v>
+        <v>1627</v>
       </c>
       <c r="M77" t="n">
-        <v>194458</v>
+        <v>185864</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2020-05-16</t>
+          <t>2020-05-15</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2816</v>
+        <v>8707</v>
       </c>
       <c r="C78" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D78" t="n">
-        <v>2796</v>
+        <v>8696</v>
       </c>
       <c r="E78" t="n">
-        <v>496</v>
+        <v>641</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>496</v>
+        <v>641</v>
       </c>
       <c r="H78" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="K78" t="n">
-        <v>27741</v>
+        <v>27245</v>
       </c>
       <c r="L78" t="n">
-        <v>1682</v>
+        <v>1658</v>
       </c>
       <c r="M78" t="n">
-        <v>197274</v>
+        <v>194571</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2020-05-17</t>
+          <t>2020-05-16</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1785</v>
+        <v>2818</v>
       </c>
       <c r="C79" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>1755</v>
+        <v>2815</v>
       </c>
       <c r="E79" t="n">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="H79" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K79" t="n">
-        <v>28226</v>
+        <v>27741</v>
       </c>
       <c r="L79" t="n">
-        <v>1705</v>
+        <v>1682</v>
       </c>
       <c r="M79" t="n">
-        <v>199059</v>
+        <v>197389</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-17</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>7203</v>
+        <v>1802</v>
       </c>
       <c r="C80" t="n">
-        <v>1076</v>
+        <v>18</v>
       </c>
       <c r="D80" t="n">
-        <v>6127</v>
+        <v>1784</v>
       </c>
       <c r="E80" t="n">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="H80" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K80" t="n">
-        <v>28688</v>
+        <v>28226</v>
       </c>
       <c r="L80" t="n">
-        <v>1738</v>
+        <v>1705</v>
       </c>
       <c r="M80" t="n">
-        <v>206262</v>
+        <v>199191</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2020-05-19</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>4780</v>
+        <v>7489</v>
       </c>
       <c r="C81" t="n">
-        <v>1834</v>
+        <v>289</v>
       </c>
       <c r="D81" t="n">
-        <v>2946</v>
+        <v>7200</v>
       </c>
       <c r="E81" t="n">
-        <v>569</v>
+        <v>462</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>569</v>
+        <v>462</v>
       </c>
       <c r="H81" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="K81" t="n">
-        <v>29257</v>
+        <v>28688</v>
       </c>
       <c r="L81" t="n">
-        <v>1765</v>
+        <v>1738</v>
       </c>
       <c r="M81" t="n">
-        <v>211042</v>
+        <v>206680</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2919</v>
+        <v>5547</v>
       </c>
       <c r="C82" t="n">
-        <v>2259</v>
+        <v>767</v>
       </c>
       <c r="D82" t="n">
-        <v>660</v>
+        <v>4780</v>
       </c>
       <c r="E82" t="n">
-        <v>660</v>
+        <v>569</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>660</v>
+        <v>569</v>
       </c>
       <c r="H82" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K82" t="n">
-        <v>29917</v>
+        <v>29257</v>
       </c>
       <c r="L82" t="n">
-        <v>1785</v>
+        <v>1766</v>
       </c>
       <c r="M82" t="n">
-        <v>213961</v>
+        <v>212227</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2020-05-21</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>841</v>
+        <v>4376</v>
       </c>
       <c r="C83" t="n">
-        <v>740</v>
+        <v>1478</v>
       </c>
       <c r="D83" t="n">
-        <v>101</v>
+        <v>2898</v>
       </c>
       <c r="E83" t="n">
-        <v>472</v>
+        <v>659</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>471</v>
+        <v>659</v>
       </c>
       <c r="H83" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I83" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K83" t="n">
-        <v>30389</v>
+        <v>29916</v>
       </c>
       <c r="L83" t="n">
-        <v>1810</v>
+        <v>1786</v>
       </c>
       <c r="M83" t="n">
-        <v>214802</v>
+        <v>216603</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>2020-05-21</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>3164</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2327</v>
+      </c>
+      <c r="D84" t="n">
+        <v>837</v>
+      </c>
+      <c r="E84" t="n">
+        <v>472</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>472</v>
+      </c>
+      <c r="H84" t="n">
+        <v>31</v>
+      </c>
+      <c r="I84" t="n">
+        <v>6</v>
+      </c>
+      <c r="J84" t="n">
+        <v>25</v>
+      </c>
+      <c r="K84" t="n">
+        <v>30388</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1817</v>
+      </c>
+      <c r="M84" t="n">
+        <v>219767</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
           <t>2020-05-22</t>
         </is>
       </c>
-      <c r="B84" t="n">
-        <v>131</v>
-      </c>
-      <c r="C84" t="n">
-        <v>131</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="n">
-        <v>512</v>
-      </c>
-      <c r="F84" t="n">
-        <v>512</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
+      <c r="B85" t="n">
+        <v>978</v>
+      </c>
+      <c r="C85" t="n">
+        <v>849</v>
+      </c>
+      <c r="D85" t="n">
+        <v>129</v>
+      </c>
+      <c r="E85" t="n">
+        <v>502</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" t="n">
+        <v>501</v>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+      <c r="I85" t="n">
         <v>2</v>
       </c>
-      <c r="I84" t="n">
+      <c r="J85" t="n">
         <v>2</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="n">
-        <v>30901</v>
-      </c>
-      <c r="L84" t="n">
-        <v>1812</v>
-      </c>
-      <c r="M84" t="n">
-        <v>214933</v>
+      <c r="K85" t="n">
+        <v>30890</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1821</v>
+      </c>
+      <c r="M85" t="n">
+        <v>220745</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2020-05-23</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>56</v>
+      </c>
+      <c r="C86" t="n">
+        <v>56</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>486</v>
+      </c>
+      <c r="F86" t="n">
+        <v>486</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+      <c r="I86" t="n">
+        <v>3</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>31376</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1824</v>
+      </c>
+      <c r="M86" t="n">
+        <v>220801</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -436,7 +436,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1970-03-13</t>
+          <t>2020-02-29</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -479,17 +479,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2020-02-29</t>
+          <t>2020-03-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -516,23 +516,23 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -559,13 +559,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -602,23 +602,23 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -645,32 +645,32 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-03-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -682,38 +682,38 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-03-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -731,32 +731,32 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2020-03-07</t>
+          <t>2020-03-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -768,38 +768,38 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2020-03-08</t>
+          <t>2020-03-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -811,38 +811,38 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-03-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -854,38 +854,38 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>59</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -897,29 +897,29 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>110</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-03-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -940,38 +940,38 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>170</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-03-13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -983,38 +983,38 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>368</v>
+        <v>614</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2020-03-13</t>
+          <t>2020-03-14</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1032,75 +1032,75 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>615</v>
+        <v>892</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2020-03-14</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>278</v>
+        <v>145</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>278</v>
+        <v>145</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>893</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2020-03-15</t>
+          <t>2020-03-16</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145</v>
+        <v>642</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>145</v>
+        <v>642</v>
       </c>
       <c r="E17" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1112,253 +1112,253 @@
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>1038</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2020-03-16</t>
+          <t>2020-03-17</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>642</v>
+        <v>743</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>642</v>
+        <v>743</v>
       </c>
       <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>9</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>39</v>
+      </c>
+      <c r="L18" t="n">
         <v>4</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>4</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>30</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2</v>
-      </c>
       <c r="M18" t="n">
-        <v>1680</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2020-03-17</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>743</v>
+        <v>869</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>743</v>
+        <v>869</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>2423</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2020-03-18</t>
+          <t>2020-03-19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>869</v>
+        <v>1081</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>869</v>
+        <v>1081</v>
       </c>
       <c r="E20" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="L20" t="n">
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>3292</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2020-03-19</t>
+          <t>2020-03-20</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1081</v>
+        <v>1736</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1081</v>
+        <v>1736</v>
       </c>
       <c r="E21" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>4373</v>
+        <v>6108</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2020-03-20</t>
+          <t>2020-03-21</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1736</v>
+        <v>697</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1736</v>
+        <v>697</v>
       </c>
       <c r="E22" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="L22" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M22" t="n">
-        <v>6109</v>
+        <v>6805</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2020-03-21</t>
+          <t>2020-03-22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>697</v>
+        <v>1021</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>697</v>
+        <v>1021</v>
       </c>
       <c r="E23" t="n">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="H23" t="n">
         <v>5</v>
@@ -1370,38 +1370,38 @@
         <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="L23" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M23" t="n">
-        <v>6806</v>
+        <v>7826</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2020-03-22</t>
+          <t>2020-03-23</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1021</v>
+        <v>1452</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1021</v>
+        <v>1452</v>
       </c>
       <c r="E24" t="n">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="H24" t="n">
         <v>5</v>
@@ -1413,38 +1413,38 @@
         <v>5</v>
       </c>
       <c r="K24" t="n">
-        <v>256</v>
+        <v>361</v>
       </c>
       <c r="L24" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M24" t="n">
-        <v>7827</v>
+        <v>9278</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2020-03-23</t>
+          <t>2020-03-24</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1452</v>
+        <v>1604</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1452</v>
+        <v>1604</v>
       </c>
       <c r="E25" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H25" t="n">
         <v>5</v>
@@ -1456,339 +1456,339 @@
         <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>361</v>
+        <v>474</v>
       </c>
       <c r="L25" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M25" t="n">
-        <v>9279</v>
+        <v>10882</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2020-03-24</t>
+          <t>2020-03-25</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1604</v>
+        <v>2319</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1604</v>
+        <v>2319</v>
       </c>
       <c r="E26" t="n">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K26" t="n">
-        <v>474</v>
+        <v>636</v>
       </c>
       <c r="L26" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M26" t="n">
-        <v>10883</v>
+        <v>13201</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2020-03-25</t>
+          <t>2020-03-26</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2319</v>
+        <v>2607</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2319</v>
+        <v>2607</v>
       </c>
       <c r="E27" t="n">
-        <v>162</v>
+        <v>303</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>162</v>
+        <v>303</v>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K27" t="n">
-        <v>636</v>
+        <v>939</v>
       </c>
       <c r="L27" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="M27" t="n">
-        <v>13202</v>
+        <v>15808</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2020-03-26</t>
+          <t>2020-03-27</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2607</v>
+        <v>2161</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2607</v>
+        <v>2161</v>
       </c>
       <c r="E28" t="n">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>939</v>
+        <v>1221</v>
       </c>
       <c r="L28" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M28" t="n">
-        <v>15809</v>
+        <v>17969</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2020-03-27</t>
+          <t>2020-03-28</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2161</v>
+        <v>1270</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2161</v>
+        <v>1270</v>
       </c>
       <c r="E29" t="n">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K29" t="n">
-        <v>1221</v>
+        <v>1509</v>
       </c>
       <c r="L29" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="M29" t="n">
-        <v>17970</v>
+        <v>19239</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2020-03-28</t>
+          <t>2020-03-29</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1270</v>
+        <v>1632</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1270</v>
+        <v>1632</v>
       </c>
       <c r="E30" t="n">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="H30" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K30" t="n">
-        <v>1509</v>
+        <v>1780</v>
       </c>
       <c r="L30" t="n">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="M30" t="n">
-        <v>19240</v>
+        <v>20871</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2020-03-29</t>
+          <t>2020-03-30</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1632</v>
+        <v>1960</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1632</v>
+        <v>1960</v>
       </c>
       <c r="E31" t="n">
-        <v>271</v>
+        <v>373</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>271</v>
+        <v>373</v>
       </c>
       <c r="H31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K31" t="n">
-        <v>1780</v>
+        <v>2153</v>
       </c>
       <c r="L31" t="n">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="M31" t="n">
-        <v>20872</v>
+        <v>22831</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2020-03-30</t>
+          <t>2020-03-31</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1960</v>
+        <v>2316</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1960</v>
+        <v>2316</v>
       </c>
       <c r="E32" t="n">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="H32" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K32" t="n">
-        <v>2153</v>
+        <v>2559</v>
       </c>
       <c r="L32" t="n">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="M32" t="n">
-        <v>22832</v>
+        <v>25147</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2316</v>
+        <v>2537</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2316</v>
+        <v>2537</v>
       </c>
       <c r="E33" t="n">
-        <v>406</v>
+        <v>469</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>406</v>
+        <v>469</v>
       </c>
       <c r="H33" t="n">
         <v>22</v>
@@ -1800,38 +1800,38 @@
         <v>22</v>
       </c>
       <c r="K33" t="n">
-        <v>2559</v>
+        <v>3028</v>
       </c>
       <c r="L33" t="n">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="M33" t="n">
-        <v>25148</v>
+        <v>27684</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2537</v>
+        <v>2695</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2537</v>
+        <v>2695</v>
       </c>
       <c r="E34" t="n">
-        <v>469</v>
+        <v>396</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>469</v>
+        <v>396</v>
       </c>
       <c r="H34" t="n">
         <v>22</v>
@@ -1843,244 +1843,244 @@
         <v>22</v>
       </c>
       <c r="K34" t="n">
-        <v>3028</v>
+        <v>3424</v>
       </c>
       <c r="L34" t="n">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="M34" t="n">
-        <v>27685</v>
+        <v>30379</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2020-04-02</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2695</v>
+        <v>2798</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2695</v>
+        <v>2798</v>
       </c>
       <c r="E35" t="n">
-        <v>396</v>
+        <v>513</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>396</v>
+        <v>513</v>
       </c>
       <c r="H35" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K35" t="n">
-        <v>3424</v>
+        <v>3937</v>
       </c>
       <c r="L35" t="n">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="M35" t="n">
-        <v>30380</v>
+        <v>33177</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2020-04-03</t>
+          <t>2020-04-04</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2798</v>
+        <v>1636</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>2798</v>
+        <v>1636</v>
       </c>
       <c r="E36" t="n">
-        <v>513</v>
+        <v>461</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>513</v>
+        <v>461</v>
       </c>
       <c r="H36" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K36" t="n">
-        <v>3937</v>
+        <v>4398</v>
       </c>
       <c r="L36" t="n">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="M36" t="n">
-        <v>33178</v>
+        <v>34813</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2020-04-04</t>
+          <t>2020-04-05</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1636</v>
+        <v>1095</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1636</v>
+        <v>1095</v>
       </c>
       <c r="E37" t="n">
-        <v>461</v>
+        <v>527</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>461</v>
+        <v>527</v>
       </c>
       <c r="H37" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K37" t="n">
-        <v>4398</v>
+        <v>4925</v>
       </c>
       <c r="L37" t="n">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="M37" t="n">
-        <v>34814</v>
+        <v>35908</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2020-04-06</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1095</v>
+        <v>2418</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1095</v>
+        <v>2418</v>
       </c>
       <c r="E38" t="n">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="H38" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K38" t="n">
-        <v>4925</v>
+        <v>5482</v>
       </c>
       <c r="L38" t="n">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>35909</v>
+        <v>38326</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2020-04-06</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2418</v>
+        <v>2774</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>2418</v>
+        <v>2774</v>
       </c>
       <c r="E39" t="n">
-        <v>557</v>
+        <v>422</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>557</v>
+        <v>422</v>
       </c>
       <c r="H39" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K39" t="n">
-        <v>5482</v>
+        <v>5904</v>
       </c>
       <c r="L39" t="n">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>38327</v>
+        <v>41100</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>2020-04-08</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2774</v>
+        <v>3072</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2774</v>
+        <v>3072</v>
       </c>
       <c r="E40" t="n">
         <v>422</v>
@@ -2092,1380 +2092,1380 @@
         <v>422</v>
       </c>
       <c r="H40" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K40" t="n">
-        <v>5904</v>
+        <v>6326</v>
       </c>
       <c r="L40" t="n">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="M40" t="n">
-        <v>41101</v>
+        <v>44172</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2020-04-08</t>
+          <t>2020-04-09</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3072</v>
+        <v>2746</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>3072</v>
+        <v>2746</v>
       </c>
       <c r="E41" t="n">
-        <v>422</v>
+        <v>558</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>422</v>
+        <v>558</v>
       </c>
       <c r="H41" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="K41" t="n">
-        <v>6326</v>
+        <v>6884</v>
       </c>
       <c r="L41" t="n">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="M41" t="n">
-        <v>44173</v>
+        <v>46918</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2020-04-10</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2746</v>
+        <v>2719</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>2745</v>
+        <v>2719</v>
       </c>
       <c r="E42" t="n">
-        <v>558</v>
+        <v>515</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>558</v>
+        <v>515</v>
       </c>
       <c r="H42" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K42" t="n">
-        <v>6884</v>
+        <v>7399</v>
       </c>
       <c r="L42" t="n">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="M42" t="n">
-        <v>46919</v>
+        <v>49637</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-11</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2719</v>
+        <v>1527</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2719</v>
+        <v>1527</v>
       </c>
       <c r="E43" t="n">
-        <v>515</v>
+        <v>486</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>515</v>
+        <v>486</v>
       </c>
       <c r="H43" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K43" t="n">
-        <v>7399</v>
+        <v>7885</v>
       </c>
       <c r="L43" t="n">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="M43" t="n">
-        <v>49638</v>
+        <v>51164</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2020-04-11</t>
+          <t>2020-04-12</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1527</v>
+        <v>698</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1527</v>
+        <v>698</v>
       </c>
       <c r="E44" t="n">
-        <v>486</v>
+        <v>319</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>486</v>
+        <v>319</v>
       </c>
       <c r="H44" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K44" t="n">
-        <v>7885</v>
+        <v>8204</v>
       </c>
       <c r="L44" t="n">
-        <v>417</v>
+        <v>446</v>
       </c>
       <c r="M44" t="n">
-        <v>51165</v>
+        <v>51862</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2020-04-12</t>
+          <t>2020-04-13</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>698</v>
+        <v>3457</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>698</v>
+        <v>3457</v>
       </c>
       <c r="E45" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="H45" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K45" t="n">
-        <v>8204</v>
+        <v>8496</v>
       </c>
       <c r="L45" t="n">
-        <v>446</v>
+        <v>480</v>
       </c>
       <c r="M45" t="n">
-        <v>51863</v>
+        <v>55319</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-14</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3457</v>
+        <v>3598</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>3457</v>
+        <v>3598</v>
       </c>
       <c r="E46" t="n">
-        <v>292</v>
+        <v>417</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>292</v>
+        <v>417</v>
       </c>
       <c r="H46" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="K46" t="n">
-        <v>8496</v>
+        <v>8913</v>
       </c>
       <c r="L46" t="n">
-        <v>480</v>
+        <v>525</v>
       </c>
       <c r="M46" t="n">
-        <v>55320</v>
+        <v>58917</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2020-04-14</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3598</v>
+        <v>3274</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>3598</v>
+        <v>3274</v>
       </c>
       <c r="E47" t="n">
-        <v>417</v>
+        <v>580</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>417</v>
+        <v>580</v>
       </c>
       <c r="H47" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="K47" t="n">
-        <v>8913</v>
+        <v>9493</v>
       </c>
       <c r="L47" t="n">
-        <v>525</v>
+        <v>562</v>
       </c>
       <c r="M47" t="n">
-        <v>58918</v>
+        <v>62191</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2020-04-15</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3274</v>
+        <v>3905</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>3274</v>
+        <v>3905</v>
       </c>
       <c r="E48" t="n">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="H48" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K48" t="n">
-        <v>9493</v>
+        <v>10093</v>
       </c>
       <c r="L48" t="n">
-        <v>562</v>
+        <v>596</v>
       </c>
       <c r="M48" t="n">
-        <v>62192</v>
+        <v>66096</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2020-04-16</t>
+          <t>2020-04-17</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3905</v>
+        <v>4036</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>3905</v>
+        <v>4036</v>
       </c>
       <c r="E49" t="n">
-        <v>600</v>
+        <v>505</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>600</v>
+        <v>505</v>
       </c>
       <c r="H49" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K49" t="n">
-        <v>10093</v>
+        <v>10598</v>
       </c>
       <c r="L49" t="n">
-        <v>596</v>
+        <v>632</v>
       </c>
       <c r="M49" t="n">
-        <v>66097</v>
+        <v>70132</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2020-04-17</t>
+          <t>2020-04-18</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4036</v>
+        <v>1704</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>4036</v>
+        <v>1703</v>
       </c>
       <c r="E50" t="n">
-        <v>505</v>
+        <v>557</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>505</v>
+        <v>557</v>
       </c>
       <c r="H50" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K50" t="n">
-        <v>10598</v>
+        <v>11155</v>
       </c>
       <c r="L50" t="n">
-        <v>632</v>
+        <v>660</v>
       </c>
       <c r="M50" t="n">
-        <v>70133</v>
+        <v>71836</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2020-04-18</t>
+          <t>2020-04-19</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1704</v>
+        <v>1099</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>1704</v>
+        <v>1099</v>
       </c>
       <c r="E51" t="n">
-        <v>557</v>
+        <v>479</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>557</v>
+        <v>479</v>
       </c>
       <c r="H51" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="K51" t="n">
-        <v>11155</v>
+        <v>11634</v>
       </c>
       <c r="L51" t="n">
-        <v>660</v>
+        <v>696</v>
       </c>
       <c r="M51" t="n">
-        <v>71837</v>
+        <v>72935</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2020-04-19</t>
+          <t>2020-04-20</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1099</v>
+        <v>4300</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>1099</v>
+        <v>4300</v>
       </c>
       <c r="E52" t="n">
-        <v>479</v>
+        <v>386</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>479</v>
+        <v>386</v>
       </c>
       <c r="H52" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K52" t="n">
-        <v>11634</v>
+        <v>12020</v>
       </c>
       <c r="L52" t="n">
-        <v>696</v>
+        <v>734</v>
       </c>
       <c r="M52" t="n">
-        <v>72936</v>
+        <v>77235</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2020-04-20</t>
+          <t>2020-04-21</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4300</v>
+        <v>3832</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>4299</v>
+        <v>3829</v>
       </c>
       <c r="E53" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H53" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K53" t="n">
-        <v>12020</v>
+        <v>12399</v>
       </c>
       <c r="L53" t="n">
-        <v>734</v>
+        <v>782</v>
       </c>
       <c r="M53" t="n">
-        <v>77236</v>
+        <v>81067</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2020-04-21</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3829</v>
+        <v>3787</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D54" t="n">
-        <v>3829</v>
+        <v>3743</v>
       </c>
       <c r="E54" t="n">
-        <v>379</v>
+        <v>605</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>379</v>
+        <v>605</v>
       </c>
       <c r="H54" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K54" t="n">
-        <v>12399</v>
+        <v>13004</v>
       </c>
       <c r="L54" t="n">
-        <v>782</v>
+        <v>832</v>
       </c>
       <c r="M54" t="n">
-        <v>81065</v>
+        <v>84854</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2020-04-23</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3740</v>
+        <v>4365</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D55" t="n">
-        <v>3740</v>
+        <v>4325</v>
       </c>
       <c r="E55" t="n">
-        <v>605</v>
+        <v>644</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>605</v>
+        <v>644</v>
       </c>
       <c r="H55" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K55" t="n">
-        <v>13004</v>
+        <v>13648</v>
       </c>
       <c r="L55" t="n">
-        <v>832</v>
+        <v>870</v>
       </c>
       <c r="M55" t="n">
-        <v>84805</v>
+        <v>89219</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2020-04-23</t>
+          <t>2020-04-24</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4321</v>
+        <v>3506</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>4321</v>
+        <v>3506</v>
       </c>
       <c r="E56" t="n">
-        <v>644</v>
+        <v>699</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>644</v>
+        <v>699</v>
       </c>
       <c r="H56" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K56" t="n">
-        <v>13648</v>
+        <v>14347</v>
       </c>
       <c r="L56" t="n">
-        <v>870</v>
+        <v>906</v>
       </c>
       <c r="M56" t="n">
-        <v>89126</v>
+        <v>92725</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2020-04-24</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3507</v>
+        <v>2217</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>3507</v>
+        <v>2217</v>
       </c>
       <c r="E57" t="n">
-        <v>699</v>
+        <v>624</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>699</v>
+        <v>624</v>
       </c>
       <c r="H57" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K57" t="n">
-        <v>14347</v>
+        <v>14971</v>
       </c>
       <c r="L57" t="n">
-        <v>906</v>
+        <v>947</v>
       </c>
       <c r="M57" t="n">
-        <v>92633</v>
+        <v>94942</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2020-04-25</t>
+          <t>2020-04-26</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2219</v>
+        <v>1787</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>2219</v>
+        <v>1787</v>
       </c>
       <c r="E58" t="n">
-        <v>624</v>
+        <v>950</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>624</v>
+        <v>950</v>
       </c>
       <c r="H58" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K58" t="n">
-        <v>14971</v>
+        <v>15921</v>
       </c>
       <c r="L58" t="n">
-        <v>947</v>
+        <v>981</v>
       </c>
       <c r="M58" t="n">
-        <v>94852</v>
+        <v>96729</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2020-04-26</t>
+          <t>2020-04-27</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1787</v>
+        <v>4516</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>1787</v>
+        <v>4516</v>
       </c>
       <c r="E59" t="n">
-        <v>950</v>
+        <v>621</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>950</v>
+        <v>621</v>
       </c>
       <c r="H59" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K59" t="n">
-        <v>15921</v>
+        <v>16542</v>
       </c>
       <c r="L59" t="n">
-        <v>981</v>
+        <v>1023</v>
       </c>
       <c r="M59" t="n">
-        <v>96639</v>
+        <v>101245</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2020-04-27</t>
+          <t>2020-04-28</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4516</v>
+        <v>4873</v>
       </c>
       <c r="C60" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>4474</v>
+        <v>4873</v>
       </c>
       <c r="E60" t="n">
-        <v>621</v>
+        <v>595</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>621</v>
+        <v>595</v>
       </c>
       <c r="H60" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K60" t="n">
-        <v>16542</v>
+        <v>17137</v>
       </c>
       <c r="L60" t="n">
-        <v>1023</v>
+        <v>1057</v>
       </c>
       <c r="M60" t="n">
-        <v>101155</v>
+        <v>106118</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2020-04-28</t>
+          <t>2020-04-29</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4874</v>
+        <v>5086</v>
       </c>
       <c r="C61" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>4859</v>
+        <v>5086</v>
       </c>
       <c r="E61" t="n">
-        <v>595</v>
+        <v>653</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>595</v>
+        <v>653</v>
       </c>
       <c r="H61" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K61" t="n">
-        <v>17137</v>
+        <v>17790</v>
       </c>
       <c r="L61" t="n">
-        <v>1057</v>
+        <v>1097</v>
       </c>
       <c r="M61" t="n">
-        <v>106029</v>
+        <v>111204</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2020-04-29</t>
+          <t>2020-04-30</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5085</v>
+        <v>5006</v>
       </c>
       <c r="C62" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>5068</v>
+        <v>5006</v>
       </c>
       <c r="E62" t="n">
-        <v>653</v>
+        <v>795</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>653</v>
+        <v>795</v>
       </c>
       <c r="H62" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K62" t="n">
-        <v>17790</v>
+        <v>18585</v>
       </c>
       <c r="L62" t="n">
-        <v>1097</v>
+        <v>1142</v>
       </c>
       <c r="M62" t="n">
-        <v>111114</v>
+        <v>116210</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2020-04-30</t>
+          <t>2020-05-01</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5006</v>
+        <v>5801</v>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>5002</v>
+        <v>5800</v>
       </c>
       <c r="E63" t="n">
-        <v>795</v>
+        <v>652</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>795</v>
+        <v>652</v>
       </c>
       <c r="H63" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K63" t="n">
-        <v>18585</v>
+        <v>19237</v>
       </c>
       <c r="L63" t="n">
-        <v>1142</v>
+        <v>1175</v>
       </c>
       <c r="M63" t="n">
-        <v>116120</v>
+        <v>122011</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2020-05-01</t>
+          <t>2020-05-02</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>5801</v>
+        <v>2856</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>5800</v>
+        <v>2856</v>
       </c>
       <c r="E64" t="n">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="H64" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K64" t="n">
-        <v>19237</v>
+        <v>19873</v>
       </c>
       <c r="L64" t="n">
-        <v>1175</v>
+        <v>1217</v>
       </c>
       <c r="M64" t="n">
-        <v>121921</v>
+        <v>124867</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2020-05-02</t>
+          <t>2020-05-03</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2856</v>
+        <v>1660</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>2856</v>
+        <v>1660</v>
       </c>
       <c r="E65" t="n">
-        <v>636</v>
+        <v>570</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>636</v>
+        <v>570</v>
       </c>
       <c r="H65" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K65" t="n">
-        <v>19873</v>
+        <v>20443</v>
       </c>
       <c r="L65" t="n">
-        <v>1217</v>
+        <v>1249</v>
       </c>
       <c r="M65" t="n">
-        <v>124777</v>
+        <v>126527</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2020-05-03</t>
+          <t>2020-05-04</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1659</v>
+        <v>5279</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>1659</v>
+        <v>5279</v>
       </c>
       <c r="E66" t="n">
-        <v>570</v>
+        <v>525</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>570</v>
+        <v>525</v>
       </c>
       <c r="H66" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K66" t="n">
-        <v>20443</v>
+        <v>20968</v>
       </c>
       <c r="L66" t="n">
-        <v>1249</v>
+        <v>1285</v>
       </c>
       <c r="M66" t="n">
-        <v>126436</v>
+        <v>131806</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2020-05-04</t>
+          <t>2020-05-05</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5280</v>
+        <v>5904</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>5280</v>
+        <v>5904</v>
       </c>
       <c r="E67" t="n">
-        <v>525</v>
+        <v>838</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>525</v>
+        <v>838</v>
       </c>
       <c r="H67" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K67" t="n">
-        <v>20968</v>
+        <v>21806</v>
       </c>
       <c r="L67" t="n">
-        <v>1285</v>
+        <v>1322</v>
       </c>
       <c r="M67" t="n">
-        <v>131716</v>
+        <v>137710</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2020-05-05</t>
+          <t>2020-05-06</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5904</v>
+        <v>5584</v>
       </c>
       <c r="C68" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>5896</v>
+        <v>5584</v>
       </c>
       <c r="E68" t="n">
-        <v>838</v>
+        <v>624</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>838</v>
+        <v>624</v>
       </c>
       <c r="H68" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K68" t="n">
-        <v>21806</v>
+        <v>22430</v>
       </c>
       <c r="L68" t="n">
-        <v>1322</v>
+        <v>1365</v>
       </c>
       <c r="M68" t="n">
-        <v>137620</v>
+        <v>143294</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2020-05-06</t>
+          <t>2020-05-07</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>5585</v>
+        <v>5909</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D69" t="n">
-        <v>5585</v>
+        <v>5899</v>
       </c>
       <c r="E69" t="n">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="H69" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K69" t="n">
-        <v>22430</v>
+        <v>23071</v>
       </c>
       <c r="L69" t="n">
-        <v>1365</v>
+        <v>1399</v>
       </c>
       <c r="M69" t="n">
-        <v>143205</v>
+        <v>149203</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2020-05-07</t>
+          <t>2020-05-08</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>5899</v>
+        <v>6036</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>5899</v>
+        <v>6036</v>
       </c>
       <c r="E70" t="n">
-        <v>642</v>
+        <v>591</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>642</v>
+        <v>591</v>
       </c>
       <c r="H70" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K70" t="n">
-        <v>23072</v>
+        <v>23662</v>
       </c>
       <c r="L70" t="n">
-        <v>1399</v>
+        <v>1422</v>
       </c>
       <c r="M70" t="n">
-        <v>149104</v>
+        <v>155239</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2020-05-08</t>
+          <t>2020-05-09</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>6036</v>
+        <v>3177</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>6035</v>
+        <v>3176</v>
       </c>
       <c r="E71" t="n">
-        <v>591</v>
+        <v>388</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>591</v>
+        <v>388</v>
       </c>
       <c r="H71" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K71" t="n">
-        <v>23663</v>
+        <v>24050</v>
       </c>
       <c r="L71" t="n">
-        <v>1422</v>
+        <v>1454</v>
       </c>
       <c r="M71" t="n">
-        <v>155140</v>
+        <v>158416</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2020-05-09</t>
+          <t>2020-05-10</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>3176</v>
+        <v>1259</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>3176</v>
+        <v>1259</v>
       </c>
       <c r="E72" t="n">
-        <v>388</v>
+        <v>464</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>388</v>
+        <v>464</v>
       </c>
       <c r="H72" t="n">
         <v>32</v>
@@ -3477,615 +3477,615 @@
         <v>32</v>
       </c>
       <c r="K72" t="n">
-        <v>24051</v>
+        <v>24514</v>
       </c>
       <c r="L72" t="n">
-        <v>1454</v>
+        <v>1486</v>
       </c>
       <c r="M72" t="n">
-        <v>158316</v>
+        <v>159675</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2020-05-10</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1259</v>
+        <v>6619</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>1259</v>
+        <v>6619</v>
       </c>
       <c r="E73" t="n">
-        <v>464</v>
+        <v>519</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>464</v>
+        <v>519</v>
       </c>
       <c r="H73" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K73" t="n">
-        <v>24515</v>
+        <v>25033</v>
       </c>
       <c r="L73" t="n">
-        <v>1486</v>
+        <v>1524</v>
       </c>
       <c r="M73" t="n">
-        <v>159575</v>
+        <v>166294</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2020-05-12</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6620</v>
+        <v>6013</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>6619</v>
+        <v>6012</v>
       </c>
       <c r="E74" t="n">
-        <v>519</v>
+        <v>376</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>519</v>
+        <v>376</v>
       </c>
       <c r="H74" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K74" t="n">
-        <v>25034</v>
+        <v>25409</v>
       </c>
       <c r="L74" t="n">
-        <v>1524</v>
+        <v>1561</v>
       </c>
       <c r="M74" t="n">
-        <v>166195</v>
+        <v>172307</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2020-05-12</t>
+          <t>2020-05-13</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>6013</v>
+        <v>6358</v>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>6008</v>
+        <v>6357</v>
       </c>
       <c r="E75" t="n">
-        <v>376</v>
+        <v>606</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>376</v>
+        <v>606</v>
       </c>
       <c r="H75" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="K75" t="n">
-        <v>25410</v>
+        <v>26015</v>
       </c>
       <c r="L75" t="n">
-        <v>1561</v>
+        <v>1586</v>
       </c>
       <c r="M75" t="n">
-        <v>172208</v>
+        <v>178665</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2020-05-13</t>
+          <t>2020-05-14</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>6358</v>
+        <v>7303</v>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>6354</v>
+        <v>7298</v>
       </c>
       <c r="E76" t="n">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="H76" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="K76" t="n">
-        <v>26016</v>
+        <v>26603</v>
       </c>
       <c r="L76" t="n">
-        <v>1586</v>
+        <v>1627</v>
       </c>
       <c r="M76" t="n">
-        <v>178566</v>
+        <v>185968</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2020-05-14</t>
+          <t>2020-05-15</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>7298</v>
+        <v>8707</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>7298</v>
+        <v>8707</v>
       </c>
       <c r="E77" t="n">
-        <v>588</v>
+        <v>641</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>588</v>
+        <v>641</v>
       </c>
       <c r="H77" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K77" t="n">
-        <v>26604</v>
+        <v>27244</v>
       </c>
       <c r="L77" t="n">
-        <v>1627</v>
+        <v>1658</v>
       </c>
       <c r="M77" t="n">
-        <v>185864</v>
+        <v>194675</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2020-05-15</t>
+          <t>2020-05-16</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>8707</v>
+        <v>2820</v>
       </c>
       <c r="C78" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>8696</v>
+        <v>2818</v>
       </c>
       <c r="E78" t="n">
-        <v>641</v>
+        <v>496</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>641</v>
+        <v>496</v>
       </c>
       <c r="H78" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K78" t="n">
-        <v>27245</v>
+        <v>27740</v>
       </c>
       <c r="L78" t="n">
-        <v>1658</v>
+        <v>1682</v>
       </c>
       <c r="M78" t="n">
-        <v>194571</v>
+        <v>197495</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2020-05-16</t>
+          <t>2020-05-17</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2818</v>
+        <v>1805</v>
       </c>
       <c r="C79" t="n">
         <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>2815</v>
+        <v>1802</v>
       </c>
       <c r="E79" t="n">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="H79" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K79" t="n">
-        <v>27741</v>
+        <v>28225</v>
       </c>
       <c r="L79" t="n">
-        <v>1682</v>
+        <v>1705</v>
       </c>
       <c r="M79" t="n">
-        <v>197389</v>
+        <v>199300</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2020-05-17</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1802</v>
+        <v>7814</v>
       </c>
       <c r="C80" t="n">
-        <v>18</v>
+        <v>328</v>
       </c>
       <c r="D80" t="n">
-        <v>1784</v>
+        <v>7486</v>
       </c>
       <c r="E80" t="n">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="H80" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K80" t="n">
-        <v>28226</v>
+        <v>28687</v>
       </c>
       <c r="L80" t="n">
-        <v>1705</v>
+        <v>1738</v>
       </c>
       <c r="M80" t="n">
-        <v>199191</v>
+        <v>207114</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>7489</v>
+        <v>6276</v>
       </c>
       <c r="C81" t="n">
-        <v>289</v>
+        <v>737</v>
       </c>
       <c r="D81" t="n">
-        <v>7200</v>
+        <v>5539</v>
       </c>
       <c r="E81" t="n">
-        <v>462</v>
+        <v>569</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>462</v>
+        <v>568</v>
       </c>
       <c r="H81" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K81" t="n">
-        <v>28688</v>
+        <v>29256</v>
       </c>
       <c r="L81" t="n">
-        <v>1738</v>
+        <v>1766</v>
       </c>
       <c r="M81" t="n">
-        <v>206680</v>
+        <v>213390</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2020-05-19</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>5547</v>
+        <v>5285</v>
       </c>
       <c r="C82" t="n">
-        <v>767</v>
+        <v>921</v>
       </c>
       <c r="D82" t="n">
-        <v>4780</v>
+        <v>4364</v>
       </c>
       <c r="E82" t="n">
-        <v>569</v>
+        <v>658</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>569</v>
+        <v>658</v>
       </c>
       <c r="H82" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K82" t="n">
-        <v>29257</v>
+        <v>29914</v>
       </c>
       <c r="L82" t="n">
-        <v>1766</v>
+        <v>1786</v>
       </c>
       <c r="M82" t="n">
-        <v>212227</v>
+        <v>218675</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>2020-05-21</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4376</v>
+        <v>4345</v>
       </c>
       <c r="C83" t="n">
-        <v>1478</v>
+        <v>1194</v>
       </c>
       <c r="D83" t="n">
-        <v>2898</v>
+        <v>3151</v>
       </c>
       <c r="E83" t="n">
-        <v>659</v>
+        <v>471</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>659</v>
+        <v>471</v>
       </c>
       <c r="H83" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="K83" t="n">
-        <v>29916</v>
+        <v>30385</v>
       </c>
       <c r="L83" t="n">
-        <v>1786</v>
+        <v>1817</v>
       </c>
       <c r="M83" t="n">
-        <v>216603</v>
+        <v>223020</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2020-05-21</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>3164</v>
+        <v>2925</v>
       </c>
       <c r="C84" t="n">
-        <v>2327</v>
+        <v>1955</v>
       </c>
       <c r="D84" t="n">
-        <v>837</v>
+        <v>970</v>
       </c>
       <c r="E84" t="n">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="H84" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="I84" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="K84" t="n">
-        <v>30388</v>
+        <v>30885</v>
       </c>
       <c r="L84" t="n">
-        <v>1817</v>
+        <v>1821</v>
       </c>
       <c r="M84" t="n">
-        <v>219767</v>
+        <v>225945</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2020-05-23</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>978</v>
+        <v>241</v>
       </c>
       <c r="C85" t="n">
-        <v>849</v>
+        <v>186</v>
       </c>
       <c r="D85" t="n">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="E85" t="n">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G85" t="n">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="H85" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K85" t="n">
-        <v>30890</v>
+        <v>31365</v>
       </c>
       <c r="L85" t="n">
-        <v>1821</v>
+        <v>1830</v>
       </c>
       <c r="M85" t="n">
-        <v>220745</v>
+        <v>226186</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C86" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>486</v>
+        <v>350</v>
       </c>
       <c r="F86" t="n">
-        <v>486</v>
+        <v>350</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>31376</v>
+        <v>31715</v>
       </c>
       <c r="L86" t="n">
-        <v>1824</v>
+        <v>1832</v>
       </c>
       <c r="M86" t="n">
-        <v>220801</v>
+        <v>226251</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M86"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1558,10 +1558,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>2161</v>
@@ -1591,7 +1591,7 @@
         <v>47</v>
       </c>
       <c r="M28" t="n">
-        <v>17969</v>
+        <v>17970</v>
       </c>
     </row>
     <row r="29">
@@ -1634,7 +1634,7 @@
         <v>58</v>
       </c>
       <c r="M29" t="n">
-        <v>19239</v>
+        <v>19240</v>
       </c>
     </row>
     <row r="30">
@@ -1677,7 +1677,7 @@
         <v>76</v>
       </c>
       <c r="M30" t="n">
-        <v>20871</v>
+        <v>20872</v>
       </c>
     </row>
     <row r="31">
@@ -1720,7 +1720,7 @@
         <v>91</v>
       </c>
       <c r="M31" t="n">
-        <v>22831</v>
+        <v>22832</v>
       </c>
     </row>
     <row r="32">
@@ -1763,7 +1763,7 @@
         <v>113</v>
       </c>
       <c r="M32" t="n">
-        <v>25147</v>
+        <v>25148</v>
       </c>
     </row>
     <row r="33">
@@ -1806,7 +1806,7 @@
         <v>135</v>
       </c>
       <c r="M33" t="n">
-        <v>27684</v>
+        <v>27685</v>
       </c>
     </row>
     <row r="34">
@@ -1849,7 +1849,7 @@
         <v>157</v>
       </c>
       <c r="M34" t="n">
-        <v>30379</v>
+        <v>30380</v>
       </c>
     </row>
     <row r="35">
@@ -1892,7 +1892,7 @@
         <v>189</v>
       </c>
       <c r="M35" t="n">
-        <v>33177</v>
+        <v>33178</v>
       </c>
     </row>
     <row r="36">
@@ -1935,7 +1935,7 @@
         <v>214</v>
       </c>
       <c r="M36" t="n">
-        <v>34813</v>
+        <v>34814</v>
       </c>
     </row>
     <row r="37">
@@ -1978,7 +1978,7 @@
         <v>248</v>
       </c>
       <c r="M37" t="n">
-        <v>35908</v>
+        <v>35909</v>
       </c>
     </row>
     <row r="38">
@@ -2021,7 +2021,7 @@
         <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>38326</v>
+        <v>38327</v>
       </c>
     </row>
     <row r="39">
@@ -2064,7 +2064,7 @@
         <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>41100</v>
+        <v>41101</v>
       </c>
     </row>
     <row r="40">
@@ -2107,7 +2107,7 @@
         <v>337</v>
       </c>
       <c r="M40" t="n">
-        <v>44172</v>
+        <v>44173</v>
       </c>
     </row>
     <row r="41">
@@ -2150,7 +2150,7 @@
         <v>372</v>
       </c>
       <c r="M41" t="n">
-        <v>46918</v>
+        <v>46919</v>
       </c>
     </row>
     <row r="42">
@@ -2193,7 +2193,7 @@
         <v>397</v>
       </c>
       <c r="M42" t="n">
-        <v>49637</v>
+        <v>49638</v>
       </c>
     </row>
     <row r="43">
@@ -2236,7 +2236,7 @@
         <v>417</v>
       </c>
       <c r="M43" t="n">
-        <v>51164</v>
+        <v>51165</v>
       </c>
     </row>
     <row r="44">
@@ -2279,7 +2279,7 @@
         <v>446</v>
       </c>
       <c r="M44" t="n">
-        <v>51862</v>
+        <v>51863</v>
       </c>
     </row>
     <row r="45">
@@ -2322,7 +2322,7 @@
         <v>480</v>
       </c>
       <c r="M45" t="n">
-        <v>55319</v>
+        <v>55320</v>
       </c>
     </row>
     <row r="46">
@@ -2365,7 +2365,7 @@
         <v>525</v>
       </c>
       <c r="M46" t="n">
-        <v>58917</v>
+        <v>58918</v>
       </c>
     </row>
     <row r="47">
@@ -2408,7 +2408,7 @@
         <v>562</v>
       </c>
       <c r="M47" t="n">
-        <v>62191</v>
+        <v>62192</v>
       </c>
     </row>
     <row r="48">
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
         <v>3905</v>
@@ -2451,7 +2451,7 @@
         <v>596</v>
       </c>
       <c r="M48" t="n">
-        <v>66096</v>
+        <v>66098</v>
       </c>
     </row>
     <row r="49">
@@ -2494,7 +2494,7 @@
         <v>632</v>
       </c>
       <c r="M49" t="n">
-        <v>70132</v>
+        <v>70134</v>
       </c>
     </row>
     <row r="50">
@@ -2507,10 +2507,10 @@
         <v>1704</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="E50" t="n">
         <v>557</v>
@@ -2537,7 +2537,7 @@
         <v>660</v>
       </c>
       <c r="M50" t="n">
-        <v>71836</v>
+        <v>71838</v>
       </c>
     </row>
     <row r="51">
@@ -2580,7 +2580,7 @@
         <v>696</v>
       </c>
       <c r="M51" t="n">
-        <v>72935</v>
+        <v>72937</v>
       </c>
     </row>
     <row r="52">
@@ -2623,7 +2623,7 @@
         <v>734</v>
       </c>
       <c r="M52" t="n">
-        <v>77235</v>
+        <v>77237</v>
       </c>
     </row>
     <row r="53">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3832</v>
+        <v>3833</v>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>3829</v>
+        <v>3833</v>
       </c>
       <c r="E53" t="n">
         <v>379</v>
@@ -2666,7 +2666,7 @@
         <v>782</v>
       </c>
       <c r="M53" t="n">
-        <v>81067</v>
+        <v>81070</v>
       </c>
     </row>
     <row r="54">
@@ -2676,13 +2676,13 @@
         </is>
       </c>
       <c r="B54" t="n">
+        <v>3796</v>
+      </c>
+      <c r="C54" t="n">
+        <v>9</v>
+      </c>
+      <c r="D54" t="n">
         <v>3787</v>
-      </c>
-      <c r="C54" t="n">
-        <v>44</v>
-      </c>
-      <c r="D54" t="n">
-        <v>3743</v>
       </c>
       <c r="E54" t="n">
         <v>605</v>
@@ -2709,7 +2709,7 @@
         <v>832</v>
       </c>
       <c r="M54" t="n">
-        <v>84854</v>
+        <v>84866</v>
       </c>
     </row>
     <row r="55">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="B55" t="n">
+        <v>4367</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
         <v>4365</v>
-      </c>
-      <c r="C55" t="n">
-        <v>40</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4325</v>
       </c>
       <c r="E55" t="n">
         <v>644</v>
@@ -2752,7 +2752,7 @@
         <v>870</v>
       </c>
       <c r="M55" t="n">
-        <v>89219</v>
+        <v>89233</v>
       </c>
     </row>
     <row r="56">
@@ -2762,13 +2762,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="E56" t="n">
         <v>699</v>
@@ -2795,7 +2795,7 @@
         <v>906</v>
       </c>
       <c r="M56" t="n">
-        <v>92725</v>
+        <v>92738</v>
       </c>
     </row>
     <row r="57">
@@ -2838,7 +2838,7 @@
         <v>947</v>
       </c>
       <c r="M57" t="n">
-        <v>94942</v>
+        <v>94955</v>
       </c>
     </row>
     <row r="58">
@@ -2881,7 +2881,7 @@
         <v>981</v>
       </c>
       <c r="M58" t="n">
-        <v>96729</v>
+        <v>96742</v>
       </c>
     </row>
     <row r="59">
@@ -2924,7 +2924,7 @@
         <v>1023</v>
       </c>
       <c r="M59" t="n">
-        <v>101245</v>
+        <v>101258</v>
       </c>
     </row>
     <row r="60">
@@ -2967,7 +2967,7 @@
         <v>1057</v>
       </c>
       <c r="M60" t="n">
-        <v>106118</v>
+        <v>106131</v>
       </c>
     </row>
     <row r="61">
@@ -2977,13 +2977,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>5086</v>
+        <v>5085</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>5086</v>
+        <v>5085</v>
       </c>
       <c r="E61" t="n">
         <v>653</v>
@@ -3010,7 +3010,7 @@
         <v>1097</v>
       </c>
       <c r="M61" t="n">
-        <v>111204</v>
+        <v>111216</v>
       </c>
     </row>
     <row r="62">
@@ -3020,10 +3020,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5006</v>
+        <v>5007</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>5006</v>
@@ -3053,7 +3053,7 @@
         <v>1142</v>
       </c>
       <c r="M62" t="n">
-        <v>116210</v>
+        <v>116223</v>
       </c>
     </row>
     <row r="63">
@@ -3063,13 +3063,13 @@
         </is>
       </c>
       <c r="B63" t="n">
+        <v>5805</v>
+      </c>
+      <c r="C63" t="n">
+        <v>4</v>
+      </c>
+      <c r="D63" t="n">
         <v>5801</v>
-      </c>
-      <c r="C63" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" t="n">
-        <v>5800</v>
       </c>
       <c r="E63" t="n">
         <v>652</v>
@@ -3096,7 +3096,7 @@
         <v>1175</v>
       </c>
       <c r="M63" t="n">
-        <v>122011</v>
+        <v>122028</v>
       </c>
     </row>
     <row r="64">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2856</v>
+        <v>2858</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>2856</v>
@@ -3139,7 +3139,7 @@
         <v>1217</v>
       </c>
       <c r="M64" t="n">
-        <v>124867</v>
+        <v>124886</v>
       </c>
     </row>
     <row r="65">
@@ -3149,10 +3149,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>1660</v>
@@ -3182,7 +3182,7 @@
         <v>1249</v>
       </c>
       <c r="M65" t="n">
-        <v>126527</v>
+        <v>126548</v>
       </c>
     </row>
     <row r="66">
@@ -3225,7 +3225,7 @@
         <v>1285</v>
       </c>
       <c r="M66" t="n">
-        <v>131806</v>
+        <v>131827</v>
       </c>
     </row>
     <row r="67">
@@ -3235,10 +3235,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5904</v>
+        <v>5909</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>5904</v>
@@ -3268,7 +3268,7 @@
         <v>1322</v>
       </c>
       <c r="M67" t="n">
-        <v>137710</v>
+        <v>137736</v>
       </c>
     </row>
     <row r="68">
@@ -3278,13 +3278,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5584</v>
+        <v>5585</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>5584</v>
+        <v>5585</v>
       </c>
       <c r="E68" t="n">
         <v>624</v>
@@ -3311,7 +3311,7 @@
         <v>1365</v>
       </c>
       <c r="M68" t="n">
-        <v>143294</v>
+        <v>143321</v>
       </c>
     </row>
     <row r="69">
@@ -3321,13 +3321,13 @@
         </is>
       </c>
       <c r="B69" t="n">
+        <v>5926</v>
+      </c>
+      <c r="C69" t="n">
+        <v>17</v>
+      </c>
+      <c r="D69" t="n">
         <v>5909</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10</v>
-      </c>
-      <c r="D69" t="n">
-        <v>5899</v>
       </c>
       <c r="E69" t="n">
         <v>641</v>
@@ -3354,7 +3354,7 @@
         <v>1399</v>
       </c>
       <c r="M69" t="n">
-        <v>149203</v>
+        <v>149247</v>
       </c>
     </row>
     <row r="70">
@@ -3364,22 +3364,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6036</v>
+        <v>6037</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
         <v>6036</v>
       </c>
       <c r="E70" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H70" t="n">
         <v>23</v>
@@ -3391,13 +3391,13 @@
         <v>23</v>
       </c>
       <c r="K70" t="n">
-        <v>23662</v>
+        <v>23663</v>
       </c>
       <c r="L70" t="n">
         <v>1422</v>
       </c>
       <c r="M70" t="n">
-        <v>155239</v>
+        <v>155284</v>
       </c>
     </row>
     <row r="71">
@@ -3434,13 +3434,13 @@
         <v>32</v>
       </c>
       <c r="K71" t="n">
-        <v>24050</v>
+        <v>24051</v>
       </c>
       <c r="L71" t="n">
         <v>1454</v>
       </c>
       <c r="M71" t="n">
-        <v>158416</v>
+        <v>158461</v>
       </c>
     </row>
     <row r="72">
@@ -3462,10 +3462,10 @@
         <v>464</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H72" t="n">
         <v>32</v>
@@ -3477,13 +3477,13 @@
         <v>32</v>
       </c>
       <c r="K72" t="n">
-        <v>24514</v>
+        <v>24515</v>
       </c>
       <c r="L72" t="n">
         <v>1486</v>
       </c>
       <c r="M72" t="n">
-        <v>159675</v>
+        <v>159720</v>
       </c>
     </row>
     <row r="73">
@@ -3493,10 +3493,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6619</v>
+        <v>6620</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
         <v>6619</v>
@@ -3520,13 +3520,13 @@
         <v>38</v>
       </c>
       <c r="K73" t="n">
-        <v>25033</v>
+        <v>25034</v>
       </c>
       <c r="L73" t="n">
         <v>1524</v>
       </c>
       <c r="M73" t="n">
-        <v>166294</v>
+        <v>166340</v>
       </c>
     </row>
     <row r="74">
@@ -3536,13 +3536,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6013</v>
+        <v>6014</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>6012</v>
+        <v>6013</v>
       </c>
       <c r="E74" t="n">
         <v>376</v>
@@ -3563,13 +3563,13 @@
         <v>37</v>
       </c>
       <c r="K74" t="n">
-        <v>25409</v>
+        <v>25410</v>
       </c>
       <c r="L74" t="n">
         <v>1561</v>
       </c>
       <c r="M74" t="n">
-        <v>172307</v>
+        <v>172354</v>
       </c>
     </row>
     <row r="75">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B75" t="n">
+        <v>6360</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" t="n">
         <v>6358</v>
-      </c>
-      <c r="C75" t="n">
-        <v>1</v>
-      </c>
-      <c r="D75" t="n">
-        <v>6357</v>
       </c>
       <c r="E75" t="n">
         <v>606</v>
@@ -3606,13 +3606,13 @@
         <v>25</v>
       </c>
       <c r="K75" t="n">
-        <v>26015</v>
+        <v>26016</v>
       </c>
       <c r="L75" t="n">
         <v>1586</v>
       </c>
       <c r="M75" t="n">
-        <v>178665</v>
+        <v>178714</v>
       </c>
     </row>
     <row r="76">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="B76" t="n">
+        <v>7304</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
         <v>7303</v>
-      </c>
-      <c r="C76" t="n">
-        <v>5</v>
-      </c>
-      <c r="D76" t="n">
-        <v>7298</v>
       </c>
       <c r="E76" t="n">
         <v>588</v>
@@ -3649,13 +3649,13 @@
         <v>41</v>
       </c>
       <c r="K76" t="n">
-        <v>26603</v>
+        <v>26604</v>
       </c>
       <c r="L76" t="n">
         <v>1627</v>
       </c>
       <c r="M76" t="n">
-        <v>185968</v>
+        <v>186018</v>
       </c>
     </row>
     <row r="77">
@@ -3665,10 +3665,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>8707</v>
+        <v>8730</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D77" t="n">
         <v>8707</v>
@@ -3692,13 +3692,13 @@
         <v>31</v>
       </c>
       <c r="K77" t="n">
-        <v>27244</v>
+        <v>27245</v>
       </c>
       <c r="L77" t="n">
         <v>1658</v>
       </c>
       <c r="M77" t="n">
-        <v>194675</v>
+        <v>194748</v>
       </c>
     </row>
     <row r="78">
@@ -3708,13 +3708,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2820</v>
+        <v>2828</v>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D78" t="n">
-        <v>2818</v>
+        <v>2819</v>
       </c>
       <c r="E78" t="n">
         <v>496</v>
@@ -3735,13 +3735,13 @@
         <v>24</v>
       </c>
       <c r="K78" t="n">
-        <v>27740</v>
+        <v>27741</v>
       </c>
       <c r="L78" t="n">
         <v>1682</v>
       </c>
       <c r="M78" t="n">
-        <v>197495</v>
+        <v>197576</v>
       </c>
     </row>
     <row r="79">
@@ -3751,13 +3751,13 @@
         </is>
       </c>
       <c r="B79" t="n">
+        <v>1807</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2</v>
+      </c>
+      <c r="D79" t="n">
         <v>1805</v>
-      </c>
-      <c r="C79" t="n">
-        <v>3</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1802</v>
       </c>
       <c r="E79" t="n">
         <v>485</v>
@@ -3778,13 +3778,13 @@
         <v>23</v>
       </c>
       <c r="K79" t="n">
-        <v>28225</v>
+        <v>28226</v>
       </c>
       <c r="L79" t="n">
         <v>1705</v>
       </c>
       <c r="M79" t="n">
-        <v>199300</v>
+        <v>199383</v>
       </c>
     </row>
     <row r="80">
@@ -3794,13 +3794,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>7814</v>
+        <v>7830</v>
       </c>
       <c r="C80" t="n">
-        <v>328</v>
+        <v>19</v>
       </c>
       <c r="D80" t="n">
-        <v>7486</v>
+        <v>7811</v>
       </c>
       <c r="E80" t="n">
         <v>462</v>
@@ -3821,13 +3821,13 @@
         <v>33</v>
       </c>
       <c r="K80" t="n">
-        <v>28687</v>
+        <v>28688</v>
       </c>
       <c r="L80" t="n">
         <v>1738</v>
       </c>
       <c r="M80" t="n">
-        <v>207114</v>
+        <v>207213</v>
       </c>
     </row>
     <row r="81">
@@ -3837,22 +3837,22 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6276</v>
+        <v>6290</v>
       </c>
       <c r="C81" t="n">
-        <v>737</v>
+        <v>24</v>
       </c>
       <c r="D81" t="n">
-        <v>5539</v>
+        <v>6266</v>
       </c>
       <c r="E81" t="n">
         <v>569</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H81" t="n">
         <v>28</v>
@@ -3864,13 +3864,13 @@
         <v>28</v>
       </c>
       <c r="K81" t="n">
-        <v>29256</v>
+        <v>29257</v>
       </c>
       <c r="L81" t="n">
         <v>1766</v>
       </c>
       <c r="M81" t="n">
-        <v>213390</v>
+        <v>213503</v>
       </c>
     </row>
     <row r="82">
@@ -3880,13 +3880,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>5285</v>
+        <v>5683</v>
       </c>
       <c r="C82" t="n">
-        <v>921</v>
+        <v>410</v>
       </c>
       <c r="D82" t="n">
-        <v>4364</v>
+        <v>5273</v>
       </c>
       <c r="E82" t="n">
         <v>658</v>
@@ -3907,13 +3907,13 @@
         <v>20</v>
       </c>
       <c r="K82" t="n">
-        <v>29914</v>
+        <v>29915</v>
       </c>
       <c r="L82" t="n">
         <v>1786</v>
       </c>
       <c r="M82" t="n">
-        <v>218675</v>
+        <v>219186</v>
       </c>
     </row>
     <row r="83">
@@ -3923,13 +3923,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4345</v>
+        <v>5396</v>
       </c>
       <c r="C83" t="n">
-        <v>1194</v>
+        <v>1057</v>
       </c>
       <c r="D83" t="n">
-        <v>3151</v>
+        <v>4339</v>
       </c>
       <c r="E83" t="n">
         <v>471</v>
@@ -3950,13 +3950,13 @@
         <v>31</v>
       </c>
       <c r="K83" t="n">
-        <v>30385</v>
+        <v>30386</v>
       </c>
       <c r="L83" t="n">
         <v>1817</v>
       </c>
       <c r="M83" t="n">
-        <v>223020</v>
+        <v>224582</v>
       </c>
     </row>
     <row r="84">
@@ -3966,40 +3966,40 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2925</v>
+        <v>4364</v>
       </c>
       <c r="C84" t="n">
-        <v>1955</v>
+        <v>1455</v>
       </c>
       <c r="D84" t="n">
-        <v>970</v>
+        <v>2909</v>
       </c>
       <c r="E84" t="n">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H84" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
         <v>4</v>
       </c>
       <c r="K84" t="n">
-        <v>30885</v>
+        <v>30883</v>
       </c>
       <c r="L84" t="n">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="M84" t="n">
-        <v>225945</v>
+        <v>228946</v>
       </c>
     </row>
     <row r="85">
@@ -4009,40 +4009,40 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>241</v>
+        <v>1365</v>
       </c>
       <c r="C85" t="n">
-        <v>186</v>
+        <v>1128</v>
       </c>
       <c r="D85" t="n">
-        <v>55</v>
+        <v>237</v>
       </c>
       <c r="E85" t="n">
         <v>480</v>
       </c>
       <c r="F85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="H85" t="n">
+        <v>13</v>
+      </c>
+      <c r="I85" t="n">
+        <v>4</v>
+      </c>
+      <c r="J85" t="n">
         <v>9</v>
       </c>
-      <c r="I85" t="n">
-        <v>6</v>
-      </c>
-      <c r="J85" t="n">
-        <v>3</v>
-      </c>
       <c r="K85" t="n">
-        <v>31365</v>
+        <v>31363</v>
       </c>
       <c r="L85" t="n">
-        <v>1830</v>
+        <v>1836</v>
       </c>
       <c r="M85" t="n">
-        <v>226186</v>
+        <v>230311</v>
       </c>
     </row>
     <row r="86">
@@ -4052,40 +4052,83 @@
         </is>
       </c>
       <c r="B86" t="n">
+        <v>369</v>
+      </c>
+      <c r="C86" t="n">
+        <v>304</v>
+      </c>
+      <c r="D86" t="n">
         <v>65</v>
       </c>
-      <c r="C86" t="n">
-        <v>65</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
       <c r="E86" t="n">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F86" t="n">
-        <v>350</v>
+        <v>4</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="H86" t="n">
+        <v>5</v>
+      </c>
+      <c r="I86" t="n">
+        <v>3</v>
+      </c>
+      <c r="J86" t="n">
         <v>2</v>
       </c>
-      <c r="I86" t="n">
-        <v>2</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
       <c r="K86" t="n">
-        <v>31715</v>
+        <v>31710</v>
       </c>
       <c r="L86" t="n">
-        <v>1832</v>
+        <v>1841</v>
       </c>
       <c r="M86" t="n">
-        <v>226251</v>
+        <v>230680</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2020-05-25</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>69</v>
+      </c>
+      <c r="C87" t="n">
+        <v>69</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>368</v>
+      </c>
+      <c r="F87" t="n">
+        <v>368</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+      <c r="I87" t="n">
+        <v>9</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>32078</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1850</v>
+      </c>
+      <c r="M87" t="n">
+        <v>230749</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M87"/>
+  <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>51</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14">
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="15">
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="16">
@@ -1075,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="17">
@@ -1118,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>1679</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="18">
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>2422</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="19">
@@ -1204,7 +1204,7 @@
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>3291</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="20">
@@ -1247,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>4372</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="21">
@@ -1290,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>6108</v>
+        <v>6109</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1333,7 @@
         <v>14</v>
       </c>
       <c r="M22" t="n">
-        <v>6805</v>
+        <v>6806</v>
       </c>
     </row>
     <row r="23">
@@ -1376,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="M23" t="n">
-        <v>7826</v>
+        <v>7827</v>
       </c>
     </row>
     <row r="24">
@@ -1419,7 +1419,7 @@
         <v>24</v>
       </c>
       <c r="M24" t="n">
-        <v>9278</v>
+        <v>9279</v>
       </c>
     </row>
     <row r="25">
@@ -1462,7 +1462,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="n">
-        <v>10882</v>
+        <v>10883</v>
       </c>
     </row>
     <row r="26">
@@ -1505,7 +1505,7 @@
         <v>35</v>
       </c>
       <c r="M26" t="n">
-        <v>13201</v>
+        <v>13202</v>
       </c>
     </row>
     <row r="27">
@@ -1548,7 +1548,7 @@
         <v>44</v>
       </c>
       <c r="M27" t="n">
-        <v>15808</v>
+        <v>15809</v>
       </c>
     </row>
     <row r="28">
@@ -1561,10 +1561,10 @@
         <v>2162</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="E28" t="n">
         <v>282</v>
@@ -1591,7 +1591,7 @@
         <v>47</v>
       </c>
       <c r="M28" t="n">
-        <v>17970</v>
+        <v>17971</v>
       </c>
     </row>
     <row r="29">
@@ -1634,7 +1634,7 @@
         <v>58</v>
       </c>
       <c r="M29" t="n">
-        <v>19240</v>
+        <v>19241</v>
       </c>
     </row>
     <row r="30">
@@ -1677,7 +1677,7 @@
         <v>76</v>
       </c>
       <c r="M30" t="n">
-        <v>20872</v>
+        <v>20873</v>
       </c>
     </row>
     <row r="31">
@@ -1720,7 +1720,7 @@
         <v>91</v>
       </c>
       <c r="M31" t="n">
-        <v>22832</v>
+        <v>22833</v>
       </c>
     </row>
     <row r="32">
@@ -1763,7 +1763,7 @@
         <v>113</v>
       </c>
       <c r="M32" t="n">
-        <v>25148</v>
+        <v>25149</v>
       </c>
     </row>
     <row r="33">
@@ -1773,10 +1773,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2537</v>
+        <v>2539</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>2537</v>
@@ -1806,7 +1806,7 @@
         <v>135</v>
       </c>
       <c r="M33" t="n">
-        <v>27685</v>
+        <v>27688</v>
       </c>
     </row>
     <row r="34">
@@ -1849,7 +1849,7 @@
         <v>157</v>
       </c>
       <c r="M34" t="n">
-        <v>30380</v>
+        <v>30383</v>
       </c>
     </row>
     <row r="35">
@@ -1892,7 +1892,7 @@
         <v>189</v>
       </c>
       <c r="M35" t="n">
-        <v>33178</v>
+        <v>33181</v>
       </c>
     </row>
     <row r="36">
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>1636</v>
@@ -1935,7 +1935,7 @@
         <v>214</v>
       </c>
       <c r="M36" t="n">
-        <v>34814</v>
+        <v>34819</v>
       </c>
     </row>
     <row r="37">
@@ -1978,7 +1978,7 @@
         <v>248</v>
       </c>
       <c r="M37" t="n">
-        <v>35909</v>
+        <v>35914</v>
       </c>
     </row>
     <row r="38">
@@ -1988,10 +1988,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2418</v>
+        <v>2421</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>2418</v>
@@ -2021,7 +2021,7 @@
         <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>38327</v>
+        <v>38335</v>
       </c>
     </row>
     <row r="39">
@@ -2031,13 +2031,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2774</v>
+        <v>2787</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>2774</v>
+        <v>2775</v>
       </c>
       <c r="E39" t="n">
         <v>422</v>
@@ -2064,7 +2064,7 @@
         <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>41101</v>
+        <v>41122</v>
       </c>
     </row>
     <row r="40">
@@ -2074,13 +2074,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="E40" t="n">
         <v>422</v>
@@ -2107,7 +2107,7 @@
         <v>337</v>
       </c>
       <c r="M40" t="n">
-        <v>44173</v>
+        <v>44193</v>
       </c>
     </row>
     <row r="41">
@@ -2117,10 +2117,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2746</v>
+        <v>2749</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>2746</v>
@@ -2150,7 +2150,7 @@
         <v>372</v>
       </c>
       <c r="M41" t="n">
-        <v>46919</v>
+        <v>46942</v>
       </c>
     </row>
     <row r="42">
@@ -2160,10 +2160,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2719</v>
+        <v>2726</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D42" t="n">
         <v>2719</v>
@@ -2172,10 +2172,10 @@
         <v>515</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H42" t="n">
         <v>25</v>
@@ -2193,7 +2193,7 @@
         <v>397</v>
       </c>
       <c r="M42" t="n">
-        <v>49638</v>
+        <v>49668</v>
       </c>
     </row>
     <row r="43">
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1527</v>
+        <v>1543</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D43" t="n">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="E43" t="n">
         <v>486</v>
@@ -2236,7 +2236,7 @@
         <v>417</v>
       </c>
       <c r="M43" t="n">
-        <v>51165</v>
+        <v>51211</v>
       </c>
     </row>
     <row r="44">
@@ -2246,13 +2246,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E44" t="n">
         <v>319</v>
@@ -2279,7 +2279,7 @@
         <v>446</v>
       </c>
       <c r="M44" t="n">
-        <v>51863</v>
+        <v>51910</v>
       </c>
     </row>
     <row r="45">
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3457</v>
+        <v>3460</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="E45" t="n">
         <v>292</v>
@@ -2322,7 +2322,7 @@
         <v>480</v>
       </c>
       <c r="M45" t="n">
-        <v>55320</v>
+        <v>55370</v>
       </c>
     </row>
     <row r="46">
@@ -2332,10 +2332,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3598</v>
+        <v>3604</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
         <v>3598</v>
@@ -2350,10 +2350,10 @@
         <v>417</v>
       </c>
       <c r="H46" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
         <v>45</v>
@@ -2362,10 +2362,10 @@
         <v>8913</v>
       </c>
       <c r="L46" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M46" t="n">
-        <v>58918</v>
+        <v>58974</v>
       </c>
     </row>
     <row r="47">
@@ -2375,10 +2375,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3274</v>
+        <v>3284</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D47" t="n">
         <v>3274</v>
@@ -2405,10 +2405,10 @@
         <v>9493</v>
       </c>
       <c r="L47" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M47" t="n">
-        <v>62192</v>
+        <v>62258</v>
       </c>
     </row>
     <row r="48">
@@ -2418,13 +2418,13 @@
         </is>
       </c>
       <c r="B48" t="n">
+        <v>3916</v>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="n">
         <v>3906</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="n">
-        <v>3905</v>
       </c>
       <c r="E48" t="n">
         <v>600</v>
@@ -2448,10 +2448,10 @@
         <v>10093</v>
       </c>
       <c r="L48" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M48" t="n">
-        <v>66098</v>
+        <v>66174</v>
       </c>
     </row>
     <row r="49">
@@ -2461,10 +2461,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4036</v>
+        <v>4039</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>4036</v>
@@ -2491,10 +2491,10 @@
         <v>10598</v>
       </c>
       <c r="L49" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="M49" t="n">
-        <v>70134</v>
+        <v>70213</v>
       </c>
     </row>
     <row r="50">
@@ -2504,10 +2504,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D50" t="n">
         <v>1704</v>
@@ -2534,10 +2534,10 @@
         <v>11155</v>
       </c>
       <c r="L50" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M50" t="n">
-        <v>71838</v>
+        <v>71927</v>
       </c>
     </row>
     <row r="51">
@@ -2577,10 +2577,10 @@
         <v>11634</v>
       </c>
       <c r="L51" t="n">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="M51" t="n">
-        <v>72937</v>
+        <v>73026</v>
       </c>
     </row>
     <row r="52">
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4300</v>
+        <v>4309</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D52" t="n">
         <v>4300</v>
@@ -2620,10 +2620,10 @@
         <v>12020</v>
       </c>
       <c r="L52" t="n">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M52" t="n">
-        <v>77237</v>
+        <v>77335</v>
       </c>
     </row>
     <row r="53">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3833</v>
+        <v>3837</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>3833</v>
+        <v>3834</v>
       </c>
       <c r="E53" t="n">
         <v>379</v>
@@ -2663,10 +2663,10 @@
         <v>12399</v>
       </c>
       <c r="L53" t="n">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M53" t="n">
-        <v>81070</v>
+        <v>81172</v>
       </c>
     </row>
     <row r="54">
@@ -2676,13 +2676,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3796</v>
+        <v>3800</v>
       </c>
       <c r="C54" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>3787</v>
+        <v>3795</v>
       </c>
       <c r="E54" t="n">
         <v>605</v>
@@ -2706,10 +2706,10 @@
         <v>13004</v>
       </c>
       <c r="L54" t="n">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="M54" t="n">
-        <v>84866</v>
+        <v>84972</v>
       </c>
     </row>
     <row r="55">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="B55" t="n">
+        <v>4373</v>
+      </c>
+      <c r="C55" t="n">
+        <v>6</v>
+      </c>
+      <c r="D55" t="n">
         <v>4367</v>
-      </c>
-      <c r="C55" t="n">
-        <v>2</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4365</v>
       </c>
       <c r="E55" t="n">
         <v>644</v>
@@ -2749,10 +2749,10 @@
         <v>13648</v>
       </c>
       <c r="L55" t="n">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="M55" t="n">
-        <v>89233</v>
+        <v>89345</v>
       </c>
     </row>
     <row r="56">
@@ -2762,10 +2762,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3505</v>
+        <v>3509</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>3505</v>
@@ -2792,10 +2792,10 @@
         <v>14347</v>
       </c>
       <c r="L56" t="n">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="M56" t="n">
-        <v>92738</v>
+        <v>92854</v>
       </c>
     </row>
     <row r="57">
@@ -2805,10 +2805,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2217</v>
+        <v>2223</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
         <v>2217</v>
@@ -2835,10 +2835,10 @@
         <v>14971</v>
       </c>
       <c r="L57" t="n">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="M57" t="n">
-        <v>94955</v>
+        <v>95077</v>
       </c>
     </row>
     <row r="58">
@@ -2848,13 +2848,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1787</v>
+        <v>1799</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D58" t="n">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="E58" t="n">
         <v>950</v>
@@ -2878,10 +2878,10 @@
         <v>15921</v>
       </c>
       <c r="L58" t="n">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="M58" t="n">
-        <v>96742</v>
+        <v>96876</v>
       </c>
     </row>
     <row r="59">
@@ -2891,13 +2891,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4516</v>
+        <v>4616</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D59" t="n">
-        <v>4516</v>
+        <v>4530</v>
       </c>
       <c r="E59" t="n">
         <v>621</v>
@@ -2921,10 +2921,10 @@
         <v>16542</v>
       </c>
       <c r="L59" t="n">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="M59" t="n">
-        <v>101258</v>
+        <v>101492</v>
       </c>
     </row>
     <row r="60">
@@ -2934,10 +2934,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4873</v>
+        <v>4904</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D60" t="n">
         <v>4873</v>
@@ -2964,10 +2964,10 @@
         <v>17137</v>
       </c>
       <c r="L60" t="n">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="M60" t="n">
-        <v>106131</v>
+        <v>106396</v>
       </c>
     </row>
     <row r="61">
@@ -2977,13 +2977,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>5085</v>
+        <v>5125</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D61" t="n">
-        <v>5085</v>
+        <v>5086</v>
       </c>
       <c r="E61" t="n">
         <v>653</v>
@@ -3007,10 +3007,10 @@
         <v>17790</v>
       </c>
       <c r="L61" t="n">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="M61" t="n">
-        <v>111216</v>
+        <v>111521</v>
       </c>
     </row>
     <row r="62">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="B62" t="n">
+        <v>5047</v>
+      </c>
+      <c r="C62" t="n">
+        <v>40</v>
+      </c>
+      <c r="D62" t="n">
         <v>5007</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5006</v>
       </c>
       <c r="E62" t="n">
         <v>795</v>
@@ -3050,10 +3050,10 @@
         <v>18585</v>
       </c>
       <c r="L62" t="n">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="M62" t="n">
-        <v>116223</v>
+        <v>116568</v>
       </c>
     </row>
     <row r="63">
@@ -3063,13 +3063,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5805</v>
+        <v>5909</v>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="D63" t="n">
-        <v>5801</v>
+        <v>5813</v>
       </c>
       <c r="E63" t="n">
         <v>652</v>
@@ -3093,10 +3093,10 @@
         <v>19237</v>
       </c>
       <c r="L63" t="n">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="M63" t="n">
-        <v>122028</v>
+        <v>122477</v>
       </c>
     </row>
     <row r="64">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2858</v>
+        <v>2916</v>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="D64" t="n">
         <v>2856</v>
@@ -3136,10 +3136,10 @@
         <v>19873</v>
       </c>
       <c r="L64" t="n">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="M64" t="n">
-        <v>124886</v>
+        <v>125393</v>
       </c>
     </row>
     <row r="65">
@@ -3149,13 +3149,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1662</v>
+        <v>1676</v>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D65" t="n">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="E65" t="n">
         <v>570</v>
@@ -3179,10 +3179,10 @@
         <v>20443</v>
       </c>
       <c r="L65" t="n">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="M65" t="n">
-        <v>126548</v>
+        <v>127069</v>
       </c>
     </row>
     <row r="66">
@@ -3192,13 +3192,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5279</v>
+        <v>5292</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D66" t="n">
-        <v>5279</v>
+        <v>5277</v>
       </c>
       <c r="E66" t="n">
         <v>525</v>
@@ -3222,10 +3222,10 @@
         <v>20968</v>
       </c>
       <c r="L66" t="n">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="M66" t="n">
-        <v>131827</v>
+        <v>132361</v>
       </c>
     </row>
     <row r="67">
@@ -3235,13 +3235,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5909</v>
+        <v>5936</v>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D67" t="n">
-        <v>5904</v>
+        <v>5910</v>
       </c>
       <c r="E67" t="n">
         <v>838</v>
@@ -3265,10 +3265,10 @@
         <v>21806</v>
       </c>
       <c r="L67" t="n">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="M67" t="n">
-        <v>137736</v>
+        <v>138297</v>
       </c>
     </row>
     <row r="68">
@@ -3278,10 +3278,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5585</v>
+        <v>5598</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D68" t="n">
         <v>5585</v>
@@ -3308,10 +3308,10 @@
         <v>22430</v>
       </c>
       <c r="L68" t="n">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="M68" t="n">
-        <v>143321</v>
+        <v>143895</v>
       </c>
     </row>
     <row r="69">
@@ -3321,13 +3321,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>5926</v>
+        <v>5947</v>
       </c>
       <c r="C69" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D69" t="n">
-        <v>5909</v>
+        <v>5922</v>
       </c>
       <c r="E69" t="n">
         <v>641</v>
@@ -3351,10 +3351,10 @@
         <v>23071</v>
       </c>
       <c r="L69" t="n">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="M69" t="n">
-        <v>149247</v>
+        <v>149842</v>
       </c>
     </row>
     <row r="70">
@@ -3364,19 +3364,19 @@
         </is>
       </c>
       <c r="B70" t="n">
+        <v>6099</v>
+      </c>
+      <c r="C70" t="n">
+        <v>62</v>
+      </c>
+      <c r="D70" t="n">
         <v>6037</v>
       </c>
-      <c r="C70" t="n">
+      <c r="E70" t="n">
+        <v>593</v>
+      </c>
+      <c r="F70" t="n">
         <v>1</v>
-      </c>
-      <c r="D70" t="n">
-        <v>6036</v>
-      </c>
-      <c r="E70" t="n">
-        <v>592</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>592</v>
@@ -3391,13 +3391,13 @@
         <v>23</v>
       </c>
       <c r="K70" t="n">
-        <v>23663</v>
+        <v>23664</v>
       </c>
       <c r="L70" t="n">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="M70" t="n">
-        <v>155284</v>
+        <v>155941</v>
       </c>
     </row>
     <row r="71">
@@ -3407,13 +3407,13 @@
         </is>
       </c>
       <c r="B71" t="n">
+        <v>3192</v>
+      </c>
+      <c r="C71" t="n">
+        <v>15</v>
+      </c>
+      <c r="D71" t="n">
         <v>3177</v>
-      </c>
-      <c r="C71" t="n">
-        <v>1</v>
-      </c>
-      <c r="D71" t="n">
-        <v>3176</v>
       </c>
       <c r="E71" t="n">
         <v>388</v>
@@ -3434,13 +3434,13 @@
         <v>32</v>
       </c>
       <c r="K71" t="n">
-        <v>24051</v>
+        <v>24052</v>
       </c>
       <c r="L71" t="n">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="M71" t="n">
-        <v>158461</v>
+        <v>159133</v>
       </c>
     </row>
     <row r="72">
@@ -3453,19 +3453,19 @@
         <v>1259</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E72" t="n">
         <v>464</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H72" t="n">
         <v>32</v>
@@ -3477,13 +3477,13 @@
         <v>32</v>
       </c>
       <c r="K72" t="n">
-        <v>24515</v>
+        <v>24516</v>
       </c>
       <c r="L72" t="n">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="M72" t="n">
-        <v>159720</v>
+        <v>160392</v>
       </c>
     </row>
     <row r="73">
@@ -3493,13 +3493,13 @@
         </is>
       </c>
       <c r="B73" t="n">
+        <v>6633</v>
+      </c>
+      <c r="C73" t="n">
+        <v>13</v>
+      </c>
+      <c r="D73" t="n">
         <v>6620</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1</v>
-      </c>
-      <c r="D73" t="n">
-        <v>6619</v>
       </c>
       <c r="E73" t="n">
         <v>519</v>
@@ -3520,13 +3520,13 @@
         <v>38</v>
       </c>
       <c r="K73" t="n">
-        <v>25034</v>
+        <v>25035</v>
       </c>
       <c r="L73" t="n">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="M73" t="n">
-        <v>166340</v>
+        <v>167025</v>
       </c>
     </row>
     <row r="74">
@@ -3536,13 +3536,13 @@
         </is>
       </c>
       <c r="B74" t="n">
+        <v>6026</v>
+      </c>
+      <c r="C74" t="n">
+        <v>12</v>
+      </c>
+      <c r="D74" t="n">
         <v>6014</v>
-      </c>
-      <c r="C74" t="n">
-        <v>1</v>
-      </c>
-      <c r="D74" t="n">
-        <v>6013</v>
       </c>
       <c r="E74" t="n">
         <v>376</v>
@@ -3563,13 +3563,13 @@
         <v>37</v>
       </c>
       <c r="K74" t="n">
-        <v>25410</v>
+        <v>25411</v>
       </c>
       <c r="L74" t="n">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="M74" t="n">
-        <v>172354</v>
+        <v>173051</v>
       </c>
     </row>
     <row r="75">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>6360</v>
+        <v>6396</v>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D75" t="n">
-        <v>6358</v>
+        <v>6356</v>
       </c>
       <c r="E75" t="n">
         <v>606</v>
@@ -3606,13 +3606,13 @@
         <v>25</v>
       </c>
       <c r="K75" t="n">
-        <v>26016</v>
+        <v>26017</v>
       </c>
       <c r="L75" t="n">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="M75" t="n">
-        <v>178714</v>
+        <v>179447</v>
       </c>
     </row>
     <row r="76">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>7304</v>
+        <v>7323</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D76" t="n">
-        <v>7303</v>
+        <v>7300</v>
       </c>
       <c r="E76" t="n">
         <v>588</v>
@@ -3649,13 +3649,13 @@
         <v>41</v>
       </c>
       <c r="K76" t="n">
-        <v>26604</v>
+        <v>26605</v>
       </c>
       <c r="L76" t="n">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="M76" t="n">
-        <v>186018</v>
+        <v>186770</v>
       </c>
     </row>
     <row r="77">
@@ -3665,13 +3665,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>8730</v>
+        <v>8737</v>
       </c>
       <c r="C77" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D77" t="n">
-        <v>8707</v>
+        <v>8728</v>
       </c>
       <c r="E77" t="n">
         <v>641</v>
@@ -3692,13 +3692,13 @@
         <v>31</v>
       </c>
       <c r="K77" t="n">
-        <v>27245</v>
+        <v>27246</v>
       </c>
       <c r="L77" t="n">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="M77" t="n">
-        <v>194748</v>
+        <v>195507</v>
       </c>
     </row>
     <row r="78">
@@ -3708,13 +3708,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2828</v>
+        <v>2837</v>
       </c>
       <c r="C78" t="n">
         <v>9</v>
       </c>
       <c r="D78" t="n">
-        <v>2819</v>
+        <v>2828</v>
       </c>
       <c r="E78" t="n">
         <v>496</v>
@@ -3735,13 +3735,13 @@
         <v>24</v>
       </c>
       <c r="K78" t="n">
-        <v>27741</v>
+        <v>27742</v>
       </c>
       <c r="L78" t="n">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="M78" t="n">
-        <v>197576</v>
+        <v>198344</v>
       </c>
     </row>
     <row r="79">
@@ -3751,13 +3751,13 @@
         </is>
       </c>
       <c r="B79" t="n">
+        <v>1810</v>
+      </c>
+      <c r="C79" t="n">
+        <v>3</v>
+      </c>
+      <c r="D79" t="n">
         <v>1807</v>
-      </c>
-      <c r="C79" t="n">
-        <v>2</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1805</v>
       </c>
       <c r="E79" t="n">
         <v>485</v>
@@ -3778,13 +3778,13 @@
         <v>23</v>
       </c>
       <c r="K79" t="n">
-        <v>28226</v>
+        <v>28227</v>
       </c>
       <c r="L79" t="n">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="M79" t="n">
-        <v>199383</v>
+        <v>200154</v>
       </c>
     </row>
     <row r="80">
@@ -3794,13 +3794,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>7830</v>
+        <v>7850</v>
       </c>
       <c r="C80" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D80" t="n">
-        <v>7811</v>
+        <v>7826</v>
       </c>
       <c r="E80" t="n">
         <v>462</v>
@@ -3821,13 +3821,13 @@
         <v>33</v>
       </c>
       <c r="K80" t="n">
-        <v>28688</v>
+        <v>28689</v>
       </c>
       <c r="L80" t="n">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="M80" t="n">
-        <v>207213</v>
+        <v>208004</v>
       </c>
     </row>
     <row r="81">
@@ -3837,13 +3837,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6290</v>
+        <v>6330</v>
       </c>
       <c r="C81" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D81" t="n">
-        <v>6266</v>
+        <v>6289</v>
       </c>
       <c r="E81" t="n">
         <v>569</v>
@@ -3864,13 +3864,13 @@
         <v>28</v>
       </c>
       <c r="K81" t="n">
-        <v>29257</v>
+        <v>29258</v>
       </c>
       <c r="L81" t="n">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="M81" t="n">
-        <v>213503</v>
+        <v>214334</v>
       </c>
     </row>
     <row r="82">
@@ -3880,13 +3880,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>5683</v>
+        <v>5826</v>
       </c>
       <c r="C82" t="n">
-        <v>410</v>
+        <v>145</v>
       </c>
       <c r="D82" t="n">
-        <v>5273</v>
+        <v>5681</v>
       </c>
       <c r="E82" t="n">
         <v>658</v>
@@ -3898,22 +3898,22 @@
         <v>658</v>
       </c>
       <c r="H82" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
         <v>20</v>
       </c>
       <c r="K82" t="n">
-        <v>29915</v>
+        <v>29916</v>
       </c>
       <c r="L82" t="n">
-        <v>1786</v>
+        <v>1788</v>
       </c>
       <c r="M82" t="n">
-        <v>219186</v>
+        <v>220160</v>
       </c>
     </row>
     <row r="83">
@@ -3923,22 +3923,22 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>5396</v>
+        <v>5933</v>
       </c>
       <c r="C83" t="n">
-        <v>1057</v>
+        <v>535</v>
       </c>
       <c r="D83" t="n">
-        <v>4339</v>
+        <v>5398</v>
       </c>
       <c r="E83" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H83" t="n">
         <v>31</v>
@@ -3953,10 +3953,10 @@
         <v>30386</v>
       </c>
       <c r="L83" t="n">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="M83" t="n">
-        <v>224582</v>
+        <v>226093</v>
       </c>
     </row>
     <row r="84">
@@ -3966,40 +3966,40 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>4364</v>
+        <v>5664</v>
       </c>
       <c r="C84" t="n">
-        <v>1455</v>
+        <v>1299</v>
       </c>
       <c r="D84" t="n">
-        <v>2909</v>
+        <v>4365</v>
       </c>
       <c r="E84" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H84" t="n">
+        <v>7</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
         <v>6</v>
       </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>4</v>
-      </c>
       <c r="K84" t="n">
-        <v>30883</v>
+        <v>30882</v>
       </c>
       <c r="L84" t="n">
-        <v>1823</v>
+        <v>1826</v>
       </c>
       <c r="M84" t="n">
-        <v>228946</v>
+        <v>231757</v>
       </c>
     </row>
     <row r="85">
@@ -4009,40 +4009,40 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1365</v>
+        <v>2069</v>
       </c>
       <c r="C85" t="n">
-        <v>1128</v>
+        <v>709</v>
       </c>
       <c r="D85" t="n">
-        <v>237</v>
+        <v>1360</v>
       </c>
       <c r="E85" t="n">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="H85" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I85" t="n">
         <v>4</v>
       </c>
       <c r="J85" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K85" t="n">
-        <v>31363</v>
+        <v>31358</v>
       </c>
       <c r="L85" t="n">
-        <v>1836</v>
+        <v>1843</v>
       </c>
       <c r="M85" t="n">
-        <v>230311</v>
+        <v>233826</v>
       </c>
     </row>
     <row r="86">
@@ -4052,40 +4052,40 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>369</v>
+        <v>887</v>
       </c>
       <c r="C86" t="n">
-        <v>304</v>
+        <v>520</v>
       </c>
       <c r="D86" t="n">
-        <v>65</v>
+        <v>367</v>
       </c>
       <c r="E86" t="n">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F86" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H86" t="n">
+        <v>6</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
         <v>5</v>
       </c>
-      <c r="I86" t="n">
-        <v>3</v>
-      </c>
-      <c r="J86" t="n">
-        <v>2</v>
-      </c>
       <c r="K86" t="n">
-        <v>31710</v>
+        <v>31702</v>
       </c>
       <c r="L86" t="n">
-        <v>1841</v>
+        <v>1849</v>
       </c>
       <c r="M86" t="n">
-        <v>230680</v>
+        <v>234713</v>
       </c>
     </row>
     <row r="87">
@@ -4095,40 +4095,83 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>69</v>
+        <v>507</v>
       </c>
       <c r="C87" t="n">
-        <v>69</v>
+        <v>440</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E87" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F87" t="n">
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>366</v>
       </c>
       <c r="H87" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I87" t="n">
         <v>9</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K87" t="n">
-        <v>32078</v>
+        <v>32068</v>
       </c>
       <c r="L87" t="n">
-        <v>1850</v>
+        <v>1867</v>
       </c>
       <c r="M87" t="n">
-        <v>230749</v>
+        <v>235220</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2020-05-26</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>113</v>
+      </c>
+      <c r="C88" t="n">
+        <v>113</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>369</v>
+      </c>
+      <c r="F88" t="n">
+        <v>368</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+      <c r="I88" t="n">
+        <v>4</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>32437</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1871</v>
+      </c>
+      <c r="M88" t="n">
+        <v>235333</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M88"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -830,10 +830,10 @@
         <v>52</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1644,10 +1644,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>1632</v>
@@ -1677,7 +1677,7 @@
         <v>76</v>
       </c>
       <c r="M30" t="n">
-        <v>20873</v>
+        <v>20874</v>
       </c>
     </row>
     <row r="31">
@@ -1720,7 +1720,7 @@
         <v>91</v>
       </c>
       <c r="M31" t="n">
-        <v>22833</v>
+        <v>22834</v>
       </c>
     </row>
     <row r="32">
@@ -1763,7 +1763,7 @@
         <v>113</v>
       </c>
       <c r="M32" t="n">
-        <v>25149</v>
+        <v>25150</v>
       </c>
     </row>
     <row r="33">
@@ -1776,10 +1776,10 @@
         <v>2539</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2537</v>
+        <v>2539</v>
       </c>
       <c r="E33" t="n">
         <v>469</v>
@@ -1806,7 +1806,7 @@
         <v>135</v>
       </c>
       <c r="M33" t="n">
-        <v>27688</v>
+        <v>27689</v>
       </c>
     </row>
     <row r="34">
@@ -1849,7 +1849,7 @@
         <v>157</v>
       </c>
       <c r="M34" t="n">
-        <v>30383</v>
+        <v>30384</v>
       </c>
     </row>
     <row r="35">
@@ -1892,7 +1892,7 @@
         <v>189</v>
       </c>
       <c r="M35" t="n">
-        <v>33181</v>
+        <v>33182</v>
       </c>
     </row>
     <row r="36">
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>1636</v>
@@ -1935,7 +1935,7 @@
         <v>214</v>
       </c>
       <c r="M36" t="n">
-        <v>34819</v>
+        <v>34818</v>
       </c>
     </row>
     <row r="37">
@@ -1978,7 +1978,7 @@
         <v>248</v>
       </c>
       <c r="M37" t="n">
-        <v>35914</v>
+        <v>35913</v>
       </c>
     </row>
     <row r="38">
@@ -1988,13 +1988,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="E38" t="n">
         <v>557</v>
@@ -2021,7 +2021,7 @@
         <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>38335</v>
+        <v>38333</v>
       </c>
     </row>
     <row r="39">
@@ -2031,13 +2031,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2787</v>
+        <v>2783</v>
       </c>
       <c r="C39" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>2775</v>
+        <v>2782</v>
       </c>
       <c r="E39" t="n">
         <v>422</v>
@@ -2064,7 +2064,7 @@
         <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>41122</v>
+        <v>41116</v>
       </c>
     </row>
     <row r="40">
@@ -2107,7 +2107,7 @@
         <v>337</v>
       </c>
       <c r="M40" t="n">
-        <v>44193</v>
+        <v>44187</v>
       </c>
     </row>
     <row r="41">
@@ -2117,13 +2117,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2749</v>
+        <v>2747</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>2746</v>
+        <v>2747</v>
       </c>
       <c r="E41" t="n">
         <v>558</v>
@@ -2150,7 +2150,7 @@
         <v>372</v>
       </c>
       <c r="M41" t="n">
-        <v>46942</v>
+        <v>46934</v>
       </c>
     </row>
     <row r="42">
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="B42" t="n">
+        <v>2727</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
         <v>2726</v>
-      </c>
-      <c r="C42" t="n">
-        <v>7</v>
-      </c>
-      <c r="D42" t="n">
-        <v>2719</v>
       </c>
       <c r="E42" t="n">
         <v>515</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H42" t="n">
         <v>25</v>
@@ -2193,7 +2193,7 @@
         <v>397</v>
       </c>
       <c r="M42" t="n">
-        <v>49668</v>
+        <v>49661</v>
       </c>
     </row>
     <row r="43">
@@ -2206,10 +2206,10 @@
         <v>1543</v>
       </c>
       <c r="C43" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1528</v>
+        <v>1543</v>
       </c>
       <c r="E43" t="n">
         <v>486</v>
@@ -2236,7 +2236,7 @@
         <v>417</v>
       </c>
       <c r="M43" t="n">
-        <v>51211</v>
+        <v>51204</v>
       </c>
     </row>
     <row r="44">
@@ -2279,7 +2279,7 @@
         <v>446</v>
       </c>
       <c r="M44" t="n">
-        <v>51910</v>
+        <v>51903</v>
       </c>
     </row>
     <row r="45">
@@ -2292,10 +2292,10 @@
         <v>3460</v>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>3456</v>
+        <v>3460</v>
       </c>
       <c r="E45" t="n">
         <v>292</v>
@@ -2322,7 +2322,7 @@
         <v>480</v>
       </c>
       <c r="M45" t="n">
-        <v>55370</v>
+        <v>55363</v>
       </c>
     </row>
     <row r="46">
@@ -2332,13 +2332,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3604</v>
+        <v>3603</v>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>3598</v>
+        <v>3603</v>
       </c>
       <c r="E46" t="n">
         <v>417</v>
@@ -2353,10 +2353,10 @@
         <v>46</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K46" t="n">
         <v>8913</v>
@@ -2365,7 +2365,7 @@
         <v>526</v>
       </c>
       <c r="M46" t="n">
-        <v>58974</v>
+        <v>58966</v>
       </c>
     </row>
     <row r="47">
@@ -2375,13 +2375,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3284</v>
+        <v>3302</v>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D47" t="n">
-        <v>3274</v>
+        <v>3287</v>
       </c>
       <c r="E47" t="n">
         <v>580</v>
@@ -2408,7 +2408,7 @@
         <v>563</v>
       </c>
       <c r="M47" t="n">
-        <v>62258</v>
+        <v>62268</v>
       </c>
     </row>
     <row r="48">
@@ -2418,13 +2418,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3916</v>
+        <v>3988</v>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D48" t="n">
-        <v>3906</v>
+        <v>3918</v>
       </c>
       <c r="E48" t="n">
         <v>600</v>
@@ -2451,7 +2451,7 @@
         <v>597</v>
       </c>
       <c r="M48" t="n">
-        <v>66174</v>
+        <v>66256</v>
       </c>
     </row>
     <row r="49">
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4039</v>
+        <v>4129</v>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="D49" t="n">
-        <v>4036</v>
+        <v>4041</v>
       </c>
       <c r="E49" t="n">
         <v>505</v>
@@ -2494,7 +2494,7 @@
         <v>633</v>
       </c>
       <c r="M49" t="n">
-        <v>70213</v>
+        <v>70385</v>
       </c>
     </row>
     <row r="50">
@@ -2504,13 +2504,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1714</v>
+        <v>1729</v>
       </c>
       <c r="C50" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D50" t="n">
-        <v>1704</v>
+        <v>1715</v>
       </c>
       <c r="E50" t="n">
         <v>557</v>
@@ -2537,7 +2537,7 @@
         <v>661</v>
       </c>
       <c r="M50" t="n">
-        <v>71927</v>
+        <v>72114</v>
       </c>
     </row>
     <row r="51">
@@ -2580,7 +2580,7 @@
         <v>697</v>
       </c>
       <c r="M51" t="n">
-        <v>73026</v>
+        <v>73213</v>
       </c>
     </row>
     <row r="52">
@@ -2590,13 +2590,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4309</v>
+        <v>4350</v>
       </c>
       <c r="C52" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D52" t="n">
-        <v>4300</v>
+        <v>4308</v>
       </c>
       <c r="E52" t="n">
         <v>386</v>
@@ -2623,7 +2623,7 @@
         <v>735</v>
       </c>
       <c r="M52" t="n">
-        <v>77335</v>
+        <v>77563</v>
       </c>
     </row>
     <row r="53">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B53" t="n">
+        <v>3846</v>
+      </c>
+      <c r="C53" t="n">
+        <v>9</v>
+      </c>
+      <c r="D53" t="n">
         <v>3837</v>
-      </c>
-      <c r="C53" t="n">
-        <v>3</v>
-      </c>
-      <c r="D53" t="n">
-        <v>3834</v>
       </c>
       <c r="E53" t="n">
         <v>379</v>
@@ -2666,7 +2666,7 @@
         <v>783</v>
       </c>
       <c r="M53" t="n">
-        <v>81172</v>
+        <v>81409</v>
       </c>
     </row>
     <row r="54">
@@ -2676,13 +2676,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3800</v>
+        <v>3867</v>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="D54" t="n">
-        <v>3795</v>
+        <v>3809</v>
       </c>
       <c r="E54" t="n">
         <v>605</v>
@@ -2709,7 +2709,7 @@
         <v>833</v>
       </c>
       <c r="M54" t="n">
-        <v>84972</v>
+        <v>85276</v>
       </c>
     </row>
     <row r="55">
@@ -2719,10 +2719,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4373</v>
+        <v>4378</v>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D55" t="n">
         <v>4367</v>
@@ -2752,7 +2752,7 @@
         <v>871</v>
       </c>
       <c r="M55" t="n">
-        <v>89345</v>
+        <v>89654</v>
       </c>
     </row>
     <row r="56">
@@ -2762,13 +2762,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3509</v>
+        <v>3647</v>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="D56" t="n">
-        <v>3505</v>
+        <v>3508</v>
       </c>
       <c r="E56" t="n">
         <v>699</v>
@@ -2795,7 +2795,7 @@
         <v>907</v>
       </c>
       <c r="M56" t="n">
-        <v>92854</v>
+        <v>93301</v>
       </c>
     </row>
     <row r="57">
@@ -2805,13 +2805,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2223</v>
+        <v>2291</v>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D57" t="n">
-        <v>2217</v>
+        <v>2231</v>
       </c>
       <c r="E57" t="n">
         <v>624</v>
@@ -2838,7 +2838,7 @@
         <v>948</v>
       </c>
       <c r="M57" t="n">
-        <v>95077</v>
+        <v>95592</v>
       </c>
     </row>
     <row r="58">
@@ -2848,13 +2848,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1799</v>
+        <v>1811</v>
       </c>
       <c r="C58" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D58" t="n">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="E58" t="n">
         <v>950</v>
@@ -2881,7 +2881,7 @@
         <v>982</v>
       </c>
       <c r="M58" t="n">
-        <v>96876</v>
+        <v>97403</v>
       </c>
     </row>
     <row r="59">
@@ -2891,13 +2891,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4616</v>
+        <v>4768</v>
       </c>
       <c r="C59" t="n">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="D59" t="n">
-        <v>4530</v>
+        <v>4627</v>
       </c>
       <c r="E59" t="n">
         <v>621</v>
@@ -2924,7 +2924,7 @@
         <v>1024</v>
       </c>
       <c r="M59" t="n">
-        <v>101492</v>
+        <v>102171</v>
       </c>
     </row>
     <row r="60">
@@ -2934,13 +2934,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4904</v>
+        <v>4977</v>
       </c>
       <c r="C60" t="n">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="D60" t="n">
-        <v>4873</v>
+        <v>4900</v>
       </c>
       <c r="E60" t="n">
         <v>595</v>
@@ -2967,7 +2967,7 @@
         <v>1058</v>
       </c>
       <c r="M60" t="n">
-        <v>106396</v>
+        <v>107148</v>
       </c>
     </row>
     <row r="61">
@@ -2977,13 +2977,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>5125</v>
+        <v>5181</v>
       </c>
       <c r="C61" t="n">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D61" t="n">
-        <v>5086</v>
+        <v>5121</v>
       </c>
       <c r="E61" t="n">
         <v>653</v>
@@ -2995,10 +2995,10 @@
         <v>653</v>
       </c>
       <c r="H61" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
         <v>40</v>
@@ -3007,10 +3007,10 @@
         <v>17790</v>
       </c>
       <c r="L61" t="n">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="M61" t="n">
-        <v>111521</v>
+        <v>112329</v>
       </c>
     </row>
     <row r="62">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5047</v>
+        <v>5202</v>
       </c>
       <c r="C62" t="n">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="D62" t="n">
-        <v>5007</v>
+        <v>5055</v>
       </c>
       <c r="E62" t="n">
         <v>795</v>
@@ -3050,10 +3050,10 @@
         <v>18585</v>
       </c>
       <c r="L62" t="n">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="M62" t="n">
-        <v>116568</v>
+        <v>117531</v>
       </c>
     </row>
     <row r="63">
@@ -3063,13 +3063,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5909</v>
+        <v>6102</v>
       </c>
       <c r="C63" t="n">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="D63" t="n">
-        <v>5813</v>
+        <v>5915</v>
       </c>
       <c r="E63" t="n">
         <v>652</v>
@@ -3093,10 +3093,10 @@
         <v>19237</v>
       </c>
       <c r="L63" t="n">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="M63" t="n">
-        <v>122477</v>
+        <v>123633</v>
       </c>
     </row>
     <row r="64">
@@ -3106,13 +3106,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2916</v>
+        <v>2996</v>
       </c>
       <c r="C64" t="n">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D64" t="n">
-        <v>2856</v>
+        <v>2917</v>
       </c>
       <c r="E64" t="n">
         <v>636</v>
@@ -3136,10 +3136,10 @@
         <v>19873</v>
       </c>
       <c r="L64" t="n">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="M64" t="n">
-        <v>125393</v>
+        <v>126629</v>
       </c>
     </row>
     <row r="65">
@@ -3149,13 +3149,13 @@
         </is>
       </c>
       <c r="B65" t="n">
+        <v>1678</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" t="n">
         <v>1676</v>
-      </c>
-      <c r="C65" t="n">
-        <v>15</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1661</v>
       </c>
       <c r="E65" t="n">
         <v>570</v>
@@ -3179,10 +3179,10 @@
         <v>20443</v>
       </c>
       <c r="L65" t="n">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="M65" t="n">
-        <v>127069</v>
+        <v>128307</v>
       </c>
     </row>
     <row r="66">
@@ -3192,13 +3192,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5292</v>
+        <v>5385</v>
       </c>
       <c r="C66" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="D66" t="n">
-        <v>5277</v>
+        <v>5290</v>
       </c>
       <c r="E66" t="n">
         <v>525</v>
@@ -3222,10 +3222,10 @@
         <v>20968</v>
       </c>
       <c r="L66" t="n">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="M66" t="n">
-        <v>132361</v>
+        <v>133692</v>
       </c>
     </row>
     <row r="67">
@@ -3235,13 +3235,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5936</v>
+        <v>6016</v>
       </c>
       <c r="C67" t="n">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="D67" t="n">
-        <v>5910</v>
+        <v>5938</v>
       </c>
       <c r="E67" t="n">
         <v>838</v>
@@ -3265,10 +3265,10 @@
         <v>21806</v>
       </c>
       <c r="L67" t="n">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="M67" t="n">
-        <v>138297</v>
+        <v>139708</v>
       </c>
     </row>
     <row r="68">
@@ -3278,22 +3278,22 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5598</v>
+        <v>5613</v>
       </c>
       <c r="C68" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D68" t="n">
-        <v>5585</v>
+        <v>5594</v>
       </c>
       <c r="E68" t="n">
         <v>624</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H68" t="n">
         <v>43</v>
@@ -3308,10 +3308,10 @@
         <v>22430</v>
       </c>
       <c r="L68" t="n">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="M68" t="n">
-        <v>143895</v>
+        <v>145321</v>
       </c>
     </row>
     <row r="69">
@@ -3321,13 +3321,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>5947</v>
+        <v>5958</v>
       </c>
       <c r="C69" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D69" t="n">
-        <v>5922</v>
+        <v>5944</v>
       </c>
       <c r="E69" t="n">
         <v>641</v>
@@ -3351,10 +3351,10 @@
         <v>23071</v>
       </c>
       <c r="L69" t="n">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="M69" t="n">
-        <v>149842</v>
+        <v>151279</v>
       </c>
     </row>
     <row r="70">
@@ -3364,22 +3364,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6099</v>
+        <v>6131</v>
       </c>
       <c r="C70" t="n">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D70" t="n">
-        <v>6037</v>
+        <v>6095</v>
       </c>
       <c r="E70" t="n">
         <v>593</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H70" t="n">
         <v>23</v>
@@ -3394,10 +3394,10 @@
         <v>23664</v>
       </c>
       <c r="L70" t="n">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="M70" t="n">
-        <v>155941</v>
+        <v>157410</v>
       </c>
     </row>
     <row r="71">
@@ -3407,13 +3407,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3192</v>
+        <v>3225</v>
       </c>
       <c r="C71" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D71" t="n">
-        <v>3177</v>
+        <v>3196</v>
       </c>
       <c r="E71" t="n">
         <v>388</v>
@@ -3437,10 +3437,10 @@
         <v>24052</v>
       </c>
       <c r="L71" t="n">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="M71" t="n">
-        <v>159133</v>
+        <v>160635</v>
       </c>
     </row>
     <row r="72">
@@ -3450,13 +3450,13 @@
         </is>
       </c>
       <c r="B72" t="n">
+        <v>1262</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3</v>
+      </c>
+      <c r="D72" t="n">
         <v>1259</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1258</v>
       </c>
       <c r="E72" t="n">
         <v>464</v>
@@ -3480,10 +3480,10 @@
         <v>24516</v>
       </c>
       <c r="L72" t="n">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="M72" t="n">
-        <v>160392</v>
+        <v>161897</v>
       </c>
     </row>
     <row r="73">
@@ -3493,13 +3493,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6633</v>
+        <v>6880</v>
       </c>
       <c r="C73" t="n">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="D73" t="n">
-        <v>6620</v>
+        <v>6625</v>
       </c>
       <c r="E73" t="n">
         <v>519</v>
@@ -3523,10 +3523,10 @@
         <v>25035</v>
       </c>
       <c r="L73" t="n">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="M73" t="n">
-        <v>167025</v>
+        <v>168777</v>
       </c>
     </row>
     <row r="74">
@@ -3536,13 +3536,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6026</v>
+        <v>6140</v>
       </c>
       <c r="C74" t="n">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="D74" t="n">
-        <v>6014</v>
+        <v>6013</v>
       </c>
       <c r="E74" t="n">
         <v>376</v>
@@ -3554,13 +3554,13 @@
         <v>376</v>
       </c>
       <c r="H74" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K74" t="n">
         <v>25411</v>
@@ -3569,7 +3569,7 @@
         <v>1562</v>
       </c>
       <c r="M74" t="n">
-        <v>173051</v>
+        <v>174917</v>
       </c>
     </row>
     <row r="75">
@@ -3579,40 +3579,40 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>6396</v>
+        <v>6490</v>
       </c>
       <c r="C75" t="n">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="D75" t="n">
-        <v>6356</v>
+        <v>6383</v>
       </c>
       <c r="E75" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H75" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
         <v>25</v>
       </c>
       <c r="K75" t="n">
-        <v>26017</v>
+        <v>26016</v>
       </c>
       <c r="L75" t="n">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="M75" t="n">
-        <v>179447</v>
+        <v>181407</v>
       </c>
     </row>
     <row r="76">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>7323</v>
+        <v>7360</v>
       </c>
       <c r="C76" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D76" t="n">
-        <v>7300</v>
+        <v>7315</v>
       </c>
       <c r="E76" t="n">
         <v>588</v>
@@ -3649,13 +3649,13 @@
         <v>41</v>
       </c>
       <c r="K76" t="n">
-        <v>26605</v>
+        <v>26604</v>
       </c>
       <c r="L76" t="n">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="M76" t="n">
-        <v>186770</v>
+        <v>188767</v>
       </c>
     </row>
     <row r="77">
@@ -3665,13 +3665,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>8737</v>
+        <v>8864</v>
       </c>
       <c r="C77" t="n">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="D77" t="n">
-        <v>8728</v>
+        <v>8735</v>
       </c>
       <c r="E77" t="n">
         <v>641</v>
@@ -3692,13 +3692,13 @@
         <v>31</v>
       </c>
       <c r="K77" t="n">
-        <v>27246</v>
+        <v>27245</v>
       </c>
       <c r="L77" t="n">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="M77" t="n">
-        <v>195507</v>
+        <v>197631</v>
       </c>
     </row>
     <row r="78">
@@ -3708,13 +3708,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2837</v>
+        <v>2844</v>
       </c>
       <c r="C78" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="n">
-        <v>2828</v>
+        <v>2834</v>
       </c>
       <c r="E78" t="n">
         <v>496</v>
@@ -3735,13 +3735,13 @@
         <v>24</v>
       </c>
       <c r="K78" t="n">
-        <v>27742</v>
+        <v>27741</v>
       </c>
       <c r="L78" t="n">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="M78" t="n">
-        <v>198344</v>
+        <v>200475</v>
       </c>
     </row>
     <row r="79">
@@ -3751,13 +3751,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1810</v>
+        <v>1817</v>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D79" t="n">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="E79" t="n">
         <v>485</v>
@@ -3778,13 +3778,13 @@
         <v>23</v>
       </c>
       <c r="K79" t="n">
-        <v>28227</v>
+        <v>28226</v>
       </c>
       <c r="L79" t="n">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="M79" t="n">
-        <v>200154</v>
+        <v>202292</v>
       </c>
     </row>
     <row r="80">
@@ -3794,40 +3794,40 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>7850</v>
+        <v>7844</v>
       </c>
       <c r="C80" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D80" t="n">
-        <v>7826</v>
+        <v>7832</v>
       </c>
       <c r="E80" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H80" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
         <v>33</v>
       </c>
       <c r="K80" t="n">
-        <v>28689</v>
+        <v>28687</v>
       </c>
       <c r="L80" t="n">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="M80" t="n">
-        <v>208004</v>
+        <v>210136</v>
       </c>
     </row>
     <row r="81">
@@ -3837,13 +3837,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6330</v>
+        <v>6361</v>
       </c>
       <c r="C81" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D81" t="n">
-        <v>6289</v>
+        <v>6315</v>
       </c>
       <c r="E81" t="n">
         <v>569</v>
@@ -3855,22 +3855,22 @@
         <v>569</v>
       </c>
       <c r="H81" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
         <v>28</v>
       </c>
       <c r="K81" t="n">
-        <v>29258</v>
+        <v>29256</v>
       </c>
       <c r="L81" t="n">
-        <v>1767</v>
+        <v>1770</v>
       </c>
       <c r="M81" t="n">
-        <v>214334</v>
+        <v>216497</v>
       </c>
     </row>
     <row r="82">
@@ -3880,13 +3880,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>5826</v>
+        <v>5926</v>
       </c>
       <c r="C82" t="n">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D82" t="n">
-        <v>5681</v>
+        <v>5801</v>
       </c>
       <c r="E82" t="n">
         <v>658</v>
@@ -3901,19 +3901,19 @@
         <v>21</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K82" t="n">
-        <v>29916</v>
+        <v>29914</v>
       </c>
       <c r="L82" t="n">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="M82" t="n">
-        <v>220160</v>
+        <v>222423</v>
       </c>
     </row>
     <row r="83">
@@ -3923,40 +3923,40 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>5933</v>
+        <v>6538</v>
       </c>
       <c r="C83" t="n">
-        <v>535</v>
+        <v>622</v>
       </c>
       <c r="D83" t="n">
-        <v>5398</v>
+        <v>5916</v>
       </c>
       <c r="E83" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
         <v>470</v>
       </c>
       <c r="H83" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
         <v>31</v>
       </c>
       <c r="K83" t="n">
-        <v>30386</v>
+        <v>30385</v>
       </c>
       <c r="L83" t="n">
-        <v>1819</v>
+        <v>1823</v>
       </c>
       <c r="M83" t="n">
-        <v>226093</v>
+        <v>228961</v>
       </c>
     </row>
     <row r="84">
@@ -3966,40 +3966,40 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>5664</v>
+        <v>7227</v>
       </c>
       <c r="C84" t="n">
-        <v>1299</v>
+        <v>1586</v>
       </c>
       <c r="D84" t="n">
-        <v>4365</v>
+        <v>5641</v>
       </c>
       <c r="E84" t="n">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H84" t="n">
+        <v>12</v>
+      </c>
+      <c r="I84" t="n">
+        <v>5</v>
+      </c>
+      <c r="J84" t="n">
         <v>7</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>6</v>
-      </c>
       <c r="K84" t="n">
-        <v>30882</v>
+        <v>30880</v>
       </c>
       <c r="L84" t="n">
-        <v>1826</v>
+        <v>1835</v>
       </c>
       <c r="M84" t="n">
-        <v>231757</v>
+        <v>236188</v>
       </c>
     </row>
     <row r="85">
@@ -4009,40 +4009,40 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2069</v>
+        <v>2466</v>
       </c>
       <c r="C85" t="n">
-        <v>709</v>
+        <v>402</v>
       </c>
       <c r="D85" t="n">
-        <v>1360</v>
+        <v>2064</v>
       </c>
       <c r="E85" t="n">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G85" t="n">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H85" t="n">
+        <v>19</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J85" t="n">
         <v>17</v>
       </c>
-      <c r="I85" t="n">
-        <v>4</v>
-      </c>
-      <c r="J85" t="n">
-        <v>13</v>
-      </c>
       <c r="K85" t="n">
-        <v>31358</v>
+        <v>31355</v>
       </c>
       <c r="L85" t="n">
-        <v>1843</v>
+        <v>1854</v>
       </c>
       <c r="M85" t="n">
-        <v>233826</v>
+        <v>238654</v>
       </c>
     </row>
     <row r="86">
@@ -4052,13 +4052,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>887</v>
+        <v>1480</v>
       </c>
       <c r="C86" t="n">
-        <v>520</v>
+        <v>599</v>
       </c>
       <c r="D86" t="n">
-        <v>367</v>
+        <v>881</v>
       </c>
       <c r="E86" t="n">
         <v>344</v>
@@ -4070,22 +4070,22 @@
         <v>344</v>
       </c>
       <c r="H86" t="n">
+        <v>10</v>
+      </c>
+      <c r="I86" t="n">
+        <v>4</v>
+      </c>
+      <c r="J86" t="n">
         <v>6</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>5</v>
-      </c>
       <c r="K86" t="n">
-        <v>31702</v>
+        <v>31699</v>
       </c>
       <c r="L86" t="n">
-        <v>1849</v>
+        <v>1864</v>
       </c>
       <c r="M86" t="n">
-        <v>234713</v>
+        <v>240134</v>
       </c>
     </row>
     <row r="87">
@@ -4095,40 +4095,40 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>507</v>
+        <v>1262</v>
       </c>
       <c r="C87" t="n">
-        <v>440</v>
+        <v>756</v>
       </c>
       <c r="D87" t="n">
-        <v>67</v>
+        <v>506</v>
       </c>
       <c r="E87" t="n">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H87" t="n">
+        <v>19</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
         <v>18</v>
       </c>
-      <c r="I87" t="n">
-        <v>9</v>
-      </c>
-      <c r="J87" t="n">
-        <v>9</v>
-      </c>
       <c r="K87" t="n">
-        <v>32068</v>
+        <v>32062</v>
       </c>
       <c r="L87" t="n">
-        <v>1867</v>
+        <v>1883</v>
       </c>
       <c r="M87" t="n">
-        <v>235220</v>
+        <v>241396</v>
       </c>
     </row>
     <row r="88">
@@ -4138,40 +4138,83 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>113</v>
+        <v>803</v>
       </c>
       <c r="C88" t="n">
-        <v>113</v>
+        <v>697</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="E88" t="n">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F88" t="n">
-        <v>368</v>
+        <v>2</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>364</v>
       </c>
       <c r="H88" t="n">
+        <v>16</v>
+      </c>
+      <c r="I88" t="n">
+        <v>12</v>
+      </c>
+      <c r="J88" t="n">
         <v>4</v>
       </c>
-      <c r="I88" t="n">
-        <v>4</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
       <c r="K88" t="n">
-        <v>32437</v>
+        <v>32428</v>
       </c>
       <c r="L88" t="n">
-        <v>1871</v>
+        <v>1899</v>
       </c>
       <c r="M88" t="n">
-        <v>235333</v>
+        <v>242199</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2020-05-27</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>88</v>
+      </c>
+      <c r="C89" t="n">
+        <v>88</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>640</v>
+      </c>
+      <c r="F89" t="n">
+        <v>640</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+      <c r="I89" t="n">
+        <v>8</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>33068</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1907</v>
+      </c>
+      <c r="M89" t="n">
+        <v>242287</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M89"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2020-02-29</t>
+          <t>1983-01-10</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -479,93 +479,93 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-29</t>
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-03-02</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-03-03</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -602,23 +602,23 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -645,32 +645,32 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -682,38 +682,38 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2020-03-07</t>
+          <t>2020-03-06</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -731,32 +731,32 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2020-03-08</t>
+          <t>2020-03-07</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -768,38 +768,38 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-03-08</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -811,81 +811,81 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-03-09</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>5</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>10</v>
-      </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>110</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-03-10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -897,29 +897,29 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>170</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -940,38 +940,38 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>368</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2020-03-13</t>
+          <t>2020-03-12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -983,38 +983,38 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>615</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2020-03-14</t>
+          <t>2020-03-13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1032,75 +1032,75 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>893</v>
+        <v>616</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2020-03-15</t>
+          <t>2020-03-14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>145</v>
+        <v>278</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>145</v>
+        <v>278</v>
       </c>
       <c r="E16" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1038</v>
+        <v>894</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2020-03-16</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>642</v>
+        <v>145</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>642</v>
+        <v>145</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1112,253 +1112,253 @@
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>1680</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2020-03-17</t>
+          <t>2020-03-16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>743</v>
+        <v>642</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>743</v>
+        <v>642</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>30</v>
+      </c>
+      <c r="L18" t="n">
         <v>2</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>39</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4</v>
-      </c>
       <c r="M18" t="n">
-        <v>2423</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2020-03-18</t>
+          <t>2020-03-17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869</v>
+        <v>742</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>869</v>
+        <v>742</v>
       </c>
       <c r="E19" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>3292</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2020-03-19</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1081</v>
+        <v>869</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1081</v>
+        <v>869</v>
       </c>
       <c r="E20" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="L20" t="n">
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>4373</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2020-03-20</t>
+          <t>2020-03-19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1736</v>
+        <v>1081</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1736</v>
+        <v>1081</v>
       </c>
       <c r="E21" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="L21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>6109</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2020-03-21</t>
+          <t>2020-03-20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>697</v>
+        <v>1736</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>697</v>
+        <v>1736</v>
       </c>
       <c r="E22" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>199</v>
+        <v>124</v>
       </c>
       <c r="L22" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M22" t="n">
-        <v>6806</v>
+        <v>6109</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2020-03-22</t>
+          <t>2020-03-21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1021</v>
+        <v>697</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1021</v>
+        <v>697</v>
       </c>
       <c r="E23" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="H23" t="n">
         <v>5</v>
@@ -1370,38 +1370,38 @@
         <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="L23" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M23" t="n">
-        <v>7827</v>
+        <v>6806</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2020-03-23</t>
+          <t>2020-03-22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1452</v>
+        <v>1021</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1452</v>
+        <v>1021</v>
       </c>
       <c r="E24" t="n">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="H24" t="n">
         <v>5</v>
@@ -1413,38 +1413,38 @@
         <v>5</v>
       </c>
       <c r="K24" t="n">
-        <v>361</v>
+        <v>256</v>
       </c>
       <c r="L24" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M24" t="n">
-        <v>9279</v>
+        <v>7827</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2020-03-24</t>
+          <t>2020-03-23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1604</v>
+        <v>1452</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1604</v>
+        <v>1452</v>
       </c>
       <c r="E25" t="n">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H25" t="n">
         <v>5</v>
@@ -1456,339 +1456,339 @@
         <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>474</v>
+        <v>361</v>
       </c>
       <c r="L25" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M25" t="n">
-        <v>10883</v>
+        <v>9279</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2020-03-25</t>
+          <t>2020-03-24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2319</v>
+        <v>1604</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2319</v>
+        <v>1604</v>
       </c>
       <c r="E26" t="n">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>636</v>
+        <v>474</v>
       </c>
       <c r="L26" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M26" t="n">
-        <v>13202</v>
+        <v>10883</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2020-03-26</t>
+          <t>2020-03-25</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2607</v>
+        <v>2319</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2607</v>
+        <v>2319</v>
       </c>
       <c r="E27" t="n">
-        <v>303</v>
+        <v>162</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>303</v>
+        <v>162</v>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K27" t="n">
-        <v>939</v>
+        <v>636</v>
       </c>
       <c r="L27" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M27" t="n">
-        <v>15809</v>
+        <v>13202</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2020-03-27</t>
+          <t>2020-03-26</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2162</v>
+        <v>2607</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2162</v>
+        <v>2607</v>
       </c>
       <c r="E28" t="n">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K28" t="n">
-        <v>1221</v>
+        <v>939</v>
       </c>
       <c r="L28" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M28" t="n">
-        <v>17971</v>
+        <v>15809</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2020-03-28</t>
+          <t>2020-03-27</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1270</v>
+        <v>2162</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1270</v>
+        <v>2162</v>
       </c>
       <c r="E29" t="n">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H29" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>1509</v>
+        <v>1221</v>
       </c>
       <c r="L29" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="M29" t="n">
-        <v>19241</v>
+        <v>17971</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2020-03-29</t>
+          <t>2020-03-28</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1633</v>
+        <v>1270</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1632</v>
+        <v>1270</v>
       </c>
       <c r="E30" t="n">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="H30" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K30" t="n">
-        <v>1780</v>
+        <v>1509</v>
       </c>
       <c r="L30" t="n">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="M30" t="n">
-        <v>20874</v>
+        <v>19241</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2020-03-30</t>
+          <t>2020-03-29</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1960</v>
+        <v>1633</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1960</v>
+        <v>1633</v>
       </c>
       <c r="E31" t="n">
-        <v>373</v>
+        <v>271</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>373</v>
+        <v>271</v>
       </c>
       <c r="H31" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K31" t="n">
-        <v>2153</v>
+        <v>1780</v>
       </c>
       <c r="L31" t="n">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="M31" t="n">
-        <v>22834</v>
+        <v>20874</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-03-30</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2316</v>
+        <v>1960</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2316</v>
+        <v>1960</v>
       </c>
       <c r="E32" t="n">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="H32" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K32" t="n">
-        <v>2559</v>
+        <v>2153</v>
       </c>
       <c r="L32" t="n">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="M32" t="n">
-        <v>25150</v>
+        <v>22834</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-03-31</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2539</v>
+        <v>2316</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2539</v>
+        <v>2316</v>
       </c>
       <c r="E33" t="n">
-        <v>469</v>
+        <v>406</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>469</v>
+        <v>406</v>
       </c>
       <c r="H33" t="n">
         <v>22</v>
@@ -1800,38 +1800,38 @@
         <v>22</v>
       </c>
       <c r="K33" t="n">
-        <v>3028</v>
+        <v>2559</v>
       </c>
       <c r="L33" t="n">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="M33" t="n">
-        <v>27689</v>
+        <v>25150</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2020-04-02</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2695</v>
+        <v>2540</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2695</v>
+        <v>2540</v>
       </c>
       <c r="E34" t="n">
-        <v>396</v>
+        <v>469</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>396</v>
+        <v>469</v>
       </c>
       <c r="H34" t="n">
         <v>22</v>
@@ -1843,244 +1843,244 @@
         <v>22</v>
       </c>
       <c r="K34" t="n">
-        <v>3424</v>
+        <v>3028</v>
       </c>
       <c r="L34" t="n">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="M34" t="n">
-        <v>30384</v>
+        <v>27690</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2020-04-03</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2798</v>
+        <v>2695</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2798</v>
+        <v>2695</v>
       </c>
       <c r="E35" t="n">
-        <v>513</v>
+        <v>396</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>513</v>
+        <v>396</v>
       </c>
       <c r="H35" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K35" t="n">
-        <v>3937</v>
+        <v>3424</v>
       </c>
       <c r="L35" t="n">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="M35" t="n">
-        <v>33182</v>
+        <v>30385</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2020-04-04</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1636</v>
+        <v>2798</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1636</v>
+        <v>2798</v>
       </c>
       <c r="E36" t="n">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="H36" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K36" t="n">
-        <v>4398</v>
+        <v>3937</v>
       </c>
       <c r="L36" t="n">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="M36" t="n">
-        <v>34818</v>
+        <v>33183</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2020-04-04</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1095</v>
+        <v>1636</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1095</v>
+        <v>1636</v>
       </c>
       <c r="E37" t="n">
-        <v>527</v>
+        <v>461</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>527</v>
+        <v>461</v>
       </c>
       <c r="H37" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K37" t="n">
-        <v>4925</v>
+        <v>4398</v>
       </c>
       <c r="L37" t="n">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="M37" t="n">
-        <v>35913</v>
+        <v>34819</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2020-04-06</t>
+          <t>2020-04-05</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2420</v>
+        <v>1095</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2419</v>
+        <v>1095</v>
       </c>
       <c r="E38" t="n">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="H38" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K38" t="n">
-        <v>5482</v>
+        <v>4925</v>
       </c>
       <c r="L38" t="n">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="M38" t="n">
-        <v>38333</v>
+        <v>35914</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>2020-04-06</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2783</v>
+        <v>2420</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>2782</v>
+        <v>2420</v>
       </c>
       <c r="E39" t="n">
-        <v>422</v>
+        <v>557</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>422</v>
+        <v>557</v>
       </c>
       <c r="H39" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="K39" t="n">
-        <v>5904</v>
+        <v>5482</v>
       </c>
       <c r="L39" t="n">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="M39" t="n">
-        <v>41116</v>
+        <v>38334</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2020-04-08</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3071</v>
+        <v>2782</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>3071</v>
+        <v>2782</v>
       </c>
       <c r="E40" t="n">
         <v>422</v>
@@ -2092,2129 +2092,2215 @@
         <v>422</v>
       </c>
       <c r="H40" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="K40" t="n">
-        <v>6326</v>
+        <v>5904</v>
       </c>
       <c r="L40" t="n">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="M40" t="n">
-        <v>44187</v>
+        <v>41116</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2020-04-08</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2747</v>
+        <v>3071</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>2747</v>
+        <v>3071</v>
       </c>
       <c r="E41" t="n">
-        <v>558</v>
+        <v>422</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>558</v>
+        <v>422</v>
       </c>
       <c r="H41" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K41" t="n">
-        <v>6884</v>
+        <v>6326</v>
       </c>
       <c r="L41" t="n">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="M41" t="n">
-        <v>46934</v>
+        <v>44187</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-09</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2727</v>
+        <v>2747</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>2726</v>
+        <v>2747</v>
       </c>
       <c r="E42" t="n">
-        <v>515</v>
+        <v>558</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>515</v>
+        <v>558</v>
       </c>
       <c r="H42" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K42" t="n">
-        <v>7399</v>
+        <v>6884</v>
       </c>
       <c r="L42" t="n">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="M42" t="n">
-        <v>49661</v>
+        <v>46934</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2020-04-11</t>
+          <t>2020-04-10</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1543</v>
+        <v>2727</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1543</v>
+        <v>2727</v>
       </c>
       <c r="E43" t="n">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="H43" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K43" t="n">
-        <v>7885</v>
+        <v>7399</v>
       </c>
       <c r="L43" t="n">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="M43" t="n">
-        <v>51204</v>
+        <v>49661</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2020-04-12</t>
+          <t>2020-04-11</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>699</v>
+        <v>1543</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>699</v>
+        <v>1543</v>
       </c>
       <c r="E44" t="n">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="H44" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="K44" t="n">
-        <v>8204</v>
+        <v>7885</v>
       </c>
       <c r="L44" t="n">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="M44" t="n">
-        <v>51903</v>
+        <v>51204</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-12</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3460</v>
+        <v>699</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>3460</v>
+        <v>699</v>
       </c>
       <c r="E45" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H45" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K45" t="n">
-        <v>8496</v>
+        <v>8204</v>
       </c>
       <c r="L45" t="n">
-        <v>480</v>
+        <v>446</v>
       </c>
       <c r="M45" t="n">
-        <v>55363</v>
+        <v>51903</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2020-04-14</t>
+          <t>2020-04-13</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3603</v>
+        <v>3460</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>3603</v>
+        <v>3460</v>
       </c>
       <c r="E46" t="n">
-        <v>417</v>
+        <v>292</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>417</v>
+        <v>292</v>
       </c>
       <c r="H46" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K46" t="n">
-        <v>8913</v>
+        <v>8496</v>
       </c>
       <c r="L46" t="n">
-        <v>526</v>
+        <v>480</v>
       </c>
       <c r="M46" t="n">
-        <v>58966</v>
+        <v>55363</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2020-04-15</t>
+          <t>2020-04-14</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3302</v>
+        <v>3606</v>
       </c>
       <c r="C47" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>3287</v>
+        <v>3604</v>
       </c>
       <c r="E47" t="n">
-        <v>580</v>
+        <v>417</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>580</v>
+        <v>417</v>
       </c>
       <c r="H47" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K47" t="n">
-        <v>9493</v>
+        <v>8913</v>
       </c>
       <c r="L47" t="n">
-        <v>563</v>
+        <v>526</v>
       </c>
       <c r="M47" t="n">
-        <v>62268</v>
+        <v>58969</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2020-04-16</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3988</v>
+        <v>3302</v>
       </c>
       <c r="C48" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>3918</v>
+        <v>3302</v>
       </c>
       <c r="E48" t="n">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="H48" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K48" t="n">
-        <v>10093</v>
+        <v>9493</v>
       </c>
       <c r="L48" t="n">
-        <v>597</v>
+        <v>563</v>
       </c>
       <c r="M48" t="n">
-        <v>66256</v>
+        <v>62271</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2020-04-17</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4129</v>
+        <v>3998</v>
       </c>
       <c r="C49" t="n">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="D49" t="n">
-        <v>4041</v>
+        <v>3988</v>
       </c>
       <c r="E49" t="n">
-        <v>505</v>
+        <v>600</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>505</v>
+        <v>600</v>
       </c>
       <c r="H49" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K49" t="n">
-        <v>10598</v>
+        <v>10093</v>
       </c>
       <c r="L49" t="n">
-        <v>633</v>
+        <v>597</v>
       </c>
       <c r="M49" t="n">
-        <v>70385</v>
+        <v>66269</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2020-04-18</t>
+          <t>2020-04-17</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1729</v>
+        <v>4165</v>
       </c>
       <c r="C50" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D50" t="n">
-        <v>1715</v>
+        <v>4137</v>
       </c>
       <c r="E50" t="n">
-        <v>557</v>
+        <v>505</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>557</v>
+        <v>505</v>
       </c>
       <c r="H50" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="K50" t="n">
-        <v>11155</v>
+        <v>10598</v>
       </c>
       <c r="L50" t="n">
-        <v>661</v>
+        <v>633</v>
       </c>
       <c r="M50" t="n">
-        <v>72114</v>
+        <v>70434</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2020-04-19</t>
+          <t>2020-04-18</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1099</v>
+        <v>1757</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D51" t="n">
-        <v>1099</v>
+        <v>1732</v>
       </c>
       <c r="E51" t="n">
-        <v>479</v>
+        <v>557</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>479</v>
+        <v>557</v>
       </c>
       <c r="H51" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K51" t="n">
-        <v>11634</v>
+        <v>11155</v>
       </c>
       <c r="L51" t="n">
-        <v>697</v>
+        <v>661</v>
       </c>
       <c r="M51" t="n">
-        <v>73213</v>
+        <v>72191</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2020-04-20</t>
+          <t>2020-04-19</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4350</v>
+        <v>1100</v>
       </c>
       <c r="C52" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>4308</v>
+        <v>1100</v>
       </c>
       <c r="E52" t="n">
-        <v>386</v>
+        <v>479</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>386</v>
+        <v>479</v>
       </c>
       <c r="H52" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K52" t="n">
-        <v>12020</v>
+        <v>11634</v>
       </c>
       <c r="L52" t="n">
-        <v>735</v>
+        <v>697</v>
       </c>
       <c r="M52" t="n">
-        <v>77563</v>
+        <v>73291</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2020-04-21</t>
+          <t>2020-04-20</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3846</v>
+        <v>4348</v>
       </c>
       <c r="C53" t="n">
         <v>9</v>
       </c>
       <c r="D53" t="n">
-        <v>3837</v>
+        <v>4339</v>
       </c>
       <c r="E53" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="H53" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K53" t="n">
-        <v>12399</v>
+        <v>12019</v>
       </c>
       <c r="L53" t="n">
-        <v>783</v>
+        <v>735</v>
       </c>
       <c r="M53" t="n">
-        <v>81409</v>
+        <v>77639</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2020-04-21</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3867</v>
+        <v>3848</v>
       </c>
       <c r="C54" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>3809</v>
+        <v>3847</v>
       </c>
       <c r="E54" t="n">
-        <v>605</v>
+        <v>379</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>605</v>
+        <v>379</v>
       </c>
       <c r="H54" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K54" t="n">
-        <v>13004</v>
+        <v>12398</v>
       </c>
       <c r="L54" t="n">
-        <v>833</v>
+        <v>783</v>
       </c>
       <c r="M54" t="n">
-        <v>85276</v>
+        <v>81487</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2020-04-23</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4378</v>
+        <v>3859</v>
       </c>
       <c r="C55" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>4367</v>
+        <v>3856</v>
       </c>
       <c r="E55" t="n">
-        <v>644</v>
+        <v>605</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>644</v>
+        <v>605</v>
       </c>
       <c r="H55" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="K55" t="n">
-        <v>13648</v>
+        <v>13003</v>
       </c>
       <c r="L55" t="n">
-        <v>871</v>
+        <v>833</v>
       </c>
       <c r="M55" t="n">
-        <v>89654</v>
+        <v>85346</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2020-04-24</t>
+          <t>2020-04-23</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3647</v>
+        <v>4370</v>
       </c>
       <c r="C56" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>3508</v>
+        <v>4370</v>
       </c>
       <c r="E56" t="n">
-        <v>699</v>
+        <v>644</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>699</v>
+        <v>644</v>
       </c>
       <c r="H56" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K56" t="n">
-        <v>14347</v>
+        <v>13647</v>
       </c>
       <c r="L56" t="n">
-        <v>907</v>
+        <v>871</v>
       </c>
       <c r="M56" t="n">
-        <v>93301</v>
+        <v>89716</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2020-04-25</t>
+          <t>2020-04-24</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2291</v>
+        <v>3539</v>
       </c>
       <c r="C57" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D57" t="n">
-        <v>2231</v>
+        <v>3521</v>
       </c>
       <c r="E57" t="n">
-        <v>624</v>
+        <v>699</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>624</v>
+        <v>699</v>
       </c>
       <c r="H57" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K57" t="n">
-        <v>14971</v>
+        <v>14346</v>
       </c>
       <c r="L57" t="n">
-        <v>948</v>
+        <v>907</v>
       </c>
       <c r="M57" t="n">
-        <v>95592</v>
+        <v>93255</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2020-04-26</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1811</v>
+        <v>2281</v>
       </c>
       <c r="C58" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>1795</v>
+        <v>2279</v>
       </c>
       <c r="E58" t="n">
-        <v>950</v>
+        <v>624</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>950</v>
+        <v>624</v>
       </c>
       <c r="H58" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K58" t="n">
-        <v>15921</v>
+        <v>14970</v>
       </c>
       <c r="L58" t="n">
-        <v>982</v>
+        <v>948</v>
       </c>
       <c r="M58" t="n">
-        <v>97403</v>
+        <v>95536</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2020-04-27</t>
+          <t>2020-04-26</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4768</v>
+        <v>1803</v>
       </c>
       <c r="C59" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>4627</v>
+        <v>1803</v>
       </c>
       <c r="E59" t="n">
-        <v>621</v>
+        <v>950</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>621</v>
+        <v>950</v>
       </c>
       <c r="H59" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K59" t="n">
-        <v>16542</v>
+        <v>15920</v>
       </c>
       <c r="L59" t="n">
-        <v>1024</v>
+        <v>982</v>
       </c>
       <c r="M59" t="n">
-        <v>102171</v>
+        <v>97339</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2020-04-28</t>
+          <t>2020-04-27</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4977</v>
+        <v>4732</v>
       </c>
       <c r="C60" t="n">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>4900</v>
+        <v>4730</v>
       </c>
       <c r="E60" t="n">
-        <v>595</v>
+        <v>621</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>595</v>
+        <v>621</v>
       </c>
       <c r="H60" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K60" t="n">
-        <v>17137</v>
+        <v>16541</v>
       </c>
       <c r="L60" t="n">
-        <v>1058</v>
+        <v>1024</v>
       </c>
       <c r="M60" t="n">
-        <v>107148</v>
+        <v>102071</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2020-04-29</t>
+          <t>2020-04-28</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>5181</v>
+        <v>4983</v>
       </c>
       <c r="C61" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D61" t="n">
-        <v>5121</v>
+        <v>4933</v>
       </c>
       <c r="E61" t="n">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>653</v>
+        <v>594</v>
       </c>
       <c r="H61" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K61" t="n">
-        <v>17790</v>
+        <v>17136</v>
       </c>
       <c r="L61" t="n">
-        <v>1099</v>
+        <v>1058</v>
       </c>
       <c r="M61" t="n">
-        <v>112329</v>
+        <v>107054</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2020-04-30</t>
+          <t>2020-04-29</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5202</v>
+        <v>5223</v>
       </c>
       <c r="C62" t="n">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="D62" t="n">
-        <v>5055</v>
+        <v>5175</v>
       </c>
       <c r="E62" t="n">
-        <v>795</v>
+        <v>653</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>795</v>
+        <v>652</v>
       </c>
       <c r="H62" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K62" t="n">
-        <v>18585</v>
+        <v>17789</v>
       </c>
       <c r="L62" t="n">
-        <v>1144</v>
+        <v>1099</v>
       </c>
       <c r="M62" t="n">
-        <v>117531</v>
+        <v>112277</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2020-05-01</t>
+          <t>2020-04-30</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>6102</v>
+        <v>5278</v>
       </c>
       <c r="C63" t="n">
-        <v>187</v>
+        <v>71</v>
       </c>
       <c r="D63" t="n">
-        <v>5915</v>
+        <v>5207</v>
       </c>
       <c r="E63" t="n">
-        <v>652</v>
+        <v>795</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>652</v>
+        <v>795</v>
       </c>
       <c r="H63" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K63" t="n">
-        <v>19237</v>
+        <v>18584</v>
       </c>
       <c r="L63" t="n">
-        <v>1177</v>
+        <v>1144</v>
       </c>
       <c r="M63" t="n">
-        <v>123633</v>
+        <v>117555</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2020-05-02</t>
+          <t>2020-05-01</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2996</v>
+        <v>6115</v>
       </c>
       <c r="C64" t="n">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="D64" t="n">
-        <v>2917</v>
+        <v>6073</v>
       </c>
       <c r="E64" t="n">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="H64" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K64" t="n">
-        <v>19873</v>
+        <v>19236</v>
       </c>
       <c r="L64" t="n">
-        <v>1219</v>
+        <v>1177</v>
       </c>
       <c r="M64" t="n">
-        <v>126629</v>
+        <v>123670</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2020-05-03</t>
+          <t>2020-05-02</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1678</v>
+        <v>3021</v>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D65" t="n">
-        <v>1676</v>
+        <v>2992</v>
       </c>
       <c r="E65" t="n">
-        <v>570</v>
+        <v>636</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>570</v>
+        <v>636</v>
       </c>
       <c r="H65" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K65" t="n">
-        <v>20443</v>
+        <v>19872</v>
       </c>
       <c r="L65" t="n">
-        <v>1251</v>
+        <v>1219</v>
       </c>
       <c r="M65" t="n">
-        <v>128307</v>
+        <v>126691</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2020-05-04</t>
+          <t>2020-05-03</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5385</v>
+        <v>1696</v>
       </c>
       <c r="C66" t="n">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="D66" t="n">
-        <v>5290</v>
+        <v>1678</v>
       </c>
       <c r="E66" t="n">
-        <v>525</v>
+        <v>570</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>525</v>
+        <v>570</v>
       </c>
       <c r="H66" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K66" t="n">
-        <v>20968</v>
+        <v>20442</v>
       </c>
       <c r="L66" t="n">
-        <v>1287</v>
+        <v>1251</v>
       </c>
       <c r="M66" t="n">
-        <v>133692</v>
+        <v>128387</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2020-05-05</t>
+          <t>2020-05-04</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6016</v>
+        <v>5388</v>
       </c>
       <c r="C67" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>5938</v>
+        <v>5383</v>
       </c>
       <c r="E67" t="n">
-        <v>838</v>
+        <v>525</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>838</v>
+        <v>525</v>
       </c>
       <c r="H67" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K67" t="n">
-        <v>21806</v>
+        <v>20967</v>
       </c>
       <c r="L67" t="n">
-        <v>1324</v>
+        <v>1287</v>
       </c>
       <c r="M67" t="n">
-        <v>139708</v>
+        <v>133775</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2020-05-06</t>
+          <t>2020-05-05</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5613</v>
+        <v>6026</v>
       </c>
       <c r="C68" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D68" t="n">
-        <v>5594</v>
+        <v>6017</v>
       </c>
       <c r="E68" t="n">
-        <v>624</v>
+        <v>838</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>623</v>
+        <v>838</v>
       </c>
       <c r="H68" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K68" t="n">
-        <v>22430</v>
+        <v>21805</v>
       </c>
       <c r="L68" t="n">
-        <v>1367</v>
+        <v>1324</v>
       </c>
       <c r="M68" t="n">
-        <v>145321</v>
+        <v>139801</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2020-05-07</t>
+          <t>2020-05-06</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>5958</v>
+        <v>5618</v>
       </c>
       <c r="C69" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D69" t="n">
-        <v>5944</v>
+        <v>5606</v>
       </c>
       <c r="E69" t="n">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="H69" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K69" t="n">
-        <v>23071</v>
+        <v>22429</v>
       </c>
       <c r="L69" t="n">
-        <v>1401</v>
+        <v>1367</v>
       </c>
       <c r="M69" t="n">
-        <v>151279</v>
+        <v>145419</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2020-05-08</t>
+          <t>2020-05-07</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6131</v>
+        <v>5986</v>
       </c>
       <c r="C70" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D70" t="n">
-        <v>6095</v>
+        <v>5957</v>
       </c>
       <c r="E70" t="n">
-        <v>593</v>
+        <v>640</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>593</v>
+        <v>640</v>
       </c>
       <c r="H70" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="K70" t="n">
-        <v>23664</v>
+        <v>23069</v>
       </c>
       <c r="L70" t="n">
-        <v>1424</v>
+        <v>1401</v>
       </c>
       <c r="M70" t="n">
-        <v>157410</v>
+        <v>151405</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2020-05-09</t>
+          <t>2020-05-08</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3225</v>
+        <v>6181</v>
       </c>
       <c r="C71" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D71" t="n">
-        <v>3196</v>
+        <v>6159</v>
       </c>
       <c r="E71" t="n">
-        <v>388</v>
+        <v>593</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>388</v>
+        <v>593</v>
       </c>
       <c r="H71" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K71" t="n">
-        <v>24052</v>
+        <v>23662</v>
       </c>
       <c r="L71" t="n">
-        <v>1456</v>
+        <v>1425</v>
       </c>
       <c r="M71" t="n">
-        <v>160635</v>
+        <v>157586</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2020-05-10</t>
+          <t>2020-05-09</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1262</v>
+        <v>3231</v>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>1259</v>
+        <v>3225</v>
       </c>
       <c r="E72" t="n">
-        <v>464</v>
+        <v>388</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>464</v>
+        <v>388</v>
       </c>
       <c r="H72" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K72" t="n">
-        <v>24516</v>
+        <v>24050</v>
       </c>
       <c r="L72" t="n">
-        <v>1488</v>
+        <v>1456</v>
       </c>
       <c r="M72" t="n">
-        <v>161897</v>
+        <v>160817</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2020-05-10</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6880</v>
+        <v>1270</v>
       </c>
       <c r="C73" t="n">
-        <v>255</v>
+        <v>9</v>
       </c>
       <c r="D73" t="n">
-        <v>6625</v>
+        <v>1261</v>
       </c>
       <c r="E73" t="n">
-        <v>519</v>
+        <v>464</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>519</v>
+        <v>463</v>
       </c>
       <c r="H73" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K73" t="n">
-        <v>25035</v>
+        <v>24514</v>
       </c>
       <c r="L73" t="n">
-        <v>1526</v>
+        <v>1489</v>
       </c>
       <c r="M73" t="n">
-        <v>168777</v>
+        <v>162087</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2020-05-12</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6140</v>
+        <v>6891</v>
       </c>
       <c r="C74" t="n">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="D74" t="n">
-        <v>6013</v>
+        <v>6840</v>
       </c>
       <c r="E74" t="n">
-        <v>376</v>
+        <v>519</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>376</v>
+        <v>519</v>
       </c>
       <c r="H74" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K74" t="n">
-        <v>25411</v>
+        <v>25033</v>
       </c>
       <c r="L74" t="n">
-        <v>1562</v>
+        <v>1528</v>
       </c>
       <c r="M74" t="n">
-        <v>174917</v>
+        <v>168978</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2020-05-13</t>
+          <t>2020-05-12</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>6490</v>
+        <v>6174</v>
       </c>
       <c r="C75" t="n">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="D75" t="n">
-        <v>6383</v>
+        <v>6135</v>
       </c>
       <c r="E75" t="n">
-        <v>605</v>
+        <v>376</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>605</v>
+        <v>376</v>
       </c>
       <c r="H75" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K75" t="n">
-        <v>26016</v>
+        <v>25409</v>
       </c>
       <c r="L75" t="n">
-        <v>1588</v>
+        <v>1565</v>
       </c>
       <c r="M75" t="n">
-        <v>181407</v>
+        <v>175152</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2020-05-14</t>
+          <t>2020-05-13</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>7360</v>
+        <v>6527</v>
       </c>
       <c r="C76" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D76" t="n">
-        <v>7315</v>
+        <v>6486</v>
       </c>
       <c r="E76" t="n">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="H76" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="K76" t="n">
-        <v>26604</v>
+        <v>26013</v>
       </c>
       <c r="L76" t="n">
-        <v>1629</v>
+        <v>1591</v>
       </c>
       <c r="M76" t="n">
-        <v>188767</v>
+        <v>181679</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2020-05-15</t>
+          <t>2020-05-14</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>8864</v>
+        <v>7368</v>
       </c>
       <c r="C77" t="n">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="D77" t="n">
-        <v>8735</v>
+        <v>7351</v>
       </c>
       <c r="E77" t="n">
-        <v>641</v>
+        <v>588</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>641</v>
+        <v>588</v>
       </c>
       <c r="H77" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K77" t="n">
-        <v>27245</v>
+        <v>26601</v>
       </c>
       <c r="L77" t="n">
-        <v>1660</v>
+        <v>1632</v>
       </c>
       <c r="M77" t="n">
-        <v>197631</v>
+        <v>189047</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2020-05-16</t>
+          <t>2020-05-15</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2844</v>
+        <v>8833</v>
       </c>
       <c r="C78" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D78" t="n">
-        <v>2834</v>
+        <v>8821</v>
       </c>
       <c r="E78" t="n">
-        <v>496</v>
+        <v>640</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>496</v>
+        <v>639</v>
       </c>
       <c r="H78" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="K78" t="n">
-        <v>27741</v>
+        <v>27241</v>
       </c>
       <c r="L78" t="n">
-        <v>1684</v>
+        <v>1664</v>
       </c>
       <c r="M78" t="n">
-        <v>200475</v>
+        <v>197880</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2020-05-17</t>
+          <t>2020-05-16</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1817</v>
+        <v>2846</v>
       </c>
       <c r="C79" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>1804</v>
+        <v>2840</v>
       </c>
       <c r="E79" t="n">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="H79" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J79" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K79" t="n">
-        <v>28226</v>
+        <v>27737</v>
       </c>
       <c r="L79" t="n">
-        <v>1707</v>
+        <v>1692</v>
       </c>
       <c r="M79" t="n">
-        <v>202292</v>
+        <v>200726</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-17</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>7844</v>
+        <v>1818</v>
       </c>
       <c r="C80" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>7832</v>
+        <v>1817</v>
       </c>
       <c r="E80" t="n">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="H80" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K80" t="n">
-        <v>28687</v>
+        <v>28222</v>
       </c>
       <c r="L80" t="n">
-        <v>1741</v>
+        <v>1717</v>
       </c>
       <c r="M80" t="n">
-        <v>210136</v>
+        <v>202544</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2020-05-19</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6361</v>
+        <v>7860</v>
       </c>
       <c r="C81" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D81" t="n">
-        <v>6315</v>
+        <v>7839</v>
       </c>
       <c r="E81" t="n">
-        <v>569</v>
+        <v>461</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>569</v>
+        <v>461</v>
       </c>
       <c r="H81" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K81" t="n">
-        <v>29256</v>
+        <v>28683</v>
       </c>
       <c r="L81" t="n">
-        <v>1770</v>
+        <v>1754</v>
       </c>
       <c r="M81" t="n">
-        <v>216497</v>
+        <v>210404</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>5926</v>
+        <v>6507</v>
       </c>
       <c r="C82" t="n">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="D82" t="n">
-        <v>5801</v>
+        <v>6352</v>
       </c>
       <c r="E82" t="n">
-        <v>658</v>
+        <v>568</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>658</v>
+        <v>568</v>
       </c>
       <c r="H82" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K82" t="n">
-        <v>29914</v>
+        <v>29251</v>
       </c>
       <c r="L82" t="n">
-        <v>1791</v>
+        <v>1783</v>
       </c>
       <c r="M82" t="n">
-        <v>222423</v>
+        <v>216911</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2020-05-21</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>6538</v>
+        <v>6074</v>
       </c>
       <c r="C83" t="n">
-        <v>622</v>
+        <v>166</v>
       </c>
       <c r="D83" t="n">
-        <v>5916</v>
+        <v>5908</v>
       </c>
       <c r="E83" t="n">
-        <v>471</v>
+        <v>656</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>470</v>
+        <v>656</v>
       </c>
       <c r="H83" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J83" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K83" t="n">
-        <v>30385</v>
+        <v>29907</v>
       </c>
       <c r="L83" t="n">
-        <v>1823</v>
+        <v>1809</v>
       </c>
       <c r="M83" t="n">
-        <v>228961</v>
+        <v>222985</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2020-05-21</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>7227</v>
+        <v>6778</v>
       </c>
       <c r="C84" t="n">
-        <v>1586</v>
+        <v>246</v>
       </c>
       <c r="D84" t="n">
-        <v>5641</v>
+        <v>6532</v>
       </c>
       <c r="E84" t="n">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="H84" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="K84" t="n">
-        <v>30880</v>
+        <v>30378</v>
       </c>
       <c r="L84" t="n">
-        <v>1835</v>
+        <v>1845</v>
       </c>
       <c r="M84" t="n">
-        <v>236188</v>
+        <v>229763</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2466</v>
+        <v>7505</v>
       </c>
       <c r="C85" t="n">
-        <v>402</v>
+        <v>285</v>
       </c>
       <c r="D85" t="n">
-        <v>2064</v>
+        <v>7220</v>
       </c>
       <c r="E85" t="n">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="F85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="H85" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I85" t="n">
         <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K85" t="n">
-        <v>31355</v>
+        <v>30873</v>
       </c>
       <c r="L85" t="n">
-        <v>1854</v>
+        <v>1859</v>
       </c>
       <c r="M85" t="n">
-        <v>238654</v>
+        <v>237268</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2020-05-24</t>
+          <t>2020-05-23</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1480</v>
+        <v>2566</v>
       </c>
       <c r="C86" t="n">
-        <v>599</v>
+        <v>105</v>
       </c>
       <c r="D86" t="n">
-        <v>881</v>
+        <v>2461</v>
       </c>
       <c r="E86" t="n">
-        <v>344</v>
+        <v>475</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>344</v>
+        <v>475</v>
       </c>
       <c r="H86" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="K86" t="n">
-        <v>31699</v>
+        <v>31348</v>
       </c>
       <c r="L86" t="n">
-        <v>1864</v>
+        <v>1880</v>
       </c>
       <c r="M86" t="n">
-        <v>240134</v>
+        <v>239834</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2020-05-25</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1262</v>
+        <v>1611</v>
       </c>
       <c r="C87" t="n">
-        <v>756</v>
+        <v>133</v>
       </c>
       <c r="D87" t="n">
-        <v>506</v>
+        <v>1478</v>
       </c>
       <c r="E87" t="n">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="H87" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K87" t="n">
-        <v>32062</v>
+        <v>31692</v>
       </c>
       <c r="L87" t="n">
-        <v>1883</v>
+        <v>1890</v>
       </c>
       <c r="M87" t="n">
-        <v>241396</v>
+        <v>241445</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2020-05-26</t>
+          <t>2020-05-25</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>803</v>
+        <v>1548</v>
       </c>
       <c r="C88" t="n">
-        <v>697</v>
+        <v>286</v>
       </c>
       <c r="D88" t="n">
-        <v>106</v>
+        <v>1262</v>
       </c>
       <c r="E88" t="n">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H88" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I88" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="K88" t="n">
-        <v>32428</v>
+        <v>32054</v>
       </c>
       <c r="L88" t="n">
-        <v>1899</v>
+        <v>1909</v>
       </c>
       <c r="M88" t="n">
-        <v>242199</v>
+        <v>242993</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
+          <t>2020-05-26</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>5062</v>
+      </c>
+      <c r="C89" t="n">
+        <v>4264</v>
+      </c>
+      <c r="D89" t="n">
+        <v>798</v>
+      </c>
+      <c r="E89" t="n">
+        <v>364</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>364</v>
+      </c>
+      <c r="H89" t="n">
+        <v>16</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>16</v>
+      </c>
+      <c r="K89" t="n">
+        <v>32418</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1925</v>
+      </c>
+      <c r="M89" t="n">
+        <v>248055</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
           <t>2020-05-27</t>
         </is>
       </c>
-      <c r="B89" t="n">
-        <v>88</v>
-      </c>
-      <c r="C89" t="n">
-        <v>88</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" t="n">
-        <v>640</v>
-      </c>
-      <c r="F89" t="n">
-        <v>640</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
+      <c r="B90" t="n">
+        <v>513</v>
+      </c>
+      <c r="C90" t="n">
+        <v>434</v>
+      </c>
+      <c r="D90" t="n">
+        <v>79</v>
+      </c>
+      <c r="E90" t="n">
+        <v>628</v>
+      </c>
+      <c r="F90" t="n">
+        <v>4</v>
+      </c>
+      <c r="G90" t="n">
+        <v>624</v>
+      </c>
+      <c r="H90" t="n">
+        <v>13</v>
+      </c>
+      <c r="I90" t="n">
+        <v>5</v>
+      </c>
+      <c r="J90" t="n">
         <v>8</v>
       </c>
-      <c r="I89" t="n">
+      <c r="K90" t="n">
+        <v>33046</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1938</v>
+      </c>
+      <c r="M90" t="n">
+        <v>248568</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2020-05-28</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>145</v>
+      </c>
+      <c r="C91" t="n">
+        <v>145</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>512</v>
+      </c>
+      <c r="F91" t="n">
+        <v>512</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
         <v>8</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="n">
-        <v>33068</v>
-      </c>
-      <c r="L89" t="n">
-        <v>1907</v>
-      </c>
-      <c r="M89" t="n">
-        <v>242287</v>
+      <c r="I91" t="n">
+        <v>8</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>33558</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1946</v>
+      </c>
+      <c r="M91" t="n">
+        <v>248713</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M91"/>
+  <dimension ref="A1:M92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1983-01-10</t>
+          <t>2020-02-29</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -479,17 +479,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2020-02-29</t>
+          <t>2020-03-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -516,23 +516,23 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-03-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -559,13 +559,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -602,23 +602,23 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-03-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -645,32 +645,32 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-03-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -682,38 +682,38 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-03-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -731,32 +731,32 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2020-03-07</t>
+          <t>2020-03-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -768,38 +768,38 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2020-03-08</t>
+          <t>2020-03-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -811,38 +811,38 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-03-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -854,38 +854,38 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>59</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-03-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -897,29 +897,29 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>111</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-03-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -940,38 +940,38 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>171</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-03-13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -983,38 +983,38 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>369</v>
+        <v>615</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2020-03-13</t>
+          <t>2020-03-14</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1032,75 +1032,75 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>616</v>
+        <v>893</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2020-03-14</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>278</v>
+        <v>145</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>278</v>
+        <v>145</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>894</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2020-03-15</t>
+          <t>2020-03-16</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145</v>
+        <v>642</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>145</v>
+        <v>642</v>
       </c>
       <c r="E17" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1112,253 +1112,253 @@
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>1039</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2020-03-16</t>
+          <t>2020-03-17</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>642</v>
+        <v>742</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>642</v>
+        <v>742</v>
       </c>
       <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>9</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>39</v>
+      </c>
+      <c r="L18" t="n">
         <v>4</v>
       </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>4</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>30</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2</v>
-      </c>
       <c r="M18" t="n">
-        <v>1681</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2020-03-17</t>
+          <t>2020-03-18</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>742</v>
+        <v>869</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>742</v>
+        <v>869</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>2423</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2020-03-18</t>
+          <t>2020-03-19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>869</v>
+        <v>1081</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>869</v>
+        <v>1081</v>
       </c>
       <c r="E20" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="L20" t="n">
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>3292</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2020-03-19</t>
+          <t>2020-03-20</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1081</v>
+        <v>1736</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1081</v>
+        <v>1736</v>
       </c>
       <c r="E21" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>4373</v>
+        <v>6108</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2020-03-20</t>
+          <t>2020-03-21</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1736</v>
+        <v>697</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1736</v>
+        <v>697</v>
       </c>
       <c r="E22" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="L22" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M22" t="n">
-        <v>6109</v>
+        <v>6805</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2020-03-21</t>
+          <t>2020-03-22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>697</v>
+        <v>1021</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>697</v>
+        <v>1021</v>
       </c>
       <c r="E23" t="n">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="H23" t="n">
         <v>5</v>
@@ -1370,38 +1370,38 @@
         <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="L23" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M23" t="n">
-        <v>6806</v>
+        <v>7826</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2020-03-22</t>
+          <t>2020-03-23</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1021</v>
+        <v>1452</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1021</v>
+        <v>1452</v>
       </c>
       <c r="E24" t="n">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="H24" t="n">
         <v>5</v>
@@ -1413,38 +1413,38 @@
         <v>5</v>
       </c>
       <c r="K24" t="n">
-        <v>256</v>
+        <v>361</v>
       </c>
       <c r="L24" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M24" t="n">
-        <v>7827</v>
+        <v>9278</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2020-03-23</t>
+          <t>2020-03-24</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1452</v>
+        <v>1605</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1452</v>
+        <v>1605</v>
       </c>
       <c r="E25" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H25" t="n">
         <v>5</v>
@@ -1456,339 +1456,339 @@
         <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>361</v>
+        <v>474</v>
       </c>
       <c r="L25" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M25" t="n">
-        <v>9279</v>
+        <v>10883</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2020-03-24</t>
+          <t>2020-03-25</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1604</v>
+        <v>2319</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1604</v>
+        <v>2319</v>
       </c>
       <c r="E26" t="n">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K26" t="n">
-        <v>474</v>
+        <v>636</v>
       </c>
       <c r="L26" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M26" t="n">
-        <v>10883</v>
+        <v>13202</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2020-03-25</t>
+          <t>2020-03-26</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2319</v>
+        <v>2607</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2319</v>
+        <v>2607</v>
       </c>
       <c r="E27" t="n">
-        <v>162</v>
+        <v>303</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>162</v>
+        <v>303</v>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K27" t="n">
-        <v>636</v>
+        <v>939</v>
       </c>
       <c r="L27" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="M27" t="n">
-        <v>13202</v>
+        <v>15809</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2020-03-26</t>
+          <t>2020-03-27</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2607</v>
+        <v>2163</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2607</v>
+        <v>2163</v>
       </c>
       <c r="E28" t="n">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>939</v>
+        <v>1221</v>
       </c>
       <c r="L28" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M28" t="n">
-        <v>15809</v>
+        <v>17972</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2020-03-27</t>
+          <t>2020-03-28</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2162</v>
+        <v>1270</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2162</v>
+        <v>1270</v>
       </c>
       <c r="E29" t="n">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K29" t="n">
-        <v>1221</v>
+        <v>1509</v>
       </c>
       <c r="L29" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="M29" t="n">
-        <v>17971</v>
+        <v>19242</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2020-03-28</t>
+          <t>2020-03-29</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1270</v>
+        <v>1633</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1270</v>
+        <v>1633</v>
       </c>
       <c r="E30" t="n">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="H30" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K30" t="n">
-        <v>1509</v>
+        <v>1780</v>
       </c>
       <c r="L30" t="n">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="M30" t="n">
-        <v>19241</v>
+        <v>20875</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2020-03-29</t>
+          <t>2020-03-30</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1633</v>
+        <v>1960</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1633</v>
+        <v>1960</v>
       </c>
       <c r="E31" t="n">
-        <v>271</v>
+        <v>372</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>271</v>
+        <v>372</v>
       </c>
       <c r="H31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K31" t="n">
-        <v>1780</v>
+        <v>2152</v>
       </c>
       <c r="L31" t="n">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="M31" t="n">
-        <v>20874</v>
+        <v>22835</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2020-03-30</t>
+          <t>2020-03-31</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1960</v>
+        <v>2316</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1960</v>
+        <v>2316</v>
       </c>
       <c r="E32" t="n">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="H32" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K32" t="n">
-        <v>2153</v>
+        <v>2558</v>
       </c>
       <c r="L32" t="n">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="M32" t="n">
-        <v>22834</v>
+        <v>25151</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2316</v>
+        <v>2540</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2316</v>
+        <v>2540</v>
       </c>
       <c r="E33" t="n">
-        <v>406</v>
+        <v>468</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>406</v>
+        <v>468</v>
       </c>
       <c r="H33" t="n">
         <v>22</v>
@@ -1800,38 +1800,38 @@
         <v>22</v>
       </c>
       <c r="K33" t="n">
-        <v>2559</v>
+        <v>3026</v>
       </c>
       <c r="L33" t="n">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="M33" t="n">
-        <v>25150</v>
+        <v>27691</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2020-04-02</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2540</v>
+        <v>2695</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2540</v>
+        <v>2695</v>
       </c>
       <c r="E34" t="n">
-        <v>469</v>
+        <v>396</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>469</v>
+        <v>396</v>
       </c>
       <c r="H34" t="n">
         <v>22</v>
@@ -1843,244 +1843,244 @@
         <v>22</v>
       </c>
       <c r="K34" t="n">
-        <v>3028</v>
+        <v>3422</v>
       </c>
       <c r="L34" t="n">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="M34" t="n">
-        <v>27690</v>
+        <v>30386</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2020-04-02</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2695</v>
+        <v>2800</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2695</v>
+        <v>2800</v>
       </c>
       <c r="E35" t="n">
-        <v>396</v>
+        <v>513</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>396</v>
+        <v>513</v>
       </c>
       <c r="H35" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K35" t="n">
-        <v>3424</v>
+        <v>3935</v>
       </c>
       <c r="L35" t="n">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="M35" t="n">
-        <v>30385</v>
+        <v>33186</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2020-04-03</t>
+          <t>2020-04-04</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2798</v>
+        <v>1636</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>2798</v>
+        <v>1636</v>
       </c>
       <c r="E36" t="n">
-        <v>513</v>
+        <v>461</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>513</v>
+        <v>461</v>
       </c>
       <c r="H36" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K36" t="n">
-        <v>3937</v>
+        <v>4396</v>
       </c>
       <c r="L36" t="n">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="M36" t="n">
-        <v>33183</v>
+        <v>34822</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2020-04-04</t>
+          <t>2020-04-05</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1636</v>
+        <v>1095</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1636</v>
+        <v>1095</v>
       </c>
       <c r="E37" t="n">
-        <v>461</v>
+        <v>527</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>461</v>
+        <v>527</v>
       </c>
       <c r="H37" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K37" t="n">
-        <v>4398</v>
+        <v>4923</v>
       </c>
       <c r="L37" t="n">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="M37" t="n">
-        <v>34819</v>
+        <v>35917</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2020-04-06</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1095</v>
+        <v>2421</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1095</v>
+        <v>2421</v>
       </c>
       <c r="E38" t="n">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="H38" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K38" t="n">
-        <v>4925</v>
+        <v>5480</v>
       </c>
       <c r="L38" t="n">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>35914</v>
+        <v>38338</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2020-04-06</t>
+          <t>2020-04-07</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2420</v>
+        <v>2783</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>2420</v>
+        <v>2782</v>
       </c>
       <c r="E39" t="n">
-        <v>557</v>
+        <v>422</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>557</v>
+        <v>422</v>
       </c>
       <c r="H39" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K39" t="n">
-        <v>5482</v>
+        <v>5902</v>
       </c>
       <c r="L39" t="n">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>38334</v>
+        <v>41121</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>2020-04-08</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2782</v>
+        <v>3071</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2782</v>
+        <v>3071</v>
       </c>
       <c r="E40" t="n">
         <v>422</v>
@@ -2092,2215 +2092,2258 @@
         <v>422</v>
       </c>
       <c r="H40" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K40" t="n">
-        <v>5904</v>
+        <v>6324</v>
       </c>
       <c r="L40" t="n">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="M40" t="n">
-        <v>41116</v>
+        <v>44192</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2020-04-08</t>
+          <t>2020-04-09</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3071</v>
+        <v>2747</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>3071</v>
+        <v>2746</v>
       </c>
       <c r="E41" t="n">
-        <v>422</v>
+        <v>558</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>422</v>
+        <v>558</v>
       </c>
       <c r="H41" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="K41" t="n">
-        <v>6326</v>
+        <v>6882</v>
       </c>
       <c r="L41" t="n">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="M41" t="n">
-        <v>44187</v>
+        <v>46939</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2020-04-09</t>
+          <t>2020-04-10</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>2747</v>
+        <v>2727</v>
       </c>
       <c r="E42" t="n">
-        <v>558</v>
+        <v>515</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>558</v>
+        <v>515</v>
       </c>
       <c r="H42" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K42" t="n">
-        <v>6884</v>
+        <v>7397</v>
       </c>
       <c r="L42" t="n">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="M42" t="n">
-        <v>46934</v>
+        <v>49666</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2020-04-10</t>
+          <t>2020-04-11</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2727</v>
+        <v>1543</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>2727</v>
+        <v>1543</v>
       </c>
       <c r="E43" t="n">
-        <v>515</v>
+        <v>486</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>515</v>
+        <v>486</v>
       </c>
       <c r="H43" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K43" t="n">
-        <v>7399</v>
+        <v>7883</v>
       </c>
       <c r="L43" t="n">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="M43" t="n">
-        <v>49661</v>
+        <v>51209</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2020-04-11</t>
+          <t>2020-04-12</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1543</v>
+        <v>699</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1543</v>
+        <v>699</v>
       </c>
       <c r="E44" t="n">
-        <v>486</v>
+        <v>319</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>486</v>
+        <v>319</v>
       </c>
       <c r="H44" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K44" t="n">
-        <v>7885</v>
+        <v>8202</v>
       </c>
       <c r="L44" t="n">
-        <v>417</v>
+        <v>446</v>
       </c>
       <c r="M44" t="n">
-        <v>51204</v>
+        <v>51908</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2020-04-12</t>
+          <t>2020-04-13</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>699</v>
+        <v>3461</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>699</v>
+        <v>3460</v>
       </c>
       <c r="E45" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="H45" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K45" t="n">
-        <v>8204</v>
+        <v>8494</v>
       </c>
       <c r="L45" t="n">
-        <v>446</v>
+        <v>480</v>
       </c>
       <c r="M45" t="n">
-        <v>51903</v>
+        <v>55369</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2020-04-13</t>
+          <t>2020-04-14</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3460</v>
+        <v>3607</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>3460</v>
+        <v>3607</v>
       </c>
       <c r="E46" t="n">
-        <v>292</v>
+        <v>417</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>292</v>
+        <v>417</v>
       </c>
       <c r="H46" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="K46" t="n">
-        <v>8496</v>
+        <v>8911</v>
       </c>
       <c r="L46" t="n">
-        <v>480</v>
+        <v>526</v>
       </c>
       <c r="M46" t="n">
-        <v>55363</v>
+        <v>58976</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2020-04-14</t>
+          <t>2020-04-15</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3606</v>
+        <v>3301</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>3604</v>
+        <v>3301</v>
       </c>
       <c r="E47" t="n">
-        <v>417</v>
+        <v>580</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>417</v>
+        <v>580</v>
       </c>
       <c r="H47" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K47" t="n">
-        <v>8913</v>
+        <v>9491</v>
       </c>
       <c r="L47" t="n">
-        <v>526</v>
+        <v>563</v>
       </c>
       <c r="M47" t="n">
-        <v>58969</v>
+        <v>62277</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2020-04-15</t>
+          <t>2020-04-16</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3302</v>
+        <v>3999</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>3302</v>
+        <v>3997</v>
       </c>
       <c r="E48" t="n">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="H48" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K48" t="n">
-        <v>9493</v>
+        <v>10091</v>
       </c>
       <c r="L48" t="n">
-        <v>563</v>
+        <v>597</v>
       </c>
       <c r="M48" t="n">
-        <v>62271</v>
+        <v>66276</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2020-04-16</t>
+          <t>2020-04-17</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3998</v>
+        <v>4162</v>
       </c>
       <c r="C49" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>3988</v>
+        <v>4162</v>
       </c>
       <c r="E49" t="n">
-        <v>600</v>
+        <v>505</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>600</v>
+        <v>505</v>
       </c>
       <c r="H49" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K49" t="n">
-        <v>10093</v>
+        <v>10596</v>
       </c>
       <c r="L49" t="n">
-        <v>597</v>
+        <v>633</v>
       </c>
       <c r="M49" t="n">
-        <v>66269</v>
+        <v>70438</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2020-04-17</t>
+          <t>2020-04-18</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4165</v>
+        <v>1757</v>
       </c>
       <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1757</v>
+      </c>
+      <c r="E50" t="n">
+        <v>557</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>557</v>
+      </c>
+      <c r="H50" t="n">
         <v>28</v>
       </c>
-      <c r="D50" t="n">
-        <v>4137</v>
-      </c>
-      <c r="E50" t="n">
-        <v>505</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>505</v>
-      </c>
-      <c r="H50" t="n">
-        <v>36</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K50" t="n">
-        <v>10598</v>
+        <v>11153</v>
       </c>
       <c r="L50" t="n">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="M50" t="n">
-        <v>70434</v>
+        <v>72195</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2020-04-18</t>
+          <t>2020-04-19</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1757</v>
+        <v>1102</v>
       </c>
       <c r="C51" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>1732</v>
+        <v>1100</v>
       </c>
       <c r="E51" t="n">
-        <v>557</v>
+        <v>479</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>557</v>
+        <v>479</v>
       </c>
       <c r="H51" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="K51" t="n">
-        <v>11155</v>
+        <v>11632</v>
       </c>
       <c r="L51" t="n">
-        <v>661</v>
+        <v>697</v>
       </c>
       <c r="M51" t="n">
-        <v>72191</v>
+        <v>73297</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2020-04-19</t>
+          <t>2020-04-20</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1100</v>
+        <v>4349</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>1100</v>
+        <v>4345</v>
       </c>
       <c r="E52" t="n">
-        <v>479</v>
+        <v>385</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>479</v>
+        <v>385</v>
       </c>
       <c r="H52" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K52" t="n">
-        <v>11634</v>
+        <v>12017</v>
       </c>
       <c r="L52" t="n">
-        <v>697</v>
+        <v>735</v>
       </c>
       <c r="M52" t="n">
-        <v>73291</v>
+        <v>77646</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2020-04-20</t>
+          <t>2020-04-21</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4348</v>
+        <v>3851</v>
       </c>
       <c r="C53" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>4339</v>
+        <v>3848</v>
       </c>
       <c r="E53" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="H53" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K53" t="n">
-        <v>12019</v>
+        <v>12396</v>
       </c>
       <c r="L53" t="n">
-        <v>735</v>
+        <v>783</v>
       </c>
       <c r="M53" t="n">
-        <v>77639</v>
+        <v>81497</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2020-04-21</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3848</v>
+        <v>3864</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>3847</v>
+        <v>3859</v>
       </c>
       <c r="E54" t="n">
-        <v>379</v>
+        <v>605</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>379</v>
+        <v>605</v>
       </c>
       <c r="H54" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K54" t="n">
-        <v>12398</v>
+        <v>13001</v>
       </c>
       <c r="L54" t="n">
-        <v>783</v>
+        <v>833</v>
       </c>
       <c r="M54" t="n">
-        <v>81487</v>
+        <v>85361</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2020-04-22</t>
+          <t>2020-04-23</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3859</v>
+        <v>4371</v>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>3856</v>
+        <v>4369</v>
       </c>
       <c r="E55" t="n">
-        <v>605</v>
+        <v>644</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>605</v>
+        <v>644</v>
       </c>
       <c r="H55" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="K55" t="n">
-        <v>13003</v>
+        <v>13645</v>
       </c>
       <c r="L55" t="n">
-        <v>833</v>
+        <v>871</v>
       </c>
       <c r="M55" t="n">
-        <v>85346</v>
+        <v>89732</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2020-04-23</t>
+          <t>2020-04-24</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4370</v>
+        <v>3544</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>4370</v>
+        <v>3538</v>
       </c>
       <c r="E56" t="n">
-        <v>644</v>
+        <v>699</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>644</v>
+        <v>699</v>
       </c>
       <c r="H56" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K56" t="n">
-        <v>13647</v>
+        <v>14344</v>
       </c>
       <c r="L56" t="n">
-        <v>871</v>
+        <v>907</v>
       </c>
       <c r="M56" t="n">
-        <v>89716</v>
+        <v>93276</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2020-04-24</t>
+          <t>2020-04-25</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3539</v>
+        <v>2280</v>
       </c>
       <c r="C57" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>3521</v>
+        <v>2280</v>
       </c>
       <c r="E57" t="n">
-        <v>699</v>
+        <v>624</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>699</v>
+        <v>624</v>
       </c>
       <c r="H57" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K57" t="n">
-        <v>14346</v>
+        <v>14968</v>
       </c>
       <c r="L57" t="n">
-        <v>907</v>
+        <v>948</v>
       </c>
       <c r="M57" t="n">
-        <v>93255</v>
+        <v>95556</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2020-04-25</t>
+          <t>2020-04-26</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2281</v>
+        <v>1803</v>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>2279</v>
+        <v>1803</v>
       </c>
       <c r="E58" t="n">
-        <v>624</v>
+        <v>950</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>624</v>
+        <v>950</v>
       </c>
       <c r="H58" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K58" t="n">
-        <v>14970</v>
+        <v>15918</v>
       </c>
       <c r="L58" t="n">
-        <v>948</v>
+        <v>982</v>
       </c>
       <c r="M58" t="n">
-        <v>95536</v>
+        <v>97359</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2020-04-26</t>
+          <t>2020-04-27</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1803</v>
+        <v>4734</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>1803</v>
+        <v>4733</v>
       </c>
       <c r="E59" t="n">
-        <v>950</v>
+        <v>621</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>950</v>
+        <v>621</v>
       </c>
       <c r="H59" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K59" t="n">
-        <v>15920</v>
+        <v>16539</v>
       </c>
       <c r="L59" t="n">
-        <v>982</v>
+        <v>1024</v>
       </c>
       <c r="M59" t="n">
-        <v>97339</v>
+        <v>102093</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2020-04-27</t>
+          <t>2020-04-28</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4732</v>
+        <v>4982</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>4730</v>
+        <v>4982</v>
       </c>
       <c r="E60" t="n">
-        <v>621</v>
+        <v>595</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>621</v>
+        <v>595</v>
       </c>
       <c r="H60" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K60" t="n">
-        <v>16541</v>
+        <v>17134</v>
       </c>
       <c r="L60" t="n">
-        <v>1024</v>
+        <v>1058</v>
       </c>
       <c r="M60" t="n">
-        <v>102071</v>
+        <v>107075</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2020-04-28</t>
+          <t>2020-04-29</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4983</v>
+        <v>5282</v>
       </c>
       <c r="C61" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>4933</v>
+        <v>5279</v>
       </c>
       <c r="E61" t="n">
-        <v>595</v>
+        <v>653</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>594</v>
+        <v>653</v>
       </c>
       <c r="H61" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K61" t="n">
-        <v>17136</v>
+        <v>17787</v>
       </c>
       <c r="L61" t="n">
-        <v>1058</v>
+        <v>1099</v>
       </c>
       <c r="M61" t="n">
-        <v>107054</v>
+        <v>112357</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2020-04-29</t>
+          <t>2020-04-30</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5223</v>
+        <v>5389</v>
       </c>
       <c r="C62" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>5175</v>
+        <v>5383</v>
       </c>
       <c r="E62" t="n">
-        <v>653</v>
+        <v>794</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>652</v>
+        <v>794</v>
       </c>
       <c r="H62" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K62" t="n">
-        <v>17789</v>
+        <v>18581</v>
       </c>
       <c r="L62" t="n">
-        <v>1099</v>
+        <v>1144</v>
       </c>
       <c r="M62" t="n">
-        <v>112277</v>
+        <v>117746</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2020-04-30</t>
+          <t>2020-05-01</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>5278</v>
+        <v>6294</v>
       </c>
       <c r="C63" t="n">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D63" t="n">
-        <v>5207</v>
+        <v>6232</v>
       </c>
       <c r="E63" t="n">
-        <v>795</v>
+        <v>652</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>795</v>
+        <v>652</v>
       </c>
       <c r="H63" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K63" t="n">
-        <v>18584</v>
+        <v>19233</v>
       </c>
       <c r="L63" t="n">
-        <v>1144</v>
+        <v>1177</v>
       </c>
       <c r="M63" t="n">
-        <v>117555</v>
+        <v>124040</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2020-05-01</t>
+          <t>2020-05-02</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>6115</v>
+        <v>3122</v>
       </c>
       <c r="C64" t="n">
+        <v>26</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3096</v>
+      </c>
+      <c r="E64" t="n">
+        <v>635</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>635</v>
+      </c>
+      <c r="H64" t="n">
         <v>42</v>
       </c>
-      <c r="D64" t="n">
-        <v>6073</v>
-      </c>
-      <c r="E64" t="n">
-        <v>652</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>652</v>
-      </c>
-      <c r="H64" t="n">
-        <v>33</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K64" t="n">
-        <v>19236</v>
+        <v>19868</v>
       </c>
       <c r="L64" t="n">
-        <v>1177</v>
+        <v>1219</v>
       </c>
       <c r="M64" t="n">
-        <v>123670</v>
+        <v>127162</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2020-05-02</t>
+          <t>2020-05-03</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3021</v>
+        <v>1735</v>
       </c>
       <c r="C65" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D65" t="n">
-        <v>2992</v>
+        <v>1726</v>
       </c>
       <c r="E65" t="n">
-        <v>636</v>
+        <v>570</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>636</v>
+        <v>570</v>
       </c>
       <c r="H65" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K65" t="n">
-        <v>19872</v>
+        <v>20438</v>
       </c>
       <c r="L65" t="n">
-        <v>1219</v>
+        <v>1251</v>
       </c>
       <c r="M65" t="n">
-        <v>126691</v>
+        <v>128897</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2020-05-03</t>
+          <t>2020-05-04</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1696</v>
+        <v>5396</v>
       </c>
       <c r="C66" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>1678</v>
+        <v>5391</v>
       </c>
       <c r="E66" t="n">
-        <v>570</v>
+        <v>525</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>570</v>
+        <v>525</v>
       </c>
       <c r="H66" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K66" t="n">
-        <v>20442</v>
+        <v>20963</v>
       </c>
       <c r="L66" t="n">
-        <v>1251</v>
+        <v>1287</v>
       </c>
       <c r="M66" t="n">
-        <v>128387</v>
+        <v>134293</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2020-05-04</t>
+          <t>2020-05-05</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5388</v>
+        <v>6081</v>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D67" t="n">
-        <v>5383</v>
+        <v>6073</v>
       </c>
       <c r="E67" t="n">
-        <v>525</v>
+        <v>837</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>525</v>
+        <v>837</v>
       </c>
       <c r="H67" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K67" t="n">
-        <v>20967</v>
+        <v>21800</v>
       </c>
       <c r="L67" t="n">
-        <v>1287</v>
+        <v>1324</v>
       </c>
       <c r="M67" t="n">
-        <v>133775</v>
+        <v>140374</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2020-05-05</t>
+          <t>2020-05-06</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>6026</v>
+        <v>5622</v>
       </c>
       <c r="C68" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>6017</v>
+        <v>5622</v>
       </c>
       <c r="E68" t="n">
-        <v>838</v>
+        <v>623</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>838</v>
+        <v>623</v>
       </c>
       <c r="H68" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K68" t="n">
-        <v>21805</v>
+        <v>22423</v>
       </c>
       <c r="L68" t="n">
-        <v>1324</v>
+        <v>1367</v>
       </c>
       <c r="M68" t="n">
-        <v>139801</v>
+        <v>145996</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2020-05-06</t>
+          <t>2020-05-07</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>5618</v>
+        <v>5986</v>
       </c>
       <c r="C69" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>5606</v>
+        <v>5985</v>
       </c>
       <c r="E69" t="n">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="H69" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K69" t="n">
-        <v>22429</v>
+        <v>23063</v>
       </c>
       <c r="L69" t="n">
-        <v>1367</v>
+        <v>1401</v>
       </c>
       <c r="M69" t="n">
-        <v>145419</v>
+        <v>151982</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2020-05-07</t>
+          <t>2020-05-08</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>5986</v>
+        <v>6184</v>
       </c>
       <c r="C70" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>5957</v>
+        <v>6184</v>
       </c>
       <c r="E70" t="n">
-        <v>640</v>
+        <v>592</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>640</v>
+        <v>592</v>
       </c>
       <c r="H70" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K70" t="n">
-        <v>23069</v>
+        <v>23655</v>
       </c>
       <c r="L70" t="n">
-        <v>1401</v>
+        <v>1425</v>
       </c>
       <c r="M70" t="n">
-        <v>151405</v>
+        <v>158166</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2020-05-08</t>
+          <t>2020-05-09</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>6181</v>
+        <v>3234</v>
       </c>
       <c r="C71" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>6159</v>
+        <v>3232</v>
       </c>
       <c r="E71" t="n">
-        <v>593</v>
+        <v>388</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>593</v>
+        <v>388</v>
       </c>
       <c r="H71" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K71" t="n">
-        <v>23662</v>
+        <v>24043</v>
       </c>
       <c r="L71" t="n">
-        <v>1425</v>
+        <v>1456</v>
       </c>
       <c r="M71" t="n">
-        <v>157586</v>
+        <v>161400</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2020-05-09</t>
+          <t>2020-05-10</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>3231</v>
+        <v>1273</v>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>3225</v>
+        <v>1270</v>
       </c>
       <c r="E72" t="n">
-        <v>388</v>
+        <v>464</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>388</v>
+        <v>464</v>
       </c>
       <c r="H72" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K72" t="n">
-        <v>24050</v>
+        <v>24507</v>
       </c>
       <c r="L72" t="n">
-        <v>1456</v>
+        <v>1489</v>
       </c>
       <c r="M72" t="n">
-        <v>160817</v>
+        <v>162673</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2020-05-10</t>
+          <t>2020-05-11</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1270</v>
+        <v>6927</v>
       </c>
       <c r="C73" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>1261</v>
+        <v>6925</v>
       </c>
       <c r="E73" t="n">
-        <v>464</v>
+        <v>519</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>463</v>
+        <v>519</v>
       </c>
       <c r="H73" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K73" t="n">
-        <v>24514</v>
+        <v>25026</v>
       </c>
       <c r="L73" t="n">
-        <v>1489</v>
+        <v>1528</v>
       </c>
       <c r="M73" t="n">
-        <v>162087</v>
+        <v>169600</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2020-05-12</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6891</v>
+        <v>6419</v>
       </c>
       <c r="C74" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D74" t="n">
-        <v>6840</v>
+        <v>6406</v>
       </c>
       <c r="E74" t="n">
-        <v>519</v>
+        <v>376</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>519</v>
+        <v>376</v>
       </c>
       <c r="H74" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K74" t="n">
-        <v>25033</v>
+        <v>25402</v>
       </c>
       <c r="L74" t="n">
-        <v>1528</v>
+        <v>1565</v>
       </c>
       <c r="M74" t="n">
-        <v>168978</v>
+        <v>176019</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2020-05-12</t>
+          <t>2020-05-13</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>6174</v>
+        <v>6776</v>
       </c>
       <c r="C75" t="n">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="D75" t="n">
-        <v>6135</v>
+        <v>6654</v>
       </c>
       <c r="E75" t="n">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>376</v>
+        <v>604</v>
       </c>
       <c r="H75" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K75" t="n">
-        <v>25409</v>
+        <v>26006</v>
       </c>
       <c r="L75" t="n">
-        <v>1565</v>
+        <v>1591</v>
       </c>
       <c r="M75" t="n">
-        <v>175152</v>
+        <v>182795</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2020-05-13</t>
+          <t>2020-05-14</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>6527</v>
+        <v>7695</v>
       </c>
       <c r="C76" t="n">
+        <v>9</v>
+      </c>
+      <c r="D76" t="n">
+        <v>7686</v>
+      </c>
+      <c r="E76" t="n">
+        <v>588</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>588</v>
+      </c>
+      <c r="H76" t="n">
         <v>41</v>
       </c>
-      <c r="D76" t="n">
-        <v>6486</v>
-      </c>
-      <c r="E76" t="n">
-        <v>604</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" t="n">
-        <v>604</v>
-      </c>
-      <c r="H76" t="n">
-        <v>26</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="K76" t="n">
-        <v>26013</v>
+        <v>26594</v>
       </c>
       <c r="L76" t="n">
-        <v>1591</v>
+        <v>1632</v>
       </c>
       <c r="M76" t="n">
-        <v>181679</v>
+        <v>190490</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2020-05-14</t>
+          <t>2020-05-15</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>7368</v>
+        <v>9096</v>
       </c>
       <c r="C77" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D77" t="n">
-        <v>7351</v>
+        <v>9085</v>
       </c>
       <c r="E77" t="n">
-        <v>588</v>
+        <v>639</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>588</v>
+        <v>639</v>
       </c>
       <c r="H77" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="K77" t="n">
-        <v>26601</v>
+        <v>27233</v>
       </c>
       <c r="L77" t="n">
-        <v>1632</v>
+        <v>1664</v>
       </c>
       <c r="M77" t="n">
-        <v>189047</v>
+        <v>199586</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2020-05-15</t>
+          <t>2020-05-16</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>8833</v>
+        <v>3023</v>
       </c>
       <c r="C78" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>8821</v>
+        <v>3020</v>
       </c>
       <c r="E78" t="n">
-        <v>640</v>
+        <v>496</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>639</v>
+        <v>496</v>
       </c>
       <c r="H78" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K78" t="n">
-        <v>27241</v>
+        <v>27729</v>
       </c>
       <c r="L78" t="n">
-        <v>1664</v>
+        <v>1692</v>
       </c>
       <c r="M78" t="n">
-        <v>197880</v>
+        <v>202609</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2020-05-16</t>
+          <t>2020-05-17</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2846</v>
+        <v>1828</v>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>2840</v>
+        <v>1828</v>
       </c>
       <c r="E79" t="n">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="H79" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I79" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K79" t="n">
-        <v>27737</v>
+        <v>28214</v>
       </c>
       <c r="L79" t="n">
-        <v>1692</v>
+        <v>1718</v>
       </c>
       <c r="M79" t="n">
-        <v>200726</v>
+        <v>204437</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2020-05-17</t>
+          <t>2020-05-18</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1818</v>
+        <v>7879</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D80" t="n">
-        <v>1817</v>
+        <v>7871</v>
       </c>
       <c r="E80" t="n">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="H80" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="K80" t="n">
-        <v>28222</v>
+        <v>28674</v>
       </c>
       <c r="L80" t="n">
-        <v>1717</v>
+        <v>1755</v>
       </c>
       <c r="M80" t="n">
-        <v>202544</v>
+        <v>212316</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2020-05-18</t>
+          <t>2020-05-19</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>7860</v>
+        <v>6675</v>
       </c>
       <c r="C81" t="n">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="D81" t="n">
-        <v>7839</v>
+        <v>6522</v>
       </c>
       <c r="E81" t="n">
-        <v>461</v>
+        <v>568</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>461</v>
+        <v>568</v>
       </c>
       <c r="H81" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K81" t="n">
-        <v>28683</v>
+        <v>29242</v>
       </c>
       <c r="L81" t="n">
-        <v>1754</v>
+        <v>1784</v>
       </c>
       <c r="M81" t="n">
-        <v>210404</v>
+        <v>218991</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2020-05-19</t>
+          <t>2020-05-20</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6507</v>
+        <v>6172</v>
       </c>
       <c r="C82" t="n">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="D82" t="n">
-        <v>6352</v>
+        <v>6114</v>
       </c>
       <c r="E82" t="n">
-        <v>568</v>
+        <v>656</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>568</v>
+        <v>656</v>
       </c>
       <c r="H82" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K82" t="n">
-        <v>29251</v>
+        <v>29898</v>
       </c>
       <c r="L82" t="n">
-        <v>1783</v>
+        <v>1809</v>
       </c>
       <c r="M82" t="n">
-        <v>216911</v>
+        <v>225163</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2020-05-20</t>
+          <t>2020-05-21</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>6074</v>
+        <v>7059</v>
       </c>
       <c r="C83" t="n">
-        <v>166</v>
+        <v>33</v>
       </c>
       <c r="D83" t="n">
-        <v>5908</v>
+        <v>7026</v>
       </c>
       <c r="E83" t="n">
-        <v>656</v>
+        <v>469</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>656</v>
+        <v>469</v>
       </c>
       <c r="H83" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I83" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="K83" t="n">
-        <v>29907</v>
+        <v>30367</v>
       </c>
       <c r="L83" t="n">
-        <v>1809</v>
+        <v>1845</v>
       </c>
       <c r="M83" t="n">
-        <v>222985</v>
+        <v>232222</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2020-05-21</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>6778</v>
+        <v>7727</v>
       </c>
       <c r="C84" t="n">
-        <v>246</v>
+        <v>15</v>
       </c>
       <c r="D84" t="n">
-        <v>6532</v>
+        <v>7712</v>
       </c>
       <c r="E84" t="n">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="H84" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I84" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="K84" t="n">
-        <v>30378</v>
+        <v>30862</v>
       </c>
       <c r="L84" t="n">
-        <v>1845</v>
+        <v>1860</v>
       </c>
       <c r="M84" t="n">
-        <v>229763</v>
+        <v>239949</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2020-05-23</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>7505</v>
+        <v>2668</v>
       </c>
       <c r="C85" t="n">
-        <v>285</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>7220</v>
+        <v>2666</v>
       </c>
       <c r="E85" t="n">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="H85" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K85" t="n">
-        <v>30873</v>
+        <v>31337</v>
       </c>
       <c r="L85" t="n">
-        <v>1859</v>
+        <v>1881</v>
       </c>
       <c r="M85" t="n">
-        <v>237268</v>
+        <v>242617</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2020-05-23</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2566</v>
+        <v>1728</v>
       </c>
       <c r="C86" t="n">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="D86" t="n">
-        <v>2461</v>
+        <v>1721</v>
       </c>
       <c r="E86" t="n">
-        <v>475</v>
+        <v>344</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>475</v>
+        <v>344</v>
       </c>
       <c r="H86" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="K86" t="n">
-        <v>31348</v>
+        <v>31681</v>
       </c>
       <c r="L86" t="n">
-        <v>1880</v>
+        <v>1891</v>
       </c>
       <c r="M86" t="n">
-        <v>239834</v>
+        <v>244345</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2020-05-24</t>
+          <t>2020-05-25</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1611</v>
+        <v>1622</v>
       </c>
       <c r="C87" t="n">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="D87" t="n">
-        <v>1478</v>
+        <v>1615</v>
       </c>
       <c r="E87" t="n">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="H87" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K87" t="n">
-        <v>31692</v>
+        <v>32040</v>
       </c>
       <c r="L87" t="n">
-        <v>1890</v>
+        <v>1910</v>
       </c>
       <c r="M87" t="n">
-        <v>241445</v>
+        <v>245967</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2020-05-25</t>
+          <t>2020-05-26</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1548</v>
+        <v>6914</v>
       </c>
       <c r="C88" t="n">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D88" t="n">
-        <v>1262</v>
+        <v>6644</v>
       </c>
       <c r="E88" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H88" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K88" t="n">
-        <v>32054</v>
+        <v>32399</v>
       </c>
       <c r="L88" t="n">
-        <v>1909</v>
+        <v>1926</v>
       </c>
       <c r="M88" t="n">
-        <v>242993</v>
+        <v>252881</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2020-05-26</t>
+          <t>2020-05-27</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>5062</v>
+        <v>4995</v>
       </c>
       <c r="C89" t="n">
-        <v>4264</v>
+        <v>1539</v>
       </c>
       <c r="D89" t="n">
-        <v>798</v>
+        <v>3456</v>
       </c>
       <c r="E89" t="n">
-        <v>364</v>
+        <v>617</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>364</v>
+        <v>617</v>
       </c>
       <c r="H89" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K89" t="n">
-        <v>32418</v>
+        <v>33016</v>
       </c>
       <c r="L89" t="n">
-        <v>1925</v>
+        <v>1939</v>
       </c>
       <c r="M89" t="n">
-        <v>248055</v>
+        <v>257876</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2020-05-27</t>
+          <t>2020-05-28</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>513</v>
+        <v>3126</v>
       </c>
       <c r="C90" t="n">
-        <v>434</v>
+        <v>2381</v>
       </c>
       <c r="D90" t="n">
-        <v>79</v>
+        <v>745</v>
       </c>
       <c r="E90" t="n">
-        <v>628</v>
+        <v>484</v>
       </c>
       <c r="F90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G90" t="n">
-        <v>624</v>
+        <v>482</v>
       </c>
       <c r="H90" t="n">
+        <v>14</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
         <v>13</v>
       </c>
-      <c r="I90" t="n">
-        <v>5</v>
-      </c>
-      <c r="J90" t="n">
-        <v>8</v>
-      </c>
       <c r="K90" t="n">
-        <v>33046</v>
+        <v>33500</v>
       </c>
       <c r="L90" t="n">
-        <v>1938</v>
+        <v>1953</v>
       </c>
       <c r="M90" t="n">
-        <v>248568</v>
+        <v>261002</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2020-05-28</t>
+          <t>2020-05-29</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>145</v>
+        <v>502</v>
       </c>
       <c r="C91" t="n">
-        <v>145</v>
+        <v>401</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="E91" t="n">
-        <v>512</v>
+        <v>680</v>
       </c>
       <c r="F91" t="n">
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="H91" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I91" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K91" t="n">
-        <v>33558</v>
+        <v>34180</v>
       </c>
       <c r="L91" t="n">
-        <v>1946</v>
+        <v>1963</v>
       </c>
       <c r="M91" t="n">
-        <v>248713</v>
+        <v>261504</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2020-05-30</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>42</v>
+      </c>
+      <c r="C92" t="n">
+        <v>42</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>394</v>
+      </c>
+      <c r="F92" t="n">
+        <v>394</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+      <c r="I92" t="n">
+        <v>4</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>34574</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1967</v>
+      </c>
+      <c r="M92" t="n">
+        <v>261546</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M92"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2034,10 +2034,10 @@
         <v>2783</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>2782</v>
+        <v>2783</v>
       </c>
       <c r="E39" t="n">
         <v>422</v>
@@ -2120,10 +2120,10 @@
         <v>2747</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>2746</v>
+        <v>2747</v>
       </c>
       <c r="E41" t="n">
         <v>558</v>
@@ -2292,10 +2292,10 @@
         <v>3461</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>3460</v>
+        <v>3461</v>
       </c>
       <c r="E45" t="n">
         <v>292</v>
@@ -2421,10 +2421,10 @@
         <v>3999</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>3997</v>
+        <v>3999</v>
       </c>
       <c r="E48" t="n">
         <v>600</v>
@@ -2550,10 +2550,10 @@
         <v>1102</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="E51" t="n">
         <v>479</v>
@@ -2593,10 +2593,10 @@
         <v>4349</v>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>4345</v>
+        <v>4349</v>
       </c>
       <c r="E52" t="n">
         <v>385</v>
@@ -2636,10 +2636,10 @@
         <v>3851</v>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>3848</v>
+        <v>3851</v>
       </c>
       <c r="E53" t="n">
         <v>379</v>
@@ -2679,10 +2679,10 @@
         <v>3864</v>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>3859</v>
+        <v>3864</v>
       </c>
       <c r="E54" t="n">
         <v>605</v>
@@ -2722,10 +2722,10 @@
         <v>4371</v>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>4369</v>
+        <v>4371</v>
       </c>
       <c r="E55" t="n">
         <v>644</v>
@@ -2762,13 +2762,13 @@
         </is>
       </c>
       <c r="B56" t="n">
+        <v>3547</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3</v>
+      </c>
+      <c r="D56" t="n">
         <v>3544</v>
-      </c>
-      <c r="C56" t="n">
-        <v>6</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3538</v>
       </c>
       <c r="E56" t="n">
         <v>699</v>
@@ -2795,7 +2795,7 @@
         <v>907</v>
       </c>
       <c r="M56" t="n">
-        <v>93276</v>
+        <v>93279</v>
       </c>
     </row>
     <row r="57">
@@ -2838,7 +2838,7 @@
         <v>948</v>
       </c>
       <c r="M57" t="n">
-        <v>95556</v>
+        <v>95559</v>
       </c>
     </row>
     <row r="58">
@@ -2848,13 +2848,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="E58" t="n">
         <v>950</v>
@@ -2881,7 +2881,7 @@
         <v>982</v>
       </c>
       <c r="M58" t="n">
-        <v>97359</v>
+        <v>97363</v>
       </c>
     </row>
     <row r="59">
@@ -2924,7 +2924,7 @@
         <v>1024</v>
       </c>
       <c r="M59" t="n">
-        <v>102093</v>
+        <v>102097</v>
       </c>
     </row>
     <row r="60">
@@ -2934,13 +2934,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4982</v>
+        <v>4987</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>4982</v>
+        <v>4983</v>
       </c>
       <c r="E60" t="n">
         <v>595</v>
@@ -2967,7 +2967,7 @@
         <v>1058</v>
       </c>
       <c r="M60" t="n">
-        <v>107075</v>
+        <v>107084</v>
       </c>
     </row>
     <row r="61">
@@ -2977,13 +2977,13 @@
         </is>
       </c>
       <c r="B61" t="n">
+        <v>5287</v>
+      </c>
+      <c r="C61" t="n">
+        <v>5</v>
+      </c>
+      <c r="D61" t="n">
         <v>5282</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3</v>
-      </c>
-      <c r="D61" t="n">
-        <v>5279</v>
       </c>
       <c r="E61" t="n">
         <v>653</v>
@@ -3010,7 +3010,7 @@
         <v>1099</v>
       </c>
       <c r="M61" t="n">
-        <v>112357</v>
+        <v>112371</v>
       </c>
     </row>
     <row r="62">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5389</v>
+        <v>5401</v>
       </c>
       <c r="C62" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D62" t="n">
-        <v>5383</v>
+        <v>5392</v>
       </c>
       <c r="E62" t="n">
         <v>794</v>
@@ -3053,7 +3053,7 @@
         <v>1144</v>
       </c>
       <c r="M62" t="n">
-        <v>117746</v>
+        <v>117772</v>
       </c>
     </row>
     <row r="63">
@@ -3063,13 +3063,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>6294</v>
+        <v>6334</v>
       </c>
       <c r="C63" t="n">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D63" t="n">
-        <v>6232</v>
+        <v>6295</v>
       </c>
       <c r="E63" t="n">
         <v>652</v>
@@ -3096,7 +3096,7 @@
         <v>1177</v>
       </c>
       <c r="M63" t="n">
-        <v>124040</v>
+        <v>124106</v>
       </c>
     </row>
     <row r="64">
@@ -3106,13 +3106,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3122</v>
+        <v>3182</v>
       </c>
       <c r="C64" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D64" t="n">
-        <v>3096</v>
+        <v>3127</v>
       </c>
       <c r="E64" t="n">
         <v>635</v>
@@ -3139,7 +3139,7 @@
         <v>1219</v>
       </c>
       <c r="M64" t="n">
-        <v>127162</v>
+        <v>127288</v>
       </c>
     </row>
     <row r="65">
@@ -3149,13 +3149,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1735</v>
+        <v>1749</v>
       </c>
       <c r="C65" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D65" t="n">
-        <v>1726</v>
+        <v>1736</v>
       </c>
       <c r="E65" t="n">
         <v>570</v>
@@ -3182,7 +3182,7 @@
         <v>1251</v>
       </c>
       <c r="M65" t="n">
-        <v>128897</v>
+        <v>129037</v>
       </c>
     </row>
     <row r="66">
@@ -3192,13 +3192,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5396</v>
+        <v>5442</v>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D66" t="n">
-        <v>5391</v>
+        <v>5398</v>
       </c>
       <c r="E66" t="n">
         <v>525</v>
@@ -3225,7 +3225,7 @@
         <v>1287</v>
       </c>
       <c r="M66" t="n">
-        <v>134293</v>
+        <v>134479</v>
       </c>
     </row>
     <row r="67">
@@ -3235,13 +3235,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6081</v>
+        <v>6111</v>
       </c>
       <c r="C67" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D67" t="n">
-        <v>6073</v>
+        <v>6082</v>
       </c>
       <c r="E67" t="n">
         <v>837</v>
@@ -3268,7 +3268,7 @@
         <v>1324</v>
       </c>
       <c r="M67" t="n">
-        <v>140374</v>
+        <v>140590</v>
       </c>
     </row>
     <row r="68">
@@ -3278,13 +3278,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5622</v>
+        <v>5629</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D68" t="n">
-        <v>5622</v>
+        <v>5620</v>
       </c>
       <c r="E68" t="n">
         <v>623</v>
@@ -3311,7 +3311,7 @@
         <v>1367</v>
       </c>
       <c r="M68" t="n">
-        <v>145996</v>
+        <v>146219</v>
       </c>
     </row>
     <row r="69">
@@ -3321,13 +3321,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>5986</v>
+        <v>5991</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>5985</v>
+        <v>5987</v>
       </c>
       <c r="E69" t="n">
         <v>640</v>
@@ -3354,7 +3354,7 @@
         <v>1401</v>
       </c>
       <c r="M69" t="n">
-        <v>151982</v>
+        <v>152210</v>
       </c>
     </row>
     <row r="70">
@@ -3397,7 +3397,7 @@
         <v>1425</v>
       </c>
       <c r="M70" t="n">
-        <v>158166</v>
+        <v>158394</v>
       </c>
     </row>
     <row r="71">
@@ -3407,13 +3407,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3234</v>
+        <v>3233</v>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>3232</v>
+        <v>3233</v>
       </c>
       <c r="E71" t="n">
         <v>388</v>
@@ -3440,7 +3440,7 @@
         <v>1456</v>
       </c>
       <c r="M71" t="n">
-        <v>161400</v>
+        <v>161627</v>
       </c>
     </row>
     <row r="72">
@@ -3450,13 +3450,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="E72" t="n">
         <v>464</v>
@@ -3483,7 +3483,7 @@
         <v>1489</v>
       </c>
       <c r="M72" t="n">
-        <v>162673</v>
+        <v>162899</v>
       </c>
     </row>
     <row r="73">
@@ -3493,10 +3493,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6927</v>
+        <v>6925</v>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
         <v>6925</v>
@@ -3526,7 +3526,7 @@
         <v>1528</v>
       </c>
       <c r="M73" t="n">
-        <v>169600</v>
+        <v>169824</v>
       </c>
     </row>
     <row r="74">
@@ -3536,13 +3536,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6419</v>
+        <v>6418</v>
       </c>
       <c r="C74" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>6406</v>
+        <v>6417</v>
       </c>
       <c r="E74" t="n">
         <v>376</v>
@@ -3569,7 +3569,7 @@
         <v>1565</v>
       </c>
       <c r="M74" t="n">
-        <v>176019</v>
+        <v>176242</v>
       </c>
     </row>
     <row r="75">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>6776</v>
+        <v>6781</v>
       </c>
       <c r="C75" t="n">
-        <v>122</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>6654</v>
+        <v>6775</v>
       </c>
       <c r="E75" t="n">
         <v>604</v>
@@ -3612,7 +3612,7 @@
         <v>1591</v>
       </c>
       <c r="M75" t="n">
-        <v>182795</v>
+        <v>183023</v>
       </c>
     </row>
     <row r="76">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>7695</v>
+        <v>7690</v>
       </c>
       <c r="C76" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>7686</v>
+        <v>7690</v>
       </c>
       <c r="E76" t="n">
         <v>588</v>
@@ -3655,7 +3655,7 @@
         <v>1632</v>
       </c>
       <c r="M76" t="n">
-        <v>190490</v>
+        <v>190713</v>
       </c>
     </row>
     <row r="77">
@@ -3665,13 +3665,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9096</v>
+        <v>9095</v>
       </c>
       <c r="C77" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>9085</v>
+        <v>9095</v>
       </c>
       <c r="E77" t="n">
         <v>639</v>
@@ -3698,7 +3698,7 @@
         <v>1664</v>
       </c>
       <c r="M77" t="n">
-        <v>199586</v>
+        <v>199808</v>
       </c>
     </row>
     <row r="78">
@@ -3711,10 +3711,10 @@
         <v>3023</v>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>3020</v>
+        <v>3023</v>
       </c>
       <c r="E78" t="n">
         <v>496</v>
@@ -3741,7 +3741,7 @@
         <v>1692</v>
       </c>
       <c r="M78" t="n">
-        <v>202609</v>
+        <v>202831</v>
       </c>
     </row>
     <row r="79">
@@ -3769,10 +3769,10 @@
         <v>485</v>
       </c>
       <c r="H79" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
         <v>26</v>
@@ -3781,10 +3781,10 @@
         <v>28214</v>
       </c>
       <c r="L79" t="n">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="M79" t="n">
-        <v>204437</v>
+        <v>204659</v>
       </c>
     </row>
     <row r="80">
@@ -3794,13 +3794,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>7879</v>
+        <v>7878</v>
       </c>
       <c r="C80" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>7871</v>
+        <v>7877</v>
       </c>
       <c r="E80" t="n">
         <v>460</v>
@@ -3824,10 +3824,10 @@
         <v>28674</v>
       </c>
       <c r="L80" t="n">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="M80" t="n">
-        <v>212316</v>
+        <v>212537</v>
       </c>
     </row>
     <row r="81">
@@ -3837,13 +3837,13 @@
         </is>
       </c>
       <c r="B81" t="n">
+        <v>6676</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
         <v>6675</v>
-      </c>
-      <c r="C81" t="n">
-        <v>153</v>
-      </c>
-      <c r="D81" t="n">
-        <v>6522</v>
       </c>
       <c r="E81" t="n">
         <v>568</v>
@@ -3867,10 +3867,10 @@
         <v>29242</v>
       </c>
       <c r="L81" t="n">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="M81" t="n">
-        <v>218991</v>
+        <v>219213</v>
       </c>
     </row>
     <row r="82">
@@ -3880,13 +3880,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6172</v>
+        <v>6179</v>
       </c>
       <c r="C82" t="n">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D82" t="n">
-        <v>6114</v>
+        <v>6171</v>
       </c>
       <c r="E82" t="n">
         <v>656</v>
@@ -3910,10 +3910,10 @@
         <v>29898</v>
       </c>
       <c r="L82" t="n">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="M82" t="n">
-        <v>225163</v>
+        <v>225392</v>
       </c>
     </row>
     <row r="83">
@@ -3923,13 +3923,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7059</v>
+        <v>7062</v>
       </c>
       <c r="C83" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>7026</v>
+        <v>7056</v>
       </c>
       <c r="E83" t="n">
         <v>469</v>
@@ -3953,10 +3953,10 @@
         <v>30367</v>
       </c>
       <c r="L83" t="n">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="M83" t="n">
-        <v>232222</v>
+        <v>232454</v>
       </c>
     </row>
     <row r="84">
@@ -3966,13 +3966,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>7727</v>
+        <v>7742</v>
       </c>
       <c r="C84" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D84" t="n">
-        <v>7712</v>
+        <v>7715</v>
       </c>
       <c r="E84" t="n">
         <v>495</v>
@@ -3996,10 +3996,10 @@
         <v>30862</v>
       </c>
       <c r="L84" t="n">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="M84" t="n">
-        <v>239949</v>
+        <v>240196</v>
       </c>
     </row>
     <row r="85">
@@ -4009,22 +4009,22 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2668</v>
+        <v>2673</v>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D85" t="n">
-        <v>2666</v>
+        <v>2659</v>
       </c>
       <c r="E85" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H85" t="n">
         <v>21</v>
@@ -4036,13 +4036,13 @@
         <v>21</v>
       </c>
       <c r="K85" t="n">
-        <v>31337</v>
+        <v>31336</v>
       </c>
       <c r="L85" t="n">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="M85" t="n">
-        <v>242617</v>
+        <v>242869</v>
       </c>
     </row>
     <row r="86">
@@ -4052,13 +4052,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1728</v>
+        <v>1740</v>
       </c>
       <c r="C86" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D86" t="n">
-        <v>1721</v>
+        <v>1727</v>
       </c>
       <c r="E86" t="n">
         <v>344</v>
@@ -4079,13 +4079,13 @@
         <v>10</v>
       </c>
       <c r="K86" t="n">
-        <v>31681</v>
+        <v>31680</v>
       </c>
       <c r="L86" t="n">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="M86" t="n">
-        <v>244345</v>
+        <v>244609</v>
       </c>
     </row>
     <row r="87">
@@ -4095,22 +4095,22 @@
         </is>
       </c>
       <c r="B87" t="n">
+        <v>1627</v>
+      </c>
+      <c r="C87" t="n">
+        <v>5</v>
+      </c>
+      <c r="D87" t="n">
         <v>1622</v>
-      </c>
-      <c r="C87" t="n">
-        <v>7</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1615</v>
       </c>
       <c r="E87" t="n">
         <v>359</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H87" t="n">
         <v>19</v>
@@ -4122,13 +4122,13 @@
         <v>19</v>
       </c>
       <c r="K87" t="n">
-        <v>32040</v>
+        <v>32039</v>
       </c>
       <c r="L87" t="n">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="M87" t="n">
-        <v>245967</v>
+        <v>246236</v>
       </c>
     </row>
     <row r="88">
@@ -4138,13 +4138,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>6914</v>
+        <v>6956</v>
       </c>
       <c r="C88" t="n">
-        <v>270</v>
+        <v>45</v>
       </c>
       <c r="D88" t="n">
-        <v>6644</v>
+        <v>6911</v>
       </c>
       <c r="E88" t="n">
         <v>359</v>
@@ -4165,13 +4165,13 @@
         <v>16</v>
       </c>
       <c r="K88" t="n">
-        <v>32399</v>
+        <v>32398</v>
       </c>
       <c r="L88" t="n">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="M88" t="n">
-        <v>252881</v>
+        <v>253192</v>
       </c>
     </row>
     <row r="89">
@@ -4181,13 +4181,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>4995</v>
+        <v>5197</v>
       </c>
       <c r="C89" t="n">
-        <v>1539</v>
+        <v>207</v>
       </c>
       <c r="D89" t="n">
-        <v>3456</v>
+        <v>4990</v>
       </c>
       <c r="E89" t="n">
         <v>617</v>
@@ -4208,13 +4208,13 @@
         <v>13</v>
       </c>
       <c r="K89" t="n">
-        <v>33016</v>
+        <v>33015</v>
       </c>
       <c r="L89" t="n">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="M89" t="n">
-        <v>257876</v>
+        <v>258389</v>
       </c>
     </row>
     <row r="90">
@@ -4224,40 +4224,40 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3126</v>
+        <v>4479</v>
       </c>
       <c r="C90" t="n">
-        <v>2381</v>
+        <v>1369</v>
       </c>
       <c r="D90" t="n">
-        <v>745</v>
+        <v>3110</v>
       </c>
       <c r="E90" t="n">
         <v>484</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H90" t="n">
         <v>14</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K90" t="n">
-        <v>33500</v>
+        <v>33499</v>
       </c>
       <c r="L90" t="n">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="M90" t="n">
-        <v>261002</v>
+        <v>262868</v>
       </c>
     </row>
     <row r="91">
@@ -4267,40 +4267,40 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>502</v>
+        <v>2684</v>
       </c>
       <c r="C91" t="n">
-        <v>401</v>
+        <v>2188</v>
       </c>
       <c r="D91" t="n">
-        <v>101</v>
+        <v>496</v>
       </c>
       <c r="E91" t="n">
-        <v>680</v>
+        <v>649</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>680</v>
+        <v>649</v>
       </c>
       <c r="H91" t="n">
+        <v>11</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
         <v>10</v>
       </c>
-      <c r="I91" t="n">
-        <v>4</v>
-      </c>
-      <c r="J91" t="n">
-        <v>6</v>
-      </c>
       <c r="K91" t="n">
-        <v>34180</v>
+        <v>34148</v>
       </c>
       <c r="L91" t="n">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="M91" t="n">
-        <v>261504</v>
+        <v>265552</v>
       </c>
     </row>
     <row r="92">
@@ -4310,40 +4310,83 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="C92" t="n">
-        <v>42</v>
+        <v>267</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E92" t="n">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F92" t="n">
-        <v>394</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="H92" t="n">
+        <v>10</v>
+      </c>
+      <c r="I92" t="n">
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
         <v>4</v>
       </c>
-      <c r="I92" t="n">
-        <v>4</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
       <c r="K92" t="n">
-        <v>34574</v>
+        <v>34538</v>
       </c>
       <c r="L92" t="n">
-        <v>1967</v>
+        <v>1975</v>
       </c>
       <c r="M92" t="n">
-        <v>261546</v>
+        <v>265858</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2020-05-31</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>38</v>
+      </c>
+      <c r="C93" t="n">
+        <v>38</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>292</v>
+      </c>
+      <c r="F93" t="n">
+        <v>291</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>34830</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1976</v>
+      </c>
+      <c r="M93" t="n">
+        <v>265896</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M93"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2135,10 +2135,10 @@
         <v>558</v>
       </c>
       <c r="H41" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>35</v>
@@ -2147,7 +2147,7 @@
         <v>6882</v>
       </c>
       <c r="L41" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M41" t="n">
         <v>46939</v>
@@ -2190,7 +2190,7 @@
         <v>7397</v>
       </c>
       <c r="L42" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M42" t="n">
         <v>49666</v>
@@ -2233,7 +2233,7 @@
         <v>7883</v>
       </c>
       <c r="L43" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M43" t="n">
         <v>51209</v>
@@ -2276,7 +2276,7 @@
         <v>8202</v>
       </c>
       <c r="L44" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M44" t="n">
         <v>51908</v>
@@ -2307,10 +2307,10 @@
         <v>292</v>
       </c>
       <c r="H45" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
         <v>34</v>
@@ -2319,7 +2319,7 @@
         <v>8494</v>
       </c>
       <c r="L45" t="n">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M45" t="n">
         <v>55369</v>
@@ -2335,10 +2335,10 @@
         <v>3607</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>3607</v>
+        <v>3606</v>
       </c>
       <c r="E46" t="n">
         <v>417</v>
@@ -2362,7 +2362,7 @@
         <v>8911</v>
       </c>
       <c r="L46" t="n">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M46" t="n">
         <v>58976</v>
@@ -2387,10 +2387,10 @@
         <v>580</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H47" t="n">
         <v>37</v>
@@ -2405,7 +2405,7 @@
         <v>9491</v>
       </c>
       <c r="L47" t="n">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M47" t="n">
         <v>62277</v>
@@ -2448,7 +2448,7 @@
         <v>10091</v>
       </c>
       <c r="L48" t="n">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="M48" t="n">
         <v>66276</v>
@@ -2491,7 +2491,7 @@
         <v>10596</v>
       </c>
       <c r="L49" t="n">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="M49" t="n">
         <v>70438</v>
@@ -2534,7 +2534,7 @@
         <v>11153</v>
       </c>
       <c r="L50" t="n">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="M50" t="n">
         <v>72195</v>
@@ -2577,7 +2577,7 @@
         <v>11632</v>
       </c>
       <c r="L51" t="n">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="M51" t="n">
         <v>73297</v>
@@ -2590,13 +2590,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4349</v>
+        <v>4348</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>4349</v>
+        <v>4348</v>
       </c>
       <c r="E52" t="n">
         <v>385</v>
@@ -2620,10 +2620,10 @@
         <v>12017</v>
       </c>
       <c r="L52" t="n">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="M52" t="n">
-        <v>77646</v>
+        <v>77645</v>
       </c>
     </row>
     <row r="53">
@@ -2651,10 +2651,10 @@
         <v>379</v>
       </c>
       <c r="H53" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
         <v>48</v>
@@ -2663,10 +2663,10 @@
         <v>12396</v>
       </c>
       <c r="L53" t="n">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="M53" t="n">
-        <v>81497</v>
+        <v>81496</v>
       </c>
     </row>
     <row r="54">
@@ -2706,10 +2706,10 @@
         <v>13001</v>
       </c>
       <c r="L54" t="n">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="M54" t="n">
-        <v>85361</v>
+        <v>85360</v>
       </c>
     </row>
     <row r="55">
@@ -2749,10 +2749,10 @@
         <v>13645</v>
       </c>
       <c r="L55" t="n">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="M55" t="n">
-        <v>89732</v>
+        <v>89731</v>
       </c>
     </row>
     <row r="56">
@@ -2765,10 +2765,10 @@
         <v>3547</v>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>3544</v>
+        <v>3546</v>
       </c>
       <c r="E56" t="n">
         <v>699</v>
@@ -2780,10 +2780,10 @@
         <v>699</v>
       </c>
       <c r="H56" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
         <v>36</v>
@@ -2792,10 +2792,10 @@
         <v>14344</v>
       </c>
       <c r="L56" t="n">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="M56" t="n">
-        <v>93279</v>
+        <v>93278</v>
       </c>
     </row>
     <row r="57">
@@ -2835,10 +2835,10 @@
         <v>14968</v>
       </c>
       <c r="L57" t="n">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="M57" t="n">
-        <v>95559</v>
+        <v>95558</v>
       </c>
     </row>
     <row r="58">
@@ -2851,10 +2851,10 @@
         <v>1804</v>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="E58" t="n">
         <v>950</v>
@@ -2878,10 +2878,10 @@
         <v>15918</v>
       </c>
       <c r="L58" t="n">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="M58" t="n">
-        <v>97363</v>
+        <v>97362</v>
       </c>
     </row>
     <row r="59">
@@ -2894,10 +2894,10 @@
         <v>4734</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>4733</v>
+        <v>4734</v>
       </c>
       <c r="E59" t="n">
         <v>621</v>
@@ -2921,10 +2921,10 @@
         <v>16539</v>
       </c>
       <c r="L59" t="n">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="M59" t="n">
-        <v>102097</v>
+        <v>102096</v>
       </c>
     </row>
     <row r="60">
@@ -2934,13 +2934,13 @@
         </is>
       </c>
       <c r="B60" t="n">
+        <v>4988</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="n">
         <v>4987</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4983</v>
       </c>
       <c r="E60" t="n">
         <v>595</v>
@@ -2964,7 +2964,7 @@
         <v>17134</v>
       </c>
       <c r="L60" t="n">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="M60" t="n">
         <v>107084</v>
@@ -2977,13 +2977,13 @@
         </is>
       </c>
       <c r="B61" t="n">
+        <v>5298</v>
+      </c>
+      <c r="C61" t="n">
+        <v>11</v>
+      </c>
+      <c r="D61" t="n">
         <v>5287</v>
-      </c>
-      <c r="C61" t="n">
-        <v>5</v>
-      </c>
-      <c r="D61" t="n">
-        <v>5282</v>
       </c>
       <c r="E61" t="n">
         <v>653</v>
@@ -3007,10 +3007,10 @@
         <v>17787</v>
       </c>
       <c r="L61" t="n">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="M61" t="n">
-        <v>112371</v>
+        <v>112382</v>
       </c>
     </row>
     <row r="62">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="B62" t="n">
+        <v>5416</v>
+      </c>
+      <c r="C62" t="n">
+        <v>15</v>
+      </c>
+      <c r="D62" t="n">
         <v>5401</v>
-      </c>
-      <c r="C62" t="n">
-        <v>9</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5392</v>
       </c>
       <c r="E62" t="n">
         <v>794</v>
@@ -3038,10 +3038,10 @@
         <v>794</v>
       </c>
       <c r="H62" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
         <v>45</v>
@@ -3050,10 +3050,10 @@
         <v>18581</v>
       </c>
       <c r="L62" t="n">
-        <v>1144</v>
+        <v>1149</v>
       </c>
       <c r="M62" t="n">
-        <v>117772</v>
+        <v>117798</v>
       </c>
     </row>
     <row r="63">
@@ -3063,13 +3063,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>6334</v>
+        <v>6422</v>
       </c>
       <c r="C63" t="n">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="D63" t="n">
-        <v>6295</v>
+        <v>6338</v>
       </c>
       <c r="E63" t="n">
         <v>652</v>
@@ -3081,10 +3081,10 @@
         <v>652</v>
       </c>
       <c r="H63" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
         <v>33</v>
@@ -3093,10 +3093,10 @@
         <v>19233</v>
       </c>
       <c r="L63" t="n">
-        <v>1177</v>
+        <v>1184</v>
       </c>
       <c r="M63" t="n">
-        <v>124106</v>
+        <v>124220</v>
       </c>
     </row>
     <row r="64">
@@ -3106,13 +3106,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3182</v>
+        <v>3276</v>
       </c>
       <c r="C64" t="n">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D64" t="n">
-        <v>3127</v>
+        <v>3190</v>
       </c>
       <c r="E64" t="n">
         <v>635</v>
@@ -3124,10 +3124,10 @@
         <v>635</v>
       </c>
       <c r="H64" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
         <v>42</v>
@@ -3136,10 +3136,10 @@
         <v>19868</v>
       </c>
       <c r="L64" t="n">
-        <v>1219</v>
+        <v>1227</v>
       </c>
       <c r="M64" t="n">
-        <v>127288</v>
+        <v>127496</v>
       </c>
     </row>
     <row r="65">
@@ -3149,13 +3149,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1749</v>
+        <v>1816</v>
       </c>
       <c r="C65" t="n">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D65" t="n">
-        <v>1736</v>
+        <v>1752</v>
       </c>
       <c r="E65" t="n">
         <v>570</v>
@@ -3179,10 +3179,10 @@
         <v>20438</v>
       </c>
       <c r="L65" t="n">
-        <v>1251</v>
+        <v>1259</v>
       </c>
       <c r="M65" t="n">
-        <v>129037</v>
+        <v>129312</v>
       </c>
     </row>
     <row r="66">
@@ -3192,13 +3192,13 @@
         </is>
       </c>
       <c r="B66" t="n">
+        <v>5551</v>
+      </c>
+      <c r="C66" t="n">
+        <v>109</v>
+      </c>
+      <c r="D66" t="n">
         <v>5442</v>
-      </c>
-      <c r="C66" t="n">
-        <v>44</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5398</v>
       </c>
       <c r="E66" t="n">
         <v>525</v>
@@ -3210,10 +3210,10 @@
         <v>525</v>
       </c>
       <c r="H66" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
         <v>36</v>
@@ -3222,10 +3222,10 @@
         <v>20963</v>
       </c>
       <c r="L66" t="n">
-        <v>1287</v>
+        <v>1297</v>
       </c>
       <c r="M66" t="n">
-        <v>134479</v>
+        <v>134863</v>
       </c>
     </row>
     <row r="67">
@@ -3235,13 +3235,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6111</v>
+        <v>6137</v>
       </c>
       <c r="C67" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D67" t="n">
-        <v>6082</v>
+        <v>6110</v>
       </c>
       <c r="E67" t="n">
         <v>837</v>
@@ -3265,10 +3265,10 @@
         <v>21800</v>
       </c>
       <c r="L67" t="n">
-        <v>1324</v>
+        <v>1334</v>
       </c>
       <c r="M67" t="n">
-        <v>140590</v>
+        <v>141000</v>
       </c>
     </row>
     <row r="68">
@@ -3278,13 +3278,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5629</v>
+        <v>5630</v>
       </c>
       <c r="C68" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>5620</v>
+        <v>5626</v>
       </c>
       <c r="E68" t="n">
         <v>623</v>
@@ -3308,10 +3308,10 @@
         <v>22423</v>
       </c>
       <c r="L68" t="n">
-        <v>1367</v>
+        <v>1377</v>
       </c>
       <c r="M68" t="n">
-        <v>146219</v>
+        <v>146630</v>
       </c>
     </row>
     <row r="69">
@@ -3324,19 +3324,19 @@
         <v>5991</v>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>5987</v>
+        <v>5990</v>
       </c>
       <c r="E69" t="n">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H69" t="n">
         <v>34</v>
@@ -3348,13 +3348,13 @@
         <v>34</v>
       </c>
       <c r="K69" t="n">
-        <v>23063</v>
+        <v>23062</v>
       </c>
       <c r="L69" t="n">
-        <v>1401</v>
+        <v>1411</v>
       </c>
       <c r="M69" t="n">
-        <v>152210</v>
+        <v>152621</v>
       </c>
     </row>
     <row r="70">
@@ -3364,40 +3364,40 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6184</v>
+        <v>6187</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>6184</v>
+        <v>6182</v>
       </c>
       <c r="E70" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H70" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
         <v>24</v>
       </c>
       <c r="K70" t="n">
-        <v>23655</v>
+        <v>23653</v>
       </c>
       <c r="L70" t="n">
-        <v>1425</v>
+        <v>1436</v>
       </c>
       <c r="M70" t="n">
-        <v>158394</v>
+        <v>158808</v>
       </c>
     </row>
     <row r="71">
@@ -3434,13 +3434,13 @@
         <v>31</v>
       </c>
       <c r="K71" t="n">
-        <v>24043</v>
+        <v>24041</v>
       </c>
       <c r="L71" t="n">
-        <v>1456</v>
+        <v>1467</v>
       </c>
       <c r="M71" t="n">
-        <v>161627</v>
+        <v>162041</v>
       </c>
     </row>
     <row r="72">
@@ -3468,22 +3468,22 @@
         <v>464</v>
       </c>
       <c r="H72" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
         <v>33</v>
       </c>
       <c r="K72" t="n">
-        <v>24507</v>
+        <v>24505</v>
       </c>
       <c r="L72" t="n">
-        <v>1489</v>
+        <v>1501</v>
       </c>
       <c r="M72" t="n">
-        <v>162899</v>
+        <v>163313</v>
       </c>
     </row>
     <row r="73">
@@ -3493,13 +3493,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6925</v>
+        <v>6923</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>6925</v>
+        <v>6923</v>
       </c>
       <c r="E73" t="n">
         <v>519</v>
@@ -3511,22 +3511,22 @@
         <v>519</v>
       </c>
       <c r="H73" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
         <v>39</v>
       </c>
       <c r="K73" t="n">
-        <v>25026</v>
+        <v>25024</v>
       </c>
       <c r="L73" t="n">
-        <v>1528</v>
+        <v>1541</v>
       </c>
       <c r="M73" t="n">
-        <v>169824</v>
+        <v>170236</v>
       </c>
     </row>
     <row r="74">
@@ -3536,13 +3536,13 @@
         </is>
       </c>
       <c r="B74" t="n">
+        <v>6435</v>
+      </c>
+      <c r="C74" t="n">
+        <v>17</v>
+      </c>
+      <c r="D74" t="n">
         <v>6418</v>
-      </c>
-      <c r="C74" t="n">
-        <v>1</v>
-      </c>
-      <c r="D74" t="n">
-        <v>6417</v>
       </c>
       <c r="E74" t="n">
         <v>376</v>
@@ -3563,13 +3563,13 @@
         <v>37</v>
       </c>
       <c r="K74" t="n">
-        <v>25402</v>
+        <v>25400</v>
       </c>
       <c r="L74" t="n">
-        <v>1565</v>
+        <v>1578</v>
       </c>
       <c r="M74" t="n">
-        <v>176242</v>
+        <v>176671</v>
       </c>
     </row>
     <row r="75">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>6781</v>
+        <v>6788</v>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D75" t="n">
-        <v>6775</v>
+        <v>6780</v>
       </c>
       <c r="E75" t="n">
         <v>604</v>
@@ -3606,13 +3606,13 @@
         <v>26</v>
       </c>
       <c r="K75" t="n">
-        <v>26006</v>
+        <v>26004</v>
       </c>
       <c r="L75" t="n">
-        <v>1591</v>
+        <v>1604</v>
       </c>
       <c r="M75" t="n">
-        <v>183023</v>
+        <v>183459</v>
       </c>
     </row>
     <row r="76">
@@ -3625,10 +3625,10 @@
         <v>7690</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>7690</v>
+        <v>7688</v>
       </c>
       <c r="E76" t="n">
         <v>588</v>
@@ -3649,13 +3649,13 @@
         <v>41</v>
       </c>
       <c r="K76" t="n">
-        <v>26594</v>
+        <v>26592</v>
       </c>
       <c r="L76" t="n">
-        <v>1632</v>
+        <v>1645</v>
       </c>
       <c r="M76" t="n">
-        <v>190713</v>
+        <v>191149</v>
       </c>
     </row>
     <row r="77">
@@ -3665,13 +3665,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9095</v>
+        <v>9126</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D77" t="n">
-        <v>9095</v>
+        <v>9093</v>
       </c>
       <c r="E77" t="n">
         <v>639</v>
@@ -3692,13 +3692,13 @@
         <v>32</v>
       </c>
       <c r="K77" t="n">
-        <v>27233</v>
+        <v>27231</v>
       </c>
       <c r="L77" t="n">
-        <v>1664</v>
+        <v>1677</v>
       </c>
       <c r="M77" t="n">
-        <v>199808</v>
+        <v>200275</v>
       </c>
     </row>
     <row r="78">
@@ -3708,10 +3708,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3023</v>
+        <v>3024</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
         <v>3023</v>
@@ -3726,22 +3726,22 @@
         <v>496</v>
       </c>
       <c r="H78" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
         <v>28</v>
       </c>
       <c r="K78" t="n">
-        <v>27729</v>
+        <v>27727</v>
       </c>
       <c r="L78" t="n">
-        <v>1692</v>
+        <v>1706</v>
       </c>
       <c r="M78" t="n">
-        <v>202831</v>
+        <v>203299</v>
       </c>
     </row>
     <row r="79">
@@ -3751,13 +3751,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="E79" t="n">
         <v>485</v>
@@ -3769,22 +3769,22 @@
         <v>485</v>
       </c>
       <c r="H79" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K79" t="n">
-        <v>28214</v>
+        <v>28212</v>
       </c>
       <c r="L79" t="n">
-        <v>1719</v>
+        <v>1734</v>
       </c>
       <c r="M79" t="n">
-        <v>204659</v>
+        <v>205126</v>
       </c>
     </row>
     <row r="80">
@@ -3794,13 +3794,13 @@
         </is>
       </c>
       <c r="B80" t="n">
+        <v>7881</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3</v>
+      </c>
+      <c r="D80" t="n">
         <v>7878</v>
-      </c>
-      <c r="C80" t="n">
-        <v>1</v>
-      </c>
-      <c r="D80" t="n">
-        <v>7877</v>
       </c>
       <c r="E80" t="n">
         <v>460</v>
@@ -3821,13 +3821,13 @@
         <v>37</v>
       </c>
       <c r="K80" t="n">
-        <v>28674</v>
+        <v>28672</v>
       </c>
       <c r="L80" t="n">
-        <v>1756</v>
+        <v>1771</v>
       </c>
       <c r="M80" t="n">
-        <v>212537</v>
+        <v>213007</v>
       </c>
     </row>
     <row r="81">
@@ -3837,13 +3837,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6676</v>
+        <v>6675</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>6675</v>
+        <v>6671</v>
       </c>
       <c r="E81" t="n">
         <v>568</v>
@@ -3864,13 +3864,13 @@
         <v>29</v>
       </c>
       <c r="K81" t="n">
-        <v>29242</v>
+        <v>29240</v>
       </c>
       <c r="L81" t="n">
-        <v>1785</v>
+        <v>1800</v>
       </c>
       <c r="M81" t="n">
-        <v>219213</v>
+        <v>219682</v>
       </c>
     </row>
     <row r="82">
@@ -3880,22 +3880,22 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6179</v>
+        <v>6180</v>
       </c>
       <c r="C82" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>6171</v>
+        <v>6177</v>
       </c>
       <c r="E82" t="n">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H82" t="n">
         <v>25</v>
@@ -3907,13 +3907,13 @@
         <v>25</v>
       </c>
       <c r="K82" t="n">
-        <v>29898</v>
+        <v>29894</v>
       </c>
       <c r="L82" t="n">
-        <v>1810</v>
+        <v>1825</v>
       </c>
       <c r="M82" t="n">
-        <v>225392</v>
+        <v>225862</v>
       </c>
     </row>
     <row r="83">
@@ -3923,13 +3923,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7062</v>
+        <v>7066</v>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>7056</v>
+        <v>7061</v>
       </c>
       <c r="E83" t="n">
         <v>469</v>
@@ -3950,13 +3950,13 @@
         <v>36</v>
       </c>
       <c r="K83" t="n">
-        <v>30367</v>
+        <v>30363</v>
       </c>
       <c r="L83" t="n">
-        <v>1846</v>
+        <v>1861</v>
       </c>
       <c r="M83" t="n">
-        <v>232454</v>
+        <v>232928</v>
       </c>
     </row>
     <row r="84">
@@ -3966,13 +3966,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>7742</v>
+        <v>7746</v>
       </c>
       <c r="C84" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>7715</v>
+        <v>7741</v>
       </c>
       <c r="E84" t="n">
         <v>495</v>
@@ -3984,22 +3984,22 @@
         <v>495</v>
       </c>
       <c r="H84" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
         <v>15</v>
       </c>
       <c r="K84" t="n">
-        <v>30862</v>
+        <v>30858</v>
       </c>
       <c r="L84" t="n">
-        <v>1861</v>
+        <v>1877</v>
       </c>
       <c r="M84" t="n">
-        <v>240196</v>
+        <v>240674</v>
       </c>
     </row>
     <row r="85">
@@ -4009,13 +4009,13 @@
         </is>
       </c>
       <c r="B85" t="n">
+        <v>2675</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2</v>
+      </c>
+      <c r="D85" t="n">
         <v>2673</v>
-      </c>
-      <c r="C85" t="n">
-        <v>14</v>
-      </c>
-      <c r="D85" t="n">
-        <v>2659</v>
       </c>
       <c r="E85" t="n">
         <v>474</v>
@@ -4036,13 +4036,13 @@
         <v>21</v>
       </c>
       <c r="K85" t="n">
-        <v>31336</v>
+        <v>31332</v>
       </c>
       <c r="L85" t="n">
-        <v>1882</v>
+        <v>1898</v>
       </c>
       <c r="M85" t="n">
-        <v>242869</v>
+        <v>243349</v>
       </c>
     </row>
     <row r="86">
@@ -4052,13 +4052,13 @@
         </is>
       </c>
       <c r="B86" t="n">
+        <v>1744</v>
+      </c>
+      <c r="C86" t="n">
+        <v>4</v>
+      </c>
+      <c r="D86" t="n">
         <v>1740</v>
-      </c>
-      <c r="C86" t="n">
-        <v>13</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1727</v>
       </c>
       <c r="E86" t="n">
         <v>344</v>
@@ -4079,13 +4079,13 @@
         <v>10</v>
       </c>
       <c r="K86" t="n">
-        <v>31680</v>
+        <v>31676</v>
       </c>
       <c r="L86" t="n">
-        <v>1892</v>
+        <v>1908</v>
       </c>
       <c r="M86" t="n">
-        <v>244609</v>
+        <v>245093</v>
       </c>
     </row>
     <row r="87">
@@ -4095,13 +4095,13 @@
         </is>
       </c>
       <c r="B87" t="n">
+        <v>1631</v>
+      </c>
+      <c r="C87" t="n">
+        <v>4</v>
+      </c>
+      <c r="D87" t="n">
         <v>1627</v>
-      </c>
-      <c r="C87" t="n">
-        <v>5</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1622</v>
       </c>
       <c r="E87" t="n">
         <v>359</v>
@@ -4113,22 +4113,22 @@
         <v>359</v>
       </c>
       <c r="H87" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
         <v>19</v>
       </c>
       <c r="K87" t="n">
-        <v>32039</v>
+        <v>32035</v>
       </c>
       <c r="L87" t="n">
-        <v>1911</v>
+        <v>1928</v>
       </c>
       <c r="M87" t="n">
-        <v>246236</v>
+        <v>246724</v>
       </c>
     </row>
     <row r="88">
@@ -4138,13 +4138,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>6956</v>
+        <v>7071</v>
       </c>
       <c r="C88" t="n">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="D88" t="n">
-        <v>6911</v>
+        <v>6962</v>
       </c>
       <c r="E88" t="n">
         <v>359</v>
@@ -4156,22 +4156,22 @@
         <v>359</v>
       </c>
       <c r="H88" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
         <v>16</v>
       </c>
       <c r="K88" t="n">
-        <v>32398</v>
+        <v>32394</v>
       </c>
       <c r="L88" t="n">
-        <v>1927</v>
+        <v>1945</v>
       </c>
       <c r="M88" t="n">
-        <v>253192</v>
+        <v>253795</v>
       </c>
     </row>
     <row r="89">
@@ -4181,22 +4181,22 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>5197</v>
+        <v>5609</v>
       </c>
       <c r="C89" t="n">
-        <v>207</v>
+        <v>413</v>
       </c>
       <c r="D89" t="n">
-        <v>4990</v>
+        <v>5196</v>
       </c>
       <c r="E89" t="n">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H89" t="n">
         <v>13</v>
@@ -4208,13 +4208,13 @@
         <v>13</v>
       </c>
       <c r="K89" t="n">
-        <v>33015</v>
+        <v>33008</v>
       </c>
       <c r="L89" t="n">
-        <v>1940</v>
+        <v>1958</v>
       </c>
       <c r="M89" t="n">
-        <v>258389</v>
+        <v>259404</v>
       </c>
     </row>
     <row r="90">
@@ -4224,22 +4224,22 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>4479</v>
+        <v>5545</v>
       </c>
       <c r="C90" t="n">
-        <v>1369</v>
+        <v>1065</v>
       </c>
       <c r="D90" t="n">
-        <v>3110</v>
+        <v>4480</v>
       </c>
       <c r="E90" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H90" t="n">
         <v>14</v>
@@ -4251,13 +4251,13 @@
         <v>14</v>
       </c>
       <c r="K90" t="n">
-        <v>33499</v>
+        <v>33491</v>
       </c>
       <c r="L90" t="n">
-        <v>1954</v>
+        <v>1972</v>
       </c>
       <c r="M90" t="n">
-        <v>262868</v>
+        <v>264949</v>
       </c>
     </row>
     <row r="91">
@@ -4267,40 +4267,40 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2684</v>
+        <v>5041</v>
       </c>
       <c r="C91" t="n">
-        <v>2188</v>
+        <v>2368</v>
       </c>
       <c r="D91" t="n">
-        <v>496</v>
+        <v>2673</v>
       </c>
       <c r="E91" t="n">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="H91" t="n">
+        <v>13</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J91" t="n">
         <v>11</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>10</v>
-      </c>
       <c r="K91" t="n">
-        <v>34148</v>
+        <v>34134</v>
       </c>
       <c r="L91" t="n">
-        <v>1965</v>
+        <v>1985</v>
       </c>
       <c r="M91" t="n">
-        <v>265552</v>
+        <v>269990</v>
       </c>
     </row>
     <row r="92">
@@ -4310,40 +4310,40 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>306</v>
+        <v>1413</v>
       </c>
       <c r="C92" t="n">
-        <v>267</v>
+        <v>1118</v>
       </c>
       <c r="D92" t="n">
-        <v>39</v>
+        <v>295</v>
       </c>
       <c r="E92" t="n">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H92" t="n">
+        <v>14</v>
+      </c>
+      <c r="I92" t="n">
+        <v>4</v>
+      </c>
+      <c r="J92" t="n">
         <v>10</v>
       </c>
-      <c r="I92" t="n">
-        <v>6</v>
-      </c>
-      <c r="J92" t="n">
-        <v>4</v>
-      </c>
       <c r="K92" t="n">
-        <v>34538</v>
+        <v>34519</v>
       </c>
       <c r="L92" t="n">
-        <v>1975</v>
+        <v>1999</v>
       </c>
       <c r="M92" t="n">
-        <v>265858</v>
+        <v>271403</v>
       </c>
     </row>
     <row r="93">
@@ -4353,40 +4353,83 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>38</v>
+        <v>402</v>
       </c>
       <c r="C93" t="n">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E93" t="n">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F93" t="n">
-        <v>291</v>
+        <v>2</v>
       </c>
       <c r="G93" t="n">
+        <v>288</v>
+      </c>
+      <c r="H93" t="n">
+        <v>11</v>
+      </c>
+      <c r="I93" t="n">
+        <v>10</v>
+      </c>
+      <c r="J93" t="n">
         <v>1</v>
       </c>
-      <c r="H93" t="n">
+      <c r="K93" t="n">
+        <v>34809</v>
+      </c>
+      <c r="L93" t="n">
+        <v>2010</v>
+      </c>
+      <c r="M93" t="n">
+        <v>271805</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2020-06-01</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>114</v>
+      </c>
+      <c r="C94" t="n">
+        <v>114</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>428</v>
+      </c>
+      <c r="F94" t="n">
+        <v>427</v>
+      </c>
+      <c r="G94" t="n">
         <v>1</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>34830</v>
-      </c>
-      <c r="L93" t="n">
-        <v>1976</v>
-      </c>
-      <c r="M93" t="n">
-        <v>265896</v>
+      <c r="H94" t="n">
+        <v>12</v>
+      </c>
+      <c r="I94" t="n">
+        <v>12</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>35237</v>
+      </c>
+      <c r="L94" t="n">
+        <v>2022</v>
+      </c>
+      <c r="M94" t="n">
+        <v>271919</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2138,10 +2138,10 @@
         <v>36</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K41" t="n">
         <v>6882</v>
@@ -2292,10 +2292,10 @@
         <v>3461</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="E45" t="n">
         <v>292</v>
@@ -2310,10 +2310,10 @@
         <v>35</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K45" t="n">
         <v>8494</v>
@@ -2335,10 +2335,10 @@
         <v>3607</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>3606</v>
+        <v>3607</v>
       </c>
       <c r="E46" t="n">
         <v>417</v>
@@ -2387,10 +2387,10 @@
         <v>580</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H47" t="n">
         <v>37</v>
@@ -2654,10 +2654,10 @@
         <v>49</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K53" t="n">
         <v>12396</v>
@@ -2719,10 +2719,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4371</v>
+        <v>4372</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
         <v>4371</v>
@@ -2752,7 +2752,7 @@
         <v>874</v>
       </c>
       <c r="M55" t="n">
-        <v>89731</v>
+        <v>89732</v>
       </c>
     </row>
     <row r="56">
@@ -2762,31 +2762,31 @@
         </is>
       </c>
       <c r="B56" t="n">
+        <v>3549</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="n">
         <v>3547</v>
-      </c>
-      <c r="C56" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3546</v>
       </c>
       <c r="E56" t="n">
         <v>699</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H56" t="n">
         <v>37</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K56" t="n">
         <v>14344</v>
@@ -2795,7 +2795,7 @@
         <v>911</v>
       </c>
       <c r="M56" t="n">
-        <v>93278</v>
+        <v>93281</v>
       </c>
     </row>
     <row r="57">
@@ -2838,7 +2838,7 @@
         <v>952</v>
       </c>
       <c r="M57" t="n">
-        <v>95558</v>
+        <v>95561</v>
       </c>
     </row>
     <row r="58">
@@ -2881,7 +2881,7 @@
         <v>986</v>
       </c>
       <c r="M58" t="n">
-        <v>97362</v>
+        <v>97365</v>
       </c>
     </row>
     <row r="59">
@@ -2924,7 +2924,7 @@
         <v>1028</v>
       </c>
       <c r="M59" t="n">
-        <v>102096</v>
+        <v>102099</v>
       </c>
     </row>
     <row r="60">
@@ -2937,10 +2937,10 @@
         <v>4988</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>4987</v>
+        <v>4988</v>
       </c>
       <c r="E60" t="n">
         <v>595</v>
@@ -2967,7 +2967,7 @@
         <v>1062</v>
       </c>
       <c r="M60" t="n">
-        <v>107084</v>
+        <v>107087</v>
       </c>
     </row>
     <row r="61">
@@ -2980,10 +2980,10 @@
         <v>5298</v>
       </c>
       <c r="C61" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>5287</v>
+        <v>5298</v>
       </c>
       <c r="E61" t="n">
         <v>653</v>
@@ -3010,7 +3010,7 @@
         <v>1103</v>
       </c>
       <c r="M61" t="n">
-        <v>112382</v>
+        <v>112385</v>
       </c>
     </row>
     <row r="62">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5416</v>
+        <v>5429</v>
       </c>
       <c r="C62" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D62" t="n">
-        <v>5401</v>
+        <v>5417</v>
       </c>
       <c r="E62" t="n">
         <v>794</v>
@@ -3041,10 +3041,10 @@
         <v>46</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K62" t="n">
         <v>18581</v>
@@ -3053,7 +3053,7 @@
         <v>1149</v>
       </c>
       <c r="M62" t="n">
-        <v>117798</v>
+        <v>117814</v>
       </c>
     </row>
     <row r="63">
@@ -3066,10 +3066,10 @@
         <v>6422</v>
       </c>
       <c r="C63" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>6338</v>
+        <v>6422</v>
       </c>
       <c r="E63" t="n">
         <v>652</v>
@@ -3084,10 +3084,10 @@
         <v>35</v>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K63" t="n">
         <v>19233</v>
@@ -3096,7 +3096,7 @@
         <v>1184</v>
       </c>
       <c r="M63" t="n">
-        <v>124220</v>
+        <v>124236</v>
       </c>
     </row>
     <row r="64">
@@ -3106,13 +3106,13 @@
         </is>
       </c>
       <c r="B64" t="n">
+        <v>3279</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3</v>
+      </c>
+      <c r="D64" t="n">
         <v>3276</v>
-      </c>
-      <c r="C64" t="n">
-        <v>86</v>
-      </c>
-      <c r="D64" t="n">
-        <v>3190</v>
       </c>
       <c r="E64" t="n">
         <v>635</v>
@@ -3127,10 +3127,10 @@
         <v>43</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K64" t="n">
         <v>19868</v>
@@ -3139,7 +3139,7 @@
         <v>1227</v>
       </c>
       <c r="M64" t="n">
-        <v>127496</v>
+        <v>127515</v>
       </c>
     </row>
     <row r="65">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="C65" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>1752</v>
+        <v>1815</v>
       </c>
       <c r="E65" t="n">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H65" t="n">
         <v>32</v>
@@ -3176,13 +3176,13 @@
         <v>32</v>
       </c>
       <c r="K65" t="n">
-        <v>20438</v>
+        <v>20437</v>
       </c>
       <c r="L65" t="n">
         <v>1259</v>
       </c>
       <c r="M65" t="n">
-        <v>129312</v>
+        <v>129332</v>
       </c>
     </row>
     <row r="66">
@@ -3192,13 +3192,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5551</v>
+        <v>5586</v>
       </c>
       <c r="C66" t="n">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="D66" t="n">
-        <v>5442</v>
+        <v>5552</v>
       </c>
       <c r="E66" t="n">
         <v>525</v>
@@ -3213,19 +3213,19 @@
         <v>38</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K66" t="n">
-        <v>20963</v>
+        <v>20962</v>
       </c>
       <c r="L66" t="n">
         <v>1297</v>
       </c>
       <c r="M66" t="n">
-        <v>134863</v>
+        <v>134918</v>
       </c>
     </row>
     <row r="67">
@@ -3235,13 +3235,13 @@
         </is>
       </c>
       <c r="B67" t="n">
+        <v>6146</v>
+      </c>
+      <c r="C67" t="n">
+        <v>9</v>
+      </c>
+      <c r="D67" t="n">
         <v>6137</v>
-      </c>
-      <c r="C67" t="n">
-        <v>27</v>
-      </c>
-      <c r="D67" t="n">
-        <v>6110</v>
       </c>
       <c r="E67" t="n">
         <v>837</v>
@@ -3262,13 +3262,13 @@
         <v>37</v>
       </c>
       <c r="K67" t="n">
-        <v>21800</v>
+        <v>21799</v>
       </c>
       <c r="L67" t="n">
         <v>1334</v>
       </c>
       <c r="M67" t="n">
-        <v>141000</v>
+        <v>141064</v>
       </c>
     </row>
     <row r="68">
@@ -3281,10 +3281,10 @@
         <v>5630</v>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>5626</v>
+        <v>5630</v>
       </c>
       <c r="E68" t="n">
         <v>623</v>
@@ -3305,13 +3305,13 @@
         <v>43</v>
       </c>
       <c r="K68" t="n">
-        <v>22423</v>
+        <v>22422</v>
       </c>
       <c r="L68" t="n">
         <v>1377</v>
       </c>
       <c r="M68" t="n">
-        <v>146630</v>
+        <v>146694</v>
       </c>
     </row>
     <row r="69">
@@ -3321,13 +3321,13 @@
         </is>
       </c>
       <c r="B69" t="n">
+        <v>5994</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3</v>
+      </c>
+      <c r="D69" t="n">
         <v>5991</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" t="n">
-        <v>5990</v>
       </c>
       <c r="E69" t="n">
         <v>639</v>
@@ -3348,13 +3348,13 @@
         <v>34</v>
       </c>
       <c r="K69" t="n">
-        <v>23062</v>
+        <v>23061</v>
       </c>
       <c r="L69" t="n">
         <v>1411</v>
       </c>
       <c r="M69" t="n">
-        <v>152621</v>
+        <v>152688</v>
       </c>
     </row>
     <row r="70">
@@ -3364,13 +3364,13 @@
         </is>
       </c>
       <c r="B70" t="n">
+        <v>6210</v>
+      </c>
+      <c r="C70" t="n">
+        <v>23</v>
+      </c>
+      <c r="D70" t="n">
         <v>6187</v>
-      </c>
-      <c r="C70" t="n">
-        <v>5</v>
-      </c>
-      <c r="D70" t="n">
-        <v>6182</v>
       </c>
       <c r="E70" t="n">
         <v>591</v>
@@ -3385,19 +3385,19 @@
         <v>25</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K70" t="n">
-        <v>23653</v>
+        <v>23652</v>
       </c>
       <c r="L70" t="n">
         <v>1436</v>
       </c>
       <c r="M70" t="n">
-        <v>158808</v>
+        <v>158898</v>
       </c>
     </row>
     <row r="71">
@@ -3407,10 +3407,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
         <v>3233</v>
@@ -3434,13 +3434,13 @@
         <v>31</v>
       </c>
       <c r="K71" t="n">
-        <v>24041</v>
+        <v>24040</v>
       </c>
       <c r="L71" t="n">
         <v>1467</v>
       </c>
       <c r="M71" t="n">
-        <v>162041</v>
+        <v>162132</v>
       </c>
     </row>
     <row r="72">
@@ -3471,19 +3471,19 @@
         <v>34</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K72" t="n">
-        <v>24505</v>
+        <v>24504</v>
       </c>
       <c r="L72" t="n">
         <v>1501</v>
       </c>
       <c r="M72" t="n">
-        <v>163313</v>
+        <v>163404</v>
       </c>
     </row>
     <row r="73">
@@ -3514,19 +3514,19 @@
         <v>40</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K73" t="n">
-        <v>25024</v>
+        <v>25023</v>
       </c>
       <c r="L73" t="n">
         <v>1541</v>
       </c>
       <c r="M73" t="n">
-        <v>170236</v>
+        <v>170327</v>
       </c>
     </row>
     <row r="74">
@@ -3536,13 +3536,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6435</v>
+        <v>6451</v>
       </c>
       <c r="C74" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D74" t="n">
-        <v>6418</v>
+        <v>6433</v>
       </c>
       <c r="E74" t="n">
         <v>376</v>
@@ -3563,13 +3563,13 @@
         <v>37</v>
       </c>
       <c r="K74" t="n">
-        <v>25400</v>
+        <v>25399</v>
       </c>
       <c r="L74" t="n">
         <v>1578</v>
       </c>
       <c r="M74" t="n">
-        <v>176671</v>
+        <v>176778</v>
       </c>
     </row>
     <row r="75">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B75" t="n">
+        <v>6856</v>
+      </c>
+      <c r="C75" t="n">
+        <v>68</v>
+      </c>
+      <c r="D75" t="n">
         <v>6788</v>
-      </c>
-      <c r="C75" t="n">
-        <v>8</v>
-      </c>
-      <c r="D75" t="n">
-        <v>6780</v>
       </c>
       <c r="E75" t="n">
         <v>604</v>
@@ -3606,13 +3606,13 @@
         <v>26</v>
       </c>
       <c r="K75" t="n">
-        <v>26004</v>
+        <v>26003</v>
       </c>
       <c r="L75" t="n">
         <v>1604</v>
       </c>
       <c r="M75" t="n">
-        <v>183459</v>
+        <v>183634</v>
       </c>
     </row>
     <row r="76">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>7690</v>
+        <v>7709</v>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D76" t="n">
-        <v>7688</v>
+        <v>7685</v>
       </c>
       <c r="E76" t="n">
         <v>588</v>
@@ -3649,13 +3649,13 @@
         <v>41</v>
       </c>
       <c r="K76" t="n">
-        <v>26592</v>
+        <v>26591</v>
       </c>
       <c r="L76" t="n">
         <v>1645</v>
       </c>
       <c r="M76" t="n">
-        <v>191149</v>
+        <v>191343</v>
       </c>
     </row>
     <row r="77">
@@ -3665,13 +3665,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9126</v>
+        <v>9148</v>
       </c>
       <c r="C77" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D77" t="n">
-        <v>9093</v>
+        <v>9124</v>
       </c>
       <c r="E77" t="n">
         <v>639</v>
@@ -3692,13 +3692,13 @@
         <v>32</v>
       </c>
       <c r="K77" t="n">
-        <v>27231</v>
+        <v>27230</v>
       </c>
       <c r="L77" t="n">
         <v>1677</v>
       </c>
       <c r="M77" t="n">
-        <v>200275</v>
+        <v>200491</v>
       </c>
     </row>
     <row r="78">
@@ -3708,13 +3708,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3024</v>
+        <v>3040</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D78" t="n">
-        <v>3023</v>
+        <v>3026</v>
       </c>
       <c r="E78" t="n">
         <v>496</v>
@@ -3729,19 +3729,19 @@
         <v>29</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K78" t="n">
-        <v>27727</v>
+        <v>27726</v>
       </c>
       <c r="L78" t="n">
         <v>1706</v>
       </c>
       <c r="M78" t="n">
-        <v>203299</v>
+        <v>203531</v>
       </c>
     </row>
     <row r="79">
@@ -3751,10 +3751,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1827</v>
+        <v>1840</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D79" t="n">
         <v>1827</v>
@@ -3772,19 +3772,19 @@
         <v>28</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K79" t="n">
-        <v>28212</v>
+        <v>28211</v>
       </c>
       <c r="L79" t="n">
         <v>1734</v>
       </c>
       <c r="M79" t="n">
-        <v>205126</v>
+        <v>205371</v>
       </c>
     </row>
     <row r="80">
@@ -3794,10 +3794,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>7881</v>
+        <v>7889</v>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D80" t="n">
         <v>7878</v>
@@ -3821,13 +3821,13 @@
         <v>37</v>
       </c>
       <c r="K80" t="n">
-        <v>28672</v>
+        <v>28671</v>
       </c>
       <c r="L80" t="n">
         <v>1771</v>
       </c>
       <c r="M80" t="n">
-        <v>213007</v>
+        <v>213260</v>
       </c>
     </row>
     <row r="81">
@@ -3837,22 +3837,22 @@
         </is>
       </c>
       <c r="B81" t="n">
+        <v>6678</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3</v>
+      </c>
+      <c r="D81" t="n">
         <v>6675</v>
       </c>
-      <c r="C81" t="n">
-        <v>4</v>
-      </c>
-      <c r="D81" t="n">
-        <v>6671</v>
-      </c>
       <c r="E81" t="n">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H81" t="n">
         <v>29</v>
@@ -3864,13 +3864,13 @@
         <v>29</v>
       </c>
       <c r="K81" t="n">
-        <v>29240</v>
+        <v>29238</v>
       </c>
       <c r="L81" t="n">
         <v>1800</v>
       </c>
       <c r="M81" t="n">
-        <v>219682</v>
+        <v>219938</v>
       </c>
     </row>
     <row r="82">
@@ -3880,22 +3880,22 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6180</v>
+        <v>6178</v>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>6177</v>
+        <v>6176</v>
       </c>
       <c r="E82" t="n">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H82" t="n">
         <v>25</v>
@@ -3907,13 +3907,13 @@
         <v>25</v>
       </c>
       <c r="K82" t="n">
-        <v>29894</v>
+        <v>29891</v>
       </c>
       <c r="L82" t="n">
         <v>1825</v>
       </c>
       <c r="M82" t="n">
-        <v>225862</v>
+        <v>226116</v>
       </c>
     </row>
     <row r="83">
@@ -3923,22 +3923,22 @@
         </is>
       </c>
       <c r="B83" t="n">
+        <v>7078</v>
+      </c>
+      <c r="C83" t="n">
+        <v>12</v>
+      </c>
+      <c r="D83" t="n">
         <v>7066</v>
       </c>
-      <c r="C83" t="n">
-        <v>5</v>
-      </c>
-      <c r="D83" t="n">
-        <v>7061</v>
-      </c>
       <c r="E83" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H83" t="n">
         <v>36</v>
@@ -3950,13 +3950,13 @@
         <v>36</v>
       </c>
       <c r="K83" t="n">
-        <v>30363</v>
+        <v>30359</v>
       </c>
       <c r="L83" t="n">
         <v>1861</v>
       </c>
       <c r="M83" t="n">
-        <v>232928</v>
+        <v>233194</v>
       </c>
     </row>
     <row r="84">
@@ -3966,13 +3966,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>7746</v>
+        <v>7745</v>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>7741</v>
+        <v>7739</v>
       </c>
       <c r="E84" t="n">
         <v>495</v>
@@ -3987,19 +3987,19 @@
         <v>16</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K84" t="n">
-        <v>30858</v>
+        <v>30854</v>
       </c>
       <c r="L84" t="n">
         <v>1877</v>
       </c>
       <c r="M84" t="n">
-        <v>240674</v>
+        <v>240939</v>
       </c>
     </row>
     <row r="85">
@@ -4009,13 +4009,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2675</v>
+        <v>2686</v>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D85" t="n">
-        <v>2673</v>
+        <v>2674</v>
       </c>
       <c r="E85" t="n">
         <v>474</v>
@@ -4036,13 +4036,13 @@
         <v>21</v>
       </c>
       <c r="K85" t="n">
-        <v>31332</v>
+        <v>31328</v>
       </c>
       <c r="L85" t="n">
         <v>1898</v>
       </c>
       <c r="M85" t="n">
-        <v>243349</v>
+        <v>243625</v>
       </c>
     </row>
     <row r="86">
@@ -4052,13 +4052,13 @@
         </is>
       </c>
       <c r="B86" t="n">
+        <v>1745</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
         <v>1744</v>
-      </c>
-      <c r="C86" t="n">
-        <v>4</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1740</v>
       </c>
       <c r="E86" t="n">
         <v>344</v>
@@ -4079,13 +4079,13 @@
         <v>10</v>
       </c>
       <c r="K86" t="n">
-        <v>31676</v>
+        <v>31672</v>
       </c>
       <c r="L86" t="n">
         <v>1908</v>
       </c>
       <c r="M86" t="n">
-        <v>245093</v>
+        <v>245370</v>
       </c>
     </row>
     <row r="87">
@@ -4095,13 +4095,13 @@
         </is>
       </c>
       <c r="B87" t="n">
+        <v>1634</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3</v>
+      </c>
+      <c r="D87" t="n">
         <v>1631</v>
-      </c>
-      <c r="C87" t="n">
-        <v>4</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1627</v>
       </c>
       <c r="E87" t="n">
         <v>359</v>
@@ -4116,19 +4116,19 @@
         <v>20</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K87" t="n">
-        <v>32035</v>
+        <v>32031</v>
       </c>
       <c r="L87" t="n">
         <v>1928</v>
       </c>
       <c r="M87" t="n">
-        <v>246724</v>
+        <v>247004</v>
       </c>
     </row>
     <row r="88">
@@ -4138,13 +4138,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>7071</v>
+        <v>7247</v>
       </c>
       <c r="C88" t="n">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="D88" t="n">
-        <v>6962</v>
+        <v>7079</v>
       </c>
       <c r="E88" t="n">
         <v>359</v>
@@ -4159,19 +4159,19 @@
         <v>17</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K88" t="n">
-        <v>32394</v>
+        <v>32390</v>
       </c>
       <c r="L88" t="n">
         <v>1945</v>
       </c>
       <c r="M88" t="n">
-        <v>253795</v>
+        <v>254251</v>
       </c>
     </row>
     <row r="89">
@@ -4181,13 +4181,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>5609</v>
+        <v>5789</v>
       </c>
       <c r="C89" t="n">
-        <v>413</v>
+        <v>189</v>
       </c>
       <c r="D89" t="n">
-        <v>5196</v>
+        <v>5600</v>
       </c>
       <c r="E89" t="n">
         <v>614</v>
@@ -4208,13 +4208,13 @@
         <v>13</v>
       </c>
       <c r="K89" t="n">
-        <v>33008</v>
+        <v>33004</v>
       </c>
       <c r="L89" t="n">
         <v>1958</v>
       </c>
       <c r="M89" t="n">
-        <v>259404</v>
+        <v>260040</v>
       </c>
     </row>
     <row r="90">
@@ -4224,22 +4224,22 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>5545</v>
+        <v>6586</v>
       </c>
       <c r="C90" t="n">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="D90" t="n">
-        <v>4480</v>
+        <v>5528</v>
       </c>
       <c r="E90" t="n">
         <v>483</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H90" t="n">
         <v>14</v>
@@ -4251,13 +4251,13 @@
         <v>14</v>
       </c>
       <c r="K90" t="n">
-        <v>33491</v>
+        <v>33487</v>
       </c>
       <c r="L90" t="n">
         <v>1972</v>
       </c>
       <c r="M90" t="n">
-        <v>264949</v>
+        <v>266626</v>
       </c>
     </row>
     <row r="91">
@@ -4267,40 +4267,40 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>5041</v>
+        <v>6959</v>
       </c>
       <c r="C91" t="n">
-        <v>2368</v>
+        <v>1933</v>
       </c>
       <c r="D91" t="n">
-        <v>2673</v>
+        <v>5026</v>
       </c>
       <c r="E91" t="n">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="H91" t="n">
+        <v>14</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
         <v>13</v>
       </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
-      <c r="J91" t="n">
-        <v>11</v>
-      </c>
       <c r="K91" t="n">
-        <v>34134</v>
+        <v>34115</v>
       </c>
       <c r="L91" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="M91" t="n">
-        <v>269990</v>
+        <v>273585</v>
       </c>
     </row>
     <row r="92">
@@ -4310,40 +4310,40 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1413</v>
+        <v>2376</v>
       </c>
       <c r="C92" t="n">
-        <v>1118</v>
+        <v>966</v>
       </c>
       <c r="D92" t="n">
-        <v>295</v>
+        <v>1410</v>
       </c>
       <c r="E92" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="H92" t="n">
         <v>14</v>
       </c>
       <c r="I92" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K92" t="n">
-        <v>34519</v>
+        <v>34494</v>
       </c>
       <c r="L92" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="M92" t="n">
-        <v>271403</v>
+        <v>275961</v>
       </c>
     </row>
     <row r="93">
@@ -4353,40 +4353,40 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>402</v>
+        <v>975</v>
       </c>
       <c r="C93" t="n">
-        <v>365</v>
+        <v>583</v>
       </c>
       <c r="D93" t="n">
-        <v>37</v>
+        <v>392</v>
       </c>
       <c r="E93" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H93" t="n">
+        <v>12</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
         <v>11</v>
       </c>
-      <c r="I93" t="n">
-        <v>10</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
       <c r="K93" t="n">
-        <v>34809</v>
+        <v>34783</v>
       </c>
       <c r="L93" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="M93" t="n">
-        <v>271805</v>
+        <v>276936</v>
       </c>
     </row>
     <row r="94">
@@ -4396,40 +4396,83 @@
         </is>
       </c>
       <c r="B94" t="n">
+        <v>765</v>
+      </c>
+      <c r="C94" t="n">
+        <v>647</v>
+      </c>
+      <c r="D94" t="n">
+        <v>118</v>
+      </c>
+      <c r="E94" t="n">
+        <v>423</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3</v>
+      </c>
+      <c r="G94" t="n">
+        <v>420</v>
+      </c>
+      <c r="H94" t="n">
+        <v>14</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2</v>
+      </c>
+      <c r="J94" t="n">
+        <v>12</v>
+      </c>
+      <c r="K94" t="n">
+        <v>35206</v>
+      </c>
+      <c r="L94" t="n">
+        <v>2026</v>
+      </c>
+      <c r="M94" t="n">
+        <v>277701</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2020-06-02</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
         <v>114</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C95" t="n">
         <v>114</v>
       </c>
-      <c r="D94" t="n">
-        <v>0</v>
-      </c>
-      <c r="E94" t="n">
-        <v>428</v>
-      </c>
-      <c r="F94" t="n">
-        <v>427</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>12</v>
-      </c>
-      <c r="I94" t="n">
-        <v>12</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="n">
-        <v>35237</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2022</v>
-      </c>
-      <c r="M94" t="n">
-        <v>271919</v>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>506</v>
+      </c>
+      <c r="F95" t="n">
+        <v>506</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+      <c r="I95" t="n">
+        <v>6</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>35712</v>
+      </c>
+      <c r="L95" t="n">
+        <v>2032</v>
+      </c>
+      <c r="M95" t="n">
+        <v>277815</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M95"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1988,10 +1988,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>2421</v>
@@ -2021,7 +2021,7 @@
         <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>38338</v>
+        <v>38339</v>
       </c>
     </row>
     <row r="39">
@@ -2031,13 +2031,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2783</v>
+        <v>2784</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>2783</v>
+        <v>2784</v>
       </c>
       <c r="E39" t="n">
         <v>422</v>
@@ -2064,7 +2064,7 @@
         <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>41121</v>
+        <v>41123</v>
       </c>
     </row>
     <row r="40">
@@ -2107,7 +2107,7 @@
         <v>337</v>
       </c>
       <c r="M40" t="n">
-        <v>44192</v>
+        <v>44194</v>
       </c>
     </row>
     <row r="41">
@@ -2150,7 +2150,7 @@
         <v>373</v>
       </c>
       <c r="M41" t="n">
-        <v>46939</v>
+        <v>46941</v>
       </c>
     </row>
     <row r="42">
@@ -2160,10 +2160,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
         <v>2727</v>
@@ -2193,7 +2193,7 @@
         <v>398</v>
       </c>
       <c r="M42" t="n">
-        <v>49666</v>
+        <v>49669</v>
       </c>
     </row>
     <row r="43">
@@ -2236,7 +2236,7 @@
         <v>418</v>
       </c>
       <c r="M43" t="n">
-        <v>51209</v>
+        <v>51212</v>
       </c>
     </row>
     <row r="44">
@@ -2279,7 +2279,7 @@
         <v>447</v>
       </c>
       <c r="M44" t="n">
-        <v>51908</v>
+        <v>51911</v>
       </c>
     </row>
     <row r="45">
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="B45" t="n">
+        <v>3464</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D45" t="n">
         <v>3461</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" t="n">
-        <v>3460</v>
       </c>
       <c r="E45" t="n">
         <v>292</v>
@@ -2322,7 +2322,7 @@
         <v>482</v>
       </c>
       <c r="M45" t="n">
-        <v>55369</v>
+        <v>55375</v>
       </c>
     </row>
     <row r="46">
@@ -2365,7 +2365,7 @@
         <v>528</v>
       </c>
       <c r="M46" t="n">
-        <v>58976</v>
+        <v>58982</v>
       </c>
     </row>
     <row r="47">
@@ -2408,7 +2408,7 @@
         <v>565</v>
       </c>
       <c r="M47" t="n">
-        <v>62277</v>
+        <v>62283</v>
       </c>
     </row>
     <row r="48">
@@ -2451,7 +2451,7 @@
         <v>599</v>
       </c>
       <c r="M48" t="n">
-        <v>66276</v>
+        <v>66282</v>
       </c>
     </row>
     <row r="49">
@@ -2461,10 +2461,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4162</v>
+        <v>4163</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
         <v>4162</v>
@@ -2494,7 +2494,7 @@
         <v>635</v>
       </c>
       <c r="M49" t="n">
-        <v>70438</v>
+        <v>70445</v>
       </c>
     </row>
     <row r="50">
@@ -2537,7 +2537,7 @@
         <v>663</v>
       </c>
       <c r="M50" t="n">
-        <v>72195</v>
+        <v>72202</v>
       </c>
     </row>
     <row r="51">
@@ -2580,7 +2580,7 @@
         <v>699</v>
       </c>
       <c r="M51" t="n">
-        <v>73297</v>
+        <v>73304</v>
       </c>
     </row>
     <row r="52">
@@ -2623,7 +2623,7 @@
         <v>737</v>
       </c>
       <c r="M52" t="n">
-        <v>77645</v>
+        <v>77652</v>
       </c>
     </row>
     <row r="53">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3851</v>
+        <v>3852</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
         <v>3851</v>
@@ -2666,7 +2666,7 @@
         <v>786</v>
       </c>
       <c r="M53" t="n">
-        <v>81496</v>
+        <v>81504</v>
       </c>
     </row>
     <row r="54">
@@ -2709,7 +2709,7 @@
         <v>836</v>
       </c>
       <c r="M54" t="n">
-        <v>85360</v>
+        <v>85368</v>
       </c>
     </row>
     <row r="55">
@@ -2722,10 +2722,10 @@
         <v>4372</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>4371</v>
+        <v>4372</v>
       </c>
       <c r="E55" t="n">
         <v>644</v>
@@ -2752,7 +2752,7 @@
         <v>874</v>
       </c>
       <c r="M55" t="n">
-        <v>89732</v>
+        <v>89740</v>
       </c>
     </row>
     <row r="56">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="B56" t="n">
+        <v>3552</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3</v>
+      </c>
+      <c r="D56" t="n">
         <v>3549</v>
-      </c>
-      <c r="C56" t="n">
-        <v>2</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3547</v>
       </c>
       <c r="E56" t="n">
         <v>699</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H56" t="n">
         <v>37</v>
@@ -2795,7 +2795,7 @@
         <v>911</v>
       </c>
       <c r="M56" t="n">
-        <v>93281</v>
+        <v>93292</v>
       </c>
     </row>
     <row r="57">
@@ -2838,7 +2838,7 @@
         <v>952</v>
       </c>
       <c r="M57" t="n">
-        <v>95561</v>
+        <v>95572</v>
       </c>
     </row>
     <row r="58">
@@ -2881,7 +2881,7 @@
         <v>986</v>
       </c>
       <c r="M58" t="n">
-        <v>97365</v>
+        <v>97376</v>
       </c>
     </row>
     <row r="59">
@@ -2894,19 +2894,19 @@
         <v>4734</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>4734</v>
+        <v>4733</v>
       </c>
       <c r="E59" t="n">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H59" t="n">
         <v>42</v>
@@ -2918,13 +2918,13 @@
         <v>42</v>
       </c>
       <c r="K59" t="n">
-        <v>16539</v>
+        <v>16538</v>
       </c>
       <c r="L59" t="n">
         <v>1028</v>
       </c>
       <c r="M59" t="n">
-        <v>102099</v>
+        <v>102110</v>
       </c>
     </row>
     <row r="60">
@@ -2934,10 +2934,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4988</v>
+        <v>4996</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D60" t="n">
         <v>4988</v>
@@ -2961,13 +2961,13 @@
         <v>34</v>
       </c>
       <c r="K60" t="n">
-        <v>17134</v>
+        <v>17133</v>
       </c>
       <c r="L60" t="n">
         <v>1062</v>
       </c>
       <c r="M60" t="n">
-        <v>107087</v>
+        <v>107106</v>
       </c>
     </row>
     <row r="61">
@@ -2977,10 +2977,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>5298</v>
+        <v>5306</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D61" t="n">
         <v>5298</v>
@@ -3004,13 +3004,13 @@
         <v>41</v>
       </c>
       <c r="K61" t="n">
-        <v>17787</v>
+        <v>17786</v>
       </c>
       <c r="L61" t="n">
         <v>1103</v>
       </c>
       <c r="M61" t="n">
-        <v>112385</v>
+        <v>112412</v>
       </c>
     </row>
     <row r="62">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5429</v>
+        <v>5444</v>
       </c>
       <c r="C62" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D62" t="n">
-        <v>5417</v>
+        <v>5428</v>
       </c>
       <c r="E62" t="n">
         <v>794</v>
@@ -3047,13 +3047,13 @@
         <v>46</v>
       </c>
       <c r="K62" t="n">
-        <v>18581</v>
+        <v>18580</v>
       </c>
       <c r="L62" t="n">
         <v>1149</v>
       </c>
       <c r="M62" t="n">
-        <v>117814</v>
+        <v>117856</v>
       </c>
     </row>
     <row r="63">
@@ -3090,13 +3090,13 @@
         <v>35</v>
       </c>
       <c r="K63" t="n">
-        <v>19233</v>
+        <v>19232</v>
       </c>
       <c r="L63" t="n">
         <v>1184</v>
       </c>
       <c r="M63" t="n">
-        <v>124236</v>
+        <v>124278</v>
       </c>
     </row>
     <row r="64">
@@ -3109,10 +3109,10 @@
         <v>3279</v>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>3276</v>
+        <v>3279</v>
       </c>
       <c r="E64" t="n">
         <v>635</v>
@@ -3124,22 +3124,22 @@
         <v>635</v>
       </c>
       <c r="H64" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
         <v>43</v>
       </c>
       <c r="K64" t="n">
-        <v>19868</v>
+        <v>19867</v>
       </c>
       <c r="L64" t="n">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="M64" t="n">
-        <v>127515</v>
+        <v>127557</v>
       </c>
     </row>
     <row r="65">
@@ -3152,10 +3152,10 @@
         <v>1817</v>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>1815</v>
+        <v>1817</v>
       </c>
       <c r="E65" t="n">
         <v>569</v>
@@ -3176,13 +3176,13 @@
         <v>32</v>
       </c>
       <c r="K65" t="n">
-        <v>20437</v>
+        <v>20436</v>
       </c>
       <c r="L65" t="n">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="M65" t="n">
-        <v>129332</v>
+        <v>129374</v>
       </c>
     </row>
     <row r="66">
@@ -3195,10 +3195,10 @@
         <v>5586</v>
       </c>
       <c r="C66" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>5552</v>
+        <v>5586</v>
       </c>
       <c r="E66" t="n">
         <v>525</v>
@@ -3219,13 +3219,13 @@
         <v>38</v>
       </c>
       <c r="K66" t="n">
-        <v>20962</v>
+        <v>20961</v>
       </c>
       <c r="L66" t="n">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="M66" t="n">
-        <v>134918</v>
+        <v>134960</v>
       </c>
     </row>
     <row r="67">
@@ -3235,13 +3235,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6146</v>
+        <v>6149</v>
       </c>
       <c r="C67" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>6137</v>
+        <v>6149</v>
       </c>
       <c r="E67" t="n">
         <v>837</v>
@@ -3262,13 +3262,13 @@
         <v>37</v>
       </c>
       <c r="K67" t="n">
-        <v>21799</v>
+        <v>21798</v>
       </c>
       <c r="L67" t="n">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="M67" t="n">
-        <v>141064</v>
+        <v>141109</v>
       </c>
     </row>
     <row r="68">
@@ -3305,13 +3305,13 @@
         <v>43</v>
       </c>
       <c r="K68" t="n">
-        <v>22422</v>
+        <v>22421</v>
       </c>
       <c r="L68" t="n">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="M68" t="n">
-        <v>146694</v>
+        <v>146739</v>
       </c>
     </row>
     <row r="69">
@@ -3321,13 +3321,13 @@
         </is>
       </c>
       <c r="B69" t="n">
+        <v>5995</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
         <v>5994</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3</v>
-      </c>
-      <c r="D69" t="n">
-        <v>5991</v>
       </c>
       <c r="E69" t="n">
         <v>639</v>
@@ -3348,13 +3348,13 @@
         <v>34</v>
       </c>
       <c r="K69" t="n">
-        <v>23061</v>
+        <v>23060</v>
       </c>
       <c r="L69" t="n">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="M69" t="n">
-        <v>152688</v>
+        <v>152734</v>
       </c>
     </row>
     <row r="70">
@@ -3364,13 +3364,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6210</v>
+        <v>6228</v>
       </c>
       <c r="C70" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D70" t="n">
-        <v>6187</v>
+        <v>6211</v>
       </c>
       <c r="E70" t="n">
         <v>591</v>
@@ -3391,13 +3391,13 @@
         <v>25</v>
       </c>
       <c r="K70" t="n">
-        <v>23652</v>
+        <v>23651</v>
       </c>
       <c r="L70" t="n">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="M70" t="n">
-        <v>158898</v>
+        <v>158962</v>
       </c>
     </row>
     <row r="71">
@@ -3407,10 +3407,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>3233</v>
@@ -3434,13 +3434,13 @@
         <v>31</v>
       </c>
       <c r="K71" t="n">
-        <v>24040</v>
+        <v>24039</v>
       </c>
       <c r="L71" t="n">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="M71" t="n">
-        <v>162132</v>
+        <v>162197</v>
       </c>
     </row>
     <row r="72">
@@ -3477,13 +3477,13 @@
         <v>34</v>
       </c>
       <c r="K72" t="n">
-        <v>24504</v>
+        <v>24503</v>
       </c>
       <c r="L72" t="n">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="M72" t="n">
-        <v>163404</v>
+        <v>163469</v>
       </c>
     </row>
     <row r="73">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6923</v>
+        <v>6926</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>6923</v>
       </c>
       <c r="E73" t="n">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H73" t="n">
         <v>40</v>
@@ -3520,13 +3520,13 @@
         <v>40</v>
       </c>
       <c r="K73" t="n">
-        <v>25023</v>
+        <v>25021</v>
       </c>
       <c r="L73" t="n">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="M73" t="n">
-        <v>170327</v>
+        <v>170395</v>
       </c>
     </row>
     <row r="74">
@@ -3536,13 +3536,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6451</v>
+        <v>6492</v>
       </c>
       <c r="C74" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D74" t="n">
-        <v>6433</v>
+        <v>6449</v>
       </c>
       <c r="E74" t="n">
         <v>376</v>
@@ -3554,22 +3554,22 @@
         <v>376</v>
       </c>
       <c r="H74" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
         <v>37</v>
       </c>
       <c r="K74" t="n">
-        <v>25399</v>
+        <v>25397</v>
       </c>
       <c r="L74" t="n">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="M74" t="n">
-        <v>176778</v>
+        <v>176887</v>
       </c>
     </row>
     <row r="75">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>6856</v>
+        <v>7018</v>
       </c>
       <c r="C75" t="n">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="D75" t="n">
-        <v>6788</v>
+        <v>6901</v>
       </c>
       <c r="E75" t="n">
         <v>604</v>
@@ -3606,13 +3606,13 @@
         <v>26</v>
       </c>
       <c r="K75" t="n">
-        <v>26003</v>
+        <v>26001</v>
       </c>
       <c r="L75" t="n">
-        <v>1604</v>
+        <v>1606</v>
       </c>
       <c r="M75" t="n">
-        <v>183634</v>
+        <v>183905</v>
       </c>
     </row>
     <row r="76">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>7709</v>
+        <v>7725</v>
       </c>
       <c r="C76" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D76" t="n">
-        <v>7685</v>
+        <v>7713</v>
       </c>
       <c r="E76" t="n">
         <v>588</v>
@@ -3649,13 +3649,13 @@
         <v>41</v>
       </c>
       <c r="K76" t="n">
-        <v>26591</v>
+        <v>26589</v>
       </c>
       <c r="L76" t="n">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="M76" t="n">
-        <v>191343</v>
+        <v>191630</v>
       </c>
     </row>
     <row r="77">
@@ -3665,13 +3665,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9148</v>
+        <v>9178</v>
       </c>
       <c r="C77" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D77" t="n">
-        <v>9124</v>
+        <v>9147</v>
       </c>
       <c r="E77" t="n">
         <v>639</v>
@@ -3692,13 +3692,13 @@
         <v>32</v>
       </c>
       <c r="K77" t="n">
-        <v>27230</v>
+        <v>27228</v>
       </c>
       <c r="L77" t="n">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="M77" t="n">
-        <v>200491</v>
+        <v>200808</v>
       </c>
     </row>
     <row r="78">
@@ -3708,13 +3708,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3040</v>
+        <v>3078</v>
       </c>
       <c r="C78" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D78" t="n">
-        <v>3026</v>
+        <v>3039</v>
       </c>
       <c r="E78" t="n">
         <v>496</v>
@@ -3735,13 +3735,13 @@
         <v>29</v>
       </c>
       <c r="K78" t="n">
-        <v>27726</v>
+        <v>27724</v>
       </c>
       <c r="L78" t="n">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="M78" t="n">
-        <v>203531</v>
+        <v>203886</v>
       </c>
     </row>
     <row r="79">
@@ -3751,13 +3751,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1840</v>
+        <v>1859</v>
       </c>
       <c r="C79" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D79" t="n">
-        <v>1827</v>
+        <v>1836</v>
       </c>
       <c r="E79" t="n">
         <v>485</v>
@@ -3778,13 +3778,13 @@
         <v>28</v>
       </c>
       <c r="K79" t="n">
-        <v>28211</v>
+        <v>28209</v>
       </c>
       <c r="L79" t="n">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="M79" t="n">
-        <v>205371</v>
+        <v>205745</v>
       </c>
     </row>
     <row r="80">
@@ -3794,22 +3794,22 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>7889</v>
+        <v>7953</v>
       </c>
       <c r="C80" t="n">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D80" t="n">
-        <v>7878</v>
+        <v>7890</v>
       </c>
       <c r="E80" t="n">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H80" t="n">
         <v>37</v>
@@ -3821,13 +3821,13 @@
         <v>37</v>
       </c>
       <c r="K80" t="n">
-        <v>28671</v>
+        <v>28665</v>
       </c>
       <c r="L80" t="n">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="M80" t="n">
-        <v>213260</v>
+        <v>213698</v>
       </c>
     </row>
     <row r="81">
@@ -3837,22 +3837,22 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6678</v>
+        <v>6747</v>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="D81" t="n">
-        <v>6675</v>
+        <v>6677</v>
       </c>
       <c r="E81" t="n">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="H81" t="n">
         <v>29</v>
@@ -3864,13 +3864,13 @@
         <v>29</v>
       </c>
       <c r="K81" t="n">
-        <v>29238</v>
+        <v>29223</v>
       </c>
       <c r="L81" t="n">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="M81" t="n">
-        <v>219938</v>
+        <v>220445</v>
       </c>
     </row>
     <row r="82">
@@ -3880,40 +3880,40 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6178</v>
+        <v>6175</v>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="D82" t="n">
-        <v>6176</v>
+        <v>6126</v>
       </c>
       <c r="E82" t="n">
         <v>653</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H82" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
         <v>25</v>
       </c>
       <c r="K82" t="n">
-        <v>29891</v>
+        <v>29876</v>
       </c>
       <c r="L82" t="n">
-        <v>1825</v>
+        <v>1828</v>
       </c>
       <c r="M82" t="n">
-        <v>226116</v>
+        <v>226620</v>
       </c>
     </row>
     <row r="83">
@@ -3926,10 +3926,10 @@
         <v>7078</v>
       </c>
       <c r="C83" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D83" t="n">
-        <v>7066</v>
+        <v>7068</v>
       </c>
       <c r="E83" t="n">
         <v>468</v>
@@ -3950,13 +3950,13 @@
         <v>36</v>
       </c>
       <c r="K83" t="n">
-        <v>30359</v>
+        <v>30344</v>
       </c>
       <c r="L83" t="n">
-        <v>1861</v>
+        <v>1864</v>
       </c>
       <c r="M83" t="n">
-        <v>233194</v>
+        <v>233698</v>
       </c>
     </row>
     <row r="84">
@@ -3966,13 +3966,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>7745</v>
+        <v>7741</v>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D84" t="n">
-        <v>7739</v>
+        <v>7728</v>
       </c>
       <c r="E84" t="n">
         <v>495</v>
@@ -3993,13 +3993,13 @@
         <v>16</v>
       </c>
       <c r="K84" t="n">
-        <v>30854</v>
+        <v>30839</v>
       </c>
       <c r="L84" t="n">
-        <v>1877</v>
+        <v>1880</v>
       </c>
       <c r="M84" t="n">
-        <v>240939</v>
+        <v>241439</v>
       </c>
     </row>
     <row r="85">
@@ -4009,13 +4009,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2686</v>
+        <v>2748</v>
       </c>
       <c r="C85" t="n">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="D85" t="n">
-        <v>2674</v>
+        <v>2685</v>
       </c>
       <c r="E85" t="n">
         <v>474</v>
@@ -4036,13 +4036,13 @@
         <v>21</v>
       </c>
       <c r="K85" t="n">
-        <v>31328</v>
+        <v>31313</v>
       </c>
       <c r="L85" t="n">
-        <v>1898</v>
+        <v>1901</v>
       </c>
       <c r="M85" t="n">
-        <v>243625</v>
+        <v>244187</v>
       </c>
     </row>
     <row r="86">
@@ -4052,13 +4052,13 @@
         </is>
       </c>
       <c r="B86" t="n">
+        <v>1765</v>
+      </c>
+      <c r="C86" t="n">
+        <v>20</v>
+      </c>
+      <c r="D86" t="n">
         <v>1745</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1744</v>
       </c>
       <c r="E86" t="n">
         <v>344</v>
@@ -4079,13 +4079,13 @@
         <v>10</v>
       </c>
       <c r="K86" t="n">
-        <v>31672</v>
+        <v>31657</v>
       </c>
       <c r="L86" t="n">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="M86" t="n">
-        <v>245370</v>
+        <v>245952</v>
       </c>
     </row>
     <row r="87">
@@ -4095,13 +4095,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1634</v>
+        <v>1680</v>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D87" t="n">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="E87" t="n">
         <v>359</v>
@@ -4122,13 +4122,13 @@
         <v>20</v>
       </c>
       <c r="K87" t="n">
-        <v>32031</v>
+        <v>32016</v>
       </c>
       <c r="L87" t="n">
-        <v>1928</v>
+        <v>1931</v>
       </c>
       <c r="M87" t="n">
-        <v>247004</v>
+        <v>247632</v>
       </c>
     </row>
     <row r="88">
@@ -4138,40 +4138,40 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>7247</v>
+        <v>7285</v>
       </c>
       <c r="C88" t="n">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="D88" t="n">
-        <v>7079</v>
+        <v>7241</v>
       </c>
       <c r="E88" t="n">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="H88" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
         <v>17</v>
       </c>
       <c r="K88" t="n">
-        <v>32390</v>
+        <v>32367</v>
       </c>
       <c r="L88" t="n">
-        <v>1945</v>
+        <v>1949</v>
       </c>
       <c r="M88" t="n">
-        <v>254251</v>
+        <v>254917</v>
       </c>
     </row>
     <row r="89">
@@ -4181,22 +4181,22 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>5789</v>
+        <v>5893</v>
       </c>
       <c r="C89" t="n">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="D89" t="n">
-        <v>5600</v>
+        <v>5786</v>
       </c>
       <c r="E89" t="n">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="H89" t="n">
         <v>13</v>
@@ -4208,13 +4208,13 @@
         <v>13</v>
       </c>
       <c r="K89" t="n">
-        <v>33004</v>
+        <v>32977</v>
       </c>
       <c r="L89" t="n">
-        <v>1958</v>
+        <v>1962</v>
       </c>
       <c r="M89" t="n">
-        <v>260040</v>
+        <v>260810</v>
       </c>
     </row>
     <row r="90">
@@ -4224,19 +4224,19 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>6586</v>
+        <v>6669</v>
       </c>
       <c r="C90" t="n">
-        <v>1058</v>
+        <v>86</v>
       </c>
       <c r="D90" t="n">
-        <v>5528</v>
+        <v>6583</v>
       </c>
       <c r="E90" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
         <v>482</v>
@@ -4251,13 +4251,13 @@
         <v>14</v>
       </c>
       <c r="K90" t="n">
-        <v>33487</v>
+        <v>33459</v>
       </c>
       <c r="L90" t="n">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="M90" t="n">
-        <v>266626</v>
+        <v>267479</v>
       </c>
     </row>
     <row r="91">
@@ -4267,40 +4267,40 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>6959</v>
+        <v>7301</v>
       </c>
       <c r="C91" t="n">
-        <v>1933</v>
+        <v>347</v>
       </c>
       <c r="D91" t="n">
-        <v>5026</v>
+        <v>6954</v>
       </c>
       <c r="E91" t="n">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="H91" t="n">
+        <v>16</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J91" t="n">
         <v>14</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>13</v>
-      </c>
       <c r="K91" t="n">
-        <v>34115</v>
+        <v>34072</v>
       </c>
       <c r="L91" t="n">
-        <v>1986</v>
+        <v>1992</v>
       </c>
       <c r="M91" t="n">
-        <v>273585</v>
+        <v>274780</v>
       </c>
     </row>
     <row r="92">
@@ -4310,22 +4310,22 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2376</v>
+        <v>2698</v>
       </c>
       <c r="C92" t="n">
-        <v>966</v>
+        <v>327</v>
       </c>
       <c r="D92" t="n">
-        <v>1410</v>
+        <v>2371</v>
       </c>
       <c r="E92" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H92" t="n">
         <v>14</v>
@@ -4337,13 +4337,13 @@
         <v>14</v>
       </c>
       <c r="K92" t="n">
-        <v>34494</v>
+        <v>34449</v>
       </c>
       <c r="L92" t="n">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="M92" t="n">
-        <v>275961</v>
+        <v>277478</v>
       </c>
     </row>
     <row r="93">
@@ -4353,40 +4353,40 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>975</v>
+        <v>1577</v>
       </c>
       <c r="C93" t="n">
-        <v>583</v>
+        <v>606</v>
       </c>
       <c r="D93" t="n">
-        <v>392</v>
+        <v>971</v>
       </c>
       <c r="E93" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H93" t="n">
         <v>12</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K93" t="n">
-        <v>34783</v>
+        <v>34737</v>
       </c>
       <c r="L93" t="n">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="M93" t="n">
-        <v>276936</v>
+        <v>279055</v>
       </c>
     </row>
     <row r="94">
@@ -4396,40 +4396,40 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>765</v>
+        <v>5548</v>
       </c>
       <c r="C94" t="n">
-        <v>647</v>
+        <v>4805</v>
       </c>
       <c r="D94" t="n">
-        <v>118</v>
+        <v>743</v>
       </c>
       <c r="E94" t="n">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
         <v>420</v>
       </c>
       <c r="H94" t="n">
+        <v>15</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
         <v>14</v>
       </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>12</v>
-      </c>
       <c r="K94" t="n">
-        <v>35206</v>
+        <v>35157</v>
       </c>
       <c r="L94" t="n">
-        <v>2026</v>
+        <v>2033</v>
       </c>
       <c r="M94" t="n">
-        <v>277701</v>
+        <v>284603</v>
       </c>
     </row>
     <row r="95">
@@ -4439,40 +4439,83 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>114</v>
+        <v>506</v>
       </c>
       <c r="C95" t="n">
-        <v>114</v>
+        <v>395</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="E95" t="n">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="F95" t="n">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="H95" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I95" t="n">
         <v>6</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K95" t="n">
-        <v>35712</v>
+        <v>35647</v>
       </c>
       <c r="L95" t="n">
-        <v>2032</v>
+        <v>2045</v>
       </c>
       <c r="M95" t="n">
-        <v>277815</v>
+        <v>285109</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2020-06-03</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>125</v>
+      </c>
+      <c r="C96" t="n">
+        <v>125</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>449</v>
+      </c>
+      <c r="F96" t="n">
+        <v>449</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+      <c r="I96" t="n">
+        <v>7</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>36096</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2052</v>
+      </c>
+      <c r="M96" t="n">
+        <v>285234</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M96"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1085,10 +1085,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>642</v>
@@ -1118,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>1680</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="18">
@@ -1131,10 +1131,10 @@
         <v>742</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>2422</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="19">
@@ -1204,7 +1204,7 @@
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>3291</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="20">
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>1081</v>
@@ -1247,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>4372</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="21">
@@ -1290,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>6108</v>
+        <v>6113</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1333,7 @@
         <v>14</v>
       </c>
       <c r="M22" t="n">
-        <v>6805</v>
+        <v>6810</v>
       </c>
     </row>
     <row r="23">
@@ -1376,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="M23" t="n">
-        <v>7826</v>
+        <v>7831</v>
       </c>
     </row>
     <row r="24">
@@ -1419,7 +1419,7 @@
         <v>24</v>
       </c>
       <c r="M24" t="n">
-        <v>9278</v>
+        <v>9283</v>
       </c>
     </row>
     <row r="25">
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>1605</v>
@@ -1462,7 +1462,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="n">
-        <v>10883</v>
+        <v>10890</v>
       </c>
     </row>
     <row r="26">
@@ -1472,10 +1472,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2319</v>
+        <v>2323</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>2319</v>
@@ -1505,7 +1505,7 @@
         <v>35</v>
       </c>
       <c r="M26" t="n">
-        <v>13202</v>
+        <v>13213</v>
       </c>
     </row>
     <row r="27">
@@ -1548,7 +1548,7 @@
         <v>44</v>
       </c>
       <c r="M27" t="n">
-        <v>15809</v>
+        <v>15820</v>
       </c>
     </row>
     <row r="28">
@@ -1558,13 +1558,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="E28" t="n">
         <v>282</v>
@@ -1591,7 +1591,7 @@
         <v>47</v>
       </c>
       <c r="M28" t="n">
-        <v>17972</v>
+        <v>17982</v>
       </c>
     </row>
     <row r="29">
@@ -1634,7 +1634,7 @@
         <v>58</v>
       </c>
       <c r="M29" t="n">
-        <v>19242</v>
+        <v>19252</v>
       </c>
     </row>
     <row r="30">
@@ -1644,13 +1644,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="E30" t="n">
         <v>271</v>
@@ -1677,7 +1677,7 @@
         <v>76</v>
       </c>
       <c r="M30" t="n">
-        <v>20875</v>
+        <v>20884</v>
       </c>
     </row>
     <row r="31">
@@ -1720,7 +1720,7 @@
         <v>91</v>
       </c>
       <c r="M31" t="n">
-        <v>22835</v>
+        <v>22844</v>
       </c>
     </row>
     <row r="32">
@@ -1763,7 +1763,7 @@
         <v>113</v>
       </c>
       <c r="M32" t="n">
-        <v>25151</v>
+        <v>25160</v>
       </c>
     </row>
     <row r="33">
@@ -1806,7 +1806,7 @@
         <v>135</v>
       </c>
       <c r="M33" t="n">
-        <v>27691</v>
+        <v>27700</v>
       </c>
     </row>
     <row r="34">
@@ -1849,7 +1849,7 @@
         <v>157</v>
       </c>
       <c r="M34" t="n">
-        <v>30386</v>
+        <v>30395</v>
       </c>
     </row>
     <row r="35">
@@ -1892,7 +1892,7 @@
         <v>189</v>
       </c>
       <c r="M35" t="n">
-        <v>33186</v>
+        <v>33195</v>
       </c>
     </row>
     <row r="36">
@@ -1935,7 +1935,7 @@
         <v>214</v>
       </c>
       <c r="M36" t="n">
-        <v>34822</v>
+        <v>34831</v>
       </c>
     </row>
     <row r="37">
@@ -1978,7 +1978,7 @@
         <v>248</v>
       </c>
       <c r="M37" t="n">
-        <v>35917</v>
+        <v>35926</v>
       </c>
     </row>
     <row r="38">
@@ -1991,19 +1991,19 @@
         <v>2422</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="E38" t="n">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H38" t="n">
         <v>25</v>
@@ -2015,13 +2015,13 @@
         <v>25</v>
       </c>
       <c r="K38" t="n">
-        <v>5480</v>
+        <v>5479</v>
       </c>
       <c r="L38" t="n">
         <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>38339</v>
+        <v>38348</v>
       </c>
     </row>
     <row r="39">
@@ -2031,13 +2031,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>2784</v>
+        <v>2782</v>
       </c>
       <c r="E39" t="n">
         <v>422</v>
@@ -2058,13 +2058,13 @@
         <v>36</v>
       </c>
       <c r="K39" t="n">
-        <v>5902</v>
+        <v>5901</v>
       </c>
       <c r="L39" t="n">
         <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>41123</v>
+        <v>41131</v>
       </c>
     </row>
     <row r="40">
@@ -2101,13 +2101,13 @@
         <v>28</v>
       </c>
       <c r="K40" t="n">
-        <v>6324</v>
+        <v>6323</v>
       </c>
       <c r="L40" t="n">
         <v>337</v>
       </c>
       <c r="M40" t="n">
-        <v>44194</v>
+        <v>44202</v>
       </c>
     </row>
     <row r="41">
@@ -2129,10 +2129,10 @@
         <v>558</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H41" t="n">
         <v>36</v>
@@ -2144,13 +2144,13 @@
         <v>36</v>
       </c>
       <c r="K41" t="n">
-        <v>6882</v>
+        <v>6881</v>
       </c>
       <c r="L41" t="n">
         <v>373</v>
       </c>
       <c r="M41" t="n">
-        <v>46941</v>
+        <v>46949</v>
       </c>
     </row>
     <row r="42">
@@ -2163,10 +2163,10 @@
         <v>2728</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="E42" t="n">
         <v>515</v>
@@ -2187,13 +2187,13 @@
         <v>25</v>
       </c>
       <c r="K42" t="n">
-        <v>7397</v>
+        <v>7396</v>
       </c>
       <c r="L42" t="n">
         <v>398</v>
       </c>
       <c r="M42" t="n">
-        <v>49669</v>
+        <v>49677</v>
       </c>
     </row>
     <row r="43">
@@ -2230,13 +2230,13 @@
         <v>20</v>
       </c>
       <c r="K43" t="n">
-        <v>7883</v>
+        <v>7882</v>
       </c>
       <c r="L43" t="n">
         <v>418</v>
       </c>
       <c r="M43" t="n">
-        <v>51212</v>
+        <v>51220</v>
       </c>
     </row>
     <row r="44">
@@ -2273,13 +2273,13 @@
         <v>29</v>
       </c>
       <c r="K44" t="n">
-        <v>8202</v>
+        <v>8201</v>
       </c>
       <c r="L44" t="n">
         <v>447</v>
       </c>
       <c r="M44" t="n">
-        <v>51911</v>
+        <v>51919</v>
       </c>
     </row>
     <row r="45">
@@ -2292,10 +2292,10 @@
         <v>3464</v>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>3461</v>
+        <v>3464</v>
       </c>
       <c r="E45" t="n">
         <v>292</v>
@@ -2316,13 +2316,13 @@
         <v>35</v>
       </c>
       <c r="K45" t="n">
-        <v>8494</v>
+        <v>8493</v>
       </c>
       <c r="L45" t="n">
         <v>482</v>
       </c>
       <c r="M45" t="n">
-        <v>55375</v>
+        <v>55383</v>
       </c>
     </row>
     <row r="46">
@@ -2359,13 +2359,13 @@
         <v>46</v>
       </c>
       <c r="K46" t="n">
-        <v>8911</v>
+        <v>8910</v>
       </c>
       <c r="L46" t="n">
         <v>528</v>
       </c>
       <c r="M46" t="n">
-        <v>58982</v>
+        <v>58990</v>
       </c>
     </row>
     <row r="47">
@@ -2378,10 +2378,10 @@
         <v>3301</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="E47" t="n">
         <v>580</v>
@@ -2402,13 +2402,13 @@
         <v>37</v>
       </c>
       <c r="K47" t="n">
-        <v>9491</v>
+        <v>9490</v>
       </c>
       <c r="L47" t="n">
         <v>565</v>
       </c>
       <c r="M47" t="n">
-        <v>62283</v>
+        <v>62291</v>
       </c>
     </row>
     <row r="48">
@@ -2421,10 +2421,10 @@
         <v>3999</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="E48" t="n">
         <v>600</v>
@@ -2445,13 +2445,13 @@
         <v>34</v>
       </c>
       <c r="K48" t="n">
-        <v>10091</v>
+        <v>10090</v>
       </c>
       <c r="L48" t="n">
         <v>599</v>
       </c>
       <c r="M48" t="n">
-        <v>66282</v>
+        <v>66290</v>
       </c>
     </row>
     <row r="49">
@@ -2464,10 +2464,10 @@
         <v>4163</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>4162</v>
+        <v>4163</v>
       </c>
       <c r="E49" t="n">
         <v>505</v>
@@ -2488,13 +2488,13 @@
         <v>36</v>
       </c>
       <c r="K49" t="n">
-        <v>10596</v>
+        <v>10595</v>
       </c>
       <c r="L49" t="n">
         <v>635</v>
       </c>
       <c r="M49" t="n">
-        <v>70445</v>
+        <v>70453</v>
       </c>
     </row>
     <row r="50">
@@ -2507,10 +2507,10 @@
         <v>1757</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="E50" t="n">
         <v>557</v>
@@ -2531,13 +2531,13 @@
         <v>28</v>
       </c>
       <c r="K50" t="n">
-        <v>11153</v>
+        <v>11152</v>
       </c>
       <c r="L50" t="n">
         <v>663</v>
       </c>
       <c r="M50" t="n">
-        <v>72202</v>
+        <v>72210</v>
       </c>
     </row>
     <row r="51">
@@ -2574,13 +2574,13 @@
         <v>36</v>
       </c>
       <c r="K51" t="n">
-        <v>11632</v>
+        <v>11631</v>
       </c>
       <c r="L51" t="n">
         <v>699</v>
       </c>
       <c r="M51" t="n">
-        <v>73304</v>
+        <v>73312</v>
       </c>
     </row>
     <row r="52">
@@ -2617,13 +2617,13 @@
         <v>38</v>
       </c>
       <c r="K52" t="n">
-        <v>12017</v>
+        <v>12016</v>
       </c>
       <c r="L52" t="n">
         <v>737</v>
       </c>
       <c r="M52" t="n">
-        <v>77652</v>
+        <v>77660</v>
       </c>
     </row>
     <row r="53">
@@ -2636,10 +2636,10 @@
         <v>3852</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>3851</v>
+        <v>3852</v>
       </c>
       <c r="E53" t="n">
         <v>379</v>
@@ -2660,13 +2660,13 @@
         <v>49</v>
       </c>
       <c r="K53" t="n">
-        <v>12396</v>
+        <v>12395</v>
       </c>
       <c r="L53" t="n">
         <v>786</v>
       </c>
       <c r="M53" t="n">
-        <v>81504</v>
+        <v>81512</v>
       </c>
     </row>
     <row r="54">
@@ -2676,13 +2676,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="E54" t="n">
         <v>605</v>
@@ -2703,13 +2703,13 @@
         <v>50</v>
       </c>
       <c r="K54" t="n">
-        <v>13001</v>
+        <v>13000</v>
       </c>
       <c r="L54" t="n">
         <v>836</v>
       </c>
       <c r="M54" t="n">
-        <v>85368</v>
+        <v>85375</v>
       </c>
     </row>
     <row r="55">
@@ -2746,13 +2746,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="n">
-        <v>13645</v>
+        <v>13644</v>
       </c>
       <c r="L55" t="n">
         <v>874</v>
       </c>
       <c r="M55" t="n">
-        <v>89740</v>
+        <v>89747</v>
       </c>
     </row>
     <row r="56">
@@ -2765,10 +2765,10 @@
         <v>3552</v>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>3549</v>
+        <v>3552</v>
       </c>
       <c r="E56" t="n">
         <v>699</v>
@@ -2789,13 +2789,13 @@
         <v>37</v>
       </c>
       <c r="K56" t="n">
-        <v>14344</v>
+        <v>14343</v>
       </c>
       <c r="L56" t="n">
         <v>911</v>
       </c>
       <c r="M56" t="n">
-        <v>93292</v>
+        <v>93299</v>
       </c>
     </row>
     <row r="57">
@@ -2832,13 +2832,13 @@
         <v>41</v>
       </c>
       <c r="K57" t="n">
-        <v>14968</v>
+        <v>14967</v>
       </c>
       <c r="L57" t="n">
         <v>952</v>
       </c>
       <c r="M57" t="n">
-        <v>95572</v>
+        <v>95579</v>
       </c>
     </row>
     <row r="58">
@@ -2875,13 +2875,13 @@
         <v>34</v>
       </c>
       <c r="K58" t="n">
-        <v>15918</v>
+        <v>15917</v>
       </c>
       <c r="L58" t="n">
         <v>986</v>
       </c>
       <c r="M58" t="n">
-        <v>97376</v>
+        <v>97383</v>
       </c>
     </row>
     <row r="59">
@@ -2891,10 +2891,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4734</v>
+        <v>4733</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
         <v>4733</v>
@@ -2918,13 +2918,13 @@
         <v>42</v>
       </c>
       <c r="K59" t="n">
-        <v>16538</v>
+        <v>16537</v>
       </c>
       <c r="L59" t="n">
         <v>1028</v>
       </c>
       <c r="M59" t="n">
-        <v>102110</v>
+        <v>102116</v>
       </c>
     </row>
     <row r="60">
@@ -2934,13 +2934,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4996</v>
+        <v>4995</v>
       </c>
       <c r="C60" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>4988</v>
+        <v>4993</v>
       </c>
       <c r="E60" t="n">
         <v>595</v>
@@ -2961,13 +2961,13 @@
         <v>34</v>
       </c>
       <c r="K60" t="n">
-        <v>17133</v>
+        <v>17132</v>
       </c>
       <c r="L60" t="n">
         <v>1062</v>
       </c>
       <c r="M60" t="n">
-        <v>107106</v>
+        <v>107111</v>
       </c>
     </row>
     <row r="61">
@@ -2977,22 +2977,22 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>5306</v>
+        <v>5307</v>
       </c>
       <c r="C61" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>5298</v>
+        <v>5307</v>
       </c>
       <c r="E61" t="n">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H61" t="n">
         <v>41</v>
@@ -3004,13 +3004,13 @@
         <v>41</v>
       </c>
       <c r="K61" t="n">
-        <v>17786</v>
+        <v>17784</v>
       </c>
       <c r="L61" t="n">
         <v>1103</v>
       </c>
       <c r="M61" t="n">
-        <v>112412</v>
+        <v>112418</v>
       </c>
     </row>
     <row r="62">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5444</v>
+        <v>5457</v>
       </c>
       <c r="C62" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D62" t="n">
-        <v>5428</v>
+        <v>5440</v>
       </c>
       <c r="E62" t="n">
         <v>794</v>
@@ -3038,22 +3038,22 @@
         <v>794</v>
       </c>
       <c r="H62" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K62" t="n">
-        <v>18580</v>
+        <v>18578</v>
       </c>
       <c r="L62" t="n">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="M62" t="n">
-        <v>117856</v>
+        <v>117875</v>
       </c>
     </row>
     <row r="63">
@@ -3066,10 +3066,10 @@
         <v>6422</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>6422</v>
+        <v>6421</v>
       </c>
       <c r="E63" t="n">
         <v>652</v>
@@ -3090,13 +3090,13 @@
         <v>35</v>
       </c>
       <c r="K63" t="n">
-        <v>19232</v>
+        <v>19230</v>
       </c>
       <c r="L63" t="n">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="M63" t="n">
-        <v>124278</v>
+        <v>124297</v>
       </c>
     </row>
     <row r="64">
@@ -3106,13 +3106,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3279</v>
+        <v>3298</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D64" t="n">
-        <v>3279</v>
+        <v>3277</v>
       </c>
       <c r="E64" t="n">
         <v>635</v>
@@ -3127,19 +3127,19 @@
         <v>44</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K64" t="n">
-        <v>19867</v>
+        <v>19865</v>
       </c>
       <c r="L64" t="n">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="M64" t="n">
-        <v>127557</v>
+        <v>127595</v>
       </c>
     </row>
     <row r="65">
@@ -3176,13 +3176,13 @@
         <v>32</v>
       </c>
       <c r="K65" t="n">
-        <v>20436</v>
+        <v>20434</v>
       </c>
       <c r="L65" t="n">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="M65" t="n">
-        <v>129374</v>
+        <v>129412</v>
       </c>
     </row>
     <row r="66">
@@ -3192,13 +3192,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5586</v>
+        <v>5587</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>5586</v>
+        <v>5587</v>
       </c>
       <c r="E66" t="n">
         <v>525</v>
@@ -3219,13 +3219,13 @@
         <v>38</v>
       </c>
       <c r="K66" t="n">
-        <v>20961</v>
+        <v>20959</v>
       </c>
       <c r="L66" t="n">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="M66" t="n">
-        <v>134960</v>
+        <v>134999</v>
       </c>
     </row>
     <row r="67">
@@ -3235,10 +3235,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6149</v>
+        <v>6159</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D67" t="n">
         <v>6149</v>
@@ -3262,13 +3262,13 @@
         <v>37</v>
       </c>
       <c r="K67" t="n">
-        <v>21798</v>
+        <v>21796</v>
       </c>
       <c r="L67" t="n">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="M67" t="n">
-        <v>141109</v>
+        <v>141158</v>
       </c>
     </row>
     <row r="68">
@@ -3278,13 +3278,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5630</v>
+        <v>5629</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>5630</v>
+        <v>5629</v>
       </c>
       <c r="E68" t="n">
         <v>623</v>
@@ -3305,13 +3305,13 @@
         <v>43</v>
       </c>
       <c r="K68" t="n">
-        <v>22421</v>
+        <v>22419</v>
       </c>
       <c r="L68" t="n">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="M68" t="n">
-        <v>146739</v>
+        <v>146787</v>
       </c>
     </row>
     <row r="69">
@@ -3324,10 +3324,10 @@
         <v>5995</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>5994</v>
+        <v>5995</v>
       </c>
       <c r="E69" t="n">
         <v>639</v>
@@ -3348,13 +3348,13 @@
         <v>34</v>
       </c>
       <c r="K69" t="n">
-        <v>23060</v>
+        <v>23058</v>
       </c>
       <c r="L69" t="n">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="M69" t="n">
-        <v>152734</v>
+        <v>152782</v>
       </c>
     </row>
     <row r="70">
@@ -3364,13 +3364,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6228</v>
+        <v>6247</v>
       </c>
       <c r="C70" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D70" t="n">
-        <v>6211</v>
+        <v>6227</v>
       </c>
       <c r="E70" t="n">
         <v>591</v>
@@ -3391,13 +3391,13 @@
         <v>25</v>
       </c>
       <c r="K70" t="n">
-        <v>23651</v>
+        <v>23649</v>
       </c>
       <c r="L70" t="n">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="M70" t="n">
-        <v>158962</v>
+        <v>159029</v>
       </c>
     </row>
     <row r="71">
@@ -3410,10 +3410,10 @@
         <v>3235</v>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>3233</v>
+        <v>3235</v>
       </c>
       <c r="E71" t="n">
         <v>388</v>
@@ -3434,13 +3434,13 @@
         <v>31</v>
       </c>
       <c r="K71" t="n">
-        <v>24039</v>
+        <v>24037</v>
       </c>
       <c r="L71" t="n">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="M71" t="n">
-        <v>162197</v>
+        <v>162264</v>
       </c>
     </row>
     <row r="72">
@@ -3450,13 +3450,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E72" t="n">
         <v>464</v>
@@ -3477,13 +3477,13 @@
         <v>34</v>
       </c>
       <c r="K72" t="n">
-        <v>24503</v>
+        <v>24501</v>
       </c>
       <c r="L72" t="n">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="M72" t="n">
-        <v>163469</v>
+        <v>163535</v>
       </c>
     </row>
     <row r="73">
@@ -3493,13 +3493,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6926</v>
+        <v>6927</v>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>6923</v>
+        <v>6925</v>
       </c>
       <c r="E73" t="n">
         <v>518</v>
@@ -3511,22 +3511,22 @@
         <v>518</v>
       </c>
       <c r="H73" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
         <v>40</v>
       </c>
       <c r="K73" t="n">
-        <v>25021</v>
+        <v>25019</v>
       </c>
       <c r="L73" t="n">
         <v>1542</v>
       </c>
       <c r="M73" t="n">
-        <v>170395</v>
+        <v>170462</v>
       </c>
     </row>
     <row r="74">
@@ -3536,13 +3536,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6492</v>
+        <v>6554</v>
       </c>
       <c r="C74" t="n">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D74" t="n">
-        <v>6449</v>
+        <v>6496</v>
       </c>
       <c r="E74" t="n">
         <v>376</v>
@@ -3557,19 +3557,19 @@
         <v>38</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K74" t="n">
-        <v>25397</v>
+        <v>25395</v>
       </c>
       <c r="L74" t="n">
         <v>1580</v>
       </c>
       <c r="M74" t="n">
-        <v>176887</v>
+        <v>177016</v>
       </c>
     </row>
     <row r="75">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>7018</v>
+        <v>7039</v>
       </c>
       <c r="C75" t="n">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="D75" t="n">
-        <v>6901</v>
+        <v>7010</v>
       </c>
       <c r="E75" t="n">
         <v>604</v>
@@ -3606,13 +3606,13 @@
         <v>26</v>
       </c>
       <c r="K75" t="n">
-        <v>26001</v>
+        <v>25999</v>
       </c>
       <c r="L75" t="n">
         <v>1606</v>
       </c>
       <c r="M75" t="n">
-        <v>183905</v>
+        <v>184055</v>
       </c>
     </row>
     <row r="76">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="B76" t="n">
+        <v>7747</v>
+      </c>
+      <c r="C76" t="n">
+        <v>22</v>
+      </c>
+      <c r="D76" t="n">
         <v>7725</v>
-      </c>
-      <c r="C76" t="n">
-        <v>12</v>
-      </c>
-      <c r="D76" t="n">
-        <v>7713</v>
       </c>
       <c r="E76" t="n">
         <v>588</v>
@@ -3649,13 +3649,13 @@
         <v>41</v>
       </c>
       <c r="K76" t="n">
-        <v>26589</v>
+        <v>26587</v>
       </c>
       <c r="L76" t="n">
         <v>1647</v>
       </c>
       <c r="M76" t="n">
-        <v>191630</v>
+        <v>191802</v>
       </c>
     </row>
     <row r="77">
@@ -3665,22 +3665,22 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9178</v>
+        <v>9200</v>
       </c>
       <c r="C77" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D77" t="n">
-        <v>9147</v>
+        <v>9187</v>
       </c>
       <c r="E77" t="n">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H77" t="n">
         <v>32</v>
@@ -3692,13 +3692,13 @@
         <v>32</v>
       </c>
       <c r="K77" t="n">
-        <v>27228</v>
+        <v>27225</v>
       </c>
       <c r="L77" t="n">
         <v>1679</v>
       </c>
       <c r="M77" t="n">
-        <v>200808</v>
+        <v>201002</v>
       </c>
     </row>
     <row r="78">
@@ -3708,22 +3708,22 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3078</v>
+        <v>3088</v>
       </c>
       <c r="C78" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D78" t="n">
-        <v>3039</v>
+        <v>3079</v>
       </c>
       <c r="E78" t="n">
         <v>496</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H78" t="n">
         <v>29</v>
@@ -3735,13 +3735,13 @@
         <v>29</v>
       </c>
       <c r="K78" t="n">
-        <v>27724</v>
+        <v>27721</v>
       </c>
       <c r="L78" t="n">
         <v>1708</v>
       </c>
       <c r="M78" t="n">
-        <v>203886</v>
+        <v>204090</v>
       </c>
     </row>
     <row r="79">
@@ -3751,13 +3751,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1859</v>
+        <v>1871</v>
       </c>
       <c r="C79" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D79" t="n">
-        <v>1836</v>
+        <v>1857</v>
       </c>
       <c r="E79" t="n">
         <v>485</v>
@@ -3769,22 +3769,22 @@
         <v>485</v>
       </c>
       <c r="H79" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
         <v>28</v>
       </c>
       <c r="K79" t="n">
-        <v>28209</v>
+        <v>28206</v>
       </c>
       <c r="L79" t="n">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="M79" t="n">
-        <v>205745</v>
+        <v>205961</v>
       </c>
     </row>
     <row r="80">
@@ -3794,13 +3794,13 @@
         </is>
       </c>
       <c r="B80" t="n">
+        <v>7961</v>
+      </c>
+      <c r="C80" t="n">
+        <v>8</v>
+      </c>
+      <c r="D80" t="n">
         <v>7953</v>
-      </c>
-      <c r="C80" t="n">
-        <v>63</v>
-      </c>
-      <c r="D80" t="n">
-        <v>7890</v>
       </c>
       <c r="E80" t="n">
         <v>456</v>
@@ -3821,13 +3821,13 @@
         <v>37</v>
       </c>
       <c r="K80" t="n">
-        <v>28665</v>
+        <v>28662</v>
       </c>
       <c r="L80" t="n">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="M80" t="n">
-        <v>213698</v>
+        <v>213922</v>
       </c>
     </row>
     <row r="81">
@@ -3837,22 +3837,22 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6747</v>
+        <v>6759</v>
       </c>
       <c r="C81" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D81" t="n">
-        <v>6677</v>
+        <v>6744</v>
       </c>
       <c r="E81" t="n">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H81" t="n">
         <v>29</v>
@@ -3864,13 +3864,13 @@
         <v>29</v>
       </c>
       <c r="K81" t="n">
-        <v>29223</v>
+        <v>29219</v>
       </c>
       <c r="L81" t="n">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="M81" t="n">
-        <v>220445</v>
+        <v>220681</v>
       </c>
     </row>
     <row r="82">
@@ -3880,19 +3880,19 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6175</v>
+        <v>6173</v>
       </c>
       <c r="C82" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D82" t="n">
-        <v>6126</v>
+        <v>6152</v>
       </c>
       <c r="E82" t="n">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
         <v>652</v>
@@ -3901,19 +3901,19 @@
         <v>26</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K82" t="n">
-        <v>29876</v>
+        <v>29871</v>
       </c>
       <c r="L82" t="n">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="M82" t="n">
-        <v>226620</v>
+        <v>226854</v>
       </c>
     </row>
     <row r="83">
@@ -3923,13 +3923,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7078</v>
+        <v>7088</v>
       </c>
       <c r="C83" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D83" t="n">
-        <v>7068</v>
+        <v>7067</v>
       </c>
       <c r="E83" t="n">
         <v>468</v>
@@ -3950,13 +3950,13 @@
         <v>36</v>
       </c>
       <c r="K83" t="n">
-        <v>30344</v>
+        <v>30339</v>
       </c>
       <c r="L83" t="n">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="M83" t="n">
-        <v>233698</v>
+        <v>233942</v>
       </c>
     </row>
     <row r="84">
@@ -3966,13 +3966,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>7741</v>
+        <v>7752</v>
       </c>
       <c r="C84" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D84" t="n">
-        <v>7728</v>
+        <v>7732</v>
       </c>
       <c r="E84" t="n">
         <v>495</v>
@@ -3993,13 +3993,13 @@
         <v>16</v>
       </c>
       <c r="K84" t="n">
-        <v>30839</v>
+        <v>30834</v>
       </c>
       <c r="L84" t="n">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="M84" t="n">
-        <v>241439</v>
+        <v>241694</v>
       </c>
     </row>
     <row r="85">
@@ -4009,13 +4009,13 @@
         </is>
       </c>
       <c r="B85" t="n">
+        <v>2750</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2</v>
+      </c>
+      <c r="D85" t="n">
         <v>2748</v>
-      </c>
-      <c r="C85" t="n">
-        <v>63</v>
-      </c>
-      <c r="D85" t="n">
-        <v>2685</v>
       </c>
       <c r="E85" t="n">
         <v>474</v>
@@ -4027,22 +4027,22 @@
         <v>474</v>
       </c>
       <c r="H85" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
         <v>21</v>
       </c>
       <c r="K85" t="n">
-        <v>31313</v>
+        <v>31308</v>
       </c>
       <c r="L85" t="n">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="M85" t="n">
-        <v>244187</v>
+        <v>244444</v>
       </c>
     </row>
     <row r="86">
@@ -4055,10 +4055,10 @@
         <v>1765</v>
       </c>
       <c r="C86" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1745</v>
+        <v>1765</v>
       </c>
       <c r="E86" t="n">
         <v>344</v>
@@ -4070,22 +4070,22 @@
         <v>344</v>
       </c>
       <c r="H86" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
         <v>10</v>
       </c>
       <c r="K86" t="n">
-        <v>31657</v>
+        <v>31652</v>
       </c>
       <c r="L86" t="n">
-        <v>1911</v>
+        <v>1914</v>
       </c>
       <c r="M86" t="n">
-        <v>245952</v>
+        <v>246209</v>
       </c>
     </row>
     <row r="87">
@@ -4095,22 +4095,22 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="C87" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>1633</v>
+        <v>1677</v>
       </c>
       <c r="E87" t="n">
         <v>359</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H87" t="n">
         <v>20</v>
@@ -4122,13 +4122,13 @@
         <v>20</v>
       </c>
       <c r="K87" t="n">
-        <v>32016</v>
+        <v>32011</v>
       </c>
       <c r="L87" t="n">
-        <v>1931</v>
+        <v>1934</v>
       </c>
       <c r="M87" t="n">
-        <v>247632</v>
+        <v>247891</v>
       </c>
     </row>
     <row r="88">
@@ -4141,10 +4141,10 @@
         <v>7285</v>
       </c>
       <c r="C88" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>7241</v>
+        <v>7282</v>
       </c>
       <c r="E88" t="n">
         <v>351</v>
@@ -4159,19 +4159,19 @@
         <v>18</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K88" t="n">
-        <v>32367</v>
+        <v>32362</v>
       </c>
       <c r="L88" t="n">
-        <v>1949</v>
+        <v>1952</v>
       </c>
       <c r="M88" t="n">
-        <v>254917</v>
+        <v>255176</v>
       </c>
     </row>
     <row r="89">
@@ -4181,22 +4181,22 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>5893</v>
+        <v>5906</v>
       </c>
       <c r="C89" t="n">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="D89" t="n">
-        <v>5786</v>
+        <v>5892</v>
       </c>
       <c r="E89" t="n">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H89" t="n">
         <v>13</v>
@@ -4208,13 +4208,13 @@
         <v>13</v>
       </c>
       <c r="K89" t="n">
-        <v>32977</v>
+        <v>32971</v>
       </c>
       <c r="L89" t="n">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="M89" t="n">
-        <v>260810</v>
+        <v>261082</v>
       </c>
     </row>
     <row r="90">
@@ -4224,13 +4224,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>6669</v>
+        <v>6770</v>
       </c>
       <c r="C90" t="n">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="D90" t="n">
-        <v>6583</v>
+        <v>6665</v>
       </c>
       <c r="E90" t="n">
         <v>482</v>
@@ -4251,13 +4251,13 @@
         <v>14</v>
       </c>
       <c r="K90" t="n">
-        <v>33459</v>
+        <v>33453</v>
       </c>
       <c r="L90" t="n">
-        <v>1976</v>
+        <v>1979</v>
       </c>
       <c r="M90" t="n">
-        <v>267479</v>
+        <v>267852</v>
       </c>
     </row>
     <row r="91">
@@ -4267,40 +4267,40 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>7301</v>
+        <v>7346</v>
       </c>
       <c r="C91" t="n">
-        <v>347</v>
+        <v>50</v>
       </c>
       <c r="D91" t="n">
-        <v>6954</v>
+        <v>7296</v>
       </c>
       <c r="E91" t="n">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="H91" t="n">
         <v>16</v>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K91" t="n">
-        <v>34072</v>
+        <v>34054</v>
       </c>
       <c r="L91" t="n">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="M91" t="n">
-        <v>274780</v>
+        <v>275198</v>
       </c>
     </row>
     <row r="92">
@@ -4310,22 +4310,22 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2698</v>
+        <v>2738</v>
       </c>
       <c r="C92" t="n">
-        <v>327</v>
+        <v>34</v>
       </c>
       <c r="D92" t="n">
-        <v>2371</v>
+        <v>2704</v>
       </c>
       <c r="E92" t="n">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="H92" t="n">
         <v>14</v>
@@ -4337,13 +4337,13 @@
         <v>14</v>
       </c>
       <c r="K92" t="n">
-        <v>34449</v>
+        <v>34422</v>
       </c>
       <c r="L92" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="M92" t="n">
-        <v>277478</v>
+        <v>277936</v>
       </c>
     </row>
     <row r="93">
@@ -4353,13 +4353,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1577</v>
+        <v>1663</v>
       </c>
       <c r="C93" t="n">
-        <v>606</v>
+        <v>87</v>
       </c>
       <c r="D93" t="n">
-        <v>971</v>
+        <v>1576</v>
       </c>
       <c r="E93" t="n">
         <v>288</v>
@@ -4380,13 +4380,13 @@
         <v>12</v>
       </c>
       <c r="K93" t="n">
-        <v>34737</v>
+        <v>34710</v>
       </c>
       <c r="L93" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="M93" t="n">
-        <v>279055</v>
+        <v>279599</v>
       </c>
     </row>
     <row r="94">
@@ -4396,40 +4396,40 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>5548</v>
+        <v>7339</v>
       </c>
       <c r="C94" t="n">
-        <v>4805</v>
+        <v>1832</v>
       </c>
       <c r="D94" t="n">
-        <v>743</v>
+        <v>5507</v>
       </c>
       <c r="E94" t="n">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H94" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K94" t="n">
-        <v>35157</v>
+        <v>35128</v>
       </c>
       <c r="L94" t="n">
-        <v>2033</v>
+        <v>2037</v>
       </c>
       <c r="M94" t="n">
-        <v>284603</v>
+        <v>286938</v>
       </c>
     </row>
     <row r="95">
@@ -4439,40 +4439,40 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>506</v>
+        <v>3868</v>
       </c>
       <c r="C95" t="n">
-        <v>395</v>
+        <v>3377</v>
       </c>
       <c r="D95" t="n">
-        <v>111</v>
+        <v>491</v>
       </c>
       <c r="E95" t="n">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>489</v>
+      </c>
+      <c r="H95" t="n">
+        <v>14</v>
+      </c>
+      <c r="I95" t="n">
         <v>2</v>
       </c>
-      <c r="G95" t="n">
-        <v>488</v>
-      </c>
-      <c r="H95" t="n">
+      <c r="J95" t="n">
         <v>12</v>
       </c>
-      <c r="I95" t="n">
-        <v>6</v>
-      </c>
-      <c r="J95" t="n">
-        <v>6</v>
-      </c>
       <c r="K95" t="n">
-        <v>35647</v>
+        <v>35617</v>
       </c>
       <c r="L95" t="n">
-        <v>2045</v>
+        <v>2051</v>
       </c>
       <c r="M95" t="n">
-        <v>285109</v>
+        <v>290806</v>
       </c>
     </row>
     <row r="96">
@@ -4482,40 +4482,83 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>125</v>
+        <v>756</v>
       </c>
       <c r="C96" t="n">
-        <v>125</v>
+        <v>636</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E96" t="n">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="F96" t="n">
-        <v>449</v>
+        <v>3</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="H96" t="n">
+        <v>19</v>
+      </c>
+      <c r="I96" t="n">
+        <v>12</v>
+      </c>
+      <c r="J96" t="n">
         <v>7</v>
       </c>
-      <c r="I96" t="n">
-        <v>7</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
       <c r="K96" t="n">
-        <v>36096</v>
+        <v>36051</v>
       </c>
       <c r="L96" t="n">
-        <v>2052</v>
+        <v>2070</v>
       </c>
       <c r="M96" t="n">
-        <v>285234</v>
+        <v>291562</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2020-06-04</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>76</v>
+      </c>
+      <c r="C97" t="n">
+        <v>76</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>527</v>
+      </c>
+      <c r="F97" t="n">
+        <v>527</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+      <c r="I97" t="n">
+        <v>8</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>36578</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2078</v>
+      </c>
+      <c r="M97" t="n">
+        <v>291638</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:M98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1085,13 +1085,13 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>652</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6</v>
+      </c>
+      <c r="D17" t="n">
         <v>646</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4</v>
-      </c>
-      <c r="D17" t="n">
-        <v>642</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1118,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>1684</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="18">
@@ -1131,10 +1131,10 @@
         <v>742</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>2426</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="19">
@@ -1204,7 +1204,7 @@
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>3295</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="20">
@@ -1217,10 +1217,10 @@
         <v>1082</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="E20" t="n">
         <v>23</v>
@@ -1247,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>4377</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="21">
@@ -1290,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>6113</v>
+        <v>6119</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1333,7 @@
         <v>14</v>
       </c>
       <c r="M22" t="n">
-        <v>6810</v>
+        <v>6816</v>
       </c>
     </row>
     <row r="23">
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>1021</v>
@@ -1376,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="M23" t="n">
-        <v>7831</v>
+        <v>7838</v>
       </c>
     </row>
     <row r="24">
@@ -1419,7 +1419,7 @@
         <v>24</v>
       </c>
       <c r="M24" t="n">
-        <v>9283</v>
+        <v>9290</v>
       </c>
     </row>
     <row r="25">
@@ -1432,10 +1432,10 @@
         <v>1607</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="E25" t="n">
         <v>113</v>
@@ -1462,7 +1462,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="n">
-        <v>10890</v>
+        <v>10897</v>
       </c>
     </row>
     <row r="26">
@@ -1475,10 +1475,10 @@
         <v>2323</v>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2319</v>
+        <v>2323</v>
       </c>
       <c r="E26" t="n">
         <v>162</v>
@@ -1505,7 +1505,7 @@
         <v>35</v>
       </c>
       <c r="M26" t="n">
-        <v>13213</v>
+        <v>13220</v>
       </c>
     </row>
     <row r="27">
@@ -1548,7 +1548,7 @@
         <v>44</v>
       </c>
       <c r="M27" t="n">
-        <v>15820</v>
+        <v>15827</v>
       </c>
     </row>
     <row r="28">
@@ -1591,7 +1591,7 @@
         <v>47</v>
       </c>
       <c r="M28" t="n">
-        <v>17982</v>
+        <v>17989</v>
       </c>
     </row>
     <row r="29">
@@ -1601,13 +1601,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1270</v>
+        <v>1280</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D29" t="n">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="E29" t="n">
         <v>288</v>
@@ -1634,7 +1634,7 @@
         <v>58</v>
       </c>
       <c r="M29" t="n">
-        <v>19252</v>
+        <v>19269</v>
       </c>
     </row>
     <row r="30">
@@ -1677,7 +1677,7 @@
         <v>76</v>
       </c>
       <c r="M30" t="n">
-        <v>20884</v>
+        <v>20901</v>
       </c>
     </row>
     <row r="31">
@@ -1720,7 +1720,7 @@
         <v>91</v>
       </c>
       <c r="M31" t="n">
-        <v>22844</v>
+        <v>22861</v>
       </c>
     </row>
     <row r="32">
@@ -1763,7 +1763,7 @@
         <v>113</v>
       </c>
       <c r="M32" t="n">
-        <v>25160</v>
+        <v>25177</v>
       </c>
     </row>
     <row r="33">
@@ -1806,7 +1806,7 @@
         <v>135</v>
       </c>
       <c r="M33" t="n">
-        <v>27700</v>
+        <v>27717</v>
       </c>
     </row>
     <row r="34">
@@ -1819,10 +1819,10 @@
         <v>2695</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="E34" t="n">
         <v>396</v>
@@ -1849,7 +1849,7 @@
         <v>157</v>
       </c>
       <c r="M34" t="n">
-        <v>30395</v>
+        <v>30412</v>
       </c>
     </row>
     <row r="35">
@@ -1859,10 +1859,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2800</v>
+        <v>2801</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
         <v>2800</v>
@@ -1892,7 +1892,7 @@
         <v>189</v>
       </c>
       <c r="M35" t="n">
-        <v>33195</v>
+        <v>33213</v>
       </c>
     </row>
     <row r="36">
@@ -1935,7 +1935,7 @@
         <v>214</v>
       </c>
       <c r="M36" t="n">
-        <v>34831</v>
+        <v>34849</v>
       </c>
     </row>
     <row r="37">
@@ -1978,7 +1978,7 @@
         <v>248</v>
       </c>
       <c r="M37" t="n">
-        <v>35926</v>
+        <v>35944</v>
       </c>
     </row>
     <row r="38">
@@ -2021,7 +2021,7 @@
         <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>38348</v>
+        <v>38366</v>
       </c>
     </row>
     <row r="39">
@@ -2034,10 +2034,10 @@
         <v>2783</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>2782</v>
+        <v>2783</v>
       </c>
       <c r="E39" t="n">
         <v>422</v>
@@ -2064,7 +2064,7 @@
         <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>41131</v>
+        <v>41149</v>
       </c>
     </row>
     <row r="40">
@@ -2107,7 +2107,7 @@
         <v>337</v>
       </c>
       <c r="M40" t="n">
-        <v>44202</v>
+        <v>44220</v>
       </c>
     </row>
     <row r="41">
@@ -2129,16 +2129,16 @@
         <v>558</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>558</v>
+      </c>
+      <c r="H41" t="n">
+        <v>37</v>
+      </c>
+      <c r="I41" t="n">
         <v>1</v>
-      </c>
-      <c r="G41" t="n">
-        <v>557</v>
-      </c>
-      <c r="H41" t="n">
-        <v>36</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>36</v>
@@ -2147,10 +2147,10 @@
         <v>6881</v>
       </c>
       <c r="L41" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M41" t="n">
-        <v>46949</v>
+        <v>46967</v>
       </c>
     </row>
     <row r="42">
@@ -2190,10 +2190,10 @@
         <v>7396</v>
       </c>
       <c r="L42" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M42" t="n">
-        <v>49677</v>
+        <v>49695</v>
       </c>
     </row>
     <row r="43">
@@ -2233,10 +2233,10 @@
         <v>7882</v>
       </c>
       <c r="L43" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M43" t="n">
-        <v>51220</v>
+        <v>51238</v>
       </c>
     </row>
     <row r="44">
@@ -2276,10 +2276,10 @@
         <v>8201</v>
       </c>
       <c r="L44" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M44" t="n">
-        <v>51919</v>
+        <v>51937</v>
       </c>
     </row>
     <row r="45">
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3464</v>
+        <v>3463</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>3464</v>
+        <v>3463</v>
       </c>
       <c r="E45" t="n">
         <v>292</v>
@@ -2319,10 +2319,10 @@
         <v>8493</v>
       </c>
       <c r="L45" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M45" t="n">
-        <v>55383</v>
+        <v>55400</v>
       </c>
     </row>
     <row r="46">
@@ -2362,10 +2362,10 @@
         <v>8910</v>
       </c>
       <c r="L46" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M46" t="n">
-        <v>58990</v>
+        <v>59007</v>
       </c>
     </row>
     <row r="47">
@@ -2378,10 +2378,10 @@
         <v>3301</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>3300</v>
+        <v>3301</v>
       </c>
       <c r="E47" t="n">
         <v>580</v>
@@ -2405,10 +2405,10 @@
         <v>9490</v>
       </c>
       <c r="L47" t="n">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M47" t="n">
-        <v>62291</v>
+        <v>62308</v>
       </c>
     </row>
     <row r="48">
@@ -2421,10 +2421,10 @@
         <v>3999</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>3998</v>
+        <v>3999</v>
       </c>
       <c r="E48" t="n">
         <v>600</v>
@@ -2448,10 +2448,10 @@
         <v>10090</v>
       </c>
       <c r="L48" t="n">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M48" t="n">
-        <v>66290</v>
+        <v>66307</v>
       </c>
     </row>
     <row r="49">
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4163</v>
+        <v>4161</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>4163</v>
+        <v>4161</v>
       </c>
       <c r="E49" t="n">
         <v>505</v>
@@ -2491,10 +2491,10 @@
         <v>10595</v>
       </c>
       <c r="L49" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M49" t="n">
-        <v>70453</v>
+        <v>70468</v>
       </c>
     </row>
     <row r="50">
@@ -2507,10 +2507,10 @@
         <v>1757</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="E50" t="n">
         <v>557</v>
@@ -2534,10 +2534,10 @@
         <v>11152</v>
       </c>
       <c r="L50" t="n">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M50" t="n">
-        <v>72210</v>
+        <v>72225</v>
       </c>
     </row>
     <row r="51">
@@ -2577,10 +2577,10 @@
         <v>11631</v>
       </c>
       <c r="L51" t="n">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M51" t="n">
-        <v>73312</v>
+        <v>73327</v>
       </c>
     </row>
     <row r="52">
@@ -2620,10 +2620,10 @@
         <v>12016</v>
       </c>
       <c r="L52" t="n">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="M52" t="n">
-        <v>77660</v>
+        <v>77675</v>
       </c>
     </row>
     <row r="53">
@@ -2663,10 +2663,10 @@
         <v>12395</v>
       </c>
       <c r="L53" t="n">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M53" t="n">
-        <v>81512</v>
+        <v>81527</v>
       </c>
     </row>
     <row r="54">
@@ -2679,10 +2679,10 @@
         <v>3863</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>3863</v>
+        <v>3862</v>
       </c>
       <c r="E54" t="n">
         <v>605</v>
@@ -2706,10 +2706,10 @@
         <v>13000</v>
       </c>
       <c r="L54" t="n">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="M54" t="n">
-        <v>85375</v>
+        <v>85390</v>
       </c>
     </row>
     <row r="55">
@@ -2749,10 +2749,10 @@
         <v>13644</v>
       </c>
       <c r="L55" t="n">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="M55" t="n">
-        <v>89747</v>
+        <v>89762</v>
       </c>
     </row>
     <row r="56">
@@ -2792,10 +2792,10 @@
         <v>14343</v>
       </c>
       <c r="L56" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="M56" t="n">
-        <v>93299</v>
+        <v>93314</v>
       </c>
     </row>
     <row r="57">
@@ -2835,10 +2835,10 @@
         <v>14967</v>
       </c>
       <c r="L57" t="n">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="M57" t="n">
-        <v>95579</v>
+        <v>95594</v>
       </c>
     </row>
     <row r="58">
@@ -2878,10 +2878,10 @@
         <v>15917</v>
       </c>
       <c r="L58" t="n">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="M58" t="n">
-        <v>97383</v>
+        <v>97398</v>
       </c>
     </row>
     <row r="59">
@@ -2891,13 +2891,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4733</v>
+        <v>4732</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>4733</v>
+        <v>4732</v>
       </c>
       <c r="E59" t="n">
         <v>620</v>
@@ -2921,10 +2921,10 @@
         <v>16537</v>
       </c>
       <c r="L59" t="n">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="M59" t="n">
-        <v>102116</v>
+        <v>102130</v>
       </c>
     </row>
     <row r="60">
@@ -2934,13 +2934,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4995</v>
+        <v>4994</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>4993</v>
+        <v>4994</v>
       </c>
       <c r="E60" t="n">
         <v>595</v>
@@ -2964,10 +2964,10 @@
         <v>17132</v>
       </c>
       <c r="L60" t="n">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="M60" t="n">
-        <v>107111</v>
+        <v>107124</v>
       </c>
     </row>
     <row r="61">
@@ -2977,13 +2977,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>5307</v>
+        <v>5305</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>5307</v>
+        <v>5305</v>
       </c>
       <c r="E61" t="n">
         <v>652</v>
@@ -2995,10 +2995,10 @@
         <v>652</v>
       </c>
       <c r="H61" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
         <v>41</v>
@@ -3007,10 +3007,10 @@
         <v>17784</v>
       </c>
       <c r="L61" t="n">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="M61" t="n">
-        <v>112418</v>
+        <v>112429</v>
       </c>
     </row>
     <row r="62">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="B62" t="n">
+        <v>5471</v>
+      </c>
+      <c r="C62" t="n">
+        <v>14</v>
+      </c>
+      <c r="D62" t="n">
         <v>5457</v>
-      </c>
-      <c r="C62" t="n">
-        <v>17</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5440</v>
       </c>
       <c r="E62" t="n">
         <v>794</v>
@@ -3050,10 +3050,10 @@
         <v>18578</v>
       </c>
       <c r="L62" t="n">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="M62" t="n">
-        <v>117875</v>
+        <v>117900</v>
       </c>
     </row>
     <row r="63">
@@ -3063,13 +3063,13 @@
         </is>
       </c>
       <c r="B63" t="n">
+        <v>6424</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" t="n">
         <v>6422</v>
-      </c>
-      <c r="C63" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" t="n">
-        <v>6421</v>
       </c>
       <c r="E63" t="n">
         <v>652</v>
@@ -3093,10 +3093,10 @@
         <v>19230</v>
       </c>
       <c r="L63" t="n">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="M63" t="n">
-        <v>124297</v>
+        <v>124324</v>
       </c>
     </row>
     <row r="64">
@@ -3106,13 +3106,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="C64" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>3277</v>
+        <v>3297</v>
       </c>
       <c r="E64" t="n">
         <v>635</v>
@@ -3136,10 +3136,10 @@
         <v>19865</v>
       </c>
       <c r="L64" t="n">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="M64" t="n">
-        <v>127595</v>
+        <v>127623</v>
       </c>
     </row>
     <row r="65">
@@ -3179,10 +3179,10 @@
         <v>20434</v>
       </c>
       <c r="L65" t="n">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="M65" t="n">
-        <v>129412</v>
+        <v>129440</v>
       </c>
     </row>
     <row r="66">
@@ -3192,10 +3192,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5587</v>
+        <v>5605</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D66" t="n">
         <v>5587</v>
@@ -3222,10 +3222,10 @@
         <v>20959</v>
       </c>
       <c r="L66" t="n">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="M66" t="n">
-        <v>134999</v>
+        <v>135045</v>
       </c>
     </row>
     <row r="67">
@@ -3238,10 +3238,10 @@
         <v>6159</v>
       </c>
       <c r="C67" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>6149</v>
+        <v>6157</v>
       </c>
       <c r="E67" t="n">
         <v>837</v>
@@ -3265,10 +3265,10 @@
         <v>21796</v>
       </c>
       <c r="L67" t="n">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="M67" t="n">
-        <v>141158</v>
+        <v>141204</v>
       </c>
     </row>
     <row r="68">
@@ -3278,10 +3278,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5629</v>
+        <v>5641</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D68" t="n">
         <v>5629</v>
@@ -3308,10 +3308,10 @@
         <v>22419</v>
       </c>
       <c r="L68" t="n">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="M68" t="n">
-        <v>146787</v>
+        <v>146845</v>
       </c>
     </row>
     <row r="69">
@@ -3321,10 +3321,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>5995</v>
+        <v>6003</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D69" t="n">
         <v>5995</v>
@@ -3351,10 +3351,10 @@
         <v>23058</v>
       </c>
       <c r="L69" t="n">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="M69" t="n">
-        <v>152782</v>
+        <v>152848</v>
       </c>
     </row>
     <row r="70">
@@ -3364,13 +3364,13 @@
         </is>
       </c>
       <c r="B70" t="n">
+        <v>6248</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
         <v>6247</v>
-      </c>
-      <c r="C70" t="n">
-        <v>20</v>
-      </c>
-      <c r="D70" t="n">
-        <v>6227</v>
       </c>
       <c r="E70" t="n">
         <v>591</v>
@@ -3394,10 +3394,10 @@
         <v>23649</v>
       </c>
       <c r="L70" t="n">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="M70" t="n">
-        <v>159029</v>
+        <v>159096</v>
       </c>
     </row>
     <row r="71">
@@ -3407,10 +3407,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3235</v>
+        <v>3237</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>3235</v>
@@ -3437,10 +3437,10 @@
         <v>24037</v>
       </c>
       <c r="L71" t="n">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="M71" t="n">
-        <v>162264</v>
+        <v>162333</v>
       </c>
     </row>
     <row r="72">
@@ -3450,13 +3450,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E72" t="n">
         <v>464</v>
@@ -3480,10 +3480,10 @@
         <v>24501</v>
       </c>
       <c r="L72" t="n">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="M72" t="n">
-        <v>163535</v>
+        <v>163606</v>
       </c>
     </row>
     <row r="73">
@@ -3493,13 +3493,13 @@
         </is>
       </c>
       <c r="B73" t="n">
+        <v>6928</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
         <v>6927</v>
-      </c>
-      <c r="C73" t="n">
-        <v>2</v>
-      </c>
-      <c r="D73" t="n">
-        <v>6925</v>
       </c>
       <c r="E73" t="n">
         <v>518</v>
@@ -3514,19 +3514,19 @@
         <v>41</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K73" t="n">
         <v>25019</v>
       </c>
       <c r="L73" t="n">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="M73" t="n">
-        <v>170462</v>
+        <v>170534</v>
       </c>
     </row>
     <row r="74">
@@ -3536,13 +3536,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6554</v>
+        <v>6553</v>
       </c>
       <c r="C74" t="n">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>6496</v>
+        <v>6551</v>
       </c>
       <c r="E74" t="n">
         <v>376</v>
@@ -3566,10 +3566,10 @@
         <v>25395</v>
       </c>
       <c r="L74" t="n">
-        <v>1580</v>
+        <v>1582</v>
       </c>
       <c r="M74" t="n">
-        <v>177016</v>
+        <v>177087</v>
       </c>
     </row>
     <row r="75">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>7039</v>
+        <v>7040</v>
       </c>
       <c r="C75" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D75" t="n">
-        <v>7010</v>
+        <v>7033</v>
       </c>
       <c r="E75" t="n">
         <v>604</v>
@@ -3609,10 +3609,10 @@
         <v>25999</v>
       </c>
       <c r="L75" t="n">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="M75" t="n">
-        <v>184055</v>
+        <v>184127</v>
       </c>
     </row>
     <row r="76">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="B76" t="n">
+        <v>7750</v>
+      </c>
+      <c r="C76" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" t="n">
         <v>7747</v>
-      </c>
-      <c r="C76" t="n">
-        <v>22</v>
-      </c>
-      <c r="D76" t="n">
-        <v>7725</v>
       </c>
       <c r="E76" t="n">
         <v>588</v>
@@ -3652,10 +3652,10 @@
         <v>26587</v>
       </c>
       <c r="L76" t="n">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="M76" t="n">
-        <v>191802</v>
+        <v>191877</v>
       </c>
     </row>
     <row r="77">
@@ -3665,13 +3665,13 @@
         </is>
       </c>
       <c r="B77" t="n">
+        <v>9204</v>
+      </c>
+      <c r="C77" t="n">
+        <v>4</v>
+      </c>
+      <c r="D77" t="n">
         <v>9200</v>
-      </c>
-      <c r="C77" t="n">
-        <v>13</v>
-      </c>
-      <c r="D77" t="n">
-        <v>9187</v>
       </c>
       <c r="E77" t="n">
         <v>638</v>
@@ -3695,10 +3695,10 @@
         <v>27225</v>
       </c>
       <c r="L77" t="n">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="M77" t="n">
-        <v>201002</v>
+        <v>201081</v>
       </c>
     </row>
     <row r="78">
@@ -3708,22 +3708,22 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3088</v>
+        <v>3095</v>
       </c>
       <c r="C78" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>3079</v>
+        <v>3089</v>
       </c>
       <c r="E78" t="n">
         <v>496</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H78" t="n">
         <v>29</v>
@@ -3738,10 +3738,10 @@
         <v>27721</v>
       </c>
       <c r="L78" t="n">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="M78" t="n">
-        <v>204090</v>
+        <v>204176</v>
       </c>
     </row>
     <row r="79">
@@ -3751,40 +3751,40 @@
         </is>
       </c>
       <c r="B79" t="n">
+        <v>1875</v>
+      </c>
+      <c r="C79" t="n">
+        <v>4</v>
+      </c>
+      <c r="D79" t="n">
         <v>1871</v>
       </c>
-      <c r="C79" t="n">
-        <v>14</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1857</v>
-      </c>
       <c r="E79" t="n">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H79" t="n">
         <v>29</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K79" t="n">
-        <v>28206</v>
+        <v>28205</v>
       </c>
       <c r="L79" t="n">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="M79" t="n">
-        <v>205961</v>
+        <v>206051</v>
       </c>
     </row>
     <row r="80">
@@ -3794,13 +3794,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>7961</v>
+        <v>7969</v>
       </c>
       <c r="C80" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D80" t="n">
-        <v>7953</v>
+        <v>7962</v>
       </c>
       <c r="E80" t="n">
         <v>456</v>
@@ -3821,13 +3821,13 @@
         <v>37</v>
       </c>
       <c r="K80" t="n">
-        <v>28662</v>
+        <v>28661</v>
       </c>
       <c r="L80" t="n">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="M80" t="n">
-        <v>213922</v>
+        <v>214020</v>
       </c>
     </row>
     <row r="81">
@@ -3837,13 +3837,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6759</v>
+        <v>6763</v>
       </c>
       <c r="C81" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D81" t="n">
-        <v>6744</v>
+        <v>6755</v>
       </c>
       <c r="E81" t="n">
         <v>557</v>
@@ -3864,13 +3864,13 @@
         <v>29</v>
       </c>
       <c r="K81" t="n">
-        <v>29219</v>
+        <v>29218</v>
       </c>
       <c r="L81" t="n">
-        <v>1803</v>
+        <v>1805</v>
       </c>
       <c r="M81" t="n">
-        <v>220681</v>
+        <v>220783</v>
       </c>
     </row>
     <row r="82">
@@ -3880,13 +3880,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6173</v>
+        <v>6188</v>
       </c>
       <c r="C82" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D82" t="n">
-        <v>6152</v>
+        <v>6174</v>
       </c>
       <c r="E82" t="n">
         <v>652</v>
@@ -3907,13 +3907,13 @@
         <v>26</v>
       </c>
       <c r="K82" t="n">
-        <v>29871</v>
+        <v>29870</v>
       </c>
       <c r="L82" t="n">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="M82" t="n">
-        <v>226854</v>
+        <v>226971</v>
       </c>
     </row>
     <row r="83">
@@ -3923,13 +3923,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7088</v>
+        <v>7094</v>
       </c>
       <c r="C83" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D83" t="n">
-        <v>7067</v>
+        <v>7086</v>
       </c>
       <c r="E83" t="n">
         <v>468</v>
@@ -3950,13 +3950,13 @@
         <v>36</v>
       </c>
       <c r="K83" t="n">
-        <v>30339</v>
+        <v>30338</v>
       </c>
       <c r="L83" t="n">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="M83" t="n">
-        <v>233942</v>
+        <v>234065</v>
       </c>
     </row>
     <row r="84">
@@ -3966,13 +3966,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>7752</v>
+        <v>7757</v>
       </c>
       <c r="C84" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>7732</v>
+        <v>7751</v>
       </c>
       <c r="E84" t="n">
         <v>495</v>
@@ -3993,13 +3993,13 @@
         <v>16</v>
       </c>
       <c r="K84" t="n">
-        <v>30834</v>
+        <v>30833</v>
       </c>
       <c r="L84" t="n">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="M84" t="n">
-        <v>241694</v>
+        <v>241822</v>
       </c>
     </row>
     <row r="85">
@@ -4009,40 +4009,40 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2750</v>
+        <v>2774</v>
       </c>
       <c r="C85" t="n">
+        <v>25</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2749</v>
+      </c>
+      <c r="E85" t="n">
+        <v>473</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>473</v>
+      </c>
+      <c r="H85" t="n">
+        <v>24</v>
+      </c>
+      <c r="I85" t="n">
         <v>2</v>
       </c>
-      <c r="D85" t="n">
-        <v>2748</v>
-      </c>
-      <c r="E85" t="n">
-        <v>474</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" t="n">
-        <v>474</v>
-      </c>
-      <c r="H85" t="n">
+      <c r="J85" t="n">
         <v>22</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>21</v>
-      </c>
       <c r="K85" t="n">
-        <v>31308</v>
+        <v>31306</v>
       </c>
       <c r="L85" t="n">
-        <v>1903</v>
+        <v>1907</v>
       </c>
       <c r="M85" t="n">
-        <v>244444</v>
+        <v>244596</v>
       </c>
     </row>
     <row r="86">
@@ -4052,10 +4052,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1765</v>
+        <v>1778</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D86" t="n">
         <v>1765</v>
@@ -4070,22 +4070,22 @@
         <v>344</v>
       </c>
       <c r="H86" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K86" t="n">
-        <v>31652</v>
+        <v>31650</v>
       </c>
       <c r="L86" t="n">
-        <v>1914</v>
+        <v>1919</v>
       </c>
       <c r="M86" t="n">
-        <v>246209</v>
+        <v>246374</v>
       </c>
     </row>
     <row r="87">
@@ -4095,22 +4095,22 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>1677</v>
+        <v>1680</v>
       </c>
       <c r="E87" t="n">
         <v>359</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H87" t="n">
         <v>20</v>
@@ -4122,13 +4122,13 @@
         <v>20</v>
       </c>
       <c r="K87" t="n">
-        <v>32011</v>
+        <v>32009</v>
       </c>
       <c r="L87" t="n">
-        <v>1934</v>
+        <v>1939</v>
       </c>
       <c r="M87" t="n">
-        <v>247891</v>
+        <v>248054</v>
       </c>
     </row>
     <row r="88">
@@ -4141,10 +4141,10 @@
         <v>7285</v>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>7282</v>
+        <v>7284</v>
       </c>
       <c r="E88" t="n">
         <v>351</v>
@@ -4165,13 +4165,13 @@
         <v>18</v>
       </c>
       <c r="K88" t="n">
-        <v>32362</v>
+        <v>32360</v>
       </c>
       <c r="L88" t="n">
-        <v>1952</v>
+        <v>1957</v>
       </c>
       <c r="M88" t="n">
-        <v>255176</v>
+        <v>255339</v>
       </c>
     </row>
     <row r="89">
@@ -4181,40 +4181,40 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>5906</v>
+        <v>5904</v>
       </c>
       <c r="C89" t="n">
+        <v>3</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5901</v>
+      </c>
+      <c r="E89" t="n">
+        <v>608</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" t="n">
+        <v>607</v>
+      </c>
+      <c r="H89" t="n">
         <v>14</v>
       </c>
-      <c r="D89" t="n">
-        <v>5892</v>
-      </c>
-      <c r="E89" t="n">
-        <v>609</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G89" t="n">
-        <v>609</v>
-      </c>
-      <c r="H89" t="n">
-        <v>13</v>
-      </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
         <v>13</v>
       </c>
       <c r="K89" t="n">
-        <v>32971</v>
+        <v>32968</v>
       </c>
       <c r="L89" t="n">
-        <v>1965</v>
+        <v>1971</v>
       </c>
       <c r="M89" t="n">
-        <v>261082</v>
+        <v>261243</v>
       </c>
     </row>
     <row r="90">
@@ -4224,13 +4224,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>6770</v>
+        <v>6774</v>
       </c>
       <c r="C90" t="n">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D90" t="n">
-        <v>6665</v>
+        <v>6765</v>
       </c>
       <c r="E90" t="n">
         <v>482</v>
@@ -4251,13 +4251,13 @@
         <v>14</v>
       </c>
       <c r="K90" t="n">
-        <v>33453</v>
+        <v>33450</v>
       </c>
       <c r="L90" t="n">
-        <v>1979</v>
+        <v>1985</v>
       </c>
       <c r="M90" t="n">
-        <v>267852</v>
+        <v>268017</v>
       </c>
     </row>
     <row r="91">
@@ -4267,40 +4267,40 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>7346</v>
+        <v>7379</v>
       </c>
       <c r="C91" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D91" t="n">
-        <v>7296</v>
+        <v>7345</v>
       </c>
       <c r="E91" t="n">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H91" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
         <v>16</v>
       </c>
       <c r="K91" t="n">
-        <v>34054</v>
+        <v>34049</v>
       </c>
       <c r="L91" t="n">
-        <v>1995</v>
+        <v>2003</v>
       </c>
       <c r="M91" t="n">
-        <v>275198</v>
+        <v>275396</v>
       </c>
     </row>
     <row r="92">
@@ -4310,40 +4310,40 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2738</v>
+        <v>2754</v>
       </c>
       <c r="C92" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D92" t="n">
-        <v>2704</v>
+        <v>2737</v>
       </c>
       <c r="E92" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H92" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J92" t="n">
         <v>14</v>
       </c>
       <c r="K92" t="n">
-        <v>34422</v>
+        <v>34416</v>
       </c>
       <c r="L92" t="n">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="M92" t="n">
-        <v>277936</v>
+        <v>278150</v>
       </c>
     </row>
     <row r="93">
@@ -4353,22 +4353,22 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1663</v>
+        <v>1760</v>
       </c>
       <c r="C93" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D93" t="n">
-        <v>1576</v>
+        <v>1660</v>
       </c>
       <c r="E93" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H93" t="n">
         <v>12</v>
@@ -4380,13 +4380,13 @@
         <v>12</v>
       </c>
       <c r="K93" t="n">
-        <v>34710</v>
+        <v>34703</v>
       </c>
       <c r="L93" t="n">
-        <v>2021</v>
+        <v>2031</v>
       </c>
       <c r="M93" t="n">
-        <v>279599</v>
+        <v>279910</v>
       </c>
     </row>
     <row r="94">
@@ -4396,13 +4396,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>7339</v>
+        <v>7693</v>
       </c>
       <c r="C94" t="n">
-        <v>1832</v>
+        <v>375</v>
       </c>
       <c r="D94" t="n">
-        <v>5507</v>
+        <v>7318</v>
       </c>
       <c r="E94" t="n">
         <v>418</v>
@@ -4414,22 +4414,22 @@
         <v>418</v>
       </c>
       <c r="H94" t="n">
+        <v>18</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2</v>
+      </c>
+      <c r="J94" t="n">
         <v>16</v>
       </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>15</v>
-      </c>
       <c r="K94" t="n">
-        <v>35128</v>
+        <v>35121</v>
       </c>
       <c r="L94" t="n">
-        <v>2037</v>
+        <v>2049</v>
       </c>
       <c r="M94" t="n">
-        <v>286938</v>
+        <v>287603</v>
       </c>
     </row>
     <row r="95">
@@ -4439,13 +4439,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>3868</v>
+        <v>5077</v>
       </c>
       <c r="C95" t="n">
-        <v>3377</v>
+        <v>1234</v>
       </c>
       <c r="D95" t="n">
-        <v>491</v>
+        <v>3843</v>
       </c>
       <c r="E95" t="n">
         <v>489</v>
@@ -4460,19 +4460,19 @@
         <v>14</v>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K95" t="n">
-        <v>35617</v>
+        <v>35610</v>
       </c>
       <c r="L95" t="n">
-        <v>2051</v>
+        <v>2063</v>
       </c>
       <c r="M95" t="n">
-        <v>290806</v>
+        <v>292680</v>
       </c>
     </row>
     <row r="96">
@@ -4482,40 +4482,40 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>756</v>
+        <v>4232</v>
       </c>
       <c r="C96" t="n">
-        <v>636</v>
+        <v>3485</v>
       </c>
       <c r="D96" t="n">
-        <v>120</v>
+        <v>747</v>
       </c>
       <c r="E96" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H96" t="n">
+        <v>21</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2</v>
+      </c>
+      <c r="J96" t="n">
         <v>19</v>
       </c>
-      <c r="I96" t="n">
-        <v>12</v>
-      </c>
-      <c r="J96" t="n">
-        <v>7</v>
-      </c>
       <c r="K96" t="n">
-        <v>36051</v>
+        <v>36042</v>
       </c>
       <c r="L96" t="n">
-        <v>2070</v>
+        <v>2084</v>
       </c>
       <c r="M96" t="n">
-        <v>291562</v>
+        <v>296912</v>
       </c>
     </row>
     <row r="97">
@@ -4525,40 +4525,83 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>76</v>
+        <v>540</v>
       </c>
       <c r="C97" t="n">
-        <v>76</v>
+        <v>467</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E97" t="n">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="F97" t="n">
-        <v>527</v>
+        <v>3</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="H97" t="n">
+        <v>18</v>
+      </c>
+      <c r="I97" t="n">
+        <v>10</v>
+      </c>
+      <c r="J97" t="n">
         <v>8</v>
       </c>
-      <c r="I97" t="n">
+      <c r="K97" t="n">
+        <v>36558</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2102</v>
+      </c>
+      <c r="M97" t="n">
+        <v>297452</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2020-06-05</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>78</v>
+      </c>
+      <c r="C98" t="n">
+        <v>78</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>439</v>
+      </c>
+      <c r="F98" t="n">
+        <v>437</v>
+      </c>
+      <c r="G98" t="n">
+        <v>2</v>
+      </c>
+      <c r="H98" t="n">
         <v>8</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="n">
-        <v>36578</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2078</v>
-      </c>
-      <c r="M97" t="n">
-        <v>291638</v>
+      <c r="I98" t="n">
+        <v>8</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>36997</v>
+      </c>
+      <c r="L98" t="n">
+        <v>2110</v>
+      </c>
+      <c r="M98" t="n">
+        <v>297530</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M98"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,10 +1088,10 @@
         <v>652</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1346,10 +1346,10 @@
         <v>1022</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E23" t="n">
         <v>57</v>
@@ -1604,10 +1604,10 @@
         <v>1280</v>
       </c>
       <c r="C29" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1271</v>
+        <v>1280</v>
       </c>
       <c r="E29" t="n">
         <v>288</v>
@@ -1819,10 +1819,10 @@
         <v>2695</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2694</v>
+        <v>2695</v>
       </c>
       <c r="E34" t="n">
         <v>396</v>
@@ -1862,10 +1862,10 @@
         <v>2801</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2800</v>
+        <v>2801</v>
       </c>
       <c r="E35" t="n">
         <v>513</v>
@@ -1991,10 +1991,10 @@
         <v>2422</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="E38" t="n">
         <v>556</v>
@@ -2138,10 +2138,10 @@
         <v>37</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K41" t="n">
         <v>6881</v>
@@ -2679,10 +2679,10 @@
         <v>3863</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>3862</v>
+        <v>3863</v>
       </c>
       <c r="E54" t="n">
         <v>605</v>
@@ -2891,13 +2891,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4732</v>
+        <v>4733</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>4732</v>
+        <v>4733</v>
       </c>
       <c r="E59" t="n">
         <v>620</v>
@@ -2924,7 +2924,7 @@
         <v>1029</v>
       </c>
       <c r="M59" t="n">
-        <v>102130</v>
+        <v>102131</v>
       </c>
     </row>
     <row r="60">
@@ -2967,7 +2967,7 @@
         <v>1063</v>
       </c>
       <c r="M60" t="n">
-        <v>107124</v>
+        <v>107125</v>
       </c>
     </row>
     <row r="61">
@@ -2998,10 +2998,10 @@
         <v>42</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K61" t="n">
         <v>17784</v>
@@ -3010,7 +3010,7 @@
         <v>1105</v>
       </c>
       <c r="M61" t="n">
-        <v>112429</v>
+        <v>112430</v>
       </c>
     </row>
     <row r="62">
@@ -3023,10 +3023,10 @@
         <v>5471</v>
       </c>
       <c r="C62" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>5457</v>
+        <v>5471</v>
       </c>
       <c r="E62" t="n">
         <v>794</v>
@@ -3053,7 +3053,7 @@
         <v>1150</v>
       </c>
       <c r="M62" t="n">
-        <v>117900</v>
+        <v>117901</v>
       </c>
     </row>
     <row r="63">
@@ -3063,13 +3063,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>6424</v>
+        <v>6423</v>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>6422</v>
+        <v>6423</v>
       </c>
       <c r="E63" t="n">
         <v>652</v>
@@ -3106,13 +3106,13 @@
         </is>
       </c>
       <c r="B64" t="n">
+        <v>3300</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
         <v>3299</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2</v>
-      </c>
-      <c r="D64" t="n">
-        <v>3297</v>
       </c>
       <c r="E64" t="n">
         <v>635</v>
@@ -3139,7 +3139,7 @@
         <v>1229</v>
       </c>
       <c r="M64" t="n">
-        <v>127623</v>
+        <v>127624</v>
       </c>
     </row>
     <row r="65">
@@ -3182,7 +3182,7 @@
         <v>1261</v>
       </c>
       <c r="M65" t="n">
-        <v>129440</v>
+        <v>129441</v>
       </c>
     </row>
     <row r="66">
@@ -3195,10 +3195,10 @@
         <v>5605</v>
       </c>
       <c r="C66" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>5587</v>
+        <v>5605</v>
       </c>
       <c r="E66" t="n">
         <v>525</v>
@@ -3225,7 +3225,7 @@
         <v>1299</v>
       </c>
       <c r="M66" t="n">
-        <v>135045</v>
+        <v>135046</v>
       </c>
     </row>
     <row r="67">
@@ -3238,10 +3238,10 @@
         <v>6159</v>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>6157</v>
+        <v>6159</v>
       </c>
       <c r="E67" t="n">
         <v>837</v>
@@ -3268,7 +3268,7 @@
         <v>1336</v>
       </c>
       <c r="M67" t="n">
-        <v>141204</v>
+        <v>141205</v>
       </c>
     </row>
     <row r="68">
@@ -3281,10 +3281,10 @@
         <v>5641</v>
       </c>
       <c r="C68" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>5629</v>
+        <v>5641</v>
       </c>
       <c r="E68" t="n">
         <v>623</v>
@@ -3311,7 +3311,7 @@
         <v>1379</v>
       </c>
       <c r="M68" t="n">
-        <v>146845</v>
+        <v>146846</v>
       </c>
     </row>
     <row r="69">
@@ -3324,10 +3324,10 @@
         <v>6003</v>
       </c>
       <c r="C69" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>5995</v>
+        <v>6003</v>
       </c>
       <c r="E69" t="n">
         <v>639</v>
@@ -3354,7 +3354,7 @@
         <v>1413</v>
       </c>
       <c r="M69" t="n">
-        <v>152848</v>
+        <v>152849</v>
       </c>
     </row>
     <row r="70">
@@ -3367,10 +3367,10 @@
         <v>6248</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>6247</v>
+        <v>6248</v>
       </c>
       <c r="E70" t="n">
         <v>591</v>
@@ -3397,7 +3397,7 @@
         <v>1438</v>
       </c>
       <c r="M70" t="n">
-        <v>159096</v>
+        <v>159097</v>
       </c>
     </row>
     <row r="71">
@@ -3410,10 +3410,10 @@
         <v>3237</v>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>3235</v>
+        <v>3237</v>
       </c>
       <c r="E71" t="n">
         <v>388</v>
@@ -3440,7 +3440,7 @@
         <v>1469</v>
       </c>
       <c r="M71" t="n">
-        <v>162333</v>
+        <v>162334</v>
       </c>
     </row>
     <row r="72">
@@ -3453,10 +3453,10 @@
         <v>1273</v>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="E72" t="n">
         <v>464</v>
@@ -3483,7 +3483,7 @@
         <v>1503</v>
       </c>
       <c r="M72" t="n">
-        <v>163606</v>
+        <v>163607</v>
       </c>
     </row>
     <row r="73">
@@ -3496,10 +3496,10 @@
         <v>6928</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>6927</v>
+        <v>6928</v>
       </c>
       <c r="E73" t="n">
         <v>518</v>
@@ -3526,7 +3526,7 @@
         <v>1544</v>
       </c>
       <c r="M73" t="n">
-        <v>170534</v>
+        <v>170535</v>
       </c>
     </row>
     <row r="74">
@@ -3536,13 +3536,13 @@
         </is>
       </c>
       <c r="B74" t="n">
+        <v>6574</v>
+      </c>
+      <c r="C74" t="n">
+        <v>21</v>
+      </c>
+      <c r="D74" t="n">
         <v>6553</v>
-      </c>
-      <c r="C74" t="n">
-        <v>2</v>
-      </c>
-      <c r="D74" t="n">
-        <v>6551</v>
       </c>
       <c r="E74" t="n">
         <v>376</v>
@@ -3569,7 +3569,7 @@
         <v>1582</v>
       </c>
       <c r="M74" t="n">
-        <v>177087</v>
+        <v>177109</v>
       </c>
     </row>
     <row r="75">
@@ -3582,10 +3582,10 @@
         <v>7040</v>
       </c>
       <c r="C75" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>7033</v>
+        <v>7040</v>
       </c>
       <c r="E75" t="n">
         <v>604</v>
@@ -3612,7 +3612,7 @@
         <v>1608</v>
       </c>
       <c r="M75" t="n">
-        <v>184127</v>
+        <v>184149</v>
       </c>
     </row>
     <row r="76">
@@ -3625,10 +3625,10 @@
         <v>7750</v>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>7747</v>
+        <v>7749</v>
       </c>
       <c r="E76" t="n">
         <v>588</v>
@@ -3655,7 +3655,7 @@
         <v>1649</v>
       </c>
       <c r="M76" t="n">
-        <v>191877</v>
+        <v>191899</v>
       </c>
     </row>
     <row r="77">
@@ -3668,10 +3668,10 @@
         <v>9204</v>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>9200</v>
+        <v>9204</v>
       </c>
       <c r="E77" t="n">
         <v>638</v>
@@ -3698,7 +3698,7 @@
         <v>1681</v>
       </c>
       <c r="M77" t="n">
-        <v>201081</v>
+        <v>201103</v>
       </c>
     </row>
     <row r="78">
@@ -3711,10 +3711,10 @@
         <v>3095</v>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>3089</v>
+        <v>3095</v>
       </c>
       <c r="E78" t="n">
         <v>496</v>
@@ -3741,7 +3741,7 @@
         <v>1710</v>
       </c>
       <c r="M78" t="n">
-        <v>204176</v>
+        <v>204198</v>
       </c>
     </row>
     <row r="79">
@@ -3751,13 +3751,13 @@
         </is>
       </c>
       <c r="B79" t="n">
+        <v>1882</v>
+      </c>
+      <c r="C79" t="n">
+        <v>7</v>
+      </c>
+      <c r="D79" t="n">
         <v>1875</v>
-      </c>
-      <c r="C79" t="n">
-        <v>4</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1871</v>
       </c>
       <c r="E79" t="n">
         <v>484</v>
@@ -3784,7 +3784,7 @@
         <v>1739</v>
       </c>
       <c r="M79" t="n">
-        <v>206051</v>
+        <v>206080</v>
       </c>
     </row>
     <row r="80">
@@ -3794,13 +3794,13 @@
         </is>
       </c>
       <c r="B80" t="n">
+        <v>7979</v>
+      </c>
+      <c r="C80" t="n">
+        <v>10</v>
+      </c>
+      <c r="D80" t="n">
         <v>7969</v>
-      </c>
-      <c r="C80" t="n">
-        <v>7</v>
-      </c>
-      <c r="D80" t="n">
-        <v>7962</v>
       </c>
       <c r="E80" t="n">
         <v>456</v>
@@ -3812,10 +3812,10 @@
         <v>456</v>
       </c>
       <c r="H80" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
         <v>37</v>
@@ -3824,10 +3824,10 @@
         <v>28661</v>
       </c>
       <c r="L80" t="n">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="M80" t="n">
-        <v>214020</v>
+        <v>214059</v>
       </c>
     </row>
     <row r="81">
@@ -3840,10 +3840,10 @@
         <v>6763</v>
       </c>
       <c r="C81" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>6755</v>
+        <v>6762</v>
       </c>
       <c r="E81" t="n">
         <v>557</v>
@@ -3867,10 +3867,10 @@
         <v>29218</v>
       </c>
       <c r="L81" t="n">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="M81" t="n">
-        <v>220783</v>
+        <v>220822</v>
       </c>
     </row>
     <row r="82">
@@ -3880,13 +3880,13 @@
         </is>
       </c>
       <c r="B82" t="n">
+        <v>6195</v>
+      </c>
+      <c r="C82" t="n">
+        <v>7</v>
+      </c>
+      <c r="D82" t="n">
         <v>6188</v>
-      </c>
-      <c r="C82" t="n">
-        <v>14</v>
-      </c>
-      <c r="D82" t="n">
-        <v>6174</v>
       </c>
       <c r="E82" t="n">
         <v>652</v>
@@ -3910,10 +3910,10 @@
         <v>29870</v>
       </c>
       <c r="L82" t="n">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="M82" t="n">
-        <v>226971</v>
+        <v>227017</v>
       </c>
     </row>
     <row r="83">
@@ -3923,13 +3923,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7094</v>
+        <v>7093</v>
       </c>
       <c r="C83" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>7086</v>
+        <v>7093</v>
       </c>
       <c r="E83" t="n">
         <v>468</v>
@@ -3953,10 +3953,10 @@
         <v>30338</v>
       </c>
       <c r="L83" t="n">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="M83" t="n">
-        <v>234065</v>
+        <v>234110</v>
       </c>
     </row>
     <row r="84">
@@ -3966,13 +3966,13 @@
         </is>
       </c>
       <c r="B84" t="n">
+        <v>7759</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2</v>
+      </c>
+      <c r="D84" t="n">
         <v>7757</v>
-      </c>
-      <c r="C84" t="n">
-        <v>6</v>
-      </c>
-      <c r="D84" t="n">
-        <v>7751</v>
       </c>
       <c r="E84" t="n">
         <v>495</v>
@@ -3996,10 +3996,10 @@
         <v>30833</v>
       </c>
       <c r="L84" t="n">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="M84" t="n">
-        <v>241822</v>
+        <v>241869</v>
       </c>
     </row>
     <row r="85">
@@ -4009,13 +4009,13 @@
         </is>
       </c>
       <c r="B85" t="n">
+        <v>2779</v>
+      </c>
+      <c r="C85" t="n">
+        <v>5</v>
+      </c>
+      <c r="D85" t="n">
         <v>2774</v>
-      </c>
-      <c r="C85" t="n">
-        <v>25</v>
-      </c>
-      <c r="D85" t="n">
-        <v>2749</v>
       </c>
       <c r="E85" t="n">
         <v>473</v>
@@ -4030,19 +4030,19 @@
         <v>24</v>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K85" t="n">
         <v>31306</v>
       </c>
       <c r="L85" t="n">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="M85" t="n">
-        <v>244596</v>
+        <v>244648</v>
       </c>
     </row>
     <row r="86">
@@ -4052,13 +4052,13 @@
         </is>
       </c>
       <c r="B86" t="n">
+        <v>1784</v>
+      </c>
+      <c r="C86" t="n">
+        <v>6</v>
+      </c>
+      <c r="D86" t="n">
         <v>1778</v>
-      </c>
-      <c r="C86" t="n">
-        <v>13</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1765</v>
       </c>
       <c r="E86" t="n">
         <v>344</v>
@@ -4073,19 +4073,19 @@
         <v>12</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K86" t="n">
         <v>31650</v>
       </c>
       <c r="L86" t="n">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="M86" t="n">
-        <v>246374</v>
+        <v>246432</v>
       </c>
     </row>
     <row r="87">
@@ -4095,10 +4095,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1680</v>
+        <v>1695</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D87" t="n">
         <v>1680</v>
@@ -4125,10 +4125,10 @@
         <v>32009</v>
       </c>
       <c r="L87" t="n">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="M87" t="n">
-        <v>248054</v>
+        <v>248127</v>
       </c>
     </row>
     <row r="88">
@@ -4138,13 +4138,13 @@
         </is>
       </c>
       <c r="B88" t="n">
+        <v>7294</v>
+      </c>
+      <c r="C88" t="n">
+        <v>9</v>
+      </c>
+      <c r="D88" t="n">
         <v>7285</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1</v>
-      </c>
-      <c r="D88" t="n">
-        <v>7284</v>
       </c>
       <c r="E88" t="n">
         <v>351</v>
@@ -4168,10 +4168,10 @@
         <v>32360</v>
       </c>
       <c r="L88" t="n">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="M88" t="n">
-        <v>255339</v>
+        <v>255421</v>
       </c>
     </row>
     <row r="89">
@@ -4181,40 +4181,40 @@
         </is>
       </c>
       <c r="B89" t="n">
+        <v>5905</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="n">
         <v>5904</v>
-      </c>
-      <c r="C89" t="n">
-        <v>3</v>
-      </c>
-      <c r="D89" t="n">
-        <v>5901</v>
       </c>
       <c r="E89" t="n">
         <v>608</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H89" t="n">
         <v>14</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K89" t="n">
         <v>32968</v>
       </c>
       <c r="L89" t="n">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="M89" t="n">
-        <v>261243</v>
+        <v>261326</v>
       </c>
     </row>
     <row r="90">
@@ -4227,10 +4227,10 @@
         <v>6774</v>
       </c>
       <c r="C90" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>6765</v>
+        <v>6773</v>
       </c>
       <c r="E90" t="n">
         <v>482</v>
@@ -4254,10 +4254,10 @@
         <v>33450</v>
       </c>
       <c r="L90" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="M90" t="n">
-        <v>268017</v>
+        <v>268100</v>
       </c>
     </row>
     <row r="91">
@@ -4267,13 +4267,13 @@
         </is>
       </c>
       <c r="B91" t="n">
+        <v>7380</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
         <v>7379</v>
-      </c>
-      <c r="C91" t="n">
-        <v>34</v>
-      </c>
-      <c r="D91" t="n">
-        <v>7345</v>
       </c>
       <c r="E91" t="n">
         <v>599</v>
@@ -4288,19 +4288,19 @@
         <v>18</v>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K91" t="n">
         <v>34049</v>
       </c>
       <c r="L91" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="M91" t="n">
-        <v>275396</v>
+        <v>275480</v>
       </c>
     </row>
     <row r="92">
@@ -4310,40 +4310,40 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="C92" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>2737</v>
+        <v>2753</v>
       </c>
       <c r="E92" t="n">
         <v>367</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H92" t="n">
         <v>16</v>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K92" t="n">
         <v>34416</v>
       </c>
       <c r="L92" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M92" t="n">
-        <v>278150</v>
+        <v>278235</v>
       </c>
     </row>
     <row r="93">
@@ -4353,13 +4353,13 @@
         </is>
       </c>
       <c r="B93" t="n">
+        <v>1769</v>
+      </c>
+      <c r="C93" t="n">
+        <v>9</v>
+      </c>
+      <c r="D93" t="n">
         <v>1760</v>
-      </c>
-      <c r="C93" t="n">
-        <v>100</v>
-      </c>
-      <c r="D93" t="n">
-        <v>1660</v>
       </c>
       <c r="E93" t="n">
         <v>287</v>
@@ -4383,10 +4383,10 @@
         <v>34703</v>
       </c>
       <c r="L93" t="n">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="M93" t="n">
-        <v>279910</v>
+        <v>280004</v>
       </c>
     </row>
     <row r="94">
@@ -4396,40 +4396,40 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>7693</v>
+        <v>7752</v>
       </c>
       <c r="C94" t="n">
-        <v>375</v>
+        <v>71</v>
       </c>
       <c r="D94" t="n">
-        <v>7318</v>
+        <v>7681</v>
       </c>
       <c r="E94" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H94" t="n">
         <v>18</v>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K94" t="n">
-        <v>35121</v>
+        <v>35120</v>
       </c>
       <c r="L94" t="n">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="M94" t="n">
-        <v>287603</v>
+        <v>287756</v>
       </c>
     </row>
     <row r="95">
@@ -4439,22 +4439,22 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>5077</v>
+        <v>5385</v>
       </c>
       <c r="C95" t="n">
-        <v>1234</v>
+        <v>334</v>
       </c>
       <c r="D95" t="n">
-        <v>3843</v>
+        <v>5051</v>
       </c>
       <c r="E95" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H95" t="n">
         <v>14</v>
@@ -4466,13 +4466,13 @@
         <v>14</v>
       </c>
       <c r="K95" t="n">
-        <v>35610</v>
+        <v>35608</v>
       </c>
       <c r="L95" t="n">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="M95" t="n">
-        <v>292680</v>
+        <v>293141</v>
       </c>
     </row>
     <row r="96">
@@ -4482,40 +4482,40 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>4232</v>
+        <v>6076</v>
       </c>
       <c r="C96" t="n">
-        <v>3485</v>
+        <v>1853</v>
       </c>
       <c r="D96" t="n">
-        <v>747</v>
+        <v>4223</v>
       </c>
       <c r="E96" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H96" t="n">
         <v>21</v>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K96" t="n">
-        <v>36042</v>
+        <v>36039</v>
       </c>
       <c r="L96" t="n">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="M96" t="n">
-        <v>296912</v>
+        <v>299217</v>
       </c>
     </row>
     <row r="97">
@@ -4525,40 +4525,40 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>540</v>
+        <v>4380</v>
       </c>
       <c r="C97" t="n">
-        <v>467</v>
+        <v>3846</v>
       </c>
       <c r="D97" t="n">
-        <v>73</v>
+        <v>534</v>
       </c>
       <c r="E97" t="n">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
         <v>513</v>
       </c>
       <c r="H97" t="n">
+        <v>19</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
         <v>18</v>
       </c>
-      <c r="I97" t="n">
-        <v>10</v>
-      </c>
-      <c r="J97" t="n">
-        <v>8</v>
-      </c>
       <c r="K97" t="n">
-        <v>36558</v>
+        <v>36552</v>
       </c>
       <c r="L97" t="n">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="M97" t="n">
-        <v>297452</v>
+        <v>303597</v>
       </c>
     </row>
     <row r="98">
@@ -4568,40 +4568,83 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>78</v>
+        <v>595</v>
       </c>
       <c r="C98" t="n">
-        <v>78</v>
+        <v>521</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E98" t="n">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F98" t="n">
-        <v>437</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
+        <v>428</v>
+      </c>
+      <c r="H98" t="n">
+        <v>15</v>
+      </c>
+      <c r="I98" t="n">
+        <v>7</v>
+      </c>
+      <c r="J98" t="n">
+        <v>8</v>
+      </c>
+      <c r="K98" t="n">
+        <v>36981</v>
+      </c>
+      <c r="L98" t="n">
+        <v>2119</v>
+      </c>
+      <c r="M98" t="n">
+        <v>304192</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2020-06-06</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>71</v>
+      </c>
+      <c r="C99" t="n">
+        <v>71</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>416</v>
+      </c>
+      <c r="F99" t="n">
+        <v>416</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
         <v>2</v>
       </c>
-      <c r="H98" t="n">
-        <v>8</v>
-      </c>
-      <c r="I98" t="n">
-        <v>8</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="n">
-        <v>36997</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2110</v>
-      </c>
-      <c r="M98" t="n">
-        <v>297530</v>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>37397</v>
+      </c>
+      <c r="L99" t="n">
+        <v>2121</v>
+      </c>
+      <c r="M99" t="n">
+        <v>304263</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M99"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1991,10 +1991,10 @@
         <v>2422</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="E38" t="n">
         <v>556</v>
@@ -2289,10 +2289,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3463</v>
+        <v>3465</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>3463</v>
@@ -2322,7 +2322,7 @@
         <v>483</v>
       </c>
       <c r="M45" t="n">
-        <v>55400</v>
+        <v>55402</v>
       </c>
     </row>
     <row r="46">
@@ -2365,7 +2365,7 @@
         <v>529</v>
       </c>
       <c r="M46" t="n">
-        <v>59007</v>
+        <v>59009</v>
       </c>
     </row>
     <row r="47">
@@ -2408,7 +2408,7 @@
         <v>566</v>
       </c>
       <c r="M47" t="n">
-        <v>62308</v>
+        <v>62310</v>
       </c>
     </row>
     <row r="48">
@@ -2451,7 +2451,7 @@
         <v>600</v>
       </c>
       <c r="M48" t="n">
-        <v>66307</v>
+        <v>66309</v>
       </c>
     </row>
     <row r="49">
@@ -2494,7 +2494,7 @@
         <v>636</v>
       </c>
       <c r="M49" t="n">
-        <v>70468</v>
+        <v>70470</v>
       </c>
     </row>
     <row r="50">
@@ -2537,7 +2537,7 @@
         <v>664</v>
       </c>
       <c r="M50" t="n">
-        <v>72225</v>
+        <v>72227</v>
       </c>
     </row>
     <row r="51">
@@ -2580,7 +2580,7 @@
         <v>700</v>
       </c>
       <c r="M51" t="n">
-        <v>73327</v>
+        <v>73329</v>
       </c>
     </row>
     <row r="52">
@@ -2623,7 +2623,7 @@
         <v>738</v>
       </c>
       <c r="M52" t="n">
-        <v>77675</v>
+        <v>77677</v>
       </c>
     </row>
     <row r="53">
@@ -2666,7 +2666,7 @@
         <v>787</v>
       </c>
       <c r="M53" t="n">
-        <v>81527</v>
+        <v>81529</v>
       </c>
     </row>
     <row r="54">
@@ -2709,7 +2709,7 @@
         <v>837</v>
       </c>
       <c r="M54" t="n">
-        <v>85390</v>
+        <v>85392</v>
       </c>
     </row>
     <row r="55">
@@ -2752,7 +2752,7 @@
         <v>875</v>
       </c>
       <c r="M55" t="n">
-        <v>89762</v>
+        <v>89764</v>
       </c>
     </row>
     <row r="56">
@@ -2762,10 +2762,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3552</v>
+        <v>3555</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>3552</v>
@@ -2795,7 +2795,7 @@
         <v>912</v>
       </c>
       <c r="M56" t="n">
-        <v>93314</v>
+        <v>93319</v>
       </c>
     </row>
     <row r="57">
@@ -2838,7 +2838,7 @@
         <v>953</v>
       </c>
       <c r="M57" t="n">
-        <v>95594</v>
+        <v>95599</v>
       </c>
     </row>
     <row r="58">
@@ -2881,7 +2881,7 @@
         <v>987</v>
       </c>
       <c r="M58" t="n">
-        <v>97398</v>
+        <v>97403</v>
       </c>
     </row>
     <row r="59">
@@ -2891,13 +2891,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4733</v>
+        <v>4738</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>4733</v>
+        <v>4734</v>
       </c>
       <c r="E59" t="n">
         <v>620</v>
@@ -2924,7 +2924,7 @@
         <v>1029</v>
       </c>
       <c r="M59" t="n">
-        <v>102131</v>
+        <v>102141</v>
       </c>
     </row>
     <row r="60">
@@ -2967,7 +2967,7 @@
         <v>1063</v>
       </c>
       <c r="M60" t="n">
-        <v>107125</v>
+        <v>107135</v>
       </c>
     </row>
     <row r="61">
@@ -3010,7 +3010,7 @@
         <v>1105</v>
       </c>
       <c r="M61" t="n">
-        <v>112430</v>
+        <v>112440</v>
       </c>
     </row>
     <row r="62">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5471</v>
+        <v>5513</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D62" t="n">
-        <v>5471</v>
+        <v>5473</v>
       </c>
       <c r="E62" t="n">
         <v>794</v>
@@ -3053,7 +3053,7 @@
         <v>1150</v>
       </c>
       <c r="M62" t="n">
-        <v>117901</v>
+        <v>117953</v>
       </c>
     </row>
     <row r="63">
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>6423</v>
+        <v>6428</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>6423</v>
@@ -3096,7 +3096,7 @@
         <v>1185</v>
       </c>
       <c r="M63" t="n">
-        <v>124324</v>
+        <v>124381</v>
       </c>
     </row>
     <row r="64">
@@ -3109,10 +3109,10 @@
         <v>3300</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="E64" t="n">
         <v>635</v>
@@ -3139,7 +3139,7 @@
         <v>1229</v>
       </c>
       <c r="M64" t="n">
-        <v>127624</v>
+        <v>127681</v>
       </c>
     </row>
     <row r="65">
@@ -3182,7 +3182,7 @@
         <v>1261</v>
       </c>
       <c r="M65" t="n">
-        <v>129441</v>
+        <v>129498</v>
       </c>
     </row>
     <row r="66">
@@ -3192,10 +3192,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5605</v>
+        <v>5607</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>5605</v>
@@ -3225,7 +3225,7 @@
         <v>1299</v>
       </c>
       <c r="M66" t="n">
-        <v>135046</v>
+        <v>135105</v>
       </c>
     </row>
     <row r="67">
@@ -3235,10 +3235,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6159</v>
+        <v>6192</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D67" t="n">
         <v>6159</v>
@@ -3268,7 +3268,7 @@
         <v>1336</v>
       </c>
       <c r="M67" t="n">
-        <v>141205</v>
+        <v>141297</v>
       </c>
     </row>
     <row r="68">
@@ -3278,10 +3278,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5641</v>
+        <v>5648</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D68" t="n">
         <v>5641</v>
@@ -3311,7 +3311,7 @@
         <v>1379</v>
       </c>
       <c r="M68" t="n">
-        <v>146846</v>
+        <v>146945</v>
       </c>
     </row>
     <row r="69">
@@ -3321,10 +3321,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6003</v>
+        <v>6005</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>6003</v>
@@ -3354,7 +3354,7 @@
         <v>1413</v>
       </c>
       <c r="M69" t="n">
-        <v>152849</v>
+        <v>152950</v>
       </c>
     </row>
     <row r="70">
@@ -3364,10 +3364,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6248</v>
+        <v>6252</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>6248</v>
@@ -3397,7 +3397,7 @@
         <v>1438</v>
       </c>
       <c r="M70" t="n">
-        <v>159097</v>
+        <v>159202</v>
       </c>
     </row>
     <row r="71">
@@ -3440,7 +3440,7 @@
         <v>1469</v>
       </c>
       <c r="M71" t="n">
-        <v>162334</v>
+        <v>162439</v>
       </c>
     </row>
     <row r="72">
@@ -3483,7 +3483,7 @@
         <v>1503</v>
       </c>
       <c r="M72" t="n">
-        <v>163607</v>
+        <v>163712</v>
       </c>
     </row>
     <row r="73">
@@ -3526,7 +3526,7 @@
         <v>1544</v>
       </c>
       <c r="M73" t="n">
-        <v>170535</v>
+        <v>170640</v>
       </c>
     </row>
     <row r="74">
@@ -3536,13 +3536,13 @@
         </is>
       </c>
       <c r="B74" t="n">
+        <v>6586</v>
+      </c>
+      <c r="C74" t="n">
+        <v>12</v>
+      </c>
+      <c r="D74" t="n">
         <v>6574</v>
-      </c>
-      <c r="C74" t="n">
-        <v>21</v>
-      </c>
-      <c r="D74" t="n">
-        <v>6553</v>
       </c>
       <c r="E74" t="n">
         <v>376</v>
@@ -3569,7 +3569,7 @@
         <v>1582</v>
       </c>
       <c r="M74" t="n">
-        <v>177109</v>
+        <v>177226</v>
       </c>
     </row>
     <row r="75">
@@ -3612,7 +3612,7 @@
         <v>1608</v>
       </c>
       <c r="M75" t="n">
-        <v>184149</v>
+        <v>184266</v>
       </c>
     </row>
     <row r="76">
@@ -3622,10 +3622,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>7750</v>
+        <v>7749</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
         <v>7749</v>
@@ -3655,7 +3655,7 @@
         <v>1649</v>
       </c>
       <c r="M76" t="n">
-        <v>191899</v>
+        <v>192015</v>
       </c>
     </row>
     <row r="77">
@@ -3665,10 +3665,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9204</v>
+        <v>9205</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
         <v>9204</v>
@@ -3698,7 +3698,7 @@
         <v>1681</v>
       </c>
       <c r="M77" t="n">
-        <v>201103</v>
+        <v>201220</v>
       </c>
     </row>
     <row r="78">
@@ -3708,13 +3708,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="E78" t="n">
         <v>496</v>
@@ -3741,7 +3741,7 @@
         <v>1710</v>
       </c>
       <c r="M78" t="n">
-        <v>204198</v>
+        <v>204314</v>
       </c>
     </row>
     <row r="79">
@@ -3754,10 +3754,10 @@
         <v>1882</v>
       </c>
       <c r="C79" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>1875</v>
+        <v>1882</v>
       </c>
       <c r="E79" t="n">
         <v>484</v>
@@ -3784,7 +3784,7 @@
         <v>1739</v>
       </c>
       <c r="M79" t="n">
-        <v>206080</v>
+        <v>206196</v>
       </c>
     </row>
     <row r="80">
@@ -3794,13 +3794,13 @@
         </is>
       </c>
       <c r="B80" t="n">
+        <v>7981</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2</v>
+      </c>
+      <c r="D80" t="n">
         <v>7979</v>
-      </c>
-      <c r="C80" t="n">
-        <v>10</v>
-      </c>
-      <c r="D80" t="n">
-        <v>7969</v>
       </c>
       <c r="E80" t="n">
         <v>456</v>
@@ -3812,22 +3812,22 @@
         <v>456</v>
       </c>
       <c r="H80" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K80" t="n">
         <v>28661</v>
       </c>
       <c r="L80" t="n">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="M80" t="n">
-        <v>214059</v>
+        <v>214177</v>
       </c>
     </row>
     <row r="81">
@@ -3837,13 +3837,13 @@
         </is>
       </c>
       <c r="B81" t="n">
+        <v>6785</v>
+      </c>
+      <c r="C81" t="n">
+        <v>22</v>
+      </c>
+      <c r="D81" t="n">
         <v>6763</v>
-      </c>
-      <c r="C81" t="n">
-        <v>1</v>
-      </c>
-      <c r="D81" t="n">
-        <v>6762</v>
       </c>
       <c r="E81" t="n">
         <v>557</v>
@@ -3867,10 +3867,10 @@
         <v>29218</v>
       </c>
       <c r="L81" t="n">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="M81" t="n">
-        <v>220822</v>
+        <v>220962</v>
       </c>
     </row>
     <row r="82">
@@ -3880,13 +3880,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6195</v>
+        <v>6258</v>
       </c>
       <c r="C82" t="n">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D82" t="n">
-        <v>6188</v>
+        <v>6196</v>
       </c>
       <c r="E82" t="n">
         <v>652</v>
@@ -3910,10 +3910,10 @@
         <v>29870</v>
       </c>
       <c r="L82" t="n">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="M82" t="n">
-        <v>227017</v>
+        <v>227220</v>
       </c>
     </row>
     <row r="83">
@@ -3923,10 +3923,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7093</v>
+        <v>7121</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D83" t="n">
         <v>7093</v>
@@ -3953,10 +3953,10 @@
         <v>30338</v>
       </c>
       <c r="L83" t="n">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="M83" t="n">
-        <v>234110</v>
+        <v>234341</v>
       </c>
     </row>
     <row r="84">
@@ -3966,13 +3966,13 @@
         </is>
       </c>
       <c r="B84" t="n">
+        <v>7774</v>
+      </c>
+      <c r="C84" t="n">
+        <v>15</v>
+      </c>
+      <c r="D84" t="n">
         <v>7759</v>
-      </c>
-      <c r="C84" t="n">
-        <v>2</v>
-      </c>
-      <c r="D84" t="n">
-        <v>7757</v>
       </c>
       <c r="E84" t="n">
         <v>495</v>
@@ -3996,10 +3996,10 @@
         <v>30833</v>
       </c>
       <c r="L84" t="n">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="M84" t="n">
-        <v>241869</v>
+        <v>242115</v>
       </c>
     </row>
     <row r="85">
@@ -4009,13 +4009,13 @@
         </is>
       </c>
       <c r="B85" t="n">
+        <v>2780</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
         <v>2779</v>
-      </c>
-      <c r="C85" t="n">
-        <v>5</v>
-      </c>
-      <c r="D85" t="n">
-        <v>2774</v>
       </c>
       <c r="E85" t="n">
         <v>473</v>
@@ -4039,10 +4039,10 @@
         <v>31306</v>
       </c>
       <c r="L85" t="n">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="M85" t="n">
-        <v>244648</v>
+        <v>244895</v>
       </c>
     </row>
     <row r="86">
@@ -4052,13 +4052,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="C86" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>1778</v>
+        <v>1783</v>
       </c>
       <c r="E86" t="n">
         <v>344</v>
@@ -4070,10 +4070,10 @@
         <v>344</v>
       </c>
       <c r="H86" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
         <v>12</v>
@@ -4082,10 +4082,10 @@
         <v>31650</v>
       </c>
       <c r="L86" t="n">
-        <v>1920</v>
+        <v>1922</v>
       </c>
       <c r="M86" t="n">
-        <v>246432</v>
+        <v>246682</v>
       </c>
     </row>
     <row r="87">
@@ -4095,13 +4095,13 @@
         </is>
       </c>
       <c r="B87" t="n">
+        <v>1696</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
         <v>1695</v>
-      </c>
-      <c r="C87" t="n">
-        <v>15</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1680</v>
       </c>
       <c r="E87" t="n">
         <v>359</v>
@@ -4113,10 +4113,10 @@
         <v>359</v>
       </c>
       <c r="H87" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
         <v>20</v>
@@ -4125,10 +4125,10 @@
         <v>32009</v>
       </c>
       <c r="L87" t="n">
-        <v>1940</v>
+        <v>1943</v>
       </c>
       <c r="M87" t="n">
-        <v>248127</v>
+        <v>248378</v>
       </c>
     </row>
     <row r="88">
@@ -4138,13 +4138,13 @@
         </is>
       </c>
       <c r="B88" t="n">
+        <v>7312</v>
+      </c>
+      <c r="C88" t="n">
+        <v>18</v>
+      </c>
+      <c r="D88" t="n">
         <v>7294</v>
-      </c>
-      <c r="C88" t="n">
-        <v>9</v>
-      </c>
-      <c r="D88" t="n">
-        <v>7285</v>
       </c>
       <c r="E88" t="n">
         <v>351</v>
@@ -4168,10 +4168,10 @@
         <v>32360</v>
       </c>
       <c r="L88" t="n">
-        <v>1958</v>
+        <v>1961</v>
       </c>
       <c r="M88" t="n">
-        <v>255421</v>
+        <v>255690</v>
       </c>
     </row>
     <row r="89">
@@ -4181,22 +4181,22 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>5905</v>
+        <v>5921</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D89" t="n">
         <v>5904</v>
       </c>
       <c r="E89" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H89" t="n">
         <v>14</v>
@@ -4208,13 +4208,13 @@
         <v>14</v>
       </c>
       <c r="K89" t="n">
-        <v>32968</v>
+        <v>32967</v>
       </c>
       <c r="L89" t="n">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="M89" t="n">
-        <v>261326</v>
+        <v>261611</v>
       </c>
     </row>
     <row r="90">
@@ -4224,10 +4224,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>6774</v>
+        <v>6783</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D90" t="n">
         <v>6773</v>
@@ -4242,22 +4242,22 @@
         <v>482</v>
       </c>
       <c r="H90" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J90" t="n">
         <v>14</v>
       </c>
       <c r="K90" t="n">
-        <v>33450</v>
+        <v>33449</v>
       </c>
       <c r="L90" t="n">
-        <v>1986</v>
+        <v>1992</v>
       </c>
       <c r="M90" t="n">
-        <v>268100</v>
+        <v>268394</v>
       </c>
     </row>
     <row r="91">
@@ -4267,13 +4267,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>7380</v>
+        <v>7381</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>7379</v>
+        <v>7378</v>
       </c>
       <c r="E91" t="n">
         <v>599</v>
@@ -4285,22 +4285,22 @@
         <v>599</v>
       </c>
       <c r="H91" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
         <v>18</v>
       </c>
       <c r="K91" t="n">
-        <v>34049</v>
+        <v>34048</v>
       </c>
       <c r="L91" t="n">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="M91" t="n">
-        <v>275480</v>
+        <v>275775</v>
       </c>
     </row>
     <row r="92">
@@ -4313,10 +4313,10 @@
         <v>2755</v>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>2753</v>
+        <v>2755</v>
       </c>
       <c r="E92" t="n">
         <v>367</v>
@@ -4328,22 +4328,22 @@
         <v>367</v>
       </c>
       <c r="H92" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
         <v>16</v>
       </c>
       <c r="K92" t="n">
-        <v>34416</v>
+        <v>34415</v>
       </c>
       <c r="L92" t="n">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="M92" t="n">
-        <v>278235</v>
+        <v>278530</v>
       </c>
     </row>
     <row r="93">
@@ -4356,10 +4356,10 @@
         <v>1769</v>
       </c>
       <c r="C93" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>1760</v>
+        <v>1769</v>
       </c>
       <c r="E93" t="n">
         <v>287</v>
@@ -4371,22 +4371,22 @@
         <v>287</v>
       </c>
       <c r="H93" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
         <v>12</v>
       </c>
       <c r="K93" t="n">
-        <v>34703</v>
+        <v>34702</v>
       </c>
       <c r="L93" t="n">
-        <v>2032</v>
+        <v>2041</v>
       </c>
       <c r="M93" t="n">
-        <v>280004</v>
+        <v>280299</v>
       </c>
     </row>
     <row r="94">
@@ -4396,13 +4396,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>7752</v>
+        <v>7812</v>
       </c>
       <c r="C94" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D94" t="n">
-        <v>7681</v>
+        <v>7749</v>
       </c>
       <c r="E94" t="n">
         <v>417</v>
@@ -4423,13 +4423,13 @@
         <v>18</v>
       </c>
       <c r="K94" t="n">
-        <v>35120</v>
+        <v>35119</v>
       </c>
       <c r="L94" t="n">
-        <v>2050</v>
+        <v>2059</v>
       </c>
       <c r="M94" t="n">
-        <v>287756</v>
+        <v>288111</v>
       </c>
     </row>
     <row r="95">
@@ -4439,40 +4439,40 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>5385</v>
+        <v>5508</v>
       </c>
       <c r="C95" t="n">
-        <v>334</v>
+        <v>126</v>
       </c>
       <c r="D95" t="n">
-        <v>5051</v>
+        <v>5382</v>
       </c>
       <c r="E95" t="n">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H95" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
         <v>14</v>
       </c>
       <c r="K95" t="n">
-        <v>35608</v>
+        <v>35605</v>
       </c>
       <c r="L95" t="n">
-        <v>2064</v>
+        <v>2074</v>
       </c>
       <c r="M95" t="n">
-        <v>293141</v>
+        <v>293619</v>
       </c>
     </row>
     <row r="96">
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>6076</v>
+        <v>6271</v>
       </c>
       <c r="C96" t="n">
-        <v>1853</v>
+        <v>204</v>
       </c>
       <c r="D96" t="n">
-        <v>4223</v>
+        <v>6067</v>
       </c>
       <c r="E96" t="n">
         <v>431</v>
@@ -4509,13 +4509,13 @@
         <v>21</v>
       </c>
       <c r="K96" t="n">
-        <v>36039</v>
+        <v>36036</v>
       </c>
       <c r="L96" t="n">
-        <v>2085</v>
+        <v>2095</v>
       </c>
       <c r="M96" t="n">
-        <v>299217</v>
+        <v>299890</v>
       </c>
     </row>
     <row r="97">
@@ -4525,40 +4525,40 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>4380</v>
+        <v>5524</v>
       </c>
       <c r="C97" t="n">
-        <v>3846</v>
+        <v>1160</v>
       </c>
       <c r="D97" t="n">
-        <v>534</v>
+        <v>4364</v>
       </c>
       <c r="E97" t="n">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H97" t="n">
         <v>19</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K97" t="n">
-        <v>36552</v>
+        <v>36546</v>
       </c>
       <c r="L97" t="n">
-        <v>2104</v>
+        <v>2114</v>
       </c>
       <c r="M97" t="n">
-        <v>303597</v>
+        <v>305414</v>
       </c>
     </row>
     <row r="98">
@@ -4568,40 +4568,40 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>595</v>
+        <v>3739</v>
       </c>
       <c r="C98" t="n">
-        <v>521</v>
+        <v>3152</v>
       </c>
       <c r="D98" t="n">
-        <v>74</v>
+        <v>587</v>
       </c>
       <c r="E98" t="n">
         <v>429</v>
       </c>
       <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>429</v>
+      </c>
+      <c r="H98" t="n">
+        <v>16</v>
+      </c>
+      <c r="I98" t="n">
         <v>1</v>
       </c>
-      <c r="G98" t="n">
-        <v>428</v>
-      </c>
-      <c r="H98" t="n">
+      <c r="J98" t="n">
         <v>15</v>
       </c>
-      <c r="I98" t="n">
-        <v>7</v>
-      </c>
-      <c r="J98" t="n">
-        <v>8</v>
-      </c>
       <c r="K98" t="n">
-        <v>36981</v>
+        <v>36975</v>
       </c>
       <c r="L98" t="n">
-        <v>2119</v>
+        <v>2130</v>
       </c>
       <c r="M98" t="n">
-        <v>304192</v>
+        <v>309153</v>
       </c>
     </row>
     <row r="99">
@@ -4611,40 +4611,83 @@
         </is>
       </c>
       <c r="B99" t="n">
+        <v>326</v>
+      </c>
+      <c r="C99" t="n">
+        <v>255</v>
+      </c>
+      <c r="D99" t="n">
         <v>71</v>
       </c>
-      <c r="C99" t="n">
-        <v>71</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0</v>
-      </c>
       <c r="E99" t="n">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F99" t="n">
-        <v>416</v>
+        <v>4</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="H99" t="n">
+        <v>3</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
         <v>2</v>
       </c>
-      <c r="I99" t="n">
+      <c r="K99" t="n">
+        <v>37383</v>
+      </c>
+      <c r="L99" t="n">
+        <v>2133</v>
+      </c>
+      <c r="M99" t="n">
+        <v>309479</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2020-06-07</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>24</v>
+      </c>
+      <c r="C100" t="n">
+        <v>24</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>240</v>
+      </c>
+      <c r="F100" t="n">
+        <v>240</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
         <v>2</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="n">
-        <v>37397</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2121</v>
-      </c>
-      <c r="M99" t="n">
-        <v>304263</v>
+      <c r="I100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>37623</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2135</v>
+      </c>
+      <c r="M100" t="n">
+        <v>309503</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1174,10 +1174,10 @@
         <v>869</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E19" t="n">
         <v>17</v>
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>1022</v>
@@ -1376,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="M23" t="n">
-        <v>7838</v>
+        <v>7840</v>
       </c>
     </row>
     <row r="24">
@@ -1389,10 +1389,10 @@
         <v>1452</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E24" t="n">
         <v>105</v>
@@ -1419,7 +1419,7 @@
         <v>24</v>
       </c>
       <c r="M24" t="n">
-        <v>9290</v>
+        <v>9292</v>
       </c>
     </row>
     <row r="25">
@@ -1462,7 +1462,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="n">
-        <v>10897</v>
+        <v>10899</v>
       </c>
     </row>
     <row r="26">
@@ -1505,7 +1505,7 @@
         <v>35</v>
       </c>
       <c r="M26" t="n">
-        <v>13220</v>
+        <v>13222</v>
       </c>
     </row>
     <row r="27">
@@ -1548,7 +1548,7 @@
         <v>44</v>
       </c>
       <c r="M27" t="n">
-        <v>15827</v>
+        <v>15829</v>
       </c>
     </row>
     <row r="28">
@@ -1591,7 +1591,7 @@
         <v>47</v>
       </c>
       <c r="M28" t="n">
-        <v>17989</v>
+        <v>17991</v>
       </c>
     </row>
     <row r="29">
@@ -1601,13 +1601,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E29" t="n">
         <v>288</v>
@@ -1634,7 +1634,7 @@
         <v>58</v>
       </c>
       <c r="M29" t="n">
-        <v>19269</v>
+        <v>19270</v>
       </c>
     </row>
     <row r="30">
@@ -1677,7 +1677,7 @@
         <v>76</v>
       </c>
       <c r="M30" t="n">
-        <v>20901</v>
+        <v>20902</v>
       </c>
     </row>
     <row r="31">
@@ -1720,7 +1720,7 @@
         <v>91</v>
       </c>
       <c r="M31" t="n">
-        <v>22861</v>
+        <v>22862</v>
       </c>
     </row>
     <row r="32">
@@ -1763,7 +1763,7 @@
         <v>113</v>
       </c>
       <c r="M32" t="n">
-        <v>25177</v>
+        <v>25178</v>
       </c>
     </row>
     <row r="33">
@@ -1776,10 +1776,10 @@
         <v>2540</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="E33" t="n">
         <v>468</v>
@@ -1806,7 +1806,7 @@
         <v>135</v>
       </c>
       <c r="M33" t="n">
-        <v>27717</v>
+        <v>27718</v>
       </c>
     </row>
     <row r="34">
@@ -1819,10 +1819,10 @@
         <v>2695</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="E34" t="n">
         <v>396</v>
@@ -1849,7 +1849,7 @@
         <v>157</v>
       </c>
       <c r="M34" t="n">
-        <v>30412</v>
+        <v>30413</v>
       </c>
     </row>
     <row r="35">
@@ -1892,7 +1892,7 @@
         <v>189</v>
       </c>
       <c r="M35" t="n">
-        <v>33213</v>
+        <v>33214</v>
       </c>
     </row>
     <row r="36">
@@ -1935,7 +1935,7 @@
         <v>214</v>
       </c>
       <c r="M36" t="n">
-        <v>34849</v>
+        <v>34850</v>
       </c>
     </row>
     <row r="37">
@@ -1948,10 +1948,10 @@
         <v>1095</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E37" t="n">
         <v>527</v>
@@ -1978,7 +1978,7 @@
         <v>248</v>
       </c>
       <c r="M37" t="n">
-        <v>35944</v>
+        <v>35945</v>
       </c>
     </row>
     <row r="38">
@@ -2021,7 +2021,7 @@
         <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>38366</v>
+        <v>38367</v>
       </c>
     </row>
     <row r="39">
@@ -2034,10 +2034,10 @@
         <v>2783</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="E39" t="n">
         <v>422</v>
@@ -2064,7 +2064,7 @@
         <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>41149</v>
+        <v>41150</v>
       </c>
     </row>
     <row r="40">
@@ -2077,10 +2077,10 @@
         <v>3071</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="E40" t="n">
         <v>422</v>
@@ -2107,7 +2107,7 @@
         <v>337</v>
       </c>
       <c r="M40" t="n">
-        <v>44220</v>
+        <v>44221</v>
       </c>
     </row>
     <row r="41">
@@ -2150,7 +2150,7 @@
         <v>374</v>
       </c>
       <c r="M41" t="n">
-        <v>46967</v>
+        <v>46968</v>
       </c>
     </row>
     <row r="42">
@@ -2193,7 +2193,7 @@
         <v>399</v>
       </c>
       <c r="M42" t="n">
-        <v>49695</v>
+        <v>49696</v>
       </c>
     </row>
     <row r="43">
@@ -2236,7 +2236,7 @@
         <v>419</v>
       </c>
       <c r="M43" t="n">
-        <v>51238</v>
+        <v>51239</v>
       </c>
     </row>
     <row r="44">
@@ -2279,7 +2279,7 @@
         <v>448</v>
       </c>
       <c r="M44" t="n">
-        <v>51937</v>
+        <v>51938</v>
       </c>
     </row>
     <row r="45">
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3465</v>
+        <v>3472</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>3463</v>
+        <v>3464</v>
       </c>
       <c r="E45" t="n">
         <v>292</v>
@@ -2322,7 +2322,7 @@
         <v>483</v>
       </c>
       <c r="M45" t="n">
-        <v>55402</v>
+        <v>55410</v>
       </c>
     </row>
     <row r="46">
@@ -2332,10 +2332,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3607</v>
+        <v>3608</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
         <v>3607</v>
@@ -2365,7 +2365,7 @@
         <v>529</v>
       </c>
       <c r="M46" t="n">
-        <v>59009</v>
+        <v>59018</v>
       </c>
     </row>
     <row r="47">
@@ -2408,7 +2408,7 @@
         <v>566</v>
       </c>
       <c r="M47" t="n">
-        <v>62310</v>
+        <v>62319</v>
       </c>
     </row>
     <row r="48">
@@ -2418,13 +2418,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3999</v>
+        <v>3998</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>3999</v>
+        <v>3997</v>
       </c>
       <c r="E48" t="n">
         <v>600</v>
@@ -2451,7 +2451,7 @@
         <v>600</v>
       </c>
       <c r="M48" t="n">
-        <v>66309</v>
+        <v>66317</v>
       </c>
     </row>
     <row r="49">
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4161</v>
+        <v>4160</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>4161</v>
+        <v>4159</v>
       </c>
       <c r="E49" t="n">
         <v>505</v>
@@ -2494,7 +2494,7 @@
         <v>636</v>
       </c>
       <c r="M49" t="n">
-        <v>70470</v>
+        <v>70477</v>
       </c>
     </row>
     <row r="50">
@@ -2504,10 +2504,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>1757</v>
@@ -2537,7 +2537,7 @@
         <v>664</v>
       </c>
       <c r="M50" t="n">
-        <v>72227</v>
+        <v>72236</v>
       </c>
     </row>
     <row r="51">
@@ -2580,7 +2580,7 @@
         <v>700</v>
       </c>
       <c r="M51" t="n">
-        <v>73329</v>
+        <v>73338</v>
       </c>
     </row>
     <row r="52">
@@ -2623,7 +2623,7 @@
         <v>738</v>
       </c>
       <c r="M52" t="n">
-        <v>77677</v>
+        <v>77686</v>
       </c>
     </row>
     <row r="53">
@@ -2666,7 +2666,7 @@
         <v>787</v>
       </c>
       <c r="M53" t="n">
-        <v>81529</v>
+        <v>81538</v>
       </c>
     </row>
     <row r="54">
@@ -2676,10 +2676,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3863</v>
+        <v>3864</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
         <v>3863</v>
@@ -2709,7 +2709,7 @@
         <v>837</v>
       </c>
       <c r="M54" t="n">
-        <v>85392</v>
+        <v>85402</v>
       </c>
     </row>
     <row r="55">
@@ -2752,7 +2752,7 @@
         <v>875</v>
       </c>
       <c r="M55" t="n">
-        <v>89764</v>
+        <v>89774</v>
       </c>
     </row>
     <row r="56">
@@ -2762,13 +2762,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3555</v>
+        <v>3553</v>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>3552</v>
+        <v>3553</v>
       </c>
       <c r="E56" t="n">
         <v>699</v>
@@ -2795,7 +2795,7 @@
         <v>912</v>
       </c>
       <c r="M56" t="n">
-        <v>93319</v>
+        <v>93327</v>
       </c>
     </row>
     <row r="57">
@@ -2805,13 +2805,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2280</v>
+        <v>2283</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="E57" t="n">
         <v>624</v>
@@ -2838,7 +2838,7 @@
         <v>953</v>
       </c>
       <c r="M57" t="n">
-        <v>95599</v>
+        <v>95610</v>
       </c>
     </row>
     <row r="58">
@@ -2881,7 +2881,7 @@
         <v>987</v>
       </c>
       <c r="M58" t="n">
-        <v>97403</v>
+        <v>97414</v>
       </c>
     </row>
     <row r="59">
@@ -2894,10 +2894,10 @@
         <v>4738</v>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>4734</v>
+        <v>4738</v>
       </c>
       <c r="E59" t="n">
         <v>620</v>
@@ -2924,7 +2924,7 @@
         <v>1029</v>
       </c>
       <c r="M59" t="n">
-        <v>102141</v>
+        <v>102152</v>
       </c>
     </row>
     <row r="60">
@@ -2934,10 +2934,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4994</v>
+        <v>4997</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>4994</v>
@@ -2967,7 +2967,7 @@
         <v>1063</v>
       </c>
       <c r="M60" t="n">
-        <v>107135</v>
+        <v>107149</v>
       </c>
     </row>
     <row r="61">
@@ -2977,13 +2977,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>5305</v>
+        <v>5340</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D61" t="n">
-        <v>5305</v>
+        <v>5306</v>
       </c>
       <c r="E61" t="n">
         <v>652</v>
@@ -3010,7 +3010,7 @@
         <v>1105</v>
       </c>
       <c r="M61" t="n">
-        <v>112440</v>
+        <v>112489</v>
       </c>
     </row>
     <row r="62">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5513</v>
+        <v>5579</v>
       </c>
       <c r="C62" t="n">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D62" t="n">
-        <v>5473</v>
+        <v>5518</v>
       </c>
       <c r="E62" t="n">
         <v>794</v>
@@ -3053,7 +3053,7 @@
         <v>1150</v>
       </c>
       <c r="M62" t="n">
-        <v>117953</v>
+        <v>118068</v>
       </c>
     </row>
     <row r="63">
@@ -3063,13 +3063,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>6428</v>
+        <v>6521</v>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="D63" t="n">
-        <v>6423</v>
+        <v>6425</v>
       </c>
       <c r="E63" t="n">
         <v>652</v>
@@ -3096,7 +3096,7 @@
         <v>1185</v>
       </c>
       <c r="M63" t="n">
-        <v>124381</v>
+        <v>124589</v>
       </c>
     </row>
     <row r="64">
@@ -3106,22 +3106,22 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3300</v>
+        <v>3312</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D64" t="n">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="E64" t="n">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H64" t="n">
         <v>44</v>
@@ -3133,13 +3133,13 @@
         <v>44</v>
       </c>
       <c r="K64" t="n">
-        <v>19865</v>
+        <v>19864</v>
       </c>
       <c r="L64" t="n">
         <v>1229</v>
       </c>
       <c r="M64" t="n">
-        <v>127681</v>
+        <v>127901</v>
       </c>
     </row>
     <row r="65">
@@ -3149,10 +3149,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
         <v>1817</v>
@@ -3176,13 +3176,13 @@
         <v>32</v>
       </c>
       <c r="K65" t="n">
-        <v>20434</v>
+        <v>20433</v>
       </c>
       <c r="L65" t="n">
         <v>1261</v>
       </c>
       <c r="M65" t="n">
-        <v>129498</v>
+        <v>129719</v>
       </c>
     </row>
     <row r="66">
@@ -3192,13 +3192,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5607</v>
+        <v>5609</v>
       </c>
       <c r="C66" t="n">
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>5605</v>
+        <v>5607</v>
       </c>
       <c r="E66" t="n">
         <v>525</v>
@@ -3219,13 +3219,13 @@
         <v>38</v>
       </c>
       <c r="K66" t="n">
-        <v>20959</v>
+        <v>20958</v>
       </c>
       <c r="L66" t="n">
         <v>1299</v>
       </c>
       <c r="M66" t="n">
-        <v>135105</v>
+        <v>135328</v>
       </c>
     </row>
     <row r="67">
@@ -3235,22 +3235,22 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6192</v>
+        <v>6195</v>
       </c>
       <c r="C67" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>6159</v>
+        <v>6190</v>
       </c>
       <c r="E67" t="n">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H67" t="n">
         <v>37</v>
@@ -3262,13 +3262,13 @@
         <v>37</v>
       </c>
       <c r="K67" t="n">
-        <v>21796</v>
+        <v>21794</v>
       </c>
       <c r="L67" t="n">
         <v>1336</v>
       </c>
       <c r="M67" t="n">
-        <v>141297</v>
+        <v>141523</v>
       </c>
     </row>
     <row r="68">
@@ -3278,13 +3278,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5648</v>
+        <v>5651</v>
       </c>
       <c r="C68" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>5641</v>
+        <v>5647</v>
       </c>
       <c r="E68" t="n">
         <v>623</v>
@@ -3305,13 +3305,13 @@
         <v>43</v>
       </c>
       <c r="K68" t="n">
-        <v>22419</v>
+        <v>22417</v>
       </c>
       <c r="L68" t="n">
         <v>1379</v>
       </c>
       <c r="M68" t="n">
-        <v>146945</v>
+        <v>147174</v>
       </c>
     </row>
     <row r="69">
@@ -3321,22 +3321,22 @@
         </is>
       </c>
       <c r="B69" t="n">
+        <v>6077</v>
+      </c>
+      <c r="C69" t="n">
+        <v>72</v>
+      </c>
+      <c r="D69" t="n">
         <v>6005</v>
       </c>
-      <c r="C69" t="n">
-        <v>2</v>
-      </c>
-      <c r="D69" t="n">
-        <v>6003</v>
-      </c>
       <c r="E69" t="n">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H69" t="n">
         <v>34</v>
@@ -3348,13 +3348,13 @@
         <v>34</v>
       </c>
       <c r="K69" t="n">
-        <v>23058</v>
+        <v>23055</v>
       </c>
       <c r="L69" t="n">
         <v>1413</v>
       </c>
       <c r="M69" t="n">
-        <v>152950</v>
+        <v>153251</v>
       </c>
     </row>
     <row r="70">
@@ -3364,13 +3364,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6252</v>
+        <v>6254</v>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>6248</v>
+        <v>6251</v>
       </c>
       <c r="E70" t="n">
         <v>591</v>
@@ -3391,13 +3391,13 @@
         <v>25</v>
       </c>
       <c r="K70" t="n">
-        <v>23649</v>
+        <v>23646</v>
       </c>
       <c r="L70" t="n">
         <v>1438</v>
       </c>
       <c r="M70" t="n">
-        <v>159202</v>
+        <v>159505</v>
       </c>
     </row>
     <row r="71">
@@ -3407,10 +3407,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
         <v>3237</v>
@@ -3434,13 +3434,13 @@
         <v>31</v>
       </c>
       <c r="K71" t="n">
-        <v>24037</v>
+        <v>24034</v>
       </c>
       <c r="L71" t="n">
         <v>1469</v>
       </c>
       <c r="M71" t="n">
-        <v>162439</v>
+        <v>162743</v>
       </c>
     </row>
     <row r="72">
@@ -3450,10 +3450,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
         <v>1273</v>
@@ -3477,13 +3477,13 @@
         <v>34</v>
       </c>
       <c r="K72" t="n">
-        <v>24501</v>
+        <v>24498</v>
       </c>
       <c r="L72" t="n">
         <v>1503</v>
       </c>
       <c r="M72" t="n">
-        <v>163712</v>
+        <v>164017</v>
       </c>
     </row>
     <row r="73">
@@ -3493,13 +3493,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6928</v>
+        <v>6929</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>6928</v>
+        <v>6924</v>
       </c>
       <c r="E73" t="n">
         <v>518</v>
@@ -3520,13 +3520,13 @@
         <v>41</v>
       </c>
       <c r="K73" t="n">
-        <v>25019</v>
+        <v>25016</v>
       </c>
       <c r="L73" t="n">
         <v>1544</v>
       </c>
       <c r="M73" t="n">
-        <v>170640</v>
+        <v>170946</v>
       </c>
     </row>
     <row r="74">
@@ -3536,13 +3536,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6586</v>
+        <v>6589</v>
       </c>
       <c r="C74" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D74" t="n">
-        <v>6574</v>
+        <v>6581</v>
       </c>
       <c r="E74" t="n">
         <v>376</v>
@@ -3563,13 +3563,13 @@
         <v>38</v>
       </c>
       <c r="K74" t="n">
-        <v>25395</v>
+        <v>25392</v>
       </c>
       <c r="L74" t="n">
         <v>1582</v>
       </c>
       <c r="M74" t="n">
-        <v>177226</v>
+        <v>177535</v>
       </c>
     </row>
     <row r="75">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>7040</v>
+        <v>7037</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D75" t="n">
-        <v>7040</v>
+        <v>7028</v>
       </c>
       <c r="E75" t="n">
         <v>604</v>
@@ -3606,13 +3606,13 @@
         <v>26</v>
       </c>
       <c r="K75" t="n">
-        <v>25999</v>
+        <v>25996</v>
       </c>
       <c r="L75" t="n">
         <v>1608</v>
       </c>
       <c r="M75" t="n">
-        <v>184266</v>
+        <v>184572</v>
       </c>
     </row>
     <row r="76">
@@ -3622,22 +3622,22 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>7749</v>
+        <v>7796</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D76" t="n">
-        <v>7749</v>
+        <v>7748</v>
       </c>
       <c r="E76" t="n">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H76" t="n">
         <v>41</v>
@@ -3649,13 +3649,13 @@
         <v>41</v>
       </c>
       <c r="K76" t="n">
-        <v>26587</v>
+        <v>26583</v>
       </c>
       <c r="L76" t="n">
         <v>1649</v>
       </c>
       <c r="M76" t="n">
-        <v>192015</v>
+        <v>192368</v>
       </c>
     </row>
     <row r="77">
@@ -3665,13 +3665,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9205</v>
+        <v>9357</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D77" t="n">
-        <v>9204</v>
+        <v>9207</v>
       </c>
       <c r="E77" t="n">
         <v>638</v>
@@ -3692,13 +3692,13 @@
         <v>32</v>
       </c>
       <c r="K77" t="n">
-        <v>27225</v>
+        <v>27221</v>
       </c>
       <c r="L77" t="n">
         <v>1681</v>
       </c>
       <c r="M77" t="n">
-        <v>201220</v>
+        <v>201725</v>
       </c>
     </row>
     <row r="78">
@@ -3708,10 +3708,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3094</v>
+        <v>3099</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>3094</v>
@@ -3735,13 +3735,13 @@
         <v>29</v>
       </c>
       <c r="K78" t="n">
-        <v>27721</v>
+        <v>27717</v>
       </c>
       <c r="L78" t="n">
         <v>1710</v>
       </c>
       <c r="M78" t="n">
-        <v>204314</v>
+        <v>204824</v>
       </c>
     </row>
     <row r="79">
@@ -3778,13 +3778,13 @@
         <v>29</v>
       </c>
       <c r="K79" t="n">
-        <v>28205</v>
+        <v>28201</v>
       </c>
       <c r="L79" t="n">
         <v>1739</v>
       </c>
       <c r="M79" t="n">
-        <v>206196</v>
+        <v>206706</v>
       </c>
     </row>
     <row r="80">
@@ -3794,13 +3794,13 @@
         </is>
       </c>
       <c r="B80" t="n">
+        <v>8129</v>
+      </c>
+      <c r="C80" t="n">
+        <v>148</v>
+      </c>
+      <c r="D80" t="n">
         <v>7981</v>
-      </c>
-      <c r="C80" t="n">
-        <v>2</v>
-      </c>
-      <c r="D80" t="n">
-        <v>7979</v>
       </c>
       <c r="E80" t="n">
         <v>456</v>
@@ -3815,19 +3815,19 @@
         <v>39</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K80" t="n">
-        <v>28661</v>
+        <v>28657</v>
       </c>
       <c r="L80" t="n">
         <v>1778</v>
       </c>
       <c r="M80" t="n">
-        <v>214177</v>
+        <v>214835</v>
       </c>
     </row>
     <row r="81">
@@ -3837,13 +3837,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6785</v>
+        <v>6804</v>
       </c>
       <c r="C81" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D81" t="n">
-        <v>6763</v>
+        <v>6784</v>
       </c>
       <c r="E81" t="n">
         <v>557</v>
@@ -3864,13 +3864,13 @@
         <v>29</v>
       </c>
       <c r="K81" t="n">
-        <v>29218</v>
+        <v>29214</v>
       </c>
       <c r="L81" t="n">
         <v>1807</v>
       </c>
       <c r="M81" t="n">
-        <v>220962</v>
+        <v>221639</v>
       </c>
     </row>
     <row r="82">
@@ -3880,13 +3880,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6258</v>
+        <v>6270</v>
       </c>
       <c r="C82" t="n">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D82" t="n">
-        <v>6196</v>
+        <v>6254</v>
       </c>
       <c r="E82" t="n">
         <v>652</v>
@@ -3907,13 +3907,13 @@
         <v>26</v>
       </c>
       <c r="K82" t="n">
-        <v>29870</v>
+        <v>29866</v>
       </c>
       <c r="L82" t="n">
         <v>1833</v>
       </c>
       <c r="M82" t="n">
-        <v>227220</v>
+        <v>227909</v>
       </c>
     </row>
     <row r="83">
@@ -3923,13 +3923,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7121</v>
+        <v>7149</v>
       </c>
       <c r="C83" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D83" t="n">
-        <v>7093</v>
+        <v>7119</v>
       </c>
       <c r="E83" t="n">
         <v>468</v>
@@ -3950,13 +3950,13 @@
         <v>36</v>
       </c>
       <c r="K83" t="n">
-        <v>30338</v>
+        <v>30334</v>
       </c>
       <c r="L83" t="n">
         <v>1869</v>
       </c>
       <c r="M83" t="n">
-        <v>234341</v>
+        <v>235058</v>
       </c>
     </row>
     <row r="84">
@@ -3966,22 +3966,22 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>7774</v>
+        <v>7841</v>
       </c>
       <c r="C84" t="n">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D84" t="n">
-        <v>7759</v>
+        <v>7764</v>
       </c>
       <c r="E84" t="n">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H84" t="n">
         <v>16</v>
@@ -3993,13 +3993,13 @@
         <v>16</v>
       </c>
       <c r="K84" t="n">
-        <v>30833</v>
+        <v>30827</v>
       </c>
       <c r="L84" t="n">
         <v>1885</v>
       </c>
       <c r="M84" t="n">
-        <v>242115</v>
+        <v>242899</v>
       </c>
     </row>
     <row r="85">
@@ -4009,13 +4009,13 @@
         </is>
       </c>
       <c r="B85" t="n">
+        <v>2792</v>
+      </c>
+      <c r="C85" t="n">
+        <v>12</v>
+      </c>
+      <c r="D85" t="n">
         <v>2780</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1</v>
-      </c>
-      <c r="D85" t="n">
-        <v>2779</v>
       </c>
       <c r="E85" t="n">
         <v>473</v>
@@ -4036,13 +4036,13 @@
         <v>24</v>
       </c>
       <c r="K85" t="n">
-        <v>31306</v>
+        <v>31300</v>
       </c>
       <c r="L85" t="n">
         <v>1909</v>
       </c>
       <c r="M85" t="n">
-        <v>244895</v>
+        <v>245691</v>
       </c>
     </row>
     <row r="86">
@@ -4052,40 +4052,40 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1787</v>
+        <v>1804</v>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D86" t="n">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E86" t="n">
         <v>344</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H86" t="n">
         <v>13</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K86" t="n">
-        <v>31650</v>
+        <v>31644</v>
       </c>
       <c r="L86" t="n">
         <v>1922</v>
       </c>
       <c r="M86" t="n">
-        <v>246682</v>
+        <v>247495</v>
       </c>
     </row>
     <row r="87">
@@ -4095,10 +4095,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1696</v>
+        <v>1716</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D87" t="n">
         <v>1695</v>
@@ -4116,19 +4116,19 @@
         <v>21</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K87" t="n">
-        <v>32009</v>
+        <v>32003</v>
       </c>
       <c r="L87" t="n">
         <v>1943</v>
       </c>
       <c r="M87" t="n">
-        <v>248378</v>
+        <v>249211</v>
       </c>
     </row>
     <row r="88">
@@ -4138,13 +4138,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>7312</v>
+        <v>7390</v>
       </c>
       <c r="C88" t="n">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="D88" t="n">
-        <v>7294</v>
+        <v>7309</v>
       </c>
       <c r="E88" t="n">
         <v>351</v>
@@ -4165,13 +4165,13 @@
         <v>18</v>
       </c>
       <c r="K88" t="n">
-        <v>32360</v>
+        <v>32354</v>
       </c>
       <c r="L88" t="n">
         <v>1961</v>
       </c>
       <c r="M88" t="n">
-        <v>255690</v>
+        <v>256601</v>
       </c>
     </row>
     <row r="89">
@@ -4181,22 +4181,22 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>5921</v>
+        <v>5926</v>
       </c>
       <c r="C89" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" t="n">
-        <v>5904</v>
+        <v>5917</v>
       </c>
       <c r="E89" t="n">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H89" t="n">
         <v>14</v>
@@ -4208,13 +4208,13 @@
         <v>14</v>
       </c>
       <c r="K89" t="n">
-        <v>32967</v>
+        <v>32960</v>
       </c>
       <c r="L89" t="n">
         <v>1975</v>
       </c>
       <c r="M89" t="n">
-        <v>261611</v>
+        <v>262527</v>
       </c>
     </row>
     <row r="90">
@@ -4224,13 +4224,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>6783</v>
+        <v>6807</v>
       </c>
       <c r="C90" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D90" t="n">
-        <v>6773</v>
+        <v>6777</v>
       </c>
       <c r="E90" t="n">
         <v>482</v>
@@ -4245,19 +4245,19 @@
         <v>17</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K90" t="n">
-        <v>33449</v>
+        <v>33442</v>
       </c>
       <c r="L90" t="n">
         <v>1992</v>
       </c>
       <c r="M90" t="n">
-        <v>268394</v>
+        <v>269334</v>
       </c>
     </row>
     <row r="91">
@@ -4267,40 +4267,40 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>7381</v>
+        <v>7380</v>
       </c>
       <c r="C91" t="n">
         <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>7378</v>
+        <v>7377</v>
       </c>
       <c r="E91" t="n">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H91" t="n">
         <v>19</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K91" t="n">
-        <v>34048</v>
+        <v>34040</v>
       </c>
       <c r="L91" t="n">
         <v>2011</v>
       </c>
       <c r="M91" t="n">
-        <v>275775</v>
+        <v>276714</v>
       </c>
     </row>
     <row r="92">
@@ -4310,10 +4310,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2755</v>
+        <v>2760</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>2755</v>
@@ -4331,19 +4331,19 @@
         <v>17</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K92" t="n">
-        <v>34415</v>
+        <v>34407</v>
       </c>
       <c r="L92" t="n">
         <v>2028</v>
       </c>
       <c r="M92" t="n">
-        <v>278530</v>
+        <v>279474</v>
       </c>
     </row>
     <row r="93">
@@ -4353,13 +4353,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1769</v>
+        <v>1774</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D93" t="n">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="E93" t="n">
         <v>287</v>
@@ -4371,22 +4371,22 @@
         <v>287</v>
       </c>
       <c r="H93" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K93" t="n">
-        <v>34702</v>
+        <v>34694</v>
       </c>
       <c r="L93" t="n">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="M93" t="n">
-        <v>280299</v>
+        <v>281248</v>
       </c>
     </row>
     <row r="94">
@@ -4396,13 +4396,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>7812</v>
+        <v>7823</v>
       </c>
       <c r="C94" t="n">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D94" t="n">
-        <v>7749</v>
+        <v>7804</v>
       </c>
       <c r="E94" t="n">
         <v>417</v>
@@ -4423,13 +4423,13 @@
         <v>18</v>
       </c>
       <c r="K94" t="n">
-        <v>35119</v>
+        <v>35111</v>
       </c>
       <c r="L94" t="n">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="M94" t="n">
-        <v>288111</v>
+        <v>289071</v>
       </c>
     </row>
     <row r="95">
@@ -4439,13 +4439,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>5508</v>
+        <v>5552</v>
       </c>
       <c r="C95" t="n">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="D95" t="n">
-        <v>5382</v>
+        <v>5507</v>
       </c>
       <c r="E95" t="n">
         <v>486</v>
@@ -4460,19 +4460,19 @@
         <v>15</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K95" t="n">
-        <v>35605</v>
+        <v>35597</v>
       </c>
       <c r="L95" t="n">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="M95" t="n">
-        <v>293619</v>
+        <v>294623</v>
       </c>
     </row>
     <row r="96">
@@ -4482,22 +4482,22 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>6271</v>
+        <v>6402</v>
       </c>
       <c r="C96" t="n">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="D96" t="n">
-        <v>6067</v>
+        <v>6263</v>
       </c>
       <c r="E96" t="n">
         <v>431</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H96" t="n">
         <v>21</v>
@@ -4509,13 +4509,13 @@
         <v>21</v>
       </c>
       <c r="K96" t="n">
-        <v>36036</v>
+        <v>36028</v>
       </c>
       <c r="L96" t="n">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="M96" t="n">
-        <v>299890</v>
+        <v>301025</v>
       </c>
     </row>
     <row r="97">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>5524</v>
+        <v>6106</v>
       </c>
       <c r="C97" t="n">
-        <v>1160</v>
+        <v>592</v>
       </c>
       <c r="D97" t="n">
-        <v>4364</v>
+        <v>5514</v>
       </c>
       <c r="E97" t="n">
         <v>510</v>
@@ -4543,22 +4543,22 @@
         <v>510</v>
       </c>
       <c r="H97" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
         <v>19</v>
       </c>
       <c r="K97" t="n">
-        <v>36546</v>
+        <v>36538</v>
       </c>
       <c r="L97" t="n">
-        <v>2114</v>
+        <v>2116</v>
       </c>
       <c r="M97" t="n">
-        <v>305414</v>
+        <v>307131</v>
       </c>
     </row>
     <row r="98">
@@ -4568,40 +4568,40 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>3739</v>
+        <v>5981</v>
       </c>
       <c r="C98" t="n">
-        <v>3152</v>
+        <v>2261</v>
       </c>
       <c r="D98" t="n">
-        <v>587</v>
+        <v>3720</v>
       </c>
       <c r="E98" t="n">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H98" t="n">
         <v>16</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K98" t="n">
-        <v>36975</v>
+        <v>36964</v>
       </c>
       <c r="L98" t="n">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c r="M98" t="n">
-        <v>309153</v>
+        <v>313112</v>
       </c>
     </row>
     <row r="99">
@@ -4611,40 +4611,40 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>326</v>
+        <v>1824</v>
       </c>
       <c r="C99" t="n">
-        <v>255</v>
+        <v>1500</v>
       </c>
       <c r="D99" t="n">
-        <v>71</v>
+        <v>324</v>
       </c>
       <c r="E99" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F99" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H99" t="n">
+        <v>6</v>
+      </c>
+      <c r="I99" t="n">
         <v>3</v>
       </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
       <c r="J99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K99" t="n">
-        <v>37383</v>
+        <v>37371</v>
       </c>
       <c r="L99" t="n">
-        <v>2133</v>
+        <v>2138</v>
       </c>
       <c r="M99" t="n">
-        <v>309479</v>
+        <v>314936</v>
       </c>
     </row>
     <row r="100">
@@ -4654,40 +4654,83 @@
         </is>
       </c>
       <c r="B100" t="n">
+        <v>343</v>
+      </c>
+      <c r="C100" t="n">
+        <v>319</v>
+      </c>
+      <c r="D100" t="n">
         <v>24</v>
       </c>
-      <c r="C100" t="n">
-        <v>24</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0</v>
-      </c>
       <c r="E100" t="n">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F100" t="n">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="H100" t="n">
+        <v>12</v>
+      </c>
+      <c r="I100" t="n">
+        <v>10</v>
+      </c>
+      <c r="J100" t="n">
         <v>2</v>
       </c>
-      <c r="I100" t="n">
-        <v>2</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
       <c r="K100" t="n">
-        <v>37623</v>
+        <v>37606</v>
       </c>
       <c r="L100" t="n">
-        <v>2135</v>
+        <v>2150</v>
       </c>
       <c r="M100" t="n">
-        <v>309503</v>
+        <v>315279</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2020-06-08</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>111</v>
+      </c>
+      <c r="C101" t="n">
+        <v>111</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>427</v>
+      </c>
+      <c r="F101" t="n">
+        <v>426</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+      <c r="I101" t="n">
+        <v>8</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>38033</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2158</v>
+      </c>
+      <c r="M101" t="n">
+        <v>315390</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1085,13 +1085,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1118,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="18">
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="19">
@@ -1174,10 +1174,10 @@
         <v>869</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E19" t="n">
         <v>17</v>
@@ -1204,7 +1204,7 @@
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>3301</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="20">
@@ -1247,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>4383</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="21">
@@ -1290,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>6119</v>
+        <v>6118</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1333,7 @@
         <v>14</v>
       </c>
       <c r="M22" t="n">
-        <v>6816</v>
+        <v>6815</v>
       </c>
     </row>
     <row r="23">
@@ -1343,13 +1343,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E23" t="n">
         <v>57</v>
@@ -1376,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="M23" t="n">
-        <v>7840</v>
+        <v>7838</v>
       </c>
     </row>
     <row r="24">
@@ -1389,10 +1389,10 @@
         <v>1452</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="E24" t="n">
         <v>105</v>
@@ -1419,7 +1419,7 @@
         <v>24</v>
       </c>
       <c r="M24" t="n">
-        <v>9292</v>
+        <v>9290</v>
       </c>
     </row>
     <row r="25">
@@ -1462,7 +1462,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="n">
-        <v>10899</v>
+        <v>10897</v>
       </c>
     </row>
     <row r="26">
@@ -1505,7 +1505,7 @@
         <v>35</v>
       </c>
       <c r="M26" t="n">
-        <v>13222</v>
+        <v>13220</v>
       </c>
     </row>
     <row r="27">
@@ -1515,13 +1515,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="E27" t="n">
         <v>303</v>
@@ -1548,7 +1548,7 @@
         <v>44</v>
       </c>
       <c r="M27" t="n">
-        <v>15829</v>
+        <v>15826</v>
       </c>
     </row>
     <row r="28">
@@ -1591,7 +1591,7 @@
         <v>47</v>
       </c>
       <c r="M28" t="n">
-        <v>17991</v>
+        <v>17988</v>
       </c>
     </row>
     <row r="29">
@@ -1634,7 +1634,7 @@
         <v>58</v>
       </c>
       <c r="M29" t="n">
-        <v>19270</v>
+        <v>19267</v>
       </c>
     </row>
     <row r="30">
@@ -1677,7 +1677,7 @@
         <v>76</v>
       </c>
       <c r="M30" t="n">
-        <v>20902</v>
+        <v>20899</v>
       </c>
     </row>
     <row r="31">
@@ -1720,7 +1720,7 @@
         <v>91</v>
       </c>
       <c r="M31" t="n">
-        <v>22862</v>
+        <v>22859</v>
       </c>
     </row>
     <row r="32">
@@ -1763,7 +1763,7 @@
         <v>113</v>
       </c>
       <c r="M32" t="n">
-        <v>25178</v>
+        <v>25175</v>
       </c>
     </row>
     <row r="33">
@@ -1776,10 +1776,10 @@
         <v>2540</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2539</v>
+        <v>2540</v>
       </c>
       <c r="E33" t="n">
         <v>468</v>
@@ -1806,7 +1806,7 @@
         <v>135</v>
       </c>
       <c r="M33" t="n">
-        <v>27718</v>
+        <v>27715</v>
       </c>
     </row>
     <row r="34">
@@ -1849,7 +1849,7 @@
         <v>157</v>
       </c>
       <c r="M34" t="n">
-        <v>30413</v>
+        <v>30410</v>
       </c>
     </row>
     <row r="35">
@@ -1892,7 +1892,7 @@
         <v>189</v>
       </c>
       <c r="M35" t="n">
-        <v>33214</v>
+        <v>33211</v>
       </c>
     </row>
     <row r="36">
@@ -1935,7 +1935,7 @@
         <v>214</v>
       </c>
       <c r="M36" t="n">
-        <v>34850</v>
+        <v>34847</v>
       </c>
     </row>
     <row r="37">
@@ -1948,10 +1948,10 @@
         <v>1095</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E37" t="n">
         <v>527</v>
@@ -1978,7 +1978,7 @@
         <v>248</v>
       </c>
       <c r="M37" t="n">
-        <v>35945</v>
+        <v>35942</v>
       </c>
     </row>
     <row r="38">
@@ -2021,7 +2021,7 @@
         <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>38367</v>
+        <v>38364</v>
       </c>
     </row>
     <row r="39">
@@ -2034,10 +2034,10 @@
         <v>2783</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>2782</v>
+        <v>2783</v>
       </c>
       <c r="E39" t="n">
         <v>422</v>
@@ -2064,7 +2064,7 @@
         <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>41150</v>
+        <v>41147</v>
       </c>
     </row>
     <row r="40">
@@ -2077,10 +2077,10 @@
         <v>3071</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="E40" t="n">
         <v>422</v>
@@ -2107,7 +2107,7 @@
         <v>337</v>
       </c>
       <c r="M40" t="n">
-        <v>44221</v>
+        <v>44218</v>
       </c>
     </row>
     <row r="41">
@@ -2150,7 +2150,7 @@
         <v>374</v>
       </c>
       <c r="M41" t="n">
-        <v>46968</v>
+        <v>46965</v>
       </c>
     </row>
     <row r="42">
@@ -2193,7 +2193,7 @@
         <v>399</v>
       </c>
       <c r="M42" t="n">
-        <v>49696</v>
+        <v>49693</v>
       </c>
     </row>
     <row r="43">
@@ -2236,7 +2236,7 @@
         <v>419</v>
       </c>
       <c r="M43" t="n">
-        <v>51239</v>
+        <v>51236</v>
       </c>
     </row>
     <row r="44">
@@ -2279,7 +2279,7 @@
         <v>448</v>
       </c>
       <c r="M44" t="n">
-        <v>51938</v>
+        <v>51935</v>
       </c>
     </row>
     <row r="45">
@@ -2292,10 +2292,10 @@
         <v>3472</v>
       </c>
       <c r="C45" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>3464</v>
+        <v>3471</v>
       </c>
       <c r="E45" t="n">
         <v>292</v>
@@ -2322,7 +2322,7 @@
         <v>483</v>
       </c>
       <c r="M45" t="n">
-        <v>55410</v>
+        <v>55407</v>
       </c>
     </row>
     <row r="46">
@@ -2332,13 +2332,13 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>3614</v>
+      </c>
+      <c r="C46" t="n">
+        <v>6</v>
+      </c>
+      <c r="D46" t="n">
         <v>3608</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3607</v>
       </c>
       <c r="E46" t="n">
         <v>417</v>
@@ -2365,7 +2365,7 @@
         <v>529</v>
       </c>
       <c r="M46" t="n">
-        <v>59018</v>
+        <v>59021</v>
       </c>
     </row>
     <row r="47">
@@ -2408,7 +2408,7 @@
         <v>566</v>
       </c>
       <c r="M47" t="n">
-        <v>62319</v>
+        <v>62322</v>
       </c>
     </row>
     <row r="48">
@@ -2418,13 +2418,13 @@
         </is>
       </c>
       <c r="B48" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
         <v>3998</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="n">
-        <v>3997</v>
       </c>
       <c r="E48" t="n">
         <v>600</v>
@@ -2451,7 +2451,7 @@
         <v>600</v>
       </c>
       <c r="M48" t="n">
-        <v>66317</v>
+        <v>66322</v>
       </c>
     </row>
     <row r="49">
@@ -2461,10 +2461,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4160</v>
+        <v>4159</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
         <v>4159</v>
@@ -2494,7 +2494,7 @@
         <v>636</v>
       </c>
       <c r="M49" t="n">
-        <v>70477</v>
+        <v>70481</v>
       </c>
     </row>
     <row r="50">
@@ -2507,10 +2507,10 @@
         <v>1759</v>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="E50" t="n">
         <v>557</v>
@@ -2537,7 +2537,7 @@
         <v>664</v>
       </c>
       <c r="M50" t="n">
-        <v>72236</v>
+        <v>72240</v>
       </c>
     </row>
     <row r="51">
@@ -2580,7 +2580,7 @@
         <v>700</v>
       </c>
       <c r="M51" t="n">
-        <v>73338</v>
+        <v>73342</v>
       </c>
     </row>
     <row r="52">
@@ -2623,7 +2623,7 @@
         <v>738</v>
       </c>
       <c r="M52" t="n">
-        <v>77686</v>
+        <v>77690</v>
       </c>
     </row>
     <row r="53">
@@ -2666,7 +2666,7 @@
         <v>787</v>
       </c>
       <c r="M53" t="n">
-        <v>81538</v>
+        <v>81542</v>
       </c>
     </row>
     <row r="54">
@@ -2679,10 +2679,10 @@
         <v>3864</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>3863</v>
+        <v>3864</v>
       </c>
       <c r="E54" t="n">
         <v>605</v>
@@ -2709,7 +2709,7 @@
         <v>837</v>
       </c>
       <c r="M54" t="n">
-        <v>85402</v>
+        <v>85406</v>
       </c>
     </row>
     <row r="55">
@@ -2752,7 +2752,7 @@
         <v>875</v>
       </c>
       <c r="M55" t="n">
-        <v>89774</v>
+        <v>89778</v>
       </c>
     </row>
     <row r="56">
@@ -2795,7 +2795,7 @@
         <v>912</v>
       </c>
       <c r="M56" t="n">
-        <v>93327</v>
+        <v>93331</v>
       </c>
     </row>
     <row r="57">
@@ -2808,10 +2808,10 @@
         <v>2283</v>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>2279</v>
+        <v>2282</v>
       </c>
       <c r="E57" t="n">
         <v>624</v>
@@ -2838,7 +2838,7 @@
         <v>953</v>
       </c>
       <c r="M57" t="n">
-        <v>95610</v>
+        <v>95614</v>
       </c>
     </row>
     <row r="58">
@@ -2881,7 +2881,7 @@
         <v>987</v>
       </c>
       <c r="M58" t="n">
-        <v>97414</v>
+        <v>97418</v>
       </c>
     </row>
     <row r="59">
@@ -2891,13 +2891,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4738</v>
+        <v>4740</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>4738</v>
+        <v>4737</v>
       </c>
       <c r="E59" t="n">
         <v>620</v>
@@ -2924,7 +2924,7 @@
         <v>1029</v>
       </c>
       <c r="M59" t="n">
-        <v>102152</v>
+        <v>102158</v>
       </c>
     </row>
     <row r="60">
@@ -2934,13 +2934,13 @@
         </is>
       </c>
       <c r="B60" t="n">
+        <v>5007</v>
+      </c>
+      <c r="C60" t="n">
+        <v>10</v>
+      </c>
+      <c r="D60" t="n">
         <v>4997</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4994</v>
       </c>
       <c r="E60" t="n">
         <v>595</v>
@@ -2967,7 +2967,7 @@
         <v>1063</v>
       </c>
       <c r="M60" t="n">
-        <v>107149</v>
+        <v>107165</v>
       </c>
     </row>
     <row r="61">
@@ -2977,13 +2977,13 @@
         </is>
       </c>
       <c r="B61" t="n">
+        <v>5348</v>
+      </c>
+      <c r="C61" t="n">
+        <v>8</v>
+      </c>
+      <c r="D61" t="n">
         <v>5340</v>
-      </c>
-      <c r="C61" t="n">
-        <v>34</v>
-      </c>
-      <c r="D61" t="n">
-        <v>5306</v>
       </c>
       <c r="E61" t="n">
         <v>652</v>
@@ -3010,7 +3010,7 @@
         <v>1105</v>
       </c>
       <c r="M61" t="n">
-        <v>112489</v>
+        <v>112513</v>
       </c>
     </row>
     <row r="62">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5579</v>
+        <v>5589</v>
       </c>
       <c r="C62" t="n">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D62" t="n">
-        <v>5518</v>
+        <v>5581</v>
       </c>
       <c r="E62" t="n">
         <v>794</v>
@@ -3053,7 +3053,7 @@
         <v>1150</v>
       </c>
       <c r="M62" t="n">
-        <v>118068</v>
+        <v>118102</v>
       </c>
     </row>
     <row r="63">
@@ -3066,10 +3066,10 @@
         <v>6521</v>
       </c>
       <c r="C63" t="n">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>6425</v>
+        <v>6520</v>
       </c>
       <c r="E63" t="n">
         <v>652</v>
@@ -3096,7 +3096,7 @@
         <v>1185</v>
       </c>
       <c r="M63" t="n">
-        <v>124589</v>
+        <v>124623</v>
       </c>
     </row>
     <row r="64">
@@ -3106,13 +3106,13 @@
         </is>
       </c>
       <c r="B64" t="n">
+        <v>3313</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
         <v>3312</v>
-      </c>
-      <c r="C64" t="n">
-        <v>13</v>
-      </c>
-      <c r="D64" t="n">
-        <v>3299</v>
       </c>
       <c r="E64" t="n">
         <v>634</v>
@@ -3139,7 +3139,7 @@
         <v>1229</v>
       </c>
       <c r="M64" t="n">
-        <v>127901</v>
+        <v>127936</v>
       </c>
     </row>
     <row r="65">
@@ -3152,19 +3152,19 @@
         <v>1818</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="E65" t="n">
         <v>569</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H65" t="n">
         <v>32</v>
@@ -3182,7 +3182,7 @@
         <v>1261</v>
       </c>
       <c r="M65" t="n">
-        <v>129719</v>
+        <v>129754</v>
       </c>
     </row>
     <row r="66">
@@ -3195,10 +3195,10 @@
         <v>5609</v>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>5607</v>
+        <v>5608</v>
       </c>
       <c r="E66" t="n">
         <v>525</v>
@@ -3225,7 +3225,7 @@
         <v>1299</v>
       </c>
       <c r="M66" t="n">
-        <v>135328</v>
+        <v>135363</v>
       </c>
     </row>
     <row r="67">
@@ -3238,10 +3238,10 @@
         <v>6195</v>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>6190</v>
+        <v>6194</v>
       </c>
       <c r="E67" t="n">
         <v>836</v>
@@ -3268,7 +3268,7 @@
         <v>1336</v>
       </c>
       <c r="M67" t="n">
-        <v>141523</v>
+        <v>141558</v>
       </c>
     </row>
     <row r="68">
@@ -3278,13 +3278,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5651</v>
+        <v>5650</v>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>5647</v>
+        <v>5650</v>
       </c>
       <c r="E68" t="n">
         <v>623</v>
@@ -3311,7 +3311,7 @@
         <v>1379</v>
       </c>
       <c r="M68" t="n">
-        <v>147174</v>
+        <v>147208</v>
       </c>
     </row>
     <row r="69">
@@ -3324,10 +3324,10 @@
         <v>6077</v>
       </c>
       <c r="C69" t="n">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>6005</v>
+        <v>6075</v>
       </c>
       <c r="E69" t="n">
         <v>638</v>
@@ -3354,7 +3354,7 @@
         <v>1413</v>
       </c>
       <c r="M69" t="n">
-        <v>153251</v>
+        <v>153285</v>
       </c>
     </row>
     <row r="70">
@@ -3364,13 +3364,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6254</v>
+        <v>6257</v>
       </c>
       <c r="C70" t="n">
         <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>6251</v>
+        <v>6254</v>
       </c>
       <c r="E70" t="n">
         <v>591</v>
@@ -3397,7 +3397,7 @@
         <v>1438</v>
       </c>
       <c r="M70" t="n">
-        <v>159505</v>
+        <v>159542</v>
       </c>
     </row>
     <row r="71">
@@ -3410,10 +3410,10 @@
         <v>3238</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="E71" t="n">
         <v>388</v>
@@ -3440,7 +3440,7 @@
         <v>1469</v>
       </c>
       <c r="M71" t="n">
-        <v>162743</v>
+        <v>162780</v>
       </c>
     </row>
     <row r="72">
@@ -3450,13 +3450,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="E72" t="n">
         <v>464</v>
@@ -3483,7 +3483,7 @@
         <v>1503</v>
       </c>
       <c r="M72" t="n">
-        <v>164017</v>
+        <v>164055</v>
       </c>
     </row>
     <row r="73">
@@ -3493,13 +3493,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6929</v>
+        <v>6926</v>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>6924</v>
+        <v>6925</v>
       </c>
       <c r="E73" t="n">
         <v>518</v>
@@ -3526,7 +3526,7 @@
         <v>1544</v>
       </c>
       <c r="M73" t="n">
-        <v>170946</v>
+        <v>170981</v>
       </c>
     </row>
     <row r="74">
@@ -3536,13 +3536,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6589</v>
+        <v>6592</v>
       </c>
       <c r="C74" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="n">
-        <v>6581</v>
+        <v>6583</v>
       </c>
       <c r="E74" t="n">
         <v>376</v>
@@ -3569,7 +3569,7 @@
         <v>1582</v>
       </c>
       <c r="M74" t="n">
-        <v>177535</v>
+        <v>177573</v>
       </c>
     </row>
     <row r="75">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>7037</v>
+        <v>7033</v>
       </c>
       <c r="C75" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>7028</v>
+        <v>7032</v>
       </c>
       <c r="E75" t="n">
         <v>604</v>
@@ -3612,7 +3612,7 @@
         <v>1608</v>
       </c>
       <c r="M75" t="n">
-        <v>184572</v>
+        <v>184606</v>
       </c>
     </row>
     <row r="76">
@@ -3622,22 +3622,22 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>7796</v>
+        <v>7794</v>
       </c>
       <c r="C76" t="n">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>7748</v>
+        <v>7792</v>
       </c>
       <c r="E76" t="n">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H76" t="n">
         <v>41</v>
@@ -3649,13 +3649,13 @@
         <v>41</v>
       </c>
       <c r="K76" t="n">
-        <v>26583</v>
+        <v>26582</v>
       </c>
       <c r="L76" t="n">
         <v>1649</v>
       </c>
       <c r="M76" t="n">
-        <v>192368</v>
+        <v>192400</v>
       </c>
     </row>
     <row r="77">
@@ -3665,13 +3665,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9357</v>
+        <v>9352</v>
       </c>
       <c r="C77" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="D77" t="n">
-        <v>9207</v>
+        <v>9342</v>
       </c>
       <c r="E77" t="n">
         <v>638</v>
@@ -3692,13 +3692,13 @@
         <v>32</v>
       </c>
       <c r="K77" t="n">
-        <v>27221</v>
+        <v>27220</v>
       </c>
       <c r="L77" t="n">
         <v>1681</v>
       </c>
       <c r="M77" t="n">
-        <v>201725</v>
+        <v>201752</v>
       </c>
     </row>
     <row r="78">
@@ -3711,10 +3711,10 @@
         <v>3099</v>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>3094</v>
+        <v>3098</v>
       </c>
       <c r="E78" t="n">
         <v>496</v>
@@ -3735,13 +3735,13 @@
         <v>29</v>
       </c>
       <c r="K78" t="n">
-        <v>27717</v>
+        <v>27716</v>
       </c>
       <c r="L78" t="n">
         <v>1710</v>
       </c>
       <c r="M78" t="n">
-        <v>204824</v>
+        <v>204851</v>
       </c>
     </row>
     <row r="79">
@@ -3763,10 +3763,10 @@
         <v>484</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H79" t="n">
         <v>29</v>
@@ -3778,13 +3778,13 @@
         <v>29</v>
       </c>
       <c r="K79" t="n">
-        <v>28201</v>
+        <v>28200</v>
       </c>
       <c r="L79" t="n">
         <v>1739</v>
       </c>
       <c r="M79" t="n">
-        <v>206706</v>
+        <v>206733</v>
       </c>
     </row>
     <row r="80">
@@ -3794,22 +3794,22 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>8129</v>
+        <v>8122</v>
       </c>
       <c r="C80" t="n">
-        <v>148</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>7981</v>
+        <v>8119</v>
       </c>
       <c r="E80" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H80" t="n">
         <v>39</v>
@@ -3821,13 +3821,13 @@
         <v>39</v>
       </c>
       <c r="K80" t="n">
-        <v>28657</v>
+        <v>28655</v>
       </c>
       <c r="L80" t="n">
         <v>1778</v>
       </c>
       <c r="M80" t="n">
-        <v>214835</v>
+        <v>214855</v>
       </c>
     </row>
     <row r="81">
@@ -3837,13 +3837,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6804</v>
+        <v>6803</v>
       </c>
       <c r="C81" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>6784</v>
+        <v>6801</v>
       </c>
       <c r="E81" t="n">
         <v>557</v>
@@ -3864,13 +3864,13 @@
         <v>29</v>
       </c>
       <c r="K81" t="n">
-        <v>29214</v>
+        <v>29212</v>
       </c>
       <c r="L81" t="n">
         <v>1807</v>
       </c>
       <c r="M81" t="n">
-        <v>221639</v>
+        <v>221658</v>
       </c>
     </row>
     <row r="82">
@@ -3880,13 +3880,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6270</v>
+        <v>6273</v>
       </c>
       <c r="C82" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>6254</v>
+        <v>6269</v>
       </c>
       <c r="E82" t="n">
         <v>652</v>
@@ -3907,13 +3907,13 @@
         <v>26</v>
       </c>
       <c r="K82" t="n">
-        <v>29866</v>
+        <v>29864</v>
       </c>
       <c r="L82" t="n">
         <v>1833</v>
       </c>
       <c r="M82" t="n">
-        <v>227909</v>
+        <v>227931</v>
       </c>
     </row>
     <row r="83">
@@ -3926,19 +3926,19 @@
         <v>7149</v>
       </c>
       <c r="C83" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>7119</v>
+        <v>7147</v>
       </c>
       <c r="E83" t="n">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H83" t="n">
         <v>36</v>
@@ -3950,13 +3950,13 @@
         <v>36</v>
       </c>
       <c r="K83" t="n">
-        <v>30334</v>
+        <v>30331</v>
       </c>
       <c r="L83" t="n">
         <v>1869</v>
       </c>
       <c r="M83" t="n">
-        <v>235058</v>
+        <v>235080</v>
       </c>
     </row>
     <row r="84">
@@ -3966,13 +3966,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>7841</v>
+        <v>7844</v>
       </c>
       <c r="C84" t="n">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>7764</v>
+        <v>7838</v>
       </c>
       <c r="E84" t="n">
         <v>493</v>
@@ -3993,13 +3993,13 @@
         <v>16</v>
       </c>
       <c r="K84" t="n">
-        <v>30827</v>
+        <v>30824</v>
       </c>
       <c r="L84" t="n">
         <v>1885</v>
       </c>
       <c r="M84" t="n">
-        <v>242899</v>
+        <v>242924</v>
       </c>
     </row>
     <row r="85">
@@ -4009,13 +4009,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2792</v>
+        <v>2795</v>
       </c>
       <c r="C85" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>2780</v>
+        <v>2791</v>
       </c>
       <c r="E85" t="n">
         <v>473</v>
@@ -4036,13 +4036,13 @@
         <v>24</v>
       </c>
       <c r="K85" t="n">
-        <v>31300</v>
+        <v>31297</v>
       </c>
       <c r="L85" t="n">
         <v>1909</v>
       </c>
       <c r="M85" t="n">
-        <v>245691</v>
+        <v>245719</v>
       </c>
     </row>
     <row r="86">
@@ -4052,40 +4052,40 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1804</v>
+        <v>1810</v>
       </c>
       <c r="C86" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D86" t="n">
-        <v>1782</v>
+        <v>1803</v>
       </c>
       <c r="E86" t="n">
         <v>344</v>
       </c>
       <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>344</v>
+      </c>
+      <c r="H86" t="n">
+        <v>14</v>
+      </c>
+      <c r="I86" t="n">
         <v>1</v>
-      </c>
-      <c r="G86" t="n">
-        <v>343</v>
-      </c>
-      <c r="H86" t="n">
-        <v>13</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
       </c>
       <c r="J86" t="n">
         <v>13</v>
       </c>
       <c r="K86" t="n">
-        <v>31644</v>
+        <v>31641</v>
       </c>
       <c r="L86" t="n">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="M86" t="n">
-        <v>247495</v>
+        <v>247529</v>
       </c>
     </row>
     <row r="87">
@@ -4095,13 +4095,13 @@
         </is>
       </c>
       <c r="B87" t="n">
+        <v>1731</v>
+      </c>
+      <c r="C87" t="n">
+        <v>15</v>
+      </c>
+      <c r="D87" t="n">
         <v>1716</v>
-      </c>
-      <c r="C87" t="n">
-        <v>21</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1695</v>
       </c>
       <c r="E87" t="n">
         <v>359</v>
@@ -4122,13 +4122,13 @@
         <v>21</v>
       </c>
       <c r="K87" t="n">
-        <v>32003</v>
+        <v>32000</v>
       </c>
       <c r="L87" t="n">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="M87" t="n">
-        <v>249211</v>
+        <v>249260</v>
       </c>
     </row>
     <row r="88">
@@ -4138,13 +4138,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>7390</v>
+        <v>7437</v>
       </c>
       <c r="C88" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D88" t="n">
-        <v>7309</v>
+        <v>7386</v>
       </c>
       <c r="E88" t="n">
         <v>351</v>
@@ -4165,13 +4165,13 @@
         <v>18</v>
       </c>
       <c r="K88" t="n">
-        <v>32354</v>
+        <v>32351</v>
       </c>
       <c r="L88" t="n">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="M88" t="n">
-        <v>256601</v>
+        <v>256697</v>
       </c>
     </row>
     <row r="89">
@@ -4181,22 +4181,22 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>5926</v>
+        <v>5948</v>
       </c>
       <c r="C89" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D89" t="n">
-        <v>5917</v>
+        <v>5925</v>
       </c>
       <c r="E89" t="n">
         <v>606</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H89" t="n">
         <v>14</v>
@@ -4208,13 +4208,13 @@
         <v>14</v>
       </c>
       <c r="K89" t="n">
-        <v>32960</v>
+        <v>32957</v>
       </c>
       <c r="L89" t="n">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="M89" t="n">
-        <v>262527</v>
+        <v>262645</v>
       </c>
     </row>
     <row r="90">
@@ -4224,22 +4224,22 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>6807</v>
+        <v>6814</v>
       </c>
       <c r="C90" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D90" t="n">
-        <v>6777</v>
+        <v>6805</v>
       </c>
       <c r="E90" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H90" t="n">
         <v>17</v>
@@ -4251,13 +4251,13 @@
         <v>17</v>
       </c>
       <c r="K90" t="n">
-        <v>33442</v>
+        <v>33438</v>
       </c>
       <c r="L90" t="n">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="M90" t="n">
-        <v>269334</v>
+        <v>269459</v>
       </c>
     </row>
     <row r="91">
@@ -4267,22 +4267,22 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>7380</v>
+        <v>7381</v>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D91" t="n">
-        <v>7377</v>
+        <v>7374</v>
       </c>
       <c r="E91" t="n">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="H91" t="n">
         <v>19</v>
@@ -4294,13 +4294,13 @@
         <v>19</v>
       </c>
       <c r="K91" t="n">
-        <v>34040</v>
+        <v>34033</v>
       </c>
       <c r="L91" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="M91" t="n">
-        <v>276714</v>
+        <v>276840</v>
       </c>
     </row>
     <row r="92">
@@ -4310,40 +4310,40 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2760</v>
+        <v>2768</v>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D92" t="n">
-        <v>2755</v>
+        <v>2759</v>
       </c>
       <c r="E92" t="n">
         <v>367</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H92" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J92" t="n">
         <v>17</v>
       </c>
       <c r="K92" t="n">
-        <v>34407</v>
+        <v>34400</v>
       </c>
       <c r="L92" t="n">
-        <v>2028</v>
+        <v>2031</v>
       </c>
       <c r="M92" t="n">
-        <v>279474</v>
+        <v>279608</v>
       </c>
     </row>
     <row r="93">
@@ -4353,13 +4353,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1774</v>
+        <v>1783</v>
       </c>
       <c r="C93" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D93" t="n">
-        <v>1767</v>
+        <v>1773</v>
       </c>
       <c r="E93" t="n">
         <v>287</v>
@@ -4374,19 +4374,19 @@
         <v>14</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K93" t="n">
-        <v>34694</v>
+        <v>34687</v>
       </c>
       <c r="L93" t="n">
-        <v>2042</v>
+        <v>2045</v>
       </c>
       <c r="M93" t="n">
-        <v>281248</v>
+        <v>281391</v>
       </c>
     </row>
     <row r="94">
@@ -4396,22 +4396,22 @@
         </is>
       </c>
       <c r="B94" t="n">
+        <v>7967</v>
+      </c>
+      <c r="C94" t="n">
+        <v>144</v>
+      </c>
+      <c r="D94" t="n">
         <v>7823</v>
       </c>
-      <c r="C94" t="n">
-        <v>19</v>
-      </c>
-      <c r="D94" t="n">
-        <v>7804</v>
-      </c>
       <c r="E94" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H94" t="n">
         <v>18</v>
@@ -4423,13 +4423,13 @@
         <v>18</v>
       </c>
       <c r="K94" t="n">
-        <v>35111</v>
+        <v>35103</v>
       </c>
       <c r="L94" t="n">
-        <v>2060</v>
+        <v>2063</v>
       </c>
       <c r="M94" t="n">
-        <v>289071</v>
+        <v>289358</v>
       </c>
     </row>
     <row r="95">
@@ -4439,22 +4439,22 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>5552</v>
+        <v>5554</v>
       </c>
       <c r="C95" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D95" t="n">
-        <v>5507</v>
+        <v>5546</v>
       </c>
       <c r="E95" t="n">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H95" t="n">
         <v>15</v>
@@ -4466,13 +4466,13 @@
         <v>15</v>
       </c>
       <c r="K95" t="n">
-        <v>35597</v>
+        <v>35588</v>
       </c>
       <c r="L95" t="n">
-        <v>2075</v>
+        <v>2078</v>
       </c>
       <c r="M95" t="n">
-        <v>294623</v>
+        <v>294912</v>
       </c>
     </row>
     <row r="96">
@@ -4482,40 +4482,40 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>6402</v>
+        <v>6510</v>
       </c>
       <c r="C96" t="n">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D96" t="n">
-        <v>6263</v>
+        <v>6384</v>
       </c>
       <c r="E96" t="n">
         <v>431</v>
       </c>
       <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>431</v>
+      </c>
+      <c r="H96" t="n">
+        <v>22</v>
+      </c>
+      <c r="I96" t="n">
         <v>1</v>
-      </c>
-      <c r="G96" t="n">
-        <v>430</v>
-      </c>
-      <c r="H96" t="n">
-        <v>21</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
       </c>
       <c r="J96" t="n">
         <v>21</v>
       </c>
       <c r="K96" t="n">
-        <v>36028</v>
+        <v>36019</v>
       </c>
       <c r="L96" t="n">
-        <v>2096</v>
+        <v>2100</v>
       </c>
       <c r="M96" t="n">
-        <v>301025</v>
+        <v>301422</v>
       </c>
     </row>
     <row r="97">
@@ -4525,40 +4525,40 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6106</v>
+        <v>6678</v>
       </c>
       <c r="C97" t="n">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D97" t="n">
-        <v>5514</v>
+        <v>6089</v>
       </c>
       <c r="E97" t="n">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H97" t="n">
         <v>20</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K97" t="n">
-        <v>36538</v>
+        <v>36525</v>
       </c>
       <c r="L97" t="n">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="M97" t="n">
-        <v>307131</v>
+        <v>308100</v>
       </c>
     </row>
     <row r="98">
@@ -4568,40 +4568,40 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>5981</v>
+        <v>7258</v>
       </c>
       <c r="C98" t="n">
-        <v>2261</v>
+        <v>1300</v>
       </c>
       <c r="D98" t="n">
-        <v>3720</v>
+        <v>5958</v>
       </c>
       <c r="E98" t="n">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H98" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="n">
         <v>16</v>
       </c>
       <c r="K98" t="n">
-        <v>36964</v>
+        <v>36949</v>
       </c>
       <c r="L98" t="n">
-        <v>2132</v>
+        <v>2138</v>
       </c>
       <c r="M98" t="n">
-        <v>313112</v>
+        <v>315358</v>
       </c>
     </row>
     <row r="99">
@@ -4611,40 +4611,40 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1824</v>
+        <v>3003</v>
       </c>
       <c r="C99" t="n">
-        <v>1500</v>
+        <v>1194</v>
       </c>
       <c r="D99" t="n">
-        <v>324</v>
+        <v>1809</v>
       </c>
       <c r="E99" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H99" t="n">
         <v>6</v>
       </c>
       <c r="I99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K99" t="n">
-        <v>37371</v>
+        <v>37355</v>
       </c>
       <c r="L99" t="n">
-        <v>2138</v>
+        <v>2144</v>
       </c>
       <c r="M99" t="n">
-        <v>314936</v>
+        <v>318361</v>
       </c>
     </row>
     <row r="100">
@@ -4654,40 +4654,40 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>343</v>
+        <v>874</v>
       </c>
       <c r="C100" t="n">
-        <v>319</v>
+        <v>533</v>
       </c>
       <c r="D100" t="n">
-        <v>24</v>
+        <v>341</v>
       </c>
       <c r="E100" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F100" t="n">
         <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H100" t="n">
         <v>12</v>
       </c>
       <c r="I100" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K100" t="n">
-        <v>37606</v>
+        <v>37589</v>
       </c>
       <c r="L100" t="n">
-        <v>2150</v>
+        <v>2156</v>
       </c>
       <c r="M100" t="n">
-        <v>315279</v>
+        <v>319235</v>
       </c>
     </row>
     <row r="101">
@@ -4697,40 +4697,83 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>111</v>
+        <v>808</v>
       </c>
       <c r="C101" t="n">
-        <v>111</v>
+        <v>710</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E101" t="n">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="F101" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="G101" t="n">
+        <v>414</v>
+      </c>
+      <c r="H101" t="n">
+        <v>12</v>
+      </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>8</v>
+      </c>
+      <c r="K101" t="n">
+        <v>38006</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2168</v>
+      </c>
+      <c r="M101" t="n">
+        <v>320043</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2020-06-09</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>51</v>
+      </c>
+      <c r="C102" t="n">
+        <v>51</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>331</v>
+      </c>
+      <c r="F102" t="n">
+        <v>330</v>
+      </c>
+      <c r="G102" t="n">
         <v>1</v>
       </c>
-      <c r="H101" t="n">
-        <v>8</v>
-      </c>
-      <c r="I101" t="n">
-        <v>8</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="n">
-        <v>38033</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2158</v>
-      </c>
-      <c r="M101" t="n">
-        <v>315390</v>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+      <c r="I102" t="n">
+        <v>5</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>38337</v>
+      </c>
+      <c r="L102" t="n">
+        <v>2173</v>
+      </c>
+      <c r="M102" t="n">
+        <v>320094</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1515,13 +1515,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="E27" t="n">
         <v>303</v>
@@ -1548,7 +1548,7 @@
         <v>44</v>
       </c>
       <c r="M27" t="n">
-        <v>15826</v>
+        <v>15825</v>
       </c>
     </row>
     <row r="28">
@@ -1561,10 +1561,10 @@
         <v>2162</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="E28" t="n">
         <v>282</v>
@@ -1591,7 +1591,7 @@
         <v>47</v>
       </c>
       <c r="M28" t="n">
-        <v>17988</v>
+        <v>17987</v>
       </c>
     </row>
     <row r="29">
@@ -1634,7 +1634,7 @@
         <v>58</v>
       </c>
       <c r="M29" t="n">
-        <v>19267</v>
+        <v>19266</v>
       </c>
     </row>
     <row r="30">
@@ -1677,7 +1677,7 @@
         <v>76</v>
       </c>
       <c r="M30" t="n">
-        <v>20899</v>
+        <v>20898</v>
       </c>
     </row>
     <row r="31">
@@ -1720,7 +1720,7 @@
         <v>91</v>
       </c>
       <c r="M31" t="n">
-        <v>22859</v>
+        <v>22858</v>
       </c>
     </row>
     <row r="32">
@@ -1763,7 +1763,7 @@
         <v>113</v>
       </c>
       <c r="M32" t="n">
-        <v>25175</v>
+        <v>25174</v>
       </c>
     </row>
     <row r="33">
@@ -1806,7 +1806,7 @@
         <v>135</v>
       </c>
       <c r="M33" t="n">
-        <v>27715</v>
+        <v>27714</v>
       </c>
     </row>
     <row r="34">
@@ -1819,10 +1819,10 @@
         <v>2695</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2694</v>
+        <v>2695</v>
       </c>
       <c r="E34" t="n">
         <v>396</v>
@@ -1849,7 +1849,7 @@
         <v>157</v>
       </c>
       <c r="M34" t="n">
-        <v>30410</v>
+        <v>30409</v>
       </c>
     </row>
     <row r="35">
@@ -1892,7 +1892,7 @@
         <v>189</v>
       </c>
       <c r="M35" t="n">
-        <v>33211</v>
+        <v>33210</v>
       </c>
     </row>
     <row r="36">
@@ -1935,7 +1935,7 @@
         <v>214</v>
       </c>
       <c r="M36" t="n">
-        <v>34847</v>
+        <v>34846</v>
       </c>
     </row>
     <row r="37">
@@ -1978,7 +1978,7 @@
         <v>248</v>
       </c>
       <c r="M37" t="n">
-        <v>35942</v>
+        <v>35941</v>
       </c>
     </row>
     <row r="38">
@@ -2021,7 +2021,7 @@
         <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>38364</v>
+        <v>38363</v>
       </c>
     </row>
     <row r="39">
@@ -2064,7 +2064,7 @@
         <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>41147</v>
+        <v>41146</v>
       </c>
     </row>
     <row r="40">
@@ -2107,7 +2107,7 @@
         <v>337</v>
       </c>
       <c r="M40" t="n">
-        <v>44218</v>
+        <v>44217</v>
       </c>
     </row>
     <row r="41">
@@ -2150,7 +2150,7 @@
         <v>374</v>
       </c>
       <c r="M41" t="n">
-        <v>46965</v>
+        <v>46964</v>
       </c>
     </row>
     <row r="42">
@@ -2193,7 +2193,7 @@
         <v>399</v>
       </c>
       <c r="M42" t="n">
-        <v>49693</v>
+        <v>49692</v>
       </c>
     </row>
     <row r="43">
@@ -2236,7 +2236,7 @@
         <v>419</v>
       </c>
       <c r="M43" t="n">
-        <v>51236</v>
+        <v>51235</v>
       </c>
     </row>
     <row r="44">
@@ -2279,7 +2279,7 @@
         <v>448</v>
       </c>
       <c r="M44" t="n">
-        <v>51935</v>
+        <v>51934</v>
       </c>
     </row>
     <row r="45">
@@ -2292,10 +2292,10 @@
         <v>3472</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>3471</v>
+        <v>3472</v>
       </c>
       <c r="E45" t="n">
         <v>292</v>
@@ -2322,7 +2322,7 @@
         <v>483</v>
       </c>
       <c r="M45" t="n">
-        <v>55407</v>
+        <v>55406</v>
       </c>
     </row>
     <row r="46">
@@ -2335,10 +2335,10 @@
         <v>3614</v>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>3608</v>
+        <v>3614</v>
       </c>
       <c r="E46" t="n">
         <v>417</v>
@@ -2365,7 +2365,7 @@
         <v>529</v>
       </c>
       <c r="M46" t="n">
-        <v>59021</v>
+        <v>59020</v>
       </c>
     </row>
     <row r="47">
@@ -2408,7 +2408,7 @@
         <v>566</v>
       </c>
       <c r="M47" t="n">
-        <v>62322</v>
+        <v>62321</v>
       </c>
     </row>
     <row r="48">
@@ -2421,10 +2421,10 @@
         <v>4000</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>3998</v>
+        <v>4000</v>
       </c>
       <c r="E48" t="n">
         <v>600</v>
@@ -2451,7 +2451,7 @@
         <v>600</v>
       </c>
       <c r="M48" t="n">
-        <v>66322</v>
+        <v>66321</v>
       </c>
     </row>
     <row r="49">
@@ -2461,10 +2461,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4159</v>
+        <v>4172</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D49" t="n">
         <v>4159</v>
@@ -2494,7 +2494,7 @@
         <v>636</v>
       </c>
       <c r="M49" t="n">
-        <v>70481</v>
+        <v>70493</v>
       </c>
     </row>
     <row r="50">
@@ -2537,7 +2537,7 @@
         <v>664</v>
       </c>
       <c r="M50" t="n">
-        <v>72240</v>
+        <v>72252</v>
       </c>
     </row>
     <row r="51">
@@ -2580,7 +2580,7 @@
         <v>700</v>
       </c>
       <c r="M51" t="n">
-        <v>73342</v>
+        <v>73354</v>
       </c>
     </row>
     <row r="52">
@@ -2590,13 +2590,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4348</v>
+        <v>4346</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>4348</v>
+        <v>4346</v>
       </c>
       <c r="E52" t="n">
         <v>385</v>
@@ -2623,7 +2623,7 @@
         <v>738</v>
       </c>
       <c r="M52" t="n">
-        <v>77690</v>
+        <v>77700</v>
       </c>
     </row>
     <row r="53">
@@ -2666,7 +2666,7 @@
         <v>787</v>
       </c>
       <c r="M53" t="n">
-        <v>81542</v>
+        <v>81552</v>
       </c>
     </row>
     <row r="54">
@@ -2709,7 +2709,7 @@
         <v>837</v>
       </c>
       <c r="M54" t="n">
-        <v>85406</v>
+        <v>85416</v>
       </c>
     </row>
     <row r="55">
@@ -2752,7 +2752,7 @@
         <v>875</v>
       </c>
       <c r="M55" t="n">
-        <v>89778</v>
+        <v>89788</v>
       </c>
     </row>
     <row r="56">
@@ -2795,7 +2795,7 @@
         <v>912</v>
       </c>
       <c r="M56" t="n">
-        <v>93331</v>
+        <v>93341</v>
       </c>
     </row>
     <row r="57">
@@ -2808,10 +2808,10 @@
         <v>2283</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="E57" t="n">
         <v>624</v>
@@ -2838,7 +2838,7 @@
         <v>953</v>
       </c>
       <c r="M57" t="n">
-        <v>95614</v>
+        <v>95624</v>
       </c>
     </row>
     <row r="58">
@@ -2881,7 +2881,7 @@
         <v>987</v>
       </c>
       <c r="M58" t="n">
-        <v>97418</v>
+        <v>97428</v>
       </c>
     </row>
     <row r="59">
@@ -2894,10 +2894,10 @@
         <v>4740</v>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>4737</v>
+        <v>4740</v>
       </c>
       <c r="E59" t="n">
         <v>620</v>
@@ -2924,7 +2924,7 @@
         <v>1029</v>
       </c>
       <c r="M59" t="n">
-        <v>102158</v>
+        <v>102168</v>
       </c>
     </row>
     <row r="60">
@@ -2934,13 +2934,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>5007</v>
+        <v>5013</v>
       </c>
       <c r="C60" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>4997</v>
+        <v>5008</v>
       </c>
       <c r="E60" t="n">
         <v>595</v>
@@ -2967,7 +2967,7 @@
         <v>1063</v>
       </c>
       <c r="M60" t="n">
-        <v>107165</v>
+        <v>107181</v>
       </c>
     </row>
     <row r="61">
@@ -2977,13 +2977,13 @@
         </is>
       </c>
       <c r="B61" t="n">
+        <v>5373</v>
+      </c>
+      <c r="C61" t="n">
+        <v>25</v>
+      </c>
+      <c r="D61" t="n">
         <v>5348</v>
-      </c>
-      <c r="C61" t="n">
-        <v>8</v>
-      </c>
-      <c r="D61" t="n">
-        <v>5340</v>
       </c>
       <c r="E61" t="n">
         <v>652</v>
@@ -3010,7 +3010,7 @@
         <v>1105</v>
       </c>
       <c r="M61" t="n">
-        <v>112513</v>
+        <v>112554</v>
       </c>
     </row>
     <row r="62">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5589</v>
+        <v>5624</v>
       </c>
       <c r="C62" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
-        <v>5581</v>
+        <v>5594</v>
       </c>
       <c r="E62" t="n">
         <v>794</v>
@@ -3053,7 +3053,7 @@
         <v>1150</v>
       </c>
       <c r="M62" t="n">
-        <v>118102</v>
+        <v>118178</v>
       </c>
     </row>
     <row r="63">
@@ -3063,13 +3063,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>6521</v>
+        <v>6537</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D63" t="n">
-        <v>6520</v>
+        <v>6523</v>
       </c>
       <c r="E63" t="n">
         <v>652</v>
@@ -3096,7 +3096,7 @@
         <v>1185</v>
       </c>
       <c r="M63" t="n">
-        <v>124623</v>
+        <v>124715</v>
       </c>
     </row>
     <row r="64">
@@ -3106,13 +3106,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3313</v>
+        <v>3318</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D64" t="n">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="E64" t="n">
         <v>634</v>
@@ -3139,7 +3139,7 @@
         <v>1229</v>
       </c>
       <c r="M64" t="n">
-        <v>127936</v>
+        <v>128033</v>
       </c>
     </row>
     <row r="65">
@@ -3149,10 +3149,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
         <v>1818</v>
@@ -3161,10 +3161,10 @@
         <v>569</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H65" t="n">
         <v>32</v>
@@ -3182,7 +3182,7 @@
         <v>1261</v>
       </c>
       <c r="M65" t="n">
-        <v>129754</v>
+        <v>129852</v>
       </c>
     </row>
     <row r="66">
@@ -3192,13 +3192,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5609</v>
+        <v>5608</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>5608</v>
+        <v>5607</v>
       </c>
       <c r="E66" t="n">
         <v>525</v>
@@ -3225,7 +3225,7 @@
         <v>1299</v>
       </c>
       <c r="M66" t="n">
-        <v>135363</v>
+        <v>135460</v>
       </c>
     </row>
     <row r="67">
@@ -3235,13 +3235,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6195</v>
+        <v>6202</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D67" t="n">
-        <v>6194</v>
+        <v>6192</v>
       </c>
       <c r="E67" t="n">
         <v>836</v>
@@ -3268,7 +3268,7 @@
         <v>1336</v>
       </c>
       <c r="M67" t="n">
-        <v>141558</v>
+        <v>141662</v>
       </c>
     </row>
     <row r="68">
@@ -3278,13 +3278,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5650</v>
+        <v>5649</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>5650</v>
+        <v>5648</v>
       </c>
       <c r="E68" t="n">
         <v>623</v>
@@ -3311,7 +3311,7 @@
         <v>1379</v>
       </c>
       <c r="M68" t="n">
-        <v>147208</v>
+        <v>147311</v>
       </c>
     </row>
     <row r="69">
@@ -3321,22 +3321,22 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6077</v>
+        <v>6083</v>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D69" t="n">
         <v>6075</v>
       </c>
       <c r="E69" t="n">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H69" t="n">
         <v>34</v>
@@ -3348,13 +3348,13 @@
         <v>34</v>
       </c>
       <c r="K69" t="n">
-        <v>23055</v>
+        <v>23054</v>
       </c>
       <c r="L69" t="n">
         <v>1413</v>
       </c>
       <c r="M69" t="n">
-        <v>153285</v>
+        <v>153394</v>
       </c>
     </row>
     <row r="70">
@@ -3364,13 +3364,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6257</v>
+        <v>6259</v>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>6254</v>
+        <v>6255</v>
       </c>
       <c r="E70" t="n">
         <v>591</v>
@@ -3391,13 +3391,13 @@
         <v>25</v>
       </c>
       <c r="K70" t="n">
-        <v>23646</v>
+        <v>23645</v>
       </c>
       <c r="L70" t="n">
         <v>1438</v>
       </c>
       <c r="M70" t="n">
-        <v>159542</v>
+        <v>159653</v>
       </c>
     </row>
     <row r="71">
@@ -3407,10 +3407,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3238</v>
+        <v>3239</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
         <v>3238</v>
@@ -3434,13 +3434,13 @@
         <v>31</v>
       </c>
       <c r="K71" t="n">
-        <v>24034</v>
+        <v>24033</v>
       </c>
       <c r="L71" t="n">
         <v>1469</v>
       </c>
       <c r="M71" t="n">
-        <v>162780</v>
+        <v>162892</v>
       </c>
     </row>
     <row r="72">
@@ -3453,10 +3453,10 @@
         <v>1275</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="E72" t="n">
         <v>464</v>
@@ -3477,13 +3477,13 @@
         <v>34</v>
       </c>
       <c r="K72" t="n">
-        <v>24498</v>
+        <v>24497</v>
       </c>
       <c r="L72" t="n">
         <v>1503</v>
       </c>
       <c r="M72" t="n">
-        <v>164055</v>
+        <v>164167</v>
       </c>
     </row>
     <row r="73">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6926</v>
+        <v>6925</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>6925</v>
+        <v>6924</v>
       </c>
       <c r="E73" t="n">
         <v>518</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H73" t="n">
         <v>41</v>
@@ -3520,13 +3520,13 @@
         <v>41</v>
       </c>
       <c r="K73" t="n">
-        <v>25016</v>
+        <v>25015</v>
       </c>
       <c r="L73" t="n">
         <v>1544</v>
       </c>
       <c r="M73" t="n">
-        <v>170981</v>
+        <v>171092</v>
       </c>
     </row>
     <row r="74">
@@ -3536,13 +3536,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6592</v>
+        <v>6597</v>
       </c>
       <c r="C74" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="n">
-        <v>6583</v>
+        <v>6587</v>
       </c>
       <c r="E74" t="n">
         <v>376</v>
@@ -3563,13 +3563,13 @@
         <v>38</v>
       </c>
       <c r="K74" t="n">
-        <v>25392</v>
+        <v>25391</v>
       </c>
       <c r="L74" t="n">
         <v>1582</v>
       </c>
       <c r="M74" t="n">
-        <v>177573</v>
+        <v>177689</v>
       </c>
     </row>
     <row r="75">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>7033</v>
+        <v>7053</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D75" t="n">
-        <v>7032</v>
+        <v>7030</v>
       </c>
       <c r="E75" t="n">
         <v>604</v>
@@ -3606,13 +3606,13 @@
         <v>26</v>
       </c>
       <c r="K75" t="n">
-        <v>25996</v>
+        <v>25995</v>
       </c>
       <c r="L75" t="n">
         <v>1608</v>
       </c>
       <c r="M75" t="n">
-        <v>184606</v>
+        <v>184742</v>
       </c>
     </row>
     <row r="76">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="B76" t="n">
+        <v>7810</v>
+      </c>
+      <c r="C76" t="n">
+        <v>16</v>
+      </c>
+      <c r="D76" t="n">
         <v>7794</v>
-      </c>
-      <c r="C76" t="n">
-        <v>2</v>
-      </c>
-      <c r="D76" t="n">
-        <v>7792</v>
       </c>
       <c r="E76" t="n">
         <v>586</v>
@@ -3649,13 +3649,13 @@
         <v>41</v>
       </c>
       <c r="K76" t="n">
-        <v>26582</v>
+        <v>26581</v>
       </c>
       <c r="L76" t="n">
         <v>1649</v>
       </c>
       <c r="M76" t="n">
-        <v>192400</v>
+        <v>192552</v>
       </c>
     </row>
     <row r="77">
@@ -3665,13 +3665,13 @@
         </is>
       </c>
       <c r="B77" t="n">
+        <v>9374</v>
+      </c>
+      <c r="C77" t="n">
+        <v>22</v>
+      </c>
+      <c r="D77" t="n">
         <v>9352</v>
-      </c>
-      <c r="C77" t="n">
-        <v>10</v>
-      </c>
-      <c r="D77" t="n">
-        <v>9342</v>
       </c>
       <c r="E77" t="n">
         <v>638</v>
@@ -3692,13 +3692,13 @@
         <v>32</v>
       </c>
       <c r="K77" t="n">
-        <v>27220</v>
+        <v>27219</v>
       </c>
       <c r="L77" t="n">
         <v>1681</v>
       </c>
       <c r="M77" t="n">
-        <v>201752</v>
+        <v>201926</v>
       </c>
     </row>
     <row r="78">
@@ -3711,10 +3711,10 @@
         <v>3099</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>3098</v>
+        <v>3099</v>
       </c>
       <c r="E78" t="n">
         <v>496</v>
@@ -3735,13 +3735,13 @@
         <v>29</v>
       </c>
       <c r="K78" t="n">
-        <v>27716</v>
+        <v>27715</v>
       </c>
       <c r="L78" t="n">
         <v>1710</v>
       </c>
       <c r="M78" t="n">
-        <v>204851</v>
+        <v>205025</v>
       </c>
     </row>
     <row r="79">
@@ -3778,13 +3778,13 @@
         <v>29</v>
       </c>
       <c r="K79" t="n">
-        <v>28200</v>
+        <v>28199</v>
       </c>
       <c r="L79" t="n">
         <v>1739</v>
       </c>
       <c r="M79" t="n">
-        <v>206733</v>
+        <v>206907</v>
       </c>
     </row>
     <row r="80">
@@ -3794,13 +3794,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>8122</v>
+        <v>8126</v>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>8119</v>
+        <v>8120</v>
       </c>
       <c r="E80" t="n">
         <v>455</v>
@@ -3821,13 +3821,13 @@
         <v>39</v>
       </c>
       <c r="K80" t="n">
-        <v>28655</v>
+        <v>28654</v>
       </c>
       <c r="L80" t="n">
         <v>1778</v>
       </c>
       <c r="M80" t="n">
-        <v>214855</v>
+        <v>215033</v>
       </c>
     </row>
     <row r="81">
@@ -3837,13 +3837,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6803</v>
+        <v>6817</v>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D81" t="n">
-        <v>6801</v>
+        <v>6800</v>
       </c>
       <c r="E81" t="n">
         <v>557</v>
@@ -3864,13 +3864,13 @@
         <v>29</v>
       </c>
       <c r="K81" t="n">
-        <v>29212</v>
+        <v>29211</v>
       </c>
       <c r="L81" t="n">
         <v>1807</v>
       </c>
       <c r="M81" t="n">
-        <v>221658</v>
+        <v>221850</v>
       </c>
     </row>
     <row r="82">
@@ -3880,13 +3880,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6273</v>
+        <v>6277</v>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>6269</v>
+        <v>6272</v>
       </c>
       <c r="E82" t="n">
         <v>652</v>
@@ -3898,22 +3898,22 @@
         <v>652</v>
       </c>
       <c r="H82" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
         <v>26</v>
       </c>
       <c r="K82" t="n">
-        <v>29864</v>
+        <v>29863</v>
       </c>
       <c r="L82" t="n">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="M82" t="n">
-        <v>227931</v>
+        <v>228127</v>
       </c>
     </row>
     <row r="83">
@@ -3923,13 +3923,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7149</v>
+        <v>7224</v>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="D83" t="n">
-        <v>7147</v>
+        <v>7153</v>
       </c>
       <c r="E83" t="n">
         <v>467</v>
@@ -3950,13 +3950,13 @@
         <v>36</v>
       </c>
       <c r="K83" t="n">
-        <v>30331</v>
+        <v>30330</v>
       </c>
       <c r="L83" t="n">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="M83" t="n">
-        <v>235080</v>
+        <v>235351</v>
       </c>
     </row>
     <row r="84">
@@ -3966,13 +3966,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>7844</v>
+        <v>7943</v>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="D84" t="n">
-        <v>7838</v>
+        <v>7845</v>
       </c>
       <c r="E84" t="n">
         <v>493</v>
@@ -3993,13 +3993,13 @@
         <v>16</v>
       </c>
       <c r="K84" t="n">
-        <v>30824</v>
+        <v>30823</v>
       </c>
       <c r="L84" t="n">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="M84" t="n">
-        <v>242924</v>
+        <v>243294</v>
       </c>
     </row>
     <row r="85">
@@ -4009,13 +4009,13 @@
         </is>
       </c>
       <c r="B85" t="n">
+        <v>2797</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2</v>
+      </c>
+      <c r="D85" t="n">
         <v>2795</v>
-      </c>
-      <c r="C85" t="n">
-        <v>4</v>
-      </c>
-      <c r="D85" t="n">
-        <v>2791</v>
       </c>
       <c r="E85" t="n">
         <v>473</v>
@@ -4036,13 +4036,13 @@
         <v>24</v>
       </c>
       <c r="K85" t="n">
-        <v>31297</v>
+        <v>31296</v>
       </c>
       <c r="L85" t="n">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="M85" t="n">
-        <v>245719</v>
+        <v>246091</v>
       </c>
     </row>
     <row r="86">
@@ -4052,13 +4052,13 @@
         </is>
       </c>
       <c r="B86" t="n">
+        <v>1848</v>
+      </c>
+      <c r="C86" t="n">
+        <v>38</v>
+      </c>
+      <c r="D86" t="n">
         <v>1810</v>
-      </c>
-      <c r="C86" t="n">
-        <v>7</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1803</v>
       </c>
       <c r="E86" t="n">
         <v>344</v>
@@ -4073,19 +4073,19 @@
         <v>14</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K86" t="n">
-        <v>31641</v>
+        <v>31640</v>
       </c>
       <c r="L86" t="n">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="M86" t="n">
-        <v>247529</v>
+        <v>247939</v>
       </c>
     </row>
     <row r="87">
@@ -4095,13 +4095,13 @@
         </is>
       </c>
       <c r="B87" t="n">
+        <v>1736</v>
+      </c>
+      <c r="C87" t="n">
+        <v>5</v>
+      </c>
+      <c r="D87" t="n">
         <v>1731</v>
-      </c>
-      <c r="C87" t="n">
-        <v>15</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1716</v>
       </c>
       <c r="E87" t="n">
         <v>359</v>
@@ -4122,13 +4122,13 @@
         <v>21</v>
       </c>
       <c r="K87" t="n">
-        <v>32000</v>
+        <v>31999</v>
       </c>
       <c r="L87" t="n">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="M87" t="n">
-        <v>249260</v>
+        <v>249675</v>
       </c>
     </row>
     <row r="88">
@@ -4138,22 +4138,22 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>7437</v>
+        <v>7542</v>
       </c>
       <c r="C88" t="n">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="D88" t="n">
-        <v>7386</v>
+        <v>7433</v>
       </c>
       <c r="E88" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H88" t="n">
         <v>18</v>
@@ -4165,13 +4165,13 @@
         <v>18</v>
       </c>
       <c r="K88" t="n">
-        <v>32351</v>
+        <v>32349</v>
       </c>
       <c r="L88" t="n">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="M88" t="n">
-        <v>256697</v>
+        <v>257217</v>
       </c>
     </row>
     <row r="89">
@@ -4181,19 +4181,19 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>5948</v>
+        <v>6027</v>
       </c>
       <c r="C89" t="n">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="D89" t="n">
-        <v>5925</v>
+        <v>5943</v>
       </c>
       <c r="E89" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
         <v>605</v>
@@ -4208,13 +4208,13 @@
         <v>14</v>
       </c>
       <c r="K89" t="n">
-        <v>32957</v>
+        <v>32954</v>
       </c>
       <c r="L89" t="n">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="M89" t="n">
-        <v>262645</v>
+        <v>263244</v>
       </c>
     </row>
     <row r="90">
@@ -4224,13 +4224,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>6814</v>
+        <v>6938</v>
       </c>
       <c r="C90" t="n">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D90" t="n">
-        <v>6805</v>
+        <v>6817</v>
       </c>
       <c r="E90" t="n">
         <v>481</v>
@@ -4251,13 +4251,13 @@
         <v>17</v>
       </c>
       <c r="K90" t="n">
-        <v>33438</v>
+        <v>33435</v>
       </c>
       <c r="L90" t="n">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="M90" t="n">
-        <v>269459</v>
+        <v>270182</v>
       </c>
     </row>
     <row r="91">
@@ -4267,19 +4267,19 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>7381</v>
+        <v>7544</v>
       </c>
       <c r="C91" t="n">
-        <v>7</v>
+        <v>158</v>
       </c>
       <c r="D91" t="n">
-        <v>7374</v>
+        <v>7386</v>
       </c>
       <c r="E91" t="n">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
         <v>594</v>
@@ -4294,13 +4294,13 @@
         <v>19</v>
       </c>
       <c r="K91" t="n">
-        <v>34033</v>
+        <v>34029</v>
       </c>
       <c r="L91" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="M91" t="n">
-        <v>276840</v>
+        <v>277726</v>
       </c>
     </row>
     <row r="92">
@@ -4310,19 +4310,19 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2768</v>
+        <v>2777</v>
       </c>
       <c r="C92" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" t="n">
-        <v>2759</v>
+        <v>2765</v>
       </c>
       <c r="E92" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>366</v>
@@ -4331,19 +4331,19 @@
         <v>19</v>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K92" t="n">
-        <v>34400</v>
+        <v>34395</v>
       </c>
       <c r="L92" t="n">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="M92" t="n">
-        <v>279608</v>
+        <v>280503</v>
       </c>
     </row>
     <row r="93">
@@ -4353,13 +4353,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1783</v>
+        <v>1794</v>
       </c>
       <c r="C93" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D93" t="n">
-        <v>1773</v>
+        <v>1782</v>
       </c>
       <c r="E93" t="n">
         <v>287</v>
@@ -4380,13 +4380,13 @@
         <v>14</v>
       </c>
       <c r="K93" t="n">
-        <v>34687</v>
+        <v>34682</v>
       </c>
       <c r="L93" t="n">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="M93" t="n">
-        <v>281391</v>
+        <v>282297</v>
       </c>
     </row>
     <row r="94">
@@ -4396,13 +4396,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>7967</v>
+        <v>7979</v>
       </c>
       <c r="C94" t="n">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="D94" t="n">
-        <v>7823</v>
+        <v>7957</v>
       </c>
       <c r="E94" t="n">
         <v>416</v>
@@ -4423,13 +4423,13 @@
         <v>18</v>
       </c>
       <c r="K94" t="n">
-        <v>35103</v>
+        <v>35098</v>
       </c>
       <c r="L94" t="n">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="M94" t="n">
-        <v>289358</v>
+        <v>290276</v>
       </c>
     </row>
     <row r="95">
@@ -4439,22 +4439,22 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>5554</v>
+        <v>5552</v>
       </c>
       <c r="C95" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
         <v>5546</v>
       </c>
       <c r="E95" t="n">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H95" t="n">
         <v>15</v>
@@ -4466,13 +4466,13 @@
         <v>15</v>
       </c>
       <c r="K95" t="n">
-        <v>35588</v>
+        <v>35581</v>
       </c>
       <c r="L95" t="n">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="M95" t="n">
-        <v>294912</v>
+        <v>295828</v>
       </c>
     </row>
     <row r="96">
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>6510</v>
+        <v>6507</v>
       </c>
       <c r="C96" t="n">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="D96" t="n">
-        <v>6384</v>
+        <v>6491</v>
       </c>
       <c r="E96" t="n">
         <v>431</v>
@@ -4503,19 +4503,19 @@
         <v>22</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K96" t="n">
-        <v>36019</v>
+        <v>36012</v>
       </c>
       <c r="L96" t="n">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="M96" t="n">
-        <v>301422</v>
+        <v>302335</v>
       </c>
     </row>
     <row r="97">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6678</v>
+        <v>6731</v>
       </c>
       <c r="C97" t="n">
-        <v>589</v>
+        <v>77</v>
       </c>
       <c r="D97" t="n">
-        <v>6089</v>
+        <v>6654</v>
       </c>
       <c r="E97" t="n">
         <v>506</v>
@@ -4552,13 +4552,13 @@
         <v>20</v>
       </c>
       <c r="K97" t="n">
-        <v>36525</v>
+        <v>36518</v>
       </c>
       <c r="L97" t="n">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="M97" t="n">
-        <v>308100</v>
+        <v>309066</v>
       </c>
     </row>
     <row r="98">
@@ -4568,40 +4568,40 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>7258</v>
+        <v>7531</v>
       </c>
       <c r="C98" t="n">
-        <v>1300</v>
+        <v>305</v>
       </c>
       <c r="D98" t="n">
-        <v>5958</v>
+        <v>7226</v>
       </c>
       <c r="E98" t="n">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H98" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I98" t="n">
         <v>2</v>
       </c>
       <c r="J98" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K98" t="n">
-        <v>36949</v>
+        <v>36940</v>
       </c>
       <c r="L98" t="n">
-        <v>2138</v>
+        <v>2141</v>
       </c>
       <c r="M98" t="n">
-        <v>315358</v>
+        <v>316597</v>
       </c>
     </row>
     <row r="99">
@@ -4611,13 +4611,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3003</v>
+        <v>3430</v>
       </c>
       <c r="C99" t="n">
-        <v>1194</v>
+        <v>440</v>
       </c>
       <c r="D99" t="n">
-        <v>1809</v>
+        <v>2990</v>
       </c>
       <c r="E99" t="n">
         <v>406</v>
@@ -4638,13 +4638,13 @@
         <v>6</v>
       </c>
       <c r="K99" t="n">
-        <v>37355</v>
+        <v>37346</v>
       </c>
       <c r="L99" t="n">
-        <v>2144</v>
+        <v>2147</v>
       </c>
       <c r="M99" t="n">
-        <v>318361</v>
+        <v>320027</v>
       </c>
     </row>
     <row r="100">
@@ -4654,40 +4654,40 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>874</v>
+        <v>1561</v>
       </c>
       <c r="C100" t="n">
-        <v>533</v>
+        <v>691</v>
       </c>
       <c r="D100" t="n">
-        <v>341</v>
+        <v>870</v>
       </c>
       <c r="E100" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
         <v>233</v>
       </c>
       <c r="H100" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
         <v>12</v>
       </c>
       <c r="K100" t="n">
-        <v>37589</v>
+        <v>37579</v>
       </c>
       <c r="L100" t="n">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="M100" t="n">
-        <v>319235</v>
+        <v>321588</v>
       </c>
     </row>
     <row r="101">
@@ -4697,40 +4697,40 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>808</v>
+        <v>5147</v>
       </c>
       <c r="C101" t="n">
-        <v>710</v>
+        <v>4348</v>
       </c>
       <c r="D101" t="n">
-        <v>98</v>
+        <v>799</v>
       </c>
       <c r="E101" t="n">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H101" t="n">
+        <v>14</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
         <v>12</v>
       </c>
-      <c r="I101" t="n">
-        <v>4</v>
-      </c>
-      <c r="J101" t="n">
-        <v>8</v>
-      </c>
       <c r="K101" t="n">
-        <v>38006</v>
+        <v>37992</v>
       </c>
       <c r="L101" t="n">
-        <v>2168</v>
+        <v>2174</v>
       </c>
       <c r="M101" t="n">
-        <v>320043</v>
+        <v>326735</v>
       </c>
     </row>
     <row r="102">
@@ -4740,40 +4740,83 @@
         </is>
       </c>
       <c r="B102" t="n">
+        <v>559</v>
+      </c>
+      <c r="C102" t="n">
+        <v>508</v>
+      </c>
+      <c r="D102" t="n">
         <v>51</v>
       </c>
-      <c r="C102" t="n">
-        <v>51</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
       <c r="E102" t="n">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="F102" t="n">
-        <v>330</v>
+        <v>3</v>
       </c>
       <c r="G102" t="n">
+        <v>309</v>
+      </c>
+      <c r="H102" t="n">
+        <v>16</v>
+      </c>
+      <c r="I102" t="n">
+        <v>11</v>
+      </c>
+      <c r="J102" t="n">
+        <v>5</v>
+      </c>
+      <c r="K102" t="n">
+        <v>38304</v>
+      </c>
+      <c r="L102" t="n">
+        <v>2190</v>
+      </c>
+      <c r="M102" t="n">
+        <v>327294</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2020-06-10</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>48</v>
+      </c>
+      <c r="C103" t="n">
+        <v>48</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>444</v>
+      </c>
+      <c r="F103" t="n">
+        <v>443</v>
+      </c>
+      <c r="G103" t="n">
         <v>1</v>
       </c>
-      <c r="H102" t="n">
-        <v>5</v>
-      </c>
-      <c r="I102" t="n">
-        <v>5</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="n">
-        <v>38337</v>
-      </c>
-      <c r="L102" t="n">
-        <v>2173</v>
-      </c>
-      <c r="M102" t="n">
-        <v>320094</v>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+      <c r="I103" t="n">
+        <v>8</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>38748</v>
+      </c>
+      <c r="L103" t="n">
+        <v>2198</v>
+      </c>
+      <c r="M103" t="n">
+        <v>327342</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1561,10 +1561,10 @@
         <v>2162</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="E28" t="n">
         <v>282</v>
@@ -2034,10 +2034,10 @@
         <v>2783</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="E39" t="n">
         <v>422</v>
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="B49" t="n">
+        <v>4177</v>
+      </c>
+      <c r="C49" t="n">
+        <v>5</v>
+      </c>
+      <c r="D49" t="n">
         <v>4172</v>
-      </c>
-      <c r="C49" t="n">
-        <v>13</v>
-      </c>
-      <c r="D49" t="n">
-        <v>4159</v>
       </c>
       <c r="E49" t="n">
         <v>505</v>
@@ -2494,7 +2494,7 @@
         <v>636</v>
       </c>
       <c r="M49" t="n">
-        <v>70493</v>
+        <v>70498</v>
       </c>
     </row>
     <row r="50">
@@ -2537,7 +2537,7 @@
         <v>664</v>
       </c>
       <c r="M50" t="n">
-        <v>72252</v>
+        <v>72257</v>
       </c>
     </row>
     <row r="51">
@@ -2580,7 +2580,7 @@
         <v>700</v>
       </c>
       <c r="M51" t="n">
-        <v>73354</v>
+        <v>73359</v>
       </c>
     </row>
     <row r="52">
@@ -2623,7 +2623,7 @@
         <v>738</v>
       </c>
       <c r="M52" t="n">
-        <v>77700</v>
+        <v>77705</v>
       </c>
     </row>
     <row r="53">
@@ -2666,7 +2666,7 @@
         <v>787</v>
       </c>
       <c r="M53" t="n">
-        <v>81552</v>
+        <v>81557</v>
       </c>
     </row>
     <row r="54">
@@ -2676,10 +2676,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3864</v>
+        <v>3865</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
         <v>3864</v>
@@ -2709,7 +2709,7 @@
         <v>837</v>
       </c>
       <c r="M54" t="n">
-        <v>85416</v>
+        <v>85422</v>
       </c>
     </row>
     <row r="55">
@@ -2719,10 +2719,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4372</v>
+        <v>4374</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>4372</v>
@@ -2752,7 +2752,7 @@
         <v>875</v>
       </c>
       <c r="M55" t="n">
-        <v>89788</v>
+        <v>89796</v>
       </c>
     </row>
     <row r="56">
@@ -2795,7 +2795,7 @@
         <v>912</v>
       </c>
       <c r="M56" t="n">
-        <v>93341</v>
+        <v>93349</v>
       </c>
     </row>
     <row r="57">
@@ -2805,10 +2805,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2283</v>
+        <v>2286</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>2283</v>
@@ -2838,7 +2838,7 @@
         <v>953</v>
       </c>
       <c r="M57" t="n">
-        <v>95624</v>
+        <v>95635</v>
       </c>
     </row>
     <row r="58">
@@ -2881,7 +2881,7 @@
         <v>987</v>
       </c>
       <c r="M58" t="n">
-        <v>97428</v>
+        <v>97439</v>
       </c>
     </row>
     <row r="59">
@@ -2924,7 +2924,7 @@
         <v>1029</v>
       </c>
       <c r="M59" t="n">
-        <v>102168</v>
+        <v>102179</v>
       </c>
     </row>
     <row r="60">
@@ -2934,13 +2934,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>5013</v>
+        <v>5017</v>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>5008</v>
+        <v>5014</v>
       </c>
       <c r="E60" t="n">
         <v>595</v>
@@ -2967,7 +2967,7 @@
         <v>1063</v>
       </c>
       <c r="M60" t="n">
-        <v>107181</v>
+        <v>107196</v>
       </c>
     </row>
     <row r="61">
@@ -2977,13 +2977,13 @@
         </is>
       </c>
       <c r="B61" t="n">
+        <v>5374</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
         <v>5373</v>
-      </c>
-      <c r="C61" t="n">
-        <v>25</v>
-      </c>
-      <c r="D61" t="n">
-        <v>5348</v>
       </c>
       <c r="E61" t="n">
         <v>652</v>
@@ -3010,7 +3010,7 @@
         <v>1105</v>
       </c>
       <c r="M61" t="n">
-        <v>112554</v>
+        <v>112570</v>
       </c>
     </row>
     <row r="62">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5624</v>
+        <v>5799</v>
       </c>
       <c r="C62" t="n">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="D62" t="n">
-        <v>5594</v>
+        <v>5647</v>
       </c>
       <c r="E62" t="n">
         <v>794</v>
@@ -3053,7 +3053,7 @@
         <v>1150</v>
       </c>
       <c r="M62" t="n">
-        <v>118178</v>
+        <v>118369</v>
       </c>
     </row>
     <row r="63">
@@ -3063,13 +3063,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>6537</v>
+        <v>6699</v>
       </c>
       <c r="C63" t="n">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="D63" t="n">
-        <v>6523</v>
+        <v>6536</v>
       </c>
       <c r="E63" t="n">
         <v>652</v>
@@ -3096,7 +3096,7 @@
         <v>1185</v>
       </c>
       <c r="M63" t="n">
-        <v>124715</v>
+        <v>125068</v>
       </c>
     </row>
     <row r="64">
@@ -3106,13 +3106,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3318</v>
+        <v>3281</v>
       </c>
       <c r="C64" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D64" t="n">
-        <v>3311</v>
+        <v>3253</v>
       </c>
       <c r="E64" t="n">
         <v>634</v>
@@ -3139,7 +3139,7 @@
         <v>1229</v>
       </c>
       <c r="M64" t="n">
-        <v>128033</v>
+        <v>128349</v>
       </c>
     </row>
     <row r="65">
@@ -3149,13 +3149,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="E65" t="n">
         <v>569</v>
@@ -3182,7 +3182,7 @@
         <v>1261</v>
       </c>
       <c r="M65" t="n">
-        <v>129852</v>
+        <v>130166</v>
       </c>
     </row>
     <row r="66">
@@ -3195,10 +3195,10 @@
         <v>5608</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>5607</v>
+        <v>5608</v>
       </c>
       <c r="E66" t="n">
         <v>525</v>
@@ -3225,7 +3225,7 @@
         <v>1299</v>
       </c>
       <c r="M66" t="n">
-        <v>135460</v>
+        <v>135774</v>
       </c>
     </row>
     <row r="67">
@@ -3235,13 +3235,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6202</v>
+        <v>6206</v>
       </c>
       <c r="C67" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>6192</v>
+        <v>6201</v>
       </c>
       <c r="E67" t="n">
         <v>836</v>
@@ -3268,7 +3268,7 @@
         <v>1336</v>
       </c>
       <c r="M67" t="n">
-        <v>141662</v>
+        <v>141980</v>
       </c>
     </row>
     <row r="68">
@@ -3278,13 +3278,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5649</v>
+        <v>5652</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>5648</v>
+        <v>5650</v>
       </c>
       <c r="E68" t="n">
         <v>623</v>
@@ -3311,7 +3311,7 @@
         <v>1379</v>
       </c>
       <c r="M68" t="n">
-        <v>147311</v>
+        <v>147632</v>
       </c>
     </row>
     <row r="69">
@@ -3321,13 +3321,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6083</v>
+        <v>6227</v>
       </c>
       <c r="C69" t="n">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="D69" t="n">
-        <v>6075</v>
+        <v>6074</v>
       </c>
       <c r="E69" t="n">
         <v>637</v>
@@ -3354,7 +3354,7 @@
         <v>1413</v>
       </c>
       <c r="M69" t="n">
-        <v>153394</v>
+        <v>153859</v>
       </c>
     </row>
     <row r="70">
@@ -3364,22 +3364,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6259</v>
+        <v>6378</v>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="D70" t="n">
-        <v>6255</v>
+        <v>6263</v>
       </c>
       <c r="E70" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H70" t="n">
         <v>25</v>
@@ -3391,13 +3391,13 @@
         <v>25</v>
       </c>
       <c r="K70" t="n">
-        <v>23645</v>
+        <v>23644</v>
       </c>
       <c r="L70" t="n">
         <v>1438</v>
       </c>
       <c r="M70" t="n">
-        <v>159653</v>
+        <v>160237</v>
       </c>
     </row>
     <row r="71">
@@ -3407,13 +3407,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3239</v>
+        <v>3244</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D71" t="n">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="E71" t="n">
         <v>388</v>
@@ -3425,22 +3425,22 @@
         <v>388</v>
       </c>
       <c r="H71" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
         <v>31</v>
       </c>
       <c r="K71" t="n">
-        <v>24033</v>
+        <v>24032</v>
       </c>
       <c r="L71" t="n">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="M71" t="n">
-        <v>162892</v>
+        <v>163481</v>
       </c>
     </row>
     <row r="72">
@@ -3450,13 +3450,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="E72" t="n">
         <v>464</v>
@@ -3477,13 +3477,13 @@
         <v>34</v>
       </c>
       <c r="K72" t="n">
-        <v>24497</v>
+        <v>24496</v>
       </c>
       <c r="L72" t="n">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="M72" t="n">
-        <v>164167</v>
+        <v>164754</v>
       </c>
     </row>
     <row r="73">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="B73" t="n">
+        <v>6929</v>
+      </c>
+      <c r="C73" t="n">
+        <v>4</v>
+      </c>
+      <c r="D73" t="n">
         <v>6925</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1</v>
-      </c>
-      <c r="D73" t="n">
-        <v>6924</v>
       </c>
       <c r="E73" t="n">
         <v>518</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H73" t="n">
         <v>41</v>
@@ -3520,13 +3520,13 @@
         <v>41</v>
       </c>
       <c r="K73" t="n">
-        <v>25015</v>
+        <v>25014</v>
       </c>
       <c r="L73" t="n">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="M73" t="n">
-        <v>171092</v>
+        <v>171683</v>
       </c>
     </row>
     <row r="74">
@@ -3536,13 +3536,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6597</v>
+        <v>6672</v>
       </c>
       <c r="C74" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D74" t="n">
-        <v>6587</v>
+        <v>6610</v>
       </c>
       <c r="E74" t="n">
         <v>376</v>
@@ -3563,13 +3563,13 @@
         <v>38</v>
       </c>
       <c r="K74" t="n">
-        <v>25391</v>
+        <v>25390</v>
       </c>
       <c r="L74" t="n">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="M74" t="n">
-        <v>177689</v>
+        <v>178355</v>
       </c>
     </row>
     <row r="75">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>7053</v>
+        <v>7089</v>
       </c>
       <c r="C75" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D75" t="n">
-        <v>7030</v>
+        <v>7041</v>
       </c>
       <c r="E75" t="n">
         <v>604</v>
@@ -3606,13 +3606,13 @@
         <v>26</v>
       </c>
       <c r="K75" t="n">
-        <v>25995</v>
+        <v>25994</v>
       </c>
       <c r="L75" t="n">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="M75" t="n">
-        <v>184742</v>
+        <v>185444</v>
       </c>
     </row>
     <row r="76">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>7810</v>
+        <v>8028</v>
       </c>
       <c r="C76" t="n">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="D76" t="n">
-        <v>7794</v>
+        <v>7818</v>
       </c>
       <c r="E76" t="n">
         <v>586</v>
@@ -3640,22 +3640,22 @@
         <v>586</v>
       </c>
       <c r="H76" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
         <v>41</v>
       </c>
       <c r="K76" t="n">
-        <v>26581</v>
+        <v>26580</v>
       </c>
       <c r="L76" t="n">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="M76" t="n">
-        <v>192552</v>
+        <v>193472</v>
       </c>
     </row>
     <row r="77">
@@ -3665,22 +3665,22 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9374</v>
+        <v>9550</v>
       </c>
       <c r="C77" t="n">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="D77" t="n">
-        <v>9352</v>
+        <v>9379</v>
       </c>
       <c r="E77" t="n">
         <v>638</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H77" t="n">
         <v>32</v>
@@ -3692,13 +3692,13 @@
         <v>32</v>
       </c>
       <c r="K77" t="n">
-        <v>27219</v>
+        <v>27218</v>
       </c>
       <c r="L77" t="n">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="M77" t="n">
-        <v>201926</v>
+        <v>203022</v>
       </c>
     </row>
     <row r="78">
@@ -3708,13 +3708,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3099</v>
+        <v>3097</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>3099</v>
+        <v>3097</v>
       </c>
       <c r="E78" t="n">
         <v>496</v>
@@ -3735,13 +3735,13 @@
         <v>29</v>
       </c>
       <c r="K78" t="n">
-        <v>27715</v>
+        <v>27714</v>
       </c>
       <c r="L78" t="n">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="M78" t="n">
-        <v>205025</v>
+        <v>206119</v>
       </c>
     </row>
     <row r="79">
@@ -3751,22 +3751,22 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="E79" t="n">
         <v>484</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H79" t="n">
         <v>29</v>
@@ -3778,13 +3778,13 @@
         <v>29</v>
       </c>
       <c r="K79" t="n">
-        <v>28199</v>
+        <v>28198</v>
       </c>
       <c r="L79" t="n">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="M79" t="n">
-        <v>206907</v>
+        <v>208000</v>
       </c>
     </row>
     <row r="80">
@@ -3794,13 +3794,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>8126</v>
+        <v>8129</v>
       </c>
       <c r="C80" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>8120</v>
+        <v>8125</v>
       </c>
       <c r="E80" t="n">
         <v>455</v>
@@ -3821,13 +3821,13 @@
         <v>39</v>
       </c>
       <c r="K80" t="n">
-        <v>28654</v>
+        <v>28653</v>
       </c>
       <c r="L80" t="n">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="M80" t="n">
-        <v>215033</v>
+        <v>216129</v>
       </c>
     </row>
     <row r="81">
@@ -3837,13 +3837,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6817</v>
+        <v>6957</v>
       </c>
       <c r="C81" t="n">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="D81" t="n">
-        <v>6800</v>
+        <v>6819</v>
       </c>
       <c r="E81" t="n">
         <v>557</v>
@@ -3864,13 +3864,13 @@
         <v>29</v>
       </c>
       <c r="K81" t="n">
-        <v>29211</v>
+        <v>29210</v>
       </c>
       <c r="L81" t="n">
-        <v>1807</v>
+        <v>1809</v>
       </c>
       <c r="M81" t="n">
-        <v>221850</v>
+        <v>223086</v>
       </c>
     </row>
     <row r="82">
@@ -3880,13 +3880,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6277</v>
+        <v>6476</v>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>192</v>
       </c>
       <c r="D82" t="n">
-        <v>6272</v>
+        <v>6284</v>
       </c>
       <c r="E82" t="n">
         <v>652</v>
@@ -3898,22 +3898,22 @@
         <v>652</v>
       </c>
       <c r="H82" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K82" t="n">
-        <v>29863</v>
+        <v>29862</v>
       </c>
       <c r="L82" t="n">
-        <v>1834</v>
+        <v>1837</v>
       </c>
       <c r="M82" t="n">
-        <v>228127</v>
+        <v>229562</v>
       </c>
     </row>
     <row r="83">
@@ -3923,13 +3923,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7224</v>
+        <v>7364</v>
       </c>
       <c r="C83" t="n">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="D83" t="n">
-        <v>7153</v>
+        <v>7220</v>
       </c>
       <c r="E83" t="n">
         <v>467</v>
@@ -3950,13 +3950,13 @@
         <v>36</v>
       </c>
       <c r="K83" t="n">
-        <v>30330</v>
+        <v>30329</v>
       </c>
       <c r="L83" t="n">
-        <v>1870</v>
+        <v>1873</v>
       </c>
       <c r="M83" t="n">
-        <v>235351</v>
+        <v>236926</v>
       </c>
     </row>
     <row r="84">
@@ -3966,13 +3966,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>7943</v>
+        <v>8139</v>
       </c>
       <c r="C84" t="n">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="D84" t="n">
-        <v>7845</v>
+        <v>7945</v>
       </c>
       <c r="E84" t="n">
         <v>493</v>
@@ -3993,13 +3993,13 @@
         <v>16</v>
       </c>
       <c r="K84" t="n">
-        <v>30823</v>
+        <v>30822</v>
       </c>
       <c r="L84" t="n">
-        <v>1886</v>
+        <v>1889</v>
       </c>
       <c r="M84" t="n">
-        <v>243294</v>
+        <v>245065</v>
       </c>
     </row>
     <row r="85">
@@ -4009,10 +4009,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2797</v>
+        <v>2799</v>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>2795</v>
@@ -4036,13 +4036,13 @@
         <v>24</v>
       </c>
       <c r="K85" t="n">
-        <v>31296</v>
+        <v>31295</v>
       </c>
       <c r="L85" t="n">
-        <v>1910</v>
+        <v>1913</v>
       </c>
       <c r="M85" t="n">
-        <v>246091</v>
+        <v>247864</v>
       </c>
     </row>
     <row r="86">
@@ -4052,13 +4052,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="C86" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1810</v>
+        <v>1846</v>
       </c>
       <c r="E86" t="n">
         <v>344</v>
@@ -4079,13 +4079,13 @@
         <v>14</v>
       </c>
       <c r="K86" t="n">
-        <v>31640</v>
+        <v>31639</v>
       </c>
       <c r="L86" t="n">
-        <v>1924</v>
+        <v>1927</v>
       </c>
       <c r="M86" t="n">
-        <v>247939</v>
+        <v>249710</v>
       </c>
     </row>
     <row r="87">
@@ -4098,10 +4098,10 @@
         <v>1736</v>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>1731</v>
+        <v>1736</v>
       </c>
       <c r="E87" t="n">
         <v>359</v>
@@ -4122,13 +4122,13 @@
         <v>21</v>
       </c>
       <c r="K87" t="n">
-        <v>31999</v>
+        <v>31998</v>
       </c>
       <c r="L87" t="n">
-        <v>1945</v>
+        <v>1948</v>
       </c>
       <c r="M87" t="n">
-        <v>249675</v>
+        <v>251446</v>
       </c>
     </row>
     <row r="88">
@@ -4138,13 +4138,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>7542</v>
+        <v>7583</v>
       </c>
       <c r="C88" t="n">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="D88" t="n">
-        <v>7433</v>
+        <v>7533</v>
       </c>
       <c r="E88" t="n">
         <v>350</v>
@@ -4165,13 +4165,13 @@
         <v>18</v>
       </c>
       <c r="K88" t="n">
-        <v>32349</v>
+        <v>32348</v>
       </c>
       <c r="L88" t="n">
-        <v>1963</v>
+        <v>1966</v>
       </c>
       <c r="M88" t="n">
-        <v>257217</v>
+        <v>259029</v>
       </c>
     </row>
     <row r="89">
@@ -4181,13 +4181,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>6027</v>
+        <v>6075</v>
       </c>
       <c r="C89" t="n">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D89" t="n">
-        <v>5943</v>
+        <v>6022</v>
       </c>
       <c r="E89" t="n">
         <v>605</v>
@@ -4208,13 +4208,13 @@
         <v>14</v>
       </c>
       <c r="K89" t="n">
-        <v>32954</v>
+        <v>32953</v>
       </c>
       <c r="L89" t="n">
-        <v>1977</v>
+        <v>1980</v>
       </c>
       <c r="M89" t="n">
-        <v>263244</v>
+        <v>265104</v>
       </c>
     </row>
     <row r="90">
@@ -4224,13 +4224,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>6938</v>
+        <v>6949</v>
       </c>
       <c r="C90" t="n">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="D90" t="n">
-        <v>6817</v>
+        <v>6934</v>
       </c>
       <c r="E90" t="n">
         <v>481</v>
@@ -4251,13 +4251,13 @@
         <v>17</v>
       </c>
       <c r="K90" t="n">
-        <v>33435</v>
+        <v>33434</v>
       </c>
       <c r="L90" t="n">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="M90" t="n">
-        <v>270182</v>
+        <v>272053</v>
       </c>
     </row>
     <row r="91">
@@ -4267,22 +4267,22 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>7544</v>
+        <v>7623</v>
       </c>
       <c r="C91" t="n">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="D91" t="n">
-        <v>7386</v>
+        <v>7533</v>
       </c>
       <c r="E91" t="n">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="H91" t="n">
         <v>19</v>
@@ -4294,13 +4294,13 @@
         <v>19</v>
       </c>
       <c r="K91" t="n">
-        <v>34029</v>
+        <v>34025</v>
       </c>
       <c r="L91" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="M91" t="n">
-        <v>277726</v>
+        <v>279676</v>
       </c>
     </row>
     <row r="92">
@@ -4310,22 +4310,22 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2777</v>
+        <v>2791</v>
       </c>
       <c r="C92" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D92" t="n">
-        <v>2765</v>
+        <v>2775</v>
       </c>
       <c r="E92" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H92" t="n">
         <v>19</v>
@@ -4337,13 +4337,13 @@
         <v>19</v>
       </c>
       <c r="K92" t="n">
-        <v>34395</v>
+        <v>34390</v>
       </c>
       <c r="L92" t="n">
-        <v>2032</v>
+        <v>2035</v>
       </c>
       <c r="M92" t="n">
-        <v>280503</v>
+        <v>282467</v>
       </c>
     </row>
     <row r="93">
@@ -4353,13 +4353,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1794</v>
+        <v>1800</v>
       </c>
       <c r="C93" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D93" t="n">
-        <v>1782</v>
+        <v>1792</v>
       </c>
       <c r="E93" t="n">
         <v>287</v>
@@ -4380,13 +4380,13 @@
         <v>14</v>
       </c>
       <c r="K93" t="n">
-        <v>34682</v>
+        <v>34677</v>
       </c>
       <c r="L93" t="n">
-        <v>2046</v>
+        <v>2049</v>
       </c>
       <c r="M93" t="n">
-        <v>282297</v>
+        <v>284267</v>
       </c>
     </row>
     <row r="94">
@@ -4396,13 +4396,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>7979</v>
+        <v>8000</v>
       </c>
       <c r="C94" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D94" t="n">
-        <v>7957</v>
+        <v>7965</v>
       </c>
       <c r="E94" t="n">
         <v>416</v>
@@ -4423,13 +4423,13 @@
         <v>18</v>
       </c>
       <c r="K94" t="n">
-        <v>35098</v>
+        <v>35093</v>
       </c>
       <c r="L94" t="n">
-        <v>2064</v>
+        <v>2067</v>
       </c>
       <c r="M94" t="n">
-        <v>290276</v>
+        <v>292267</v>
       </c>
     </row>
     <row r="95">
@@ -4439,22 +4439,22 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>5552</v>
+        <v>5566</v>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D95" t="n">
-        <v>5546</v>
+        <v>5543</v>
       </c>
       <c r="E95" t="n">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H95" t="n">
         <v>15</v>
@@ -4466,13 +4466,13 @@
         <v>15</v>
       </c>
       <c r="K95" t="n">
-        <v>35581</v>
+        <v>35574</v>
       </c>
       <c r="L95" t="n">
-        <v>2079</v>
+        <v>2082</v>
       </c>
       <c r="M95" t="n">
-        <v>295828</v>
+        <v>297833</v>
       </c>
     </row>
     <row r="96">
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>6507</v>
+        <v>6575</v>
       </c>
       <c r="C96" t="n">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D96" t="n">
-        <v>6491</v>
+        <v>6501</v>
       </c>
       <c r="E96" t="n">
         <v>431</v>
@@ -4509,13 +4509,13 @@
         <v>22</v>
       </c>
       <c r="K96" t="n">
-        <v>36012</v>
+        <v>36005</v>
       </c>
       <c r="L96" t="n">
-        <v>2101</v>
+        <v>2104</v>
       </c>
       <c r="M96" t="n">
-        <v>302335</v>
+        <v>304408</v>
       </c>
     </row>
     <row r="97">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6731</v>
+        <v>6775</v>
       </c>
       <c r="C97" t="n">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D97" t="n">
-        <v>6654</v>
+        <v>6729</v>
       </c>
       <c r="E97" t="n">
         <v>506</v>
@@ -4543,22 +4543,22 @@
         <v>506</v>
       </c>
       <c r="H97" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
         <v>20</v>
       </c>
       <c r="K97" t="n">
-        <v>36518</v>
+        <v>36511</v>
       </c>
       <c r="L97" t="n">
-        <v>2121</v>
+        <v>2125</v>
       </c>
       <c r="M97" t="n">
-        <v>309066</v>
+        <v>311183</v>
       </c>
     </row>
     <row r="98">
@@ -4568,13 +4568,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>7531</v>
+        <v>7637</v>
       </c>
       <c r="C98" t="n">
-        <v>305</v>
+        <v>118</v>
       </c>
       <c r="D98" t="n">
-        <v>7226</v>
+        <v>7519</v>
       </c>
       <c r="E98" t="n">
         <v>422</v>
@@ -4589,19 +4589,19 @@
         <v>20</v>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K98" t="n">
-        <v>36940</v>
+        <v>36933</v>
       </c>
       <c r="L98" t="n">
-        <v>2141</v>
+        <v>2145</v>
       </c>
       <c r="M98" t="n">
-        <v>316597</v>
+        <v>318820</v>
       </c>
     </row>
     <row r="99">
@@ -4611,13 +4611,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3430</v>
+        <v>3544</v>
       </c>
       <c r="C99" t="n">
-        <v>440</v>
+        <v>115</v>
       </c>
       <c r="D99" t="n">
-        <v>2990</v>
+        <v>3429</v>
       </c>
       <c r="E99" t="n">
         <v>406</v>
@@ -4638,13 +4638,13 @@
         <v>6</v>
       </c>
       <c r="K99" t="n">
-        <v>37346</v>
+        <v>37339</v>
       </c>
       <c r="L99" t="n">
-        <v>2147</v>
+        <v>2151</v>
       </c>
       <c r="M99" t="n">
-        <v>320027</v>
+        <v>322364</v>
       </c>
     </row>
     <row r="100">
@@ -4654,13 +4654,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1561</v>
+        <v>1671</v>
       </c>
       <c r="C100" t="n">
-        <v>691</v>
+        <v>112</v>
       </c>
       <c r="D100" t="n">
-        <v>870</v>
+        <v>1559</v>
       </c>
       <c r="E100" t="n">
         <v>233</v>
@@ -4675,19 +4675,19 @@
         <v>13</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K100" t="n">
-        <v>37579</v>
+        <v>37572</v>
       </c>
       <c r="L100" t="n">
-        <v>2160</v>
+        <v>2164</v>
       </c>
       <c r="M100" t="n">
-        <v>321588</v>
+        <v>324035</v>
       </c>
     </row>
     <row r="101">
@@ -4697,40 +4697,40 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>5147</v>
+        <v>7021</v>
       </c>
       <c r="C101" t="n">
-        <v>4348</v>
+        <v>1916</v>
       </c>
       <c r="D101" t="n">
-        <v>799</v>
+        <v>5105</v>
       </c>
       <c r="E101" t="n">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="H101" t="n">
         <v>14</v>
       </c>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K101" t="n">
-        <v>37992</v>
+        <v>37963</v>
       </c>
       <c r="L101" t="n">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="M101" t="n">
-        <v>326735</v>
+        <v>331056</v>
       </c>
     </row>
     <row r="102">
@@ -4740,40 +4740,40 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>559</v>
+        <v>3632</v>
       </c>
       <c r="C102" t="n">
-        <v>508</v>
+        <v>3087</v>
       </c>
       <c r="D102" t="n">
-        <v>51</v>
+        <v>545</v>
       </c>
       <c r="E102" t="n">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>307</v>
+      </c>
+      <c r="H102" t="n">
+        <v>19</v>
+      </c>
+      <c r="I102" t="n">
         <v>3</v>
       </c>
-      <c r="G102" t="n">
-        <v>309</v>
-      </c>
-      <c r="H102" t="n">
+      <c r="J102" t="n">
         <v>16</v>
       </c>
-      <c r="I102" t="n">
-        <v>11</v>
-      </c>
-      <c r="J102" t="n">
-        <v>5</v>
-      </c>
       <c r="K102" t="n">
-        <v>38304</v>
+        <v>38270</v>
       </c>
       <c r="L102" t="n">
-        <v>2190</v>
+        <v>2197</v>
       </c>
       <c r="M102" t="n">
-        <v>327294</v>
+        <v>334688</v>
       </c>
     </row>
     <row r="103">
@@ -4783,40 +4783,83 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>48</v>
+        <v>450</v>
       </c>
       <c r="C103" t="n">
-        <v>48</v>
+        <v>406</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E103" t="n">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="F103" t="n">
+        <v>7</v>
+      </c>
+      <c r="G103" t="n">
+        <v>426</v>
+      </c>
+      <c r="H103" t="n">
+        <v>13</v>
+      </c>
+      <c r="I103" t="n">
+        <v>5</v>
+      </c>
+      <c r="J103" t="n">
+        <v>8</v>
+      </c>
+      <c r="K103" t="n">
+        <v>38703</v>
+      </c>
+      <c r="L103" t="n">
+        <v>2210</v>
+      </c>
+      <c r="M103" t="n">
+        <v>335138</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2020-06-11</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>42</v>
+      </c>
+      <c r="C104" t="n">
+        <v>42</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
         <v>443</v>
       </c>
-      <c r="G103" t="n">
-        <v>1</v>
-      </c>
-      <c r="H103" t="n">
-        <v>8</v>
-      </c>
-      <c r="I103" t="n">
-        <v>8</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>38748</v>
-      </c>
-      <c r="L103" t="n">
-        <v>2198</v>
-      </c>
-      <c r="M103" t="n">
-        <v>327342</v>
+      <c r="F104" t="n">
+        <v>443</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+      <c r="I104" t="n">
+        <v>4</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>39146</v>
+      </c>
+      <c r="L104" t="n">
+        <v>2214</v>
+      </c>
+      <c r="M104" t="n">
+        <v>335180</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2034,10 +2034,10 @@
         <v>2783</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>2782</v>
+        <v>2783</v>
       </c>
       <c r="E39" t="n">
         <v>422</v>
@@ -2092,10 +2092,10 @@
         <v>422</v>
       </c>
       <c r="H40" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>28</v>
@@ -2104,7 +2104,7 @@
         <v>6323</v>
       </c>
       <c r="L40" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M40" t="n">
         <v>44217</v>
@@ -2147,7 +2147,7 @@
         <v>6881</v>
       </c>
       <c r="L41" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M41" t="n">
         <v>46964</v>
@@ -2190,7 +2190,7 @@
         <v>7396</v>
       </c>
       <c r="L42" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M42" t="n">
         <v>49692</v>
@@ -2233,7 +2233,7 @@
         <v>7882</v>
       </c>
       <c r="L43" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M43" t="n">
         <v>51235</v>
@@ -2276,7 +2276,7 @@
         <v>8201</v>
       </c>
       <c r="L44" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M44" t="n">
         <v>51934</v>
@@ -2319,7 +2319,7 @@
         <v>8493</v>
       </c>
       <c r="L45" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M45" t="n">
         <v>55406</v>
@@ -2332,10 +2332,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3614</v>
+        <v>3625</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D46" t="n">
         <v>3614</v>
@@ -2362,10 +2362,10 @@
         <v>8910</v>
       </c>
       <c r="L46" t="n">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M46" t="n">
-        <v>59020</v>
+        <v>59031</v>
       </c>
     </row>
     <row r="47">
@@ -2405,10 +2405,10 @@
         <v>9490</v>
       </c>
       <c r="L47" t="n">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M47" t="n">
-        <v>62321</v>
+        <v>62332</v>
       </c>
     </row>
     <row r="48">
@@ -2448,10 +2448,10 @@
         <v>10090</v>
       </c>
       <c r="L48" t="n">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M48" t="n">
-        <v>66321</v>
+        <v>66332</v>
       </c>
     </row>
     <row r="49">
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4177</v>
+        <v>4176</v>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>4172</v>
+        <v>4176</v>
       </c>
       <c r="E49" t="n">
         <v>505</v>
@@ -2491,10 +2491,10 @@
         <v>10595</v>
       </c>
       <c r="L49" t="n">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M49" t="n">
-        <v>70498</v>
+        <v>70508</v>
       </c>
     </row>
     <row r="50">
@@ -2507,10 +2507,10 @@
         <v>1759</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="E50" t="n">
         <v>557</v>
@@ -2534,10 +2534,10 @@
         <v>11152</v>
       </c>
       <c r="L50" t="n">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M50" t="n">
-        <v>72257</v>
+        <v>72267</v>
       </c>
     </row>
     <row r="51">
@@ -2559,10 +2559,10 @@
         <v>479</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H51" t="n">
         <v>36</v>
@@ -2577,10 +2577,10 @@
         <v>11631</v>
       </c>
       <c r="L51" t="n">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="M51" t="n">
-        <v>73359</v>
+        <v>73369</v>
       </c>
     </row>
     <row r="52">
@@ -2620,10 +2620,10 @@
         <v>12016</v>
       </c>
       <c r="L52" t="n">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="M52" t="n">
-        <v>77705</v>
+        <v>77715</v>
       </c>
     </row>
     <row r="53">
@@ -2663,10 +2663,10 @@
         <v>12395</v>
       </c>
       <c r="L53" t="n">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M53" t="n">
-        <v>81557</v>
+        <v>81567</v>
       </c>
     </row>
     <row r="54">
@@ -2679,10 +2679,10 @@
         <v>3865</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>3864</v>
+        <v>3865</v>
       </c>
       <c r="E54" t="n">
         <v>605</v>
@@ -2706,10 +2706,10 @@
         <v>13000</v>
       </c>
       <c r="L54" t="n">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="M54" t="n">
-        <v>85422</v>
+        <v>85432</v>
       </c>
     </row>
     <row r="55">
@@ -2722,10 +2722,10 @@
         <v>4374</v>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>4372</v>
+        <v>4374</v>
       </c>
       <c r="E55" t="n">
         <v>644</v>
@@ -2749,10 +2749,10 @@
         <v>13644</v>
       </c>
       <c r="L55" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="M55" t="n">
-        <v>89796</v>
+        <v>89806</v>
       </c>
     </row>
     <row r="56">
@@ -2792,10 +2792,10 @@
         <v>14343</v>
       </c>
       <c r="L56" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="M56" t="n">
-        <v>93349</v>
+        <v>93359</v>
       </c>
     </row>
     <row r="57">
@@ -2808,10 +2808,10 @@
         <v>2286</v>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>2283</v>
+        <v>2286</v>
       </c>
       <c r="E57" t="n">
         <v>624</v>
@@ -2835,10 +2835,10 @@
         <v>14967</v>
       </c>
       <c r="L57" t="n">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="M57" t="n">
-        <v>95635</v>
+        <v>95645</v>
       </c>
     </row>
     <row r="58">
@@ -2878,10 +2878,10 @@
         <v>15917</v>
       </c>
       <c r="L58" t="n">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="M58" t="n">
-        <v>97439</v>
+        <v>97449</v>
       </c>
     </row>
     <row r="59">
@@ -2921,10 +2921,10 @@
         <v>16537</v>
       </c>
       <c r="L59" t="n">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="M59" t="n">
-        <v>102179</v>
+        <v>102189</v>
       </c>
     </row>
     <row r="60">
@@ -2937,10 +2937,10 @@
         <v>5017</v>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>5014</v>
+        <v>5017</v>
       </c>
       <c r="E60" t="n">
         <v>595</v>
@@ -2964,10 +2964,10 @@
         <v>17132</v>
       </c>
       <c r="L60" t="n">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="M60" t="n">
-        <v>107196</v>
+        <v>107206</v>
       </c>
     </row>
     <row r="61">
@@ -2977,10 +2977,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>5374</v>
+        <v>5373</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
         <v>5373</v>
@@ -3007,10 +3007,10 @@
         <v>17784</v>
       </c>
       <c r="L61" t="n">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="M61" t="n">
-        <v>112570</v>
+        <v>112579</v>
       </c>
     </row>
     <row r="62">
@@ -3023,10 +3023,10 @@
         <v>5799</v>
       </c>
       <c r="C62" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>5647</v>
+        <v>5799</v>
       </c>
       <c r="E62" t="n">
         <v>794</v>
@@ -3050,10 +3050,10 @@
         <v>18578</v>
       </c>
       <c r="L62" t="n">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="M62" t="n">
-        <v>118369</v>
+        <v>118378</v>
       </c>
     </row>
     <row r="63">
@@ -3066,10 +3066,10 @@
         <v>6699</v>
       </c>
       <c r="C63" t="n">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>6536</v>
+        <v>6699</v>
       </c>
       <c r="E63" t="n">
         <v>652</v>
@@ -3093,10 +3093,10 @@
         <v>19230</v>
       </c>
       <c r="L63" t="n">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="M63" t="n">
-        <v>125068</v>
+        <v>125077</v>
       </c>
     </row>
     <row r="64">
@@ -3106,13 +3106,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="C64" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>3253</v>
+        <v>3280</v>
       </c>
       <c r="E64" t="n">
         <v>634</v>
@@ -3136,10 +3136,10 @@
         <v>19864</v>
       </c>
       <c r="L64" t="n">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="M64" t="n">
-        <v>128349</v>
+        <v>128357</v>
       </c>
     </row>
     <row r="65">
@@ -3179,10 +3179,10 @@
         <v>20433</v>
       </c>
       <c r="L65" t="n">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="M65" t="n">
-        <v>130166</v>
+        <v>130174</v>
       </c>
     </row>
     <row r="66">
@@ -3222,10 +3222,10 @@
         <v>20958</v>
       </c>
       <c r="L66" t="n">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="M66" t="n">
-        <v>135774</v>
+        <v>135782</v>
       </c>
     </row>
     <row r="67">
@@ -3238,10 +3238,10 @@
         <v>6206</v>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>6201</v>
+        <v>6205</v>
       </c>
       <c r="E67" t="n">
         <v>836</v>
@@ -3265,10 +3265,10 @@
         <v>21794</v>
       </c>
       <c r="L67" t="n">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="M67" t="n">
-        <v>141980</v>
+        <v>141988</v>
       </c>
     </row>
     <row r="68">
@@ -3281,10 +3281,10 @@
         <v>5652</v>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>5650</v>
+        <v>5652</v>
       </c>
       <c r="E68" t="n">
         <v>623</v>
@@ -3308,10 +3308,10 @@
         <v>22417</v>
       </c>
       <c r="L68" t="n">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="M68" t="n">
-        <v>147632</v>
+        <v>147640</v>
       </c>
     </row>
     <row r="69">
@@ -3324,10 +3324,10 @@
         <v>6227</v>
       </c>
       <c r="C69" t="n">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>6074</v>
+        <v>6226</v>
       </c>
       <c r="E69" t="n">
         <v>637</v>
@@ -3351,10 +3351,10 @@
         <v>23054</v>
       </c>
       <c r="L69" t="n">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="M69" t="n">
-        <v>153859</v>
+        <v>153867</v>
       </c>
     </row>
     <row r="70">
@@ -3367,10 +3367,10 @@
         <v>6378</v>
       </c>
       <c r="C70" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>6263</v>
+        <v>6378</v>
       </c>
       <c r="E70" t="n">
         <v>590</v>
@@ -3394,10 +3394,10 @@
         <v>23644</v>
       </c>
       <c r="L70" t="n">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="M70" t="n">
-        <v>160237</v>
+        <v>160245</v>
       </c>
     </row>
     <row r="71">
@@ -3410,10 +3410,10 @@
         <v>3244</v>
       </c>
       <c r="C71" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>3237</v>
+        <v>3244</v>
       </c>
       <c r="E71" t="n">
         <v>388</v>
@@ -3428,19 +3428,19 @@
         <v>32</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K71" t="n">
         <v>24032</v>
       </c>
       <c r="L71" t="n">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="M71" t="n">
-        <v>163481</v>
+        <v>163489</v>
       </c>
     </row>
     <row r="72">
@@ -3453,10 +3453,10 @@
         <v>1273</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="E72" t="n">
         <v>464</v>
@@ -3480,10 +3480,10 @@
         <v>24496</v>
       </c>
       <c r="L72" t="n">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="M72" t="n">
-        <v>164754</v>
+        <v>164762</v>
       </c>
     </row>
     <row r="73">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6929</v>
+        <v>6927</v>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>6925</v>
+        <v>6927</v>
       </c>
       <c r="E73" t="n">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H73" t="n">
         <v>41</v>
@@ -3520,13 +3520,13 @@
         <v>41</v>
       </c>
       <c r="K73" t="n">
-        <v>25014</v>
+        <v>25013</v>
       </c>
       <c r="L73" t="n">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="M73" t="n">
-        <v>171683</v>
+        <v>171689</v>
       </c>
     </row>
     <row r="74">
@@ -3536,13 +3536,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6672</v>
+        <v>6671</v>
       </c>
       <c r="C74" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>6610</v>
+        <v>6671</v>
       </c>
       <c r="E74" t="n">
         <v>376</v>
@@ -3563,13 +3563,13 @@
         <v>38</v>
       </c>
       <c r="K74" t="n">
-        <v>25390</v>
+        <v>25389</v>
       </c>
       <c r="L74" t="n">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="M74" t="n">
-        <v>178355</v>
+        <v>178360</v>
       </c>
     </row>
     <row r="75">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>7089</v>
+        <v>7085</v>
       </c>
       <c r="C75" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>7041</v>
+        <v>7085</v>
       </c>
       <c r="E75" t="n">
         <v>604</v>
@@ -3606,13 +3606,13 @@
         <v>26</v>
       </c>
       <c r="K75" t="n">
-        <v>25994</v>
+        <v>25993</v>
       </c>
       <c r="L75" t="n">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="M75" t="n">
-        <v>185444</v>
+        <v>185445</v>
       </c>
     </row>
     <row r="76">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>8028</v>
+        <v>8026</v>
       </c>
       <c r="C76" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>7818</v>
+        <v>8026</v>
       </c>
       <c r="E76" t="n">
         <v>586</v>
@@ -3643,19 +3643,19 @@
         <v>42</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K76" t="n">
-        <v>26580</v>
+        <v>26579</v>
       </c>
       <c r="L76" t="n">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="M76" t="n">
-        <v>193472</v>
+        <v>193471</v>
       </c>
     </row>
     <row r="77">
@@ -3665,22 +3665,22 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9550</v>
+        <v>9549</v>
       </c>
       <c r="C77" t="n">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>9379</v>
+        <v>9549</v>
       </c>
       <c r="E77" t="n">
         <v>638</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H77" t="n">
         <v>32</v>
@@ -3692,13 +3692,13 @@
         <v>32</v>
       </c>
       <c r="K77" t="n">
-        <v>27218</v>
+        <v>27217</v>
       </c>
       <c r="L77" t="n">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="M77" t="n">
-        <v>203022</v>
+        <v>203020</v>
       </c>
     </row>
     <row r="78">
@@ -3717,13 +3717,13 @@
         <v>3097</v>
       </c>
       <c r="E78" t="n">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H78" t="n">
         <v>29</v>
@@ -3735,13 +3735,13 @@
         <v>29</v>
       </c>
       <c r="K78" t="n">
-        <v>27714</v>
+        <v>27712</v>
       </c>
       <c r="L78" t="n">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="M78" t="n">
-        <v>206119</v>
+        <v>206117</v>
       </c>
     </row>
     <row r="79">
@@ -3778,13 +3778,13 @@
         <v>29</v>
       </c>
       <c r="K79" t="n">
-        <v>28198</v>
+        <v>28196</v>
       </c>
       <c r="L79" t="n">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="M79" t="n">
-        <v>208000</v>
+        <v>207998</v>
       </c>
     </row>
     <row r="80">
@@ -3797,10 +3797,10 @@
         <v>8129</v>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>8125</v>
+        <v>8129</v>
       </c>
       <c r="E80" t="n">
         <v>455</v>
@@ -3821,13 +3821,13 @@
         <v>39</v>
       </c>
       <c r="K80" t="n">
-        <v>28653</v>
+        <v>28651</v>
       </c>
       <c r="L80" t="n">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="M80" t="n">
-        <v>216129</v>
+        <v>216127</v>
       </c>
     </row>
     <row r="81">
@@ -3837,13 +3837,13 @@
         </is>
       </c>
       <c r="B81" t="n">
+        <v>6958</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
         <v>6957</v>
-      </c>
-      <c r="C81" t="n">
-        <v>138</v>
-      </c>
-      <c r="D81" t="n">
-        <v>6819</v>
       </c>
       <c r="E81" t="n">
         <v>557</v>
@@ -3864,13 +3864,13 @@
         <v>29</v>
       </c>
       <c r="K81" t="n">
-        <v>29210</v>
+        <v>29208</v>
       </c>
       <c r="L81" t="n">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="M81" t="n">
-        <v>223086</v>
+        <v>223085</v>
       </c>
     </row>
     <row r="82">
@@ -3880,40 +3880,40 @@
         </is>
       </c>
       <c r="B82" t="n">
+        <v>6484</v>
+      </c>
+      <c r="C82" t="n">
+        <v>8</v>
+      </c>
+      <c r="D82" t="n">
         <v>6476</v>
       </c>
-      <c r="C82" t="n">
-        <v>192</v>
-      </c>
-      <c r="D82" t="n">
-        <v>6284</v>
-      </c>
       <c r="E82" t="n">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H82" t="n">
         <v>28</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K82" t="n">
-        <v>29862</v>
+        <v>29858</v>
       </c>
       <c r="L82" t="n">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="M82" t="n">
-        <v>229562</v>
+        <v>229569</v>
       </c>
     </row>
     <row r="83">
@@ -3923,13 +3923,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7364</v>
+        <v>7361</v>
       </c>
       <c r="C83" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>7220</v>
+        <v>7361</v>
       </c>
       <c r="E83" t="n">
         <v>467</v>
@@ -3950,13 +3950,13 @@
         <v>36</v>
       </c>
       <c r="K83" t="n">
-        <v>30329</v>
+        <v>30325</v>
       </c>
       <c r="L83" t="n">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="M83" t="n">
-        <v>236926</v>
+        <v>236930</v>
       </c>
     </row>
     <row r="84">
@@ -3969,10 +3969,10 @@
         <v>8139</v>
       </c>
       <c r="C84" t="n">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>7945</v>
+        <v>8139</v>
       </c>
       <c r="E84" t="n">
         <v>493</v>
@@ -3993,13 +3993,13 @@
         <v>16</v>
       </c>
       <c r="K84" t="n">
-        <v>30822</v>
+        <v>30818</v>
       </c>
       <c r="L84" t="n">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="M84" t="n">
-        <v>245065</v>
+        <v>245069</v>
       </c>
     </row>
     <row r="85">
@@ -4012,10 +4012,10 @@
         <v>2799</v>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>2795</v>
+        <v>2799</v>
       </c>
       <c r="E85" t="n">
         <v>473</v>
@@ -4036,13 +4036,13 @@
         <v>24</v>
       </c>
       <c r="K85" t="n">
-        <v>31295</v>
+        <v>31291</v>
       </c>
       <c r="L85" t="n">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="M85" t="n">
-        <v>247864</v>
+        <v>247868</v>
       </c>
     </row>
     <row r="86">
@@ -4079,13 +4079,13 @@
         <v>14</v>
       </c>
       <c r="K86" t="n">
-        <v>31639</v>
+        <v>31635</v>
       </c>
       <c r="L86" t="n">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="M86" t="n">
-        <v>249710</v>
+        <v>249714</v>
       </c>
     </row>
     <row r="87">
@@ -4122,13 +4122,13 @@
         <v>21</v>
       </c>
       <c r="K87" t="n">
-        <v>31998</v>
+        <v>31994</v>
       </c>
       <c r="L87" t="n">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="M87" t="n">
-        <v>251446</v>
+        <v>251450</v>
       </c>
     </row>
     <row r="88">
@@ -4138,13 +4138,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>7583</v>
+        <v>7582</v>
       </c>
       <c r="C88" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>7533</v>
+        <v>7582</v>
       </c>
       <c r="E88" t="n">
         <v>350</v>
@@ -4165,13 +4165,13 @@
         <v>18</v>
       </c>
       <c r="K88" t="n">
-        <v>32348</v>
+        <v>32344</v>
       </c>
       <c r="L88" t="n">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="M88" t="n">
-        <v>259029</v>
+        <v>259032</v>
       </c>
     </row>
     <row r="89">
@@ -4181,22 +4181,22 @@
         </is>
       </c>
       <c r="B89" t="n">
+        <v>6082</v>
+      </c>
+      <c r="C89" t="n">
+        <v>7</v>
+      </c>
+      <c r="D89" t="n">
         <v>6075</v>
       </c>
-      <c r="C89" t="n">
-        <v>53</v>
-      </c>
-      <c r="D89" t="n">
-        <v>6022</v>
-      </c>
       <c r="E89" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H89" t="n">
         <v>14</v>
@@ -4208,13 +4208,13 @@
         <v>14</v>
       </c>
       <c r="K89" t="n">
-        <v>32953</v>
+        <v>32948</v>
       </c>
       <c r="L89" t="n">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="M89" t="n">
-        <v>265104</v>
+        <v>265114</v>
       </c>
     </row>
     <row r="90">
@@ -4224,22 +4224,22 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>6949</v>
+        <v>6955</v>
       </c>
       <c r="C90" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D90" t="n">
-        <v>6934</v>
+        <v>6943</v>
       </c>
       <c r="E90" t="n">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H90" t="n">
         <v>17</v>
@@ -4251,13 +4251,13 @@
         <v>17</v>
       </c>
       <c r="K90" t="n">
-        <v>33434</v>
+        <v>33428</v>
       </c>
       <c r="L90" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="M90" t="n">
-        <v>272053</v>
+        <v>272069</v>
       </c>
     </row>
     <row r="91">
@@ -4267,22 +4267,22 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>7623</v>
+        <v>7624</v>
       </c>
       <c r="C91" t="n">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>7533</v>
+        <v>7620</v>
       </c>
       <c r="E91" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H91" t="n">
         <v>19</v>
@@ -4294,13 +4294,13 @@
         <v>19</v>
       </c>
       <c r="K91" t="n">
-        <v>34025</v>
+        <v>34018</v>
       </c>
       <c r="L91" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="M91" t="n">
-        <v>279676</v>
+        <v>279693</v>
       </c>
     </row>
     <row r="92">
@@ -4310,22 +4310,22 @@
         </is>
       </c>
       <c r="B92" t="n">
+        <v>2792</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
         <v>2791</v>
       </c>
-      <c r="C92" t="n">
-        <v>16</v>
-      </c>
-      <c r="D92" t="n">
-        <v>2775</v>
-      </c>
       <c r="E92" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H92" t="n">
         <v>19</v>
@@ -4337,13 +4337,13 @@
         <v>19</v>
       </c>
       <c r="K92" t="n">
-        <v>34390</v>
+        <v>34382</v>
       </c>
       <c r="L92" t="n">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="M92" t="n">
-        <v>282467</v>
+        <v>282485</v>
       </c>
     </row>
     <row r="93">
@@ -4356,19 +4356,19 @@
         <v>1800</v>
       </c>
       <c r="C93" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>1792</v>
+        <v>1800</v>
       </c>
       <c r="E93" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H93" t="n">
         <v>14</v>
@@ -4380,13 +4380,13 @@
         <v>14</v>
       </c>
       <c r="K93" t="n">
-        <v>34677</v>
+        <v>34668</v>
       </c>
       <c r="L93" t="n">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="M93" t="n">
-        <v>284267</v>
+        <v>284285</v>
       </c>
     </row>
     <row r="94">
@@ -4396,13 +4396,13 @@
         </is>
       </c>
       <c r="B94" t="n">
+        <v>8009</v>
+      </c>
+      <c r="C94" t="n">
+        <v>9</v>
+      </c>
+      <c r="D94" t="n">
         <v>8000</v>
-      </c>
-      <c r="C94" t="n">
-        <v>35</v>
-      </c>
-      <c r="D94" t="n">
-        <v>7965</v>
       </c>
       <c r="E94" t="n">
         <v>416</v>
@@ -4423,13 +4423,13 @@
         <v>18</v>
       </c>
       <c r="K94" t="n">
-        <v>35093</v>
+        <v>35084</v>
       </c>
       <c r="L94" t="n">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="M94" t="n">
-        <v>292267</v>
+        <v>292294</v>
       </c>
     </row>
     <row r="95">
@@ -4439,13 +4439,13 @@
         </is>
       </c>
       <c r="B95" t="n">
+        <v>5585</v>
+      </c>
+      <c r="C95" t="n">
+        <v>19</v>
+      </c>
+      <c r="D95" t="n">
         <v>5566</v>
-      </c>
-      <c r="C95" t="n">
-        <v>23</v>
-      </c>
-      <c r="D95" t="n">
-        <v>5543</v>
       </c>
       <c r="E95" t="n">
         <v>481</v>
@@ -4466,13 +4466,13 @@
         <v>15</v>
       </c>
       <c r="K95" t="n">
-        <v>35574</v>
+        <v>35565</v>
       </c>
       <c r="L95" t="n">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="M95" t="n">
-        <v>297833</v>
+        <v>297879</v>
       </c>
     </row>
     <row r="96">
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>6575</v>
+        <v>6588</v>
       </c>
       <c r="C96" t="n">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D96" t="n">
-        <v>6501</v>
+        <v>6574</v>
       </c>
       <c r="E96" t="n">
         <v>431</v>
@@ -4509,13 +4509,13 @@
         <v>22</v>
       </c>
       <c r="K96" t="n">
-        <v>36005</v>
+        <v>35996</v>
       </c>
       <c r="L96" t="n">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="M96" t="n">
-        <v>304408</v>
+        <v>304467</v>
       </c>
     </row>
     <row r="97">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6775</v>
+        <v>6802</v>
       </c>
       <c r="C97" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D97" t="n">
-        <v>6729</v>
+        <v>6778</v>
       </c>
       <c r="E97" t="n">
         <v>506</v>
@@ -4543,22 +4543,22 @@
         <v>506</v>
       </c>
       <c r="H97" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K97" t="n">
-        <v>36511</v>
+        <v>36502</v>
       </c>
       <c r="L97" t="n">
-        <v>2125</v>
+        <v>2127</v>
       </c>
       <c r="M97" t="n">
-        <v>311183</v>
+        <v>311269</v>
       </c>
     </row>
     <row r="98">
@@ -4568,13 +4568,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>7637</v>
+        <v>7655</v>
       </c>
       <c r="C98" t="n">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="D98" t="n">
-        <v>7519</v>
+        <v>7631</v>
       </c>
       <c r="E98" t="n">
         <v>422</v>
@@ -4586,22 +4586,22 @@
         <v>422</v>
       </c>
       <c r="H98" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
         <v>20</v>
       </c>
       <c r="K98" t="n">
-        <v>36933</v>
+        <v>36924</v>
       </c>
       <c r="L98" t="n">
-        <v>2145</v>
+        <v>2148</v>
       </c>
       <c r="M98" t="n">
-        <v>318820</v>
+        <v>318924</v>
       </c>
     </row>
     <row r="99">
@@ -4611,40 +4611,40 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3544</v>
+        <v>3553</v>
       </c>
       <c r="C99" t="n">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="D99" t="n">
-        <v>3429</v>
+        <v>3543</v>
       </c>
       <c r="E99" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H99" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="n">
         <v>6</v>
       </c>
       <c r="K99" t="n">
-        <v>37339</v>
+        <v>37329</v>
       </c>
       <c r="L99" t="n">
-        <v>2151</v>
+        <v>2156</v>
       </c>
       <c r="M99" t="n">
-        <v>322364</v>
+        <v>322477</v>
       </c>
     </row>
     <row r="100">
@@ -4654,13 +4654,13 @@
         </is>
       </c>
       <c r="B100" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C100" t="n">
+        <v>39</v>
+      </c>
+      <c r="D100" t="n">
         <v>1671</v>
-      </c>
-      <c r="C100" t="n">
-        <v>112</v>
-      </c>
-      <c r="D100" t="n">
-        <v>1559</v>
       </c>
       <c r="E100" t="n">
         <v>233</v>
@@ -4672,22 +4672,22 @@
         <v>233</v>
       </c>
       <c r="H100" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
         <v>13</v>
       </c>
       <c r="K100" t="n">
-        <v>37572</v>
+        <v>37562</v>
       </c>
       <c r="L100" t="n">
-        <v>2164</v>
+        <v>2170</v>
       </c>
       <c r="M100" t="n">
-        <v>324035</v>
+        <v>324187</v>
       </c>
     </row>
     <row r="101">
@@ -4697,22 +4697,22 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>7021</v>
+        <v>7838</v>
       </c>
       <c r="C101" t="n">
-        <v>1916</v>
+        <v>820</v>
       </c>
       <c r="D101" t="n">
-        <v>5105</v>
+        <v>7018</v>
       </c>
       <c r="E101" t="n">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F101" t="n">
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H101" t="n">
         <v>14</v>
@@ -4724,13 +4724,13 @@
         <v>14</v>
       </c>
       <c r="K101" t="n">
-        <v>37963</v>
+        <v>37952</v>
       </c>
       <c r="L101" t="n">
-        <v>2178</v>
+        <v>2184</v>
       </c>
       <c r="M101" t="n">
-        <v>331056</v>
+        <v>332025</v>
       </c>
     </row>
     <row r="102">
@@ -4740,13 +4740,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3632</v>
+        <v>5270</v>
       </c>
       <c r="C102" t="n">
-        <v>3087</v>
+        <v>1676</v>
       </c>
       <c r="D102" t="n">
-        <v>545</v>
+        <v>3594</v>
       </c>
       <c r="E102" t="n">
         <v>307</v>
@@ -4758,22 +4758,22 @@
         <v>307</v>
       </c>
       <c r="H102" t="n">
+        <v>20</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
         <v>19</v>
       </c>
-      <c r="I102" t="n">
-        <v>3</v>
-      </c>
-      <c r="J102" t="n">
-        <v>16</v>
-      </c>
       <c r="K102" t="n">
-        <v>38270</v>
+        <v>38259</v>
       </c>
       <c r="L102" t="n">
-        <v>2197</v>
+        <v>2204</v>
       </c>
       <c r="M102" t="n">
-        <v>334688</v>
+        <v>337295</v>
       </c>
     </row>
     <row r="103">
@@ -4783,40 +4783,40 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>450</v>
+        <v>2841</v>
       </c>
       <c r="C103" t="n">
-        <v>406</v>
+        <v>2397</v>
       </c>
       <c r="D103" t="n">
-        <v>44</v>
+        <v>444</v>
       </c>
       <c r="E103" t="n">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F103" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H103" t="n">
+        <v>15</v>
+      </c>
+      <c r="I103" t="n">
+        <v>2</v>
+      </c>
+      <c r="J103" t="n">
         <v>13</v>
       </c>
-      <c r="I103" t="n">
-        <v>5</v>
-      </c>
-      <c r="J103" t="n">
-        <v>8</v>
-      </c>
       <c r="K103" t="n">
-        <v>38703</v>
+        <v>38684</v>
       </c>
       <c r="L103" t="n">
-        <v>2210</v>
+        <v>2219</v>
       </c>
       <c r="M103" t="n">
-        <v>335138</v>
+        <v>340136</v>
       </c>
     </row>
     <row r="104">
@@ -4826,40 +4826,83 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>42</v>
+        <v>469</v>
       </c>
       <c r="C104" t="n">
-        <v>42</v>
+        <v>429</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E104" t="n">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F104" t="n">
-        <v>443</v>
+        <v>6</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="H104" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I104" t="n">
         <v>4</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K104" t="n">
-        <v>39146</v>
+        <v>39121</v>
       </c>
       <c r="L104" t="n">
-        <v>2214</v>
+        <v>2227</v>
       </c>
       <c r="M104" t="n">
-        <v>335180</v>
+        <v>340605</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2020-06-12</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>32</v>
+      </c>
+      <c r="C105" t="n">
+        <v>32</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>422</v>
+      </c>
+      <c r="F105" t="n">
+        <v>422</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+      <c r="I105" t="n">
+        <v>4</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>39543</v>
+      </c>
+      <c r="L105" t="n">
+        <v>2231</v>
+      </c>
+      <c r="M105" t="n">
+        <v>340637</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2095,10 +2095,10 @@
         <v>29</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K40" t="n">
         <v>6323</v>
@@ -2335,10 +2335,10 @@
         <v>3625</v>
       </c>
       <c r="C46" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>3614</v>
+        <v>3625</v>
       </c>
       <c r="E46" t="n">
         <v>417</v>
@@ -2507,10 +2507,10 @@
         <v>1759</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="E50" t="n">
         <v>557</v>
@@ -2559,10 +2559,10 @@
         <v>479</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H51" t="n">
         <v>36</v>
@@ -2676,13 +2676,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3865</v>
+        <v>3864</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>3865</v>
+        <v>3864</v>
       </c>
       <c r="E54" t="n">
         <v>605</v>
@@ -2709,7 +2709,7 @@
         <v>838</v>
       </c>
       <c r="M54" t="n">
-        <v>85432</v>
+        <v>85431</v>
       </c>
     </row>
     <row r="55">
@@ -2752,7 +2752,7 @@
         <v>876</v>
       </c>
       <c r="M55" t="n">
-        <v>89806</v>
+        <v>89805</v>
       </c>
     </row>
     <row r="56">
@@ -2795,7 +2795,7 @@
         <v>913</v>
       </c>
       <c r="M56" t="n">
-        <v>93359</v>
+        <v>93358</v>
       </c>
     </row>
     <row r="57">
@@ -2838,7 +2838,7 @@
         <v>954</v>
       </c>
       <c r="M57" t="n">
-        <v>95645</v>
+        <v>95644</v>
       </c>
     </row>
     <row r="58">
@@ -2881,7 +2881,7 @@
         <v>988</v>
       </c>
       <c r="M58" t="n">
-        <v>97449</v>
+        <v>97448</v>
       </c>
     </row>
     <row r="59">
@@ -2924,7 +2924,7 @@
         <v>1030</v>
       </c>
       <c r="M59" t="n">
-        <v>102189</v>
+        <v>102188</v>
       </c>
     </row>
     <row r="60">
@@ -2934,13 +2934,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>5017</v>
+        <v>5016</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>5017</v>
+        <v>5016</v>
       </c>
       <c r="E60" t="n">
         <v>595</v>
@@ -2967,7 +2967,7 @@
         <v>1064</v>
       </c>
       <c r="M60" t="n">
-        <v>107206</v>
+        <v>107204</v>
       </c>
     </row>
     <row r="61">
@@ -2977,13 +2977,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>5373</v>
+        <v>5371</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>5373</v>
+        <v>5371</v>
       </c>
       <c r="E61" t="n">
         <v>652</v>
@@ -3010,7 +3010,7 @@
         <v>1106</v>
       </c>
       <c r="M61" t="n">
-        <v>112579</v>
+        <v>112575</v>
       </c>
     </row>
     <row r="62">
@@ -3029,13 +3029,13 @@
         <v>5799</v>
       </c>
       <c r="E62" t="n">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H62" t="n">
         <v>45</v>
@@ -3047,13 +3047,13 @@
         <v>45</v>
       </c>
       <c r="K62" t="n">
-        <v>18578</v>
+        <v>18577</v>
       </c>
       <c r="L62" t="n">
         <v>1151</v>
       </c>
       <c r="M62" t="n">
-        <v>118378</v>
+        <v>118374</v>
       </c>
     </row>
     <row r="63">
@@ -3090,13 +3090,13 @@
         <v>35</v>
       </c>
       <c r="K63" t="n">
-        <v>19230</v>
+        <v>19229</v>
       </c>
       <c r="L63" t="n">
         <v>1186</v>
       </c>
       <c r="M63" t="n">
-        <v>125077</v>
+        <v>125073</v>
       </c>
     </row>
     <row r="64">
@@ -3106,13 +3106,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3280</v>
+        <v>3279</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>3280</v>
+        <v>3279</v>
       </c>
       <c r="E64" t="n">
         <v>634</v>
@@ -3133,13 +3133,13 @@
         <v>44</v>
       </c>
       <c r="K64" t="n">
-        <v>19864</v>
+        <v>19863</v>
       </c>
       <c r="L64" t="n">
         <v>1230</v>
       </c>
       <c r="M64" t="n">
-        <v>128357</v>
+        <v>128352</v>
       </c>
     </row>
     <row r="65">
@@ -3176,13 +3176,13 @@
         <v>32</v>
       </c>
       <c r="K65" t="n">
-        <v>20433</v>
+        <v>20432</v>
       </c>
       <c r="L65" t="n">
         <v>1262</v>
       </c>
       <c r="M65" t="n">
-        <v>130174</v>
+        <v>130169</v>
       </c>
     </row>
     <row r="66">
@@ -3219,13 +3219,13 @@
         <v>38</v>
       </c>
       <c r="K66" t="n">
-        <v>20958</v>
+        <v>20957</v>
       </c>
       <c r="L66" t="n">
         <v>1300</v>
       </c>
       <c r="M66" t="n">
-        <v>135782</v>
+        <v>135777</v>
       </c>
     </row>
     <row r="67">
@@ -3235,10 +3235,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6206</v>
+        <v>6205</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
         <v>6205</v>
@@ -3262,13 +3262,13 @@
         <v>37</v>
       </c>
       <c r="K67" t="n">
-        <v>21794</v>
+        <v>21793</v>
       </c>
       <c r="L67" t="n">
         <v>1337</v>
       </c>
       <c r="M67" t="n">
-        <v>141988</v>
+        <v>141982</v>
       </c>
     </row>
     <row r="68">
@@ -3305,13 +3305,13 @@
         <v>43</v>
       </c>
       <c r="K68" t="n">
-        <v>22417</v>
+        <v>22416</v>
       </c>
       <c r="L68" t="n">
         <v>1380</v>
       </c>
       <c r="M68" t="n">
-        <v>147640</v>
+        <v>147634</v>
       </c>
     </row>
     <row r="69">
@@ -3324,10 +3324,10 @@
         <v>6227</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>6226</v>
+        <v>6227</v>
       </c>
       <c r="E69" t="n">
         <v>637</v>
@@ -3348,13 +3348,13 @@
         <v>34</v>
       </c>
       <c r="K69" t="n">
-        <v>23054</v>
+        <v>23053</v>
       </c>
       <c r="L69" t="n">
         <v>1414</v>
       </c>
       <c r="M69" t="n">
-        <v>153867</v>
+        <v>153861</v>
       </c>
     </row>
     <row r="70">
@@ -3364,22 +3364,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6378</v>
+        <v>6377</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>6378</v>
+        <v>6377</v>
       </c>
       <c r="E70" t="n">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H70" t="n">
         <v>25</v>
@@ -3391,13 +3391,13 @@
         <v>25</v>
       </c>
       <c r="K70" t="n">
-        <v>23644</v>
+        <v>23642</v>
       </c>
       <c r="L70" t="n">
         <v>1439</v>
       </c>
       <c r="M70" t="n">
-        <v>160245</v>
+        <v>160238</v>
       </c>
     </row>
     <row r="71">
@@ -3434,13 +3434,13 @@
         <v>32</v>
       </c>
       <c r="K71" t="n">
-        <v>24032</v>
+        <v>24030</v>
       </c>
       <c r="L71" t="n">
         <v>1471</v>
       </c>
       <c r="M71" t="n">
-        <v>163489</v>
+        <v>163482</v>
       </c>
     </row>
     <row r="72">
@@ -3477,13 +3477,13 @@
         <v>34</v>
       </c>
       <c r="K72" t="n">
-        <v>24496</v>
+        <v>24494</v>
       </c>
       <c r="L72" t="n">
         <v>1505</v>
       </c>
       <c r="M72" t="n">
-        <v>164762</v>
+        <v>164755</v>
       </c>
     </row>
     <row r="73">
@@ -3496,10 +3496,10 @@
         <v>6927</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>6927</v>
+        <v>6926</v>
       </c>
       <c r="E73" t="n">
         <v>517</v>
@@ -3520,13 +3520,13 @@
         <v>41</v>
       </c>
       <c r="K73" t="n">
-        <v>25013</v>
+        <v>25011</v>
       </c>
       <c r="L73" t="n">
         <v>1546</v>
       </c>
       <c r="M73" t="n">
-        <v>171689</v>
+        <v>171682</v>
       </c>
     </row>
     <row r="74">
@@ -3545,13 +3545,13 @@
         <v>6671</v>
       </c>
       <c r="E74" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H74" t="n">
         <v>38</v>
@@ -3563,13 +3563,13 @@
         <v>38</v>
       </c>
       <c r="K74" t="n">
-        <v>25389</v>
+        <v>25386</v>
       </c>
       <c r="L74" t="n">
         <v>1584</v>
       </c>
       <c r="M74" t="n">
-        <v>178360</v>
+        <v>178353</v>
       </c>
     </row>
     <row r="75">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>7085</v>
+        <v>7083</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>7085</v>
+        <v>7083</v>
       </c>
       <c r="E75" t="n">
         <v>604</v>
@@ -3606,13 +3606,13 @@
         <v>26</v>
       </c>
       <c r="K75" t="n">
-        <v>25993</v>
+        <v>25990</v>
       </c>
       <c r="L75" t="n">
         <v>1610</v>
       </c>
       <c r="M75" t="n">
-        <v>185445</v>
+        <v>185436</v>
       </c>
     </row>
     <row r="76">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>8026</v>
+        <v>8024</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>8026</v>
+        <v>8024</v>
       </c>
       <c r="E76" t="n">
         <v>586</v>
@@ -3649,13 +3649,13 @@
         <v>42</v>
       </c>
       <c r="K76" t="n">
-        <v>26579</v>
+        <v>26576</v>
       </c>
       <c r="L76" t="n">
         <v>1652</v>
       </c>
       <c r="M76" t="n">
-        <v>193471</v>
+        <v>193460</v>
       </c>
     </row>
     <row r="77">
@@ -3665,13 +3665,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9549</v>
+        <v>9547</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>9549</v>
+        <v>9547</v>
       </c>
       <c r="E77" t="n">
         <v>638</v>
@@ -3692,13 +3692,13 @@
         <v>32</v>
       </c>
       <c r="K77" t="n">
-        <v>27217</v>
+        <v>27214</v>
       </c>
       <c r="L77" t="n">
         <v>1684</v>
       </c>
       <c r="M77" t="n">
-        <v>203020</v>
+        <v>203007</v>
       </c>
     </row>
     <row r="78">
@@ -3708,13 +3708,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>3097</v>
+        <v>3095</v>
       </c>
       <c r="E78" t="n">
         <v>495</v>
@@ -3735,13 +3735,13 @@
         <v>29</v>
       </c>
       <c r="K78" t="n">
-        <v>27712</v>
+        <v>27709</v>
       </c>
       <c r="L78" t="n">
         <v>1713</v>
       </c>
       <c r="M78" t="n">
-        <v>206117</v>
+        <v>206103</v>
       </c>
     </row>
     <row r="79">
@@ -3778,13 +3778,13 @@
         <v>29</v>
       </c>
       <c r="K79" t="n">
-        <v>28196</v>
+        <v>28193</v>
       </c>
       <c r="L79" t="n">
         <v>1742</v>
       </c>
       <c r="M79" t="n">
-        <v>207998</v>
+        <v>207984</v>
       </c>
     </row>
     <row r="80">
@@ -3794,13 +3794,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>8129</v>
+        <v>8128</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>8129</v>
+        <v>8128</v>
       </c>
       <c r="E80" t="n">
         <v>455</v>
@@ -3821,13 +3821,13 @@
         <v>39</v>
       </c>
       <c r="K80" t="n">
-        <v>28651</v>
+        <v>28648</v>
       </c>
       <c r="L80" t="n">
         <v>1781</v>
       </c>
       <c r="M80" t="n">
-        <v>216127</v>
+        <v>216112</v>
       </c>
     </row>
     <row r="81">
@@ -3837,10 +3837,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6958</v>
+        <v>6957</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
         <v>6957</v>
@@ -3864,13 +3864,13 @@
         <v>29</v>
       </c>
       <c r="K81" t="n">
-        <v>29208</v>
+        <v>29205</v>
       </c>
       <c r="L81" t="n">
         <v>1810</v>
       </c>
       <c r="M81" t="n">
-        <v>223085</v>
+        <v>223069</v>
       </c>
     </row>
     <row r="82">
@@ -3880,22 +3880,22 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6484</v>
+        <v>6483</v>
       </c>
       <c r="C82" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>6476</v>
+        <v>6481</v>
       </c>
       <c r="E82" t="n">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H82" t="n">
         <v>28</v>
@@ -3907,13 +3907,13 @@
         <v>28</v>
       </c>
       <c r="K82" t="n">
-        <v>29858</v>
+        <v>29853</v>
       </c>
       <c r="L82" t="n">
         <v>1838</v>
       </c>
       <c r="M82" t="n">
-        <v>229569</v>
+        <v>229552</v>
       </c>
     </row>
     <row r="83">
@@ -3923,13 +3923,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7361</v>
+        <v>7358</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>7361</v>
+        <v>7358</v>
       </c>
       <c r="E83" t="n">
         <v>467</v>
@@ -3950,13 +3950,13 @@
         <v>36</v>
       </c>
       <c r="K83" t="n">
-        <v>30325</v>
+        <v>30320</v>
       </c>
       <c r="L83" t="n">
         <v>1874</v>
       </c>
       <c r="M83" t="n">
-        <v>236930</v>
+        <v>236910</v>
       </c>
     </row>
     <row r="84">
@@ -3966,13 +3966,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>8139</v>
+        <v>8136</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>8139</v>
+        <v>8136</v>
       </c>
       <c r="E84" t="n">
         <v>493</v>
@@ -3993,13 +3993,13 @@
         <v>16</v>
       </c>
       <c r="K84" t="n">
-        <v>30818</v>
+        <v>30813</v>
       </c>
       <c r="L84" t="n">
         <v>1890</v>
       </c>
       <c r="M84" t="n">
-        <v>245069</v>
+        <v>245046</v>
       </c>
     </row>
     <row r="85">
@@ -4036,13 +4036,13 @@
         <v>24</v>
       </c>
       <c r="K85" t="n">
-        <v>31291</v>
+        <v>31286</v>
       </c>
       <c r="L85" t="n">
         <v>1914</v>
       </c>
       <c r="M85" t="n">
-        <v>247868</v>
+        <v>247845</v>
       </c>
     </row>
     <row r="86">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E86" t="n">
         <v>344</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H86" t="n">
         <v>14</v>
@@ -4079,13 +4079,13 @@
         <v>14</v>
       </c>
       <c r="K86" t="n">
-        <v>31635</v>
+        <v>31630</v>
       </c>
       <c r="L86" t="n">
         <v>1928</v>
       </c>
       <c r="M86" t="n">
-        <v>249714</v>
+        <v>249690</v>
       </c>
     </row>
     <row r="87">
@@ -4122,13 +4122,13 @@
         <v>21</v>
       </c>
       <c r="K87" t="n">
-        <v>31994</v>
+        <v>31989</v>
       </c>
       <c r="L87" t="n">
         <v>1949</v>
       </c>
       <c r="M87" t="n">
-        <v>251450</v>
+        <v>251426</v>
       </c>
     </row>
     <row r="88">
@@ -4138,13 +4138,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>7582</v>
+        <v>7581</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>7582</v>
+        <v>7581</v>
       </c>
       <c r="E88" t="n">
         <v>350</v>
@@ -4165,13 +4165,13 @@
         <v>18</v>
       </c>
       <c r="K88" t="n">
-        <v>32344</v>
+        <v>32339</v>
       </c>
       <c r="L88" t="n">
         <v>1967</v>
       </c>
       <c r="M88" t="n">
-        <v>259032</v>
+        <v>259007</v>
       </c>
     </row>
     <row r="89">
@@ -4181,22 +4181,22 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>6082</v>
+        <v>6081</v>
       </c>
       <c r="C89" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>6075</v>
+        <v>6081</v>
       </c>
       <c r="E89" t="n">
         <v>604</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H89" t="n">
         <v>14</v>
@@ -4208,13 +4208,13 @@
         <v>14</v>
       </c>
       <c r="K89" t="n">
-        <v>32948</v>
+        <v>32943</v>
       </c>
       <c r="L89" t="n">
         <v>1981</v>
       </c>
       <c r="M89" t="n">
-        <v>265114</v>
+        <v>265088</v>
       </c>
     </row>
     <row r="90">
@@ -4224,22 +4224,22 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>6955</v>
+        <v>6951</v>
       </c>
       <c r="C90" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>6943</v>
+        <v>6950</v>
       </c>
       <c r="E90" t="n">
         <v>480</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H90" t="n">
         <v>17</v>
@@ -4251,13 +4251,13 @@
         <v>17</v>
       </c>
       <c r="K90" t="n">
-        <v>33428</v>
+        <v>33423</v>
       </c>
       <c r="L90" t="n">
         <v>1998</v>
       </c>
       <c r="M90" t="n">
-        <v>272069</v>
+        <v>272039</v>
       </c>
     </row>
     <row r="91">
@@ -4267,13 +4267,13 @@
         </is>
       </c>
       <c r="B91" t="n">
+        <v>7630</v>
+      </c>
+      <c r="C91" t="n">
+        <v>6</v>
+      </c>
+      <c r="D91" t="n">
         <v>7624</v>
-      </c>
-      <c r="C91" t="n">
-        <v>4</v>
-      </c>
-      <c r="D91" t="n">
-        <v>7620</v>
       </c>
       <c r="E91" t="n">
         <v>590</v>
@@ -4294,13 +4294,13 @@
         <v>19</v>
       </c>
       <c r="K91" t="n">
-        <v>34018</v>
+        <v>34013</v>
       </c>
       <c r="L91" t="n">
         <v>2017</v>
       </c>
       <c r="M91" t="n">
-        <v>279693</v>
+        <v>279669</v>
       </c>
     </row>
     <row r="92">
@@ -4313,19 +4313,19 @@
         <v>2792</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>2791</v>
+        <v>2792</v>
       </c>
       <c r="E92" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H92" t="n">
         <v>19</v>
@@ -4337,13 +4337,13 @@
         <v>19</v>
       </c>
       <c r="K92" t="n">
-        <v>34382</v>
+        <v>34376</v>
       </c>
       <c r="L92" t="n">
         <v>2036</v>
       </c>
       <c r="M92" t="n">
-        <v>282485</v>
+        <v>282461</v>
       </c>
     </row>
     <row r="93">
@@ -4353,13 +4353,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="E93" t="n">
         <v>286</v>
@@ -4380,13 +4380,13 @@
         <v>14</v>
       </c>
       <c r="K93" t="n">
-        <v>34668</v>
+        <v>34662</v>
       </c>
       <c r="L93" t="n">
         <v>2050</v>
       </c>
       <c r="M93" t="n">
-        <v>284285</v>
+        <v>284260</v>
       </c>
     </row>
     <row r="94">
@@ -4396,13 +4396,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>8009</v>
+        <v>8005</v>
       </c>
       <c r="C94" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>8000</v>
+        <v>8003</v>
       </c>
       <c r="E94" t="n">
         <v>416</v>
@@ -4423,13 +4423,13 @@
         <v>18</v>
       </c>
       <c r="K94" t="n">
-        <v>35084</v>
+        <v>35078</v>
       </c>
       <c r="L94" t="n">
         <v>2068</v>
       </c>
       <c r="M94" t="n">
-        <v>292294</v>
+        <v>292265</v>
       </c>
     </row>
     <row r="95">
@@ -4439,13 +4439,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>5585</v>
+        <v>5586</v>
       </c>
       <c r="C95" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>5566</v>
+        <v>5582</v>
       </c>
       <c r="E95" t="n">
         <v>481</v>
@@ -4466,13 +4466,13 @@
         <v>15</v>
       </c>
       <c r="K95" t="n">
-        <v>35565</v>
+        <v>35559</v>
       </c>
       <c r="L95" t="n">
         <v>2083</v>
       </c>
       <c r="M95" t="n">
-        <v>297879</v>
+        <v>297851</v>
       </c>
     </row>
     <row r="96">
@@ -4482,22 +4482,22 @@
         </is>
       </c>
       <c r="B96" t="n">
+        <v>6601</v>
+      </c>
+      <c r="C96" t="n">
+        <v>13</v>
+      </c>
+      <c r="D96" t="n">
         <v>6588</v>
       </c>
-      <c r="C96" t="n">
-        <v>14</v>
-      </c>
-      <c r="D96" t="n">
-        <v>6574</v>
-      </c>
       <c r="E96" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H96" t="n">
         <v>22</v>
@@ -4509,13 +4509,13 @@
         <v>22</v>
       </c>
       <c r="K96" t="n">
-        <v>35996</v>
+        <v>35989</v>
       </c>
       <c r="L96" t="n">
         <v>2105</v>
       </c>
       <c r="M96" t="n">
-        <v>304467</v>
+        <v>304452</v>
       </c>
     </row>
     <row r="97">
@@ -4525,40 +4525,40 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6802</v>
+        <v>6805</v>
       </c>
       <c r="C97" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>6778</v>
+        <v>6800</v>
       </c>
       <c r="E97" t="n">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H97" t="n">
         <v>22</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K97" t="n">
-        <v>36502</v>
+        <v>36494</v>
       </c>
       <c r="L97" t="n">
         <v>2127</v>
       </c>
       <c r="M97" t="n">
-        <v>311269</v>
+        <v>311257</v>
       </c>
     </row>
     <row r="98">
@@ -4568,13 +4568,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>7655</v>
+        <v>7662</v>
       </c>
       <c r="C98" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D98" t="n">
-        <v>7631</v>
+        <v>7654</v>
       </c>
       <c r="E98" t="n">
         <v>422</v>
@@ -4589,19 +4589,19 @@
         <v>21</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K98" t="n">
-        <v>36924</v>
+        <v>36916</v>
       </c>
       <c r="L98" t="n">
         <v>2148</v>
       </c>
       <c r="M98" t="n">
-        <v>318924</v>
+        <v>318919</v>
       </c>
     </row>
     <row r="99">
@@ -4611,40 +4611,40 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3553</v>
+        <v>3557</v>
       </c>
       <c r="C99" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>3543</v>
+        <v>3551</v>
       </c>
       <c r="E99" t="n">
         <v>405</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H99" t="n">
         <v>8</v>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K99" t="n">
-        <v>37329</v>
+        <v>37321</v>
       </c>
       <c r="L99" t="n">
         <v>2156</v>
       </c>
       <c r="M99" t="n">
-        <v>322477</v>
+        <v>322476</v>
       </c>
     </row>
     <row r="100">
@@ -4654,13 +4654,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1710</v>
+        <v>1733</v>
       </c>
       <c r="C100" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D100" t="n">
-        <v>1671</v>
+        <v>1707</v>
       </c>
       <c r="E100" t="n">
         <v>233</v>
@@ -4675,19 +4675,19 @@
         <v>14</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K100" t="n">
-        <v>37562</v>
+        <v>37554</v>
       </c>
       <c r="L100" t="n">
         <v>2170</v>
       </c>
       <c r="M100" t="n">
-        <v>324187</v>
+        <v>324209</v>
       </c>
     </row>
     <row r="101">
@@ -4697,19 +4697,19 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>7838</v>
+        <v>8082</v>
       </c>
       <c r="C101" t="n">
-        <v>820</v>
+        <v>275</v>
       </c>
       <c r="D101" t="n">
-        <v>7018</v>
+        <v>7807</v>
       </c>
       <c r="E101" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
         <v>389</v>
@@ -4724,13 +4724,13 @@
         <v>14</v>
       </c>
       <c r="K101" t="n">
-        <v>37952</v>
+        <v>37943</v>
       </c>
       <c r="L101" t="n">
         <v>2184</v>
       </c>
       <c r="M101" t="n">
-        <v>332025</v>
+        <v>332291</v>
       </c>
     </row>
     <row r="102">
@@ -4740,40 +4740,40 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>5270</v>
+        <v>5576</v>
       </c>
       <c r="C102" t="n">
-        <v>1676</v>
+        <v>324</v>
       </c>
       <c r="D102" t="n">
-        <v>3594</v>
+        <v>5252</v>
       </c>
       <c r="E102" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H102" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K102" t="n">
-        <v>38259</v>
+        <v>38249</v>
       </c>
       <c r="L102" t="n">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="M102" t="n">
-        <v>337295</v>
+        <v>337867</v>
       </c>
     </row>
     <row r="103">
@@ -4783,40 +4783,40 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2841</v>
+        <v>5896</v>
       </c>
       <c r="C103" t="n">
-        <v>2397</v>
+        <v>3114</v>
       </c>
       <c r="D103" t="n">
-        <v>444</v>
+        <v>2782</v>
       </c>
       <c r="E103" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="H103" t="n">
         <v>15</v>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K103" t="n">
-        <v>38684</v>
+        <v>38667</v>
       </c>
       <c r="L103" t="n">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="M103" t="n">
-        <v>340136</v>
+        <v>343763</v>
       </c>
     </row>
     <row r="104">
@@ -4826,40 +4826,40 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>469</v>
+        <v>4026</v>
       </c>
       <c r="C104" t="n">
-        <v>429</v>
+        <v>3576</v>
       </c>
       <c r="D104" t="n">
-        <v>40</v>
+        <v>450</v>
       </c>
       <c r="E104" t="n">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F104" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H104" t="n">
         <v>8</v>
       </c>
       <c r="I104" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K104" t="n">
-        <v>39121</v>
+        <v>39099</v>
       </c>
       <c r="L104" t="n">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="M104" t="n">
-        <v>340605</v>
+        <v>347789</v>
       </c>
     </row>
     <row r="105">
@@ -4869,40 +4869,83 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>32</v>
+        <v>556</v>
       </c>
       <c r="C105" t="n">
-        <v>32</v>
+        <v>525</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E105" t="n">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="F105" t="n">
-        <v>422</v>
+        <v>5</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="H105" t="n">
+        <v>9</v>
+      </c>
+      <c r="I105" t="n">
+        <v>5</v>
+      </c>
+      <c r="J105" t="n">
         <v>4</v>
       </c>
-      <c r="I105" t="n">
-        <v>4</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
       <c r="K105" t="n">
-        <v>39543</v>
+        <v>39509</v>
       </c>
       <c r="L105" t="n">
-        <v>2231</v>
+        <v>2237</v>
       </c>
       <c r="M105" t="n">
-        <v>340637</v>
+        <v>348345</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2020-06-13</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>46</v>
+      </c>
+      <c r="C106" t="n">
+        <v>46</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>400</v>
+      </c>
+      <c r="F106" t="n">
+        <v>400</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>39909</v>
+      </c>
+      <c r="L106" t="n">
+        <v>2240</v>
+      </c>
+      <c r="M106" t="n">
+        <v>348391</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2676,13 +2676,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3864</v>
+        <v>3865</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>3864</v>
+        <v>3865</v>
       </c>
       <c r="E54" t="n">
         <v>605</v>
@@ -2709,7 +2709,7 @@
         <v>838</v>
       </c>
       <c r="M54" t="n">
-        <v>85431</v>
+        <v>85432</v>
       </c>
     </row>
     <row r="55">
@@ -2752,7 +2752,7 @@
         <v>876</v>
       </c>
       <c r="M55" t="n">
-        <v>89805</v>
+        <v>89806</v>
       </c>
     </row>
     <row r="56">
@@ -2795,7 +2795,7 @@
         <v>913</v>
       </c>
       <c r="M56" t="n">
-        <v>93358</v>
+        <v>93359</v>
       </c>
     </row>
     <row r="57">
@@ -2838,7 +2838,7 @@
         <v>954</v>
       </c>
       <c r="M57" t="n">
-        <v>95644</v>
+        <v>95645</v>
       </c>
     </row>
     <row r="58">
@@ -2881,7 +2881,7 @@
         <v>988</v>
       </c>
       <c r="M58" t="n">
-        <v>97448</v>
+        <v>97449</v>
       </c>
     </row>
     <row r="59">
@@ -2924,7 +2924,7 @@
         <v>1030</v>
       </c>
       <c r="M59" t="n">
-        <v>102188</v>
+        <v>102189</v>
       </c>
     </row>
     <row r="60">
@@ -2967,7 +2967,7 @@
         <v>1064</v>
       </c>
       <c r="M60" t="n">
-        <v>107204</v>
+        <v>107205</v>
       </c>
     </row>
     <row r="61">
@@ -3010,7 +3010,7 @@
         <v>1106</v>
       </c>
       <c r="M61" t="n">
-        <v>112575</v>
+        <v>112576</v>
       </c>
     </row>
     <row r="62">
@@ -3053,7 +3053,7 @@
         <v>1151</v>
       </c>
       <c r="M62" t="n">
-        <v>118374</v>
+        <v>118375</v>
       </c>
     </row>
     <row r="63">
@@ -3096,7 +3096,7 @@
         <v>1186</v>
       </c>
       <c r="M63" t="n">
-        <v>125073</v>
+        <v>125074</v>
       </c>
     </row>
     <row r="64">
@@ -3139,7 +3139,7 @@
         <v>1230</v>
       </c>
       <c r="M64" t="n">
-        <v>128352</v>
+        <v>128353</v>
       </c>
     </row>
     <row r="65">
@@ -3182,7 +3182,7 @@
         <v>1262</v>
       </c>
       <c r="M65" t="n">
-        <v>130169</v>
+        <v>130170</v>
       </c>
     </row>
     <row r="66">
@@ -3225,7 +3225,7 @@
         <v>1300</v>
       </c>
       <c r="M66" t="n">
-        <v>135777</v>
+        <v>135778</v>
       </c>
     </row>
     <row r="67">
@@ -3235,13 +3235,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6205</v>
+        <v>6207</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>6205</v>
+        <v>6207</v>
       </c>
       <c r="E67" t="n">
         <v>836</v>
@@ -3268,7 +3268,7 @@
         <v>1337</v>
       </c>
       <c r="M67" t="n">
-        <v>141982</v>
+        <v>141985</v>
       </c>
     </row>
     <row r="68">
@@ -3278,13 +3278,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5652</v>
+        <v>5653</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>5652</v>
+        <v>5653</v>
       </c>
       <c r="E68" t="n">
         <v>623</v>
@@ -3311,7 +3311,7 @@
         <v>1380</v>
       </c>
       <c r="M68" t="n">
-        <v>147634</v>
+        <v>147638</v>
       </c>
     </row>
     <row r="69">
@@ -3321,13 +3321,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6227</v>
+        <v>6229</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>6227</v>
+        <v>6229</v>
       </c>
       <c r="E69" t="n">
         <v>637</v>
@@ -3354,7 +3354,7 @@
         <v>1414</v>
       </c>
       <c r="M69" t="n">
-        <v>153861</v>
+        <v>153867</v>
       </c>
     </row>
     <row r="70">
@@ -3364,13 +3364,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6377</v>
+        <v>6381</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>6377</v>
+        <v>6381</v>
       </c>
       <c r="E70" t="n">
         <v>589</v>
@@ -3397,7 +3397,7 @@
         <v>1439</v>
       </c>
       <c r="M70" t="n">
-        <v>160238</v>
+        <v>160248</v>
       </c>
     </row>
     <row r="71">
@@ -3440,7 +3440,7 @@
         <v>1471</v>
       </c>
       <c r="M71" t="n">
-        <v>163482</v>
+        <v>163492</v>
       </c>
     </row>
     <row r="72">
@@ -3450,10 +3450,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
         <v>1273</v>
@@ -3483,7 +3483,7 @@
         <v>1505</v>
       </c>
       <c r="M72" t="n">
-        <v>164755</v>
+        <v>164766</v>
       </c>
     </row>
     <row r="73">
@@ -3496,10 +3496,10 @@
         <v>6927</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>6926</v>
+        <v>6927</v>
       </c>
       <c r="E73" t="n">
         <v>517</v>
@@ -3526,7 +3526,7 @@
         <v>1546</v>
       </c>
       <c r="M73" t="n">
-        <v>171682</v>
+        <v>171693</v>
       </c>
     </row>
     <row r="74">
@@ -3536,13 +3536,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6671</v>
+        <v>6673</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>6671</v>
+        <v>6673</v>
       </c>
       <c r="E74" t="n">
         <v>375</v>
@@ -3569,7 +3569,7 @@
         <v>1584</v>
       </c>
       <c r="M74" t="n">
-        <v>178353</v>
+        <v>178366</v>
       </c>
     </row>
     <row r="75">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>7083</v>
+        <v>7082</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>7083</v>
+        <v>7082</v>
       </c>
       <c r="E75" t="n">
         <v>604</v>
@@ -3597,10 +3597,10 @@
         <v>604</v>
       </c>
       <c r="H75" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
         <v>26</v>
@@ -3609,10 +3609,10 @@
         <v>25990</v>
       </c>
       <c r="L75" t="n">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="M75" t="n">
-        <v>185436</v>
+        <v>185448</v>
       </c>
     </row>
     <row r="76">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>8024</v>
+        <v>8022</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>8024</v>
+        <v>8022</v>
       </c>
       <c r="E76" t="n">
         <v>586</v>
@@ -3652,10 +3652,10 @@
         <v>26576</v>
       </c>
       <c r="L76" t="n">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="M76" t="n">
-        <v>193460</v>
+        <v>193470</v>
       </c>
     </row>
     <row r="77">
@@ -3665,13 +3665,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9547</v>
+        <v>9548</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>9547</v>
+        <v>9548</v>
       </c>
       <c r="E77" t="n">
         <v>638</v>
@@ -3695,10 +3695,10 @@
         <v>27214</v>
       </c>
       <c r="L77" t="n">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="M77" t="n">
-        <v>203007</v>
+        <v>203018</v>
       </c>
     </row>
     <row r="78">
@@ -3711,10 +3711,10 @@
         <v>3096</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>3095</v>
+        <v>3096</v>
       </c>
       <c r="E78" t="n">
         <v>495</v>
@@ -3738,10 +3738,10 @@
         <v>27709</v>
       </c>
       <c r="L78" t="n">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="M78" t="n">
-        <v>206103</v>
+        <v>206114</v>
       </c>
     </row>
     <row r="79">
@@ -3781,10 +3781,10 @@
         <v>28193</v>
       </c>
       <c r="L79" t="n">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="M79" t="n">
-        <v>207984</v>
+        <v>207995</v>
       </c>
     </row>
     <row r="80">
@@ -3794,13 +3794,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>8128</v>
+        <v>8127</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>8128</v>
+        <v>8127</v>
       </c>
       <c r="E80" t="n">
         <v>455</v>
@@ -3824,10 +3824,10 @@
         <v>28648</v>
       </c>
       <c r="L80" t="n">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="M80" t="n">
-        <v>216112</v>
+        <v>216122</v>
       </c>
     </row>
     <row r="81">
@@ -3837,13 +3837,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6957</v>
+        <v>6958</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>6957</v>
+        <v>6955</v>
       </c>
       <c r="E81" t="n">
         <v>557</v>
@@ -3867,10 +3867,10 @@
         <v>29205</v>
       </c>
       <c r="L81" t="n">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="M81" t="n">
-        <v>223069</v>
+        <v>223080</v>
       </c>
     </row>
     <row r="82">
@@ -3880,13 +3880,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6483</v>
+        <v>6482</v>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>6481</v>
+        <v>6482</v>
       </c>
       <c r="E82" t="n">
         <v>648</v>
@@ -3910,10 +3910,10 @@
         <v>29853</v>
       </c>
       <c r="L82" t="n">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="M82" t="n">
-        <v>229552</v>
+        <v>229562</v>
       </c>
     </row>
     <row r="83">
@@ -3923,13 +3923,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7358</v>
+        <v>7356</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>7358</v>
+        <v>7356</v>
       </c>
       <c r="E83" t="n">
         <v>467</v>
@@ -3953,10 +3953,10 @@
         <v>30320</v>
       </c>
       <c r="L83" t="n">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="M83" t="n">
-        <v>236910</v>
+        <v>236918</v>
       </c>
     </row>
     <row r="84">
@@ -3966,13 +3966,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>8136</v>
+        <v>8135</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>8136</v>
+        <v>8135</v>
       </c>
       <c r="E84" t="n">
         <v>493</v>
@@ -3996,10 +3996,10 @@
         <v>30813</v>
       </c>
       <c r="L84" t="n">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="M84" t="n">
-        <v>245046</v>
+        <v>245053</v>
       </c>
     </row>
     <row r="85">
@@ -4039,10 +4039,10 @@
         <v>31286</v>
       </c>
       <c r="L85" t="n">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="M85" t="n">
-        <v>247845</v>
+        <v>247852</v>
       </c>
     </row>
     <row r="86">
@@ -4064,10 +4064,10 @@
         <v>344</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H86" t="n">
         <v>14</v>
@@ -4082,10 +4082,10 @@
         <v>31630</v>
       </c>
       <c r="L86" t="n">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="M86" t="n">
-        <v>249690</v>
+        <v>249697</v>
       </c>
     </row>
     <row r="87">
@@ -4125,10 +4125,10 @@
         <v>31989</v>
       </c>
       <c r="L87" t="n">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="M87" t="n">
-        <v>251426</v>
+        <v>251433</v>
       </c>
     </row>
     <row r="88">
@@ -4156,10 +4156,10 @@
         <v>350</v>
       </c>
       <c r="H88" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
         <v>18</v>
@@ -4168,10 +4168,10 @@
         <v>32339</v>
       </c>
       <c r="L88" t="n">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="M88" t="n">
-        <v>259007</v>
+        <v>259014</v>
       </c>
     </row>
     <row r="89">
@@ -4181,22 +4181,22 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>6081</v>
+        <v>6080</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>6081</v>
+        <v>6080</v>
       </c>
       <c r="E89" t="n">
         <v>604</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H89" t="n">
         <v>14</v>
@@ -4211,10 +4211,10 @@
         <v>32943</v>
       </c>
       <c r="L89" t="n">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="M89" t="n">
-        <v>265088</v>
+        <v>265094</v>
       </c>
     </row>
     <row r="90">
@@ -4224,13 +4224,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>6951</v>
+        <v>6958</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>6950</v>
+        <v>6952</v>
       </c>
       <c r="E90" t="n">
         <v>480</v>
@@ -4254,10 +4254,10 @@
         <v>33423</v>
       </c>
       <c r="L90" t="n">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="M90" t="n">
-        <v>272039</v>
+        <v>272052</v>
       </c>
     </row>
     <row r="91">
@@ -4267,13 +4267,13 @@
         </is>
       </c>
       <c r="B91" t="n">
+        <v>7633</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3</v>
+      </c>
+      <c r="D91" t="n">
         <v>7630</v>
-      </c>
-      <c r="C91" t="n">
-        <v>6</v>
-      </c>
-      <c r="D91" t="n">
-        <v>7624</v>
       </c>
       <c r="E91" t="n">
         <v>590</v>
@@ -4297,10 +4297,10 @@
         <v>34013</v>
       </c>
       <c r="L91" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="M91" t="n">
-        <v>279669</v>
+        <v>279685</v>
       </c>
     </row>
     <row r="92">
@@ -4340,10 +4340,10 @@
         <v>34376</v>
       </c>
       <c r="L92" t="n">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="M92" t="n">
-        <v>282461</v>
+        <v>282477</v>
       </c>
     </row>
     <row r="93">
@@ -4353,10 +4353,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
         <v>1799</v>
@@ -4383,10 +4383,10 @@
         <v>34662</v>
       </c>
       <c r="L93" t="n">
-        <v>2050</v>
+        <v>2052</v>
       </c>
       <c r="M93" t="n">
-        <v>284260</v>
+        <v>284277</v>
       </c>
     </row>
     <row r="94">
@@ -4396,13 +4396,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>8005</v>
+        <v>8004</v>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>8003</v>
+        <v>8004</v>
       </c>
       <c r="E94" t="n">
         <v>416</v>
@@ -4414,10 +4414,10 @@
         <v>416</v>
       </c>
       <c r="H94" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
         <v>18</v>
@@ -4426,10 +4426,10 @@
         <v>35078</v>
       </c>
       <c r="L94" t="n">
-        <v>2068</v>
+        <v>2071</v>
       </c>
       <c r="M94" t="n">
-        <v>292265</v>
+        <v>292281</v>
       </c>
     </row>
     <row r="95">
@@ -4439,13 +4439,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>5586</v>
+        <v>5588</v>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>5582</v>
+        <v>5585</v>
       </c>
       <c r="E95" t="n">
         <v>481</v>
@@ -4469,10 +4469,10 @@
         <v>35559</v>
       </c>
       <c r="L95" t="n">
-        <v>2083</v>
+        <v>2086</v>
       </c>
       <c r="M95" t="n">
-        <v>297851</v>
+        <v>297869</v>
       </c>
     </row>
     <row r="96">
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>6601</v>
+        <v>6631</v>
       </c>
       <c r="C96" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D96" t="n">
-        <v>6588</v>
+        <v>6602</v>
       </c>
       <c r="E96" t="n">
         <v>430</v>
@@ -4512,10 +4512,10 @@
         <v>35989</v>
       </c>
       <c r="L96" t="n">
-        <v>2105</v>
+        <v>2108</v>
       </c>
       <c r="M96" t="n">
-        <v>304452</v>
+        <v>304500</v>
       </c>
     </row>
     <row r="97">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6805</v>
+        <v>6810</v>
       </c>
       <c r="C97" t="n">
         <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>6800</v>
+        <v>6805</v>
       </c>
       <c r="E97" t="n">
         <v>505</v>
@@ -4555,10 +4555,10 @@
         <v>36494</v>
       </c>
       <c r="L97" t="n">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="M97" t="n">
-        <v>311257</v>
+        <v>311310</v>
       </c>
     </row>
     <row r="98">
@@ -4568,13 +4568,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>7662</v>
+        <v>7663</v>
       </c>
       <c r="C98" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>7654</v>
+        <v>7661</v>
       </c>
       <c r="E98" t="n">
         <v>422</v>
@@ -4598,10 +4598,10 @@
         <v>36916</v>
       </c>
       <c r="L98" t="n">
-        <v>2148</v>
+        <v>2151</v>
       </c>
       <c r="M98" t="n">
-        <v>318919</v>
+        <v>318973</v>
       </c>
     </row>
     <row r="99">
@@ -4611,13 +4611,13 @@
         </is>
       </c>
       <c r="B99" t="n">
+        <v>3564</v>
+      </c>
+      <c r="C99" t="n">
+        <v>7</v>
+      </c>
+      <c r="D99" t="n">
         <v>3557</v>
-      </c>
-      <c r="C99" t="n">
-        <v>6</v>
-      </c>
-      <c r="D99" t="n">
-        <v>3551</v>
       </c>
       <c r="E99" t="n">
         <v>405</v>
@@ -4641,10 +4641,10 @@
         <v>37321</v>
       </c>
       <c r="L99" t="n">
-        <v>2156</v>
+        <v>2159</v>
       </c>
       <c r="M99" t="n">
-        <v>322476</v>
+        <v>322537</v>
       </c>
     </row>
     <row r="100">
@@ -4654,13 +4654,13 @@
         </is>
       </c>
       <c r="B100" t="n">
+        <v>1755</v>
+      </c>
+      <c r="C100" t="n">
+        <v>22</v>
+      </c>
+      <c r="D100" t="n">
         <v>1733</v>
-      </c>
-      <c r="C100" t="n">
-        <v>26</v>
-      </c>
-      <c r="D100" t="n">
-        <v>1707</v>
       </c>
       <c r="E100" t="n">
         <v>233</v>
@@ -4684,10 +4684,10 @@
         <v>37554</v>
       </c>
       <c r="L100" t="n">
-        <v>2170</v>
+        <v>2173</v>
       </c>
       <c r="M100" t="n">
-        <v>324209</v>
+        <v>324292</v>
       </c>
     </row>
     <row r="101">
@@ -4697,40 +4697,40 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>8082</v>
+        <v>8360</v>
       </c>
       <c r="C101" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D101" t="n">
-        <v>7807</v>
+        <v>8080</v>
       </c>
       <c r="E101" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H101" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
         <v>14</v>
       </c>
       <c r="K101" t="n">
-        <v>37943</v>
+        <v>37942</v>
       </c>
       <c r="L101" t="n">
-        <v>2184</v>
+        <v>2188</v>
       </c>
       <c r="M101" t="n">
-        <v>332291</v>
+        <v>332652</v>
       </c>
     </row>
     <row r="102">
@@ -4740,13 +4740,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>5576</v>
+        <v>5598</v>
       </c>
       <c r="C102" t="n">
-        <v>324</v>
+        <v>30</v>
       </c>
       <c r="D102" t="n">
-        <v>5252</v>
+        <v>5568</v>
       </c>
       <c r="E102" t="n">
         <v>306</v>
@@ -4761,19 +4761,19 @@
         <v>21</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K102" t="n">
-        <v>38249</v>
+        <v>38248</v>
       </c>
       <c r="L102" t="n">
-        <v>2205</v>
+        <v>2209</v>
       </c>
       <c r="M102" t="n">
-        <v>337867</v>
+        <v>338250</v>
       </c>
     </row>
     <row r="103">
@@ -4783,13 +4783,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>5896</v>
+        <v>6768</v>
       </c>
       <c r="C103" t="n">
-        <v>3114</v>
+        <v>893</v>
       </c>
       <c r="D103" t="n">
-        <v>2782</v>
+        <v>5875</v>
       </c>
       <c r="E103" t="n">
         <v>418</v>
@@ -4801,22 +4801,22 @@
         <v>418</v>
       </c>
       <c r="H103" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
         <v>15</v>
       </c>
       <c r="K103" t="n">
-        <v>38667</v>
+        <v>38666</v>
       </c>
       <c r="L103" t="n">
-        <v>2220</v>
+        <v>2225</v>
       </c>
       <c r="M103" t="n">
-        <v>343763</v>
+        <v>345018</v>
       </c>
     </row>
     <row r="104">
@@ -4826,22 +4826,22 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>4026</v>
+        <v>7089</v>
       </c>
       <c r="C104" t="n">
-        <v>3576</v>
+        <v>3099</v>
       </c>
       <c r="D104" t="n">
-        <v>450</v>
+        <v>3990</v>
       </c>
       <c r="E104" t="n">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H104" t="n">
         <v>8</v>
@@ -4853,13 +4853,13 @@
         <v>8</v>
       </c>
       <c r="K104" t="n">
-        <v>39099</v>
+        <v>39096</v>
       </c>
       <c r="L104" t="n">
-        <v>2228</v>
+        <v>2233</v>
       </c>
       <c r="M104" t="n">
-        <v>347789</v>
+        <v>352107</v>
       </c>
     </row>
     <row r="105">
@@ -4869,40 +4869,40 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>556</v>
+        <v>3385</v>
       </c>
       <c r="C105" t="n">
-        <v>525</v>
+        <v>2831</v>
       </c>
       <c r="D105" t="n">
-        <v>31</v>
+        <v>554</v>
       </c>
       <c r="E105" t="n">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F105" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H105" t="n">
         <v>9</v>
       </c>
       <c r="I105" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K105" t="n">
-        <v>39509</v>
+        <v>39503</v>
       </c>
       <c r="L105" t="n">
-        <v>2237</v>
+        <v>2242</v>
       </c>
       <c r="M105" t="n">
-        <v>348345</v>
+        <v>355492</v>
       </c>
     </row>
     <row r="106">
@@ -4912,40 +4912,83 @@
         </is>
       </c>
       <c r="B106" t="n">
+        <v>307</v>
+      </c>
+      <c r="C106" t="n">
+        <v>261</v>
+      </c>
+      <c r="D106" t="n">
         <v>46</v>
       </c>
-      <c r="C106" t="n">
-        <v>46</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0</v>
-      </c>
       <c r="E106" t="n">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F106" t="n">
-        <v>400</v>
+        <v>2</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="H106" t="n">
+        <v>5</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2</v>
+      </c>
+      <c r="J106" t="n">
         <v>3</v>
       </c>
-      <c r="I106" t="n">
-        <v>3</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
       <c r="K106" t="n">
-        <v>39909</v>
+        <v>39899</v>
       </c>
       <c r="L106" t="n">
-        <v>2240</v>
+        <v>2247</v>
       </c>
       <c r="M106" t="n">
-        <v>348391</v>
+        <v>355799</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2020-06-14</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>30</v>
+      </c>
+      <c r="C107" t="n">
+        <v>30</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>531</v>
+      </c>
+      <c r="F107" t="n">
+        <v>531</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+      <c r="I107" t="n">
+        <v>4</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>40430</v>
+      </c>
+      <c r="L107" t="n">
+        <v>2251</v>
+      </c>
+      <c r="M107" t="n">
+        <v>355829</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:M108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1988,10 +1988,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>2422</v>
@@ -2021,7 +2021,7 @@
         <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>38363</v>
+        <v>38364</v>
       </c>
     </row>
     <row r="39">
@@ -2064,7 +2064,7 @@
         <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>41146</v>
+        <v>41147</v>
       </c>
     </row>
     <row r="40">
@@ -2107,7 +2107,7 @@
         <v>338</v>
       </c>
       <c r="M40" t="n">
-        <v>44217</v>
+        <v>44218</v>
       </c>
     </row>
     <row r="41">
@@ -2150,7 +2150,7 @@
         <v>375</v>
       </c>
       <c r="M41" t="n">
-        <v>46964</v>
+        <v>46965</v>
       </c>
     </row>
     <row r="42">
@@ -2193,7 +2193,7 @@
         <v>400</v>
       </c>
       <c r="M42" t="n">
-        <v>49692</v>
+        <v>49693</v>
       </c>
     </row>
     <row r="43">
@@ -2236,7 +2236,7 @@
         <v>420</v>
       </c>
       <c r="M43" t="n">
-        <v>51235</v>
+        <v>51236</v>
       </c>
     </row>
     <row r="44">
@@ -2279,7 +2279,7 @@
         <v>449</v>
       </c>
       <c r="M44" t="n">
-        <v>51934</v>
+        <v>51935</v>
       </c>
     </row>
     <row r="45">
@@ -2322,7 +2322,7 @@
         <v>484</v>
       </c>
       <c r="M45" t="n">
-        <v>55406</v>
+        <v>55407</v>
       </c>
     </row>
     <row r="46">
@@ -2332,10 +2332,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3625</v>
+        <v>3627</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>3625</v>
@@ -2365,7 +2365,7 @@
         <v>530</v>
       </c>
       <c r="M46" t="n">
-        <v>59031</v>
+        <v>59034</v>
       </c>
     </row>
     <row r="47">
@@ -2375,10 +2375,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
         <v>3301</v>
@@ -2408,7 +2408,7 @@
         <v>567</v>
       </c>
       <c r="M47" t="n">
-        <v>62332</v>
+        <v>62336</v>
       </c>
     </row>
     <row r="48">
@@ -2418,13 +2418,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4000</v>
+        <v>4003</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>4000</v>
+        <v>4002</v>
       </c>
       <c r="E48" t="n">
         <v>600</v>
@@ -2451,7 +2451,7 @@
         <v>601</v>
       </c>
       <c r="M48" t="n">
-        <v>66332</v>
+        <v>66339</v>
       </c>
     </row>
     <row r="49">
@@ -2461,10 +2461,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4176</v>
+        <v>4182</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
         <v>4176</v>
@@ -2494,7 +2494,7 @@
         <v>637</v>
       </c>
       <c r="M49" t="n">
-        <v>70508</v>
+        <v>70521</v>
       </c>
     </row>
     <row r="50">
@@ -2504,13 +2504,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="E50" t="n">
         <v>557</v>
@@ -2537,7 +2537,7 @@
         <v>665</v>
       </c>
       <c r="M50" t="n">
-        <v>72267</v>
+        <v>72282</v>
       </c>
     </row>
     <row r="51">
@@ -2547,13 +2547,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="E51" t="n">
         <v>479</v>
@@ -2580,7 +2580,7 @@
         <v>701</v>
       </c>
       <c r="M51" t="n">
-        <v>73369</v>
+        <v>73387</v>
       </c>
     </row>
     <row r="52">
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4346</v>
+        <v>4347</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
         <v>4346</v>
@@ -2623,7 +2623,7 @@
         <v>739</v>
       </c>
       <c r="M52" t="n">
-        <v>77715</v>
+        <v>77734</v>
       </c>
     </row>
     <row r="53">
@@ -2666,7 +2666,7 @@
         <v>788</v>
       </c>
       <c r="M53" t="n">
-        <v>81567</v>
+        <v>81586</v>
       </c>
     </row>
     <row r="54">
@@ -2709,7 +2709,7 @@
         <v>838</v>
       </c>
       <c r="M54" t="n">
-        <v>85432</v>
+        <v>85451</v>
       </c>
     </row>
     <row r="55">
@@ -2719,10 +2719,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4374</v>
+        <v>4375</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
         <v>4374</v>
@@ -2752,7 +2752,7 @@
         <v>876</v>
       </c>
       <c r="M55" t="n">
-        <v>89806</v>
+        <v>89826</v>
       </c>
     </row>
     <row r="56">
@@ -2762,10 +2762,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3553</v>
+        <v>3554</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
         <v>3553</v>
@@ -2795,7 +2795,7 @@
         <v>913</v>
       </c>
       <c r="M56" t="n">
-        <v>93359</v>
+        <v>93380</v>
       </c>
     </row>
     <row r="57">
@@ -2838,7 +2838,7 @@
         <v>954</v>
       </c>
       <c r="M57" t="n">
-        <v>95645</v>
+        <v>95666</v>
       </c>
     </row>
     <row r="58">
@@ -2848,10 +2848,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
         <v>1804</v>
@@ -2881,7 +2881,7 @@
         <v>988</v>
       </c>
       <c r="M58" t="n">
-        <v>97449</v>
+        <v>97471</v>
       </c>
     </row>
     <row r="59">
@@ -2891,10 +2891,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4740</v>
+        <v>4748</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D59" t="n">
         <v>4740</v>
@@ -2924,7 +2924,7 @@
         <v>1030</v>
       </c>
       <c r="M59" t="n">
-        <v>102189</v>
+        <v>102219</v>
       </c>
     </row>
     <row r="60">
@@ -2934,10 +2934,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>5016</v>
+        <v>5020</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>5016</v>
@@ -2967,7 +2967,7 @@
         <v>1064</v>
       </c>
       <c r="M60" t="n">
-        <v>107205</v>
+        <v>107239</v>
       </c>
     </row>
     <row r="61">
@@ -2980,10 +2980,10 @@
         <v>5371</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>5371</v>
+        <v>5370</v>
       </c>
       <c r="E61" t="n">
         <v>652</v>
@@ -3010,7 +3010,7 @@
         <v>1106</v>
       </c>
       <c r="M61" t="n">
-        <v>112576</v>
+        <v>112610</v>
       </c>
     </row>
     <row r="62">
@@ -3023,10 +3023,10 @@
         <v>5799</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>5799</v>
+        <v>5798</v>
       </c>
       <c r="E62" t="n">
         <v>793</v>
@@ -3053,7 +3053,7 @@
         <v>1151</v>
       </c>
       <c r="M62" t="n">
-        <v>118375</v>
+        <v>118409</v>
       </c>
     </row>
     <row r="63">
@@ -3063,13 +3063,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>6699</v>
+        <v>6698</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>6699</v>
+        <v>6698</v>
       </c>
       <c r="E63" t="n">
         <v>652</v>
@@ -3096,7 +3096,7 @@
         <v>1186</v>
       </c>
       <c r="M63" t="n">
-        <v>125074</v>
+        <v>125107</v>
       </c>
     </row>
     <row r="64">
@@ -3106,13 +3106,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3279</v>
+        <v>3277</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>3279</v>
+        <v>3277</v>
       </c>
       <c r="E64" t="n">
         <v>634</v>
@@ -3139,7 +3139,7 @@
         <v>1230</v>
       </c>
       <c r="M64" t="n">
-        <v>128353</v>
+        <v>128384</v>
       </c>
     </row>
     <row r="65">
@@ -3182,7 +3182,7 @@
         <v>1262</v>
       </c>
       <c r="M65" t="n">
-        <v>130170</v>
+        <v>130201</v>
       </c>
     </row>
     <row r="66">
@@ -3192,10 +3192,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5608</v>
+        <v>5612</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>5608</v>
@@ -3225,7 +3225,7 @@
         <v>1300</v>
       </c>
       <c r="M66" t="n">
-        <v>135778</v>
+        <v>135813</v>
       </c>
     </row>
     <row r="67">
@@ -3235,13 +3235,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6207</v>
+        <v>6211</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>6207</v>
+        <v>6206</v>
       </c>
       <c r="E67" t="n">
         <v>836</v>
@@ -3268,7 +3268,7 @@
         <v>1337</v>
       </c>
       <c r="M67" t="n">
-        <v>141985</v>
+        <v>142024</v>
       </c>
     </row>
     <row r="68">
@@ -3278,10 +3278,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5653</v>
+        <v>5656</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>5653</v>
@@ -3311,7 +3311,7 @@
         <v>1380</v>
       </c>
       <c r="M68" t="n">
-        <v>147638</v>
+        <v>147680</v>
       </c>
     </row>
     <row r="69">
@@ -3321,13 +3321,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6229</v>
+        <v>6227</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>6229</v>
+        <v>6227</v>
       </c>
       <c r="E69" t="n">
         <v>637</v>
@@ -3354,7 +3354,7 @@
         <v>1414</v>
       </c>
       <c r="M69" t="n">
-        <v>153867</v>
+        <v>153907</v>
       </c>
     </row>
     <row r="70">
@@ -3364,10 +3364,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6381</v>
+        <v>6384</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>6381</v>
@@ -3376,10 +3376,10 @@
         <v>589</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H70" t="n">
         <v>25</v>
@@ -3397,7 +3397,7 @@
         <v>1439</v>
       </c>
       <c r="M70" t="n">
-        <v>160248</v>
+        <v>160291</v>
       </c>
     </row>
     <row r="71">
@@ -3407,10 +3407,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3244</v>
+        <v>3245</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
         <v>3244</v>
@@ -3440,7 +3440,7 @@
         <v>1471</v>
       </c>
       <c r="M71" t="n">
-        <v>163492</v>
+        <v>163536</v>
       </c>
     </row>
     <row r="72">
@@ -3453,10 +3453,10 @@
         <v>1274</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="E72" t="n">
         <v>464</v>
@@ -3483,7 +3483,7 @@
         <v>1505</v>
       </c>
       <c r="M72" t="n">
-        <v>164766</v>
+        <v>164810</v>
       </c>
     </row>
     <row r="73">
@@ -3493,10 +3493,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6927</v>
+        <v>6934</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D73" t="n">
         <v>6927</v>
@@ -3526,7 +3526,7 @@
         <v>1546</v>
       </c>
       <c r="M73" t="n">
-        <v>171693</v>
+        <v>171744</v>
       </c>
     </row>
     <row r="74">
@@ -3536,13 +3536,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6673</v>
+        <v>6672</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>6673</v>
+        <v>6672</v>
       </c>
       <c r="E74" t="n">
         <v>375</v>
@@ -3569,7 +3569,7 @@
         <v>1584</v>
       </c>
       <c r="M74" t="n">
-        <v>178366</v>
+        <v>178416</v>
       </c>
     </row>
     <row r="75">
@@ -3582,10 +3582,10 @@
         <v>7082</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>7082</v>
+        <v>7081</v>
       </c>
       <c r="E75" t="n">
         <v>604</v>
@@ -3600,10 +3600,10 @@
         <v>27</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K75" t="n">
         <v>25990</v>
@@ -3612,7 +3612,7 @@
         <v>1611</v>
       </c>
       <c r="M75" t="n">
-        <v>185448</v>
+        <v>185498</v>
       </c>
     </row>
     <row r="76">
@@ -3655,7 +3655,7 @@
         <v>1653</v>
       </c>
       <c r="M76" t="n">
-        <v>193470</v>
+        <v>193520</v>
       </c>
     </row>
     <row r="77">
@@ -3665,10 +3665,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9548</v>
+        <v>9550</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>9548</v>
@@ -3698,7 +3698,7 @@
         <v>1685</v>
       </c>
       <c r="M77" t="n">
-        <v>203018</v>
+        <v>203070</v>
       </c>
     </row>
     <row r="78">
@@ -3741,7 +3741,7 @@
         <v>1714</v>
       </c>
       <c r="M78" t="n">
-        <v>206114</v>
+        <v>206166</v>
       </c>
     </row>
     <row r="79">
@@ -3784,7 +3784,7 @@
         <v>1743</v>
       </c>
       <c r="M79" t="n">
-        <v>207995</v>
+        <v>208047</v>
       </c>
     </row>
     <row r="80">
@@ -3794,13 +3794,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>8127</v>
+        <v>8134</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D80" t="n">
-        <v>8127</v>
+        <v>8126</v>
       </c>
       <c r="E80" t="n">
         <v>455</v>
@@ -3827,7 +3827,7 @@
         <v>1782</v>
       </c>
       <c r="M80" t="n">
-        <v>216122</v>
+        <v>216181</v>
       </c>
     </row>
     <row r="81">
@@ -3837,13 +3837,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6958</v>
+        <v>6960</v>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>6955</v>
+        <v>6959</v>
       </c>
       <c r="E81" t="n">
         <v>557</v>
@@ -3870,7 +3870,7 @@
         <v>1811</v>
       </c>
       <c r="M81" t="n">
-        <v>223080</v>
+        <v>223141</v>
       </c>
     </row>
     <row r="82">
@@ -3880,22 +3880,22 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6482</v>
+        <v>6489</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>6482</v>
+        <v>6484</v>
       </c>
       <c r="E82" t="n">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H82" t="n">
         <v>28</v>
@@ -3907,13 +3907,13 @@
         <v>28</v>
       </c>
       <c r="K82" t="n">
-        <v>29853</v>
+        <v>29852</v>
       </c>
       <c r="L82" t="n">
         <v>1839</v>
       </c>
       <c r="M82" t="n">
-        <v>229562</v>
+        <v>229630</v>
       </c>
     </row>
     <row r="83">
@@ -3923,22 +3923,22 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7356</v>
+        <v>7355</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>7356</v>
+        <v>7355</v>
       </c>
       <c r="E83" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H83" t="n">
         <v>36</v>
@@ -3950,13 +3950,13 @@
         <v>36</v>
       </c>
       <c r="K83" t="n">
-        <v>30320</v>
+        <v>30318</v>
       </c>
       <c r="L83" t="n">
         <v>1875</v>
       </c>
       <c r="M83" t="n">
-        <v>236918</v>
+        <v>236985</v>
       </c>
     </row>
     <row r="84">
@@ -3966,10 +3966,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>8135</v>
+        <v>8137</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>8135</v>
@@ -3993,13 +3993,13 @@
         <v>16</v>
       </c>
       <c r="K84" t="n">
-        <v>30813</v>
+        <v>30811</v>
       </c>
       <c r="L84" t="n">
         <v>1891</v>
       </c>
       <c r="M84" t="n">
-        <v>245053</v>
+        <v>245122</v>
       </c>
     </row>
     <row r="85">
@@ -4009,13 +4009,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="E85" t="n">
         <v>473</v>
@@ -4036,13 +4036,13 @@
         <v>24</v>
       </c>
       <c r="K85" t="n">
-        <v>31286</v>
+        <v>31284</v>
       </c>
       <c r="L85" t="n">
         <v>1915</v>
       </c>
       <c r="M85" t="n">
-        <v>247852</v>
+        <v>247920</v>
       </c>
     </row>
     <row r="86">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E86" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H86" t="n">
         <v>14</v>
@@ -4079,13 +4079,13 @@
         <v>14</v>
       </c>
       <c r="K86" t="n">
-        <v>31630</v>
+        <v>31627</v>
       </c>
       <c r="L86" t="n">
         <v>1929</v>
       </c>
       <c r="M86" t="n">
-        <v>249697</v>
+        <v>249764</v>
       </c>
     </row>
     <row r="87">
@@ -4095,10 +4095,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
         <v>1736</v>
@@ -4122,13 +4122,13 @@
         <v>21</v>
       </c>
       <c r="K87" t="n">
-        <v>31989</v>
+        <v>31986</v>
       </c>
       <c r="L87" t="n">
         <v>1950</v>
       </c>
       <c r="M87" t="n">
-        <v>251433</v>
+        <v>251501</v>
       </c>
     </row>
     <row r="88">
@@ -4138,10 +4138,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>7581</v>
+        <v>7587</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
         <v>7581</v>
@@ -4159,19 +4159,19 @@
         <v>19</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K88" t="n">
-        <v>32339</v>
+        <v>32336</v>
       </c>
       <c r="L88" t="n">
         <v>1969</v>
       </c>
       <c r="M88" t="n">
-        <v>259014</v>
+        <v>259088</v>
       </c>
     </row>
     <row r="89">
@@ -4181,22 +4181,22 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>6080</v>
+        <v>6092</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D89" t="n">
         <v>6080</v>
       </c>
       <c r="E89" t="n">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H89" t="n">
         <v>14</v>
@@ -4208,13 +4208,13 @@
         <v>14</v>
       </c>
       <c r="K89" t="n">
-        <v>32943</v>
+        <v>32939</v>
       </c>
       <c r="L89" t="n">
         <v>1983</v>
       </c>
       <c r="M89" t="n">
-        <v>265094</v>
+        <v>265180</v>
       </c>
     </row>
     <row r="90">
@@ -4224,13 +4224,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>6958</v>
+        <v>6974</v>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D90" t="n">
-        <v>6952</v>
+        <v>6955</v>
       </c>
       <c r="E90" t="n">
         <v>480</v>
@@ -4251,13 +4251,13 @@
         <v>17</v>
       </c>
       <c r="K90" t="n">
-        <v>33423</v>
+        <v>33419</v>
       </c>
       <c r="L90" t="n">
         <v>2000</v>
       </c>
       <c r="M90" t="n">
-        <v>272052</v>
+        <v>272154</v>
       </c>
     </row>
     <row r="91">
@@ -4267,13 +4267,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>7633</v>
+        <v>7636</v>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>7630</v>
+        <v>7631</v>
       </c>
       <c r="E91" t="n">
         <v>590</v>
@@ -4294,13 +4294,13 @@
         <v>19</v>
       </c>
       <c r="K91" t="n">
-        <v>34013</v>
+        <v>34009</v>
       </c>
       <c r="L91" t="n">
         <v>2019</v>
       </c>
       <c r="M91" t="n">
-        <v>279685</v>
+        <v>279790</v>
       </c>
     </row>
     <row r="92">
@@ -4310,10 +4310,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2792</v>
+        <v>2794</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>2792</v>
@@ -4328,22 +4328,22 @@
         <v>363</v>
       </c>
       <c r="H92" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
         <v>19</v>
       </c>
       <c r="K92" t="n">
-        <v>34376</v>
+        <v>34372</v>
       </c>
       <c r="L92" t="n">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="M92" t="n">
-        <v>282477</v>
+        <v>282584</v>
       </c>
     </row>
     <row r="93">
@@ -4353,13 +4353,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="E93" t="n">
         <v>286</v>
@@ -4371,22 +4371,22 @@
         <v>286</v>
       </c>
       <c r="H93" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
         <v>14</v>
       </c>
       <c r="K93" t="n">
-        <v>34662</v>
+        <v>34658</v>
       </c>
       <c r="L93" t="n">
-        <v>2052</v>
+        <v>2054</v>
       </c>
       <c r="M93" t="n">
-        <v>284277</v>
+        <v>284385</v>
       </c>
     </row>
     <row r="94">
@@ -4396,10 +4396,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>8004</v>
+        <v>8016</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D94" t="n">
         <v>8004</v>
@@ -4417,19 +4417,19 @@
         <v>19</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K94" t="n">
-        <v>35078</v>
+        <v>35074</v>
       </c>
       <c r="L94" t="n">
-        <v>2071</v>
+        <v>2073</v>
       </c>
       <c r="M94" t="n">
-        <v>292281</v>
+        <v>292401</v>
       </c>
     </row>
     <row r="95">
@@ -4439,22 +4439,22 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>5588</v>
+        <v>5601</v>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D95" t="n">
-        <v>5585</v>
+        <v>5587</v>
       </c>
       <c r="E95" t="n">
         <v>481</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H95" t="n">
         <v>15</v>
@@ -4466,13 +4466,13 @@
         <v>15</v>
       </c>
       <c r="K95" t="n">
-        <v>35559</v>
+        <v>35555</v>
       </c>
       <c r="L95" t="n">
-        <v>2086</v>
+        <v>2088</v>
       </c>
       <c r="M95" t="n">
-        <v>297869</v>
+        <v>298002</v>
       </c>
     </row>
     <row r="96">
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>6631</v>
+        <v>6653</v>
       </c>
       <c r="C96" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D96" t="n">
-        <v>6602</v>
+        <v>6630</v>
       </c>
       <c r="E96" t="n">
         <v>430</v>
@@ -4509,13 +4509,13 @@
         <v>22</v>
       </c>
       <c r="K96" t="n">
-        <v>35989</v>
+        <v>35985</v>
       </c>
       <c r="L96" t="n">
-        <v>2108</v>
+        <v>2110</v>
       </c>
       <c r="M96" t="n">
-        <v>304500</v>
+        <v>304655</v>
       </c>
     </row>
     <row r="97">
@@ -4525,10 +4525,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6810</v>
+        <v>6842</v>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D97" t="n">
         <v>6805</v>
@@ -4552,13 +4552,13 @@
         <v>22</v>
       </c>
       <c r="K97" t="n">
-        <v>36494</v>
+        <v>36490</v>
       </c>
       <c r="L97" t="n">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c r="M97" t="n">
-        <v>311310</v>
+        <v>311497</v>
       </c>
     </row>
     <row r="98">
@@ -4568,19 +4568,19 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>7663</v>
+        <v>7782</v>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="D98" t="n">
-        <v>7661</v>
+        <v>7665</v>
       </c>
       <c r="E98" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
         <v>422</v>
@@ -4595,13 +4595,13 @@
         <v>21</v>
       </c>
       <c r="K98" t="n">
-        <v>36916</v>
+        <v>36913</v>
       </c>
       <c r="L98" t="n">
-        <v>2151</v>
+        <v>2153</v>
       </c>
       <c r="M98" t="n">
-        <v>318973</v>
+        <v>319279</v>
       </c>
     </row>
     <row r="99">
@@ -4611,13 +4611,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3564</v>
+        <v>3599</v>
       </c>
       <c r="C99" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D99" t="n">
-        <v>3557</v>
+        <v>3563</v>
       </c>
       <c r="E99" t="n">
         <v>405</v>
@@ -4638,13 +4638,13 @@
         <v>8</v>
       </c>
       <c r="K99" t="n">
-        <v>37321</v>
+        <v>37318</v>
       </c>
       <c r="L99" t="n">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c r="M99" t="n">
-        <v>322537</v>
+        <v>322878</v>
       </c>
     </row>
     <row r="100">
@@ -4654,13 +4654,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1755</v>
+        <v>1875</v>
       </c>
       <c r="C100" t="n">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="D100" t="n">
-        <v>1733</v>
+        <v>1757</v>
       </c>
       <c r="E100" t="n">
         <v>233</v>
@@ -4672,22 +4672,22 @@
         <v>233</v>
       </c>
       <c r="H100" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
         <v>14</v>
       </c>
       <c r="K100" t="n">
-        <v>37554</v>
+        <v>37551</v>
       </c>
       <c r="L100" t="n">
-        <v>2173</v>
+        <v>2176</v>
       </c>
       <c r="M100" t="n">
-        <v>324292</v>
+        <v>324753</v>
       </c>
     </row>
     <row r="101">
@@ -4697,13 +4697,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>8360</v>
+        <v>9083</v>
       </c>
       <c r="C101" t="n">
-        <v>280</v>
+        <v>718</v>
       </c>
       <c r="D101" t="n">
-        <v>8080</v>
+        <v>8365</v>
       </c>
       <c r="E101" t="n">
         <v>388</v>
@@ -4718,19 +4718,19 @@
         <v>15</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K101" t="n">
-        <v>37942</v>
+        <v>37939</v>
       </c>
       <c r="L101" t="n">
-        <v>2188</v>
+        <v>2191</v>
       </c>
       <c r="M101" t="n">
-        <v>332652</v>
+        <v>333836</v>
       </c>
     </row>
     <row r="102">
@@ -4740,13 +4740,13 @@
         </is>
       </c>
       <c r="B102" t="n">
+        <v>6122</v>
+      </c>
+      <c r="C102" t="n">
+        <v>524</v>
+      </c>
+      <c r="D102" t="n">
         <v>5598</v>
-      </c>
-      <c r="C102" t="n">
-        <v>30</v>
-      </c>
-      <c r="D102" t="n">
-        <v>5568</v>
       </c>
       <c r="E102" t="n">
         <v>306</v>
@@ -4767,13 +4767,13 @@
         <v>21</v>
       </c>
       <c r="K102" t="n">
-        <v>38248</v>
+        <v>38245</v>
       </c>
       <c r="L102" t="n">
-        <v>2209</v>
+        <v>2212</v>
       </c>
       <c r="M102" t="n">
-        <v>338250</v>
+        <v>339958</v>
       </c>
     </row>
     <row r="103">
@@ -4783,40 +4783,40 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>6768</v>
+        <v>7390</v>
       </c>
       <c r="C103" t="n">
-        <v>893</v>
+        <v>587</v>
       </c>
       <c r="D103" t="n">
-        <v>5875</v>
+        <v>6803</v>
       </c>
       <c r="E103" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H103" t="n">
         <v>16</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K103" t="n">
-        <v>38666</v>
+        <v>38662</v>
       </c>
       <c r="L103" t="n">
-        <v>2225</v>
+        <v>2228</v>
       </c>
       <c r="M103" t="n">
-        <v>345018</v>
+        <v>347348</v>
       </c>
     </row>
     <row r="104">
@@ -4826,40 +4826,40 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>7089</v>
+        <v>8813</v>
       </c>
       <c r="C104" t="n">
-        <v>3099</v>
+        <v>1572</v>
       </c>
       <c r="D104" t="n">
-        <v>3990</v>
+        <v>7241</v>
       </c>
       <c r="E104" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H104" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
         <v>8</v>
       </c>
       <c r="K104" t="n">
-        <v>39096</v>
+        <v>39089</v>
       </c>
       <c r="L104" t="n">
-        <v>2233</v>
+        <v>2237</v>
       </c>
       <c r="M104" t="n">
-        <v>352107</v>
+        <v>356161</v>
       </c>
     </row>
     <row r="105">
@@ -4869,13 +4869,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>3385</v>
+        <v>6169</v>
       </c>
       <c r="C105" t="n">
-        <v>2831</v>
+        <v>3045</v>
       </c>
       <c r="D105" t="n">
-        <v>554</v>
+        <v>3124</v>
       </c>
       <c r="E105" t="n">
         <v>407</v>
@@ -4896,13 +4896,13 @@
         <v>9</v>
       </c>
       <c r="K105" t="n">
-        <v>39503</v>
+        <v>39496</v>
       </c>
       <c r="L105" t="n">
-        <v>2242</v>
+        <v>2246</v>
       </c>
       <c r="M105" t="n">
-        <v>355492</v>
+        <v>362330</v>
       </c>
     </row>
     <row r="106">
@@ -4912,40 +4912,40 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>307</v>
+        <v>1131</v>
       </c>
       <c r="C106" t="n">
-        <v>261</v>
+        <v>837</v>
       </c>
       <c r="D106" t="n">
-        <v>46</v>
+        <v>294</v>
       </c>
       <c r="E106" t="n">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
         <v>394</v>
       </c>
       <c r="H106" t="n">
+        <v>6</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
         <v>5</v>
       </c>
-      <c r="I106" t="n">
-        <v>2</v>
-      </c>
-      <c r="J106" t="n">
-        <v>3</v>
-      </c>
       <c r="K106" t="n">
-        <v>39899</v>
+        <v>39890</v>
       </c>
       <c r="L106" t="n">
-        <v>2247</v>
+        <v>2252</v>
       </c>
       <c r="M106" t="n">
-        <v>355799</v>
+        <v>363461</v>
       </c>
     </row>
     <row r="107">
@@ -4955,40 +4955,83 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>30</v>
+        <v>245</v>
       </c>
       <c r="C107" t="n">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E107" t="n">
-        <v>531</v>
+        <v>459</v>
       </c>
       <c r="F107" t="n">
-        <v>531</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="H107" t="n">
+        <v>10</v>
+      </c>
+      <c r="I107" t="n">
+        <v>6</v>
+      </c>
+      <c r="J107" t="n">
         <v>4</v>
       </c>
-      <c r="I107" t="n">
-        <v>4</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
       <c r="K107" t="n">
-        <v>40430</v>
+        <v>40349</v>
       </c>
       <c r="L107" t="n">
-        <v>2251</v>
+        <v>2262</v>
       </c>
       <c r="M107" t="n">
-        <v>355829</v>
+        <v>363706</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2020-06-15</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>39</v>
+      </c>
+      <c r="C108" t="n">
+        <v>38</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1</v>
+      </c>
+      <c r="E108" t="n">
+        <v>437</v>
+      </c>
+      <c r="F108" t="n">
+        <v>437</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+      <c r="I108" t="n">
+        <v>3</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>40786</v>
+      </c>
+      <c r="L108" t="n">
+        <v>2265</v>
+      </c>
+      <c r="M108" t="n">
+        <v>363745</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1991,10 +1991,10 @@
         <v>2423</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="E38" t="n">
         <v>556</v>
@@ -2335,10 +2335,10 @@
         <v>3627</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>3625</v>
+        <v>3627</v>
       </c>
       <c r="E46" t="n">
         <v>417</v>
@@ -2378,10 +2378,10 @@
         <v>3302</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="E47" t="n">
         <v>580</v>
@@ -2421,10 +2421,10 @@
         <v>4003</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>4002</v>
+        <v>4003</v>
       </c>
       <c r="E48" t="n">
         <v>600</v>
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4182</v>
+        <v>4181</v>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>4176</v>
+        <v>4181</v>
       </c>
       <c r="E49" t="n">
         <v>505</v>
@@ -2494,7 +2494,7 @@
         <v>637</v>
       </c>
       <c r="M49" t="n">
-        <v>70521</v>
+        <v>70520</v>
       </c>
     </row>
     <row r="50">
@@ -2507,10 +2507,10 @@
         <v>1761</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="E50" t="n">
         <v>557</v>
@@ -2537,7 +2537,7 @@
         <v>665</v>
       </c>
       <c r="M50" t="n">
-        <v>72282</v>
+        <v>72281</v>
       </c>
     </row>
     <row r="51">
@@ -2550,10 +2550,10 @@
         <v>1105</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="E51" t="n">
         <v>479</v>
@@ -2580,7 +2580,7 @@
         <v>701</v>
       </c>
       <c r="M51" t="n">
-        <v>73387</v>
+        <v>73386</v>
       </c>
     </row>
     <row r="52">
@@ -2593,10 +2593,10 @@
         <v>4347</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>4346</v>
+        <v>4347</v>
       </c>
       <c r="E52" t="n">
         <v>385</v>
@@ -2623,7 +2623,7 @@
         <v>739</v>
       </c>
       <c r="M52" t="n">
-        <v>77734</v>
+        <v>77733</v>
       </c>
     </row>
     <row r="53">
@@ -2666,7 +2666,7 @@
         <v>788</v>
       </c>
       <c r="M53" t="n">
-        <v>81586</v>
+        <v>81585</v>
       </c>
     </row>
     <row r="54">
@@ -2709,7 +2709,7 @@
         <v>838</v>
       </c>
       <c r="M54" t="n">
-        <v>85451</v>
+        <v>85450</v>
       </c>
     </row>
     <row r="55">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4375</v>
+        <v>4376</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>4374</v>
+        <v>4375</v>
       </c>
       <c r="E55" t="n">
         <v>644</v>
@@ -2765,10 +2765,10 @@
         <v>3554</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>3553</v>
+        <v>3554</v>
       </c>
       <c r="E56" t="n">
         <v>699</v>
@@ -2851,10 +2851,10 @@
         <v>1805</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="E58" t="n">
         <v>950</v>
@@ -2894,10 +2894,10 @@
         <v>4748</v>
       </c>
       <c r="C59" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>4740</v>
+        <v>4748</v>
       </c>
       <c r="E59" t="n">
         <v>620</v>
@@ -2937,10 +2937,10 @@
         <v>5020</v>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>5016</v>
+        <v>5020</v>
       </c>
       <c r="E60" t="n">
         <v>595</v>
@@ -2980,10 +2980,10 @@
         <v>5371</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>5370</v>
+        <v>5371</v>
       </c>
       <c r="E61" t="n">
         <v>652</v>
@@ -3023,10 +3023,10 @@
         <v>5799</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>5798</v>
+        <v>5799</v>
       </c>
       <c r="E62" t="n">
         <v>793</v>
@@ -3195,10 +3195,10 @@
         <v>5612</v>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>5608</v>
+        <v>5612</v>
       </c>
       <c r="E66" t="n">
         <v>525</v>
@@ -3235,13 +3235,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6211</v>
+        <v>6216</v>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>6206</v>
+        <v>6216</v>
       </c>
       <c r="E67" t="n">
         <v>836</v>
@@ -3268,7 +3268,7 @@
         <v>1337</v>
       </c>
       <c r="M67" t="n">
-        <v>142024</v>
+        <v>142029</v>
       </c>
     </row>
     <row r="68">
@@ -3278,13 +3278,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5656</v>
+        <v>5660</v>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>5653</v>
+        <v>5660</v>
       </c>
       <c r="E68" t="n">
         <v>623</v>
@@ -3311,7 +3311,7 @@
         <v>1380</v>
       </c>
       <c r="M68" t="n">
-        <v>147680</v>
+        <v>147689</v>
       </c>
     </row>
     <row r="69">
@@ -3321,13 +3321,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6227</v>
+        <v>6239</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>6227</v>
+        <v>6239</v>
       </c>
       <c r="E69" t="n">
         <v>637</v>
@@ -3354,7 +3354,7 @@
         <v>1414</v>
       </c>
       <c r="M69" t="n">
-        <v>153907</v>
+        <v>153928</v>
       </c>
     </row>
     <row r="70">
@@ -3367,19 +3367,19 @@
         <v>6384</v>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>6381</v>
+        <v>6384</v>
       </c>
       <c r="E70" t="n">
         <v>589</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H70" t="n">
         <v>25</v>
@@ -3397,7 +3397,7 @@
         <v>1439</v>
       </c>
       <c r="M70" t="n">
-        <v>160291</v>
+        <v>160312</v>
       </c>
     </row>
     <row r="71">
@@ -3407,13 +3407,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3245</v>
+        <v>3246</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>3244</v>
+        <v>3246</v>
       </c>
       <c r="E71" t="n">
         <v>388</v>
@@ -3440,7 +3440,7 @@
         <v>1471</v>
       </c>
       <c r="M71" t="n">
-        <v>163536</v>
+        <v>163558</v>
       </c>
     </row>
     <row r="72">
@@ -3483,7 +3483,7 @@
         <v>1505</v>
       </c>
       <c r="M72" t="n">
-        <v>164810</v>
+        <v>164832</v>
       </c>
     </row>
     <row r="73">
@@ -3493,13 +3493,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6934</v>
+        <v>6936</v>
       </c>
       <c r="C73" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>6927</v>
+        <v>6935</v>
       </c>
       <c r="E73" t="n">
         <v>517</v>
@@ -3526,7 +3526,7 @@
         <v>1546</v>
       </c>
       <c r="M73" t="n">
-        <v>171744</v>
+        <v>171768</v>
       </c>
     </row>
     <row r="74">
@@ -3536,13 +3536,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6672</v>
+        <v>6675</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>6672</v>
+        <v>6674</v>
       </c>
       <c r="E74" t="n">
         <v>375</v>
@@ -3569,7 +3569,7 @@
         <v>1584</v>
       </c>
       <c r="M74" t="n">
-        <v>178416</v>
+        <v>178443</v>
       </c>
     </row>
     <row r="75">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>7082</v>
+        <v>7079</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>7081</v>
+        <v>7079</v>
       </c>
       <c r="E75" t="n">
         <v>604</v>
@@ -3612,7 +3612,7 @@
         <v>1611</v>
       </c>
       <c r="M75" t="n">
-        <v>185498</v>
+        <v>185522</v>
       </c>
     </row>
     <row r="76">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>8022</v>
+        <v>8017</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>8022</v>
+        <v>8017</v>
       </c>
       <c r="E76" t="n">
         <v>586</v>
@@ -3655,7 +3655,7 @@
         <v>1653</v>
       </c>
       <c r="M76" t="n">
-        <v>193520</v>
+        <v>193539</v>
       </c>
     </row>
     <row r="77">
@@ -3665,13 +3665,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9550</v>
+        <v>9548</v>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>9548</v>
+        <v>9547</v>
       </c>
       <c r="E77" t="n">
         <v>638</v>
@@ -3698,7 +3698,7 @@
         <v>1685</v>
       </c>
       <c r="M77" t="n">
-        <v>203070</v>
+        <v>203087</v>
       </c>
     </row>
     <row r="78">
@@ -3708,13 +3708,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3096</v>
+        <v>3091</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>3096</v>
+        <v>3091</v>
       </c>
       <c r="E78" t="n">
         <v>495</v>
@@ -3741,7 +3741,7 @@
         <v>1714</v>
       </c>
       <c r="M78" t="n">
-        <v>206166</v>
+        <v>206178</v>
       </c>
     </row>
     <row r="79">
@@ -3751,13 +3751,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="E79" t="n">
         <v>484</v>
@@ -3784,7 +3784,7 @@
         <v>1743</v>
       </c>
       <c r="M79" t="n">
-        <v>208047</v>
+        <v>208058</v>
       </c>
     </row>
     <row r="80">
@@ -3794,13 +3794,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>8134</v>
+        <v>8128</v>
       </c>
       <c r="C80" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>8126</v>
+        <v>8128</v>
       </c>
       <c r="E80" t="n">
         <v>455</v>
@@ -3827,7 +3827,7 @@
         <v>1782</v>
       </c>
       <c r="M80" t="n">
-        <v>216181</v>
+        <v>216186</v>
       </c>
     </row>
     <row r="81">
@@ -3837,13 +3837,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6960</v>
+        <v>6959</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>6959</v>
+        <v>6958</v>
       </c>
       <c r="E81" t="n">
         <v>557</v>
@@ -3870,7 +3870,7 @@
         <v>1811</v>
       </c>
       <c r="M81" t="n">
-        <v>223141</v>
+        <v>223145</v>
       </c>
     </row>
     <row r="82">
@@ -3883,37 +3883,37 @@
         <v>6489</v>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>6484</v>
+        <v>6488</v>
       </c>
       <c r="E82" t="n">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H82" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
         <v>28</v>
       </c>
       <c r="K82" t="n">
-        <v>29852</v>
+        <v>29851</v>
       </c>
       <c r="L82" t="n">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="M82" t="n">
-        <v>229630</v>
+        <v>229634</v>
       </c>
     </row>
     <row r="83">
@@ -3923,13 +3923,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7355</v>
+        <v>7353</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>7355</v>
+        <v>7353</v>
       </c>
       <c r="E83" t="n">
         <v>466</v>
@@ -3950,13 +3950,13 @@
         <v>36</v>
       </c>
       <c r="K83" t="n">
-        <v>30318</v>
+        <v>30317</v>
       </c>
       <c r="L83" t="n">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="M83" t="n">
-        <v>236985</v>
+        <v>236987</v>
       </c>
     </row>
     <row r="84">
@@ -3966,13 +3966,13 @@
         </is>
       </c>
       <c r="B84" t="n">
+        <v>8140</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3</v>
+      </c>
+      <c r="D84" t="n">
         <v>8137</v>
-      </c>
-      <c r="C84" t="n">
-        <v>2</v>
-      </c>
-      <c r="D84" t="n">
-        <v>8135</v>
       </c>
       <c r="E84" t="n">
         <v>493</v>
@@ -3993,13 +3993,13 @@
         <v>16</v>
       </c>
       <c r="K84" t="n">
-        <v>30811</v>
+        <v>30810</v>
       </c>
       <c r="L84" t="n">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="M84" t="n">
-        <v>245122</v>
+        <v>245127</v>
       </c>
     </row>
     <row r="85">
@@ -4009,10 +4009,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2798</v>
+        <v>2799</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
         <v>2798</v>
@@ -4036,13 +4036,13 @@
         <v>24</v>
       </c>
       <c r="K85" t="n">
-        <v>31284</v>
+        <v>31283</v>
       </c>
       <c r="L85" t="n">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="M85" t="n">
-        <v>247920</v>
+        <v>247926</v>
       </c>
     </row>
     <row r="86">
@@ -4079,13 +4079,13 @@
         <v>14</v>
       </c>
       <c r="K86" t="n">
-        <v>31627</v>
+        <v>31626</v>
       </c>
       <c r="L86" t="n">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="M86" t="n">
-        <v>249764</v>
+        <v>249770</v>
       </c>
     </row>
     <row r="87">
@@ -4095,13 +4095,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1737</v>
+        <v>1747</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D87" t="n">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="E87" t="n">
         <v>359</v>
@@ -4122,13 +4122,13 @@
         <v>21</v>
       </c>
       <c r="K87" t="n">
-        <v>31986</v>
+        <v>31985</v>
       </c>
       <c r="L87" t="n">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="M87" t="n">
-        <v>251501</v>
+        <v>251517</v>
       </c>
     </row>
     <row r="88">
@@ -4138,13 +4138,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>7587</v>
+        <v>7591</v>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>7581</v>
+        <v>7588</v>
       </c>
       <c r="E88" t="n">
         <v>350</v>
@@ -4165,13 +4165,13 @@
         <v>19</v>
       </c>
       <c r="K88" t="n">
-        <v>32336</v>
+        <v>32335</v>
       </c>
       <c r="L88" t="n">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="M88" t="n">
-        <v>259088</v>
+        <v>259108</v>
       </c>
     </row>
     <row r="89">
@@ -4181,13 +4181,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>6092</v>
+        <v>6112</v>
       </c>
       <c r="C89" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D89" t="n">
-        <v>6080</v>
+        <v>6087</v>
       </c>
       <c r="E89" t="n">
         <v>603</v>
@@ -4208,13 +4208,13 @@
         <v>14</v>
       </c>
       <c r="K89" t="n">
-        <v>32939</v>
+        <v>32938</v>
       </c>
       <c r="L89" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="M89" t="n">
-        <v>265180</v>
+        <v>265220</v>
       </c>
     </row>
     <row r="90">
@@ -4224,13 +4224,13 @@
         </is>
       </c>
       <c r="B90" t="n">
+        <v>6976</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2</v>
+      </c>
+      <c r="D90" t="n">
         <v>6974</v>
-      </c>
-      <c r="C90" t="n">
-        <v>19</v>
-      </c>
-      <c r="D90" t="n">
-        <v>6955</v>
       </c>
       <c r="E90" t="n">
         <v>480</v>
@@ -4251,13 +4251,13 @@
         <v>17</v>
       </c>
       <c r="K90" t="n">
-        <v>33419</v>
+        <v>33418</v>
       </c>
       <c r="L90" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="M90" t="n">
-        <v>272154</v>
+        <v>272196</v>
       </c>
     </row>
     <row r="91">
@@ -4267,13 +4267,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>7636</v>
+        <v>7640</v>
       </c>
       <c r="C91" t="n">
         <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>7631</v>
+        <v>7635</v>
       </c>
       <c r="E91" t="n">
         <v>590</v>
@@ -4294,13 +4294,13 @@
         <v>19</v>
       </c>
       <c r="K91" t="n">
-        <v>34009</v>
+        <v>34008</v>
       </c>
       <c r="L91" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M91" t="n">
-        <v>279790</v>
+        <v>279836</v>
       </c>
     </row>
     <row r="92">
@@ -4313,10 +4313,10 @@
         <v>2794</v>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>2792</v>
+        <v>2793</v>
       </c>
       <c r="E92" t="n">
         <v>363</v>
@@ -4328,22 +4328,22 @@
         <v>363</v>
       </c>
       <c r="H92" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K92" t="n">
-        <v>34372</v>
+        <v>34371</v>
       </c>
       <c r="L92" t="n">
-        <v>2039</v>
+        <v>2041</v>
       </c>
       <c r="M92" t="n">
-        <v>282584</v>
+        <v>282630</v>
       </c>
     </row>
     <row r="93">
@@ -4356,37 +4356,37 @@
         <v>1801</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="E93" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H93" t="n">
         <v>15</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K93" t="n">
-        <v>34658</v>
+        <v>34656</v>
       </c>
       <c r="L93" t="n">
-        <v>2054</v>
+        <v>2056</v>
       </c>
       <c r="M93" t="n">
-        <v>284385</v>
+        <v>284431</v>
       </c>
     </row>
     <row r="94">
@@ -4396,13 +4396,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>8016</v>
+        <v>8020</v>
       </c>
       <c r="C94" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>8004</v>
+        <v>8014</v>
       </c>
       <c r="E94" t="n">
         <v>416</v>
@@ -4423,13 +4423,13 @@
         <v>19</v>
       </c>
       <c r="K94" t="n">
-        <v>35074</v>
+        <v>35072</v>
       </c>
       <c r="L94" t="n">
-        <v>2073</v>
+        <v>2075</v>
       </c>
       <c r="M94" t="n">
-        <v>292401</v>
+        <v>292451</v>
       </c>
     </row>
     <row r="95">
@@ -4439,22 +4439,22 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>5601</v>
+        <v>5603</v>
       </c>
       <c r="C95" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>5587</v>
+        <v>5600</v>
       </c>
       <c r="E95" t="n">
         <v>481</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H95" t="n">
         <v>15</v>
@@ -4466,13 +4466,13 @@
         <v>15</v>
       </c>
       <c r="K95" t="n">
-        <v>35555</v>
+        <v>35553</v>
       </c>
       <c r="L95" t="n">
-        <v>2088</v>
+        <v>2090</v>
       </c>
       <c r="M95" t="n">
-        <v>298002</v>
+        <v>298054</v>
       </c>
     </row>
     <row r="96">
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>6653</v>
+        <v>6658</v>
       </c>
       <c r="C96" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D96" t="n">
-        <v>6630</v>
+        <v>6650</v>
       </c>
       <c r="E96" t="n">
         <v>430</v>
@@ -4500,22 +4500,22 @@
         <v>430</v>
       </c>
       <c r="H96" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
         <v>22</v>
       </c>
       <c r="K96" t="n">
-        <v>35985</v>
+        <v>35983</v>
       </c>
       <c r="L96" t="n">
-        <v>2110</v>
+        <v>2113</v>
       </c>
       <c r="M96" t="n">
-        <v>304655</v>
+        <v>304712</v>
       </c>
     </row>
     <row r="97">
@@ -4525,22 +4525,22 @@
         </is>
       </c>
       <c r="B97" t="n">
+        <v>6846</v>
+      </c>
+      <c r="C97" t="n">
+        <v>4</v>
+      </c>
+      <c r="D97" t="n">
         <v>6842</v>
-      </c>
-      <c r="C97" t="n">
-        <v>37</v>
-      </c>
-      <c r="D97" t="n">
-        <v>6805</v>
       </c>
       <c r="E97" t="n">
         <v>505</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H97" t="n">
         <v>22</v>
@@ -4552,13 +4552,13 @@
         <v>22</v>
       </c>
       <c r="K97" t="n">
-        <v>36490</v>
+        <v>36488</v>
       </c>
       <c r="L97" t="n">
-        <v>2132</v>
+        <v>2135</v>
       </c>
       <c r="M97" t="n">
-        <v>311497</v>
+        <v>311558</v>
       </c>
     </row>
     <row r="98">
@@ -4568,22 +4568,22 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>7782</v>
+        <v>7792</v>
       </c>
       <c r="C98" t="n">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="D98" t="n">
-        <v>7665</v>
+        <v>7779</v>
       </c>
       <c r="E98" t="n">
         <v>423</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H98" t="n">
         <v>21</v>
@@ -4595,13 +4595,13 @@
         <v>21</v>
       </c>
       <c r="K98" t="n">
-        <v>36913</v>
+        <v>36911</v>
       </c>
       <c r="L98" t="n">
-        <v>2153</v>
+        <v>2156</v>
       </c>
       <c r="M98" t="n">
-        <v>319279</v>
+        <v>319350</v>
       </c>
     </row>
     <row r="99">
@@ -4611,13 +4611,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3599</v>
+        <v>3613</v>
       </c>
       <c r="C99" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D99" t="n">
-        <v>3563</v>
+        <v>3598</v>
       </c>
       <c r="E99" t="n">
         <v>405</v>
@@ -4638,13 +4638,13 @@
         <v>8</v>
       </c>
       <c r="K99" t="n">
-        <v>37318</v>
+        <v>37316</v>
       </c>
       <c r="L99" t="n">
-        <v>2161</v>
+        <v>2164</v>
       </c>
       <c r="M99" t="n">
-        <v>322878</v>
+        <v>322963</v>
       </c>
     </row>
     <row r="100">
@@ -4654,13 +4654,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1875</v>
+        <v>1882</v>
       </c>
       <c r="C100" t="n">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="D100" t="n">
-        <v>1757</v>
+        <v>1869</v>
       </c>
       <c r="E100" t="n">
         <v>233</v>
@@ -4675,19 +4675,19 @@
         <v>15</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K100" t="n">
-        <v>37551</v>
+        <v>37549</v>
       </c>
       <c r="L100" t="n">
-        <v>2176</v>
+        <v>2179</v>
       </c>
       <c r="M100" t="n">
-        <v>324753</v>
+        <v>324845</v>
       </c>
     </row>
     <row r="101">
@@ -4697,13 +4697,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>9083</v>
+        <v>9456</v>
       </c>
       <c r="C101" t="n">
-        <v>718</v>
+        <v>381</v>
       </c>
       <c r="D101" t="n">
-        <v>8365</v>
+        <v>9075</v>
       </c>
       <c r="E101" t="n">
         <v>388</v>
@@ -4724,13 +4724,13 @@
         <v>15</v>
       </c>
       <c r="K101" t="n">
-        <v>37939</v>
+        <v>37937</v>
       </c>
       <c r="L101" t="n">
-        <v>2191</v>
+        <v>2194</v>
       </c>
       <c r="M101" t="n">
-        <v>333836</v>
+        <v>334301</v>
       </c>
     </row>
     <row r="102">
@@ -4740,13 +4740,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>6122</v>
+        <v>6347</v>
       </c>
       <c r="C102" t="n">
-        <v>524</v>
+        <v>236</v>
       </c>
       <c r="D102" t="n">
-        <v>5598</v>
+        <v>6111</v>
       </c>
       <c r="E102" t="n">
         <v>306</v>
@@ -4767,13 +4767,13 @@
         <v>21</v>
       </c>
       <c r="K102" t="n">
-        <v>38245</v>
+        <v>38243</v>
       </c>
       <c r="L102" t="n">
-        <v>2212</v>
+        <v>2215</v>
       </c>
       <c r="M102" t="n">
-        <v>339958</v>
+        <v>340648</v>
       </c>
     </row>
     <row r="103">
@@ -4783,22 +4783,22 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>7390</v>
+        <v>7670</v>
       </c>
       <c r="C103" t="n">
-        <v>587</v>
+        <v>269</v>
       </c>
       <c r="D103" t="n">
-        <v>6803</v>
+        <v>7401</v>
       </c>
       <c r="E103" t="n">
         <v>417</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H103" t="n">
         <v>16</v>
@@ -4810,13 +4810,13 @@
         <v>16</v>
       </c>
       <c r="K103" t="n">
-        <v>38662</v>
+        <v>38660</v>
       </c>
       <c r="L103" t="n">
-        <v>2228</v>
+        <v>2231</v>
       </c>
       <c r="M103" t="n">
-        <v>347348</v>
+        <v>348318</v>
       </c>
     </row>
     <row r="104">
@@ -4826,40 +4826,40 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>8813</v>
+        <v>9410</v>
       </c>
       <c r="C104" t="n">
-        <v>1572</v>
+        <v>302</v>
       </c>
       <c r="D104" t="n">
-        <v>7241</v>
+        <v>9108</v>
       </c>
       <c r="E104" t="n">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H104" t="n">
+        <v>13</v>
+      </c>
+      <c r="I104" t="n">
+        <v>4</v>
+      </c>
+      <c r="J104" t="n">
         <v>9</v>
       </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>8</v>
-      </c>
       <c r="K104" t="n">
-        <v>39089</v>
+        <v>39085</v>
       </c>
       <c r="L104" t="n">
-        <v>2237</v>
+        <v>2244</v>
       </c>
       <c r="M104" t="n">
-        <v>356161</v>
+        <v>357728</v>
       </c>
     </row>
     <row r="105">
@@ -4869,40 +4869,40 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>6169</v>
+        <v>8522</v>
       </c>
       <c r="C105" t="n">
-        <v>3045</v>
+        <v>2587</v>
       </c>
       <c r="D105" t="n">
-        <v>3124</v>
+        <v>5935</v>
       </c>
       <c r="E105" t="n">
         <v>407</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G105" t="n">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H105" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="n">
         <v>9</v>
       </c>
       <c r="K105" t="n">
-        <v>39496</v>
+        <v>39492</v>
       </c>
       <c r="L105" t="n">
-        <v>2246</v>
+        <v>2255</v>
       </c>
       <c r="M105" t="n">
-        <v>362330</v>
+        <v>366250</v>
       </c>
     </row>
     <row r="106">
@@ -4912,13 +4912,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1131</v>
+        <v>3485</v>
       </c>
       <c r="C106" t="n">
-        <v>837</v>
+        <v>2487</v>
       </c>
       <c r="D106" t="n">
-        <v>294</v>
+        <v>998</v>
       </c>
       <c r="E106" t="n">
         <v>394</v>
@@ -4930,22 +4930,22 @@
         <v>394</v>
       </c>
       <c r="H106" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K106" t="n">
-        <v>39890</v>
+        <v>39886</v>
       </c>
       <c r="L106" t="n">
-        <v>2252</v>
+        <v>2262</v>
       </c>
       <c r="M106" t="n">
-        <v>363461</v>
+        <v>369735</v>
       </c>
     </row>
     <row r="107">
@@ -4955,40 +4955,40 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>245</v>
+        <v>794</v>
       </c>
       <c r="C107" t="n">
-        <v>217</v>
+        <v>570</v>
       </c>
       <c r="D107" t="n">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c r="E107" t="n">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G107" t="n">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="H107" t="n">
+        <v>12</v>
+      </c>
+      <c r="I107" t="n">
+        <v>2</v>
+      </c>
+      <c r="J107" t="n">
         <v>10</v>
       </c>
-      <c r="I107" t="n">
-        <v>6</v>
-      </c>
-      <c r="J107" t="n">
-        <v>4</v>
-      </c>
       <c r="K107" t="n">
-        <v>40349</v>
+        <v>40340</v>
       </c>
       <c r="L107" t="n">
-        <v>2262</v>
+        <v>2274</v>
       </c>
       <c r="M107" t="n">
-        <v>363706</v>
+        <v>370529</v>
       </c>
     </row>
     <row r="108">
@@ -4998,40 +4998,83 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>39</v>
+        <v>619</v>
       </c>
       <c r="C108" t="n">
-        <v>38</v>
+        <v>582</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E108" t="n">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="F108" t="n">
-        <v>437</v>
+        <v>6</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="H108" t="n">
+        <v>9</v>
+      </c>
+      <c r="I108" t="n">
+        <v>6</v>
+      </c>
+      <c r="J108" t="n">
         <v>3</v>
       </c>
-      <c r="I108" t="n">
-        <v>3</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
       <c r="K108" t="n">
-        <v>40786</v>
+        <v>40763</v>
       </c>
       <c r="L108" t="n">
-        <v>2265</v>
+        <v>2283</v>
       </c>
       <c r="M108" t="n">
-        <v>363745</v>
+        <v>371148</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>34</v>
+      </c>
+      <c r="C109" t="n">
+        <v>34</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>250</v>
+      </c>
+      <c r="F109" t="n">
+        <v>250</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+      <c r="I109" t="n">
+        <v>6</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>41013</v>
+      </c>
+      <c r="L109" t="n">
+        <v>2289</v>
+      </c>
+      <c r="M109" t="n">
+        <v>371182</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:M110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1386,10 +1386,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>1452</v>
@@ -1419,7 +1419,7 @@
         <v>24</v>
       </c>
       <c r="M24" t="n">
-        <v>9290</v>
+        <v>9291</v>
       </c>
     </row>
     <row r="25">
@@ -1462,7 +1462,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="n">
-        <v>10897</v>
+        <v>10898</v>
       </c>
     </row>
     <row r="26">
@@ -1505,7 +1505,7 @@
         <v>35</v>
       </c>
       <c r="M26" t="n">
-        <v>13220</v>
+        <v>13221</v>
       </c>
     </row>
     <row r="27">
@@ -1515,10 +1515,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2605</v>
+        <v>2608</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>2605</v>
@@ -1548,7 +1548,7 @@
         <v>44</v>
       </c>
       <c r="M27" t="n">
-        <v>15825</v>
+        <v>15829</v>
       </c>
     </row>
     <row r="28">
@@ -1591,7 +1591,7 @@
         <v>47</v>
       </c>
       <c r="M28" t="n">
-        <v>17987</v>
+        <v>17991</v>
       </c>
     </row>
     <row r="29">
@@ -1634,7 +1634,7 @@
         <v>58</v>
       </c>
       <c r="M29" t="n">
-        <v>19266</v>
+        <v>19270</v>
       </c>
     </row>
     <row r="30">
@@ -1647,10 +1647,10 @@
         <v>1632</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="E30" t="n">
         <v>271</v>
@@ -1677,7 +1677,7 @@
         <v>76</v>
       </c>
       <c r="M30" t="n">
-        <v>20898</v>
+        <v>20902</v>
       </c>
     </row>
     <row r="31">
@@ -1720,7 +1720,7 @@
         <v>91</v>
       </c>
       <c r="M31" t="n">
-        <v>22858</v>
+        <v>22862</v>
       </c>
     </row>
     <row r="32">
@@ -1733,10 +1733,10 @@
         <v>2316</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="E32" t="n">
         <v>406</v>
@@ -1763,7 +1763,7 @@
         <v>113</v>
       </c>
       <c r="M32" t="n">
-        <v>25174</v>
+        <v>25178</v>
       </c>
     </row>
     <row r="33">
@@ -1806,7 +1806,7 @@
         <v>135</v>
       </c>
       <c r="M33" t="n">
-        <v>27714</v>
+        <v>27718</v>
       </c>
     </row>
     <row r="34">
@@ -1849,7 +1849,7 @@
         <v>157</v>
       </c>
       <c r="M34" t="n">
-        <v>30409</v>
+        <v>30413</v>
       </c>
     </row>
     <row r="35">
@@ -1892,7 +1892,7 @@
         <v>189</v>
       </c>
       <c r="M35" t="n">
-        <v>33210</v>
+        <v>33214</v>
       </c>
     </row>
     <row r="36">
@@ -1935,7 +1935,7 @@
         <v>214</v>
       </c>
       <c r="M36" t="n">
-        <v>34846</v>
+        <v>34850</v>
       </c>
     </row>
     <row r="37">
@@ -1957,10 +1957,10 @@
         <v>527</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H37" t="n">
         <v>34</v>
@@ -1978,7 +1978,7 @@
         <v>248</v>
       </c>
       <c r="M37" t="n">
-        <v>35941</v>
+        <v>35945</v>
       </c>
     </row>
     <row r="38">
@@ -2021,7 +2021,7 @@
         <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>38364</v>
+        <v>38368</v>
       </c>
     </row>
     <row r="39">
@@ -2064,7 +2064,7 @@
         <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>41147</v>
+        <v>41151</v>
       </c>
     </row>
     <row r="40">
@@ -2107,7 +2107,7 @@
         <v>338</v>
       </c>
       <c r="M40" t="n">
-        <v>44218</v>
+        <v>44222</v>
       </c>
     </row>
     <row r="41">
@@ -2150,7 +2150,7 @@
         <v>375</v>
       </c>
       <c r="M41" t="n">
-        <v>46965</v>
+        <v>46969</v>
       </c>
     </row>
     <row r="42">
@@ -2193,7 +2193,7 @@
         <v>400</v>
       </c>
       <c r="M42" t="n">
-        <v>49693</v>
+        <v>49697</v>
       </c>
     </row>
     <row r="43">
@@ -2236,7 +2236,7 @@
         <v>420</v>
       </c>
       <c r="M43" t="n">
-        <v>51236</v>
+        <v>51240</v>
       </c>
     </row>
     <row r="44">
@@ -2279,7 +2279,7 @@
         <v>449</v>
       </c>
       <c r="M44" t="n">
-        <v>51935</v>
+        <v>51939</v>
       </c>
     </row>
     <row r="45">
@@ -2322,7 +2322,7 @@
         <v>484</v>
       </c>
       <c r="M45" t="n">
-        <v>55407</v>
+        <v>55411</v>
       </c>
     </row>
     <row r="46">
@@ -2365,7 +2365,7 @@
         <v>530</v>
       </c>
       <c r="M46" t="n">
-        <v>59034</v>
+        <v>59038</v>
       </c>
     </row>
     <row r="47">
@@ -2393,10 +2393,10 @@
         <v>580</v>
       </c>
       <c r="H47" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
         <v>37</v>
@@ -2405,10 +2405,10 @@
         <v>9490</v>
       </c>
       <c r="L47" t="n">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M47" t="n">
-        <v>62336</v>
+        <v>62340</v>
       </c>
     </row>
     <row r="48">
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4003</v>
+        <v>4004</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
         <v>4003</v>
@@ -2448,10 +2448,10 @@
         <v>10090</v>
       </c>
       <c r="L48" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M48" t="n">
-        <v>66339</v>
+        <v>66344</v>
       </c>
     </row>
     <row r="49">
@@ -2491,10 +2491,10 @@
         <v>10595</v>
       </c>
       <c r="L49" t="n">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M49" t="n">
-        <v>70520</v>
+        <v>70525</v>
       </c>
     </row>
     <row r="50">
@@ -2534,10 +2534,10 @@
         <v>11152</v>
       </c>
       <c r="L50" t="n">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="M50" t="n">
-        <v>72281</v>
+        <v>72286</v>
       </c>
     </row>
     <row r="51">
@@ -2577,10 +2577,10 @@
         <v>11631</v>
       </c>
       <c r="L51" t="n">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="M51" t="n">
-        <v>73386</v>
+        <v>73391</v>
       </c>
     </row>
     <row r="52">
@@ -2620,10 +2620,10 @@
         <v>12016</v>
       </c>
       <c r="L52" t="n">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M52" t="n">
-        <v>77733</v>
+        <v>77738</v>
       </c>
     </row>
     <row r="53">
@@ -2663,10 +2663,10 @@
         <v>12395</v>
       </c>
       <c r="L53" t="n">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="M53" t="n">
-        <v>81585</v>
+        <v>81590</v>
       </c>
     </row>
     <row r="54">
@@ -2676,13 +2676,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3865</v>
+        <v>3880</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D54" t="n">
-        <v>3865</v>
+        <v>3867</v>
       </c>
       <c r="E54" t="n">
         <v>605</v>
@@ -2706,10 +2706,10 @@
         <v>13000</v>
       </c>
       <c r="L54" t="n">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="M54" t="n">
-        <v>85450</v>
+        <v>85470</v>
       </c>
     </row>
     <row r="55">
@@ -2722,10 +2722,10 @@
         <v>4376</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>4375</v>
+        <v>4376</v>
       </c>
       <c r="E55" t="n">
         <v>644</v>
@@ -2749,10 +2749,10 @@
         <v>13644</v>
       </c>
       <c r="L55" t="n">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="M55" t="n">
-        <v>89826</v>
+        <v>89846</v>
       </c>
     </row>
     <row r="56">
@@ -2762,13 +2762,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3554</v>
+        <v>3555</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="E56" t="n">
         <v>699</v>
@@ -2792,10 +2792,10 @@
         <v>14343</v>
       </c>
       <c r="L56" t="n">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="M56" t="n">
-        <v>93380</v>
+        <v>93401</v>
       </c>
     </row>
     <row r="57">
@@ -2805,13 +2805,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="E57" t="n">
         <v>624</v>
@@ -2835,10 +2835,10 @@
         <v>14967</v>
       </c>
       <c r="L57" t="n">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="M57" t="n">
-        <v>95666</v>
+        <v>95688</v>
       </c>
     </row>
     <row r="58">
@@ -2848,10 +2848,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>1805</v>
@@ -2878,10 +2878,10 @@
         <v>15917</v>
       </c>
       <c r="L58" t="n">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="M58" t="n">
-        <v>97471</v>
+        <v>97496</v>
       </c>
     </row>
     <row r="59">
@@ -2891,13 +2891,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4748</v>
+        <v>4747</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>4748</v>
+        <v>4747</v>
       </c>
       <c r="E59" t="n">
         <v>620</v>
@@ -2921,10 +2921,10 @@
         <v>16537</v>
       </c>
       <c r="L59" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="M59" t="n">
-        <v>102219</v>
+        <v>102243</v>
       </c>
     </row>
     <row r="60">
@@ -2934,10 +2934,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>5020</v>
+        <v>5021</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
         <v>5020</v>
@@ -2964,10 +2964,10 @@
         <v>17132</v>
       </c>
       <c r="L60" t="n">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="M60" t="n">
-        <v>107239</v>
+        <v>107264</v>
       </c>
     </row>
     <row r="61">
@@ -2980,37 +2980,37 @@
         <v>5371</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>5371</v>
+        <v>5370</v>
       </c>
       <c r="E61" t="n">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H61" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
         <v>42</v>
       </c>
       <c r="K61" t="n">
-        <v>17784</v>
+        <v>17783</v>
       </c>
       <c r="L61" t="n">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="M61" t="n">
-        <v>112610</v>
+        <v>112635</v>
       </c>
     </row>
     <row r="62">
@@ -3047,13 +3047,13 @@
         <v>45</v>
       </c>
       <c r="K62" t="n">
-        <v>18577</v>
+        <v>18576</v>
       </c>
       <c r="L62" t="n">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="M62" t="n">
-        <v>118409</v>
+        <v>118434</v>
       </c>
     </row>
     <row r="63">
@@ -3066,10 +3066,10 @@
         <v>6698</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>6698</v>
+        <v>6697</v>
       </c>
       <c r="E63" t="n">
         <v>652</v>
@@ -3090,13 +3090,13 @@
         <v>35</v>
       </c>
       <c r="K63" t="n">
-        <v>19229</v>
+        <v>19228</v>
       </c>
       <c r="L63" t="n">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="M63" t="n">
-        <v>125107</v>
+        <v>125132</v>
       </c>
     </row>
     <row r="64">
@@ -3133,13 +3133,13 @@
         <v>44</v>
       </c>
       <c r="K64" t="n">
-        <v>19863</v>
+        <v>19862</v>
       </c>
       <c r="L64" t="n">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="M64" t="n">
-        <v>128384</v>
+        <v>128409</v>
       </c>
     </row>
     <row r="65">
@@ -3176,13 +3176,13 @@
         <v>32</v>
       </c>
       <c r="K65" t="n">
-        <v>20432</v>
+        <v>20431</v>
       </c>
       <c r="L65" t="n">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="M65" t="n">
-        <v>130201</v>
+        <v>130226</v>
       </c>
     </row>
     <row r="66">
@@ -3192,13 +3192,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5612</v>
+        <v>5613</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>5612</v>
+        <v>5613</v>
       </c>
       <c r="E66" t="n">
         <v>525</v>
@@ -3219,13 +3219,13 @@
         <v>38</v>
       </c>
       <c r="K66" t="n">
-        <v>20957</v>
+        <v>20956</v>
       </c>
       <c r="L66" t="n">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="M66" t="n">
-        <v>135813</v>
+        <v>135839</v>
       </c>
     </row>
     <row r="67">
@@ -3235,13 +3235,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6216</v>
+        <v>6391</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>6216</v>
+        <v>6391</v>
       </c>
       <c r="E67" t="n">
         <v>836</v>
@@ -3262,13 +3262,13 @@
         <v>37</v>
       </c>
       <c r="K67" t="n">
-        <v>21793</v>
+        <v>21792</v>
       </c>
       <c r="L67" t="n">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="M67" t="n">
-        <v>142029</v>
+        <v>142230</v>
       </c>
     </row>
     <row r="68">
@@ -3278,13 +3278,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5660</v>
+        <v>5762</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>5660</v>
+        <v>5761</v>
       </c>
       <c r="E68" t="n">
         <v>623</v>
@@ -3305,13 +3305,13 @@
         <v>43</v>
       </c>
       <c r="K68" t="n">
-        <v>22416</v>
+        <v>22415</v>
       </c>
       <c r="L68" t="n">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="M68" t="n">
-        <v>147689</v>
+        <v>147992</v>
       </c>
     </row>
     <row r="69">
@@ -3321,13 +3321,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6239</v>
+        <v>6435</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>6239</v>
+        <v>6432</v>
       </c>
       <c r="E69" t="n">
         <v>637</v>
@@ -3348,13 +3348,13 @@
         <v>34</v>
       </c>
       <c r="K69" t="n">
-        <v>23053</v>
+        <v>23052</v>
       </c>
       <c r="L69" t="n">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="M69" t="n">
-        <v>153928</v>
+        <v>154427</v>
       </c>
     </row>
     <row r="70">
@@ -3364,13 +3364,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6384</v>
+        <v>6556</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>6384</v>
+        <v>6555</v>
       </c>
       <c r="E70" t="n">
         <v>589</v>
@@ -3391,13 +3391,13 @@
         <v>25</v>
       </c>
       <c r="K70" t="n">
-        <v>23642</v>
+        <v>23641</v>
       </c>
       <c r="L70" t="n">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="M70" t="n">
-        <v>160312</v>
+        <v>160983</v>
       </c>
     </row>
     <row r="71">
@@ -3407,13 +3407,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3246</v>
+        <v>3290</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>3246</v>
+        <v>3286</v>
       </c>
       <c r="E71" t="n">
         <v>388</v>
@@ -3434,13 +3434,13 @@
         <v>32</v>
       </c>
       <c r="K71" t="n">
-        <v>24030</v>
+        <v>24029</v>
       </c>
       <c r="L71" t="n">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="M71" t="n">
-        <v>163558</v>
+        <v>164273</v>
       </c>
     </row>
     <row r="72">
@@ -3450,22 +3450,22 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1274</v>
+        <v>1303</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1274</v>
+        <v>1303</v>
       </c>
       <c r="E72" t="n">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H72" t="n">
         <v>34</v>
@@ -3477,13 +3477,13 @@
         <v>34</v>
       </c>
       <c r="K72" t="n">
-        <v>24494</v>
+        <v>24492</v>
       </c>
       <c r="L72" t="n">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="M72" t="n">
-        <v>164832</v>
+        <v>165576</v>
       </c>
     </row>
     <row r="73">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6936</v>
+        <v>7041</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>6935</v>
+        <v>7037</v>
       </c>
       <c r="E73" t="n">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H73" t="n">
         <v>41</v>
@@ -3520,13 +3520,13 @@
         <v>41</v>
       </c>
       <c r="K73" t="n">
-        <v>25011</v>
+        <v>25008</v>
       </c>
       <c r="L73" t="n">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="M73" t="n">
-        <v>171768</v>
+        <v>172617</v>
       </c>
     </row>
     <row r="74">
@@ -3536,13 +3536,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6675</v>
+        <v>6891</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D74" t="n">
-        <v>6674</v>
+        <v>6880</v>
       </c>
       <c r="E74" t="n">
         <v>375</v>
@@ -3563,13 +3563,13 @@
         <v>38</v>
       </c>
       <c r="K74" t="n">
-        <v>25386</v>
+        <v>25383</v>
       </c>
       <c r="L74" t="n">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="M74" t="n">
-        <v>178443</v>
+        <v>179508</v>
       </c>
     </row>
     <row r="75">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>7079</v>
+        <v>7186</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D75" t="n">
-        <v>7079</v>
+        <v>7169</v>
       </c>
       <c r="E75" t="n">
         <v>604</v>
@@ -3606,13 +3606,13 @@
         <v>27</v>
       </c>
       <c r="K75" t="n">
-        <v>25990</v>
+        <v>25987</v>
       </c>
       <c r="L75" t="n">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="M75" t="n">
-        <v>185522</v>
+        <v>186694</v>
       </c>
     </row>
     <row r="76">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>8017</v>
+        <v>8141</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D76" t="n">
-        <v>8017</v>
+        <v>8124</v>
       </c>
       <c r="E76" t="n">
         <v>586</v>
@@ -3649,13 +3649,13 @@
         <v>42</v>
       </c>
       <c r="K76" t="n">
-        <v>26576</v>
+        <v>26573</v>
       </c>
       <c r="L76" t="n">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="M76" t="n">
-        <v>193539</v>
+        <v>194835</v>
       </c>
     </row>
     <row r="77">
@@ -3665,22 +3665,22 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9548</v>
+        <v>9738</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D77" t="n">
-        <v>9547</v>
+        <v>9720</v>
       </c>
       <c r="E77" t="n">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H77" t="n">
         <v>32</v>
@@ -3692,13 +3692,13 @@
         <v>32</v>
       </c>
       <c r="K77" t="n">
-        <v>27214</v>
+        <v>27210</v>
       </c>
       <c r="L77" t="n">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="M77" t="n">
-        <v>203087</v>
+        <v>204573</v>
       </c>
     </row>
     <row r="78">
@@ -3708,13 +3708,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3091</v>
+        <v>3127</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>3091</v>
+        <v>3121</v>
       </c>
       <c r="E78" t="n">
         <v>495</v>
@@ -3735,13 +3735,13 @@
         <v>29</v>
       </c>
       <c r="K78" t="n">
-        <v>27709</v>
+        <v>27705</v>
       </c>
       <c r="L78" t="n">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="M78" t="n">
-        <v>206178</v>
+        <v>207700</v>
       </c>
     </row>
     <row r="79">
@@ -3751,10 +3751,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1880</v>
+        <v>1885</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>1880</v>
@@ -3763,10 +3763,10 @@
         <v>484</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H79" t="n">
         <v>29</v>
@@ -3778,13 +3778,13 @@
         <v>29</v>
       </c>
       <c r="K79" t="n">
-        <v>28193</v>
+        <v>28189</v>
       </c>
       <c r="L79" t="n">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="M79" t="n">
-        <v>208058</v>
+        <v>209585</v>
       </c>
     </row>
     <row r="80">
@@ -3794,13 +3794,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>8128</v>
+        <v>8245</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D80" t="n">
-        <v>8128</v>
+        <v>8231</v>
       </c>
       <c r="E80" t="n">
         <v>455</v>
@@ -3821,13 +3821,13 @@
         <v>39</v>
       </c>
       <c r="K80" t="n">
-        <v>28648</v>
+        <v>28644</v>
       </c>
       <c r="L80" t="n">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="M80" t="n">
-        <v>216186</v>
+        <v>217830</v>
       </c>
     </row>
     <row r="81">
@@ -3837,13 +3837,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6959</v>
+        <v>7037</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D81" t="n">
-        <v>6958</v>
+        <v>7021</v>
       </c>
       <c r="E81" t="n">
         <v>557</v>
@@ -3864,13 +3864,13 @@
         <v>29</v>
       </c>
       <c r="K81" t="n">
-        <v>29205</v>
+        <v>29201</v>
       </c>
       <c r="L81" t="n">
-        <v>1811</v>
+        <v>1813</v>
       </c>
       <c r="M81" t="n">
-        <v>223145</v>
+        <v>224867</v>
       </c>
     </row>
     <row r="82">
@@ -3880,13 +3880,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6489</v>
+        <v>6683</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D82" t="n">
-        <v>6488</v>
+        <v>6671</v>
       </c>
       <c r="E82" t="n">
         <v>646</v>
@@ -3901,19 +3901,19 @@
         <v>29</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K82" t="n">
-        <v>29851</v>
+        <v>29847</v>
       </c>
       <c r="L82" t="n">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="M82" t="n">
-        <v>229634</v>
+        <v>231550</v>
       </c>
     </row>
     <row r="83">
@@ -3923,22 +3923,22 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7353</v>
+        <v>7590</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D83" t="n">
-        <v>7353</v>
+        <v>7579</v>
       </c>
       <c r="E83" t="n">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H83" t="n">
         <v>36</v>
@@ -3950,13 +3950,13 @@
         <v>36</v>
       </c>
       <c r="K83" t="n">
-        <v>30317</v>
+        <v>30310</v>
       </c>
       <c r="L83" t="n">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="M83" t="n">
-        <v>236987</v>
+        <v>239140</v>
       </c>
     </row>
     <row r="84">
@@ -3966,40 +3966,40 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>8140</v>
+        <v>8294</v>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D84" t="n">
-        <v>8137</v>
+        <v>8271</v>
       </c>
       <c r="E84" t="n">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H84" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
         <v>16</v>
       </c>
       <c r="K84" t="n">
-        <v>30810</v>
+        <v>30800</v>
       </c>
       <c r="L84" t="n">
-        <v>1892</v>
+        <v>1895</v>
       </c>
       <c r="M84" t="n">
-        <v>245127</v>
+        <v>247434</v>
       </c>
     </row>
     <row r="85">
@@ -4009,13 +4009,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2799</v>
+        <v>2822</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>2798</v>
+        <v>2818</v>
       </c>
       <c r="E85" t="n">
         <v>473</v>
@@ -4036,13 +4036,13 @@
         <v>24</v>
       </c>
       <c r="K85" t="n">
-        <v>31283</v>
+        <v>31273</v>
       </c>
       <c r="L85" t="n">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="M85" t="n">
-        <v>247926</v>
+        <v>250256</v>
       </c>
     </row>
     <row r="86">
@@ -4055,37 +4055,37 @@
         <v>1844</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="E86" t="n">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H86" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
         <v>14</v>
       </c>
       <c r="K86" t="n">
-        <v>31626</v>
+        <v>31614</v>
       </c>
       <c r="L86" t="n">
-        <v>1930</v>
+        <v>1934</v>
       </c>
       <c r="M86" t="n">
-        <v>249770</v>
+        <v>252100</v>
       </c>
     </row>
     <row r="87">
@@ -4095,13 +4095,13 @@
         </is>
       </c>
       <c r="B87" t="n">
+        <v>1748</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
         <v>1747</v>
-      </c>
-      <c r="C87" t="n">
-        <v>9</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1738</v>
       </c>
       <c r="E87" t="n">
         <v>359</v>
@@ -4122,13 +4122,13 @@
         <v>21</v>
       </c>
       <c r="K87" t="n">
-        <v>31985</v>
+        <v>31973</v>
       </c>
       <c r="L87" t="n">
-        <v>1951</v>
+        <v>1955</v>
       </c>
       <c r="M87" t="n">
-        <v>251517</v>
+        <v>253848</v>
       </c>
     </row>
     <row r="88">
@@ -4138,13 +4138,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>7591</v>
+        <v>7866</v>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D88" t="n">
-        <v>7588</v>
+        <v>7839</v>
       </c>
       <c r="E88" t="n">
         <v>350</v>
@@ -4165,13 +4165,13 @@
         <v>19</v>
       </c>
       <c r="K88" t="n">
-        <v>32335</v>
+        <v>32323</v>
       </c>
       <c r="L88" t="n">
-        <v>1970</v>
+        <v>1974</v>
       </c>
       <c r="M88" t="n">
-        <v>259108</v>
+        <v>261714</v>
       </c>
     </row>
     <row r="89">
@@ -4181,22 +4181,22 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>6112</v>
+        <v>6287</v>
       </c>
       <c r="C89" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D89" t="n">
-        <v>6087</v>
+        <v>6271</v>
       </c>
       <c r="E89" t="n">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H89" t="n">
         <v>14</v>
@@ -4208,13 +4208,13 @@
         <v>14</v>
       </c>
       <c r="K89" t="n">
-        <v>32938</v>
+        <v>32925</v>
       </c>
       <c r="L89" t="n">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="M89" t="n">
-        <v>265220</v>
+        <v>268001</v>
       </c>
     </row>
     <row r="90">
@@ -4224,22 +4224,22 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>6976</v>
+        <v>7073</v>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D90" t="n">
-        <v>6974</v>
+        <v>7061</v>
       </c>
       <c r="E90" t="n">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H90" t="n">
         <v>17</v>
@@ -4251,13 +4251,13 @@
         <v>17</v>
       </c>
       <c r="K90" t="n">
-        <v>33418</v>
+        <v>33403</v>
       </c>
       <c r="L90" t="n">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="M90" t="n">
-        <v>272196</v>
+        <v>275074</v>
       </c>
     </row>
     <row r="91">
@@ -4267,22 +4267,22 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>7640</v>
+        <v>7745</v>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D91" t="n">
-        <v>7635</v>
+        <v>7735</v>
       </c>
       <c r="E91" t="n">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="H91" t="n">
         <v>19</v>
@@ -4294,13 +4294,13 @@
         <v>19</v>
       </c>
       <c r="K91" t="n">
-        <v>34008</v>
+        <v>33990</v>
       </c>
       <c r="L91" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="M91" t="n">
-        <v>279836</v>
+        <v>282819</v>
       </c>
     </row>
     <row r="92">
@@ -4310,40 +4310,40 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2794</v>
+        <v>2824</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>2793</v>
+        <v>2823</v>
       </c>
       <c r="E92" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H92" t="n">
         <v>21</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K92" t="n">
-        <v>34371</v>
+        <v>34352</v>
       </c>
       <c r="L92" t="n">
-        <v>2041</v>
+        <v>2045</v>
       </c>
       <c r="M92" t="n">
-        <v>282630</v>
+        <v>285643</v>
       </c>
     </row>
     <row r="93">
@@ -4362,13 +4362,13 @@
         <v>1801</v>
       </c>
       <c r="E93" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H93" t="n">
         <v>15</v>
@@ -4380,13 +4380,13 @@
         <v>15</v>
       </c>
       <c r="K93" t="n">
-        <v>34656</v>
+        <v>34636</v>
       </c>
       <c r="L93" t="n">
-        <v>2056</v>
+        <v>2060</v>
       </c>
       <c r="M93" t="n">
-        <v>284431</v>
+        <v>287444</v>
       </c>
     </row>
     <row r="94">
@@ -4396,22 +4396,22 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>8020</v>
+        <v>8058</v>
       </c>
       <c r="C94" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D94" t="n">
-        <v>8014</v>
+        <v>8048</v>
       </c>
       <c r="E94" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H94" t="n">
         <v>19</v>
@@ -4423,13 +4423,13 @@
         <v>19</v>
       </c>
       <c r="K94" t="n">
-        <v>35072</v>
+        <v>35051</v>
       </c>
       <c r="L94" t="n">
-        <v>2075</v>
+        <v>2079</v>
       </c>
       <c r="M94" t="n">
-        <v>292451</v>
+        <v>295502</v>
       </c>
     </row>
     <row r="95">
@@ -4439,13 +4439,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>5603</v>
+        <v>5642</v>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D95" t="n">
-        <v>5600</v>
+        <v>5625</v>
       </c>
       <c r="E95" t="n">
         <v>481</v>
@@ -4466,13 +4466,13 @@
         <v>15</v>
       </c>
       <c r="K95" t="n">
-        <v>35553</v>
+        <v>35532</v>
       </c>
       <c r="L95" t="n">
-        <v>2090</v>
+        <v>2094</v>
       </c>
       <c r="M95" t="n">
-        <v>298054</v>
+        <v>301144</v>
       </c>
     </row>
     <row r="96">
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>6658</v>
+        <v>6684</v>
       </c>
       <c r="C96" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>6650</v>
+        <v>6682</v>
       </c>
       <c r="E96" t="n">
         <v>430</v>
@@ -4503,19 +4503,19 @@
         <v>23</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K96" t="n">
-        <v>35983</v>
+        <v>35962</v>
       </c>
       <c r="L96" t="n">
-        <v>2113</v>
+        <v>2117</v>
       </c>
       <c r="M96" t="n">
-        <v>304712</v>
+        <v>307828</v>
       </c>
     </row>
     <row r="97">
@@ -4525,22 +4525,22 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6846</v>
+        <v>6871</v>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>6842</v>
+        <v>6868</v>
       </c>
       <c r="E97" t="n">
         <v>505</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H97" t="n">
         <v>22</v>
@@ -4552,13 +4552,13 @@
         <v>22</v>
       </c>
       <c r="K97" t="n">
-        <v>36488</v>
+        <v>36467</v>
       </c>
       <c r="L97" t="n">
-        <v>2135</v>
+        <v>2139</v>
       </c>
       <c r="M97" t="n">
-        <v>311558</v>
+        <v>314699</v>
       </c>
     </row>
     <row r="98">
@@ -4568,22 +4568,22 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>7792</v>
+        <v>7845</v>
       </c>
       <c r="C98" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D98" t="n">
-        <v>7779</v>
+        <v>7838</v>
       </c>
       <c r="E98" t="n">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H98" t="n">
         <v>21</v>
@@ -4595,13 +4595,13 @@
         <v>21</v>
       </c>
       <c r="K98" t="n">
-        <v>36911</v>
+        <v>36889</v>
       </c>
       <c r="L98" t="n">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="M98" t="n">
-        <v>319350</v>
+        <v>322544</v>
       </c>
     </row>
     <row r="99">
@@ -4611,13 +4611,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3613</v>
+        <v>3617</v>
       </c>
       <c r="C99" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>3598</v>
+        <v>3614</v>
       </c>
       <c r="E99" t="n">
         <v>405</v>
@@ -4638,13 +4638,13 @@
         <v>8</v>
       </c>
       <c r="K99" t="n">
-        <v>37316</v>
+        <v>37294</v>
       </c>
       <c r="L99" t="n">
-        <v>2164</v>
+        <v>2168</v>
       </c>
       <c r="M99" t="n">
-        <v>322963</v>
+        <v>326161</v>
       </c>
     </row>
     <row r="100">
@@ -4654,13 +4654,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1882</v>
+        <v>1889</v>
       </c>
       <c r="C100" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D100" t="n">
-        <v>1869</v>
+        <v>1880</v>
       </c>
       <c r="E100" t="n">
         <v>233</v>
@@ -4681,13 +4681,13 @@
         <v>15</v>
       </c>
       <c r="K100" t="n">
-        <v>37549</v>
+        <v>37527</v>
       </c>
       <c r="L100" t="n">
-        <v>2179</v>
+        <v>2183</v>
       </c>
       <c r="M100" t="n">
-        <v>324845</v>
+        <v>328050</v>
       </c>
     </row>
     <row r="101">
@@ -4697,13 +4697,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>9456</v>
+        <v>9562</v>
       </c>
       <c r="C101" t="n">
-        <v>381</v>
+        <v>112</v>
       </c>
       <c r="D101" t="n">
-        <v>9075</v>
+        <v>9450</v>
       </c>
       <c r="E101" t="n">
         <v>388</v>
@@ -4724,13 +4724,13 @@
         <v>15</v>
       </c>
       <c r="K101" t="n">
-        <v>37937</v>
+        <v>37915</v>
       </c>
       <c r="L101" t="n">
-        <v>2194</v>
+        <v>2198</v>
       </c>
       <c r="M101" t="n">
-        <v>334301</v>
+        <v>337612</v>
       </c>
     </row>
     <row r="102">
@@ -4740,13 +4740,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>6347</v>
+        <v>6388</v>
       </c>
       <c r="C102" t="n">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="D102" t="n">
-        <v>6111</v>
+        <v>6343</v>
       </c>
       <c r="E102" t="n">
         <v>306</v>
@@ -4758,22 +4758,22 @@
         <v>306</v>
       </c>
       <c r="H102" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
         <v>21</v>
       </c>
       <c r="K102" t="n">
-        <v>38243</v>
+        <v>38221</v>
       </c>
       <c r="L102" t="n">
-        <v>2215</v>
+        <v>2220</v>
       </c>
       <c r="M102" t="n">
-        <v>340648</v>
+        <v>344000</v>
       </c>
     </row>
     <row r="103">
@@ -4783,22 +4783,22 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>7670</v>
+        <v>7862</v>
       </c>
       <c r="C103" t="n">
-        <v>269</v>
+        <v>165</v>
       </c>
       <c r="D103" t="n">
-        <v>7401</v>
+        <v>7697</v>
       </c>
       <c r="E103" t="n">
         <v>417</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H103" t="n">
         <v>16</v>
@@ -4810,13 +4810,13 @@
         <v>16</v>
       </c>
       <c r="K103" t="n">
-        <v>38660</v>
+        <v>38638</v>
       </c>
       <c r="L103" t="n">
-        <v>2231</v>
+        <v>2236</v>
       </c>
       <c r="M103" t="n">
-        <v>348318</v>
+        <v>351862</v>
       </c>
     </row>
     <row r="104">
@@ -4826,40 +4826,40 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>9410</v>
+        <v>9649</v>
       </c>
       <c r="C104" t="n">
-        <v>302</v>
+        <v>231</v>
       </c>
       <c r="D104" t="n">
-        <v>9108</v>
+        <v>9418</v>
       </c>
       <c r="E104" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H104" t="n">
         <v>13</v>
       </c>
       <c r="I104" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K104" t="n">
-        <v>39085</v>
+        <v>39062</v>
       </c>
       <c r="L104" t="n">
-        <v>2244</v>
+        <v>2249</v>
       </c>
       <c r="M104" t="n">
-        <v>357728</v>
+        <v>361511</v>
       </c>
     </row>
     <row r="105">
@@ -4869,40 +4869,40 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>8522</v>
+        <v>9800</v>
       </c>
       <c r="C105" t="n">
-        <v>2587</v>
+        <v>920</v>
       </c>
       <c r="D105" t="n">
-        <v>5935</v>
+        <v>8880</v>
       </c>
       <c r="E105" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H105" t="n">
         <v>11</v>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K105" t="n">
-        <v>39492</v>
+        <v>39468</v>
       </c>
       <c r="L105" t="n">
-        <v>2255</v>
+        <v>2260</v>
       </c>
       <c r="M105" t="n">
-        <v>366250</v>
+        <v>371311</v>
       </c>
     </row>
     <row r="106">
@@ -4912,13 +4912,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>3485</v>
+        <v>4711</v>
       </c>
       <c r="C106" t="n">
-        <v>2487</v>
+        <v>1570</v>
       </c>
       <c r="D106" t="n">
-        <v>998</v>
+        <v>3141</v>
       </c>
       <c r="E106" t="n">
         <v>394</v>
@@ -4933,19 +4933,19 @@
         <v>7</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K106" t="n">
-        <v>39886</v>
+        <v>39862</v>
       </c>
       <c r="L106" t="n">
-        <v>2262</v>
+        <v>2267</v>
       </c>
       <c r="M106" t="n">
-        <v>369735</v>
+        <v>376022</v>
       </c>
     </row>
     <row r="107">
@@ -4955,40 +4955,40 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>794</v>
+        <v>1678</v>
       </c>
       <c r="C107" t="n">
-        <v>570</v>
+        <v>961</v>
       </c>
       <c r="D107" t="n">
-        <v>224</v>
+        <v>717</v>
       </c>
       <c r="E107" t="n">
-        <v>454</v>
+        <v>334</v>
       </c>
       <c r="F107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G107" t="n">
-        <v>450</v>
+        <v>332</v>
       </c>
       <c r="H107" t="n">
         <v>12</v>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K107" t="n">
-        <v>40340</v>
+        <v>40196</v>
       </c>
       <c r="L107" t="n">
-        <v>2274</v>
+        <v>2279</v>
       </c>
       <c r="M107" t="n">
-        <v>370529</v>
+        <v>377700</v>
       </c>
     </row>
     <row r="108">
@@ -4998,40 +4998,40 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>619</v>
+        <v>5981</v>
       </c>
       <c r="C108" t="n">
-        <v>582</v>
+        <v>5372</v>
       </c>
       <c r="D108" t="n">
-        <v>37</v>
+        <v>609</v>
       </c>
       <c r="E108" t="n">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F108" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H108" t="n">
+        <v>11</v>
+      </c>
+      <c r="I108" t="n">
+        <v>2</v>
+      </c>
+      <c r="J108" t="n">
         <v>9</v>
       </c>
-      <c r="I108" t="n">
-        <v>6</v>
-      </c>
-      <c r="J108" t="n">
-        <v>3</v>
-      </c>
       <c r="K108" t="n">
-        <v>40763</v>
+        <v>40616</v>
       </c>
       <c r="L108" t="n">
-        <v>2283</v>
+        <v>2290</v>
       </c>
       <c r="M108" t="n">
-        <v>371148</v>
+        <v>383681</v>
       </c>
     </row>
     <row r="109">
@@ -5041,40 +5041,83 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>34</v>
+        <v>924</v>
       </c>
       <c r="C109" t="n">
-        <v>34</v>
+        <v>894</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E109" t="n">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F109" t="n">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="H109" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I109" t="n">
         <v>6</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K109" t="n">
-        <v>41013</v>
+        <v>40860</v>
       </c>
       <c r="L109" t="n">
-        <v>2289</v>
+        <v>2302</v>
       </c>
       <c r="M109" t="n">
-        <v>371182</v>
+        <v>384605</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2020-06-17</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>117</v>
+      </c>
+      <c r="C110" t="n">
+        <v>117</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>578</v>
+      </c>
+      <c r="F110" t="n">
+        <v>577</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+      <c r="I110" t="n">
+        <v>2</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>41438</v>
+      </c>
+      <c r="L110" t="n">
+        <v>2304</v>
+      </c>
+      <c r="M110" t="n">
+        <v>384722</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:M111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1171,13 +1171,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E19" t="n">
         <v>17</v>
@@ -1204,7 +1204,7 @@
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>3300</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="20">
@@ -1247,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>4382</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="21">
@@ -1290,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>6118</v>
+        <v>6117</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1333,7 @@
         <v>14</v>
       </c>
       <c r="M22" t="n">
-        <v>6815</v>
+        <v>6814</v>
       </c>
     </row>
     <row r="23">
@@ -1376,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="M23" t="n">
-        <v>7838</v>
+        <v>7837</v>
       </c>
     </row>
     <row r="24">
@@ -1389,10 +1389,10 @@
         <v>1453</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="E24" t="n">
         <v>105</v>
@@ -1419,7 +1419,7 @@
         <v>24</v>
       </c>
       <c r="M24" t="n">
-        <v>9291</v>
+        <v>9290</v>
       </c>
     </row>
     <row r="25">
@@ -1462,7 +1462,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="n">
-        <v>10898</v>
+        <v>10897</v>
       </c>
     </row>
     <row r="26">
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="E26" t="n">
         <v>162</v>
@@ -1505,7 +1505,7 @@
         <v>35</v>
       </c>
       <c r="M26" t="n">
-        <v>13221</v>
+        <v>13219</v>
       </c>
     </row>
     <row r="27">
@@ -1518,10 +1518,10 @@
         <v>2608</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2605</v>
+        <v>2608</v>
       </c>
       <c r="E27" t="n">
         <v>303</v>
@@ -1548,7 +1548,7 @@
         <v>44</v>
       </c>
       <c r="M27" t="n">
-        <v>15829</v>
+        <v>15827</v>
       </c>
     </row>
     <row r="28">
@@ -1591,7 +1591,7 @@
         <v>47</v>
       </c>
       <c r="M28" t="n">
-        <v>17991</v>
+        <v>17989</v>
       </c>
     </row>
     <row r="29">
@@ -1634,7 +1634,7 @@
         <v>58</v>
       </c>
       <c r="M29" t="n">
-        <v>19270</v>
+        <v>19268</v>
       </c>
     </row>
     <row r="30">
@@ -1647,10 +1647,10 @@
         <v>1632</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="E30" t="n">
         <v>271</v>
@@ -1677,7 +1677,7 @@
         <v>76</v>
       </c>
       <c r="M30" t="n">
-        <v>20902</v>
+        <v>20900</v>
       </c>
     </row>
     <row r="31">
@@ -1720,7 +1720,7 @@
         <v>91</v>
       </c>
       <c r="M31" t="n">
-        <v>22862</v>
+        <v>22860</v>
       </c>
     </row>
     <row r="32">
@@ -1733,10 +1733,10 @@
         <v>2316</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="E32" t="n">
         <v>406</v>
@@ -1763,7 +1763,7 @@
         <v>113</v>
       </c>
       <c r="M32" t="n">
-        <v>25178</v>
+        <v>25176</v>
       </c>
     </row>
     <row r="33">
@@ -1806,7 +1806,7 @@
         <v>135</v>
       </c>
       <c r="M33" t="n">
-        <v>27718</v>
+        <v>27716</v>
       </c>
     </row>
     <row r="34">
@@ -1849,7 +1849,7 @@
         <v>157</v>
       </c>
       <c r="M34" t="n">
-        <v>30413</v>
+        <v>30411</v>
       </c>
     </row>
     <row r="35">
@@ -1859,13 +1859,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="E35" t="n">
         <v>513</v>
@@ -1892,7 +1892,7 @@
         <v>189</v>
       </c>
       <c r="M35" t="n">
-        <v>33214</v>
+        <v>33211</v>
       </c>
     </row>
     <row r="36">
@@ -1935,7 +1935,7 @@
         <v>214</v>
       </c>
       <c r="M36" t="n">
-        <v>34850</v>
+        <v>34847</v>
       </c>
     </row>
     <row r="37">
@@ -1957,10 +1957,10 @@
         <v>527</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H37" t="n">
         <v>34</v>
@@ -1978,7 +1978,7 @@
         <v>248</v>
       </c>
       <c r="M37" t="n">
-        <v>35945</v>
+        <v>35942</v>
       </c>
     </row>
     <row r="38">
@@ -1991,19 +1991,19 @@
         <v>2423</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="E38" t="n">
         <v>556</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H38" t="n">
         <v>25</v>
@@ -2021,7 +2021,7 @@
         <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>38368</v>
+        <v>38365</v>
       </c>
     </row>
     <row r="39">
@@ -2064,7 +2064,7 @@
         <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>41151</v>
+        <v>41148</v>
       </c>
     </row>
     <row r="40">
@@ -2077,10 +2077,10 @@
         <v>3071</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="E40" t="n">
         <v>422</v>
@@ -2107,7 +2107,7 @@
         <v>338</v>
       </c>
       <c r="M40" t="n">
-        <v>44222</v>
+        <v>44219</v>
       </c>
     </row>
     <row r="41">
@@ -2150,7 +2150,7 @@
         <v>375</v>
       </c>
       <c r="M41" t="n">
-        <v>46969</v>
+        <v>46966</v>
       </c>
     </row>
     <row r="42">
@@ -2160,13 +2160,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="E42" t="n">
         <v>515</v>
@@ -2193,7 +2193,7 @@
         <v>400</v>
       </c>
       <c r="M42" t="n">
-        <v>49697</v>
+        <v>49693</v>
       </c>
     </row>
     <row r="43">
@@ -2236,7 +2236,7 @@
         <v>420</v>
       </c>
       <c r="M43" t="n">
-        <v>51240</v>
+        <v>51236</v>
       </c>
     </row>
     <row r="44">
@@ -2258,10 +2258,10 @@
         <v>319</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H44" t="n">
         <v>29</v>
@@ -2279,7 +2279,7 @@
         <v>449</v>
       </c>
       <c r="M44" t="n">
-        <v>51939</v>
+        <v>51935</v>
       </c>
     </row>
     <row r="45">
@@ -2322,7 +2322,7 @@
         <v>484</v>
       </c>
       <c r="M45" t="n">
-        <v>55411</v>
+        <v>55407</v>
       </c>
     </row>
     <row r="46">
@@ -2365,7 +2365,7 @@
         <v>530</v>
       </c>
       <c r="M46" t="n">
-        <v>59038</v>
+        <v>59034</v>
       </c>
     </row>
     <row r="47">
@@ -2396,10 +2396,10 @@
         <v>38</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K47" t="n">
         <v>9490</v>
@@ -2408,7 +2408,7 @@
         <v>568</v>
       </c>
       <c r="M47" t="n">
-        <v>62340</v>
+        <v>62336</v>
       </c>
     </row>
     <row r="48">
@@ -2451,7 +2451,7 @@
         <v>602</v>
       </c>
       <c r="M48" t="n">
-        <v>66344</v>
+        <v>66340</v>
       </c>
     </row>
     <row r="49">
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4181</v>
+        <v>4180</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>4181</v>
+        <v>4180</v>
       </c>
       <c r="E49" t="n">
         <v>505</v>
@@ -2494,7 +2494,7 @@
         <v>638</v>
       </c>
       <c r="M49" t="n">
-        <v>70525</v>
+        <v>70520</v>
       </c>
     </row>
     <row r="50">
@@ -2537,7 +2537,7 @@
         <v>666</v>
       </c>
       <c r="M50" t="n">
-        <v>72286</v>
+        <v>72281</v>
       </c>
     </row>
     <row r="51">
@@ -2580,7 +2580,7 @@
         <v>702</v>
       </c>
       <c r="M51" t="n">
-        <v>73391</v>
+        <v>73386</v>
       </c>
     </row>
     <row r="52">
@@ -2599,13 +2599,13 @@
         <v>4347</v>
       </c>
       <c r="E52" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H52" t="n">
         <v>38</v>
@@ -2617,13 +2617,13 @@
         <v>38</v>
       </c>
       <c r="K52" t="n">
-        <v>12016</v>
+        <v>12015</v>
       </c>
       <c r="L52" t="n">
         <v>740</v>
       </c>
       <c r="M52" t="n">
-        <v>77738</v>
+        <v>77733</v>
       </c>
     </row>
     <row r="53">
@@ -2660,13 +2660,13 @@
         <v>49</v>
       </c>
       <c r="K53" t="n">
-        <v>12395</v>
+        <v>12394</v>
       </c>
       <c r="L53" t="n">
         <v>789</v>
       </c>
       <c r="M53" t="n">
-        <v>81590</v>
+        <v>81585</v>
       </c>
     </row>
     <row r="54">
@@ -2679,10 +2679,10 @@
         <v>3880</v>
       </c>
       <c r="C54" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>3867</v>
+        <v>3880</v>
       </c>
       <c r="E54" t="n">
         <v>605</v>
@@ -2703,13 +2703,13 @@
         <v>50</v>
       </c>
       <c r="K54" t="n">
-        <v>13000</v>
+        <v>12999</v>
       </c>
       <c r="L54" t="n">
         <v>839</v>
       </c>
       <c r="M54" t="n">
-        <v>85470</v>
+        <v>85465</v>
       </c>
     </row>
     <row r="55">
@@ -2746,13 +2746,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="n">
-        <v>13644</v>
+        <v>13643</v>
       </c>
       <c r="L55" t="n">
         <v>877</v>
       </c>
       <c r="M55" t="n">
-        <v>89846</v>
+        <v>89841</v>
       </c>
     </row>
     <row r="56">
@@ -2765,10 +2765,10 @@
         <v>3555</v>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>3553</v>
+        <v>3555</v>
       </c>
       <c r="E56" t="n">
         <v>699</v>
@@ -2789,13 +2789,13 @@
         <v>37</v>
       </c>
       <c r="K56" t="n">
-        <v>14343</v>
+        <v>14342</v>
       </c>
       <c r="L56" t="n">
         <v>914</v>
       </c>
       <c r="M56" t="n">
-        <v>93401</v>
+        <v>93396</v>
       </c>
     </row>
     <row r="57">
@@ -2832,13 +2832,13 @@
         <v>41</v>
       </c>
       <c r="K57" t="n">
-        <v>14967</v>
+        <v>14966</v>
       </c>
       <c r="L57" t="n">
         <v>955</v>
       </c>
       <c r="M57" t="n">
-        <v>95688</v>
+        <v>95683</v>
       </c>
     </row>
     <row r="58">
@@ -2851,10 +2851,10 @@
         <v>1808</v>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="E58" t="n">
         <v>950</v>
@@ -2875,13 +2875,13 @@
         <v>34</v>
       </c>
       <c r="K58" t="n">
-        <v>15917</v>
+        <v>15916</v>
       </c>
       <c r="L58" t="n">
         <v>989</v>
       </c>
       <c r="M58" t="n">
-        <v>97496</v>
+        <v>97491</v>
       </c>
     </row>
     <row r="59">
@@ -2891,13 +2891,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4747</v>
+        <v>4746</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>4747</v>
+        <v>4746</v>
       </c>
       <c r="E59" t="n">
         <v>620</v>
@@ -2918,13 +2918,13 @@
         <v>42</v>
       </c>
       <c r="K59" t="n">
-        <v>16537</v>
+        <v>16536</v>
       </c>
       <c r="L59" t="n">
         <v>1031</v>
       </c>
       <c r="M59" t="n">
-        <v>102243</v>
+        <v>102237</v>
       </c>
     </row>
     <row r="60">
@@ -2937,19 +2937,19 @@
         <v>5021</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>5020</v>
+        <v>5021</v>
       </c>
       <c r="E60" t="n">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H60" t="n">
         <v>34</v>
@@ -2961,13 +2961,13 @@
         <v>34</v>
       </c>
       <c r="K60" t="n">
-        <v>17132</v>
+        <v>17130</v>
       </c>
       <c r="L60" t="n">
         <v>1065</v>
       </c>
       <c r="M60" t="n">
-        <v>107264</v>
+        <v>107258</v>
       </c>
     </row>
     <row r="61">
@@ -2977,40 +2977,40 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>5371</v>
+        <v>5370</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
         <v>5370</v>
       </c>
       <c r="E61" t="n">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H61" t="n">
         <v>43</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K61" t="n">
-        <v>17783</v>
+        <v>17780</v>
       </c>
       <c r="L61" t="n">
         <v>1108</v>
       </c>
       <c r="M61" t="n">
-        <v>112635</v>
+        <v>112628</v>
       </c>
     </row>
     <row r="62">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5799</v>
+        <v>5797</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>5799</v>
+        <v>5797</v>
       </c>
       <c r="E62" t="n">
         <v>793</v>
@@ -3047,13 +3047,13 @@
         <v>45</v>
       </c>
       <c r="K62" t="n">
-        <v>18576</v>
+        <v>18573</v>
       </c>
       <c r="L62" t="n">
         <v>1153</v>
       </c>
       <c r="M62" t="n">
-        <v>118434</v>
+        <v>118425</v>
       </c>
     </row>
     <row r="63">
@@ -3066,10 +3066,10 @@
         <v>6698</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>6697</v>
+        <v>6698</v>
       </c>
       <c r="E63" t="n">
         <v>652</v>
@@ -3090,13 +3090,13 @@
         <v>35</v>
       </c>
       <c r="K63" t="n">
-        <v>19228</v>
+        <v>19225</v>
       </c>
       <c r="L63" t="n">
         <v>1188</v>
       </c>
       <c r="M63" t="n">
-        <v>125132</v>
+        <v>125123</v>
       </c>
     </row>
     <row r="64">
@@ -3133,13 +3133,13 @@
         <v>44</v>
       </c>
       <c r="K64" t="n">
-        <v>19862</v>
+        <v>19859</v>
       </c>
       <c r="L64" t="n">
         <v>1232</v>
       </c>
       <c r="M64" t="n">
-        <v>128409</v>
+        <v>128400</v>
       </c>
     </row>
     <row r="65">
@@ -3152,10 +3152,10 @@
         <v>1817</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="E65" t="n">
         <v>569</v>
@@ -3176,13 +3176,13 @@
         <v>32</v>
       </c>
       <c r="K65" t="n">
-        <v>20431</v>
+        <v>20428</v>
       </c>
       <c r="L65" t="n">
         <v>1264</v>
       </c>
       <c r="M65" t="n">
-        <v>130226</v>
+        <v>130217</v>
       </c>
     </row>
     <row r="66">
@@ -3219,13 +3219,13 @@
         <v>38</v>
       </c>
       <c r="K66" t="n">
-        <v>20956</v>
+        <v>20953</v>
       </c>
       <c r="L66" t="n">
         <v>1302</v>
       </c>
       <c r="M66" t="n">
-        <v>135839</v>
+        <v>135830</v>
       </c>
     </row>
     <row r="67">
@@ -3235,22 +3235,22 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6391</v>
+        <v>6388</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>6391</v>
+        <v>6388</v>
       </c>
       <c r="E67" t="n">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H67" t="n">
         <v>37</v>
@@ -3262,13 +3262,13 @@
         <v>37</v>
       </c>
       <c r="K67" t="n">
-        <v>21792</v>
+        <v>21788</v>
       </c>
       <c r="L67" t="n">
         <v>1339</v>
       </c>
       <c r="M67" t="n">
-        <v>142230</v>
+        <v>142218</v>
       </c>
     </row>
     <row r="68">
@@ -3278,10 +3278,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5762</v>
+        <v>5761</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
         <v>5761</v>
@@ -3305,13 +3305,13 @@
         <v>43</v>
       </c>
       <c r="K68" t="n">
-        <v>22415</v>
+        <v>22411</v>
       </c>
       <c r="L68" t="n">
         <v>1382</v>
       </c>
       <c r="M68" t="n">
-        <v>147992</v>
+        <v>147979</v>
       </c>
     </row>
     <row r="69">
@@ -3324,10 +3324,10 @@
         <v>6435</v>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>6432</v>
+        <v>6435</v>
       </c>
       <c r="E69" t="n">
         <v>637</v>
@@ -3348,13 +3348,13 @@
         <v>34</v>
       </c>
       <c r="K69" t="n">
-        <v>23052</v>
+        <v>23048</v>
       </c>
       <c r="L69" t="n">
         <v>1416</v>
       </c>
       <c r="M69" t="n">
-        <v>154427</v>
+        <v>154414</v>
       </c>
     </row>
     <row r="70">
@@ -3364,13 +3364,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6556</v>
+        <v>6552</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>6555</v>
+        <v>6552</v>
       </c>
       <c r="E70" t="n">
         <v>589</v>
@@ -3391,13 +3391,13 @@
         <v>25</v>
       </c>
       <c r="K70" t="n">
-        <v>23641</v>
+        <v>23637</v>
       </c>
       <c r="L70" t="n">
         <v>1441</v>
       </c>
       <c r="M70" t="n">
-        <v>160983</v>
+        <v>160966</v>
       </c>
     </row>
     <row r="71">
@@ -3410,10 +3410,10 @@
         <v>3290</v>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>3286</v>
+        <v>3290</v>
       </c>
       <c r="E71" t="n">
         <v>388</v>
@@ -3434,13 +3434,13 @@
         <v>32</v>
       </c>
       <c r="K71" t="n">
-        <v>24029</v>
+        <v>24025</v>
       </c>
       <c r="L71" t="n">
         <v>1473</v>
       </c>
       <c r="M71" t="n">
-        <v>164273</v>
+        <v>164256</v>
       </c>
     </row>
     <row r="72">
@@ -3450,13 +3450,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="E72" t="n">
         <v>463</v>
@@ -3477,13 +3477,13 @@
         <v>34</v>
       </c>
       <c r="K72" t="n">
-        <v>24492</v>
+        <v>24488</v>
       </c>
       <c r="L72" t="n">
         <v>1507</v>
       </c>
       <c r="M72" t="n">
-        <v>165576</v>
+        <v>165560</v>
       </c>
     </row>
     <row r="73">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>7041</v>
+        <v>7048</v>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D73" t="n">
         <v>7037</v>
       </c>
       <c r="E73" t="n">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H73" t="n">
         <v>41</v>
@@ -3520,13 +3520,13 @@
         <v>41</v>
       </c>
       <c r="K73" t="n">
-        <v>25008</v>
+        <v>25001</v>
       </c>
       <c r="L73" t="n">
         <v>1548</v>
       </c>
       <c r="M73" t="n">
-        <v>172617</v>
+        <v>172608</v>
       </c>
     </row>
     <row r="74">
@@ -3536,22 +3536,22 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6891</v>
+        <v>6913</v>
       </c>
       <c r="C74" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D74" t="n">
-        <v>6880</v>
+        <v>6889</v>
       </c>
       <c r="E74" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H74" t="n">
         <v>38</v>
@@ -3563,13 +3563,13 @@
         <v>38</v>
       </c>
       <c r="K74" t="n">
-        <v>25383</v>
+        <v>25375</v>
       </c>
       <c r="L74" t="n">
         <v>1586</v>
       </c>
       <c r="M74" t="n">
-        <v>179508</v>
+        <v>179521</v>
       </c>
     </row>
     <row r="75">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>7186</v>
+        <v>7192</v>
       </c>
       <c r="C75" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D75" t="n">
-        <v>7169</v>
+        <v>7182</v>
       </c>
       <c r="E75" t="n">
         <v>604</v>
@@ -3606,13 +3606,13 @@
         <v>27</v>
       </c>
       <c r="K75" t="n">
-        <v>25987</v>
+        <v>25979</v>
       </c>
       <c r="L75" t="n">
         <v>1613</v>
       </c>
       <c r="M75" t="n">
-        <v>186694</v>
+        <v>186713</v>
       </c>
     </row>
     <row r="76">
@@ -3622,22 +3622,22 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>8141</v>
+        <v>8133</v>
       </c>
       <c r="C76" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D76" t="n">
-        <v>8124</v>
+        <v>8115</v>
       </c>
       <c r="E76" t="n">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H76" t="n">
         <v>42</v>
@@ -3649,13 +3649,13 @@
         <v>42</v>
       </c>
       <c r="K76" t="n">
-        <v>26573</v>
+        <v>26564</v>
       </c>
       <c r="L76" t="n">
         <v>1655</v>
       </c>
       <c r="M76" t="n">
-        <v>194835</v>
+        <v>194846</v>
       </c>
     </row>
     <row r="77">
@@ -3665,22 +3665,22 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9738</v>
+        <v>9723</v>
       </c>
       <c r="C77" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>9720</v>
+        <v>9721</v>
       </c>
       <c r="E77" t="n">
         <v>637</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H77" t="n">
         <v>32</v>
@@ -3692,13 +3692,13 @@
         <v>32</v>
       </c>
       <c r="K77" t="n">
-        <v>27210</v>
+        <v>27201</v>
       </c>
       <c r="L77" t="n">
         <v>1687</v>
       </c>
       <c r="M77" t="n">
-        <v>204573</v>
+        <v>204569</v>
       </c>
     </row>
     <row r="78">
@@ -3708,13 +3708,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3127</v>
+        <v>3123</v>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="E78" t="n">
         <v>495</v>
@@ -3735,13 +3735,13 @@
         <v>29</v>
       </c>
       <c r="K78" t="n">
-        <v>27705</v>
+        <v>27696</v>
       </c>
       <c r="L78" t="n">
         <v>1716</v>
       </c>
       <c r="M78" t="n">
-        <v>207700</v>
+        <v>207692</v>
       </c>
     </row>
     <row r="79">
@@ -3754,19 +3754,19 @@
         <v>1885</v>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>1880</v>
+        <v>1885</v>
       </c>
       <c r="E79" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F79" t="n">
         <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H79" t="n">
         <v>29</v>
@@ -3778,13 +3778,13 @@
         <v>29</v>
       </c>
       <c r="K79" t="n">
-        <v>28189</v>
+        <v>28179</v>
       </c>
       <c r="L79" t="n">
         <v>1745</v>
       </c>
       <c r="M79" t="n">
-        <v>209585</v>
+        <v>209577</v>
       </c>
     </row>
     <row r="80">
@@ -3794,13 +3794,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>8245</v>
+        <v>8241</v>
       </c>
       <c r="C80" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>8231</v>
+        <v>8236</v>
       </c>
       <c r="E80" t="n">
         <v>455</v>
@@ -3821,13 +3821,13 @@
         <v>39</v>
       </c>
       <c r="K80" t="n">
-        <v>28644</v>
+        <v>28634</v>
       </c>
       <c r="L80" t="n">
         <v>1784</v>
       </c>
       <c r="M80" t="n">
-        <v>217830</v>
+        <v>217818</v>
       </c>
     </row>
     <row r="81">
@@ -3837,22 +3837,22 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>7037</v>
+        <v>7020</v>
       </c>
       <c r="C81" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>7021</v>
+        <v>7019</v>
       </c>
       <c r="E81" t="n">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H81" t="n">
         <v>29</v>
@@ -3864,13 +3864,13 @@
         <v>29</v>
       </c>
       <c r="K81" t="n">
-        <v>29201</v>
+        <v>29190</v>
       </c>
       <c r="L81" t="n">
         <v>1813</v>
       </c>
       <c r="M81" t="n">
-        <v>224867</v>
+        <v>224838</v>
       </c>
     </row>
     <row r="82">
@@ -3880,22 +3880,22 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6683</v>
+        <v>6673</v>
       </c>
       <c r="C82" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>6671</v>
+        <v>6672</v>
       </c>
       <c r="E82" t="n">
         <v>646</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H82" t="n">
         <v>29</v>
@@ -3907,13 +3907,13 @@
         <v>29</v>
       </c>
       <c r="K82" t="n">
-        <v>29847</v>
+        <v>29836</v>
       </c>
       <c r="L82" t="n">
         <v>1842</v>
       </c>
       <c r="M82" t="n">
-        <v>231550</v>
+        <v>231511</v>
       </c>
     </row>
     <row r="83">
@@ -3923,13 +3923,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7590</v>
+        <v>7571</v>
       </c>
       <c r="C83" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>7579</v>
+        <v>7571</v>
       </c>
       <c r="E83" t="n">
         <v>463</v>
@@ -3950,13 +3950,13 @@
         <v>36</v>
       </c>
       <c r="K83" t="n">
-        <v>30310</v>
+        <v>30299</v>
       </c>
       <c r="L83" t="n">
         <v>1878</v>
       </c>
       <c r="M83" t="n">
-        <v>239140</v>
+        <v>239082</v>
       </c>
     </row>
     <row r="84">
@@ -3966,40 +3966,40 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>8294</v>
+        <v>8284</v>
       </c>
       <c r="C84" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D84" t="n">
-        <v>8271</v>
+        <v>8276</v>
       </c>
       <c r="E84" t="n">
         <v>490</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H84" t="n">
         <v>17</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K84" t="n">
-        <v>30800</v>
+        <v>30789</v>
       </c>
       <c r="L84" t="n">
         <v>1895</v>
       </c>
       <c r="M84" t="n">
-        <v>247434</v>
+        <v>247366</v>
       </c>
     </row>
     <row r="85">
@@ -4009,13 +4009,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2822</v>
+        <v>2816</v>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>2818</v>
+        <v>2816</v>
       </c>
       <c r="E85" t="n">
         <v>473</v>
@@ -4036,13 +4036,13 @@
         <v>24</v>
       </c>
       <c r="K85" t="n">
-        <v>31273</v>
+        <v>31262</v>
       </c>
       <c r="L85" t="n">
         <v>1919</v>
       </c>
       <c r="M85" t="n">
-        <v>250256</v>
+        <v>250182</v>
       </c>
     </row>
     <row r="86">
@@ -4055,10 +4055,10 @@
         <v>1844</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="E86" t="n">
         <v>341</v>
@@ -4073,19 +4073,19 @@
         <v>15</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K86" t="n">
-        <v>31614</v>
+        <v>31603</v>
       </c>
       <c r="L86" t="n">
         <v>1934</v>
       </c>
       <c r="M86" t="n">
-        <v>252100</v>
+        <v>252026</v>
       </c>
     </row>
     <row r="87">
@@ -4095,10 +4095,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
         <v>1747</v>
@@ -4122,13 +4122,13 @@
         <v>21</v>
       </c>
       <c r="K87" t="n">
-        <v>31973</v>
+        <v>31962</v>
       </c>
       <c r="L87" t="n">
         <v>1955</v>
       </c>
       <c r="M87" t="n">
-        <v>253848</v>
+        <v>253773</v>
       </c>
     </row>
     <row r="88">
@@ -4138,22 +4138,22 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>7866</v>
+        <v>7852</v>
       </c>
       <c r="C88" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>7839</v>
+        <v>7852</v>
       </c>
       <c r="E88" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H88" t="n">
         <v>19</v>
@@ -4165,13 +4165,13 @@
         <v>19</v>
       </c>
       <c r="K88" t="n">
-        <v>32323</v>
+        <v>32310</v>
       </c>
       <c r="L88" t="n">
         <v>1974</v>
       </c>
       <c r="M88" t="n">
-        <v>261714</v>
+        <v>261625</v>
       </c>
     </row>
     <row r="89">
@@ -4181,22 +4181,22 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>6287</v>
+        <v>6283</v>
       </c>
       <c r="C89" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>6271</v>
+        <v>6279</v>
       </c>
       <c r="E89" t="n">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H89" t="n">
         <v>14</v>
@@ -4208,13 +4208,13 @@
         <v>14</v>
       </c>
       <c r="K89" t="n">
-        <v>32925</v>
+        <v>32910</v>
       </c>
       <c r="L89" t="n">
         <v>1988</v>
       </c>
       <c r="M89" t="n">
-        <v>268001</v>
+        <v>267908</v>
       </c>
     </row>
     <row r="90">
@@ -4224,22 +4224,22 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>7073</v>
+        <v>7064</v>
       </c>
       <c r="C90" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>7061</v>
+        <v>7062</v>
       </c>
       <c r="E90" t="n">
         <v>478</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H90" t="n">
         <v>17</v>
@@ -4251,13 +4251,13 @@
         <v>17</v>
       </c>
       <c r="K90" t="n">
-        <v>33403</v>
+        <v>33388</v>
       </c>
       <c r="L90" t="n">
         <v>2005</v>
       </c>
       <c r="M90" t="n">
-        <v>275074</v>
+        <v>274972</v>
       </c>
     </row>
     <row r="91">
@@ -4267,22 +4267,22 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>7745</v>
+        <v>7755</v>
       </c>
       <c r="C91" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D91" t="n">
-        <v>7735</v>
+        <v>7728</v>
       </c>
       <c r="E91" t="n">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H91" t="n">
         <v>19</v>
@@ -4294,13 +4294,13 @@
         <v>19</v>
       </c>
       <c r="K91" t="n">
-        <v>33990</v>
+        <v>33973</v>
       </c>
       <c r="L91" t="n">
         <v>2024</v>
       </c>
       <c r="M91" t="n">
-        <v>282819</v>
+        <v>282727</v>
       </c>
     </row>
     <row r="92">
@@ -4310,22 +4310,22 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2824</v>
+        <v>2827</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D92" t="n">
-        <v>2823</v>
+        <v>2820</v>
       </c>
       <c r="E92" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H92" t="n">
         <v>21</v>
@@ -4337,13 +4337,13 @@
         <v>21</v>
       </c>
       <c r="K92" t="n">
-        <v>34352</v>
+        <v>34329</v>
       </c>
       <c r="L92" t="n">
         <v>2045</v>
       </c>
       <c r="M92" t="n">
-        <v>285643</v>
+        <v>285554</v>
       </c>
     </row>
     <row r="93">
@@ -4353,13 +4353,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="E93" t="n">
         <v>284</v>
@@ -4380,13 +4380,13 @@
         <v>15</v>
       </c>
       <c r="K93" t="n">
-        <v>34636</v>
+        <v>34613</v>
       </c>
       <c r="L93" t="n">
         <v>2060</v>
       </c>
       <c r="M93" t="n">
-        <v>287444</v>
+        <v>287353</v>
       </c>
     </row>
     <row r="94">
@@ -4396,22 +4396,22 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>8058</v>
+        <v>8052</v>
       </c>
       <c r="C94" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>8048</v>
+        <v>8051</v>
       </c>
       <c r="E94" t="n">
         <v>415</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H94" t="n">
         <v>19</v>
@@ -4423,13 +4423,13 @@
         <v>19</v>
       </c>
       <c r="K94" t="n">
-        <v>35051</v>
+        <v>35028</v>
       </c>
       <c r="L94" t="n">
         <v>2079</v>
       </c>
       <c r="M94" t="n">
-        <v>295502</v>
+        <v>295405</v>
       </c>
     </row>
     <row r="95">
@@ -4439,22 +4439,22 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>5642</v>
+        <v>5643</v>
       </c>
       <c r="C95" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>5625</v>
+        <v>5641</v>
       </c>
       <c r="E95" t="n">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H95" t="n">
         <v>15</v>
@@ -4466,13 +4466,13 @@
         <v>15</v>
       </c>
       <c r="K95" t="n">
-        <v>35532</v>
+        <v>35508</v>
       </c>
       <c r="L95" t="n">
         <v>2094</v>
       </c>
       <c r="M95" t="n">
-        <v>301144</v>
+        <v>301048</v>
       </c>
     </row>
     <row r="96">
@@ -4482,22 +4482,22 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>6684</v>
+        <v>6681</v>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>6682</v>
+        <v>6680</v>
       </c>
       <c r="E96" t="n">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H96" t="n">
         <v>23</v>
@@ -4509,13 +4509,13 @@
         <v>23</v>
       </c>
       <c r="K96" t="n">
-        <v>35962</v>
+        <v>35937</v>
       </c>
       <c r="L96" t="n">
         <v>2117</v>
       </c>
       <c r="M96" t="n">
-        <v>307828</v>
+        <v>307729</v>
       </c>
     </row>
     <row r="97">
@@ -4525,22 +4525,22 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6871</v>
+        <v>6865</v>
       </c>
       <c r="C97" t="n">
         <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>6868</v>
+        <v>6862</v>
       </c>
       <c r="E97" t="n">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H97" t="n">
         <v>22</v>
@@ -4552,13 +4552,13 @@
         <v>22</v>
       </c>
       <c r="K97" t="n">
-        <v>36467</v>
+        <v>36440</v>
       </c>
       <c r="L97" t="n">
         <v>2139</v>
       </c>
       <c r="M97" t="n">
-        <v>314699</v>
+        <v>314594</v>
       </c>
     </row>
     <row r="98">
@@ -4568,22 +4568,22 @@
         </is>
       </c>
       <c r="B98" t="n">
+        <v>7895</v>
+      </c>
+      <c r="C98" t="n">
+        <v>50</v>
+      </c>
+      <c r="D98" t="n">
         <v>7845</v>
       </c>
-      <c r="C98" t="n">
-        <v>7</v>
-      </c>
-      <c r="D98" t="n">
-        <v>7838</v>
-      </c>
       <c r="E98" t="n">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H98" t="n">
         <v>21</v>
@@ -4595,13 +4595,13 @@
         <v>21</v>
       </c>
       <c r="K98" t="n">
-        <v>36889</v>
+        <v>36860</v>
       </c>
       <c r="L98" t="n">
         <v>2160</v>
       </c>
       <c r="M98" t="n">
-        <v>322544</v>
+        <v>322489</v>
       </c>
     </row>
     <row r="99">
@@ -4611,13 +4611,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>3614</v>
+        <v>3616</v>
       </c>
       <c r="E99" t="n">
         <v>405</v>
@@ -4638,13 +4638,13 @@
         <v>8</v>
       </c>
       <c r="K99" t="n">
-        <v>37294</v>
+        <v>37265</v>
       </c>
       <c r="L99" t="n">
         <v>2168</v>
       </c>
       <c r="M99" t="n">
-        <v>326161</v>
+        <v>326105</v>
       </c>
     </row>
     <row r="100">
@@ -4654,13 +4654,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1889</v>
+        <v>1910</v>
       </c>
       <c r="C100" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D100" t="n">
-        <v>1880</v>
+        <v>1888</v>
       </c>
       <c r="E100" t="n">
         <v>233</v>
@@ -4681,13 +4681,13 @@
         <v>15</v>
       </c>
       <c r="K100" t="n">
-        <v>37527</v>
+        <v>37498</v>
       </c>
       <c r="L100" t="n">
         <v>2183</v>
       </c>
       <c r="M100" t="n">
-        <v>328050</v>
+        <v>328015</v>
       </c>
     </row>
     <row r="101">
@@ -4697,22 +4697,22 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>9562</v>
+        <v>9610</v>
       </c>
       <c r="C101" t="n">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="D101" t="n">
-        <v>9450</v>
+        <v>9558</v>
       </c>
       <c r="E101" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H101" t="n">
         <v>15</v>
@@ -4724,13 +4724,13 @@
         <v>15</v>
       </c>
       <c r="K101" t="n">
-        <v>37915</v>
+        <v>37885</v>
       </c>
       <c r="L101" t="n">
         <v>2198</v>
       </c>
       <c r="M101" t="n">
-        <v>337612</v>
+        <v>337625</v>
       </c>
     </row>
     <row r="102">
@@ -4740,13 +4740,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>6388</v>
+        <v>6424</v>
       </c>
       <c r="C102" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D102" t="n">
-        <v>6343</v>
+        <v>6384</v>
       </c>
       <c r="E102" t="n">
         <v>306</v>
@@ -4761,19 +4761,19 @@
         <v>22</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K102" t="n">
-        <v>38221</v>
+        <v>38191</v>
       </c>
       <c r="L102" t="n">
         <v>2220</v>
       </c>
       <c r="M102" t="n">
-        <v>344000</v>
+        <v>344049</v>
       </c>
     </row>
     <row r="103">
@@ -4783,40 +4783,40 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>7862</v>
+        <v>7905</v>
       </c>
       <c r="C103" t="n">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="D103" t="n">
-        <v>7697</v>
+        <v>7855</v>
       </c>
       <c r="E103" t="n">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="H103" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
         <v>16</v>
       </c>
       <c r="K103" t="n">
-        <v>38638</v>
+        <v>38600</v>
       </c>
       <c r="L103" t="n">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="M103" t="n">
-        <v>351862</v>
+        <v>351954</v>
       </c>
     </row>
     <row r="104">
@@ -4826,22 +4826,22 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>9649</v>
+        <v>9690</v>
       </c>
       <c r="C104" t="n">
-        <v>231</v>
+        <v>51</v>
       </c>
       <c r="D104" t="n">
-        <v>9418</v>
+        <v>9639</v>
       </c>
       <c r="E104" t="n">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H104" t="n">
         <v>13</v>
@@ -4853,13 +4853,13 @@
         <v>13</v>
       </c>
       <c r="K104" t="n">
-        <v>39062</v>
+        <v>39021</v>
       </c>
       <c r="L104" t="n">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="M104" t="n">
-        <v>361511</v>
+        <v>361644</v>
       </c>
     </row>
     <row r="105">
@@ -4869,40 +4869,40 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="C105" t="n">
-        <v>920</v>
+        <v>114</v>
       </c>
       <c r="D105" t="n">
-        <v>8880</v>
+        <v>9786</v>
       </c>
       <c r="E105" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H105" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="n">
         <v>11</v>
       </c>
       <c r="K105" t="n">
-        <v>39468</v>
+        <v>39426</v>
       </c>
       <c r="L105" t="n">
-        <v>2260</v>
+        <v>2263</v>
       </c>
       <c r="M105" t="n">
-        <v>371311</v>
+        <v>371544</v>
       </c>
     </row>
     <row r="106">
@@ -4912,22 +4912,22 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>4711</v>
+        <v>4796</v>
       </c>
       <c r="C106" t="n">
-        <v>1570</v>
+        <v>96</v>
       </c>
       <c r="D106" t="n">
-        <v>3141</v>
+        <v>4700</v>
       </c>
       <c r="E106" t="n">
         <v>394</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H106" t="n">
         <v>7</v>
@@ -4939,13 +4939,13 @@
         <v>7</v>
       </c>
       <c r="K106" t="n">
-        <v>39862</v>
+        <v>39820</v>
       </c>
       <c r="L106" t="n">
-        <v>2267</v>
+        <v>2270</v>
       </c>
       <c r="M106" t="n">
-        <v>376022</v>
+        <v>376340</v>
       </c>
     </row>
     <row r="107">
@@ -4955,40 +4955,40 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1678</v>
+        <v>1783</v>
       </c>
       <c r="C107" t="n">
-        <v>961</v>
+        <v>117</v>
       </c>
       <c r="D107" t="n">
-        <v>717</v>
+        <v>1666</v>
       </c>
       <c r="E107" t="n">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>331</v>
+      </c>
+      <c r="H107" t="n">
+        <v>14</v>
+      </c>
+      <c r="I107" t="n">
         <v>2</v>
-      </c>
-      <c r="G107" t="n">
-        <v>332</v>
-      </c>
-      <c r="H107" t="n">
-        <v>12</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
       </c>
       <c r="J107" t="n">
         <v>12</v>
       </c>
       <c r="K107" t="n">
-        <v>40196</v>
+        <v>40151</v>
       </c>
       <c r="L107" t="n">
-        <v>2279</v>
+        <v>2284</v>
       </c>
       <c r="M107" t="n">
-        <v>377700</v>
+        <v>378123</v>
       </c>
     </row>
     <row r="108">
@@ -4998,40 +4998,40 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>5981</v>
+        <v>9787</v>
       </c>
       <c r="C108" t="n">
-        <v>5372</v>
+        <v>3881</v>
       </c>
       <c r="D108" t="n">
-        <v>609</v>
+        <v>5906</v>
       </c>
       <c r="E108" t="n">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H108" t="n">
+        <v>12</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
         <v>11</v>
       </c>
-      <c r="I108" t="n">
-        <v>2</v>
-      </c>
-      <c r="J108" t="n">
-        <v>9</v>
-      </c>
       <c r="K108" t="n">
-        <v>40616</v>
+        <v>40569</v>
       </c>
       <c r="L108" t="n">
-        <v>2290</v>
+        <v>2296</v>
       </c>
       <c r="M108" t="n">
-        <v>383681</v>
+        <v>387910</v>
       </c>
     </row>
     <row r="109">
@@ -5041,40 +5041,40 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>924</v>
+        <v>4178</v>
       </c>
       <c r="C109" t="n">
-        <v>894</v>
+        <v>3269</v>
       </c>
       <c r="D109" t="n">
-        <v>30</v>
+        <v>909</v>
       </c>
       <c r="E109" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
         <v>242</v>
       </c>
       <c r="H109" t="n">
+        <v>13</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
         <v>12</v>
       </c>
-      <c r="I109" t="n">
-        <v>6</v>
-      </c>
-      <c r="J109" t="n">
-        <v>6</v>
-      </c>
       <c r="K109" t="n">
-        <v>40860</v>
+        <v>40811</v>
       </c>
       <c r="L109" t="n">
-        <v>2302</v>
+        <v>2309</v>
       </c>
       <c r="M109" t="n">
-        <v>384605</v>
+        <v>392088</v>
       </c>
     </row>
     <row r="110">
@@ -5084,40 +5084,83 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>117</v>
+        <v>726</v>
       </c>
       <c r="C110" t="n">
-        <v>117</v>
+        <v>612</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="E110" t="n">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="F110" t="n">
-        <v>577</v>
+        <v>3</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>556</v>
       </c>
       <c r="H110" t="n">
+        <v>7</v>
+      </c>
+      <c r="I110" t="n">
+        <v>5</v>
+      </c>
+      <c r="J110" t="n">
         <v>2</v>
       </c>
-      <c r="I110" t="n">
-        <v>2</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
       <c r="K110" t="n">
-        <v>41438</v>
+        <v>41370</v>
       </c>
       <c r="L110" t="n">
-        <v>2304</v>
+        <v>2316</v>
       </c>
       <c r="M110" t="n">
-        <v>384722</v>
+        <v>392814</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2020-06-18</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>73</v>
+      </c>
+      <c r="C111" t="n">
+        <v>73</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>376</v>
+      </c>
+      <c r="F111" t="n">
+        <v>376</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>11</v>
+      </c>
+      <c r="I111" t="n">
+        <v>11</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>41746</v>
+      </c>
+      <c r="L111" t="n">
+        <v>2327</v>
+      </c>
+      <c r="M111" t="n">
+        <v>392887</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M111"/>
+  <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1085,13 +1085,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E17" t="n">
         <v>4</v>
@@ -1118,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="18">
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>2431</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="19">
@@ -1204,7 +1204,7 @@
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>3299</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="20">
@@ -1247,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>4381</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="21">
@@ -1290,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>6117</v>
+        <v>6118</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1333,7 @@
         <v>14</v>
       </c>
       <c r="M22" t="n">
-        <v>6814</v>
+        <v>6815</v>
       </c>
     </row>
     <row r="23">
@@ -1376,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="M23" t="n">
-        <v>7837</v>
+        <v>7838</v>
       </c>
     </row>
     <row r="24">
@@ -1419,7 +1419,7 @@
         <v>24</v>
       </c>
       <c r="M24" t="n">
-        <v>9290</v>
+        <v>9291</v>
       </c>
     </row>
     <row r="25">
@@ -1462,7 +1462,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="n">
-        <v>10897</v>
+        <v>10898</v>
       </c>
     </row>
     <row r="26">
@@ -1505,7 +1505,7 @@
         <v>35</v>
       </c>
       <c r="M26" t="n">
-        <v>13219</v>
+        <v>13220</v>
       </c>
     </row>
     <row r="27">
@@ -1548,7 +1548,7 @@
         <v>44</v>
       </c>
       <c r="M27" t="n">
-        <v>15827</v>
+        <v>15828</v>
       </c>
     </row>
     <row r="28">
@@ -1591,7 +1591,7 @@
         <v>47</v>
       </c>
       <c r="M28" t="n">
-        <v>17989</v>
+        <v>17990</v>
       </c>
     </row>
     <row r="29">
@@ -1601,13 +1601,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E29" t="n">
         <v>288</v>
@@ -1991,19 +1991,19 @@
         <v>2423</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="E38" t="n">
         <v>556</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H38" t="n">
         <v>25</v>
@@ -2258,10 +2258,10 @@
         <v>319</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H44" t="n">
         <v>29</v>
@@ -2375,22 +2375,22 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>3302</v>
+        <v>3299</v>
       </c>
       <c r="E47" t="n">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="H47" t="n">
         <v>38</v>
@@ -2402,13 +2402,13 @@
         <v>38</v>
       </c>
       <c r="K47" t="n">
-        <v>9490</v>
+        <v>9487</v>
       </c>
       <c r="L47" t="n">
         <v>568</v>
       </c>
       <c r="M47" t="n">
-        <v>62336</v>
+        <v>62335</v>
       </c>
     </row>
     <row r="48">
@@ -2421,10 +2421,10 @@
         <v>4004</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>4003</v>
+        <v>4004</v>
       </c>
       <c r="E48" t="n">
         <v>600</v>
@@ -2445,13 +2445,13 @@
         <v>34</v>
       </c>
       <c r="K48" t="n">
-        <v>10090</v>
+        <v>10087</v>
       </c>
       <c r="L48" t="n">
         <v>602</v>
       </c>
       <c r="M48" t="n">
-        <v>66340</v>
+        <v>66339</v>
       </c>
     </row>
     <row r="49">
@@ -2488,13 +2488,13 @@
         <v>36</v>
       </c>
       <c r="K49" t="n">
-        <v>10595</v>
+        <v>10592</v>
       </c>
       <c r="L49" t="n">
         <v>638</v>
       </c>
       <c r="M49" t="n">
-        <v>70520</v>
+        <v>70519</v>
       </c>
     </row>
     <row r="50">
@@ -2531,13 +2531,13 @@
         <v>28</v>
       </c>
       <c r="K50" t="n">
-        <v>11152</v>
+        <v>11149</v>
       </c>
       <c r="L50" t="n">
         <v>666</v>
       </c>
       <c r="M50" t="n">
-        <v>72281</v>
+        <v>72280</v>
       </c>
     </row>
     <row r="51">
@@ -2574,13 +2574,13 @@
         <v>36</v>
       </c>
       <c r="K51" t="n">
-        <v>11631</v>
+        <v>11628</v>
       </c>
       <c r="L51" t="n">
         <v>702</v>
       </c>
       <c r="M51" t="n">
-        <v>73386</v>
+        <v>73385</v>
       </c>
     </row>
     <row r="52">
@@ -2593,19 +2593,19 @@
         <v>4347</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>4347</v>
+        <v>4346</v>
       </c>
       <c r="E52" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H52" t="n">
         <v>38</v>
@@ -2617,13 +2617,13 @@
         <v>38</v>
       </c>
       <c r="K52" t="n">
-        <v>12015</v>
+        <v>12010</v>
       </c>
       <c r="L52" t="n">
         <v>740</v>
       </c>
       <c r="M52" t="n">
-        <v>77733</v>
+        <v>77732</v>
       </c>
     </row>
     <row r="53">
@@ -2642,13 +2642,13 @@
         <v>3852</v>
       </c>
       <c r="E53" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H53" t="n">
         <v>49</v>
@@ -2660,13 +2660,13 @@
         <v>49</v>
       </c>
       <c r="K53" t="n">
-        <v>12394</v>
+        <v>12388</v>
       </c>
       <c r="L53" t="n">
         <v>789</v>
       </c>
       <c r="M53" t="n">
-        <v>81585</v>
+        <v>81584</v>
       </c>
     </row>
     <row r="54">
@@ -2679,19 +2679,19 @@
         <v>3880</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>3880</v>
+        <v>3878</v>
       </c>
       <c r="E54" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H54" t="n">
         <v>50</v>
@@ -2703,13 +2703,13 @@
         <v>50</v>
       </c>
       <c r="K54" t="n">
-        <v>12999</v>
+        <v>12992</v>
       </c>
       <c r="L54" t="n">
         <v>839</v>
       </c>
       <c r="M54" t="n">
-        <v>85465</v>
+        <v>85464</v>
       </c>
     </row>
     <row r="55">
@@ -2722,10 +2722,10 @@
         <v>4376</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>4376</v>
+        <v>4375</v>
       </c>
       <c r="E55" t="n">
         <v>644</v>
@@ -2746,13 +2746,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="n">
-        <v>13643</v>
+        <v>13636</v>
       </c>
       <c r="L55" t="n">
         <v>877</v>
       </c>
       <c r="M55" t="n">
-        <v>89841</v>
+        <v>89840</v>
       </c>
     </row>
     <row r="56">
@@ -2762,22 +2762,22 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3555</v>
+        <v>3560</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>3555</v>
+        <v>3558</v>
       </c>
       <c r="E56" t="n">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H56" t="n">
         <v>37</v>
@@ -2789,13 +2789,13 @@
         <v>37</v>
       </c>
       <c r="K56" t="n">
-        <v>14342</v>
+        <v>14334</v>
       </c>
       <c r="L56" t="n">
         <v>914</v>
       </c>
       <c r="M56" t="n">
-        <v>93396</v>
+        <v>93400</v>
       </c>
     </row>
     <row r="57">
@@ -2805,22 +2805,22 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2287</v>
+        <v>2291</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="E57" t="n">
         <v>624</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H57" t="n">
         <v>41</v>
@@ -2832,13 +2832,13 @@
         <v>41</v>
       </c>
       <c r="K57" t="n">
-        <v>14966</v>
+        <v>14958</v>
       </c>
       <c r="L57" t="n">
         <v>955</v>
       </c>
       <c r="M57" t="n">
-        <v>95683</v>
+        <v>95691</v>
       </c>
     </row>
     <row r="58">
@@ -2848,22 +2848,22 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="E58" t="n">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H58" t="n">
         <v>34</v>
@@ -2875,13 +2875,13 @@
         <v>34</v>
       </c>
       <c r="K58" t="n">
-        <v>15916</v>
+        <v>15907</v>
       </c>
       <c r="L58" t="n">
         <v>989</v>
       </c>
       <c r="M58" t="n">
-        <v>97491</v>
+        <v>97498</v>
       </c>
     </row>
     <row r="59">
@@ -2891,22 +2891,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4746</v>
+        <v>4744</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>4746</v>
+        <v>4743</v>
       </c>
       <c r="E59" t="n">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H59" t="n">
         <v>42</v>
@@ -2918,13 +2918,13 @@
         <v>42</v>
       </c>
       <c r="K59" t="n">
-        <v>16536</v>
+        <v>16524</v>
       </c>
       <c r="L59" t="n">
         <v>1031</v>
       </c>
       <c r="M59" t="n">
-        <v>102237</v>
+        <v>102242</v>
       </c>
     </row>
     <row r="60">
@@ -2934,22 +2934,22 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>5021</v>
+        <v>5019</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>5021</v>
+        <v>5019</v>
       </c>
       <c r="E60" t="n">
         <v>594</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H60" t="n">
         <v>34</v>
@@ -2961,13 +2961,13 @@
         <v>34</v>
       </c>
       <c r="K60" t="n">
-        <v>17130</v>
+        <v>17118</v>
       </c>
       <c r="L60" t="n">
         <v>1065</v>
       </c>
       <c r="M60" t="n">
-        <v>107258</v>
+        <v>107261</v>
       </c>
     </row>
     <row r="61">
@@ -2977,22 +2977,22 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>5370</v>
+        <v>5369</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>5370</v>
+        <v>5369</v>
       </c>
       <c r="E61" t="n">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H61" t="n">
         <v>43</v>
@@ -3004,13 +3004,13 @@
         <v>43</v>
       </c>
       <c r="K61" t="n">
-        <v>17780</v>
+        <v>17766</v>
       </c>
       <c r="L61" t="n">
         <v>1108</v>
       </c>
       <c r="M61" t="n">
-        <v>112628</v>
+        <v>112630</v>
       </c>
     </row>
     <row r="62">
@@ -3020,22 +3020,22 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5797</v>
+        <v>5794</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>5797</v>
+        <v>5794</v>
       </c>
       <c r="E62" t="n">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="H62" t="n">
         <v>45</v>
@@ -3047,13 +3047,13 @@
         <v>45</v>
       </c>
       <c r="K62" t="n">
-        <v>18573</v>
+        <v>18556</v>
       </c>
       <c r="L62" t="n">
         <v>1153</v>
       </c>
       <c r="M62" t="n">
-        <v>118425</v>
+        <v>118424</v>
       </c>
     </row>
     <row r="63">
@@ -3063,22 +3063,22 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>6698</v>
+        <v>6694</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>6698</v>
+        <v>6694</v>
       </c>
       <c r="E63" t="n">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H63" t="n">
         <v>35</v>
@@ -3090,13 +3090,13 @@
         <v>35</v>
       </c>
       <c r="K63" t="n">
-        <v>19225</v>
+        <v>19207</v>
       </c>
       <c r="L63" t="n">
         <v>1188</v>
       </c>
       <c r="M63" t="n">
-        <v>125123</v>
+        <v>125118</v>
       </c>
     </row>
     <row r="64">
@@ -3106,13 +3106,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3277</v>
+        <v>3275</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>3277</v>
+        <v>3275</v>
       </c>
       <c r="E64" t="n">
         <v>634</v>
@@ -3133,13 +3133,13 @@
         <v>44</v>
       </c>
       <c r="K64" t="n">
-        <v>19859</v>
+        <v>19841</v>
       </c>
       <c r="L64" t="n">
         <v>1232</v>
       </c>
       <c r="M64" t="n">
-        <v>128400</v>
+        <v>128393</v>
       </c>
     </row>
     <row r="65">
@@ -3152,19 +3152,19 @@
         <v>1817</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="E65" t="n">
         <v>569</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G65" t="n">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H65" t="n">
         <v>32</v>
@@ -3176,13 +3176,13 @@
         <v>32</v>
       </c>
       <c r="K65" t="n">
-        <v>20428</v>
+        <v>20410</v>
       </c>
       <c r="L65" t="n">
         <v>1264</v>
       </c>
       <c r="M65" t="n">
-        <v>130217</v>
+        <v>130210</v>
       </c>
     </row>
     <row r="66">
@@ -3192,13 +3192,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5613</v>
+        <v>5610</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>5613</v>
+        <v>5610</v>
       </c>
       <c r="E66" t="n">
         <v>525</v>
@@ -3219,13 +3219,13 @@
         <v>38</v>
       </c>
       <c r="K66" t="n">
-        <v>20953</v>
+        <v>20935</v>
       </c>
       <c r="L66" t="n">
         <v>1302</v>
       </c>
       <c r="M66" t="n">
-        <v>135830</v>
+        <v>135820</v>
       </c>
     </row>
     <row r="67">
@@ -3235,22 +3235,22 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6388</v>
+        <v>6384</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>6388</v>
+        <v>6384</v>
       </c>
       <c r="E67" t="n">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H67" t="n">
         <v>37</v>
@@ -3262,13 +3262,13 @@
         <v>37</v>
       </c>
       <c r="K67" t="n">
-        <v>21788</v>
+        <v>21769</v>
       </c>
       <c r="L67" t="n">
         <v>1339</v>
       </c>
       <c r="M67" t="n">
-        <v>142218</v>
+        <v>142204</v>
       </c>
     </row>
     <row r="68">
@@ -3287,13 +3287,13 @@
         <v>5761</v>
       </c>
       <c r="E68" t="n">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H68" t="n">
         <v>43</v>
@@ -3305,13 +3305,13 @@
         <v>43</v>
       </c>
       <c r="K68" t="n">
-        <v>22411</v>
+        <v>22391</v>
       </c>
       <c r="L68" t="n">
         <v>1382</v>
       </c>
       <c r="M68" t="n">
-        <v>147979</v>
+        <v>147965</v>
       </c>
     </row>
     <row r="69">
@@ -3321,22 +3321,22 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6435</v>
+        <v>6433</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>6435</v>
+        <v>6433</v>
       </c>
       <c r="E69" t="n">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H69" t="n">
         <v>34</v>
@@ -3348,13 +3348,13 @@
         <v>34</v>
       </c>
       <c r="K69" t="n">
-        <v>23048</v>
+        <v>23026</v>
       </c>
       <c r="L69" t="n">
         <v>1416</v>
       </c>
       <c r="M69" t="n">
-        <v>154414</v>
+        <v>154398</v>
       </c>
     </row>
     <row r="70">
@@ -3364,13 +3364,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6552</v>
+        <v>6550</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>6552</v>
+        <v>6550</v>
       </c>
       <c r="E70" t="n">
         <v>589</v>
@@ -3391,13 +3391,13 @@
         <v>25</v>
       </c>
       <c r="K70" t="n">
-        <v>23637</v>
+        <v>23615</v>
       </c>
       <c r="L70" t="n">
         <v>1441</v>
       </c>
       <c r="M70" t="n">
-        <v>160966</v>
+        <v>160948</v>
       </c>
     </row>
     <row r="71">
@@ -3434,13 +3434,13 @@
         <v>32</v>
       </c>
       <c r="K71" t="n">
-        <v>24025</v>
+        <v>24003</v>
       </c>
       <c r="L71" t="n">
         <v>1473</v>
       </c>
       <c r="M71" t="n">
-        <v>164256</v>
+        <v>164238</v>
       </c>
     </row>
     <row r="72">
@@ -3450,22 +3450,22 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E72" t="n">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H72" t="n">
         <v>34</v>
@@ -3477,13 +3477,13 @@
         <v>34</v>
       </c>
       <c r="K72" t="n">
-        <v>24488</v>
+        <v>24465</v>
       </c>
       <c r="L72" t="n">
         <v>1507</v>
       </c>
       <c r="M72" t="n">
-        <v>165560</v>
+        <v>165541</v>
       </c>
     </row>
     <row r="73">
@@ -3493,13 +3493,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>7048</v>
+        <v>7044</v>
       </c>
       <c r="C73" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>7037</v>
+        <v>7044</v>
       </c>
       <c r="E73" t="n">
         <v>513</v>
@@ -3520,13 +3520,13 @@
         <v>41</v>
       </c>
       <c r="K73" t="n">
-        <v>25001</v>
+        <v>24978</v>
       </c>
       <c r="L73" t="n">
         <v>1548</v>
       </c>
       <c r="M73" t="n">
-        <v>172608</v>
+        <v>172585</v>
       </c>
     </row>
     <row r="74">
@@ -3536,13 +3536,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6913</v>
+        <v>6907</v>
       </c>
       <c r="C74" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>6889</v>
+        <v>6906</v>
       </c>
       <c r="E74" t="n">
         <v>374</v>
@@ -3563,13 +3563,13 @@
         <v>38</v>
       </c>
       <c r="K74" t="n">
-        <v>25375</v>
+        <v>25352</v>
       </c>
       <c r="L74" t="n">
         <v>1586</v>
       </c>
       <c r="M74" t="n">
-        <v>179521</v>
+        <v>179492</v>
       </c>
     </row>
     <row r="75">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>7192</v>
+        <v>7189</v>
       </c>
       <c r="C75" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>7182</v>
+        <v>7187</v>
       </c>
       <c r="E75" t="n">
         <v>604</v>
@@ -3606,13 +3606,13 @@
         <v>27</v>
       </c>
       <c r="K75" t="n">
-        <v>25979</v>
+        <v>25956</v>
       </c>
       <c r="L75" t="n">
         <v>1613</v>
       </c>
       <c r="M75" t="n">
-        <v>186713</v>
+        <v>186681</v>
       </c>
     </row>
     <row r="76">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>8133</v>
+        <v>8125</v>
       </c>
       <c r="C76" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>8115</v>
+        <v>8124</v>
       </c>
       <c r="E76" t="n">
         <v>585</v>
@@ -3649,13 +3649,13 @@
         <v>42</v>
       </c>
       <c r="K76" t="n">
-        <v>26564</v>
+        <v>26541</v>
       </c>
       <c r="L76" t="n">
         <v>1655</v>
       </c>
       <c r="M76" t="n">
-        <v>194846</v>
+        <v>194806</v>
       </c>
     </row>
     <row r="77">
@@ -3665,19 +3665,19 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9723</v>
+        <v>9718</v>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>9721</v>
+        <v>9718</v>
       </c>
       <c r="E77" t="n">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>636</v>
@@ -3692,13 +3692,13 @@
         <v>32</v>
       </c>
       <c r="K77" t="n">
-        <v>27201</v>
+        <v>27177</v>
       </c>
       <c r="L77" t="n">
         <v>1687</v>
       </c>
       <c r="M77" t="n">
-        <v>204569</v>
+        <v>204524</v>
       </c>
     </row>
     <row r="78">
@@ -3708,22 +3708,22 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3123</v>
+        <v>3117</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>3122</v>
+        <v>3117</v>
       </c>
       <c r="E78" t="n">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H78" t="n">
         <v>29</v>
@@ -3735,13 +3735,13 @@
         <v>29</v>
       </c>
       <c r="K78" t="n">
-        <v>27696</v>
+        <v>27671</v>
       </c>
       <c r="L78" t="n">
         <v>1716</v>
       </c>
       <c r="M78" t="n">
-        <v>207692</v>
+        <v>207641</v>
       </c>
     </row>
     <row r="79">
@@ -3760,10 +3760,10 @@
         <v>1885</v>
       </c>
       <c r="E79" t="n">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>482</v>
@@ -3778,13 +3778,13 @@
         <v>29</v>
       </c>
       <c r="K79" t="n">
-        <v>28179</v>
+        <v>28153</v>
       </c>
       <c r="L79" t="n">
         <v>1745</v>
       </c>
       <c r="M79" t="n">
-        <v>209577</v>
+        <v>209526</v>
       </c>
     </row>
     <row r="80">
@@ -3794,22 +3794,22 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>8241</v>
+        <v>8239</v>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>8236</v>
+        <v>8238</v>
       </c>
       <c r="E80" t="n">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H80" t="n">
         <v>39</v>
@@ -3821,13 +3821,13 @@
         <v>39</v>
       </c>
       <c r="K80" t="n">
-        <v>28634</v>
+        <v>28607</v>
       </c>
       <c r="L80" t="n">
         <v>1784</v>
       </c>
       <c r="M80" t="n">
-        <v>217818</v>
+        <v>217765</v>
       </c>
     </row>
     <row r="81">
@@ -3837,22 +3837,22 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>7020</v>
+        <v>7008</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>7019</v>
+        <v>7008</v>
       </c>
       <c r="E81" t="n">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H81" t="n">
         <v>29</v>
@@ -3864,13 +3864,13 @@
         <v>29</v>
       </c>
       <c r="K81" t="n">
-        <v>29190</v>
+        <v>29161</v>
       </c>
       <c r="L81" t="n">
         <v>1813</v>
       </c>
       <c r="M81" t="n">
-        <v>224838</v>
+        <v>224773</v>
       </c>
     </row>
     <row r="82">
@@ -3880,22 +3880,22 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6673</v>
+        <v>6665</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>6672</v>
+        <v>6665</v>
       </c>
       <c r="E82" t="n">
         <v>646</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H82" t="n">
         <v>29</v>
@@ -3907,13 +3907,13 @@
         <v>29</v>
       </c>
       <c r="K82" t="n">
-        <v>29836</v>
+        <v>29807</v>
       </c>
       <c r="L82" t="n">
         <v>1842</v>
       </c>
       <c r="M82" t="n">
-        <v>231511</v>
+        <v>231438</v>
       </c>
     </row>
     <row r="83">
@@ -3923,22 +3923,22 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7571</v>
+        <v>7566</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>7571</v>
+        <v>7565</v>
       </c>
       <c r="E83" t="n">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H83" t="n">
         <v>36</v>
@@ -3950,13 +3950,13 @@
         <v>36</v>
       </c>
       <c r="K83" t="n">
-        <v>30299</v>
+        <v>30268</v>
       </c>
       <c r="L83" t="n">
         <v>1878</v>
       </c>
       <c r="M83" t="n">
-        <v>239082</v>
+        <v>239004</v>
       </c>
     </row>
     <row r="84">
@@ -3966,22 +3966,22 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>8284</v>
+        <v>8281</v>
       </c>
       <c r="C84" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>8276</v>
+        <v>8281</v>
       </c>
       <c r="E84" t="n">
         <v>490</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H84" t="n">
         <v>17</v>
@@ -3993,13 +3993,13 @@
         <v>17</v>
       </c>
       <c r="K84" t="n">
-        <v>30789</v>
+        <v>30758</v>
       </c>
       <c r="L84" t="n">
         <v>1895</v>
       </c>
       <c r="M84" t="n">
-        <v>247366</v>
+        <v>247285</v>
       </c>
     </row>
     <row r="85">
@@ -4009,13 +4009,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="E85" t="n">
         <v>473</v>
@@ -4036,13 +4036,13 @@
         <v>24</v>
       </c>
       <c r="K85" t="n">
-        <v>31262</v>
+        <v>31231</v>
       </c>
       <c r="L85" t="n">
         <v>1919</v>
       </c>
       <c r="M85" t="n">
-        <v>250182</v>
+        <v>250100</v>
       </c>
     </row>
     <row r="86">
@@ -4052,13 +4052,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="E86" t="n">
         <v>341</v>
@@ -4079,13 +4079,13 @@
         <v>15</v>
       </c>
       <c r="K86" t="n">
-        <v>31603</v>
+        <v>31572</v>
       </c>
       <c r="L86" t="n">
         <v>1934</v>
       </c>
       <c r="M86" t="n">
-        <v>252026</v>
+        <v>251943</v>
       </c>
     </row>
     <row r="87">
@@ -4095,22 +4095,22 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="E87" t="n">
         <v>359</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H87" t="n">
         <v>21</v>
@@ -4122,13 +4122,13 @@
         <v>21</v>
       </c>
       <c r="K87" t="n">
-        <v>31962</v>
+        <v>31931</v>
       </c>
       <c r="L87" t="n">
         <v>1955</v>
       </c>
       <c r="M87" t="n">
-        <v>253773</v>
+        <v>253688</v>
       </c>
     </row>
     <row r="88">
@@ -4138,13 +4138,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>7852</v>
+        <v>7846</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>7852</v>
+        <v>7846</v>
       </c>
       <c r="E88" t="n">
         <v>348</v>
@@ -4165,13 +4165,13 @@
         <v>19</v>
       </c>
       <c r="K88" t="n">
-        <v>32310</v>
+        <v>32279</v>
       </c>
       <c r="L88" t="n">
         <v>1974</v>
       </c>
       <c r="M88" t="n">
-        <v>261625</v>
+        <v>261534</v>
       </c>
     </row>
     <row r="89">
@@ -4181,22 +4181,22 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>6283</v>
+        <v>6297</v>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D89" t="n">
-        <v>6279</v>
+        <v>6280</v>
       </c>
       <c r="E89" t="n">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H89" t="n">
         <v>14</v>
@@ -4208,13 +4208,13 @@
         <v>14</v>
       </c>
       <c r="K89" t="n">
-        <v>32910</v>
+        <v>32878</v>
       </c>
       <c r="L89" t="n">
         <v>1988</v>
       </c>
       <c r="M89" t="n">
-        <v>267908</v>
+        <v>267831</v>
       </c>
     </row>
     <row r="90">
@@ -4224,13 +4224,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>7064</v>
+        <v>7057</v>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>7062</v>
+        <v>7056</v>
       </c>
       <c r="E90" t="n">
         <v>478</v>
@@ -4251,13 +4251,13 @@
         <v>17</v>
       </c>
       <c r="K90" t="n">
-        <v>33388</v>
+        <v>33356</v>
       </c>
       <c r="L90" t="n">
         <v>2005</v>
       </c>
       <c r="M90" t="n">
-        <v>274972</v>
+        <v>274888</v>
       </c>
     </row>
     <row r="91">
@@ -4267,22 +4267,22 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>7755</v>
+        <v>7768</v>
       </c>
       <c r="C91" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D91" t="n">
-        <v>7728</v>
+        <v>7750</v>
       </c>
       <c r="E91" t="n">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="H91" t="n">
         <v>19</v>
@@ -4294,13 +4294,13 @@
         <v>19</v>
       </c>
       <c r="K91" t="n">
-        <v>33973</v>
+        <v>33931</v>
       </c>
       <c r="L91" t="n">
         <v>2024</v>
       </c>
       <c r="M91" t="n">
-        <v>282727</v>
+        <v>282656</v>
       </c>
     </row>
     <row r="92">
@@ -4313,19 +4313,19 @@
         <v>2827</v>
       </c>
       <c r="C92" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>2820</v>
+        <v>2826</v>
       </c>
       <c r="E92" t="n">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H92" t="n">
         <v>21</v>
@@ -4337,13 +4337,13 @@
         <v>21</v>
       </c>
       <c r="K92" t="n">
-        <v>34329</v>
+        <v>34281</v>
       </c>
       <c r="L92" t="n">
         <v>2045</v>
       </c>
       <c r="M92" t="n">
-        <v>285554</v>
+        <v>285483</v>
       </c>
     </row>
     <row r="93">
@@ -4362,31 +4362,31 @@
         <v>1799</v>
       </c>
       <c r="E93" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H93" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
         <v>15</v>
       </c>
       <c r="K93" t="n">
-        <v>34613</v>
+        <v>34564</v>
       </c>
       <c r="L93" t="n">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="M93" t="n">
-        <v>287353</v>
+        <v>287282</v>
       </c>
     </row>
     <row r="94">
@@ -4396,22 +4396,22 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>8052</v>
+        <v>8048</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>8051</v>
+        <v>8047</v>
       </c>
       <c r="E94" t="n">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F94" t="n">
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H94" t="n">
         <v>19</v>
@@ -4423,13 +4423,13 @@
         <v>19</v>
       </c>
       <c r="K94" t="n">
-        <v>35028</v>
+        <v>34978</v>
       </c>
       <c r="L94" t="n">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="M94" t="n">
-        <v>295405</v>
+        <v>295330</v>
       </c>
     </row>
     <row r="95">
@@ -4439,22 +4439,22 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>5643</v>
+        <v>5640</v>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>5641</v>
+        <v>5639</v>
       </c>
       <c r="E95" t="n">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H95" t="n">
         <v>15</v>
@@ -4466,13 +4466,13 @@
         <v>15</v>
       </c>
       <c r="K95" t="n">
-        <v>35508</v>
+        <v>35456</v>
       </c>
       <c r="L95" t="n">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="M95" t="n">
-        <v>301048</v>
+        <v>300970</v>
       </c>
     </row>
     <row r="96">
@@ -4491,13 +4491,13 @@
         <v>6680</v>
       </c>
       <c r="E96" t="n">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H96" t="n">
         <v>23</v>
@@ -4509,13 +4509,13 @@
         <v>23</v>
       </c>
       <c r="K96" t="n">
-        <v>35937</v>
+        <v>35884</v>
       </c>
       <c r="L96" t="n">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="M96" t="n">
-        <v>307729</v>
+        <v>307651</v>
       </c>
     </row>
     <row r="97">
@@ -4525,22 +4525,22 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6865</v>
+        <v>6863</v>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
         <v>6862</v>
       </c>
       <c r="E97" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H97" t="n">
         <v>22</v>
@@ -4552,13 +4552,13 @@
         <v>22</v>
       </c>
       <c r="K97" t="n">
-        <v>36440</v>
+        <v>36385</v>
       </c>
       <c r="L97" t="n">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="M97" t="n">
-        <v>314594</v>
+        <v>314514</v>
       </c>
     </row>
     <row r="98">
@@ -4568,22 +4568,22 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>7895</v>
+        <v>7901</v>
       </c>
       <c r="C98" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>7845</v>
+        <v>7896</v>
       </c>
       <c r="E98" t="n">
         <v>420</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H98" t="n">
         <v>21</v>
@@ -4595,13 +4595,13 @@
         <v>21</v>
       </c>
       <c r="K98" t="n">
-        <v>36860</v>
+        <v>36805</v>
       </c>
       <c r="L98" t="n">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="M98" t="n">
-        <v>322489</v>
+        <v>322415</v>
       </c>
     </row>
     <row r="99">
@@ -4620,13 +4620,13 @@
         <v>3616</v>
       </c>
       <c r="E99" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H99" t="n">
         <v>8</v>
@@ -4638,13 +4638,13 @@
         <v>8</v>
       </c>
       <c r="K99" t="n">
-        <v>37265</v>
+        <v>37209</v>
       </c>
       <c r="L99" t="n">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="M99" t="n">
-        <v>326105</v>
+        <v>326031</v>
       </c>
     </row>
     <row r="100">
@@ -4654,13 +4654,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="C100" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>1888</v>
+        <v>1909</v>
       </c>
       <c r="E100" t="n">
         <v>233</v>
@@ -4681,13 +4681,13 @@
         <v>15</v>
       </c>
       <c r="K100" t="n">
-        <v>37498</v>
+        <v>37442</v>
       </c>
       <c r="L100" t="n">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="M100" t="n">
-        <v>328015</v>
+        <v>327943</v>
       </c>
     </row>
     <row r="101">
@@ -4697,13 +4697,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>9610</v>
+        <v>9608</v>
       </c>
       <c r="C101" t="n">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>9558</v>
+        <v>9605</v>
       </c>
       <c r="E101" t="n">
         <v>387</v>
@@ -4724,13 +4724,13 @@
         <v>15</v>
       </c>
       <c r="K101" t="n">
-        <v>37885</v>
+        <v>37829</v>
       </c>
       <c r="L101" t="n">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="M101" t="n">
-        <v>337625</v>
+        <v>337551</v>
       </c>
     </row>
     <row r="102">
@@ -4740,13 +4740,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>6424</v>
+        <v>6428</v>
       </c>
       <c r="C102" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D102" t="n">
-        <v>6384</v>
+        <v>6423</v>
       </c>
       <c r="E102" t="n">
         <v>306</v>
@@ -4767,13 +4767,13 @@
         <v>22</v>
       </c>
       <c r="K102" t="n">
-        <v>38191</v>
+        <v>38135</v>
       </c>
       <c r="L102" t="n">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="M102" t="n">
-        <v>344049</v>
+        <v>343979</v>
       </c>
     </row>
     <row r="103">
@@ -4783,40 +4783,40 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>7905</v>
+        <v>7912</v>
       </c>
       <c r="C103" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D103" t="n">
-        <v>7855</v>
+        <v>7901</v>
       </c>
       <c r="E103" t="n">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H103" t="n">
         <v>17</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K103" t="n">
-        <v>38600</v>
+        <v>38539</v>
       </c>
       <c r="L103" t="n">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="M103" t="n">
-        <v>351954</v>
+        <v>351891</v>
       </c>
     </row>
     <row r="104">
@@ -4826,40 +4826,40 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>9690</v>
+        <v>9726</v>
       </c>
       <c r="C104" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D104" t="n">
-        <v>9639</v>
+        <v>9686</v>
       </c>
       <c r="E104" t="n">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>417</v>
+      </c>
+      <c r="H104" t="n">
+        <v>14</v>
+      </c>
+      <c r="I104" t="n">
         <v>1</v>
-      </c>
-      <c r="G104" t="n">
-        <v>420</v>
-      </c>
-      <c r="H104" t="n">
-        <v>13</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
       </c>
       <c r="J104" t="n">
         <v>13</v>
       </c>
       <c r="K104" t="n">
-        <v>39021</v>
+        <v>38956</v>
       </c>
       <c r="L104" t="n">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="M104" t="n">
-        <v>361644</v>
+        <v>361617</v>
       </c>
     </row>
     <row r="105">
@@ -4869,40 +4869,40 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>9900</v>
+        <v>9939</v>
       </c>
       <c r="C105" t="n">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="D105" t="n">
-        <v>9786</v>
+        <v>9898</v>
       </c>
       <c r="E105" t="n">
         <v>405</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H105" t="n">
+        <v>14</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
         <v>13</v>
       </c>
-      <c r="I105" t="n">
-        <v>2</v>
-      </c>
-      <c r="J105" t="n">
-        <v>11</v>
-      </c>
       <c r="K105" t="n">
-        <v>39426</v>
+        <v>39361</v>
       </c>
       <c r="L105" t="n">
-        <v>2263</v>
+        <v>2266</v>
       </c>
       <c r="M105" t="n">
-        <v>371544</v>
+        <v>371556</v>
       </c>
     </row>
     <row r="106">
@@ -4912,19 +4912,19 @@
         </is>
       </c>
       <c r="B106" t="n">
+        <v>4831</v>
+      </c>
+      <c r="C106" t="n">
+        <v>35</v>
+      </c>
+      <c r="D106" t="n">
         <v>4796</v>
       </c>
-      <c r="C106" t="n">
-        <v>96</v>
-      </c>
-      <c r="D106" t="n">
-        <v>4700</v>
-      </c>
       <c r="E106" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
         <v>393</v>
@@ -4939,13 +4939,13 @@
         <v>7</v>
       </c>
       <c r="K106" t="n">
-        <v>39820</v>
+        <v>39754</v>
       </c>
       <c r="L106" t="n">
-        <v>2270</v>
+        <v>2273</v>
       </c>
       <c r="M106" t="n">
-        <v>376340</v>
+        <v>376387</v>
       </c>
     </row>
     <row r="107">
@@ -4955,40 +4955,40 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1783</v>
+        <v>1840</v>
       </c>
       <c r="C107" t="n">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="D107" t="n">
-        <v>1666</v>
+        <v>1785</v>
       </c>
       <c r="E107" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H107" t="n">
+        <v>18</v>
+      </c>
+      <c r="I107" t="n">
+        <v>4</v>
+      </c>
+      <c r="J107" t="n">
         <v>14</v>
       </c>
-      <c r="I107" t="n">
-        <v>2</v>
-      </c>
-      <c r="J107" t="n">
-        <v>12</v>
-      </c>
       <c r="K107" t="n">
-        <v>40151</v>
+        <v>40084</v>
       </c>
       <c r="L107" t="n">
-        <v>2284</v>
+        <v>2291</v>
       </c>
       <c r="M107" t="n">
-        <v>378123</v>
+        <v>378227</v>
       </c>
     </row>
     <row r="108">
@@ -4998,40 +4998,40 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>9787</v>
+        <v>10991</v>
       </c>
       <c r="C108" t="n">
-        <v>3881</v>
+        <v>1242</v>
       </c>
       <c r="D108" t="n">
-        <v>5906</v>
+        <v>9749</v>
       </c>
       <c r="E108" t="n">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H108" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K108" t="n">
-        <v>40569</v>
+        <v>40500</v>
       </c>
       <c r="L108" t="n">
-        <v>2296</v>
+        <v>2304</v>
       </c>
       <c r="M108" t="n">
-        <v>387910</v>
+        <v>389218</v>
       </c>
     </row>
     <row r="109">
@@ -5041,40 +5041,40 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>4178</v>
+        <v>7821</v>
       </c>
       <c r="C109" t="n">
-        <v>3269</v>
+        <v>3695</v>
       </c>
       <c r="D109" t="n">
-        <v>909</v>
+        <v>4126</v>
       </c>
       <c r="E109" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H109" t="n">
         <v>13</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K109" t="n">
-        <v>40811</v>
+        <v>40741</v>
       </c>
       <c r="L109" t="n">
-        <v>2309</v>
+        <v>2317</v>
       </c>
       <c r="M109" t="n">
-        <v>392088</v>
+        <v>397039</v>
       </c>
     </row>
     <row r="110">
@@ -5084,40 +5084,40 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>726</v>
+        <v>3947</v>
       </c>
       <c r="C110" t="n">
-        <v>612</v>
+        <v>3228</v>
       </c>
       <c r="D110" t="n">
-        <v>114</v>
+        <v>719</v>
       </c>
       <c r="E110" t="n">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F110" t="n">
         <v>3</v>
       </c>
       <c r="G110" t="n">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H110" t="n">
+        <v>9</v>
+      </c>
+      <c r="I110" t="n">
+        <v>2</v>
+      </c>
+      <c r="J110" t="n">
         <v>7</v>
       </c>
-      <c r="I110" t="n">
-        <v>5</v>
-      </c>
-      <c r="J110" t="n">
-        <v>2</v>
-      </c>
       <c r="K110" t="n">
-        <v>41370</v>
+        <v>41298</v>
       </c>
       <c r="L110" t="n">
-        <v>2316</v>
+        <v>2326</v>
       </c>
       <c r="M110" t="n">
-        <v>392814</v>
+        <v>400986</v>
       </c>
     </row>
     <row r="111">
@@ -5127,40 +5127,83 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>73</v>
+        <v>731</v>
       </c>
       <c r="C111" t="n">
-        <v>73</v>
+        <v>659</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E111" t="n">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F111" t="n">
-        <v>376</v>
+        <v>2</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="H111" t="n">
+        <v>18</v>
+      </c>
+      <c r="I111" t="n">
+        <v>7</v>
+      </c>
+      <c r="J111" t="n">
         <v>11</v>
       </c>
-      <c r="I111" t="n">
-        <v>11</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
       <c r="K111" t="n">
-        <v>41746</v>
+        <v>41668</v>
       </c>
       <c r="L111" t="n">
-        <v>2327</v>
+        <v>2344</v>
       </c>
       <c r="M111" t="n">
-        <v>392887</v>
+        <v>401717</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2020-06-19</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>85</v>
+      </c>
+      <c r="C112" t="n">
+        <v>85</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>393</v>
+      </c>
+      <c r="F112" t="n">
+        <v>393</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+      <c r="I112" t="n">
+        <v>2</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>42061</v>
+      </c>
+      <c r="L112" t="n">
+        <v>2346</v>
+      </c>
+      <c r="M112" t="n">
+        <v>401802</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M112"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2077,10 +2077,10 @@
         <v>3071</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="E40" t="n">
         <v>422</v>
@@ -2292,10 +2292,10 @@
         <v>3472</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>3472</v>
+        <v>3470</v>
       </c>
       <c r="E45" t="n">
         <v>292</v>
@@ -2344,10 +2344,10 @@
         <v>417</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H46" t="n">
         <v>46</v>
@@ -2378,19 +2378,19 @@
         <v>3301</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>3299</v>
+        <v>3301</v>
       </c>
       <c r="E47" t="n">
         <v>577</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H47" t="n">
         <v>38</v>
@@ -2418,13 +2418,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4004</v>
+        <v>4002</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>4004</v>
+        <v>4002</v>
       </c>
       <c r="E48" t="n">
         <v>600</v>
@@ -2451,7 +2451,7 @@
         <v>602</v>
       </c>
       <c r="M48" t="n">
-        <v>66339</v>
+        <v>66337</v>
       </c>
     </row>
     <row r="49">
@@ -2494,7 +2494,7 @@
         <v>638</v>
       </c>
       <c r="M49" t="n">
-        <v>70519</v>
+        <v>70517</v>
       </c>
     </row>
     <row r="50">
@@ -2504,22 +2504,22 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="E50" t="n">
         <v>557</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H50" t="n">
         <v>28</v>
@@ -2537,7 +2537,7 @@
         <v>666</v>
       </c>
       <c r="M50" t="n">
-        <v>72280</v>
+        <v>72277</v>
       </c>
     </row>
     <row r="51">
@@ -2580,7 +2580,7 @@
         <v>702</v>
       </c>
       <c r="M51" t="n">
-        <v>73385</v>
+        <v>73382</v>
       </c>
     </row>
     <row r="52">
@@ -2593,10 +2593,10 @@
         <v>4347</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>4346</v>
+        <v>4347</v>
       </c>
       <c r="E52" t="n">
         <v>382</v>
@@ -2623,7 +2623,7 @@
         <v>740</v>
       </c>
       <c r="M52" t="n">
-        <v>77732</v>
+        <v>77729</v>
       </c>
     </row>
     <row r="53">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3852</v>
+        <v>3850</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>3852</v>
+        <v>3850</v>
       </c>
       <c r="E53" t="n">
         <v>378</v>
@@ -2666,7 +2666,7 @@
         <v>789</v>
       </c>
       <c r="M53" t="n">
-        <v>81584</v>
+        <v>81579</v>
       </c>
     </row>
     <row r="54">
@@ -2676,10 +2676,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3880</v>
+        <v>3879</v>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
         <v>3878</v>
@@ -2709,7 +2709,7 @@
         <v>839</v>
       </c>
       <c r="M54" t="n">
-        <v>85464</v>
+        <v>85458</v>
       </c>
     </row>
     <row r="55">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4376</v>
+        <v>4374</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>4375</v>
+        <v>4374</v>
       </c>
       <c r="E55" t="n">
         <v>644</v>
@@ -2752,7 +2752,7 @@
         <v>877</v>
       </c>
       <c r="M55" t="n">
-        <v>89840</v>
+        <v>89832</v>
       </c>
     </row>
     <row r="56">
@@ -2765,10 +2765,10 @@
         <v>3560</v>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>3558</v>
+        <v>3560</v>
       </c>
       <c r="E56" t="n">
         <v>698</v>
@@ -2795,7 +2795,7 @@
         <v>914</v>
       </c>
       <c r="M56" t="n">
-        <v>93400</v>
+        <v>93392</v>
       </c>
     </row>
     <row r="57">
@@ -2805,22 +2805,22 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>2286</v>
+        <v>2290</v>
       </c>
       <c r="E57" t="n">
         <v>624</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H57" t="n">
         <v>41</v>
@@ -2838,7 +2838,7 @@
         <v>955</v>
       </c>
       <c r="M57" t="n">
-        <v>95691</v>
+        <v>95682</v>
       </c>
     </row>
     <row r="58">
@@ -2881,7 +2881,7 @@
         <v>989</v>
       </c>
       <c r="M58" t="n">
-        <v>97498</v>
+        <v>97489</v>
       </c>
     </row>
     <row r="59">
@@ -2891,13 +2891,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4744</v>
+        <v>4738</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>4743</v>
+        <v>4738</v>
       </c>
       <c r="E59" t="n">
         <v>617</v>
@@ -2924,7 +2924,7 @@
         <v>1031</v>
       </c>
       <c r="M59" t="n">
-        <v>102242</v>
+        <v>102227</v>
       </c>
     </row>
     <row r="60">
@@ -2934,22 +2934,22 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>5019</v>
+        <v>5016</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>5019</v>
+        <v>5016</v>
       </c>
       <c r="E60" t="n">
         <v>594</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H60" t="n">
         <v>34</v>
@@ -2967,7 +2967,7 @@
         <v>1065</v>
       </c>
       <c r="M60" t="n">
-        <v>107261</v>
+        <v>107243</v>
       </c>
     </row>
     <row r="61">
@@ -2977,13 +2977,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>5369</v>
+        <v>5367</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>5369</v>
+        <v>5366</v>
       </c>
       <c r="E61" t="n">
         <v>648</v>
@@ -3010,7 +3010,7 @@
         <v>1108</v>
       </c>
       <c r="M61" t="n">
-        <v>112630</v>
+        <v>112610</v>
       </c>
     </row>
     <row r="62">
@@ -3020,22 +3020,22 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5794</v>
+        <v>5793</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>5794</v>
+        <v>5793</v>
       </c>
       <c r="E62" t="n">
         <v>790</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H62" t="n">
         <v>45</v>
@@ -3053,7 +3053,7 @@
         <v>1153</v>
       </c>
       <c r="M62" t="n">
-        <v>118424</v>
+        <v>118403</v>
       </c>
     </row>
     <row r="63">
@@ -3063,13 +3063,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>6694</v>
+        <v>6693</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>6694</v>
+        <v>6693</v>
       </c>
       <c r="E63" t="n">
         <v>651</v>
@@ -3096,7 +3096,7 @@
         <v>1188</v>
       </c>
       <c r="M63" t="n">
-        <v>125118</v>
+        <v>125096</v>
       </c>
     </row>
     <row r="64">
@@ -3139,7 +3139,7 @@
         <v>1232</v>
       </c>
       <c r="M64" t="n">
-        <v>128393</v>
+        <v>128371</v>
       </c>
     </row>
     <row r="65">
@@ -3161,10 +3161,10 @@
         <v>569</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H65" t="n">
         <v>32</v>
@@ -3182,7 +3182,7 @@
         <v>1264</v>
       </c>
       <c r="M65" t="n">
-        <v>130210</v>
+        <v>130188</v>
       </c>
     </row>
     <row r="66">
@@ -3192,13 +3192,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5610</v>
+        <v>5608</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>5610</v>
+        <v>5608</v>
       </c>
       <c r="E66" t="n">
         <v>525</v>
@@ -3225,7 +3225,7 @@
         <v>1302</v>
       </c>
       <c r="M66" t="n">
-        <v>135820</v>
+        <v>135796</v>
       </c>
     </row>
     <row r="67">
@@ -3235,22 +3235,22 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6384</v>
+        <v>6383</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>6384</v>
+        <v>6383</v>
       </c>
       <c r="E67" t="n">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H67" t="n">
         <v>37</v>
@@ -3262,13 +3262,13 @@
         <v>37</v>
       </c>
       <c r="K67" t="n">
-        <v>21769</v>
+        <v>21768</v>
       </c>
       <c r="L67" t="n">
         <v>1339</v>
       </c>
       <c r="M67" t="n">
-        <v>142204</v>
+        <v>142179</v>
       </c>
     </row>
     <row r="68">
@@ -3305,13 +3305,13 @@
         <v>43</v>
       </c>
       <c r="K68" t="n">
-        <v>22391</v>
+        <v>22390</v>
       </c>
       <c r="L68" t="n">
         <v>1382</v>
       </c>
       <c r="M68" t="n">
-        <v>147965</v>
+        <v>147940</v>
       </c>
     </row>
     <row r="69">
@@ -3333,10 +3333,10 @@
         <v>635</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H69" t="n">
         <v>34</v>
@@ -3348,13 +3348,13 @@
         <v>34</v>
       </c>
       <c r="K69" t="n">
-        <v>23026</v>
+        <v>23025</v>
       </c>
       <c r="L69" t="n">
         <v>1416</v>
       </c>
       <c r="M69" t="n">
-        <v>154398</v>
+        <v>154373</v>
       </c>
     </row>
     <row r="70">
@@ -3364,22 +3364,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6550</v>
+        <v>6545</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>6550</v>
+        <v>6544</v>
       </c>
       <c r="E70" t="n">
         <v>589</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H70" t="n">
         <v>25</v>
@@ -3391,13 +3391,13 @@
         <v>25</v>
       </c>
       <c r="K70" t="n">
-        <v>23615</v>
+        <v>23614</v>
       </c>
       <c r="L70" t="n">
         <v>1441</v>
       </c>
       <c r="M70" t="n">
-        <v>160948</v>
+        <v>160918</v>
       </c>
     </row>
     <row r="71">
@@ -3419,10 +3419,10 @@
         <v>388</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H71" t="n">
         <v>32</v>
@@ -3434,13 +3434,13 @@
         <v>32</v>
       </c>
       <c r="K71" t="n">
-        <v>24003</v>
+        <v>24002</v>
       </c>
       <c r="L71" t="n">
         <v>1473</v>
       </c>
       <c r="M71" t="n">
-        <v>164238</v>
+        <v>164208</v>
       </c>
     </row>
     <row r="72">
@@ -3450,13 +3450,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E72" t="n">
         <v>462</v>
@@ -3477,13 +3477,13 @@
         <v>34</v>
       </c>
       <c r="K72" t="n">
-        <v>24465</v>
+        <v>24464</v>
       </c>
       <c r="L72" t="n">
         <v>1507</v>
       </c>
       <c r="M72" t="n">
-        <v>165541</v>
+        <v>165510</v>
       </c>
     </row>
     <row r="73">
@@ -3493,13 +3493,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>7044</v>
+        <v>7038</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>7044</v>
+        <v>7038</v>
       </c>
       <c r="E73" t="n">
         <v>513</v>
@@ -3520,13 +3520,13 @@
         <v>41</v>
       </c>
       <c r="K73" t="n">
-        <v>24978</v>
+        <v>24977</v>
       </c>
       <c r="L73" t="n">
         <v>1548</v>
       </c>
       <c r="M73" t="n">
-        <v>172585</v>
+        <v>172548</v>
       </c>
     </row>
     <row r="74">
@@ -3536,13 +3536,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6907</v>
+        <v>6905</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>6906</v>
+        <v>6905</v>
       </c>
       <c r="E74" t="n">
         <v>374</v>
@@ -3563,13 +3563,13 @@
         <v>38</v>
       </c>
       <c r="K74" t="n">
-        <v>25352</v>
+        <v>25351</v>
       </c>
       <c r="L74" t="n">
         <v>1586</v>
       </c>
       <c r="M74" t="n">
-        <v>179492</v>
+        <v>179453</v>
       </c>
     </row>
     <row r="75">
@@ -3579,22 +3579,22 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>7189</v>
+        <v>7185</v>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>7187</v>
+        <v>7185</v>
       </c>
       <c r="E75" t="n">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H75" t="n">
         <v>27</v>
@@ -3606,13 +3606,13 @@
         <v>27</v>
       </c>
       <c r="K75" t="n">
-        <v>25956</v>
+        <v>25953</v>
       </c>
       <c r="L75" t="n">
         <v>1613</v>
       </c>
       <c r="M75" t="n">
-        <v>186681</v>
+        <v>186638</v>
       </c>
     </row>
     <row r="76">
@@ -3622,22 +3622,22 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>8125</v>
+        <v>8120</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>8124</v>
+        <v>8120</v>
       </c>
       <c r="E76" t="n">
         <v>585</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H76" t="n">
         <v>42</v>
@@ -3649,13 +3649,13 @@
         <v>42</v>
       </c>
       <c r="K76" t="n">
-        <v>26541</v>
+        <v>26538</v>
       </c>
       <c r="L76" t="n">
         <v>1655</v>
       </c>
       <c r="M76" t="n">
-        <v>194806</v>
+        <v>194758</v>
       </c>
     </row>
     <row r="77">
@@ -3665,13 +3665,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9718</v>
+        <v>9715</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>9718</v>
+        <v>9715</v>
       </c>
       <c r="E77" t="n">
         <v>636</v>
@@ -3692,13 +3692,13 @@
         <v>32</v>
       </c>
       <c r="K77" t="n">
-        <v>27177</v>
+        <v>27174</v>
       </c>
       <c r="L77" t="n">
         <v>1687</v>
       </c>
       <c r="M77" t="n">
-        <v>204524</v>
+        <v>204473</v>
       </c>
     </row>
     <row r="78">
@@ -3720,28 +3720,28 @@
         <v>494</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H78" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K78" t="n">
-        <v>27671</v>
+        <v>27668</v>
       </c>
       <c r="L78" t="n">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="M78" t="n">
-        <v>207641</v>
+        <v>207590</v>
       </c>
     </row>
     <row r="79">
@@ -3760,13 +3760,13 @@
         <v>1885</v>
       </c>
       <c r="E79" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H79" t="n">
         <v>29</v>
@@ -3778,13 +3778,13 @@
         <v>29</v>
       </c>
       <c r="K79" t="n">
-        <v>28153</v>
+        <v>28149</v>
       </c>
       <c r="L79" t="n">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="M79" t="n">
-        <v>209526</v>
+        <v>209475</v>
       </c>
     </row>
     <row r="80">
@@ -3794,22 +3794,22 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>8239</v>
+        <v>8237</v>
       </c>
       <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>8237</v>
+      </c>
+      <c r="E80" t="n">
+        <v>453</v>
+      </c>
+      <c r="F80" t="n">
         <v>1</v>
       </c>
-      <c r="D80" t="n">
-        <v>8238</v>
-      </c>
-      <c r="E80" t="n">
-        <v>454</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0</v>
-      </c>
       <c r="G80" t="n">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H80" t="n">
         <v>39</v>
@@ -3821,13 +3821,13 @@
         <v>39</v>
       </c>
       <c r="K80" t="n">
-        <v>28607</v>
+        <v>28602</v>
       </c>
       <c r="L80" t="n">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="M80" t="n">
-        <v>217765</v>
+        <v>217712</v>
       </c>
     </row>
     <row r="81">
@@ -3837,13 +3837,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>7008</v>
+        <v>7004</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>7008</v>
+        <v>7004</v>
       </c>
       <c r="E81" t="n">
         <v>554</v>
@@ -3864,13 +3864,13 @@
         <v>29</v>
       </c>
       <c r="K81" t="n">
-        <v>29161</v>
+        <v>29156</v>
       </c>
       <c r="L81" t="n">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="M81" t="n">
-        <v>224773</v>
+        <v>224716</v>
       </c>
     </row>
     <row r="82">
@@ -3880,22 +3880,22 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6665</v>
+        <v>6664</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>6665</v>
+        <v>6664</v>
       </c>
       <c r="E82" t="n">
         <v>646</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H82" t="n">
         <v>29</v>
@@ -3907,13 +3907,13 @@
         <v>29</v>
       </c>
       <c r="K82" t="n">
-        <v>29807</v>
+        <v>29802</v>
       </c>
       <c r="L82" t="n">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="M82" t="n">
-        <v>231438</v>
+        <v>231380</v>
       </c>
     </row>
     <row r="83">
@@ -3923,22 +3923,22 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7566</v>
+        <v>7563</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>7565</v>
+        <v>7563</v>
       </c>
       <c r="E83" t="n">
         <v>461</v>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H83" t="n">
         <v>36</v>
@@ -3950,13 +3950,13 @@
         <v>36</v>
       </c>
       <c r="K83" t="n">
-        <v>30268</v>
+        <v>30263</v>
       </c>
       <c r="L83" t="n">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="M83" t="n">
-        <v>239004</v>
+        <v>238943</v>
       </c>
     </row>
     <row r="84">
@@ -3966,13 +3966,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>8281</v>
+        <v>8280</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>8281</v>
+        <v>8280</v>
       </c>
       <c r="E84" t="n">
         <v>490</v>
@@ -3993,13 +3993,13 @@
         <v>17</v>
       </c>
       <c r="K84" t="n">
-        <v>30758</v>
+        <v>30753</v>
       </c>
       <c r="L84" t="n">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="M84" t="n">
-        <v>247285</v>
+        <v>247223</v>
       </c>
     </row>
     <row r="85">
@@ -4036,13 +4036,13 @@
         <v>24</v>
       </c>
       <c r="K85" t="n">
-        <v>31231</v>
+        <v>31226</v>
       </c>
       <c r="L85" t="n">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="M85" t="n">
-        <v>250100</v>
+        <v>250038</v>
       </c>
     </row>
     <row r="86">
@@ -4052,10 +4052,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
         <v>1843</v>
@@ -4079,13 +4079,13 @@
         <v>15</v>
       </c>
       <c r="K86" t="n">
-        <v>31572</v>
+        <v>31567</v>
       </c>
       <c r="L86" t="n">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="M86" t="n">
-        <v>251943</v>
+        <v>251882</v>
       </c>
     </row>
     <row r="87">
@@ -4107,10 +4107,10 @@
         <v>359</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H87" t="n">
         <v>21</v>
@@ -4122,13 +4122,13 @@
         <v>21</v>
       </c>
       <c r="K87" t="n">
-        <v>31931</v>
+        <v>31926</v>
       </c>
       <c r="L87" t="n">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="M87" t="n">
-        <v>253688</v>
+        <v>253627</v>
       </c>
     </row>
     <row r="88">
@@ -4138,10 +4138,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>7846</v>
+        <v>7847</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
         <v>7846</v>
@@ -4165,13 +4165,13 @@
         <v>19</v>
       </c>
       <c r="K88" t="n">
-        <v>32279</v>
+        <v>32274</v>
       </c>
       <c r="L88" t="n">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="M88" t="n">
-        <v>261534</v>
+        <v>261474</v>
       </c>
     </row>
     <row r="89">
@@ -4181,22 +4181,22 @@
         </is>
       </c>
       <c r="B89" t="n">
+        <v>6308</v>
+      </c>
+      <c r="C89" t="n">
+        <v>11</v>
+      </c>
+      <c r="D89" t="n">
         <v>6297</v>
       </c>
-      <c r="C89" t="n">
-        <v>17</v>
-      </c>
-      <c r="D89" t="n">
-        <v>6280</v>
-      </c>
       <c r="E89" t="n">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H89" t="n">
         <v>14</v>
@@ -4208,13 +4208,13 @@
         <v>14</v>
       </c>
       <c r="K89" t="n">
-        <v>32878</v>
+        <v>32871</v>
       </c>
       <c r="L89" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="M89" t="n">
-        <v>267831</v>
+        <v>267782</v>
       </c>
     </row>
     <row r="90">
@@ -4224,10 +4224,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>7057</v>
+        <v>7056</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
         <v>7056</v>
@@ -4251,13 +4251,13 @@
         <v>17</v>
       </c>
       <c r="K90" t="n">
-        <v>33356</v>
+        <v>33349</v>
       </c>
       <c r="L90" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="M90" t="n">
-        <v>274888</v>
+        <v>274838</v>
       </c>
     </row>
     <row r="91">
@@ -4267,22 +4267,22 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>7768</v>
+        <v>7767</v>
       </c>
       <c r="C91" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>7750</v>
+        <v>7767</v>
       </c>
       <c r="E91" t="n">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H91" t="n">
         <v>19</v>
@@ -4294,13 +4294,13 @@
         <v>19</v>
       </c>
       <c r="K91" t="n">
-        <v>33931</v>
+        <v>33922</v>
       </c>
       <c r="L91" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M91" t="n">
-        <v>282656</v>
+        <v>282605</v>
       </c>
     </row>
     <row r="92">
@@ -4313,10 +4313,10 @@
         <v>2827</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>2826</v>
+        <v>2827</v>
       </c>
       <c r="E92" t="n">
         <v>350</v>
@@ -4337,13 +4337,13 @@
         <v>21</v>
       </c>
       <c r="K92" t="n">
-        <v>34281</v>
+        <v>34272</v>
       </c>
       <c r="L92" t="n">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="M92" t="n">
-        <v>285483</v>
+        <v>285432</v>
       </c>
     </row>
     <row r="93">
@@ -4374,19 +4374,19 @@
         <v>16</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K93" t="n">
-        <v>34564</v>
+        <v>34555</v>
       </c>
       <c r="L93" t="n">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="M93" t="n">
-        <v>287282</v>
+        <v>287231</v>
       </c>
     </row>
     <row r="94">
@@ -4396,22 +4396,22 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>8048</v>
+        <v>8045</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>8047</v>
+        <v>8045</v>
       </c>
       <c r="E94" t="n">
         <v>414</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H94" t="n">
         <v>19</v>
@@ -4423,13 +4423,13 @@
         <v>19</v>
       </c>
       <c r="K94" t="n">
-        <v>34978</v>
+        <v>34969</v>
       </c>
       <c r="L94" t="n">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="M94" t="n">
-        <v>295330</v>
+        <v>295276</v>
       </c>
     </row>
     <row r="95">
@@ -4439,10 +4439,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>5640</v>
+        <v>5639</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
         <v>5639</v>
@@ -4466,13 +4466,13 @@
         <v>15</v>
       </c>
       <c r="K95" t="n">
-        <v>35456</v>
+        <v>35447</v>
       </c>
       <c r="L95" t="n">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="M95" t="n">
-        <v>300970</v>
+        <v>300915</v>
       </c>
     </row>
     <row r="96">
@@ -4482,22 +4482,22 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>6681</v>
+        <v>6680</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>6680</v>
+        <v>6679</v>
       </c>
       <c r="E96" t="n">
         <v>428</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H96" t="n">
         <v>23</v>
@@ -4509,13 +4509,13 @@
         <v>23</v>
       </c>
       <c r="K96" t="n">
-        <v>35884</v>
+        <v>35875</v>
       </c>
       <c r="L96" t="n">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="M96" t="n">
-        <v>307651</v>
+        <v>307595</v>
       </c>
     </row>
     <row r="97">
@@ -4525,10 +4525,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6863</v>
+        <v>6862</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
         <v>6862</v>
@@ -4552,13 +4552,13 @@
         <v>22</v>
       </c>
       <c r="K97" t="n">
-        <v>36385</v>
+        <v>36376</v>
       </c>
       <c r="L97" t="n">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="M97" t="n">
-        <v>314514</v>
+        <v>314457</v>
       </c>
     </row>
     <row r="98">
@@ -4571,19 +4571,19 @@
         <v>7901</v>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>7896</v>
+        <v>7901</v>
       </c>
       <c r="E98" t="n">
         <v>420</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H98" t="n">
         <v>21</v>
@@ -4595,13 +4595,13 @@
         <v>21</v>
       </c>
       <c r="K98" t="n">
-        <v>36805</v>
+        <v>36796</v>
       </c>
       <c r="L98" t="n">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="M98" t="n">
-        <v>322415</v>
+        <v>322358</v>
       </c>
     </row>
     <row r="99">
@@ -4638,13 +4638,13 @@
         <v>8</v>
       </c>
       <c r="K99" t="n">
-        <v>37209</v>
+        <v>37200</v>
       </c>
       <c r="L99" t="n">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="M99" t="n">
-        <v>326031</v>
+        <v>325974</v>
       </c>
     </row>
     <row r="100">
@@ -4657,10 +4657,10 @@
         <v>1912</v>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>1909</v>
+        <v>1912</v>
       </c>
       <c r="E100" t="n">
         <v>233</v>
@@ -4681,13 +4681,13 @@
         <v>15</v>
       </c>
       <c r="K100" t="n">
-        <v>37442</v>
+        <v>37433</v>
       </c>
       <c r="L100" t="n">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="M100" t="n">
-        <v>327943</v>
+        <v>327886</v>
       </c>
     </row>
     <row r="101">
@@ -4697,13 +4697,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>9608</v>
+        <v>9607</v>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>9605</v>
+        <v>9607</v>
       </c>
       <c r="E101" t="n">
         <v>387</v>
@@ -4724,13 +4724,13 @@
         <v>15</v>
       </c>
       <c r="K101" t="n">
-        <v>37829</v>
+        <v>37820</v>
       </c>
       <c r="L101" t="n">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="M101" t="n">
-        <v>337551</v>
+        <v>337493</v>
       </c>
     </row>
     <row r="102">
@@ -4743,10 +4743,10 @@
         <v>6428</v>
       </c>
       <c r="C102" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D102" t="n">
-        <v>6423</v>
+        <v>6426</v>
       </c>
       <c r="E102" t="n">
         <v>306</v>
@@ -4767,13 +4767,13 @@
         <v>22</v>
       </c>
       <c r="K102" t="n">
-        <v>38135</v>
+        <v>38126</v>
       </c>
       <c r="L102" t="n">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="M102" t="n">
-        <v>343979</v>
+        <v>343921</v>
       </c>
     </row>
     <row r="103">
@@ -4783,13 +4783,13 @@
         </is>
       </c>
       <c r="B103" t="n">
+        <v>7917</v>
+      </c>
+      <c r="C103" t="n">
+        <v>5</v>
+      </c>
+      <c r="D103" t="n">
         <v>7912</v>
-      </c>
-      <c r="C103" t="n">
-        <v>11</v>
-      </c>
-      <c r="D103" t="n">
-        <v>7901</v>
       </c>
       <c r="E103" t="n">
         <v>404</v>
@@ -4810,13 +4810,13 @@
         <v>17</v>
       </c>
       <c r="K103" t="n">
-        <v>38539</v>
+        <v>38530</v>
       </c>
       <c r="L103" t="n">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="M103" t="n">
-        <v>351891</v>
+        <v>351838</v>
       </c>
     </row>
     <row r="104">
@@ -4826,13 +4826,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>9726</v>
+        <v>9736</v>
       </c>
       <c r="C104" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D104" t="n">
-        <v>9686</v>
+        <v>9727</v>
       </c>
       <c r="E104" t="n">
         <v>417</v>
@@ -4847,19 +4847,19 @@
         <v>14</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K104" t="n">
-        <v>38956</v>
+        <v>38947</v>
       </c>
       <c r="L104" t="n">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="M104" t="n">
-        <v>361617</v>
+        <v>361574</v>
       </c>
     </row>
     <row r="105">
@@ -4869,40 +4869,40 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>9939</v>
+        <v>9948</v>
       </c>
       <c r="C105" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D105" t="n">
-        <v>9898</v>
+        <v>9937</v>
       </c>
       <c r="E105" t="n">
         <v>405</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H105" t="n">
         <v>14</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K105" t="n">
-        <v>39361</v>
+        <v>39352</v>
       </c>
       <c r="L105" t="n">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="M105" t="n">
-        <v>371556</v>
+        <v>371522</v>
       </c>
     </row>
     <row r="106">
@@ -4912,13 +4912,13 @@
         </is>
       </c>
       <c r="B106" t="n">
+        <v>4842</v>
+      </c>
+      <c r="C106" t="n">
+        <v>11</v>
+      </c>
+      <c r="D106" t="n">
         <v>4831</v>
-      </c>
-      <c r="C106" t="n">
-        <v>35</v>
-      </c>
-      <c r="D106" t="n">
-        <v>4796</v>
       </c>
       <c r="E106" t="n">
         <v>393</v>
@@ -4939,13 +4939,13 @@
         <v>7</v>
       </c>
       <c r="K106" t="n">
-        <v>39754</v>
+        <v>39745</v>
       </c>
       <c r="L106" t="n">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="M106" t="n">
-        <v>376387</v>
+        <v>376364</v>
       </c>
     </row>
     <row r="107">
@@ -4955,40 +4955,40 @@
         </is>
       </c>
       <c r="B107" t="n">
+        <v>1846</v>
+      </c>
+      <c r="C107" t="n">
+        <v>6</v>
+      </c>
+      <c r="D107" t="n">
         <v>1840</v>
       </c>
-      <c r="C107" t="n">
-        <v>55</v>
-      </c>
-      <c r="D107" t="n">
-        <v>1785</v>
-      </c>
       <c r="E107" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H107" t="n">
         <v>18</v>
       </c>
       <c r="I107" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K107" t="n">
-        <v>40084</v>
+        <v>40074</v>
       </c>
       <c r="L107" t="n">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="M107" t="n">
-        <v>378227</v>
+        <v>378210</v>
       </c>
     </row>
     <row r="108">
@@ -4998,40 +4998,40 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>10991</v>
+        <v>11164</v>
       </c>
       <c r="C108" t="n">
-        <v>1242</v>
+        <v>180</v>
       </c>
       <c r="D108" t="n">
-        <v>9749</v>
+        <v>10984</v>
       </c>
       <c r="E108" t="n">
         <v>416</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H108" t="n">
         <v>13</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K108" t="n">
-        <v>40500</v>
+        <v>40490</v>
       </c>
       <c r="L108" t="n">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="M108" t="n">
-        <v>389218</v>
+        <v>389374</v>
       </c>
     </row>
     <row r="109">
@@ -5041,22 +5041,22 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>7821</v>
+        <v>9145</v>
       </c>
       <c r="C109" t="n">
-        <v>3695</v>
+        <v>1335</v>
       </c>
       <c r="D109" t="n">
-        <v>4126</v>
+        <v>7810</v>
       </c>
       <c r="E109" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H109" t="n">
         <v>13</v>
@@ -5068,13 +5068,13 @@
         <v>13</v>
       </c>
       <c r="K109" t="n">
-        <v>40741</v>
+        <v>40729</v>
       </c>
       <c r="L109" t="n">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="M109" t="n">
-        <v>397039</v>
+        <v>398519</v>
       </c>
     </row>
     <row r="110">
@@ -5084,40 +5084,40 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>3947</v>
+        <v>8078</v>
       </c>
       <c r="C110" t="n">
-        <v>3228</v>
+        <v>4179</v>
       </c>
       <c r="D110" t="n">
-        <v>719</v>
+        <v>3899</v>
       </c>
       <c r="E110" t="n">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
         <v>554</v>
       </c>
       <c r="H110" t="n">
+        <v>12</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3</v>
+      </c>
+      <c r="J110" t="n">
         <v>9</v>
       </c>
-      <c r="I110" t="n">
-        <v>2</v>
-      </c>
-      <c r="J110" t="n">
-        <v>7</v>
-      </c>
       <c r="K110" t="n">
-        <v>41298</v>
+        <v>41283</v>
       </c>
       <c r="L110" t="n">
-        <v>2326</v>
+        <v>2328</v>
       </c>
       <c r="M110" t="n">
-        <v>400986</v>
+        <v>406597</v>
       </c>
     </row>
     <row r="111">
@@ -5127,40 +5127,40 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>731</v>
+        <v>4533</v>
       </c>
       <c r="C111" t="n">
-        <v>659</v>
+        <v>3814</v>
       </c>
       <c r="D111" t="n">
-        <v>72</v>
+        <v>719</v>
       </c>
       <c r="E111" t="n">
         <v>370</v>
       </c>
       <c r="F111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H111" t="n">
         <v>18</v>
       </c>
       <c r="I111" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K111" t="n">
-        <v>41668</v>
+        <v>41653</v>
       </c>
       <c r="L111" t="n">
-        <v>2344</v>
+        <v>2346</v>
       </c>
       <c r="M111" t="n">
-        <v>401717</v>
+        <v>411130</v>
       </c>
     </row>
     <row r="112">
@@ -5170,40 +5170,83 @@
         </is>
       </c>
       <c r="B112" t="n">
+        <v>736</v>
+      </c>
+      <c r="C112" t="n">
+        <v>651</v>
+      </c>
+      <c r="D112" t="n">
         <v>85</v>
       </c>
-      <c r="C112" t="n">
-        <v>85</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0</v>
-      </c>
       <c r="E112" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F112" t="n">
-        <v>393</v>
+        <v>2</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="H112" t="n">
+        <v>3</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
         <v>2</v>
       </c>
-      <c r="I112" t="n">
-        <v>2</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
       <c r="K112" t="n">
-        <v>42061</v>
+        <v>42045</v>
       </c>
       <c r="L112" t="n">
-        <v>2346</v>
+        <v>2349</v>
       </c>
       <c r="M112" t="n">
-        <v>401802</v>
+        <v>411866</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2020-06-20</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>54</v>
+      </c>
+      <c r="C113" t="n">
+        <v>54</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>378</v>
+      </c>
+      <c r="F113" t="n">
+        <v>378</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>42423</v>
+      </c>
+      <c r="L113" t="n">
+        <v>2350</v>
+      </c>
+      <c r="M113" t="n">
+        <v>411920</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1656,10 +1656,10 @@
         <v>271</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H30" t="n">
         <v>18</v>
@@ -1945,13 +1945,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E37" t="n">
         <v>527</v>
@@ -1978,7 +1978,7 @@
         <v>248</v>
       </c>
       <c r="M37" t="n">
-        <v>35942</v>
+        <v>35941</v>
       </c>
     </row>
     <row r="38">
@@ -1988,13 +1988,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="E38" t="n">
         <v>556</v>
@@ -2031,13 +2031,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2783</v>
+        <v>2781</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>2783</v>
+        <v>2781</v>
       </c>
       <c r="E39" t="n">
         <v>422</v>
@@ -2064,7 +2064,7 @@
         <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>41148</v>
+        <v>41146</v>
       </c>
     </row>
     <row r="40">
@@ -2107,7 +2107,7 @@
         <v>338</v>
       </c>
       <c r="M40" t="n">
-        <v>44219</v>
+        <v>44217</v>
       </c>
     </row>
     <row r="41">
@@ -2120,10 +2120,10 @@
         <v>2747</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="E41" t="n">
         <v>558</v>
@@ -2150,7 +2150,7 @@
         <v>375</v>
       </c>
       <c r="M41" t="n">
-        <v>46966</v>
+        <v>46964</v>
       </c>
     </row>
     <row r="42">
@@ -2169,13 +2169,13 @@
         <v>2727</v>
       </c>
       <c r="E42" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H42" t="n">
         <v>25</v>
@@ -2187,13 +2187,13 @@
         <v>25</v>
       </c>
       <c r="K42" t="n">
-        <v>7396</v>
+        <v>7395</v>
       </c>
       <c r="L42" t="n">
         <v>400</v>
       </c>
       <c r="M42" t="n">
-        <v>49693</v>
+        <v>49691</v>
       </c>
     </row>
     <row r="43">
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="E43" t="n">
         <v>486</v>
@@ -2230,13 +2230,13 @@
         <v>20</v>
       </c>
       <c r="K43" t="n">
-        <v>7882</v>
+        <v>7881</v>
       </c>
       <c r="L43" t="n">
         <v>420</v>
       </c>
       <c r="M43" t="n">
-        <v>51236</v>
+        <v>51233</v>
       </c>
     </row>
     <row r="44">
@@ -2273,13 +2273,13 @@
         <v>29</v>
       </c>
       <c r="K44" t="n">
-        <v>8201</v>
+        <v>8200</v>
       </c>
       <c r="L44" t="n">
         <v>449</v>
       </c>
       <c r="M44" t="n">
-        <v>51935</v>
+        <v>51932</v>
       </c>
     </row>
     <row r="45">
@@ -2292,10 +2292,10 @@
         <v>3472</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>3470</v>
+        <v>3472</v>
       </c>
       <c r="E45" t="n">
         <v>292</v>
@@ -2316,13 +2316,13 @@
         <v>35</v>
       </c>
       <c r="K45" t="n">
-        <v>8493</v>
+        <v>8492</v>
       </c>
       <c r="L45" t="n">
         <v>484</v>
       </c>
       <c r="M45" t="n">
-        <v>55407</v>
+        <v>55404</v>
       </c>
     </row>
     <row r="46">
@@ -2335,10 +2335,10 @@
         <v>3627</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="E46" t="n">
         <v>417</v>
@@ -2359,13 +2359,13 @@
         <v>46</v>
       </c>
       <c r="K46" t="n">
-        <v>8910</v>
+        <v>8909</v>
       </c>
       <c r="L46" t="n">
         <v>530</v>
       </c>
       <c r="M46" t="n">
-        <v>59034</v>
+        <v>59031</v>
       </c>
     </row>
     <row r="47">
@@ -2402,13 +2402,13 @@
         <v>38</v>
       </c>
       <c r="K47" t="n">
-        <v>9487</v>
+        <v>9486</v>
       </c>
       <c r="L47" t="n">
         <v>568</v>
       </c>
       <c r="M47" t="n">
-        <v>62335</v>
+        <v>62332</v>
       </c>
     </row>
     <row r="48">
@@ -2427,13 +2427,13 @@
         <v>4002</v>
       </c>
       <c r="E48" t="n">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H48" t="n">
         <v>34</v>
@@ -2445,13 +2445,13 @@
         <v>34</v>
       </c>
       <c r="K48" t="n">
-        <v>10087</v>
+        <v>10085</v>
       </c>
       <c r="L48" t="n">
         <v>602</v>
       </c>
       <c r="M48" t="n">
-        <v>66337</v>
+        <v>66334</v>
       </c>
     </row>
     <row r="49">
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4180</v>
+        <v>4178</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>4180</v>
+        <v>4178</v>
       </c>
       <c r="E49" t="n">
         <v>505</v>
@@ -2488,13 +2488,13 @@
         <v>36</v>
       </c>
       <c r="K49" t="n">
-        <v>10592</v>
+        <v>10590</v>
       </c>
       <c r="L49" t="n">
         <v>638</v>
       </c>
       <c r="M49" t="n">
-        <v>70517</v>
+        <v>70512</v>
       </c>
     </row>
     <row r="50">
@@ -2516,10 +2516,10 @@
         <v>557</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H50" t="n">
         <v>28</v>
@@ -2531,13 +2531,13 @@
         <v>28</v>
       </c>
       <c r="K50" t="n">
-        <v>11149</v>
+        <v>11147</v>
       </c>
       <c r="L50" t="n">
         <v>666</v>
       </c>
       <c r="M50" t="n">
-        <v>72277</v>
+        <v>72272</v>
       </c>
     </row>
     <row r="51">
@@ -2550,10 +2550,10 @@
         <v>1105</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E51" t="n">
         <v>479</v>
@@ -2574,13 +2574,13 @@
         <v>36</v>
       </c>
       <c r="K51" t="n">
-        <v>11628</v>
+        <v>11626</v>
       </c>
       <c r="L51" t="n">
         <v>702</v>
       </c>
       <c r="M51" t="n">
-        <v>73382</v>
+        <v>73377</v>
       </c>
     </row>
     <row r="52">
@@ -2602,10 +2602,10 @@
         <v>382</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H52" t="n">
         <v>38</v>
@@ -2617,13 +2617,13 @@
         <v>38</v>
       </c>
       <c r="K52" t="n">
-        <v>12010</v>
+        <v>12008</v>
       </c>
       <c r="L52" t="n">
         <v>740</v>
       </c>
       <c r="M52" t="n">
-        <v>77729</v>
+        <v>77724</v>
       </c>
     </row>
     <row r="53">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3850</v>
+        <v>3849</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>3850</v>
+        <v>3849</v>
       </c>
       <c r="E53" t="n">
         <v>378</v>
@@ -2660,13 +2660,13 @@
         <v>49</v>
       </c>
       <c r="K53" t="n">
-        <v>12388</v>
+        <v>12386</v>
       </c>
       <c r="L53" t="n">
         <v>789</v>
       </c>
       <c r="M53" t="n">
-        <v>81579</v>
+        <v>81573</v>
       </c>
     </row>
     <row r="54">
@@ -2679,10 +2679,10 @@
         <v>3879</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>3878</v>
+        <v>3879</v>
       </c>
       <c r="E54" t="n">
         <v>604</v>
@@ -2703,13 +2703,13 @@
         <v>50</v>
       </c>
       <c r="K54" t="n">
-        <v>12992</v>
+        <v>12990</v>
       </c>
       <c r="L54" t="n">
         <v>839</v>
       </c>
       <c r="M54" t="n">
-        <v>85458</v>
+        <v>85452</v>
       </c>
     </row>
     <row r="55">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4374</v>
+        <v>4372</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>4374</v>
+        <v>4371</v>
       </c>
       <c r="E55" t="n">
         <v>644</v>
@@ -2746,13 +2746,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="n">
-        <v>13636</v>
+        <v>13634</v>
       </c>
       <c r="L55" t="n">
         <v>877</v>
       </c>
       <c r="M55" t="n">
-        <v>89832</v>
+        <v>89824</v>
       </c>
     </row>
     <row r="56">
@@ -2762,13 +2762,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3560</v>
+        <v>3558</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>3560</v>
+        <v>3558</v>
       </c>
       <c r="E56" t="n">
         <v>698</v>
@@ -2789,13 +2789,13 @@
         <v>37</v>
       </c>
       <c r="K56" t="n">
-        <v>14334</v>
+        <v>14332</v>
       </c>
       <c r="L56" t="n">
         <v>914</v>
       </c>
       <c r="M56" t="n">
-        <v>93392</v>
+        <v>93382</v>
       </c>
     </row>
     <row r="57">
@@ -2805,13 +2805,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="E57" t="n">
         <v>624</v>
@@ -2832,13 +2832,13 @@
         <v>41</v>
       </c>
       <c r="K57" t="n">
-        <v>14958</v>
+        <v>14956</v>
       </c>
       <c r="L57" t="n">
         <v>955</v>
       </c>
       <c r="M57" t="n">
-        <v>95682</v>
+        <v>95670</v>
       </c>
     </row>
     <row r="58">
@@ -2857,13 +2857,13 @@
         <v>1807</v>
       </c>
       <c r="E58" t="n">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="H58" t="n">
         <v>34</v>
@@ -2875,13 +2875,13 @@
         <v>34</v>
       </c>
       <c r="K58" t="n">
-        <v>15907</v>
+        <v>15902</v>
       </c>
       <c r="L58" t="n">
         <v>989</v>
       </c>
       <c r="M58" t="n">
-        <v>97489</v>
+        <v>97477</v>
       </c>
     </row>
     <row r="59">
@@ -2891,13 +2891,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4738</v>
+        <v>4736</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>4738</v>
+        <v>4736</v>
       </c>
       <c r="E59" t="n">
         <v>617</v>
@@ -2918,13 +2918,13 @@
         <v>42</v>
       </c>
       <c r="K59" t="n">
-        <v>16524</v>
+        <v>16519</v>
       </c>
       <c r="L59" t="n">
         <v>1031</v>
       </c>
       <c r="M59" t="n">
-        <v>102227</v>
+        <v>102213</v>
       </c>
     </row>
     <row r="60">
@@ -2934,13 +2934,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>5016</v>
+        <v>5010</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>5016</v>
+        <v>5010</v>
       </c>
       <c r="E60" t="n">
         <v>594</v>
@@ -2961,13 +2961,13 @@
         <v>34</v>
       </c>
       <c r="K60" t="n">
-        <v>17118</v>
+        <v>17113</v>
       </c>
       <c r="L60" t="n">
         <v>1065</v>
       </c>
       <c r="M60" t="n">
-        <v>107243</v>
+        <v>107223</v>
       </c>
     </row>
     <row r="61">
@@ -2980,19 +2980,19 @@
         <v>5367</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>5366</v>
+        <v>5365</v>
       </c>
       <c r="E61" t="n">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H61" t="n">
         <v>43</v>
@@ -3004,13 +3004,13 @@
         <v>43</v>
       </c>
       <c r="K61" t="n">
-        <v>17766</v>
+        <v>17760</v>
       </c>
       <c r="L61" t="n">
         <v>1108</v>
       </c>
       <c r="M61" t="n">
-        <v>112610</v>
+        <v>112590</v>
       </c>
     </row>
     <row r="62">
@@ -3020,22 +3020,22 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5793</v>
+        <v>5790</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>5793</v>
+        <v>5790</v>
       </c>
       <c r="E62" t="n">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H62" t="n">
         <v>45</v>
@@ -3047,13 +3047,13 @@
         <v>45</v>
       </c>
       <c r="K62" t="n">
-        <v>18556</v>
+        <v>18549</v>
       </c>
       <c r="L62" t="n">
         <v>1153</v>
       </c>
       <c r="M62" t="n">
-        <v>118403</v>
+        <v>118380</v>
       </c>
     </row>
     <row r="63">
@@ -3066,10 +3066,10 @@
         <v>6693</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>6693</v>
+        <v>6692</v>
       </c>
       <c r="E63" t="n">
         <v>651</v>
@@ -3090,13 +3090,13 @@
         <v>35</v>
       </c>
       <c r="K63" t="n">
-        <v>19207</v>
+        <v>19200</v>
       </c>
       <c r="L63" t="n">
         <v>1188</v>
       </c>
       <c r="M63" t="n">
-        <v>125096</v>
+        <v>125073</v>
       </c>
     </row>
     <row r="64">
@@ -3106,13 +3106,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3275</v>
+        <v>3273</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>3275</v>
+        <v>3273</v>
       </c>
       <c r="E64" t="n">
         <v>634</v>
@@ -3133,13 +3133,13 @@
         <v>44</v>
       </c>
       <c r="K64" t="n">
-        <v>19841</v>
+        <v>19834</v>
       </c>
       <c r="L64" t="n">
         <v>1232</v>
       </c>
       <c r="M64" t="n">
-        <v>128371</v>
+        <v>128346</v>
       </c>
     </row>
     <row r="65">
@@ -3158,13 +3158,13 @@
         <v>1817</v>
       </c>
       <c r="E65" t="n">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H65" t="n">
         <v>32</v>
@@ -3176,13 +3176,13 @@
         <v>32</v>
       </c>
       <c r="K65" t="n">
-        <v>20410</v>
+        <v>20402</v>
       </c>
       <c r="L65" t="n">
         <v>1264</v>
       </c>
       <c r="M65" t="n">
-        <v>130188</v>
+        <v>130163</v>
       </c>
     </row>
     <row r="66">
@@ -3192,13 +3192,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5608</v>
+        <v>5606</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>5608</v>
+        <v>5606</v>
       </c>
       <c r="E66" t="n">
         <v>525</v>
@@ -3219,13 +3219,13 @@
         <v>38</v>
       </c>
       <c r="K66" t="n">
-        <v>20935</v>
+        <v>20927</v>
       </c>
       <c r="L66" t="n">
         <v>1302</v>
       </c>
       <c r="M66" t="n">
-        <v>135796</v>
+        <v>135769</v>
       </c>
     </row>
     <row r="67">
@@ -3235,22 +3235,22 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6383</v>
+        <v>6380</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>6383</v>
+        <v>6380</v>
       </c>
       <c r="E67" t="n">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H67" t="n">
         <v>37</v>
@@ -3262,13 +3262,13 @@
         <v>37</v>
       </c>
       <c r="K67" t="n">
-        <v>21768</v>
+        <v>21759</v>
       </c>
       <c r="L67" t="n">
         <v>1339</v>
       </c>
       <c r="M67" t="n">
-        <v>142179</v>
+        <v>142149</v>
       </c>
     </row>
     <row r="68">
@@ -3278,22 +3278,22 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5761</v>
+        <v>5758</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>5761</v>
+        <v>5757</v>
       </c>
       <c r="E68" t="n">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H68" t="n">
         <v>43</v>
@@ -3305,13 +3305,13 @@
         <v>43</v>
       </c>
       <c r="K68" t="n">
-        <v>22390</v>
+        <v>22380</v>
       </c>
       <c r="L68" t="n">
         <v>1382</v>
       </c>
       <c r="M68" t="n">
-        <v>147940</v>
+        <v>147907</v>
       </c>
     </row>
     <row r="69">
@@ -3321,13 +3321,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6433</v>
+        <v>6426</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>6433</v>
+        <v>6425</v>
       </c>
       <c r="E69" t="n">
         <v>635</v>
@@ -3348,13 +3348,13 @@
         <v>34</v>
       </c>
       <c r="K69" t="n">
-        <v>23025</v>
+        <v>23015</v>
       </c>
       <c r="L69" t="n">
         <v>1416</v>
       </c>
       <c r="M69" t="n">
-        <v>154373</v>
+        <v>154333</v>
       </c>
     </row>
     <row r="70">
@@ -3364,22 +3364,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6545</v>
+        <v>6544</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>6544</v>
+        <v>6543</v>
       </c>
       <c r="E70" t="n">
         <v>589</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H70" t="n">
         <v>25</v>
@@ -3391,13 +3391,13 @@
         <v>25</v>
       </c>
       <c r="K70" t="n">
-        <v>23614</v>
+        <v>23604</v>
       </c>
       <c r="L70" t="n">
         <v>1441</v>
       </c>
       <c r="M70" t="n">
-        <v>160918</v>
+        <v>160877</v>
       </c>
     </row>
     <row r="71">
@@ -3416,10 +3416,10 @@
         <v>3290</v>
       </c>
       <c r="E71" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>387</v>
@@ -3434,13 +3434,13 @@
         <v>32</v>
       </c>
       <c r="K71" t="n">
-        <v>24002</v>
+        <v>23991</v>
       </c>
       <c r="L71" t="n">
         <v>1473</v>
       </c>
       <c r="M71" t="n">
-        <v>164208</v>
+        <v>164167</v>
       </c>
     </row>
     <row r="72">
@@ -3450,13 +3450,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E72" t="n">
         <v>462</v>
@@ -3477,13 +3477,13 @@
         <v>34</v>
       </c>
       <c r="K72" t="n">
-        <v>24464</v>
+        <v>24453</v>
       </c>
       <c r="L72" t="n">
         <v>1507</v>
       </c>
       <c r="M72" t="n">
-        <v>165510</v>
+        <v>165468</v>
       </c>
     </row>
     <row r="73">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>7038</v>
+        <v>7033</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>7038</v>
+        <v>7032</v>
       </c>
       <c r="E73" t="n">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H73" t="n">
         <v>41</v>
@@ -3520,13 +3520,13 @@
         <v>41</v>
       </c>
       <c r="K73" t="n">
-        <v>24977</v>
+        <v>24965</v>
       </c>
       <c r="L73" t="n">
         <v>1548</v>
       </c>
       <c r="M73" t="n">
-        <v>172548</v>
+        <v>172501</v>
       </c>
     </row>
     <row r="74">
@@ -3536,22 +3536,22 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6905</v>
+        <v>6898</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>6905</v>
+        <v>6898</v>
       </c>
       <c r="E74" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H74" t="n">
         <v>38</v>
@@ -3563,13 +3563,13 @@
         <v>38</v>
       </c>
       <c r="K74" t="n">
-        <v>25351</v>
+        <v>25338</v>
       </c>
       <c r="L74" t="n">
         <v>1586</v>
       </c>
       <c r="M74" t="n">
-        <v>179453</v>
+        <v>179399</v>
       </c>
     </row>
     <row r="75">
@@ -3579,22 +3579,22 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>7185</v>
+        <v>7179</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>7185</v>
+        <v>7178</v>
       </c>
       <c r="E75" t="n">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H75" t="n">
         <v>27</v>
@@ -3606,13 +3606,13 @@
         <v>27</v>
       </c>
       <c r="K75" t="n">
-        <v>25953</v>
+        <v>25939</v>
       </c>
       <c r="L75" t="n">
         <v>1613</v>
       </c>
       <c r="M75" t="n">
-        <v>186638</v>
+        <v>186578</v>
       </c>
     </row>
     <row r="76">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>8120</v>
+        <v>8117</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>8120</v>
+        <v>8117</v>
       </c>
       <c r="E76" t="n">
         <v>585</v>
@@ -3649,13 +3649,13 @@
         <v>42</v>
       </c>
       <c r="K76" t="n">
-        <v>26538</v>
+        <v>26524</v>
       </c>
       <c r="L76" t="n">
         <v>1655</v>
       </c>
       <c r="M76" t="n">
-        <v>194758</v>
+        <v>194695</v>
       </c>
     </row>
     <row r="77">
@@ -3665,22 +3665,22 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9715</v>
+        <v>9709</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>9715</v>
+        <v>9709</v>
       </c>
       <c r="E77" t="n">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H77" t="n">
         <v>32</v>
@@ -3692,13 +3692,13 @@
         <v>32</v>
       </c>
       <c r="K77" t="n">
-        <v>27174</v>
+        <v>27158</v>
       </c>
       <c r="L77" t="n">
         <v>1687</v>
       </c>
       <c r="M77" t="n">
-        <v>204473</v>
+        <v>204404</v>
       </c>
     </row>
     <row r="78">
@@ -3708,22 +3708,22 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3117</v>
+        <v>3111</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>3117</v>
+        <v>3111</v>
       </c>
       <c r="E78" t="n">
         <v>494</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H78" t="n">
         <v>28</v>
@@ -3735,13 +3735,13 @@
         <v>28</v>
       </c>
       <c r="K78" t="n">
-        <v>27668</v>
+        <v>27652</v>
       </c>
       <c r="L78" t="n">
         <v>1715</v>
       </c>
       <c r="M78" t="n">
-        <v>207590</v>
+        <v>207515</v>
       </c>
     </row>
     <row r="79">
@@ -3751,13 +3751,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E79" t="n">
         <v>481</v>
@@ -3778,13 +3778,13 @@
         <v>29</v>
       </c>
       <c r="K79" t="n">
-        <v>28149</v>
+        <v>28133</v>
       </c>
       <c r="L79" t="n">
         <v>1744</v>
       </c>
       <c r="M79" t="n">
-        <v>209475</v>
+        <v>209399</v>
       </c>
     </row>
     <row r="80">
@@ -3794,22 +3794,22 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>8237</v>
+        <v>8231</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>8237</v>
+        <v>8231</v>
       </c>
       <c r="E80" t="n">
         <v>453</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H80" t="n">
         <v>39</v>
@@ -3821,13 +3821,13 @@
         <v>39</v>
       </c>
       <c r="K80" t="n">
-        <v>28602</v>
+        <v>28586</v>
       </c>
       <c r="L80" t="n">
         <v>1783</v>
       </c>
       <c r="M80" t="n">
-        <v>217712</v>
+        <v>217630</v>
       </c>
     </row>
     <row r="81">
@@ -3837,22 +3837,22 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>7004</v>
+        <v>6994</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>7004</v>
+        <v>6994</v>
       </c>
       <c r="E81" t="n">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H81" t="n">
         <v>29</v>
@@ -3864,13 +3864,13 @@
         <v>29</v>
       </c>
       <c r="K81" t="n">
-        <v>29156</v>
+        <v>29138</v>
       </c>
       <c r="L81" t="n">
         <v>1812</v>
       </c>
       <c r="M81" t="n">
-        <v>224716</v>
+        <v>224624</v>
       </c>
     </row>
     <row r="82">
@@ -3880,22 +3880,22 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6664</v>
+        <v>6656</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>6664</v>
+        <v>6656</v>
       </c>
       <c r="E82" t="n">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G82" t="n">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H82" t="n">
         <v>29</v>
@@ -3907,13 +3907,13 @@
         <v>29</v>
       </c>
       <c r="K82" t="n">
-        <v>29802</v>
+        <v>29783</v>
       </c>
       <c r="L82" t="n">
         <v>1841</v>
       </c>
       <c r="M82" t="n">
-        <v>231380</v>
+        <v>231280</v>
       </c>
     </row>
     <row r="83">
@@ -3923,22 +3923,22 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7563</v>
+        <v>7557</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>7563</v>
+        <v>7556</v>
       </c>
       <c r="E83" t="n">
         <v>461</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H83" t="n">
         <v>36</v>
@@ -3950,13 +3950,13 @@
         <v>36</v>
       </c>
       <c r="K83" t="n">
-        <v>30263</v>
+        <v>30244</v>
       </c>
       <c r="L83" t="n">
         <v>1877</v>
       </c>
       <c r="M83" t="n">
-        <v>238943</v>
+        <v>238837</v>
       </c>
     </row>
     <row r="84">
@@ -3966,22 +3966,22 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>8280</v>
+        <v>8272</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>8280</v>
+        <v>8272</v>
       </c>
       <c r="E84" t="n">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H84" t="n">
         <v>17</v>
@@ -3993,13 +3993,13 @@
         <v>17</v>
       </c>
       <c r="K84" t="n">
-        <v>30753</v>
+        <v>30733</v>
       </c>
       <c r="L84" t="n">
         <v>1894</v>
       </c>
       <c r="M84" t="n">
-        <v>247223</v>
+        <v>247109</v>
       </c>
     </row>
     <row r="85">
@@ -4009,13 +4009,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="E85" t="n">
         <v>473</v>
@@ -4036,13 +4036,13 @@
         <v>24</v>
       </c>
       <c r="K85" t="n">
-        <v>31226</v>
+        <v>31206</v>
       </c>
       <c r="L85" t="n">
         <v>1918</v>
       </c>
       <c r="M85" t="n">
-        <v>250038</v>
+        <v>249923</v>
       </c>
     </row>
     <row r="86">
@@ -4052,10 +4052,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
         <v>1843</v>
@@ -4079,13 +4079,13 @@
         <v>15</v>
       </c>
       <c r="K86" t="n">
-        <v>31567</v>
+        <v>31547</v>
       </c>
       <c r="L86" t="n">
         <v>1933</v>
       </c>
       <c r="M86" t="n">
-        <v>251882</v>
+        <v>251766</v>
       </c>
     </row>
     <row r="87">
@@ -4095,22 +4095,22 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="E87" t="n">
         <v>359</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H87" t="n">
         <v>21</v>
@@ -4122,13 +4122,13 @@
         <v>21</v>
       </c>
       <c r="K87" t="n">
-        <v>31926</v>
+        <v>31906</v>
       </c>
       <c r="L87" t="n">
         <v>1954</v>
       </c>
       <c r="M87" t="n">
-        <v>253627</v>
+        <v>253510</v>
       </c>
     </row>
     <row r="88">
@@ -4138,13 +4138,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>7847</v>
+        <v>7841</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>7846</v>
+        <v>7841</v>
       </c>
       <c r="E88" t="n">
         <v>348</v>
@@ -4165,13 +4165,13 @@
         <v>19</v>
       </c>
       <c r="K88" t="n">
-        <v>32274</v>
+        <v>32254</v>
       </c>
       <c r="L88" t="n">
         <v>1973</v>
       </c>
       <c r="M88" t="n">
-        <v>261474</v>
+        <v>261351</v>
       </c>
     </row>
     <row r="89">
@@ -4181,22 +4181,22 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>6308</v>
+        <v>6307</v>
       </c>
       <c r="C89" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>6297</v>
+        <v>6306</v>
       </c>
       <c r="E89" t="n">
         <v>597</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H89" t="n">
         <v>14</v>
@@ -4208,13 +4208,13 @@
         <v>14</v>
       </c>
       <c r="K89" t="n">
-        <v>32871</v>
+        <v>32851</v>
       </c>
       <c r="L89" t="n">
         <v>1987</v>
       </c>
       <c r="M89" t="n">
-        <v>267782</v>
+        <v>267658</v>
       </c>
     </row>
     <row r="90">
@@ -4224,40 +4224,40 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>7056</v>
+        <v>7049</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>7056</v>
+        <v>7049</v>
       </c>
       <c r="E90" t="n">
         <v>478</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H90" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
         <v>17</v>
       </c>
       <c r="K90" t="n">
-        <v>33349</v>
+        <v>33329</v>
       </c>
       <c r="L90" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="M90" t="n">
-        <v>274838</v>
+        <v>274707</v>
       </c>
     </row>
     <row r="91">
@@ -4267,40 +4267,40 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>7767</v>
+        <v>7762</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>7767</v>
+        <v>7762</v>
       </c>
       <c r="E91" t="n">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="H91" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
         <v>19</v>
       </c>
       <c r="K91" t="n">
-        <v>33922</v>
+        <v>33897</v>
       </c>
       <c r="L91" t="n">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="M91" t="n">
-        <v>282605</v>
+        <v>282469</v>
       </c>
     </row>
     <row r="92">
@@ -4310,22 +4310,22 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2827</v>
+        <v>2824</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>2827</v>
+        <v>2824</v>
       </c>
       <c r="E92" t="n">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H92" t="n">
         <v>21</v>
@@ -4337,13 +4337,13 @@
         <v>21</v>
       </c>
       <c r="K92" t="n">
-        <v>34272</v>
+        <v>34244</v>
       </c>
       <c r="L92" t="n">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="M92" t="n">
-        <v>285432</v>
+        <v>285293</v>
       </c>
     </row>
     <row r="93">
@@ -4380,13 +4380,13 @@
         <v>16</v>
       </c>
       <c r="K93" t="n">
-        <v>34555</v>
+        <v>34527</v>
       </c>
       <c r="L93" t="n">
-        <v>2060</v>
+        <v>2062</v>
       </c>
       <c r="M93" t="n">
-        <v>287231</v>
+        <v>287092</v>
       </c>
     </row>
     <row r="94">
@@ -4396,22 +4396,22 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>8045</v>
+        <v>8041</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>8045</v>
+        <v>8041</v>
       </c>
       <c r="E94" t="n">
         <v>414</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H94" t="n">
         <v>19</v>
@@ -4423,13 +4423,13 @@
         <v>19</v>
       </c>
       <c r="K94" t="n">
-        <v>34969</v>
+        <v>34941</v>
       </c>
       <c r="L94" t="n">
-        <v>2079</v>
+        <v>2081</v>
       </c>
       <c r="M94" t="n">
-        <v>295276</v>
+        <v>295133</v>
       </c>
     </row>
     <row r="95">
@@ -4439,13 +4439,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>5639</v>
+        <v>5637</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>5639</v>
+        <v>5637</v>
       </c>
       <c r="E95" t="n">
         <v>478</v>
@@ -4466,13 +4466,13 @@
         <v>15</v>
       </c>
       <c r="K95" t="n">
-        <v>35447</v>
+        <v>35419</v>
       </c>
       <c r="L95" t="n">
-        <v>2094</v>
+        <v>2096</v>
       </c>
       <c r="M95" t="n">
-        <v>300915</v>
+        <v>300770</v>
       </c>
     </row>
     <row r="96">
@@ -4482,19 +4482,19 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>6680</v>
+        <v>6677</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>6679</v>
+        <v>6677</v>
       </c>
       <c r="E96" t="n">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>427</v>
@@ -4509,13 +4509,13 @@
         <v>23</v>
       </c>
       <c r="K96" t="n">
-        <v>35875</v>
+        <v>35846</v>
       </c>
       <c r="L96" t="n">
-        <v>2117</v>
+        <v>2119</v>
       </c>
       <c r="M96" t="n">
-        <v>307595</v>
+        <v>307447</v>
       </c>
     </row>
     <row r="97">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6862</v>
+        <v>6858</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>6862</v>
+        <v>6858</v>
       </c>
       <c r="E97" t="n">
         <v>501</v>
@@ -4552,13 +4552,13 @@
         <v>22</v>
       </c>
       <c r="K97" t="n">
-        <v>36376</v>
+        <v>36347</v>
       </c>
       <c r="L97" t="n">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="M97" t="n">
-        <v>314457</v>
+        <v>314305</v>
       </c>
     </row>
     <row r="98">
@@ -4568,13 +4568,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>7901</v>
+        <v>7900</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>7901</v>
+        <v>7900</v>
       </c>
       <c r="E98" t="n">
         <v>420</v>
@@ -4595,13 +4595,13 @@
         <v>21</v>
       </c>
       <c r="K98" t="n">
-        <v>36796</v>
+        <v>36767</v>
       </c>
       <c r="L98" t="n">
-        <v>2160</v>
+        <v>2162</v>
       </c>
       <c r="M98" t="n">
-        <v>322358</v>
+        <v>322205</v>
       </c>
     </row>
     <row r="99">
@@ -4611,22 +4611,22 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3616</v>
+        <v>3615</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>3616</v>
+        <v>3615</v>
       </c>
       <c r="E99" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H99" t="n">
         <v>8</v>
@@ -4638,13 +4638,13 @@
         <v>8</v>
       </c>
       <c r="K99" t="n">
-        <v>37200</v>
+        <v>37170</v>
       </c>
       <c r="L99" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
       <c r="M99" t="n">
-        <v>325974</v>
+        <v>325820</v>
       </c>
     </row>
     <row r="100">
@@ -4681,13 +4681,13 @@
         <v>15</v>
       </c>
       <c r="K100" t="n">
-        <v>37433</v>
+        <v>37403</v>
       </c>
       <c r="L100" t="n">
-        <v>2183</v>
+        <v>2185</v>
       </c>
       <c r="M100" t="n">
-        <v>327886</v>
+        <v>327732</v>
       </c>
     </row>
     <row r="101">
@@ -4697,13 +4697,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>9607</v>
+        <v>9605</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>9607</v>
+        <v>9605</v>
       </c>
       <c r="E101" t="n">
         <v>387</v>
@@ -4715,22 +4715,22 @@
         <v>387</v>
       </c>
       <c r="H101" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
         <v>15</v>
       </c>
       <c r="K101" t="n">
-        <v>37820</v>
+        <v>37790</v>
       </c>
       <c r="L101" t="n">
-        <v>2198</v>
+        <v>2201</v>
       </c>
       <c r="M101" t="n">
-        <v>337493</v>
+        <v>337337</v>
       </c>
     </row>
     <row r="102">
@@ -4740,10 +4740,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>6428</v>
+        <v>6426</v>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
         <v>6426</v>
@@ -4758,22 +4758,22 @@
         <v>306</v>
       </c>
       <c r="H102" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
         <v>22</v>
       </c>
       <c r="K102" t="n">
-        <v>38126</v>
+        <v>38096</v>
       </c>
       <c r="L102" t="n">
-        <v>2220</v>
+        <v>2224</v>
       </c>
       <c r="M102" t="n">
-        <v>343921</v>
+        <v>343763</v>
       </c>
     </row>
     <row r="103">
@@ -4792,13 +4792,13 @@
         <v>7912</v>
       </c>
       <c r="E103" t="n">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H103" t="n">
         <v>17</v>
@@ -4810,13 +4810,13 @@
         <v>17</v>
       </c>
       <c r="K103" t="n">
-        <v>38530</v>
+        <v>38498</v>
       </c>
       <c r="L103" t="n">
-        <v>2237</v>
+        <v>2241</v>
       </c>
       <c r="M103" t="n">
-        <v>351838</v>
+        <v>351680</v>
       </c>
     </row>
     <row r="104">
@@ -4826,22 +4826,22 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>9736</v>
+        <v>9741</v>
       </c>
       <c r="C104" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D104" t="n">
-        <v>9727</v>
+        <v>9730</v>
       </c>
       <c r="E104" t="n">
         <v>417</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H104" t="n">
         <v>14</v>
@@ -4853,13 +4853,13 @@
         <v>14</v>
       </c>
       <c r="K104" t="n">
-        <v>38947</v>
+        <v>38915</v>
       </c>
       <c r="L104" t="n">
-        <v>2251</v>
+        <v>2255</v>
       </c>
       <c r="M104" t="n">
-        <v>361574</v>
+        <v>361421</v>
       </c>
     </row>
     <row r="105">
@@ -4869,13 +4869,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>9948</v>
+        <v>9958</v>
       </c>
       <c r="C105" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D105" t="n">
-        <v>9937</v>
+        <v>9942</v>
       </c>
       <c r="E105" t="n">
         <v>405</v>
@@ -4896,13 +4896,13 @@
         <v>14</v>
       </c>
       <c r="K105" t="n">
-        <v>39352</v>
+        <v>39320</v>
       </c>
       <c r="L105" t="n">
-        <v>2265</v>
+        <v>2269</v>
       </c>
       <c r="M105" t="n">
-        <v>371522</v>
+        <v>371379</v>
       </c>
     </row>
     <row r="106">
@@ -4912,40 +4912,40 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>4842</v>
+        <v>4843</v>
       </c>
       <c r="C106" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D106" t="n">
-        <v>4831</v>
+        <v>4840</v>
       </c>
       <c r="E106" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H106" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
         <v>7</v>
       </c>
       <c r="K106" t="n">
-        <v>39745</v>
+        <v>39712</v>
       </c>
       <c r="L106" t="n">
-        <v>2272</v>
+        <v>2277</v>
       </c>
       <c r="M106" t="n">
-        <v>376364</v>
+        <v>376222</v>
       </c>
     </row>
     <row r="107">
@@ -4955,22 +4955,22 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1846</v>
+        <v>1853</v>
       </c>
       <c r="C107" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D107" t="n">
-        <v>1840</v>
+        <v>1845</v>
       </c>
       <c r="E107" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H107" t="n">
         <v>18</v>
@@ -4982,13 +4982,13 @@
         <v>18</v>
       </c>
       <c r="K107" t="n">
-        <v>40074</v>
+        <v>40040</v>
       </c>
       <c r="L107" t="n">
-        <v>2290</v>
+        <v>2295</v>
       </c>
       <c r="M107" t="n">
-        <v>378210</v>
+        <v>378075</v>
       </c>
     </row>
     <row r="108">
@@ -4998,22 +4998,22 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>11164</v>
+        <v>11175</v>
       </c>
       <c r="C108" t="n">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="D108" t="n">
-        <v>10984</v>
+        <v>11157</v>
       </c>
       <c r="E108" t="n">
         <v>416</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H108" t="n">
         <v>13</v>
@@ -5025,13 +5025,13 @@
         <v>13</v>
       </c>
       <c r="K108" t="n">
-        <v>40490</v>
+        <v>40456</v>
       </c>
       <c r="L108" t="n">
-        <v>2303</v>
+        <v>2308</v>
       </c>
       <c r="M108" t="n">
-        <v>389374</v>
+        <v>389250</v>
       </c>
     </row>
     <row r="109">
@@ -5041,22 +5041,22 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>9145</v>
+        <v>9377</v>
       </c>
       <c r="C109" t="n">
-        <v>1335</v>
+        <v>244</v>
       </c>
       <c r="D109" t="n">
-        <v>7810</v>
+        <v>9133</v>
       </c>
       <c r="E109" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H109" t="n">
         <v>13</v>
@@ -5068,13 +5068,13 @@
         <v>13</v>
       </c>
       <c r="K109" t="n">
-        <v>40729</v>
+        <v>40694</v>
       </c>
       <c r="L109" t="n">
-        <v>2316</v>
+        <v>2321</v>
       </c>
       <c r="M109" t="n">
-        <v>398519</v>
+        <v>398627</v>
       </c>
     </row>
     <row r="110">
@@ -5084,40 +5084,40 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>8078</v>
+        <v>9129</v>
       </c>
       <c r="C110" t="n">
-        <v>4179</v>
+        <v>1095</v>
       </c>
       <c r="D110" t="n">
-        <v>3899</v>
+        <v>8034</v>
       </c>
       <c r="E110" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H110" t="n">
         <v>12</v>
       </c>
       <c r="I110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K110" t="n">
-        <v>41283</v>
+        <v>41247</v>
       </c>
       <c r="L110" t="n">
-        <v>2328</v>
+        <v>2333</v>
       </c>
       <c r="M110" t="n">
-        <v>406597</v>
+        <v>407756</v>
       </c>
     </row>
     <row r="111">
@@ -5127,13 +5127,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>4533</v>
+        <v>7147</v>
       </c>
       <c r="C111" t="n">
-        <v>3814</v>
+        <v>2674</v>
       </c>
       <c r="D111" t="n">
-        <v>719</v>
+        <v>4473</v>
       </c>
       <c r="E111" t="n">
         <v>370</v>
@@ -5145,22 +5145,22 @@
         <v>370</v>
       </c>
       <c r="H111" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
         <v>18</v>
       </c>
       <c r="K111" t="n">
-        <v>41653</v>
+        <v>41617</v>
       </c>
       <c r="L111" t="n">
-        <v>2346</v>
+        <v>2352</v>
       </c>
       <c r="M111" t="n">
-        <v>411130</v>
+        <v>414903</v>
       </c>
     </row>
     <row r="112">
@@ -5170,40 +5170,40 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>736</v>
+        <v>3641</v>
       </c>
       <c r="C112" t="n">
-        <v>651</v>
+        <v>2911</v>
       </c>
       <c r="D112" t="n">
-        <v>85</v>
+        <v>730</v>
       </c>
       <c r="E112" t="n">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F112" t="n">
         <v>2</v>
       </c>
       <c r="G112" t="n">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K112" t="n">
-        <v>42045</v>
+        <v>42005</v>
       </c>
       <c r="L112" t="n">
-        <v>2349</v>
+        <v>2356</v>
       </c>
       <c r="M112" t="n">
-        <v>411866</v>
+        <v>418544</v>
       </c>
     </row>
     <row r="113">
@@ -5213,40 +5213,83 @@
         </is>
       </c>
       <c r="B113" t="n">
+        <v>309</v>
+      </c>
+      <c r="C113" t="n">
+        <v>255</v>
+      </c>
+      <c r="D113" t="n">
         <v>54</v>
       </c>
-      <c r="C113" t="n">
-        <v>54</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0</v>
-      </c>
       <c r="E113" t="n">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F113" t="n">
-        <v>378</v>
+        <v>5</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="H113" t="n">
+        <v>3</v>
+      </c>
+      <c r="I113" t="n">
+        <v>2</v>
+      </c>
+      <c r="J113" t="n">
         <v>1</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
       <c r="K113" t="n">
-        <v>42423</v>
+        <v>42378</v>
       </c>
       <c r="L113" t="n">
-        <v>2350</v>
+        <v>2359</v>
       </c>
       <c r="M113" t="n">
-        <v>411920</v>
+        <v>418853</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2020-06-21</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>63</v>
+      </c>
+      <c r="C114" t="n">
+        <v>63</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>255</v>
+      </c>
+      <c r="F114" t="n">
+        <v>255</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+      <c r="I114" t="n">
+        <v>4</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>42633</v>
+      </c>
+      <c r="L114" t="n">
+        <v>2363</v>
+      </c>
+      <c r="M114" t="n">
+        <v>418916</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:M115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1171,13 +1171,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E19" t="n">
         <v>17</v>
@@ -1204,7 +1204,7 @@
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>3300</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="20">
@@ -1247,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>4382</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="21">
@@ -1290,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>6118</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1333,7 @@
         <v>14</v>
       </c>
       <c r="M22" t="n">
-        <v>6815</v>
+        <v>6817</v>
       </c>
     </row>
     <row r="23">
@@ -1376,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="M23" t="n">
-        <v>7838</v>
+        <v>7840</v>
       </c>
     </row>
     <row r="24">
@@ -1419,7 +1419,7 @@
         <v>24</v>
       </c>
       <c r="M24" t="n">
-        <v>9291</v>
+        <v>9293</v>
       </c>
     </row>
     <row r="25">
@@ -1462,7 +1462,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="n">
-        <v>10898</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="26">
@@ -1505,7 +1505,7 @@
         <v>35</v>
       </c>
       <c r="M26" t="n">
-        <v>13220</v>
+        <v>13222</v>
       </c>
     </row>
     <row r="27">
@@ -1548,7 +1548,7 @@
         <v>44</v>
       </c>
       <c r="M27" t="n">
-        <v>15828</v>
+        <v>15830</v>
       </c>
     </row>
     <row r="28">
@@ -1591,7 +1591,7 @@
         <v>47</v>
       </c>
       <c r="M28" t="n">
-        <v>17990</v>
+        <v>17992</v>
       </c>
     </row>
     <row r="29">
@@ -1634,7 +1634,7 @@
         <v>58</v>
       </c>
       <c r="M29" t="n">
-        <v>19268</v>
+        <v>19270</v>
       </c>
     </row>
     <row r="30">
@@ -1656,10 +1656,10 @@
         <v>271</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H30" t="n">
         <v>18</v>
@@ -1677,7 +1677,7 @@
         <v>76</v>
       </c>
       <c r="M30" t="n">
-        <v>20900</v>
+        <v>20902</v>
       </c>
     </row>
     <row r="31">
@@ -1720,7 +1720,7 @@
         <v>91</v>
       </c>
       <c r="M31" t="n">
-        <v>22860</v>
+        <v>22862</v>
       </c>
     </row>
     <row r="32">
@@ -1763,7 +1763,7 @@
         <v>113</v>
       </c>
       <c r="M32" t="n">
-        <v>25176</v>
+        <v>25178</v>
       </c>
     </row>
     <row r="33">
@@ -1773,13 +1773,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="E33" t="n">
         <v>468</v>
@@ -1806,7 +1806,7 @@
         <v>135</v>
       </c>
       <c r="M33" t="n">
-        <v>27716</v>
+        <v>27717</v>
       </c>
     </row>
     <row r="34">
@@ -1849,7 +1849,7 @@
         <v>157</v>
       </c>
       <c r="M34" t="n">
-        <v>30411</v>
+        <v>30412</v>
       </c>
     </row>
     <row r="35">
@@ -1892,7 +1892,7 @@
         <v>189</v>
       </c>
       <c r="M35" t="n">
-        <v>33211</v>
+        <v>33212</v>
       </c>
     </row>
     <row r="36">
@@ -1902,13 +1902,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="E36" t="n">
         <v>461</v>
@@ -1935,7 +1935,7 @@
         <v>214</v>
       </c>
       <c r="M36" t="n">
-        <v>34847</v>
+        <v>34849</v>
       </c>
     </row>
     <row r="37">
@@ -1945,13 +1945,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E37" t="n">
         <v>527</v>
@@ -1978,7 +1978,7 @@
         <v>248</v>
       </c>
       <c r="M37" t="n">
-        <v>35941</v>
+        <v>35944</v>
       </c>
     </row>
     <row r="38">
@@ -1988,13 +1988,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="E38" t="n">
         <v>556</v>
@@ -2021,7 +2021,7 @@
         <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>38365</v>
+        <v>38367</v>
       </c>
     </row>
     <row r="39">
@@ -2064,7 +2064,7 @@
         <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>41146</v>
+        <v>41148</v>
       </c>
     </row>
     <row r="40">
@@ -2107,7 +2107,7 @@
         <v>338</v>
       </c>
       <c r="M40" t="n">
-        <v>44217</v>
+        <v>44219</v>
       </c>
     </row>
     <row r="41">
@@ -2120,10 +2120,10 @@
         <v>2747</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>2746</v>
+        <v>2747</v>
       </c>
       <c r="E41" t="n">
         <v>558</v>
@@ -2150,7 +2150,7 @@
         <v>375</v>
       </c>
       <c r="M41" t="n">
-        <v>46964</v>
+        <v>46966</v>
       </c>
     </row>
     <row r="42">
@@ -2193,7 +2193,7 @@
         <v>400</v>
       </c>
       <c r="M42" t="n">
-        <v>49691</v>
+        <v>49693</v>
       </c>
     </row>
     <row r="43">
@@ -2236,7 +2236,7 @@
         <v>420</v>
       </c>
       <c r="M43" t="n">
-        <v>51233</v>
+        <v>51235</v>
       </c>
     </row>
     <row r="44">
@@ -2279,7 +2279,7 @@
         <v>449</v>
       </c>
       <c r="M44" t="n">
-        <v>51932</v>
+        <v>51934</v>
       </c>
     </row>
     <row r="45">
@@ -2322,7 +2322,7 @@
         <v>484</v>
       </c>
       <c r="M45" t="n">
-        <v>55404</v>
+        <v>55406</v>
       </c>
     </row>
     <row r="46">
@@ -2335,19 +2335,19 @@
         <v>3627</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>3626</v>
+        <v>3627</v>
       </c>
       <c r="E46" t="n">
         <v>417</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H46" t="n">
         <v>46</v>
@@ -2365,7 +2365,7 @@
         <v>530</v>
       </c>
       <c r="M46" t="n">
-        <v>59031</v>
+        <v>59033</v>
       </c>
     </row>
     <row r="47">
@@ -2375,22 +2375,22 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="E47" t="n">
         <v>577</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H47" t="n">
         <v>38</v>
@@ -2408,7 +2408,7 @@
         <v>568</v>
       </c>
       <c r="M47" t="n">
-        <v>62332</v>
+        <v>62333</v>
       </c>
     </row>
     <row r="48">
@@ -2418,13 +2418,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="E48" t="n">
         <v>599</v>
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4178</v>
+        <v>4176</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>4178</v>
+        <v>4176</v>
       </c>
       <c r="E49" t="n">
         <v>505</v>
@@ -2494,7 +2494,7 @@
         <v>638</v>
       </c>
       <c r="M49" t="n">
-        <v>70512</v>
+        <v>70510</v>
       </c>
     </row>
     <row r="50">
@@ -2537,7 +2537,7 @@
         <v>666</v>
       </c>
       <c r="M50" t="n">
-        <v>72272</v>
+        <v>72270</v>
       </c>
     </row>
     <row r="51">
@@ -2550,10 +2550,10 @@
         <v>1105</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="E51" t="n">
         <v>479</v>
@@ -2580,7 +2580,7 @@
         <v>702</v>
       </c>
       <c r="M51" t="n">
-        <v>73377</v>
+        <v>73375</v>
       </c>
     </row>
     <row r="52">
@@ -2590,22 +2590,22 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4347</v>
+        <v>4345</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>4347</v>
+        <v>4345</v>
       </c>
       <c r="E52" t="n">
         <v>382</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H52" t="n">
         <v>38</v>
@@ -2623,7 +2623,7 @@
         <v>740</v>
       </c>
       <c r="M52" t="n">
-        <v>77724</v>
+        <v>77720</v>
       </c>
     </row>
     <row r="53">
@@ -2645,10 +2645,10 @@
         <v>378</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H53" t="n">
         <v>49</v>
@@ -2666,7 +2666,7 @@
         <v>789</v>
       </c>
       <c r="M53" t="n">
-        <v>81573</v>
+        <v>81569</v>
       </c>
     </row>
     <row r="54">
@@ -2676,13 +2676,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3879</v>
+        <v>3878</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>3879</v>
+        <v>3878</v>
       </c>
       <c r="E54" t="n">
         <v>604</v>
@@ -2709,7 +2709,7 @@
         <v>839</v>
       </c>
       <c r="M54" t="n">
-        <v>85452</v>
+        <v>85447</v>
       </c>
     </row>
     <row r="55">
@@ -2752,7 +2752,7 @@
         <v>877</v>
       </c>
       <c r="M55" t="n">
-        <v>89824</v>
+        <v>89819</v>
       </c>
     </row>
     <row r="56">
@@ -2762,13 +2762,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="E56" t="n">
         <v>698</v>
@@ -2795,7 +2795,7 @@
         <v>914</v>
       </c>
       <c r="M56" t="n">
-        <v>93382</v>
+        <v>93376</v>
       </c>
     </row>
     <row r="57">
@@ -2805,13 +2805,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="E57" t="n">
         <v>624</v>
@@ -2838,7 +2838,7 @@
         <v>955</v>
       </c>
       <c r="M57" t="n">
-        <v>95670</v>
+        <v>95663</v>
       </c>
     </row>
     <row r="58">
@@ -2881,7 +2881,7 @@
         <v>989</v>
       </c>
       <c r="M58" t="n">
-        <v>97477</v>
+        <v>97470</v>
       </c>
     </row>
     <row r="59">
@@ -2891,22 +2891,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4736</v>
+        <v>4748</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D59" t="n">
-        <v>4736</v>
+        <v>4738</v>
       </c>
       <c r="E59" t="n">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H59" t="n">
         <v>42</v>
@@ -2918,13 +2918,13 @@
         <v>42</v>
       </c>
       <c r="K59" t="n">
-        <v>16519</v>
+        <v>16517</v>
       </c>
       <c r="L59" t="n">
         <v>1031</v>
       </c>
       <c r="M59" t="n">
-        <v>102213</v>
+        <v>102218</v>
       </c>
     </row>
     <row r="60">
@@ -2934,13 +2934,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>5010</v>
+        <v>5008</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>5010</v>
+        <v>5008</v>
       </c>
       <c r="E60" t="n">
         <v>594</v>
@@ -2961,13 +2961,13 @@
         <v>34</v>
       </c>
       <c r="K60" t="n">
-        <v>17113</v>
+        <v>17111</v>
       </c>
       <c r="L60" t="n">
         <v>1065</v>
       </c>
       <c r="M60" t="n">
-        <v>107223</v>
+        <v>107226</v>
       </c>
     </row>
     <row r="61">
@@ -2977,13 +2977,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>5367</v>
+        <v>5366</v>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>5365</v>
+        <v>5366</v>
       </c>
       <c r="E61" t="n">
         <v>647</v>
@@ -3004,13 +3004,13 @@
         <v>43</v>
       </c>
       <c r="K61" t="n">
-        <v>17760</v>
+        <v>17758</v>
       </c>
       <c r="L61" t="n">
         <v>1108</v>
       </c>
       <c r="M61" t="n">
-        <v>112590</v>
+        <v>112592</v>
       </c>
     </row>
     <row r="62">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5790</v>
+        <v>5789</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>5790</v>
+        <v>5789</v>
       </c>
       <c r="E62" t="n">
         <v>789</v>
@@ -3047,13 +3047,13 @@
         <v>45</v>
       </c>
       <c r="K62" t="n">
-        <v>18549</v>
+        <v>18547</v>
       </c>
       <c r="L62" t="n">
         <v>1153</v>
       </c>
       <c r="M62" t="n">
-        <v>118380</v>
+        <v>118381</v>
       </c>
     </row>
     <row r="63">
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>6693</v>
+        <v>6692</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
         <v>6692</v>
@@ -3090,7 +3090,7 @@
         <v>35</v>
       </c>
       <c r="K63" t="n">
-        <v>19200</v>
+        <v>19198</v>
       </c>
       <c r="L63" t="n">
         <v>1188</v>
@@ -3133,7 +3133,7 @@
         <v>44</v>
       </c>
       <c r="K64" t="n">
-        <v>19834</v>
+        <v>19832</v>
       </c>
       <c r="L64" t="n">
         <v>1232</v>
@@ -3149,13 +3149,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="E65" t="n">
         <v>568</v>
@@ -3176,13 +3176,13 @@
         <v>32</v>
       </c>
       <c r="K65" t="n">
-        <v>20402</v>
+        <v>20400</v>
       </c>
       <c r="L65" t="n">
         <v>1264</v>
       </c>
       <c r="M65" t="n">
-        <v>130163</v>
+        <v>130162</v>
       </c>
     </row>
     <row r="66">
@@ -3192,22 +3192,22 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5606</v>
+        <v>5603</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>5606</v>
+        <v>5603</v>
       </c>
       <c r="E66" t="n">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H66" t="n">
         <v>38</v>
@@ -3219,13 +3219,13 @@
         <v>38</v>
       </c>
       <c r="K66" t="n">
-        <v>20927</v>
+        <v>20923</v>
       </c>
       <c r="L66" t="n">
         <v>1302</v>
       </c>
       <c r="M66" t="n">
-        <v>135769</v>
+        <v>135765</v>
       </c>
     </row>
     <row r="67">
@@ -3235,22 +3235,22 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6380</v>
+        <v>6377</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>6380</v>
+        <v>6377</v>
       </c>
       <c r="E67" t="n">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H67" t="n">
         <v>37</v>
@@ -3262,13 +3262,13 @@
         <v>37</v>
       </c>
       <c r="K67" t="n">
-        <v>21759</v>
+        <v>21754</v>
       </c>
       <c r="L67" t="n">
         <v>1339</v>
       </c>
       <c r="M67" t="n">
-        <v>142149</v>
+        <v>142142</v>
       </c>
     </row>
     <row r="68">
@@ -3278,22 +3278,22 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5758</v>
+        <v>5756</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>5757</v>
+        <v>5756</v>
       </c>
       <c r="E68" t="n">
         <v>621</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H68" t="n">
         <v>43</v>
@@ -3305,13 +3305,13 @@
         <v>43</v>
       </c>
       <c r="K68" t="n">
-        <v>22380</v>
+        <v>22375</v>
       </c>
       <c r="L68" t="n">
         <v>1382</v>
       </c>
       <c r="M68" t="n">
-        <v>147907</v>
+        <v>147898</v>
       </c>
     </row>
     <row r="69">
@@ -3321,13 +3321,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6426</v>
+        <v>6422</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>6425</v>
+        <v>6422</v>
       </c>
       <c r="E69" t="n">
         <v>635</v>
@@ -3348,13 +3348,13 @@
         <v>34</v>
       </c>
       <c r="K69" t="n">
-        <v>23015</v>
+        <v>23010</v>
       </c>
       <c r="L69" t="n">
         <v>1416</v>
       </c>
       <c r="M69" t="n">
-        <v>154333</v>
+        <v>154320</v>
       </c>
     </row>
     <row r="70">
@@ -3364,22 +3364,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6544</v>
+        <v>6542</v>
       </c>
       <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>6542</v>
+      </c>
+      <c r="E70" t="n">
+        <v>587</v>
+      </c>
+      <c r="F70" t="n">
         <v>1</v>
       </c>
-      <c r="D70" t="n">
-        <v>6543</v>
-      </c>
-      <c r="E70" t="n">
-        <v>589</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
       <c r="G70" t="n">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H70" t="n">
         <v>25</v>
@@ -3391,13 +3391,13 @@
         <v>25</v>
       </c>
       <c r="K70" t="n">
-        <v>23604</v>
+        <v>23597</v>
       </c>
       <c r="L70" t="n">
         <v>1441</v>
       </c>
       <c r="M70" t="n">
-        <v>160877</v>
+        <v>160862</v>
       </c>
     </row>
     <row r="71">
@@ -3407,22 +3407,22 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="E71" t="n">
         <v>387</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H71" t="n">
         <v>32</v>
@@ -3434,13 +3434,13 @@
         <v>32</v>
       </c>
       <c r="K71" t="n">
-        <v>23991</v>
+        <v>23984</v>
       </c>
       <c r="L71" t="n">
         <v>1473</v>
       </c>
       <c r="M71" t="n">
-        <v>164167</v>
+        <v>164151</v>
       </c>
     </row>
     <row r="72">
@@ -3459,13 +3459,13 @@
         <v>1301</v>
       </c>
       <c r="E72" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H72" t="n">
         <v>34</v>
@@ -3477,13 +3477,13 @@
         <v>34</v>
       </c>
       <c r="K72" t="n">
-        <v>24453</v>
+        <v>24445</v>
       </c>
       <c r="L72" t="n">
         <v>1507</v>
       </c>
       <c r="M72" t="n">
-        <v>165468</v>
+        <v>165452</v>
       </c>
     </row>
     <row r="73">
@@ -3493,22 +3493,22 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>7033</v>
+        <v>7043</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D73" t="n">
-        <v>7032</v>
+        <v>7030</v>
       </c>
       <c r="E73" t="n">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H73" t="n">
         <v>41</v>
@@ -3520,13 +3520,13 @@
         <v>41</v>
       </c>
       <c r="K73" t="n">
-        <v>24965</v>
+        <v>24953</v>
       </c>
       <c r="L73" t="n">
         <v>1548</v>
       </c>
       <c r="M73" t="n">
-        <v>172501</v>
+        <v>172495</v>
       </c>
     </row>
     <row r="74">
@@ -3536,13 +3536,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6898</v>
+        <v>6910</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D74" t="n">
-        <v>6898</v>
+        <v>6894</v>
       </c>
       <c r="E74" t="n">
         <v>373</v>
@@ -3563,13 +3563,13 @@
         <v>38</v>
       </c>
       <c r="K74" t="n">
-        <v>25338</v>
+        <v>25326</v>
       </c>
       <c r="L74" t="n">
         <v>1586</v>
       </c>
       <c r="M74" t="n">
-        <v>179399</v>
+        <v>179405</v>
       </c>
     </row>
     <row r="75">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>7179</v>
+        <v>7170</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>7178</v>
+        <v>7170</v>
       </c>
       <c r="E75" t="n">
         <v>601</v>
@@ -3606,13 +3606,13 @@
         <v>27</v>
       </c>
       <c r="K75" t="n">
-        <v>25939</v>
+        <v>25927</v>
       </c>
       <c r="L75" t="n">
         <v>1613</v>
       </c>
       <c r="M75" t="n">
-        <v>186578</v>
+        <v>186575</v>
       </c>
     </row>
     <row r="76">
@@ -3622,22 +3622,22 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>8117</v>
+        <v>8111</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>8117</v>
+        <v>8110</v>
       </c>
       <c r="E76" t="n">
         <v>585</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H76" t="n">
         <v>42</v>
@@ -3649,13 +3649,13 @@
         <v>42</v>
       </c>
       <c r="K76" t="n">
-        <v>26524</v>
+        <v>26512</v>
       </c>
       <c r="L76" t="n">
         <v>1655</v>
       </c>
       <c r="M76" t="n">
-        <v>194695</v>
+        <v>194686</v>
       </c>
     </row>
     <row r="77">
@@ -3665,22 +3665,22 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9709</v>
+        <v>9697</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>9709</v>
+        <v>9694</v>
       </c>
       <c r="E77" t="n">
         <v>634</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H77" t="n">
         <v>32</v>
@@ -3692,13 +3692,13 @@
         <v>32</v>
       </c>
       <c r="K77" t="n">
-        <v>27158</v>
+        <v>27146</v>
       </c>
       <c r="L77" t="n">
         <v>1687</v>
       </c>
       <c r="M77" t="n">
-        <v>204404</v>
+        <v>204383</v>
       </c>
     </row>
     <row r="78">
@@ -3708,13 +3708,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3111</v>
+        <v>3103</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>3111</v>
+        <v>3102</v>
       </c>
       <c r="E78" t="n">
         <v>494</v>
@@ -3735,13 +3735,13 @@
         <v>28</v>
       </c>
       <c r="K78" t="n">
-        <v>27652</v>
+        <v>27640</v>
       </c>
       <c r="L78" t="n">
         <v>1715</v>
       </c>
       <c r="M78" t="n">
-        <v>207515</v>
+        <v>207486</v>
       </c>
     </row>
     <row r="79">
@@ -3778,13 +3778,13 @@
         <v>29</v>
       </c>
       <c r="K79" t="n">
-        <v>28133</v>
+        <v>28121</v>
       </c>
       <c r="L79" t="n">
         <v>1744</v>
       </c>
       <c r="M79" t="n">
-        <v>209399</v>
+        <v>209370</v>
       </c>
     </row>
     <row r="80">
@@ -3794,22 +3794,22 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>8231</v>
+        <v>8225</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>8231</v>
+        <v>8224</v>
       </c>
       <c r="E80" t="n">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H80" t="n">
         <v>39</v>
@@ -3821,13 +3821,13 @@
         <v>39</v>
       </c>
       <c r="K80" t="n">
-        <v>28586</v>
+        <v>28572</v>
       </c>
       <c r="L80" t="n">
         <v>1783</v>
       </c>
       <c r="M80" t="n">
-        <v>217630</v>
+        <v>217595</v>
       </c>
     </row>
     <row r="81">
@@ -3837,22 +3837,22 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6994</v>
+        <v>6982</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>6994</v>
+        <v>6981</v>
       </c>
       <c r="E81" t="n">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H81" t="n">
         <v>29</v>
@@ -3864,13 +3864,13 @@
         <v>29</v>
       </c>
       <c r="K81" t="n">
-        <v>29138</v>
+        <v>29122</v>
       </c>
       <c r="L81" t="n">
         <v>1812</v>
       </c>
       <c r="M81" t="n">
-        <v>224624</v>
+        <v>224577</v>
       </c>
     </row>
     <row r="82">
@@ -3880,19 +3880,19 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6656</v>
+        <v>6643</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>6656</v>
+        <v>6643</v>
       </c>
       <c r="E82" t="n">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
         <v>643</v>
@@ -3907,13 +3907,13 @@
         <v>29</v>
       </c>
       <c r="K82" t="n">
-        <v>29783</v>
+        <v>29765</v>
       </c>
       <c r="L82" t="n">
         <v>1841</v>
       </c>
       <c r="M82" t="n">
-        <v>231280</v>
+        <v>231220</v>
       </c>
     </row>
     <row r="83">
@@ -3923,22 +3923,22 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7557</v>
+        <v>7547</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>7556</v>
+        <v>7546</v>
       </c>
       <c r="E83" t="n">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H83" t="n">
         <v>36</v>
@@ -3950,13 +3950,13 @@
         <v>36</v>
       </c>
       <c r="K83" t="n">
-        <v>30244</v>
+        <v>30224</v>
       </c>
       <c r="L83" t="n">
         <v>1877</v>
       </c>
       <c r="M83" t="n">
-        <v>238837</v>
+        <v>238767</v>
       </c>
     </row>
     <row r="84">
@@ -3966,22 +3966,22 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>8272</v>
+        <v>8268</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>8272</v>
+        <v>8266</v>
       </c>
       <c r="E84" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H84" t="n">
         <v>17</v>
@@ -3993,13 +3993,13 @@
         <v>17</v>
       </c>
       <c r="K84" t="n">
-        <v>30733</v>
+        <v>30712</v>
       </c>
       <c r="L84" t="n">
         <v>1894</v>
       </c>
       <c r="M84" t="n">
-        <v>247109</v>
+        <v>247035</v>
       </c>
     </row>
     <row r="85">
@@ -4009,13 +4009,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="E85" t="n">
         <v>473</v>
@@ -4036,13 +4036,13 @@
         <v>24</v>
       </c>
       <c r="K85" t="n">
-        <v>31206</v>
+        <v>31185</v>
       </c>
       <c r="L85" t="n">
         <v>1918</v>
       </c>
       <c r="M85" t="n">
-        <v>249923</v>
+        <v>249848</v>
       </c>
     </row>
     <row r="86">
@@ -4052,22 +4052,22 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="E86" t="n">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H86" t="n">
         <v>15</v>
@@ -4079,13 +4079,13 @@
         <v>15</v>
       </c>
       <c r="K86" t="n">
-        <v>31547</v>
+        <v>31523</v>
       </c>
       <c r="L86" t="n">
         <v>1933</v>
       </c>
       <c r="M86" t="n">
-        <v>251766</v>
+        <v>251690</v>
       </c>
     </row>
     <row r="87">
@@ -4104,10 +4104,10 @@
         <v>1744</v>
       </c>
       <c r="E87" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
         <v>358</v>
@@ -4122,13 +4122,13 @@
         <v>21</v>
       </c>
       <c r="K87" t="n">
-        <v>31906</v>
+        <v>31881</v>
       </c>
       <c r="L87" t="n">
         <v>1954</v>
       </c>
       <c r="M87" t="n">
-        <v>253510</v>
+        <v>253434</v>
       </c>
     </row>
     <row r="88">
@@ -4138,13 +4138,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>7841</v>
+        <v>7837</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>7841</v>
+        <v>7837</v>
       </c>
       <c r="E88" t="n">
         <v>348</v>
@@ -4165,13 +4165,13 @@
         <v>19</v>
       </c>
       <c r="K88" t="n">
-        <v>32254</v>
+        <v>32229</v>
       </c>
       <c r="L88" t="n">
         <v>1973</v>
       </c>
       <c r="M88" t="n">
-        <v>261351</v>
+        <v>261271</v>
       </c>
     </row>
     <row r="89">
@@ -4181,13 +4181,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>6307</v>
+        <v>6316</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D89" t="n">
-        <v>6306</v>
+        <v>6304</v>
       </c>
       <c r="E89" t="n">
         <v>597</v>
@@ -4208,13 +4208,13 @@
         <v>14</v>
       </c>
       <c r="K89" t="n">
-        <v>32851</v>
+        <v>32826</v>
       </c>
       <c r="L89" t="n">
         <v>1987</v>
       </c>
       <c r="M89" t="n">
-        <v>267658</v>
+        <v>267587</v>
       </c>
     </row>
     <row r="90">
@@ -4224,40 +4224,40 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>7049</v>
+        <v>7034</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>7049</v>
+        <v>7034</v>
       </c>
       <c r="E90" t="n">
         <v>478</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H90" t="n">
         <v>18</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K90" t="n">
-        <v>33329</v>
+        <v>33304</v>
       </c>
       <c r="L90" t="n">
         <v>2005</v>
       </c>
       <c r="M90" t="n">
-        <v>274707</v>
+        <v>274621</v>
       </c>
     </row>
     <row r="91">
@@ -4267,40 +4267,40 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>7762</v>
+        <v>7753</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>7762</v>
+        <v>7753</v>
       </c>
       <c r="E91" t="n">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="H91" t="n">
         <v>20</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K91" t="n">
-        <v>33897</v>
+        <v>33863</v>
       </c>
       <c r="L91" t="n">
         <v>2025</v>
       </c>
       <c r="M91" t="n">
-        <v>282469</v>
+        <v>282374</v>
       </c>
     </row>
     <row r="92">
@@ -4310,22 +4310,22 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="E92" t="n">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="H92" t="n">
         <v>21</v>
@@ -4337,13 +4337,13 @@
         <v>21</v>
       </c>
       <c r="K92" t="n">
-        <v>34244</v>
+        <v>34203</v>
       </c>
       <c r="L92" t="n">
         <v>2046</v>
       </c>
       <c r="M92" t="n">
-        <v>285293</v>
+        <v>285197</v>
       </c>
     </row>
     <row r="93">
@@ -4353,22 +4353,22 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="E93" t="n">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H93" t="n">
         <v>16</v>
@@ -4380,13 +4380,13 @@
         <v>16</v>
       </c>
       <c r="K93" t="n">
-        <v>34527</v>
+        <v>34484</v>
       </c>
       <c r="L93" t="n">
         <v>2062</v>
       </c>
       <c r="M93" t="n">
-        <v>287092</v>
+        <v>286995</v>
       </c>
     </row>
     <row r="94">
@@ -4396,22 +4396,22 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>8041</v>
+        <v>8038</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>8041</v>
+        <v>8038</v>
       </c>
       <c r="E94" t="n">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H94" t="n">
         <v>19</v>
@@ -4423,13 +4423,13 @@
         <v>19</v>
       </c>
       <c r="K94" t="n">
-        <v>34941</v>
+        <v>34896</v>
       </c>
       <c r="L94" t="n">
         <v>2081</v>
       </c>
       <c r="M94" t="n">
-        <v>295133</v>
+        <v>295033</v>
       </c>
     </row>
     <row r="95">
@@ -4439,22 +4439,22 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>5637</v>
+        <v>5635</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>5637</v>
+        <v>5635</v>
       </c>
       <c r="E95" t="n">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H95" t="n">
         <v>15</v>
@@ -4466,13 +4466,13 @@
         <v>15</v>
       </c>
       <c r="K95" t="n">
-        <v>35419</v>
+        <v>35373</v>
       </c>
       <c r="L95" t="n">
         <v>2096</v>
       </c>
       <c r="M95" t="n">
-        <v>300770</v>
+        <v>300668</v>
       </c>
     </row>
     <row r="96">
@@ -4482,22 +4482,22 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>6677</v>
+        <v>6674</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>6677</v>
+        <v>6674</v>
       </c>
       <c r="E96" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H96" t="n">
         <v>23</v>
@@ -4509,13 +4509,13 @@
         <v>23</v>
       </c>
       <c r="K96" t="n">
-        <v>35846</v>
+        <v>35799</v>
       </c>
       <c r="L96" t="n">
         <v>2119</v>
       </c>
       <c r="M96" t="n">
-        <v>307447</v>
+        <v>307342</v>
       </c>
     </row>
     <row r="97">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6858</v>
+        <v>6857</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>6858</v>
+        <v>6857</v>
       </c>
       <c r="E97" t="n">
         <v>501</v>
@@ -4552,13 +4552,13 @@
         <v>22</v>
       </c>
       <c r="K97" t="n">
-        <v>36347</v>
+        <v>36300</v>
       </c>
       <c r="L97" t="n">
         <v>2141</v>
       </c>
       <c r="M97" t="n">
-        <v>314305</v>
+        <v>314199</v>
       </c>
     </row>
     <row r="98">
@@ -4568,22 +4568,22 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>7900</v>
+        <v>7898</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>7900</v>
+        <v>7898</v>
       </c>
       <c r="E98" t="n">
         <v>420</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H98" t="n">
         <v>21</v>
@@ -4595,13 +4595,13 @@
         <v>21</v>
       </c>
       <c r="K98" t="n">
-        <v>36767</v>
+        <v>36720</v>
       </c>
       <c r="L98" t="n">
         <v>2162</v>
       </c>
       <c r="M98" t="n">
-        <v>322205</v>
+        <v>322097</v>
       </c>
     </row>
     <row r="99">
@@ -4620,13 +4620,13 @@
         <v>3615</v>
       </c>
       <c r="E99" t="n">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G99" t="n">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H99" t="n">
         <v>8</v>
@@ -4638,13 +4638,13 @@
         <v>8</v>
       </c>
       <c r="K99" t="n">
-        <v>37170</v>
+        <v>37122</v>
       </c>
       <c r="L99" t="n">
         <v>2170</v>
       </c>
       <c r="M99" t="n">
-        <v>325820</v>
+        <v>325712</v>
       </c>
     </row>
     <row r="100">
@@ -4654,13 +4654,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1912</v>
+        <v>1954</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D100" t="n">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="E100" t="n">
         <v>233</v>
@@ -4681,13 +4681,13 @@
         <v>15</v>
       </c>
       <c r="K100" t="n">
-        <v>37403</v>
+        <v>37355</v>
       </c>
       <c r="L100" t="n">
         <v>2185</v>
       </c>
       <c r="M100" t="n">
-        <v>327732</v>
+        <v>327666</v>
       </c>
     </row>
     <row r="101">
@@ -4697,40 +4697,40 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>9605</v>
+        <v>9606</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>9605</v>
+        <v>9602</v>
       </c>
       <c r="E101" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H101" t="n">
         <v>16</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K101" t="n">
-        <v>37790</v>
+        <v>37741</v>
       </c>
       <c r="L101" t="n">
         <v>2201</v>
       </c>
       <c r="M101" t="n">
-        <v>337337</v>
+        <v>337272</v>
       </c>
     </row>
     <row r="102">
@@ -4740,13 +4740,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>6426</v>
+        <v>6428</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D102" t="n">
-        <v>6426</v>
+        <v>6424</v>
       </c>
       <c r="E102" t="n">
         <v>306</v>
@@ -4761,19 +4761,19 @@
         <v>23</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K102" t="n">
-        <v>38096</v>
+        <v>38047</v>
       </c>
       <c r="L102" t="n">
         <v>2224</v>
       </c>
       <c r="M102" t="n">
-        <v>343763</v>
+        <v>343700</v>
       </c>
     </row>
     <row r="103">
@@ -4783,22 +4783,22 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>7917</v>
+        <v>7919</v>
       </c>
       <c r="C103" t="n">
         <v>5</v>
       </c>
       <c r="D103" t="n">
-        <v>7912</v>
+        <v>7914</v>
       </c>
       <c r="E103" t="n">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="H103" t="n">
         <v>17</v>
@@ -4810,13 +4810,13 @@
         <v>17</v>
       </c>
       <c r="K103" t="n">
-        <v>38498</v>
+        <v>38443</v>
       </c>
       <c r="L103" t="n">
         <v>2241</v>
       </c>
       <c r="M103" t="n">
-        <v>351680</v>
+        <v>351619</v>
       </c>
     </row>
     <row r="104">
@@ -4826,22 +4826,22 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>9741</v>
+        <v>9743</v>
       </c>
       <c r="C104" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D104" t="n">
-        <v>9730</v>
+        <v>9738</v>
       </c>
       <c r="E104" t="n">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H104" t="n">
         <v>14</v>
@@ -4853,13 +4853,13 @@
         <v>14</v>
       </c>
       <c r="K104" t="n">
-        <v>38915</v>
+        <v>38858</v>
       </c>
       <c r="L104" t="n">
         <v>2255</v>
       </c>
       <c r="M104" t="n">
-        <v>361421</v>
+        <v>361362</v>
       </c>
     </row>
     <row r="105">
@@ -4869,13 +4869,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>9958</v>
+        <v>9959</v>
       </c>
       <c r="C105" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D105" t="n">
-        <v>9942</v>
+        <v>9957</v>
       </c>
       <c r="E105" t="n">
         <v>405</v>
@@ -4896,13 +4896,13 @@
         <v>14</v>
       </c>
       <c r="K105" t="n">
-        <v>39320</v>
+        <v>39263</v>
       </c>
       <c r="L105" t="n">
         <v>2269</v>
       </c>
       <c r="M105" t="n">
-        <v>371379</v>
+        <v>371321</v>
       </c>
     </row>
     <row r="106">
@@ -4912,40 +4912,40 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>4843</v>
+        <v>4853</v>
       </c>
       <c r="C106" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D106" t="n">
-        <v>4840</v>
+        <v>4846</v>
       </c>
       <c r="E106" t="n">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H106" t="n">
         <v>8</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K106" t="n">
-        <v>39712</v>
+        <v>39653</v>
       </c>
       <c r="L106" t="n">
         <v>2277</v>
       </c>
       <c r="M106" t="n">
-        <v>376222</v>
+        <v>376174</v>
       </c>
     </row>
     <row r="107">
@@ -4955,22 +4955,22 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="C107" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D107" t="n">
-        <v>1845</v>
+        <v>1849</v>
       </c>
       <c r="E107" t="n">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H107" t="n">
         <v>18</v>
@@ -4982,13 +4982,13 @@
         <v>18</v>
       </c>
       <c r="K107" t="n">
-        <v>40040</v>
+        <v>39980</v>
       </c>
       <c r="L107" t="n">
         <v>2295</v>
       </c>
       <c r="M107" t="n">
-        <v>378075</v>
+        <v>378025</v>
       </c>
     </row>
     <row r="108">
@@ -4998,19 +4998,19 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>11175</v>
+        <v>11181</v>
       </c>
       <c r="C108" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D108" t="n">
-        <v>11157</v>
+        <v>11167</v>
       </c>
       <c r="E108" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
         <v>415</v>
@@ -5025,13 +5025,13 @@
         <v>13</v>
       </c>
       <c r="K108" t="n">
-        <v>40456</v>
+        <v>40395</v>
       </c>
       <c r="L108" t="n">
         <v>2308</v>
       </c>
       <c r="M108" t="n">
-        <v>389250</v>
+        <v>389206</v>
       </c>
     </row>
     <row r="109">
@@ -5041,22 +5041,22 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>9377</v>
+        <v>9402</v>
       </c>
       <c r="C109" t="n">
-        <v>244</v>
+        <v>28</v>
       </c>
       <c r="D109" t="n">
-        <v>9133</v>
+        <v>9374</v>
       </c>
       <c r="E109" t="n">
         <v>238</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H109" t="n">
         <v>13</v>
@@ -5068,13 +5068,13 @@
         <v>13</v>
       </c>
       <c r="K109" t="n">
-        <v>40694</v>
+        <v>40633</v>
       </c>
       <c r="L109" t="n">
         <v>2321</v>
       </c>
       <c r="M109" t="n">
-        <v>398627</v>
+        <v>398608</v>
       </c>
     </row>
     <row r="110">
@@ -5084,40 +5084,40 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>9129</v>
+        <v>9684</v>
       </c>
       <c r="C110" t="n">
-        <v>1095</v>
+        <v>540</v>
       </c>
       <c r="D110" t="n">
-        <v>8034</v>
+        <v>9144</v>
       </c>
       <c r="E110" t="n">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H110" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="n">
         <v>12</v>
       </c>
       <c r="K110" t="n">
-        <v>41247</v>
+        <v>41184</v>
       </c>
       <c r="L110" t="n">
-        <v>2333</v>
+        <v>2335</v>
       </c>
       <c r="M110" t="n">
-        <v>407756</v>
+        <v>408292</v>
       </c>
     </row>
     <row r="111">
@@ -5127,40 +5127,40 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>7147</v>
+        <v>8956</v>
       </c>
       <c r="C111" t="n">
-        <v>2674</v>
+        <v>1847</v>
       </c>
       <c r="D111" t="n">
-        <v>4473</v>
+        <v>7109</v>
       </c>
       <c r="E111" t="n">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H111" t="n">
         <v>19</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K111" t="n">
-        <v>41617</v>
+        <v>41552</v>
       </c>
       <c r="L111" t="n">
-        <v>2352</v>
+        <v>2354</v>
       </c>
       <c r="M111" t="n">
-        <v>414903</v>
+        <v>417248</v>
       </c>
     </row>
     <row r="112">
@@ -5170,40 +5170,40 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>3641</v>
+        <v>7168</v>
       </c>
       <c r="C112" t="n">
-        <v>2911</v>
+        <v>3548</v>
       </c>
       <c r="D112" t="n">
-        <v>730</v>
+        <v>3620</v>
       </c>
       <c r="E112" t="n">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H112" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K112" t="n">
-        <v>42005</v>
+        <v>41936</v>
       </c>
       <c r="L112" t="n">
-        <v>2356</v>
+        <v>2359</v>
       </c>
       <c r="M112" t="n">
-        <v>418544</v>
+        <v>424416</v>
       </c>
     </row>
     <row r="113">
@@ -5213,40 +5213,40 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>309</v>
+        <v>1500</v>
       </c>
       <c r="C113" t="n">
-        <v>255</v>
+        <v>1193</v>
       </c>
       <c r="D113" t="n">
-        <v>54</v>
+        <v>307</v>
       </c>
       <c r="E113" t="n">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F113" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H113" t="n">
+        <v>6</v>
+      </c>
+      <c r="I113" t="n">
         <v>3</v>
       </c>
-      <c r="I113" t="n">
-        <v>2</v>
-      </c>
       <c r="J113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K113" t="n">
-        <v>42378</v>
+        <v>42307</v>
       </c>
       <c r="L113" t="n">
-        <v>2359</v>
+        <v>2365</v>
       </c>
       <c r="M113" t="n">
-        <v>418853</v>
+        <v>425916</v>
       </c>
     </row>
     <row r="114">
@@ -5256,40 +5256,83 @@
         </is>
       </c>
       <c r="B114" t="n">
+        <v>386</v>
+      </c>
+      <c r="C114" t="n">
+        <v>323</v>
+      </c>
+      <c r="D114" t="n">
         <v>63</v>
       </c>
-      <c r="C114" t="n">
-        <v>63</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0</v>
-      </c>
       <c r="E114" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F114" t="n">
-        <v>255</v>
+        <v>2</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="H114" t="n">
+        <v>7</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3</v>
+      </c>
+      <c r="J114" t="n">
         <v>4</v>
       </c>
-      <c r="I114" t="n">
-        <v>4</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
       <c r="K114" t="n">
-        <v>42633</v>
+        <v>42557</v>
       </c>
       <c r="L114" t="n">
-        <v>2363</v>
+        <v>2372</v>
       </c>
       <c r="M114" t="n">
-        <v>418916</v>
+        <v>426302</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2020-06-22</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>74</v>
+      </c>
+      <c r="C115" t="n">
+        <v>74</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>314</v>
+      </c>
+      <c r="F115" t="n">
+        <v>314</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+      <c r="I115" t="n">
+        <v>5</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>42871</v>
+      </c>
+      <c r="L115" t="n">
+        <v>2377</v>
+      </c>
+      <c r="M115" t="n">
+        <v>426376</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M115"/>
+  <dimension ref="A1:M116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1171,13 +1171,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E19" t="n">
         <v>17</v>
@@ -1204,7 +1204,7 @@
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>3302</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="20">
@@ -1247,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>4384</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="21">
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="E21" t="n">
         <v>45</v>
@@ -1290,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>6120</v>
+        <v>6122</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1333,7 @@
         <v>14</v>
       </c>
       <c r="M22" t="n">
-        <v>6817</v>
+        <v>6819</v>
       </c>
     </row>
     <row r="23">
@@ -1376,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="M23" t="n">
-        <v>7840</v>
+        <v>7842</v>
       </c>
     </row>
     <row r="24">
@@ -1419,7 +1419,7 @@
         <v>24</v>
       </c>
       <c r="M24" t="n">
-        <v>9293</v>
+        <v>9295</v>
       </c>
     </row>
     <row r="25">
@@ -1462,7 +1462,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="n">
-        <v>10900</v>
+        <v>10902</v>
       </c>
     </row>
     <row r="26">
@@ -1505,7 +1505,7 @@
         <v>35</v>
       </c>
       <c r="M26" t="n">
-        <v>13222</v>
+        <v>13224</v>
       </c>
     </row>
     <row r="27">
@@ -1548,7 +1548,7 @@
         <v>44</v>
       </c>
       <c r="M27" t="n">
-        <v>15830</v>
+        <v>15832</v>
       </c>
     </row>
     <row r="28">
@@ -1591,7 +1591,7 @@
         <v>47</v>
       </c>
       <c r="M28" t="n">
-        <v>17992</v>
+        <v>17994</v>
       </c>
     </row>
     <row r="29">
@@ -1634,7 +1634,7 @@
         <v>58</v>
       </c>
       <c r="M29" t="n">
-        <v>19270</v>
+        <v>19272</v>
       </c>
     </row>
     <row r="30">
@@ -1677,7 +1677,7 @@
         <v>76</v>
       </c>
       <c r="M30" t="n">
-        <v>20902</v>
+        <v>20904</v>
       </c>
     </row>
     <row r="31">
@@ -1720,7 +1720,7 @@
         <v>91</v>
       </c>
       <c r="M31" t="n">
-        <v>22862</v>
+        <v>22864</v>
       </c>
     </row>
     <row r="32">
@@ -1763,7 +1763,7 @@
         <v>113</v>
       </c>
       <c r="M32" t="n">
-        <v>25178</v>
+        <v>25180</v>
       </c>
     </row>
     <row r="33">
@@ -1773,13 +1773,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2539</v>
+        <v>2540</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2539</v>
+        <v>2540</v>
       </c>
       <c r="E33" t="n">
         <v>468</v>
@@ -1806,7 +1806,7 @@
         <v>135</v>
       </c>
       <c r="M33" t="n">
-        <v>27717</v>
+        <v>27720</v>
       </c>
     </row>
     <row r="34">
@@ -1849,7 +1849,7 @@
         <v>157</v>
       </c>
       <c r="M34" t="n">
-        <v>30412</v>
+        <v>30415</v>
       </c>
     </row>
     <row r="35">
@@ -1892,7 +1892,7 @@
         <v>189</v>
       </c>
       <c r="M35" t="n">
-        <v>33212</v>
+        <v>33215</v>
       </c>
     </row>
     <row r="36">
@@ -1902,13 +1902,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="E36" t="n">
         <v>461</v>
@@ -1935,7 +1935,7 @@
         <v>214</v>
       </c>
       <c r="M36" t="n">
-        <v>34849</v>
+        <v>34851</v>
       </c>
     </row>
     <row r="37">
@@ -1978,7 +1978,7 @@
         <v>248</v>
       </c>
       <c r="M37" t="n">
-        <v>35944</v>
+        <v>35946</v>
       </c>
     </row>
     <row r="38">
@@ -2021,7 +2021,7 @@
         <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>38367</v>
+        <v>38369</v>
       </c>
     </row>
     <row r="39">
@@ -2064,7 +2064,7 @@
         <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>41148</v>
+        <v>41150</v>
       </c>
     </row>
     <row r="40">
@@ -2107,7 +2107,7 @@
         <v>338</v>
       </c>
       <c r="M40" t="n">
-        <v>44219</v>
+        <v>44221</v>
       </c>
     </row>
     <row r="41">
@@ -2150,7 +2150,7 @@
         <v>375</v>
       </c>
       <c r="M41" t="n">
-        <v>46966</v>
+        <v>46968</v>
       </c>
     </row>
     <row r="42">
@@ -2193,7 +2193,7 @@
         <v>400</v>
       </c>
       <c r="M42" t="n">
-        <v>49693</v>
+        <v>49695</v>
       </c>
     </row>
     <row r="43">
@@ -2236,7 +2236,7 @@
         <v>420</v>
       </c>
       <c r="M43" t="n">
-        <v>51235</v>
+        <v>51237</v>
       </c>
     </row>
     <row r="44">
@@ -2279,7 +2279,7 @@
         <v>449</v>
       </c>
       <c r="M44" t="n">
-        <v>51934</v>
+        <v>51936</v>
       </c>
     </row>
     <row r="45">
@@ -2322,7 +2322,7 @@
         <v>484</v>
       </c>
       <c r="M45" t="n">
-        <v>55406</v>
+        <v>55408</v>
       </c>
     </row>
     <row r="46">
@@ -2365,7 +2365,7 @@
         <v>530</v>
       </c>
       <c r="M46" t="n">
-        <v>59033</v>
+        <v>59035</v>
       </c>
     </row>
     <row r="47">
@@ -2408,7 +2408,7 @@
         <v>568</v>
       </c>
       <c r="M47" t="n">
-        <v>62333</v>
+        <v>62335</v>
       </c>
     </row>
     <row r="48">
@@ -2451,7 +2451,7 @@
         <v>602</v>
       </c>
       <c r="M48" t="n">
-        <v>66334</v>
+        <v>66336</v>
       </c>
     </row>
     <row r="49">
@@ -2494,7 +2494,7 @@
         <v>638</v>
       </c>
       <c r="M49" t="n">
-        <v>70510</v>
+        <v>70512</v>
       </c>
     </row>
     <row r="50">
@@ -2504,13 +2504,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="E50" t="n">
         <v>557</v>
@@ -2537,7 +2537,7 @@
         <v>666</v>
       </c>
       <c r="M50" t="n">
-        <v>72270</v>
+        <v>72273</v>
       </c>
     </row>
     <row r="51">
@@ -2547,13 +2547,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="E51" t="n">
         <v>479</v>
@@ -2580,7 +2580,7 @@
         <v>702</v>
       </c>
       <c r="M51" t="n">
-        <v>73375</v>
+        <v>73379</v>
       </c>
     </row>
     <row r="52">
@@ -2590,13 +2590,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4345</v>
+        <v>4348</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>4345</v>
+        <v>4348</v>
       </c>
       <c r="E52" t="n">
         <v>382</v>
@@ -2623,7 +2623,7 @@
         <v>740</v>
       </c>
       <c r="M52" t="n">
-        <v>77720</v>
+        <v>77727</v>
       </c>
     </row>
     <row r="53">
@@ -2633,22 +2633,22 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3849</v>
+        <v>3857</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>3849</v>
+        <v>3857</v>
       </c>
       <c r="E53" t="n">
         <v>378</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H53" t="n">
         <v>49</v>
@@ -2666,7 +2666,7 @@
         <v>789</v>
       </c>
       <c r="M53" t="n">
-        <v>81569</v>
+        <v>81584</v>
       </c>
     </row>
     <row r="54">
@@ -2676,13 +2676,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3878</v>
+        <v>3888</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>3878</v>
+        <v>3888</v>
       </c>
       <c r="E54" t="n">
         <v>604</v>
@@ -2709,7 +2709,7 @@
         <v>839</v>
       </c>
       <c r="M54" t="n">
-        <v>85447</v>
+        <v>85472</v>
       </c>
     </row>
     <row r="55">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4372</v>
+        <v>4389</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>4371</v>
+        <v>4389</v>
       </c>
       <c r="E55" t="n">
         <v>644</v>
@@ -2752,7 +2752,7 @@
         <v>877</v>
       </c>
       <c r="M55" t="n">
-        <v>89819</v>
+        <v>89861</v>
       </c>
     </row>
     <row r="56">
@@ -2762,13 +2762,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3557</v>
+        <v>3570</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>3557</v>
+        <v>3570</v>
       </c>
       <c r="E56" t="n">
         <v>698</v>
@@ -2795,7 +2795,7 @@
         <v>914</v>
       </c>
       <c r="M56" t="n">
-        <v>93376</v>
+        <v>93431</v>
       </c>
     </row>
     <row r="57">
@@ -2805,13 +2805,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2287</v>
+        <v>2308</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>2287</v>
+        <v>2308</v>
       </c>
       <c r="E57" t="n">
         <v>624</v>
@@ -2838,7 +2838,7 @@
         <v>955</v>
       </c>
       <c r="M57" t="n">
-        <v>95663</v>
+        <v>95739</v>
       </c>
     </row>
     <row r="58">
@@ -2848,13 +2848,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1807</v>
+        <v>1823</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1807</v>
+        <v>1823</v>
       </c>
       <c r="E58" t="n">
         <v>946</v>
@@ -2881,7 +2881,7 @@
         <v>989</v>
       </c>
       <c r="M58" t="n">
-        <v>97470</v>
+        <v>97562</v>
       </c>
     </row>
     <row r="59">
@@ -2891,13 +2891,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4748</v>
+        <v>4751</v>
       </c>
       <c r="C59" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>4738</v>
+        <v>4751</v>
       </c>
       <c r="E59" t="n">
         <v>615</v>
@@ -2924,7 +2924,7 @@
         <v>1031</v>
       </c>
       <c r="M59" t="n">
-        <v>102218</v>
+        <v>102313</v>
       </c>
     </row>
     <row r="60">
@@ -2934,13 +2934,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>5008</v>
+        <v>5010</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>5008</v>
+        <v>5010</v>
       </c>
       <c r="E60" t="n">
         <v>594</v>
@@ -2967,7 +2967,7 @@
         <v>1065</v>
       </c>
       <c r="M60" t="n">
-        <v>107226</v>
+        <v>107323</v>
       </c>
     </row>
     <row r="61">
@@ -2977,13 +2977,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>5366</v>
+        <v>5365</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>5366</v>
+        <v>5365</v>
       </c>
       <c r="E61" t="n">
         <v>647</v>
@@ -3010,7 +3010,7 @@
         <v>1108</v>
       </c>
       <c r="M61" t="n">
-        <v>112592</v>
+        <v>112688</v>
       </c>
     </row>
     <row r="62">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5789</v>
+        <v>5787</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>5789</v>
+        <v>5787</v>
       </c>
       <c r="E62" t="n">
         <v>789</v>
@@ -3053,7 +3053,7 @@
         <v>1153</v>
       </c>
       <c r="M62" t="n">
-        <v>118381</v>
+        <v>118475</v>
       </c>
     </row>
     <row r="63">
@@ -3063,13 +3063,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>6692</v>
+        <v>6693</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>6692</v>
+        <v>6693</v>
       </c>
       <c r="E63" t="n">
         <v>651</v>
@@ -3096,7 +3096,7 @@
         <v>1188</v>
       </c>
       <c r="M63" t="n">
-        <v>125073</v>
+        <v>125168</v>
       </c>
     </row>
     <row r="64">
@@ -3106,13 +3106,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3273</v>
+        <v>3274</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>3273</v>
+        <v>3274</v>
       </c>
       <c r="E64" t="n">
         <v>634</v>
@@ -3139,7 +3139,7 @@
         <v>1232</v>
       </c>
       <c r="M64" t="n">
-        <v>128346</v>
+        <v>128442</v>
       </c>
     </row>
     <row r="65">
@@ -3149,13 +3149,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="E65" t="n">
         <v>568</v>
@@ -3182,7 +3182,7 @@
         <v>1264</v>
       </c>
       <c r="M65" t="n">
-        <v>130162</v>
+        <v>130260</v>
       </c>
     </row>
     <row r="66">
@@ -3192,13 +3192,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5603</v>
+        <v>5608</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>5603</v>
+        <v>5608</v>
       </c>
       <c r="E66" t="n">
         <v>523</v>
@@ -3225,7 +3225,7 @@
         <v>1302</v>
       </c>
       <c r="M66" t="n">
-        <v>135765</v>
+        <v>135868</v>
       </c>
     </row>
     <row r="67">
@@ -3268,7 +3268,7 @@
         <v>1339</v>
       </c>
       <c r="M67" t="n">
-        <v>142142</v>
+        <v>142245</v>
       </c>
     </row>
     <row r="68">
@@ -3278,13 +3278,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5756</v>
+        <v>5760</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>5756</v>
+        <v>5760</v>
       </c>
       <c r="E68" t="n">
         <v>621</v>
@@ -3311,7 +3311,7 @@
         <v>1382</v>
       </c>
       <c r="M68" t="n">
-        <v>147898</v>
+        <v>148005</v>
       </c>
     </row>
     <row r="69">
@@ -3321,13 +3321,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6422</v>
+        <v>6418</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>6422</v>
+        <v>6418</v>
       </c>
       <c r="E69" t="n">
         <v>635</v>
@@ -3354,7 +3354,7 @@
         <v>1416</v>
       </c>
       <c r="M69" t="n">
-        <v>154320</v>
+        <v>154423</v>
       </c>
     </row>
     <row r="70">
@@ -3364,22 +3364,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6542</v>
+        <v>6539</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>6542</v>
+        <v>6539</v>
       </c>
       <c r="E70" t="n">
         <v>587</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H70" t="n">
         <v>25</v>
@@ -3397,7 +3397,7 @@
         <v>1441</v>
       </c>
       <c r="M70" t="n">
-        <v>160862</v>
+        <v>160962</v>
       </c>
     </row>
     <row r="71">
@@ -3407,22 +3407,22 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="E71" t="n">
         <v>387</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H71" t="n">
         <v>32</v>
@@ -3440,7 +3440,7 @@
         <v>1473</v>
       </c>
       <c r="M71" t="n">
-        <v>164151</v>
+        <v>164252</v>
       </c>
     </row>
     <row r="72">
@@ -3450,13 +3450,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="E72" t="n">
         <v>461</v>
@@ -3483,7 +3483,7 @@
         <v>1507</v>
       </c>
       <c r="M72" t="n">
-        <v>165452</v>
+        <v>165554</v>
       </c>
     </row>
     <row r="73">
@@ -3493,13 +3493,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>7043</v>
+        <v>7019</v>
       </c>
       <c r="C73" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>7030</v>
+        <v>7019</v>
       </c>
       <c r="E73" t="n">
         <v>508</v>
@@ -3526,7 +3526,7 @@
         <v>1548</v>
       </c>
       <c r="M73" t="n">
-        <v>172495</v>
+        <v>172573</v>
       </c>
     </row>
     <row r="74">
@@ -3539,10 +3539,10 @@
         <v>6910</v>
       </c>
       <c r="C74" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>6894</v>
+        <v>6910</v>
       </c>
       <c r="E74" t="n">
         <v>373</v>
@@ -3569,7 +3569,7 @@
         <v>1586</v>
       </c>
       <c r="M74" t="n">
-        <v>179405</v>
+        <v>179483</v>
       </c>
     </row>
     <row r="75">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>7170</v>
+        <v>7169</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>7170</v>
+        <v>7169</v>
       </c>
       <c r="E75" t="n">
         <v>601</v>
@@ -3612,7 +3612,7 @@
         <v>1613</v>
       </c>
       <c r="M75" t="n">
-        <v>186575</v>
+        <v>186652</v>
       </c>
     </row>
     <row r="76">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>8111</v>
+        <v>8105</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>8110</v>
+        <v>8105</v>
       </c>
       <c r="E76" t="n">
         <v>585</v>
@@ -3655,7 +3655,7 @@
         <v>1655</v>
       </c>
       <c r="M76" t="n">
-        <v>194686</v>
+        <v>194757</v>
       </c>
     </row>
     <row r="77">
@@ -3668,19 +3668,19 @@
         <v>9697</v>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>9694</v>
+        <v>9696</v>
       </c>
       <c r="E77" t="n">
         <v>634</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H77" t="n">
         <v>32</v>
@@ -3698,7 +3698,7 @@
         <v>1687</v>
       </c>
       <c r="M77" t="n">
-        <v>204383</v>
+        <v>204454</v>
       </c>
     </row>
     <row r="78">
@@ -3708,13 +3708,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>3102</v>
+        <v>3104</v>
       </c>
       <c r="E78" t="n">
         <v>494</v>
@@ -3741,7 +3741,7 @@
         <v>1715</v>
       </c>
       <c r="M78" t="n">
-        <v>207486</v>
+        <v>207558</v>
       </c>
     </row>
     <row r="79">
@@ -3784,7 +3784,7 @@
         <v>1744</v>
       </c>
       <c r="M79" t="n">
-        <v>209370</v>
+        <v>209442</v>
       </c>
     </row>
     <row r="80">
@@ -3794,13 +3794,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>8225</v>
+        <v>8223</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>8224</v>
+        <v>8223</v>
       </c>
       <c r="E80" t="n">
         <v>451</v>
@@ -3827,7 +3827,7 @@
         <v>1783</v>
       </c>
       <c r="M80" t="n">
-        <v>217595</v>
+        <v>217665</v>
       </c>
     </row>
     <row r="81">
@@ -3837,13 +3837,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6982</v>
+        <v>6977</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>6981</v>
+        <v>6977</v>
       </c>
       <c r="E81" t="n">
         <v>550</v>
@@ -3870,7 +3870,7 @@
         <v>1812</v>
       </c>
       <c r="M81" t="n">
-        <v>224577</v>
+        <v>224642</v>
       </c>
     </row>
     <row r="82">
@@ -3880,13 +3880,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6643</v>
+        <v>6640</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>6643</v>
+        <v>6640</v>
       </c>
       <c r="E82" t="n">
         <v>643</v>
@@ -3913,7 +3913,7 @@
         <v>1841</v>
       </c>
       <c r="M82" t="n">
-        <v>231220</v>
+        <v>231282</v>
       </c>
     </row>
     <row r="83">
@@ -3923,13 +3923,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7547</v>
+        <v>7544</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>7546</v>
+        <v>7544</v>
       </c>
       <c r="E83" t="n">
         <v>459</v>
@@ -3956,7 +3956,7 @@
         <v>1877</v>
       </c>
       <c r="M83" t="n">
-        <v>238767</v>
+        <v>238826</v>
       </c>
     </row>
     <row r="84">
@@ -3969,19 +3969,19 @@
         <v>8268</v>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>8266</v>
+        <v>8268</v>
       </c>
       <c r="E84" t="n">
         <v>488</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H84" t="n">
         <v>17</v>
@@ -3999,7 +3999,7 @@
         <v>1894</v>
       </c>
       <c r="M84" t="n">
-        <v>247035</v>
+        <v>247094</v>
       </c>
     </row>
     <row r="85">
@@ -4042,7 +4042,7 @@
         <v>1918</v>
       </c>
       <c r="M85" t="n">
-        <v>249848</v>
+        <v>249907</v>
       </c>
     </row>
     <row r="86">
@@ -4055,10 +4055,10 @@
         <v>1842</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="E86" t="n">
         <v>338</v>
@@ -4085,7 +4085,7 @@
         <v>1933</v>
       </c>
       <c r="M86" t="n">
-        <v>251690</v>
+        <v>251749</v>
       </c>
     </row>
     <row r="87">
@@ -4095,13 +4095,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="E87" t="n">
         <v>358</v>
@@ -4128,7 +4128,7 @@
         <v>1954</v>
       </c>
       <c r="M87" t="n">
-        <v>253434</v>
+        <v>253491</v>
       </c>
     </row>
     <row r="88">
@@ -4138,13 +4138,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>7837</v>
+        <v>7833</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>7837</v>
+        <v>7833</v>
       </c>
       <c r="E88" t="n">
         <v>348</v>
@@ -4171,7 +4171,7 @@
         <v>1973</v>
       </c>
       <c r="M88" t="n">
-        <v>261271</v>
+        <v>261324</v>
       </c>
     </row>
     <row r="89">
@@ -4181,13 +4181,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>6316</v>
+        <v>6315</v>
       </c>
       <c r="C89" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>6304</v>
+        <v>6315</v>
       </c>
       <c r="E89" t="n">
         <v>597</v>
@@ -4214,7 +4214,7 @@
         <v>1987</v>
       </c>
       <c r="M89" t="n">
-        <v>267587</v>
+        <v>267639</v>
       </c>
     </row>
     <row r="90">
@@ -4224,13 +4224,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>7034</v>
+        <v>7032</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>7034</v>
+        <v>7032</v>
       </c>
       <c r="E90" t="n">
         <v>478</v>
@@ -4257,7 +4257,7 @@
         <v>2005</v>
       </c>
       <c r="M90" t="n">
-        <v>274621</v>
+        <v>274671</v>
       </c>
     </row>
     <row r="91">
@@ -4267,13 +4267,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>7753</v>
+        <v>7747</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>7753</v>
+        <v>7747</v>
       </c>
       <c r="E91" t="n">
         <v>559</v>
@@ -4300,7 +4300,7 @@
         <v>2025</v>
       </c>
       <c r="M91" t="n">
-        <v>282374</v>
+        <v>282418</v>
       </c>
     </row>
     <row r="92">
@@ -4310,13 +4310,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>2823</v>
+        <v>2820</v>
       </c>
       <c r="E92" t="n">
         <v>340</v>
@@ -4343,7 +4343,7 @@
         <v>2046</v>
       </c>
       <c r="M92" t="n">
-        <v>285197</v>
+        <v>285239</v>
       </c>
     </row>
     <row r="93">
@@ -4356,10 +4356,10 @@
         <v>1798</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="E93" t="n">
         <v>281</v>
@@ -4386,7 +4386,7 @@
         <v>2062</v>
       </c>
       <c r="M93" t="n">
-        <v>286995</v>
+        <v>287037</v>
       </c>
     </row>
     <row r="94">
@@ -4396,13 +4396,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>8038</v>
+        <v>8032</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>8038</v>
+        <v>8032</v>
       </c>
       <c r="E94" t="n">
         <v>412</v>
@@ -4429,7 +4429,7 @@
         <v>2081</v>
       </c>
       <c r="M94" t="n">
-        <v>295033</v>
+        <v>295069</v>
       </c>
     </row>
     <row r="95">
@@ -4439,22 +4439,22 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>5635</v>
+        <v>5632</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>5635</v>
+        <v>5632</v>
       </c>
       <c r="E95" t="n">
         <v>477</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H95" t="n">
         <v>15</v>
@@ -4472,7 +4472,7 @@
         <v>2096</v>
       </c>
       <c r="M95" t="n">
-        <v>300668</v>
+        <v>300701</v>
       </c>
     </row>
     <row r="96">
@@ -4482,22 +4482,22 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>6674</v>
+        <v>6670</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>6674</v>
+        <v>6669</v>
       </c>
       <c r="E96" t="n">
         <v>426</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H96" t="n">
         <v>23</v>
@@ -4515,7 +4515,7 @@
         <v>2119</v>
       </c>
       <c r="M96" t="n">
-        <v>307342</v>
+        <v>307371</v>
       </c>
     </row>
     <row r="97">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6857</v>
+        <v>6856</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>6857</v>
+        <v>6856</v>
       </c>
       <c r="E97" t="n">
         <v>501</v>
@@ -4558,7 +4558,7 @@
         <v>2141</v>
       </c>
       <c r="M97" t="n">
-        <v>314199</v>
+        <v>314227</v>
       </c>
     </row>
     <row r="98">
@@ -4568,22 +4568,22 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>7898</v>
+        <v>7892</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>7898</v>
+        <v>7892</v>
       </c>
       <c r="E98" t="n">
         <v>420</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H98" t="n">
         <v>21</v>
@@ -4601,7 +4601,7 @@
         <v>2162</v>
       </c>
       <c r="M98" t="n">
-        <v>322097</v>
+        <v>322119</v>
       </c>
     </row>
     <row r="99">
@@ -4623,10 +4623,10 @@
         <v>402</v>
       </c>
       <c r="F99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H99" t="n">
         <v>8</v>
@@ -4644,7 +4644,7 @@
         <v>2170</v>
       </c>
       <c r="M99" t="n">
-        <v>325712</v>
+        <v>325734</v>
       </c>
     </row>
     <row r="100">
@@ -4654,13 +4654,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="C100" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>1913</v>
+        <v>1953</v>
       </c>
       <c r="E100" t="n">
         <v>233</v>
@@ -4687,7 +4687,7 @@
         <v>2185</v>
       </c>
       <c r="M100" t="n">
-        <v>327666</v>
+        <v>327687</v>
       </c>
     </row>
     <row r="101">
@@ -4697,13 +4697,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>9606</v>
+        <v>9603</v>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>9602</v>
+        <v>9603</v>
       </c>
       <c r="E101" t="n">
         <v>386</v>
@@ -4730,7 +4730,7 @@
         <v>2201</v>
       </c>
       <c r="M101" t="n">
-        <v>337272</v>
+        <v>337290</v>
       </c>
     </row>
     <row r="102">
@@ -4740,13 +4740,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>6428</v>
+        <v>6429</v>
       </c>
       <c r="C102" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D102" t="n">
-        <v>6424</v>
+        <v>6426</v>
       </c>
       <c r="E102" t="n">
         <v>306</v>
@@ -4758,10 +4758,10 @@
         <v>306</v>
       </c>
       <c r="H102" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
         <v>23</v>
@@ -4770,10 +4770,10 @@
         <v>38047</v>
       </c>
       <c r="L102" t="n">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="M102" t="n">
-        <v>343700</v>
+        <v>343719</v>
       </c>
     </row>
     <row r="103">
@@ -4783,22 +4783,22 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>7919</v>
+        <v>7916</v>
       </c>
       <c r="C103" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>7914</v>
+        <v>7915</v>
       </c>
       <c r="E103" t="n">
         <v>396</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H103" t="n">
         <v>17</v>
@@ -4813,10 +4813,10 @@
         <v>38443</v>
       </c>
       <c r="L103" t="n">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="M103" t="n">
-        <v>351619</v>
+        <v>351635</v>
       </c>
     </row>
     <row r="104">
@@ -4826,13 +4826,13 @@
         </is>
       </c>
       <c r="B104" t="n">
+        <v>9744</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="n">
         <v>9743</v>
-      </c>
-      <c r="C104" t="n">
-        <v>5</v>
-      </c>
-      <c r="D104" t="n">
-        <v>9738</v>
       </c>
       <c r="E104" t="n">
         <v>415</v>
@@ -4856,10 +4856,10 @@
         <v>38858</v>
       </c>
       <c r="L104" t="n">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="M104" t="n">
-        <v>361362</v>
+        <v>361379</v>
       </c>
     </row>
     <row r="105">
@@ -4869,13 +4869,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>9959</v>
+        <v>9958</v>
       </c>
       <c r="C105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D105" t="n">
-        <v>9957</v>
+        <v>9955</v>
       </c>
       <c r="E105" t="n">
         <v>405</v>
@@ -4887,13 +4887,13 @@
         <v>405</v>
       </c>
       <c r="H105" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K105" t="n">
         <v>39263</v>
@@ -4902,7 +4902,7 @@
         <v>2269</v>
       </c>
       <c r="M105" t="n">
-        <v>371321</v>
+        <v>371337</v>
       </c>
     </row>
     <row r="106">
@@ -4912,40 +4912,40 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>4853</v>
+        <v>4851</v>
       </c>
       <c r="C106" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>4846</v>
+        <v>4850</v>
       </c>
       <c r="E106" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H106" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K106" t="n">
-        <v>39653</v>
+        <v>39652</v>
       </c>
       <c r="L106" t="n">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="M106" t="n">
-        <v>376174</v>
+        <v>376188</v>
       </c>
     </row>
     <row r="107">
@@ -4955,10 +4955,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="C107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D107" t="n">
         <v>1849</v>
@@ -4982,13 +4982,13 @@
         <v>18</v>
       </c>
       <c r="K107" t="n">
-        <v>39980</v>
+        <v>39979</v>
       </c>
       <c r="L107" t="n">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="M107" t="n">
-        <v>378025</v>
+        <v>378040</v>
       </c>
     </row>
     <row r="108">
@@ -4998,13 +4998,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>11181</v>
+        <v>11248</v>
       </c>
       <c r="C108" t="n">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D108" t="n">
-        <v>11167</v>
+        <v>11179</v>
       </c>
       <c r="E108" t="n">
         <v>415</v>
@@ -5025,13 +5025,13 @@
         <v>13</v>
       </c>
       <c r="K108" t="n">
-        <v>40395</v>
+        <v>40394</v>
       </c>
       <c r="L108" t="n">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="M108" t="n">
-        <v>389206</v>
+        <v>389288</v>
       </c>
     </row>
     <row r="109">
@@ -5041,22 +5041,22 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>9402</v>
+        <v>9587</v>
       </c>
       <c r="C109" t="n">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="D109" t="n">
-        <v>9374</v>
+        <v>9397</v>
       </c>
       <c r="E109" t="n">
         <v>238</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H109" t="n">
         <v>13</v>
@@ -5068,13 +5068,13 @@
         <v>13</v>
       </c>
       <c r="K109" t="n">
-        <v>40633</v>
+        <v>40632</v>
       </c>
       <c r="L109" t="n">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="M109" t="n">
-        <v>398608</v>
+        <v>398875</v>
       </c>
     </row>
     <row r="110">
@@ -5084,40 +5084,40 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>9684</v>
+        <v>9839</v>
       </c>
       <c r="C110" t="n">
-        <v>540</v>
+        <v>156</v>
       </c>
       <c r="D110" t="n">
-        <v>9144</v>
+        <v>9683</v>
       </c>
       <c r="E110" t="n">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F110" t="n">
         <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H110" t="n">
+        <v>15</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
         <v>14</v>
       </c>
-      <c r="I110" t="n">
-        <v>2</v>
-      </c>
-      <c r="J110" t="n">
-        <v>12</v>
-      </c>
       <c r="K110" t="n">
-        <v>41184</v>
+        <v>41182</v>
       </c>
       <c r="L110" t="n">
-        <v>2335</v>
+        <v>2337</v>
       </c>
       <c r="M110" t="n">
-        <v>408292</v>
+        <v>408714</v>
       </c>
     </row>
     <row r="111">
@@ -5127,13 +5127,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>8956</v>
+        <v>9547</v>
       </c>
       <c r="C111" t="n">
-        <v>1847</v>
+        <v>596</v>
       </c>
       <c r="D111" t="n">
-        <v>7109</v>
+        <v>8951</v>
       </c>
       <c r="E111" t="n">
         <v>368</v>
@@ -5154,13 +5154,13 @@
         <v>19</v>
       </c>
       <c r="K111" t="n">
-        <v>41552</v>
+        <v>41550</v>
       </c>
       <c r="L111" t="n">
-        <v>2354</v>
+        <v>2356</v>
       </c>
       <c r="M111" t="n">
-        <v>417248</v>
+        <v>418261</v>
       </c>
     </row>
     <row r="112">
@@ -5170,40 +5170,40 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>7168</v>
+        <v>8926</v>
       </c>
       <c r="C112" t="n">
-        <v>3548</v>
+        <v>1770</v>
       </c>
       <c r="D112" t="n">
-        <v>3620</v>
+        <v>7156</v>
       </c>
       <c r="E112" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
         <v>383</v>
       </c>
       <c r="H112" t="n">
+        <v>7</v>
+      </c>
+      <c r="I112" t="n">
+        <v>2</v>
+      </c>
+      <c r="J112" t="n">
         <v>5</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="n">
-        <v>4</v>
-      </c>
       <c r="K112" t="n">
-        <v>41936</v>
+        <v>41933</v>
       </c>
       <c r="L112" t="n">
-        <v>2359</v>
+        <v>2363</v>
       </c>
       <c r="M112" t="n">
-        <v>424416</v>
+        <v>427187</v>
       </c>
     </row>
     <row r="113">
@@ -5213,40 +5213,40 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1500</v>
+        <v>2834</v>
       </c>
       <c r="C113" t="n">
-        <v>1193</v>
+        <v>1344</v>
       </c>
       <c r="D113" t="n">
-        <v>307</v>
+        <v>1490</v>
       </c>
       <c r="E113" t="n">
         <v>371</v>
       </c>
       <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>371</v>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+      <c r="I113" t="n">
         <v>1</v>
       </c>
-      <c r="G113" t="n">
-        <v>370</v>
-      </c>
-      <c r="H113" t="n">
+      <c r="J113" t="n">
         <v>6</v>
       </c>
-      <c r="I113" t="n">
-        <v>3</v>
-      </c>
-      <c r="J113" t="n">
-        <v>3</v>
-      </c>
       <c r="K113" t="n">
-        <v>42307</v>
+        <v>42304</v>
       </c>
       <c r="L113" t="n">
-        <v>2365</v>
+        <v>2370</v>
       </c>
       <c r="M113" t="n">
-        <v>425916</v>
+        <v>430021</v>
       </c>
     </row>
     <row r="114">
@@ -5256,40 +5256,40 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>386</v>
+        <v>776</v>
       </c>
       <c r="C114" t="n">
-        <v>323</v>
+        <v>397</v>
       </c>
       <c r="D114" t="n">
-        <v>63</v>
+        <v>379</v>
       </c>
       <c r="E114" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H114" t="n">
         <v>7</v>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K114" t="n">
-        <v>42557</v>
+        <v>42552</v>
       </c>
       <c r="L114" t="n">
-        <v>2372</v>
+        <v>2377</v>
       </c>
       <c r="M114" t="n">
-        <v>426302</v>
+        <v>430797</v>
       </c>
     </row>
     <row r="115">
@@ -5299,40 +5299,83 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>74</v>
+        <v>930</v>
       </c>
       <c r="C115" t="n">
-        <v>74</v>
+        <v>859</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E115" t="n">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F115" t="n">
-        <v>314</v>
+        <v>2</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="H115" t="n">
+        <v>9</v>
+      </c>
+      <c r="I115" t="n">
+        <v>4</v>
+      </c>
+      <c r="J115" t="n">
         <v>5</v>
       </c>
-      <c r="I115" t="n">
-        <v>5</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
       <c r="K115" t="n">
-        <v>42871</v>
+        <v>42862</v>
       </c>
       <c r="L115" t="n">
-        <v>2377</v>
+        <v>2386</v>
       </c>
       <c r="M115" t="n">
-        <v>426376</v>
+        <v>431727</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2020-06-23</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>156</v>
+      </c>
+      <c r="C116" t="n">
+        <v>156</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>278</v>
+      </c>
+      <c r="F116" t="n">
+        <v>277</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>43140</v>
+      </c>
+      <c r="L116" t="n">
+        <v>2386</v>
+      </c>
+      <c r="M116" t="n">
+        <v>431883</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1174,10 +1174,10 @@
         <v>871</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E19" t="n">
         <v>17</v>
@@ -2375,13 +2375,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="E47" t="n">
         <v>577</v>
@@ -2408,7 +2408,7 @@
         <v>568</v>
       </c>
       <c r="M47" t="n">
-        <v>62335</v>
+        <v>62334</v>
       </c>
     </row>
     <row r="48">
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
         <v>4001</v>
@@ -2504,22 +2504,22 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1761</v>
+        <v>1770</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D50" t="n">
         <v>1761</v>
       </c>
       <c r="E50" t="n">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H50" t="n">
         <v>28</v>
@@ -2531,13 +2531,13 @@
         <v>28</v>
       </c>
       <c r="K50" t="n">
-        <v>11147</v>
+        <v>11146</v>
       </c>
       <c r="L50" t="n">
         <v>666</v>
       </c>
       <c r="M50" t="n">
-        <v>72273</v>
+        <v>72282</v>
       </c>
     </row>
     <row r="51">
@@ -2547,10 +2547,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1106</v>
+        <v>1115</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D51" t="n">
         <v>1106</v>
@@ -2574,13 +2574,13 @@
         <v>36</v>
       </c>
       <c r="K51" t="n">
-        <v>11626</v>
+        <v>11625</v>
       </c>
       <c r="L51" t="n">
         <v>702</v>
       </c>
       <c r="M51" t="n">
-        <v>73379</v>
+        <v>73397</v>
       </c>
     </row>
     <row r="52">
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4348</v>
+        <v>4382</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D52" t="n">
         <v>4348</v>
@@ -2617,13 +2617,13 @@
         <v>38</v>
       </c>
       <c r="K52" t="n">
-        <v>12008</v>
+        <v>12007</v>
       </c>
       <c r="L52" t="n">
         <v>740</v>
       </c>
       <c r="M52" t="n">
-        <v>77727</v>
+        <v>77779</v>
       </c>
     </row>
     <row r="53">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3857</v>
+        <v>3901</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D53" t="n">
         <v>3857</v>
@@ -2660,13 +2660,13 @@
         <v>49</v>
       </c>
       <c r="K53" t="n">
-        <v>12386</v>
+        <v>12385</v>
       </c>
       <c r="L53" t="n">
         <v>789</v>
       </c>
       <c r="M53" t="n">
-        <v>81584</v>
+        <v>81680</v>
       </c>
     </row>
     <row r="54">
@@ -2676,10 +2676,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3888</v>
+        <v>3914</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D54" t="n">
         <v>3888</v>
@@ -2703,13 +2703,13 @@
         <v>50</v>
       </c>
       <c r="K54" t="n">
-        <v>12990</v>
+        <v>12989</v>
       </c>
       <c r="L54" t="n">
         <v>839</v>
       </c>
       <c r="M54" t="n">
-        <v>85472</v>
+        <v>85594</v>
       </c>
     </row>
     <row r="55">
@@ -2719,10 +2719,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4389</v>
+        <v>4444</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D55" t="n">
         <v>4389</v>
@@ -2746,13 +2746,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="n">
-        <v>13634</v>
+        <v>13633</v>
       </c>
       <c r="L55" t="n">
         <v>877</v>
       </c>
       <c r="M55" t="n">
-        <v>89861</v>
+        <v>90038</v>
       </c>
     </row>
     <row r="56">
@@ -2762,10 +2762,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3570</v>
+        <v>3631</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D56" t="n">
         <v>3570</v>
@@ -2789,13 +2789,13 @@
         <v>37</v>
       </c>
       <c r="K56" t="n">
-        <v>14332</v>
+        <v>14331</v>
       </c>
       <c r="L56" t="n">
         <v>914</v>
       </c>
       <c r="M56" t="n">
-        <v>93431</v>
+        <v>93669</v>
       </c>
     </row>
     <row r="57">
@@ -2805,13 +2805,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2308</v>
+        <v>2370</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D57" t="n">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="E57" t="n">
         <v>624</v>
@@ -2832,13 +2832,13 @@
         <v>41</v>
       </c>
       <c r="K57" t="n">
-        <v>14956</v>
+        <v>14955</v>
       </c>
       <c r="L57" t="n">
         <v>955</v>
       </c>
       <c r="M57" t="n">
-        <v>95739</v>
+        <v>96039</v>
       </c>
     </row>
     <row r="58">
@@ -2848,10 +2848,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1823</v>
+        <v>1851</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D58" t="n">
         <v>1823</v>
@@ -2875,13 +2875,13 @@
         <v>34</v>
       </c>
       <c r="K58" t="n">
-        <v>15902</v>
+        <v>15901</v>
       </c>
       <c r="L58" t="n">
         <v>989</v>
       </c>
       <c r="M58" t="n">
-        <v>97562</v>
+        <v>97890</v>
       </c>
     </row>
     <row r="59">
@@ -2891,22 +2891,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4751</v>
+        <v>4805</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D59" t="n">
         <v>4751</v>
       </c>
       <c r="E59" t="n">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H59" t="n">
         <v>42</v>
@@ -2918,13 +2918,13 @@
         <v>42</v>
       </c>
       <c r="K59" t="n">
-        <v>16517</v>
+        <v>16515</v>
       </c>
       <c r="L59" t="n">
         <v>1031</v>
       </c>
       <c r="M59" t="n">
-        <v>102313</v>
+        <v>102695</v>
       </c>
     </row>
     <row r="60">
@@ -2934,10 +2934,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>5010</v>
+        <v>5058</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D60" t="n">
         <v>5010</v>
@@ -2961,13 +2961,13 @@
         <v>34</v>
       </c>
       <c r="K60" t="n">
-        <v>17111</v>
+        <v>17109</v>
       </c>
       <c r="L60" t="n">
         <v>1065</v>
       </c>
       <c r="M60" t="n">
-        <v>107323</v>
+        <v>107753</v>
       </c>
     </row>
     <row r="61">
@@ -2977,10 +2977,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>5365</v>
+        <v>5398</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D61" t="n">
         <v>5365</v>
@@ -3004,13 +3004,13 @@
         <v>43</v>
       </c>
       <c r="K61" t="n">
-        <v>17758</v>
+        <v>17756</v>
       </c>
       <c r="L61" t="n">
         <v>1108</v>
       </c>
       <c r="M61" t="n">
-        <v>112688</v>
+        <v>113151</v>
       </c>
     </row>
     <row r="62">
@@ -3020,10 +3020,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5787</v>
+        <v>5829</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D62" t="n">
         <v>5787</v>
@@ -3047,13 +3047,13 @@
         <v>45</v>
       </c>
       <c r="K62" t="n">
-        <v>18547</v>
+        <v>18545</v>
       </c>
       <c r="L62" t="n">
         <v>1153</v>
       </c>
       <c r="M62" t="n">
-        <v>118475</v>
+        <v>118980</v>
       </c>
     </row>
     <row r="63">
@@ -3063,13 +3063,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>6693</v>
+        <v>6717</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D63" t="n">
-        <v>6693</v>
+        <v>6692</v>
       </c>
       <c r="E63" t="n">
         <v>651</v>
@@ -3090,13 +3090,13 @@
         <v>35</v>
       </c>
       <c r="K63" t="n">
-        <v>19198</v>
+        <v>19196</v>
       </c>
       <c r="L63" t="n">
         <v>1188</v>
       </c>
       <c r="M63" t="n">
-        <v>125168</v>
+        <v>125697</v>
       </c>
     </row>
     <row r="64">
@@ -3106,10 +3106,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3274</v>
+        <v>3331</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D64" t="n">
         <v>3274</v>
@@ -3133,13 +3133,13 @@
         <v>44</v>
       </c>
       <c r="K64" t="n">
-        <v>19832</v>
+        <v>19830</v>
       </c>
       <c r="L64" t="n">
         <v>1232</v>
       </c>
       <c r="M64" t="n">
-        <v>128442</v>
+        <v>129028</v>
       </c>
     </row>
     <row r="65">
@@ -3149,10 +3149,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1818</v>
+        <v>1837</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D65" t="n">
         <v>1818</v>
@@ -3176,13 +3176,13 @@
         <v>32</v>
       </c>
       <c r="K65" t="n">
-        <v>20400</v>
+        <v>20398</v>
       </c>
       <c r="L65" t="n">
         <v>1264</v>
       </c>
       <c r="M65" t="n">
-        <v>130260</v>
+        <v>130865</v>
       </c>
     </row>
     <row r="66">
@@ -3192,13 +3192,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5608</v>
+        <v>5697</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D66" t="n">
-        <v>5608</v>
+        <v>5609</v>
       </c>
       <c r="E66" t="n">
         <v>523</v>
@@ -3219,13 +3219,13 @@
         <v>38</v>
       </c>
       <c r="K66" t="n">
-        <v>20923</v>
+        <v>20921</v>
       </c>
       <c r="L66" t="n">
         <v>1302</v>
       </c>
       <c r="M66" t="n">
-        <v>135868</v>
+        <v>136562</v>
       </c>
     </row>
     <row r="67">
@@ -3235,13 +3235,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6377</v>
+        <v>6442</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D67" t="n">
-        <v>6377</v>
+        <v>6378</v>
       </c>
       <c r="E67" t="n">
         <v>831</v>
@@ -3262,13 +3262,13 @@
         <v>37</v>
       </c>
       <c r="K67" t="n">
-        <v>21754</v>
+        <v>21752</v>
       </c>
       <c r="L67" t="n">
         <v>1339</v>
       </c>
       <c r="M67" t="n">
-        <v>142245</v>
+        <v>143004</v>
       </c>
     </row>
     <row r="68">
@@ -3278,10 +3278,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5760</v>
+        <v>5818</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D68" t="n">
         <v>5760</v>
@@ -3305,13 +3305,13 @@
         <v>43</v>
       </c>
       <c r="K68" t="n">
-        <v>22375</v>
+        <v>22373</v>
       </c>
       <c r="L68" t="n">
         <v>1382</v>
       </c>
       <c r="M68" t="n">
-        <v>148005</v>
+        <v>148822</v>
       </c>
     </row>
     <row r="69">
@@ -3321,10 +3321,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6418</v>
+        <v>6471</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D69" t="n">
         <v>6418</v>
@@ -3348,13 +3348,13 @@
         <v>34</v>
       </c>
       <c r="K69" t="n">
-        <v>23010</v>
+        <v>23008</v>
       </c>
       <c r="L69" t="n">
         <v>1416</v>
       </c>
       <c r="M69" t="n">
-        <v>154423</v>
+        <v>155293</v>
       </c>
     </row>
     <row r="70">
@@ -3364,10 +3364,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6539</v>
+        <v>6558</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D70" t="n">
         <v>6539</v>
@@ -3391,13 +3391,13 @@
         <v>25</v>
       </c>
       <c r="K70" t="n">
-        <v>23597</v>
+        <v>23595</v>
       </c>
       <c r="L70" t="n">
         <v>1441</v>
       </c>
       <c r="M70" t="n">
-        <v>160962</v>
+        <v>161851</v>
       </c>
     </row>
     <row r="71">
@@ -3407,10 +3407,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3290</v>
+        <v>3347</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D71" t="n">
         <v>3290</v>
@@ -3434,13 +3434,13 @@
         <v>32</v>
       </c>
       <c r="K71" t="n">
-        <v>23984</v>
+        <v>23982</v>
       </c>
       <c r="L71" t="n">
         <v>1473</v>
       </c>
       <c r="M71" t="n">
-        <v>164252</v>
+        <v>165198</v>
       </c>
     </row>
     <row r="72">
@@ -3450,10 +3450,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1302</v>
+        <v>1319</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D72" t="n">
         <v>1302</v>
@@ -3477,13 +3477,13 @@
         <v>34</v>
       </c>
       <c r="K72" t="n">
-        <v>24445</v>
+        <v>24443</v>
       </c>
       <c r="L72" t="n">
         <v>1507</v>
       </c>
       <c r="M72" t="n">
-        <v>165554</v>
+        <v>166517</v>
       </c>
     </row>
     <row r="73">
@@ -3493,10 +3493,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>7019</v>
+        <v>7115</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D73" t="n">
         <v>7019</v>
@@ -3520,13 +3520,13 @@
         <v>41</v>
       </c>
       <c r="K73" t="n">
-        <v>24953</v>
+        <v>24951</v>
       </c>
       <c r="L73" t="n">
         <v>1548</v>
       </c>
       <c r="M73" t="n">
-        <v>172573</v>
+        <v>173632</v>
       </c>
     </row>
     <row r="74">
@@ -3536,10 +3536,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6910</v>
+        <v>6987</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D74" t="n">
         <v>6910</v>
@@ -3563,13 +3563,13 @@
         <v>38</v>
       </c>
       <c r="K74" t="n">
-        <v>25326</v>
+        <v>25324</v>
       </c>
       <c r="L74" t="n">
         <v>1586</v>
       </c>
       <c r="M74" t="n">
-        <v>179483</v>
+        <v>180619</v>
       </c>
     </row>
     <row r="75">
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>7169</v>
+        <v>7238</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D75" t="n">
         <v>7169</v>
@@ -3606,13 +3606,13 @@
         <v>27</v>
       </c>
       <c r="K75" t="n">
-        <v>25927</v>
+        <v>25925</v>
       </c>
       <c r="L75" t="n">
         <v>1613</v>
       </c>
       <c r="M75" t="n">
-        <v>186652</v>
+        <v>187857</v>
       </c>
     </row>
     <row r="76">
@@ -3622,10 +3622,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>8105</v>
+        <v>8155</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D76" t="n">
         <v>8105</v>
@@ -3649,13 +3649,13 @@
         <v>42</v>
       </c>
       <c r="K76" t="n">
-        <v>26512</v>
+        <v>26510</v>
       </c>
       <c r="L76" t="n">
         <v>1655</v>
       </c>
       <c r="M76" t="n">
-        <v>194757</v>
+        <v>196012</v>
       </c>
     </row>
     <row r="77">
@@ -3665,13 +3665,13 @@
         </is>
       </c>
       <c r="B77" t="n">
+        <v>9726</v>
+      </c>
+      <c r="C77" t="n">
+        <v>29</v>
+      </c>
+      <c r="D77" t="n">
         <v>9697</v>
-      </c>
-      <c r="C77" t="n">
-        <v>1</v>
-      </c>
-      <c r="D77" t="n">
-        <v>9696</v>
       </c>
       <c r="E77" t="n">
         <v>634</v>
@@ -3692,13 +3692,13 @@
         <v>32</v>
       </c>
       <c r="K77" t="n">
-        <v>27146</v>
+        <v>27144</v>
       </c>
       <c r="L77" t="n">
         <v>1687</v>
       </c>
       <c r="M77" t="n">
-        <v>204454</v>
+        <v>205738</v>
       </c>
     </row>
     <row r="78">
@@ -3708,10 +3708,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3104</v>
+        <v>3175</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D78" t="n">
         <v>3104</v>
@@ -3735,13 +3735,13 @@
         <v>28</v>
       </c>
       <c r="K78" t="n">
-        <v>27640</v>
+        <v>27638</v>
       </c>
       <c r="L78" t="n">
         <v>1715</v>
       </c>
       <c r="M78" t="n">
-        <v>207558</v>
+        <v>208913</v>
       </c>
     </row>
     <row r="79">
@@ -3751,10 +3751,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1884</v>
+        <v>1914</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D79" t="n">
         <v>1884</v>
@@ -3778,13 +3778,13 @@
         <v>29</v>
       </c>
       <c r="K79" t="n">
-        <v>28121</v>
+        <v>28119</v>
       </c>
       <c r="L79" t="n">
         <v>1744</v>
       </c>
       <c r="M79" t="n">
-        <v>209442</v>
+        <v>210827</v>
       </c>
     </row>
     <row r="80">
@@ -3794,13 +3794,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>8223</v>
+        <v>8315</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D80" t="n">
-        <v>8223</v>
+        <v>8227</v>
       </c>
       <c r="E80" t="n">
         <v>451</v>
@@ -3821,13 +3821,13 @@
         <v>39</v>
       </c>
       <c r="K80" t="n">
-        <v>28572</v>
+        <v>28570</v>
       </c>
       <c r="L80" t="n">
         <v>1783</v>
       </c>
       <c r="M80" t="n">
-        <v>217665</v>
+        <v>219142</v>
       </c>
     </row>
     <row r="81">
@@ -3837,13 +3837,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6977</v>
+        <v>7065</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D81" t="n">
-        <v>6977</v>
+        <v>6981</v>
       </c>
       <c r="E81" t="n">
         <v>550</v>
@@ -3864,13 +3864,13 @@
         <v>29</v>
       </c>
       <c r="K81" t="n">
-        <v>29122</v>
+        <v>29120</v>
       </c>
       <c r="L81" t="n">
         <v>1812</v>
       </c>
       <c r="M81" t="n">
-        <v>224642</v>
+        <v>226207</v>
       </c>
     </row>
     <row r="82">
@@ -3880,13 +3880,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6640</v>
+        <v>6719</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D82" t="n">
-        <v>6640</v>
+        <v>6642</v>
       </c>
       <c r="E82" t="n">
         <v>643</v>
@@ -3907,13 +3907,13 @@
         <v>29</v>
       </c>
       <c r="K82" t="n">
-        <v>29765</v>
+        <v>29763</v>
       </c>
       <c r="L82" t="n">
         <v>1841</v>
       </c>
       <c r="M82" t="n">
-        <v>231282</v>
+        <v>232926</v>
       </c>
     </row>
     <row r="83">
@@ -3923,13 +3923,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7544</v>
+        <v>7608</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D83" t="n">
-        <v>7544</v>
+        <v>7543</v>
       </c>
       <c r="E83" t="n">
         <v>459</v>
@@ -3950,13 +3950,13 @@
         <v>36</v>
       </c>
       <c r="K83" t="n">
-        <v>30224</v>
+        <v>30222</v>
       </c>
       <c r="L83" t="n">
         <v>1877</v>
       </c>
       <c r="M83" t="n">
-        <v>238826</v>
+        <v>240534</v>
       </c>
     </row>
     <row r="84">
@@ -3966,13 +3966,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>8268</v>
+        <v>8296</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D84" t="n">
-        <v>8268</v>
+        <v>8271</v>
       </c>
       <c r="E84" t="n">
         <v>488</v>
@@ -3993,13 +3993,13 @@
         <v>17</v>
       </c>
       <c r="K84" t="n">
-        <v>30712</v>
+        <v>30710</v>
       </c>
       <c r="L84" t="n">
         <v>1894</v>
       </c>
       <c r="M84" t="n">
-        <v>247094</v>
+        <v>248830</v>
       </c>
     </row>
     <row r="85">
@@ -4009,10 +4009,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2813</v>
+        <v>2835</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D85" t="n">
         <v>2813</v>
@@ -4036,13 +4036,13 @@
         <v>24</v>
       </c>
       <c r="K85" t="n">
-        <v>31185</v>
+        <v>31183</v>
       </c>
       <c r="L85" t="n">
         <v>1918</v>
       </c>
       <c r="M85" t="n">
-        <v>249907</v>
+        <v>251665</v>
       </c>
     </row>
     <row r="86">
@@ -4052,10 +4052,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1842</v>
+        <v>1862</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D86" t="n">
         <v>1842</v>
@@ -4079,13 +4079,13 @@
         <v>15</v>
       </c>
       <c r="K86" t="n">
-        <v>31523</v>
+        <v>31521</v>
       </c>
       <c r="L86" t="n">
         <v>1933</v>
       </c>
       <c r="M86" t="n">
-        <v>251749</v>
+        <v>253527</v>
       </c>
     </row>
     <row r="87">
@@ -4095,13 +4095,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1742</v>
+        <v>1810</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D87" t="n">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="E87" t="n">
         <v>358</v>
@@ -4122,13 +4122,13 @@
         <v>21</v>
       </c>
       <c r="K87" t="n">
-        <v>31881</v>
+        <v>31879</v>
       </c>
       <c r="L87" t="n">
         <v>1954</v>
       </c>
       <c r="M87" t="n">
-        <v>253491</v>
+        <v>255337</v>
       </c>
     </row>
     <row r="88">
@@ -4138,13 +4138,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>7833</v>
+        <v>7927</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D88" t="n">
-        <v>7833</v>
+        <v>7834</v>
       </c>
       <c r="E88" t="n">
         <v>348</v>
@@ -4165,13 +4165,13 @@
         <v>19</v>
       </c>
       <c r="K88" t="n">
-        <v>32229</v>
+        <v>32227</v>
       </c>
       <c r="L88" t="n">
         <v>1973</v>
       </c>
       <c r="M88" t="n">
-        <v>261324</v>
+        <v>263264</v>
       </c>
     </row>
     <row r="89">
@@ -4181,13 +4181,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>6315</v>
+        <v>6412</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D89" t="n">
-        <v>6315</v>
+        <v>6318</v>
       </c>
       <c r="E89" t="n">
         <v>597</v>
@@ -4208,13 +4208,13 @@
         <v>14</v>
       </c>
       <c r="K89" t="n">
-        <v>32826</v>
+        <v>32824</v>
       </c>
       <c r="L89" t="n">
         <v>1987</v>
       </c>
       <c r="M89" t="n">
-        <v>267639</v>
+        <v>269676</v>
       </c>
     </row>
     <row r="90">
@@ -4224,13 +4224,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>7032</v>
+        <v>7099</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D90" t="n">
-        <v>7032</v>
+        <v>7033</v>
       </c>
       <c r="E90" t="n">
         <v>478</v>
@@ -4251,13 +4251,13 @@
         <v>18</v>
       </c>
       <c r="K90" t="n">
-        <v>33304</v>
+        <v>33302</v>
       </c>
       <c r="L90" t="n">
         <v>2005</v>
       </c>
       <c r="M90" t="n">
-        <v>274671</v>
+        <v>276775</v>
       </c>
     </row>
     <row r="91">
@@ -4267,13 +4267,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>7747</v>
+        <v>7778</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D91" t="n">
-        <v>7747</v>
+        <v>7746</v>
       </c>
       <c r="E91" t="n">
         <v>559</v>
@@ -4294,13 +4294,13 @@
         <v>20</v>
       </c>
       <c r="K91" t="n">
-        <v>33863</v>
+        <v>33861</v>
       </c>
       <c r="L91" t="n">
         <v>2025</v>
       </c>
       <c r="M91" t="n">
-        <v>282418</v>
+        <v>284553</v>
       </c>
     </row>
     <row r="92">
@@ -4310,13 +4310,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2821</v>
+        <v>2887</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D92" t="n">
-        <v>2820</v>
+        <v>2822</v>
       </c>
       <c r="E92" t="n">
         <v>340</v>
@@ -4337,13 +4337,13 @@
         <v>21</v>
       </c>
       <c r="K92" t="n">
-        <v>34203</v>
+        <v>34201</v>
       </c>
       <c r="L92" t="n">
         <v>2046</v>
       </c>
       <c r="M92" t="n">
-        <v>285239</v>
+        <v>287440</v>
       </c>
     </row>
     <row r="93">
@@ -4353,13 +4353,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1798</v>
+        <v>1821</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D93" t="n">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="E93" t="n">
         <v>281</v>
@@ -4380,13 +4380,13 @@
         <v>16</v>
       </c>
       <c r="K93" t="n">
-        <v>34484</v>
+        <v>34482</v>
       </c>
       <c r="L93" t="n">
         <v>2062</v>
       </c>
       <c r="M93" t="n">
-        <v>287037</v>
+        <v>289261</v>
       </c>
     </row>
     <row r="94">
@@ -4396,13 +4396,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>8032</v>
+        <v>8122</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D94" t="n">
-        <v>8032</v>
+        <v>8031</v>
       </c>
       <c r="E94" t="n">
         <v>412</v>
@@ -4423,13 +4423,13 @@
         <v>19</v>
       </c>
       <c r="K94" t="n">
-        <v>34896</v>
+        <v>34894</v>
       </c>
       <c r="L94" t="n">
         <v>2081</v>
       </c>
       <c r="M94" t="n">
-        <v>295069</v>
+        <v>297383</v>
       </c>
     </row>
     <row r="95">
@@ -4439,13 +4439,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>5632</v>
+        <v>5722</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D95" t="n">
-        <v>5632</v>
+        <v>5634</v>
       </c>
       <c r="E95" t="n">
         <v>477</v>
@@ -4466,13 +4466,13 @@
         <v>15</v>
       </c>
       <c r="K95" t="n">
-        <v>35373</v>
+        <v>35371</v>
       </c>
       <c r="L95" t="n">
         <v>2096</v>
       </c>
       <c r="M95" t="n">
-        <v>300701</v>
+        <v>303105</v>
       </c>
     </row>
     <row r="96">
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>6670</v>
+        <v>6744</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="D96" t="n">
-        <v>6669</v>
+        <v>6672</v>
       </c>
       <c r="E96" t="n">
         <v>426</v>
@@ -4509,13 +4509,13 @@
         <v>23</v>
       </c>
       <c r="K96" t="n">
-        <v>35799</v>
+        <v>35797</v>
       </c>
       <c r="L96" t="n">
         <v>2119</v>
       </c>
       <c r="M96" t="n">
-        <v>307371</v>
+        <v>309849</v>
       </c>
     </row>
     <row r="97">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6856</v>
+        <v>6918</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D97" t="n">
-        <v>6856</v>
+        <v>6855</v>
       </c>
       <c r="E97" t="n">
         <v>501</v>
@@ -4552,13 +4552,13 @@
         <v>22</v>
       </c>
       <c r="K97" t="n">
-        <v>36300</v>
+        <v>36298</v>
       </c>
       <c r="L97" t="n">
         <v>2141</v>
       </c>
       <c r="M97" t="n">
-        <v>314227</v>
+        <v>316767</v>
       </c>
     </row>
     <row r="98">
@@ -4568,13 +4568,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>7892</v>
+        <v>7918</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D98" t="n">
-        <v>7892</v>
+        <v>7890</v>
       </c>
       <c r="E98" t="n">
         <v>420</v>
@@ -4595,13 +4595,13 @@
         <v>21</v>
       </c>
       <c r="K98" t="n">
-        <v>36720</v>
+        <v>36718</v>
       </c>
       <c r="L98" t="n">
         <v>2162</v>
       </c>
       <c r="M98" t="n">
-        <v>322119</v>
+        <v>324685</v>
       </c>
     </row>
     <row r="99">
@@ -4611,13 +4611,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3615</v>
+        <v>3698</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D99" t="n">
-        <v>3615</v>
+        <v>3616</v>
       </c>
       <c r="E99" t="n">
         <v>402</v>
@@ -4638,13 +4638,13 @@
         <v>8</v>
       </c>
       <c r="K99" t="n">
-        <v>37122</v>
+        <v>37120</v>
       </c>
       <c r="L99" t="n">
         <v>2170</v>
       </c>
       <c r="M99" t="n">
-        <v>325734</v>
+        <v>328383</v>
       </c>
     </row>
     <row r="100">
@@ -4654,13 +4654,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1953</v>
+        <v>1980</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D100" t="n">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="E100" t="n">
         <v>233</v>
@@ -4681,13 +4681,13 @@
         <v>15</v>
       </c>
       <c r="K100" t="n">
-        <v>37355</v>
+        <v>37353</v>
       </c>
       <c r="L100" t="n">
         <v>2185</v>
       </c>
       <c r="M100" t="n">
-        <v>327687</v>
+        <v>330363</v>
       </c>
     </row>
     <row r="101">
@@ -4697,13 +4697,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>9603</v>
+        <v>9674</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D101" t="n">
-        <v>9603</v>
+        <v>9601</v>
       </c>
       <c r="E101" t="n">
         <v>386</v>
@@ -4724,13 +4724,13 @@
         <v>16</v>
       </c>
       <c r="K101" t="n">
-        <v>37741</v>
+        <v>37739</v>
       </c>
       <c r="L101" t="n">
         <v>2201</v>
       </c>
       <c r="M101" t="n">
-        <v>337290</v>
+        <v>340037</v>
       </c>
     </row>
     <row r="102">
@@ -4740,13 +4740,13 @@
         </is>
       </c>
       <c r="B102" t="n">
+        <v>6504</v>
+      </c>
+      <c r="C102" t="n">
+        <v>75</v>
+      </c>
+      <c r="D102" t="n">
         <v>6429</v>
-      </c>
-      <c r="C102" t="n">
-        <v>3</v>
-      </c>
-      <c r="D102" t="n">
-        <v>6426</v>
       </c>
       <c r="E102" t="n">
         <v>306</v>
@@ -4761,19 +4761,19 @@
         <v>24</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K102" t="n">
-        <v>38047</v>
+        <v>38045</v>
       </c>
       <c r="L102" t="n">
         <v>2225</v>
       </c>
       <c r="M102" t="n">
-        <v>343719</v>
+        <v>346541</v>
       </c>
     </row>
     <row r="103">
@@ -4783,13 +4783,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>7916</v>
+        <v>7988</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="D103" t="n">
-        <v>7915</v>
+        <v>7914</v>
       </c>
       <c r="E103" t="n">
         <v>396</v>
@@ -4810,13 +4810,13 @@
         <v>17</v>
       </c>
       <c r="K103" t="n">
-        <v>38443</v>
+        <v>38441</v>
       </c>
       <c r="L103" t="n">
         <v>2242</v>
       </c>
       <c r="M103" t="n">
-        <v>351635</v>
+        <v>354529</v>
       </c>
     </row>
     <row r="104">
@@ -4826,13 +4826,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>9744</v>
+        <v>9818</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="D104" t="n">
-        <v>9743</v>
+        <v>9745</v>
       </c>
       <c r="E104" t="n">
         <v>415</v>
@@ -4853,13 +4853,13 @@
         <v>14</v>
       </c>
       <c r="K104" t="n">
-        <v>38858</v>
+        <v>38856</v>
       </c>
       <c r="L104" t="n">
         <v>2256</v>
       </c>
       <c r="M104" t="n">
-        <v>361379</v>
+        <v>364347</v>
       </c>
     </row>
     <row r="105">
@@ -4869,13 +4869,13 @@
         </is>
       </c>
       <c r="B105" t="n">
+        <v>10023</v>
+      </c>
+      <c r="C105" t="n">
+        <v>65</v>
+      </c>
+      <c r="D105" t="n">
         <v>9958</v>
-      </c>
-      <c r="C105" t="n">
-        <v>3</v>
-      </c>
-      <c r="D105" t="n">
-        <v>9955</v>
       </c>
       <c r="E105" t="n">
         <v>405</v>
@@ -4896,13 +4896,13 @@
         <v>13</v>
       </c>
       <c r="K105" t="n">
-        <v>39263</v>
+        <v>39261</v>
       </c>
       <c r="L105" t="n">
         <v>2269</v>
       </c>
       <c r="M105" t="n">
-        <v>371337</v>
+        <v>374370</v>
       </c>
     </row>
     <row r="106">
@@ -4912,13 +4912,13 @@
         </is>
       </c>
       <c r="B106" t="n">
+        <v>4914</v>
+      </c>
+      <c r="C106" t="n">
+        <v>63</v>
+      </c>
+      <c r="D106" t="n">
         <v>4851</v>
-      </c>
-      <c r="C106" t="n">
-        <v>1</v>
-      </c>
-      <c r="D106" t="n">
-        <v>4850</v>
       </c>
       <c r="E106" t="n">
         <v>389</v>
@@ -4939,13 +4939,13 @@
         <v>9</v>
       </c>
       <c r="K106" t="n">
-        <v>39652</v>
+        <v>39650</v>
       </c>
       <c r="L106" t="n">
         <v>2278</v>
       </c>
       <c r="M106" t="n">
-        <v>376188</v>
+        <v>379284</v>
       </c>
     </row>
     <row r="107">
@@ -4955,13 +4955,13 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1852</v>
+        <v>1880</v>
       </c>
       <c r="C107" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D107" t="n">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="E107" t="n">
         <v>327</v>
@@ -4982,13 +4982,13 @@
         <v>18</v>
       </c>
       <c r="K107" t="n">
-        <v>39979</v>
+        <v>39977</v>
       </c>
       <c r="L107" t="n">
         <v>2296</v>
       </c>
       <c r="M107" t="n">
-        <v>378040</v>
+        <v>381164</v>
       </c>
     </row>
     <row r="108">
@@ -4998,13 +4998,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>11248</v>
+        <v>11328</v>
       </c>
       <c r="C108" t="n">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D108" t="n">
-        <v>11179</v>
+        <v>11243</v>
       </c>
       <c r="E108" t="n">
         <v>415</v>
@@ -5025,13 +5025,13 @@
         <v>13</v>
       </c>
       <c r="K108" t="n">
-        <v>40394</v>
+        <v>40392</v>
       </c>
       <c r="L108" t="n">
         <v>2309</v>
       </c>
       <c r="M108" t="n">
-        <v>389288</v>
+        <v>392492</v>
       </c>
     </row>
     <row r="109">
@@ -5041,13 +5041,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>9587</v>
+        <v>9727</v>
       </c>
       <c r="C109" t="n">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="D109" t="n">
-        <v>9397</v>
+        <v>9581</v>
       </c>
       <c r="E109" t="n">
         <v>238</v>
@@ -5068,13 +5068,13 @@
         <v>13</v>
       </c>
       <c r="K109" t="n">
-        <v>40632</v>
+        <v>40630</v>
       </c>
       <c r="L109" t="n">
         <v>2322</v>
       </c>
       <c r="M109" t="n">
-        <v>398875</v>
+        <v>402219</v>
       </c>
     </row>
     <row r="110">
@@ -5084,40 +5084,40 @@
         </is>
       </c>
       <c r="B110" t="n">
+        <v>10055</v>
+      </c>
+      <c r="C110" t="n">
+        <v>216</v>
+      </c>
+      <c r="D110" t="n">
         <v>9839</v>
-      </c>
-      <c r="C110" t="n">
-        <v>156</v>
-      </c>
-      <c r="D110" t="n">
-        <v>9683</v>
       </c>
       <c r="E110" t="n">
         <v>550</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H110" t="n">
         <v>15</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K110" t="n">
-        <v>41182</v>
+        <v>41180</v>
       </c>
       <c r="L110" t="n">
         <v>2337</v>
       </c>
       <c r="M110" t="n">
-        <v>408714</v>
+        <v>412274</v>
       </c>
     </row>
     <row r="111">
@@ -5127,13 +5127,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>9547</v>
+        <v>9982</v>
       </c>
       <c r="C111" t="n">
-        <v>596</v>
+        <v>438</v>
       </c>
       <c r="D111" t="n">
-        <v>8951</v>
+        <v>9544</v>
       </c>
       <c r="E111" t="n">
         <v>368</v>
@@ -5145,22 +5145,22 @@
         <v>368</v>
       </c>
       <c r="H111" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="n">
         <v>19</v>
       </c>
       <c r="K111" t="n">
-        <v>41550</v>
+        <v>41548</v>
       </c>
       <c r="L111" t="n">
-        <v>2356</v>
+        <v>2358</v>
       </c>
       <c r="M111" t="n">
-        <v>418261</v>
+        <v>422256</v>
       </c>
     </row>
     <row r="112">
@@ -5170,40 +5170,40 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>8926</v>
+        <v>9948</v>
       </c>
       <c r="C112" t="n">
-        <v>1770</v>
+        <v>1028</v>
       </c>
       <c r="D112" t="n">
-        <v>7156</v>
+        <v>8920</v>
       </c>
       <c r="E112" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H112" t="n">
+        <v>8</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
         <v>7</v>
       </c>
-      <c r="I112" t="n">
-        <v>2</v>
-      </c>
-      <c r="J112" t="n">
-        <v>5</v>
-      </c>
       <c r="K112" t="n">
-        <v>41933</v>
+        <v>41930</v>
       </c>
       <c r="L112" t="n">
-        <v>2363</v>
+        <v>2366</v>
       </c>
       <c r="M112" t="n">
-        <v>427187</v>
+        <v>432204</v>
       </c>
     </row>
     <row r="113">
@@ -5213,13 +5213,13 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2834</v>
+        <v>4037</v>
       </c>
       <c r="C113" t="n">
-        <v>1344</v>
+        <v>1210</v>
       </c>
       <c r="D113" t="n">
-        <v>1490</v>
+        <v>2827</v>
       </c>
       <c r="E113" t="n">
         <v>371</v>
@@ -5231,22 +5231,22 @@
         <v>371</v>
       </c>
       <c r="H113" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K113" t="n">
-        <v>42304</v>
+        <v>42301</v>
       </c>
       <c r="L113" t="n">
-        <v>2370</v>
+        <v>2374</v>
       </c>
       <c r="M113" t="n">
-        <v>430021</v>
+        <v>436241</v>
       </c>
     </row>
     <row r="114">
@@ -5256,40 +5256,40 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>776</v>
+        <v>1527</v>
       </c>
       <c r="C114" t="n">
-        <v>397</v>
+        <v>750</v>
       </c>
       <c r="D114" t="n">
-        <v>379</v>
+        <v>777</v>
       </c>
       <c r="E114" t="n">
         <v>248</v>
       </c>
       <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>248</v>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+      <c r="I114" t="n">
         <v>1</v>
-      </c>
-      <c r="G114" t="n">
-        <v>247</v>
-      </c>
-      <c r="H114" t="n">
-        <v>7</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
       </c>
       <c r="J114" t="n">
         <v>7</v>
       </c>
       <c r="K114" t="n">
-        <v>42552</v>
+        <v>42549</v>
       </c>
       <c r="L114" t="n">
-        <v>2377</v>
+        <v>2382</v>
       </c>
       <c r="M114" t="n">
-        <v>430797</v>
+        <v>437768</v>
       </c>
     </row>
     <row r="115">
@@ -5299,19 +5299,19 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>930</v>
+        <v>5285</v>
       </c>
       <c r="C115" t="n">
-        <v>859</v>
+        <v>4363</v>
       </c>
       <c r="D115" t="n">
-        <v>71</v>
+        <v>922</v>
       </c>
       <c r="E115" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G115" t="n">
         <v>308</v>
@@ -5320,19 +5320,19 @@
         <v>9</v>
       </c>
       <c r="I115" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K115" t="n">
-        <v>42862</v>
+        <v>42858</v>
       </c>
       <c r="L115" t="n">
-        <v>2386</v>
+        <v>2391</v>
       </c>
       <c r="M115" t="n">
-        <v>431727</v>
+        <v>443053</v>
       </c>
     </row>
     <row r="116">
@@ -5342,40 +5342,83 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>156</v>
+        <v>1060</v>
       </c>
       <c r="C116" t="n">
-        <v>156</v>
+        <v>908</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="E116" t="n">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F116" t="n">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
+        <v>275</v>
+      </c>
+      <c r="H116" t="n">
         <v>1</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
       </c>
       <c r="K116" t="n">
-        <v>43140</v>
+        <v>43133</v>
       </c>
       <c r="L116" t="n">
-        <v>2386</v>
+        <v>2392</v>
       </c>
       <c r="M116" t="n">
-        <v>431883</v>
+        <v>444113</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2020-06-24</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>139</v>
+      </c>
+      <c r="C117" t="n">
+        <v>139</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>522</v>
+      </c>
+      <c r="F117" t="n">
+        <v>522</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+      <c r="I117" t="n">
+        <v>2</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>43655</v>
+      </c>
+      <c r="L117" t="n">
+        <v>2394</v>
+      </c>
+      <c r="M117" t="n">
+        <v>444252</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1257,10 +1257,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>1737</v>
@@ -1290,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>6122</v>
+        <v>6124</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1333,7 @@
         <v>14</v>
       </c>
       <c r="M22" t="n">
-        <v>6819</v>
+        <v>6821</v>
       </c>
     </row>
     <row r="23">
@@ -1376,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="M23" t="n">
-        <v>7842</v>
+        <v>7844</v>
       </c>
     </row>
     <row r="24">
@@ -1386,10 +1386,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>1453</v>
@@ -1419,7 +1419,7 @@
         <v>24</v>
       </c>
       <c r="M24" t="n">
-        <v>9295</v>
+        <v>9299</v>
       </c>
     </row>
     <row r="25">
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>1607</v>
@@ -1462,7 +1462,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="n">
-        <v>10902</v>
+        <v>10907</v>
       </c>
     </row>
     <row r="26">
@@ -1472,10 +1472,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2322</v>
+        <v>2326</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>2322</v>
@@ -1505,7 +1505,7 @@
         <v>35</v>
       </c>
       <c r="M26" t="n">
-        <v>13224</v>
+        <v>13233</v>
       </c>
     </row>
     <row r="27">
@@ -1515,10 +1515,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>2608</v>
@@ -1548,7 +1548,7 @@
         <v>44</v>
       </c>
       <c r="M27" t="n">
-        <v>15832</v>
+        <v>15842</v>
       </c>
     </row>
     <row r="28">
@@ -1558,10 +1558,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>2162</v>
@@ -1591,7 +1591,7 @@
         <v>47</v>
       </c>
       <c r="M28" t="n">
-        <v>17994</v>
+        <v>18005</v>
       </c>
     </row>
     <row r="29">
@@ -1634,7 +1634,7 @@
         <v>58</v>
       </c>
       <c r="M29" t="n">
-        <v>19272</v>
+        <v>19283</v>
       </c>
     </row>
     <row r="30">
@@ -1677,7 +1677,7 @@
         <v>76</v>
       </c>
       <c r="M30" t="n">
-        <v>20904</v>
+        <v>20915</v>
       </c>
     </row>
     <row r="31">
@@ -1720,7 +1720,7 @@
         <v>91</v>
       </c>
       <c r="M31" t="n">
-        <v>22864</v>
+        <v>22875</v>
       </c>
     </row>
     <row r="32">
@@ -1730,13 +1730,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="E32" t="n">
         <v>406</v>
@@ -1763,7 +1763,7 @@
         <v>113</v>
       </c>
       <c r="M32" t="n">
-        <v>25180</v>
+        <v>25193</v>
       </c>
     </row>
     <row r="33">
@@ -1773,10 +1773,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2540</v>
+        <v>2543</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>2540</v>
@@ -1806,7 +1806,7 @@
         <v>135</v>
       </c>
       <c r="M33" t="n">
-        <v>27720</v>
+        <v>27736</v>
       </c>
     </row>
     <row r="34">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2695</v>
+        <v>2701</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
         <v>2695</v>
@@ -1849,7 +1849,7 @@
         <v>157</v>
       </c>
       <c r="M34" t="n">
-        <v>30415</v>
+        <v>30437</v>
       </c>
     </row>
     <row r="35">
@@ -1859,10 +1859,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2800</v>
+        <v>2802</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>2800</v>
@@ -1892,7 +1892,7 @@
         <v>189</v>
       </c>
       <c r="M35" t="n">
-        <v>33215</v>
+        <v>33239</v>
       </c>
     </row>
     <row r="36">
@@ -1935,7 +1935,7 @@
         <v>214</v>
       </c>
       <c r="M36" t="n">
-        <v>34851</v>
+        <v>34875</v>
       </c>
     </row>
     <row r="37">
@@ -1978,7 +1978,7 @@
         <v>248</v>
       </c>
       <c r="M37" t="n">
-        <v>35946</v>
+        <v>35970</v>
       </c>
     </row>
     <row r="38">
@@ -1988,10 +1988,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2423</v>
+        <v>2425</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>2423</v>
@@ -2021,7 +2021,7 @@
         <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>38369</v>
+        <v>38395</v>
       </c>
     </row>
     <row r="39">
@@ -2031,10 +2031,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2781</v>
+        <v>2782</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>2781</v>
@@ -2064,7 +2064,7 @@
         <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>41150</v>
+        <v>41177</v>
       </c>
     </row>
     <row r="40">
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
         <v>3071</v>
@@ -2107,7 +2107,7 @@
         <v>338</v>
       </c>
       <c r="M40" t="n">
-        <v>44221</v>
+        <v>44249</v>
       </c>
     </row>
     <row r="41">
@@ -2150,7 +2150,7 @@
         <v>375</v>
       </c>
       <c r="M41" t="n">
-        <v>46968</v>
+        <v>46996</v>
       </c>
     </row>
     <row r="42">
@@ -2160,10 +2160,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
         <v>2727</v>
@@ -2193,7 +2193,7 @@
         <v>400</v>
       </c>
       <c r="M42" t="n">
-        <v>49695</v>
+        <v>49724</v>
       </c>
     </row>
     <row r="43">
@@ -2236,7 +2236,7 @@
         <v>420</v>
       </c>
       <c r="M43" t="n">
-        <v>51237</v>
+        <v>51266</v>
       </c>
     </row>
     <row r="44">
@@ -2279,7 +2279,7 @@
         <v>449</v>
       </c>
       <c r="M44" t="n">
-        <v>51936</v>
+        <v>51965</v>
       </c>
     </row>
     <row r="45">
@@ -2289,10 +2289,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3472</v>
+        <v>3473</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
         <v>3472</v>
@@ -2322,7 +2322,7 @@
         <v>484</v>
       </c>
       <c r="M45" t="n">
-        <v>55408</v>
+        <v>55438</v>
       </c>
     </row>
     <row r="46">
@@ -2332,13 +2332,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3627</v>
+        <v>3629</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>3627</v>
+        <v>3628</v>
       </c>
       <c r="E46" t="n">
         <v>417</v>
@@ -2365,7 +2365,7 @@
         <v>530</v>
       </c>
       <c r="M46" t="n">
-        <v>59035</v>
+        <v>59067</v>
       </c>
     </row>
     <row r="47">
@@ -2375,13 +2375,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3299</v>
+        <v>3303</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="E47" t="n">
         <v>577</v>
@@ -2408,7 +2408,7 @@
         <v>568</v>
       </c>
       <c r="M47" t="n">
-        <v>62334</v>
+        <v>62370</v>
       </c>
     </row>
     <row r="48">
@@ -2418,13 +2418,13 @@
         </is>
       </c>
       <c r="B48" t="n">
+        <v>4005</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3</v>
+      </c>
+      <c r="D48" t="n">
         <v>4002</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="n">
-        <v>4001</v>
       </c>
       <c r="E48" t="n">
         <v>599</v>
@@ -2451,7 +2451,7 @@
         <v>602</v>
       </c>
       <c r="M48" t="n">
-        <v>66336</v>
+        <v>66375</v>
       </c>
     </row>
     <row r="49">
@@ -2461,10 +2461,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4176</v>
+        <v>4180</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>4176</v>
@@ -2494,7 +2494,7 @@
         <v>638</v>
       </c>
       <c r="M49" t="n">
-        <v>70512</v>
+        <v>70555</v>
       </c>
     </row>
     <row r="50">
@@ -2507,10 +2507,10 @@
         <v>1770</v>
       </c>
       <c r="C50" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1761</v>
+        <v>1770</v>
       </c>
       <c r="E50" t="n">
         <v>556</v>
@@ -2537,7 +2537,7 @@
         <v>666</v>
       </c>
       <c r="M50" t="n">
-        <v>72282</v>
+        <v>72325</v>
       </c>
     </row>
     <row r="51">
@@ -2550,10 +2550,10 @@
         <v>1115</v>
       </c>
       <c r="C51" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>1106</v>
+        <v>1115</v>
       </c>
       <c r="E51" t="n">
         <v>479</v>
@@ -2580,7 +2580,7 @@
         <v>702</v>
       </c>
       <c r="M51" t="n">
-        <v>73397</v>
+        <v>73440</v>
       </c>
     </row>
     <row r="52">
@@ -2590,13 +2590,13 @@
         </is>
       </c>
       <c r="B52" t="n">
+        <v>4383</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
         <v>4382</v>
-      </c>
-      <c r="C52" t="n">
-        <v>34</v>
-      </c>
-      <c r="D52" t="n">
-        <v>4348</v>
       </c>
       <c r="E52" t="n">
         <v>382</v>
@@ -2623,7 +2623,7 @@
         <v>740</v>
       </c>
       <c r="M52" t="n">
-        <v>77779</v>
+        <v>77823</v>
       </c>
     </row>
     <row r="53">
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3901</v>
+        <v>3900</v>
       </c>
       <c r="C53" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>3857</v>
+        <v>3899</v>
       </c>
       <c r="E53" t="n">
         <v>378</v>
@@ -2666,7 +2666,7 @@
         <v>789</v>
       </c>
       <c r="M53" t="n">
-        <v>81680</v>
+        <v>81723</v>
       </c>
     </row>
     <row r="54">
@@ -2676,13 +2676,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3914</v>
+        <v>3915</v>
       </c>
       <c r="C54" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>3888</v>
+        <v>3913</v>
       </c>
       <c r="E54" t="n">
         <v>604</v>
@@ -2709,7 +2709,7 @@
         <v>839</v>
       </c>
       <c r="M54" t="n">
-        <v>85594</v>
+        <v>85638</v>
       </c>
     </row>
     <row r="55">
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4444</v>
+        <v>4448</v>
       </c>
       <c r="C55" t="n">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>4389</v>
+        <v>4445</v>
       </c>
       <c r="E55" t="n">
         <v>644</v>
@@ -2752,7 +2752,7 @@
         <v>877</v>
       </c>
       <c r="M55" t="n">
-        <v>90038</v>
+        <v>90086</v>
       </c>
     </row>
     <row r="56">
@@ -2762,13 +2762,13 @@
         </is>
       </c>
       <c r="B56" t="n">
+        <v>3635</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4</v>
+      </c>
+      <c r="D56" t="n">
         <v>3631</v>
-      </c>
-      <c r="C56" t="n">
-        <v>61</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3570</v>
       </c>
       <c r="E56" t="n">
         <v>698</v>
@@ -2795,7 +2795,7 @@
         <v>914</v>
       </c>
       <c r="M56" t="n">
-        <v>93669</v>
+        <v>93721</v>
       </c>
     </row>
     <row r="57">
@@ -2808,10 +2808,10 @@
         <v>2370</v>
       </c>
       <c r="C57" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>2307</v>
+        <v>2370</v>
       </c>
       <c r="E57" t="n">
         <v>624</v>
@@ -2838,7 +2838,7 @@
         <v>955</v>
       </c>
       <c r="M57" t="n">
-        <v>96039</v>
+        <v>96091</v>
       </c>
     </row>
     <row r="58">
@@ -2851,10 +2851,10 @@
         <v>1851</v>
       </c>
       <c r="C58" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1823</v>
+        <v>1851</v>
       </c>
       <c r="E58" t="n">
         <v>946</v>
@@ -2881,7 +2881,7 @@
         <v>989</v>
       </c>
       <c r="M58" t="n">
-        <v>97890</v>
+        <v>97942</v>
       </c>
     </row>
     <row r="59">
@@ -2891,13 +2891,13 @@
         </is>
       </c>
       <c r="B59" t="n">
+        <v>4806</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
         <v>4805</v>
-      </c>
-      <c r="C59" t="n">
-        <v>54</v>
-      </c>
-      <c r="D59" t="n">
-        <v>4751</v>
       </c>
       <c r="E59" t="n">
         <v>614</v>
@@ -2924,7 +2924,7 @@
         <v>1031</v>
       </c>
       <c r="M59" t="n">
-        <v>102695</v>
+        <v>102748</v>
       </c>
     </row>
     <row r="60">
@@ -2937,10 +2937,10 @@
         <v>5058</v>
       </c>
       <c r="C60" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>5010</v>
+        <v>5058</v>
       </c>
       <c r="E60" t="n">
         <v>594</v>
@@ -2967,7 +2967,7 @@
         <v>1065</v>
       </c>
       <c r="M60" t="n">
-        <v>107753</v>
+        <v>107806</v>
       </c>
     </row>
     <row r="61">
@@ -2980,10 +2980,10 @@
         <v>5398</v>
       </c>
       <c r="C61" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>5365</v>
+        <v>5398</v>
       </c>
       <c r="E61" t="n">
         <v>647</v>
@@ -3010,7 +3010,7 @@
         <v>1108</v>
       </c>
       <c r="M61" t="n">
-        <v>113151</v>
+        <v>113204</v>
       </c>
     </row>
     <row r="62">
@@ -3020,13 +3020,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>5829</v>
+        <v>5828</v>
       </c>
       <c r="C62" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>5787</v>
+        <v>5827</v>
       </c>
       <c r="E62" t="n">
         <v>789</v>
@@ -3053,7 +3053,7 @@
         <v>1153</v>
       </c>
       <c r="M62" t="n">
-        <v>118980</v>
+        <v>119032</v>
       </c>
     </row>
     <row r="63">
@@ -3063,13 +3063,13 @@
         </is>
       </c>
       <c r="B63" t="n">
+        <v>6719</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" t="n">
         <v>6717</v>
-      </c>
-      <c r="C63" t="n">
-        <v>25</v>
-      </c>
-      <c r="D63" t="n">
-        <v>6692</v>
       </c>
       <c r="E63" t="n">
         <v>651</v>
@@ -3096,7 +3096,7 @@
         <v>1188</v>
       </c>
       <c r="M63" t="n">
-        <v>125697</v>
+        <v>125751</v>
       </c>
     </row>
     <row r="64">
@@ -3109,10 +3109,10 @@
         <v>3331</v>
       </c>
       <c r="C64" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>3274</v>
+        <v>3331</v>
       </c>
       <c r="E64" t="n">
         <v>634</v>
@@ -3139,7 +3139,7 @@
         <v>1232</v>
       </c>
       <c r="M64" t="n">
-        <v>129028</v>
+        <v>129082</v>
       </c>
     </row>
     <row r="65">
@@ -3152,10 +3152,10 @@
         <v>1837</v>
       </c>
       <c r="C65" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>1818</v>
+        <v>1836</v>
       </c>
       <c r="E65" t="n">
         <v>568</v>
@@ -3182,7 +3182,7 @@
         <v>1264</v>
       </c>
       <c r="M65" t="n">
-        <v>130865</v>
+        <v>130919</v>
       </c>
     </row>
     <row r="66">
@@ -3192,13 +3192,13 @@
         </is>
       </c>
       <c r="B66" t="n">
+        <v>5700</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3</v>
+      </c>
+      <c r="D66" t="n">
         <v>5697</v>
-      </c>
-      <c r="C66" t="n">
-        <v>88</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5609</v>
       </c>
       <c r="E66" t="n">
         <v>523</v>
@@ -3225,7 +3225,7 @@
         <v>1302</v>
       </c>
       <c r="M66" t="n">
-        <v>136562</v>
+        <v>136619</v>
       </c>
     </row>
     <row r="67">
@@ -3235,13 +3235,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6442</v>
+        <v>6441</v>
       </c>
       <c r="C67" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>6378</v>
+        <v>6441</v>
       </c>
       <c r="E67" t="n">
         <v>831</v>
@@ -3268,7 +3268,7 @@
         <v>1339</v>
       </c>
       <c r="M67" t="n">
-        <v>143004</v>
+        <v>143060</v>
       </c>
     </row>
     <row r="68">
@@ -3278,13 +3278,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5818</v>
+        <v>5837</v>
       </c>
       <c r="C68" t="n">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D68" t="n">
-        <v>5760</v>
+        <v>5821</v>
       </c>
       <c r="E68" t="n">
         <v>621</v>
@@ -3311,7 +3311,7 @@
         <v>1382</v>
       </c>
       <c r="M68" t="n">
-        <v>148822</v>
+        <v>148897</v>
       </c>
     </row>
     <row r="69">
@@ -3321,13 +3321,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6471</v>
+        <v>6489</v>
       </c>
       <c r="C69" t="n">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D69" t="n">
-        <v>6418</v>
+        <v>6473</v>
       </c>
       <c r="E69" t="n">
         <v>635</v>
@@ -3354,7 +3354,7 @@
         <v>1416</v>
       </c>
       <c r="M69" t="n">
-        <v>155293</v>
+        <v>155386</v>
       </c>
     </row>
     <row r="70">
@@ -3364,13 +3364,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6558</v>
+        <v>6575</v>
       </c>
       <c r="C70" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D70" t="n">
-        <v>6539</v>
+        <v>6559</v>
       </c>
       <c r="E70" t="n">
         <v>587</v>
@@ -3397,7 +3397,7 @@
         <v>1441</v>
       </c>
       <c r="M70" t="n">
-        <v>161851</v>
+        <v>161961</v>
       </c>
     </row>
     <row r="71">
@@ -3410,10 +3410,10 @@
         <v>3347</v>
       </c>
       <c r="C71" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>3290</v>
+        <v>3347</v>
       </c>
       <c r="E71" t="n">
         <v>387</v>
@@ -3440,7 +3440,7 @@
         <v>1473</v>
       </c>
       <c r="M71" t="n">
-        <v>165198</v>
+        <v>165308</v>
       </c>
     </row>
     <row r="72">
@@ -3450,13 +3450,13 @@
         </is>
       </c>
       <c r="B72" t="n">
+        <v>1321</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" t="n">
         <v>1319</v>
-      </c>
-      <c r="C72" t="n">
-        <v>17</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1302</v>
       </c>
       <c r="E72" t="n">
         <v>461</v>
@@ -3483,7 +3483,7 @@
         <v>1507</v>
       </c>
       <c r="M72" t="n">
-        <v>166517</v>
+        <v>166629</v>
       </c>
     </row>
     <row r="73">
@@ -3493,13 +3493,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>7115</v>
+        <v>7166</v>
       </c>
       <c r="C73" t="n">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="D73" t="n">
-        <v>7019</v>
+        <v>7118</v>
       </c>
       <c r="E73" t="n">
         <v>508</v>
@@ -3526,7 +3526,7 @@
         <v>1548</v>
       </c>
       <c r="M73" t="n">
-        <v>173632</v>
+        <v>173795</v>
       </c>
     </row>
     <row r="74">
@@ -3536,13 +3536,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>6987</v>
+        <v>7047</v>
       </c>
       <c r="C74" t="n">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D74" t="n">
-        <v>6910</v>
+        <v>6983</v>
       </c>
       <c r="E74" t="n">
         <v>373</v>
@@ -3569,7 +3569,7 @@
         <v>1586</v>
       </c>
       <c r="M74" t="n">
-        <v>180619</v>
+        <v>180842</v>
       </c>
     </row>
     <row r="75">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>7238</v>
+        <v>7324</v>
       </c>
       <c r="C75" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D75" t="n">
-        <v>7169</v>
+        <v>7241</v>
       </c>
       <c r="E75" t="n">
         <v>601</v>
@@ -3612,7 +3612,7 @@
         <v>1613</v>
       </c>
       <c r="M75" t="n">
-        <v>187857</v>
+        <v>188166</v>
       </c>
     </row>
     <row r="76">
@@ -3622,13 +3622,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>8155</v>
+        <v>8210</v>
       </c>
       <c r="C76" t="n">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D76" t="n">
-        <v>8105</v>
+        <v>8147</v>
       </c>
       <c r="E76" t="n">
         <v>585</v>
@@ -3655,7 +3655,7 @@
         <v>1655</v>
       </c>
       <c r="M76" t="n">
-        <v>196012</v>
+        <v>196376</v>
       </c>
     </row>
     <row r="77">
@@ -3665,22 +3665,22 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>9726</v>
+        <v>9804</v>
       </c>
       <c r="C77" t="n">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="D77" t="n">
-        <v>9697</v>
+        <v>9718</v>
       </c>
       <c r="E77" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H77" t="n">
         <v>32</v>
@@ -3692,13 +3692,13 @@
         <v>32</v>
       </c>
       <c r="K77" t="n">
-        <v>27144</v>
+        <v>27143</v>
       </c>
       <c r="L77" t="n">
         <v>1687</v>
       </c>
       <c r="M77" t="n">
-        <v>205738</v>
+        <v>206180</v>
       </c>
     </row>
     <row r="78">
@@ -3708,13 +3708,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3175</v>
+        <v>3194</v>
       </c>
       <c r="C78" t="n">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D78" t="n">
-        <v>3104</v>
+        <v>3174</v>
       </c>
       <c r="E78" t="n">
         <v>494</v>
@@ -3735,13 +3735,13 @@
         <v>28</v>
       </c>
       <c r="K78" t="n">
-        <v>27638</v>
+        <v>27637</v>
       </c>
       <c r="L78" t="n">
         <v>1715</v>
       </c>
       <c r="M78" t="n">
-        <v>208913</v>
+        <v>209374</v>
       </c>
     </row>
     <row r="79">
@@ -3751,13 +3751,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1914</v>
+        <v>1925</v>
       </c>
       <c r="C79" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D79" t="n">
-        <v>1884</v>
+        <v>1915</v>
       </c>
       <c r="E79" t="n">
         <v>481</v>
@@ -3778,13 +3778,13 @@
         <v>29</v>
       </c>
       <c r="K79" t="n">
-        <v>28119</v>
+        <v>28118</v>
       </c>
       <c r="L79" t="n">
         <v>1744</v>
       </c>
       <c r="M79" t="n">
-        <v>210827</v>
+        <v>211299</v>
       </c>
     </row>
     <row r="80">
@@ -3794,13 +3794,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>8315</v>
+        <v>8385</v>
       </c>
       <c r="C80" t="n">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="D80" t="n">
-        <v>8227</v>
+        <v>8322</v>
       </c>
       <c r="E80" t="n">
         <v>451</v>
@@ -3821,13 +3821,13 @@
         <v>39</v>
       </c>
       <c r="K80" t="n">
-        <v>28570</v>
+        <v>28569</v>
       </c>
       <c r="L80" t="n">
         <v>1783</v>
       </c>
       <c r="M80" t="n">
-        <v>219142</v>
+        <v>219684</v>
       </c>
     </row>
     <row r="81">
@@ -3837,13 +3837,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>7065</v>
+        <v>7141</v>
       </c>
       <c r="C81" t="n">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D81" t="n">
-        <v>6981</v>
+        <v>7072</v>
       </c>
       <c r="E81" t="n">
         <v>550</v>
@@ -3864,13 +3864,13 @@
         <v>29</v>
       </c>
       <c r="K81" t="n">
-        <v>29120</v>
+        <v>29119</v>
       </c>
       <c r="L81" t="n">
         <v>1812</v>
       </c>
       <c r="M81" t="n">
-        <v>226207</v>
+        <v>226825</v>
       </c>
     </row>
     <row r="82">
@@ -3880,13 +3880,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>6719</v>
+        <v>6793</v>
       </c>
       <c r="C82" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D82" t="n">
-        <v>6642</v>
+        <v>6723</v>
       </c>
       <c r="E82" t="n">
         <v>643</v>
@@ -3907,13 +3907,13 @@
         <v>29</v>
       </c>
       <c r="K82" t="n">
-        <v>29763</v>
+        <v>29762</v>
       </c>
       <c r="L82" t="n">
         <v>1841</v>
       </c>
       <c r="M82" t="n">
-        <v>232926</v>
+        <v>233618</v>
       </c>
     </row>
     <row r="83">
@@ -3923,13 +3923,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7608</v>
+        <v>7700</v>
       </c>
       <c r="C83" t="n">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="D83" t="n">
-        <v>7543</v>
+        <v>7598</v>
       </c>
       <c r="E83" t="n">
         <v>459</v>
@@ -3950,13 +3950,13 @@
         <v>36</v>
       </c>
       <c r="K83" t="n">
-        <v>30222</v>
+        <v>30221</v>
       </c>
       <c r="L83" t="n">
         <v>1877</v>
       </c>
       <c r="M83" t="n">
-        <v>240534</v>
+        <v>241318</v>
       </c>
     </row>
     <row r="84">
@@ -3966,13 +3966,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>8296</v>
+        <v>8341</v>
       </c>
       <c r="C84" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D84" t="n">
-        <v>8271</v>
+        <v>8293</v>
       </c>
       <c r="E84" t="n">
         <v>488</v>
@@ -3993,13 +3993,13 @@
         <v>17</v>
       </c>
       <c r="K84" t="n">
-        <v>30710</v>
+        <v>30709</v>
       </c>
       <c r="L84" t="n">
         <v>1894</v>
       </c>
       <c r="M84" t="n">
-        <v>248830</v>
+        <v>249659</v>
       </c>
     </row>
     <row r="85">
@@ -4009,13 +4009,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2835</v>
+        <v>2851</v>
       </c>
       <c r="C85" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D85" t="n">
-        <v>2813</v>
+        <v>2830</v>
       </c>
       <c r="E85" t="n">
         <v>473</v>
@@ -4036,13 +4036,13 @@
         <v>24</v>
       </c>
       <c r="K85" t="n">
-        <v>31183</v>
+        <v>31182</v>
       </c>
       <c r="L85" t="n">
         <v>1918</v>
       </c>
       <c r="M85" t="n">
-        <v>251665</v>
+        <v>252510</v>
       </c>
     </row>
     <row r="86">
@@ -4052,13 +4052,13 @@
         </is>
       </c>
       <c r="B86" t="n">
+        <v>1871</v>
+      </c>
+      <c r="C86" t="n">
+        <v>9</v>
+      </c>
+      <c r="D86" t="n">
         <v>1862</v>
-      </c>
-      <c r="C86" t="n">
-        <v>20</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1842</v>
       </c>
       <c r="E86" t="n">
         <v>338</v>
@@ -4079,13 +4079,13 @@
         <v>15</v>
       </c>
       <c r="K86" t="n">
-        <v>31521</v>
+        <v>31520</v>
       </c>
       <c r="L86" t="n">
         <v>1933</v>
       </c>
       <c r="M86" t="n">
-        <v>253527</v>
+        <v>254381</v>
       </c>
     </row>
     <row r="87">
@@ -4095,13 +4095,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1810</v>
+        <v>1821</v>
       </c>
       <c r="C87" t="n">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D87" t="n">
-        <v>1741</v>
+        <v>1812</v>
       </c>
       <c r="E87" t="n">
         <v>358</v>
@@ -4122,13 +4122,13 @@
         <v>21</v>
       </c>
       <c r="K87" t="n">
-        <v>31879</v>
+        <v>31878</v>
       </c>
       <c r="L87" t="n">
         <v>1954</v>
       </c>
       <c r="M87" t="n">
-        <v>255337</v>
+        <v>256202</v>
       </c>
     </row>
     <row r="88">
@@ -4138,13 +4138,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>7927</v>
+        <v>7991</v>
       </c>
       <c r="C88" t="n">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D88" t="n">
-        <v>7834</v>
+        <v>7922</v>
       </c>
       <c r="E88" t="n">
         <v>348</v>
@@ -4165,13 +4165,13 @@
         <v>19</v>
       </c>
       <c r="K88" t="n">
-        <v>32227</v>
+        <v>32226</v>
       </c>
       <c r="L88" t="n">
         <v>1973</v>
       </c>
       <c r="M88" t="n">
-        <v>263264</v>
+        <v>264193</v>
       </c>
     </row>
     <row r="89">
@@ -4181,13 +4181,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>6412</v>
+        <v>6499</v>
       </c>
       <c r="C89" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D89" t="n">
-        <v>6318</v>
+        <v>6411</v>
       </c>
       <c r="E89" t="n">
         <v>597</v>
@@ -4208,13 +4208,13 @@
         <v>14</v>
       </c>
       <c r="K89" t="n">
-        <v>32824</v>
+        <v>32823</v>
       </c>
       <c r="L89" t="n">
         <v>1987</v>
       </c>
       <c r="M89" t="n">
-        <v>269676</v>
+        <v>270692</v>
       </c>
     </row>
     <row r="90">
@@ -4224,13 +4224,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>7099</v>
+        <v>7156</v>
       </c>
       <c r="C90" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D90" t="n">
-        <v>7033</v>
+        <v>7097</v>
       </c>
       <c r="E90" t="n">
         <v>478</v>
@@ -4251,13 +4251,13 @@
         <v>18</v>
       </c>
       <c r="K90" t="n">
-        <v>33302</v>
+        <v>33301</v>
       </c>
       <c r="L90" t="n">
         <v>2005</v>
       </c>
       <c r="M90" t="n">
-        <v>276775</v>
+        <v>277848</v>
       </c>
     </row>
     <row r="91">
@@ -4267,13 +4267,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>7778</v>
+        <v>7814</v>
       </c>
       <c r="C91" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D91" t="n">
-        <v>7746</v>
+        <v>7773</v>
       </c>
       <c r="E91" t="n">
         <v>559</v>
@@ -4294,13 +4294,13 @@
         <v>20</v>
       </c>
       <c r="K91" t="n">
-        <v>33861</v>
+        <v>33860</v>
       </c>
       <c r="L91" t="n">
         <v>2025</v>
       </c>
       <c r="M91" t="n">
-        <v>284553</v>
+        <v>285662</v>
       </c>
     </row>
     <row r="92">
@@ -4310,13 +4310,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2887</v>
+        <v>2896</v>
       </c>
       <c r="C92" t="n">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="D92" t="n">
-        <v>2822</v>
+        <v>2886</v>
       </c>
       <c r="E92" t="n">
         <v>340</v>
@@ -4337,13 +4337,13 @@
         <v>21</v>
       </c>
       <c r="K92" t="n">
-        <v>34201</v>
+        <v>34200</v>
       </c>
       <c r="L92" t="n">
         <v>2046</v>
       </c>
       <c r="M92" t="n">
-        <v>287440</v>
+        <v>288558</v>
       </c>
     </row>
     <row r="93">
@@ -4353,13 +4353,13 @@
         </is>
       </c>
       <c r="B93" t="n">
+        <v>1822</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
         <v>1821</v>
-      </c>
-      <c r="C93" t="n">
-        <v>24</v>
-      </c>
-      <c r="D93" t="n">
-        <v>1797</v>
       </c>
       <c r="E93" t="n">
         <v>281</v>
@@ -4380,13 +4380,13 @@
         <v>16</v>
       </c>
       <c r="K93" t="n">
-        <v>34482</v>
+        <v>34481</v>
       </c>
       <c r="L93" t="n">
         <v>2062</v>
       </c>
       <c r="M93" t="n">
-        <v>289261</v>
+        <v>290380</v>
       </c>
     </row>
     <row r="94">
@@ -4396,13 +4396,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>8122</v>
+        <v>8121</v>
       </c>
       <c r="C94" t="n">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>8031</v>
+        <v>8115</v>
       </c>
       <c r="E94" t="n">
         <v>412</v>
@@ -4414,22 +4414,22 @@
         <v>412</v>
       </c>
       <c r="H94" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
         <v>19</v>
       </c>
       <c r="K94" t="n">
-        <v>34894</v>
+        <v>34893</v>
       </c>
       <c r="L94" t="n">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="M94" t="n">
-        <v>297383</v>
+        <v>298501</v>
       </c>
     </row>
     <row r="95">
@@ -4439,13 +4439,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>5722</v>
+        <v>5718</v>
       </c>
       <c r="C95" t="n">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>5634</v>
+        <v>5717</v>
       </c>
       <c r="E95" t="n">
         <v>477</v>
@@ -4466,13 +4466,13 @@
         <v>15</v>
       </c>
       <c r="K95" t="n">
-        <v>35371</v>
+        <v>35370</v>
       </c>
       <c r="L95" t="n">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="M95" t="n">
-        <v>303105</v>
+        <v>304219</v>
       </c>
     </row>
     <row r="96">
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>6744</v>
+        <v>6743</v>
       </c>
       <c r="C96" t="n">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>6672</v>
+        <v>6738</v>
       </c>
       <c r="E96" t="n">
         <v>426</v>
@@ -4509,13 +4509,13 @@
         <v>23</v>
       </c>
       <c r="K96" t="n">
-        <v>35797</v>
+        <v>35796</v>
       </c>
       <c r="L96" t="n">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="M96" t="n">
-        <v>309849</v>
+        <v>310962</v>
       </c>
     </row>
     <row r="97">
@@ -4525,13 +4525,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6918</v>
+        <v>6915</v>
       </c>
       <c r="C97" t="n">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>6855</v>
+        <v>6911</v>
       </c>
       <c r="E97" t="n">
         <v>501</v>
@@ -4552,13 +4552,13 @@
         <v>22</v>
       </c>
       <c r="K97" t="n">
-        <v>36298</v>
+        <v>36297</v>
       </c>
       <c r="L97" t="n">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="M97" t="n">
-        <v>316767</v>
+        <v>317877</v>
       </c>
     </row>
     <row r="98">
@@ -4568,13 +4568,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>7918</v>
+        <v>7913</v>
       </c>
       <c r="C98" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>7890</v>
+        <v>7912</v>
       </c>
       <c r="E98" t="n">
         <v>420</v>
@@ -4595,13 +4595,13 @@
         <v>21</v>
       </c>
       <c r="K98" t="n">
-        <v>36718</v>
+        <v>36717</v>
       </c>
       <c r="L98" t="n">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="M98" t="n">
-        <v>324685</v>
+        <v>325790</v>
       </c>
     </row>
     <row r="99">
@@ -4611,13 +4611,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3698</v>
+        <v>3697</v>
       </c>
       <c r="C99" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>3616</v>
+        <v>3697</v>
       </c>
       <c r="E99" t="n">
         <v>402</v>
@@ -4638,13 +4638,13 @@
         <v>8</v>
       </c>
       <c r="K99" t="n">
-        <v>37120</v>
+        <v>37119</v>
       </c>
       <c r="L99" t="n">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="M99" t="n">
-        <v>328383</v>
+        <v>329487</v>
       </c>
     </row>
     <row r="100">
@@ -4654,13 +4654,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="C100" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>1954</v>
+        <v>1979</v>
       </c>
       <c r="E100" t="n">
         <v>233</v>
@@ -4681,13 +4681,13 @@
         <v>15</v>
       </c>
       <c r="K100" t="n">
-        <v>37353</v>
+        <v>37352</v>
       </c>
       <c r="L100" t="n">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="M100" t="n">
-        <v>330363</v>
+        <v>331466</v>
       </c>
     </row>
     <row r="101">
@@ -4697,13 +4697,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>9674</v>
+        <v>9673</v>
       </c>
       <c r="C101" t="n">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>9601</v>
+        <v>9671</v>
       </c>
       <c r="E101" t="n">
         <v>386</v>
@@ -4724,13 +4724,13 @@
         <v>16</v>
       </c>
       <c r="K101" t="n">
-        <v>37739</v>
+        <v>37738</v>
       </c>
       <c r="L101" t="n">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="M101" t="n">
-        <v>340037</v>
+        <v>341139</v>
       </c>
     </row>
     <row r="102">
@@ -4740,13 +4740,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>6504</v>
+        <v>6501</v>
       </c>
       <c r="C102" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>6429</v>
+        <v>6501</v>
       </c>
       <c r="E102" t="n">
         <v>306</v>
@@ -4767,13 +4767,13 @@
         <v>24</v>
       </c>
       <c r="K102" t="n">
-        <v>38045</v>
+        <v>38044</v>
       </c>
       <c r="L102" t="n">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="M102" t="n">
-        <v>346541</v>
+        <v>347640</v>
       </c>
     </row>
     <row r="103">
@@ -4783,13 +4783,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>7988</v>
+        <v>7987</v>
       </c>
       <c r="C103" t="n">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="D103" t="n">
-        <v>7914</v>
+        <v>7984</v>
       </c>
       <c r="E103" t="n">
         <v>396</v>
@@ -4810,13 +4810,13 @@
         <v>17</v>
       </c>
       <c r="K103" t="n">
-        <v>38441</v>
+        <v>38440</v>
       </c>
       <c r="L103" t="n">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="M103" t="n">
-        <v>354529</v>
+        <v>355627</v>
       </c>
     </row>
     <row r="104">
@@ -4826,22 +4826,22 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>9818</v>
+        <v>9821</v>
       </c>
       <c r="C104" t="n">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D104" t="n">
-        <v>9745</v>
+        <v>9809</v>
       </c>
       <c r="E104" t="n">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H104" t="n">
         <v>14</v>
@@ -4853,13 +4853,13 @@
         <v>14</v>
       </c>
       <c r="K104" t="n">
-        <v>38856</v>
+        <v>38854</v>
       </c>
       <c r="L104" t="n">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="M104" t="n">
-        <v>364347</v>
+        <v>365448</v>
       </c>
     </row>
     <row r="105">
@@ -4869,13 +4869,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>10023</v>
+        <v>10020</v>
       </c>
       <c r="C105" t="n">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="D105" t="n">
-        <v>9958</v>
+        <v>10017</v>
       </c>
       <c r="E105" t="n">
         <v>405</v>
@@ -4896,13 +4896,13 @@
         <v>13</v>
       </c>
       <c r="K105" t="n">
-        <v>39261</v>
+        <v>39259</v>
       </c>
       <c r="L105" t="n">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="M105" t="n">
-        <v>374370</v>
+        <v>375468</v>
       </c>
     </row>
     <row r="106">
@@ -4912,13 +4912,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>4914</v>
+        <v>4915</v>
       </c>
       <c r="C106" t="n">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="D106" t="n">
-        <v>4851</v>
+        <v>4912</v>
       </c>
       <c r="E106" t="n">
         <v>389</v>
@@ -4939,13 +4939,13 @@
         <v>9</v>
       </c>
       <c r="K106" t="n">
-        <v>39650</v>
+        <v>39648</v>
       </c>
       <c r="L106" t="n">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="M106" t="n">
-        <v>379284</v>
+        <v>380383</v>
       </c>
     </row>
     <row r="107">
@@ -4955,13 +4955,13 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="C107" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>1851</v>
+        <v>1878</v>
       </c>
       <c r="E107" t="n">
         <v>327</v>
@@ -4982,13 +4982,13 @@
         <v>18</v>
       </c>
       <c r="K107" t="n">
-        <v>39977</v>
+        <v>39975</v>
       </c>
       <c r="L107" t="n">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="M107" t="n">
-        <v>381164</v>
+        <v>382262</v>
       </c>
     </row>
     <row r="108">
@@ -4998,13 +4998,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>11328</v>
+        <v>11321</v>
       </c>
       <c r="C108" t="n">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="D108" t="n">
-        <v>11243</v>
+        <v>11308</v>
       </c>
       <c r="E108" t="n">
         <v>415</v>
@@ -5025,13 +5025,13 @@
         <v>13</v>
       </c>
       <c r="K108" t="n">
-        <v>40392</v>
+        <v>40390</v>
       </c>
       <c r="L108" t="n">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="M108" t="n">
-        <v>392492</v>
+        <v>393583</v>
       </c>
     </row>
     <row r="109">
@@ -5041,13 +5041,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>9727</v>
+        <v>9736</v>
       </c>
       <c r="C109" t="n">
-        <v>146</v>
+        <v>29</v>
       </c>
       <c r="D109" t="n">
-        <v>9581</v>
+        <v>9707</v>
       </c>
       <c r="E109" t="n">
         <v>238</v>
@@ -5068,13 +5068,13 @@
         <v>13</v>
       </c>
       <c r="K109" t="n">
-        <v>40630</v>
+        <v>40628</v>
       </c>
       <c r="L109" t="n">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="M109" t="n">
-        <v>402219</v>
+        <v>403319</v>
       </c>
     </row>
     <row r="110">
@@ -5084,13 +5084,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>10055</v>
+        <v>10064</v>
       </c>
       <c r="C110" t="n">
-        <v>216</v>
+        <v>23</v>
       </c>
       <c r="D110" t="n">
-        <v>9839</v>
+        <v>10041</v>
       </c>
       <c r="E110" t="n">
         <v>550</v>
@@ -5111,13 +5111,13 @@
         <v>15</v>
       </c>
       <c r="K110" t="n">
-        <v>41180</v>
+        <v>41178</v>
       </c>
       <c r="L110" t="n">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="M110" t="n">
-        <v>412274</v>
+        <v>413383</v>
       </c>
     </row>
     <row r="111">
@@ -5127,13 +5127,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>9982</v>
+        <v>10038</v>
       </c>
       <c r="C111" t="n">
-        <v>438</v>
+        <v>78</v>
       </c>
       <c r="D111" t="n">
-        <v>9544</v>
+        <v>9960</v>
       </c>
       <c r="E111" t="n">
         <v>368</v>
@@ -5148,19 +5148,19 @@
         <v>21</v>
       </c>
       <c r="I111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K111" t="n">
-        <v>41548</v>
+        <v>41546</v>
       </c>
       <c r="L111" t="n">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="M111" t="n">
-        <v>422256</v>
+        <v>423421</v>
       </c>
     </row>
     <row r="112">
@@ -5170,13 +5170,13 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>9948</v>
+        <v>10076</v>
       </c>
       <c r="C112" t="n">
-        <v>1028</v>
+        <v>144</v>
       </c>
       <c r="D112" t="n">
-        <v>8920</v>
+        <v>9932</v>
       </c>
       <c r="E112" t="n">
         <v>382</v>
@@ -5191,19 +5191,19 @@
         <v>8</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K112" t="n">
-        <v>41930</v>
+        <v>41928</v>
       </c>
       <c r="L112" t="n">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="M112" t="n">
-        <v>432204</v>
+        <v>433497</v>
       </c>
     </row>
     <row r="113">
@@ -5213,13 +5213,13 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>4037</v>
+        <v>4231</v>
       </c>
       <c r="C113" t="n">
-        <v>1210</v>
+        <v>202</v>
       </c>
       <c r="D113" t="n">
-        <v>2827</v>
+        <v>4029</v>
       </c>
       <c r="E113" t="n">
         <v>371</v>
@@ -5234,19 +5234,19 @@
         <v>8</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K113" t="n">
-        <v>42301</v>
+        <v>42299</v>
       </c>
       <c r="L113" t="n">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="M113" t="n">
-        <v>436241</v>
+        <v>437728</v>
       </c>
     </row>
     <row r="114">
@@ -5256,13 +5256,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1527</v>
+        <v>1609</v>
       </c>
       <c r="C114" t="n">
-        <v>750</v>
+        <v>87</v>
       </c>
       <c r="D114" t="n">
-        <v>777</v>
+        <v>1522</v>
       </c>
       <c r="E114" t="n">
         <v>248</v>
@@ -5277,19 +5277,19 @@
         <v>8</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K114" t="n">
-        <v>42549</v>
+        <v>42547</v>
       </c>
       <c r="L114" t="n">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="M114" t="n">
-        <v>437768</v>
+        <v>439337</v>
       </c>
     </row>
     <row r="115">
@@ -5299,40 +5299,40 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>5285</v>
+        <v>8766</v>
       </c>
       <c r="C115" t="n">
-        <v>4363</v>
+        <v>3498</v>
       </c>
       <c r="D115" t="n">
-        <v>922</v>
+        <v>5268</v>
       </c>
       <c r="E115" t="n">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F115" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G115" t="n">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H115" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K115" t="n">
-        <v>42858</v>
+        <v>42852</v>
       </c>
       <c r="L115" t="n">
-        <v>2391</v>
+        <v>2393</v>
       </c>
       <c r="M115" t="n">
-        <v>443053</v>
+        <v>448103</v>
       </c>
     </row>
     <row r="116">
@@ -5342,40 +5342,40 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1060</v>
+        <v>4642</v>
       </c>
       <c r="C116" t="n">
-        <v>908</v>
+        <v>3587</v>
       </c>
       <c r="D116" t="n">
-        <v>152</v>
+        <v>1055</v>
       </c>
       <c r="E116" t="n">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H116" t="n">
         <v>1</v>
       </c>
       <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
         <v>1</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
       <c r="K116" t="n">
-        <v>43133</v>
+        <v>43125</v>
       </c>
       <c r="L116" t="n">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="M116" t="n">
-        <v>444113</v>
+        <v>452745</v>
       </c>
     </row>
     <row r="117">
@@ -5385,40 +5385,83 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>139</v>
+        <v>1014</v>
       </c>
       <c r="C117" t="n">
-        <v>139</v>
+        <v>883</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="E117" t="n">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="F117" t="n">
-        <v>522</v>
+        <v>4</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="H117" t="n">
+        <v>6</v>
+      </c>
+      <c r="I117" t="n">
+        <v>4</v>
+      </c>
+      <c r="J117" t="n">
         <v>2</v>
       </c>
-      <c r="I117" t="n">
-        <v>2</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
       <c r="K117" t="n">
-        <v>43655</v>
+        <v>43639</v>
       </c>
       <c r="L117" t="n">
-        <v>2394</v>
+        <v>2400</v>
       </c>
       <c r="M117" t="n">
-        <v>444252</v>
+        <v>453759</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2020-06-25</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>131</v>
+      </c>
+      <c r="C118" t="n">
+        <v>131</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>501</v>
+      </c>
+      <c r="F118" t="n">
+        <v>501</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+      <c r="I118" t="n">
+        <v>3</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>44140</v>
+      </c>
+      <c r="L118" t="n">
+        <v>2403</v>
+      </c>
+      <c r="M118" t="n">
+        <v>453890</v>
       </c>
     </row>
   </sheetData>

--- a/data/test-case-trend.xlsx
+++ b/data/test-case-trend.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1260,10 +1260,10 @@
         <v>1739</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="E21" t="n">
         <v>45</v>
@@ -1386,13 +1386,13 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>1456</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
         <v>1455</v>
-      </c>
-      <c r="C24" t="n">
-        <v>2</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1453</v>
       </c>
       <c r="E24" t="n">
         <v>105</v>
@@ -1419,7 +1419,7 @@
         <v>24</v>
       </c>
       <c r="M24" t="n">
-        <v>9299</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="25">
@@ -1432,10 +1432,10 @@
         <v>1608</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="E25" t="n">
         <v>113</v>
@@ -1462,7 +1462,7 @@
         <v>29</v>
       </c>
       <c r="M25" t="n">
-        <v>10907</v>
+        <v>10908</v>
       </c>
     </row>
     <row r="26">
@@ -1475,10 +1475,10 @@
         <v>2326</v>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2322</v>
+        <v>2326</v>
       </c>
       <c r="E26" t="n">
         <v>162</v>
@@ -1505,7 +1505,7 @@
         <v>35</v>
       </c>
       <c r="M26" t="n">
-        <v>13233</v>
+        <v>13234</v>
       </c>
     </row>
     <row r="27">
@@ -1518,10 +1518,10 @@
         <v>2609</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="E27" t="n">
         <v>303</v>
@@ -1548,7 +1548,7 @@
         <v>44</v>
       </c>
       <c r="M27" t="n">
-        <v>15842</v>
+        <v>15843</v>
       </c>
     </row>
     <row r="28">
@@ -1561,10 +1561,10 @@
         <v>2163</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="E28" t="n">
         <v>282</v>
@@ -1591,7 +1591,7 @@
         <v>47</v>
       </c>
       <c r="M28" t="n">
-        <v>18005</v>
+        <v>18006</v>
       </c>
     </row>
     <row r="29">
@@ -1634,7 +1634,7 @@
         <v>58</v>
       </c>
       <c r="M29" t="n">
-        <v>19283</v>
+        <v>19284</v>
       </c>
     </row>
     <row r="30">
@@ -1677,7 +1677,7 @@
         <v>76</v>
       </c>
       <c r="M30" t="n">
-        <v>20915</v>
+        <v>20916</v>
       </c>
     </row>
     <row r="31">
@@ -1720,7 +1720,7 @@
         <v>91</v>
       </c>
       <c r="M31" t="n">
-        <v>22875</v>
+        <v>22876</v>
       </c>
     </row>
     <row r="32">
@@ -1733,10 +1733,10 @@
         <v>2318</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="E32" t="n">
         <v>406</v>
@@ -1763,7 +1763,7 @@
         <v>113</v>
       </c>
       <c r="M32" t="n">
-        <v>25193</v>
+        <v>25194</v>
       </c>
     </row>
     <row r="33">
@@ -1776,10 +1776,10 @@
         <v>2543</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2540</v>
+        <v>2543</v>
       </c>
       <c r="E33" t="n">
         <v>468</v>
@@ -1806,7 +1806,7 @@
         <v>135</v>
       </c>
       <c r="M33" t="n">
-        <v>27736</v>
+        <v>27737</v>
       </c>
     </row>
     <row r="34">
@@ -1819,10 +1819,10 @@
         <v>2701</v>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2695</v>
+        <v>2701</v>
       </c>
       <c r="E34" t="n">
         <v>396</v>
@@ -1849,7 +1849,7 @@
         <v>157</v>
       </c>
       <c r="M34" t="n">
-        <v>30437</v>
+        <v>30438</v>
       </c>
     </row>
     <row r="35">
@@ -1862,10 +1862,10 @@
         <v>2802</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2800</v>
+        <v>2802</v>
       </c>
       <c r="E35" t="n">
         <v>513</v>
@@ -1892,7 +1892,7 @@
         <v>189</v>
       </c>
       <c r="M35" t="n">
-        <v>33239</v>
+        <v>33240</v>
       </c>
     </row>
     <row r="36">
@@ -1935,7 +1935,7 @@
         <v>214</v>
       </c>
       <c r="M36" t="n">
-        <v>34875</v>
+        <v>34876</v>
       </c>
     </row>
     <row r="37">
@@ -1978,7 +1978,7 @@
         <v>248</v>
       </c>
       <c r="M37" t="n">
-        <v>35970</v>
+        <v>35971</v>
       </c>
     </row>
     <row r="38">
@@ -1991,10 +1991,10 @@
         <v>2425</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2423</v>
+        <v>2425</v>
       </c>
       <c r="E38" t="n">
         <v>556</v>
@@ -2021,7 +2021,7 @@
         <v>273</v>
       </c>
       <c r="M38" t="n">
-        <v>38395</v>
+        <v>38396</v>
       </c>
     </row>
     <row r="39">
@@ -2034,10 +2034,10 @@
         <v>2782</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>2781</v>
+        <v>2782</v>
       </c>
       <c r="E39" t="n">
         <v>422</v>
@@ -2064,7 +2064,7 @@
         <v>309</v>
       </c>
       <c r="M39" t="n">
-        <v>41177</v>
+        <v>41178</v>
       </c>
     </row>
     <row r="40">
@@ -2077,10 +2077,10 @@
         <v>3072</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="E40" t="n">
         <v>422</v>
@@ -2107,7 +2107,7 @@
         <v>338</v>
       </c>
       <c r="M40" t="n">
-        <v>44249</v>
+        <v>44250</v>
       </c>
     </row>
     <row r="41">
@@ -2150,7 +2150,7 @@
         <v>375</v>
       </c>
       <c r="M41" t="n">
-        <v>46996</v>
+        <v>46997</v>
       </c>
     </row>
     <row r="42">
@@ -2163,10 +2163,10 @@
         <v>2728</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="E42" t="n">
         <v>514</v>
@@ -2193,7 +2193,7 @@
         <v>400</v>
       </c>
       <c r="M42" t="n">
-        <v>49724</v>
+        <v>49725</v>
       </c>
     </row>
     <row r="43">
@@ -2236,7 +2236,7 @@
         <v>420</v>
       </c>
       <c r="M43" t="n">
-        <v>51266</v>
+        <v>51267</v>
       </c>
     </row>
     <row r="44">
@@ -2279,7 +2279,7 @@
         <v>449</v>
       </c>
       <c r="M44" t="n">
-        <v>51965</v>
+        <v>51966</v>
       </c>
     </row>
     <row r="45">
@@ -2289,10 +2289,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>3472</v>
@@ -2375,13 +2375,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>3300</v>
+        <v>3302</v>
       </c>
       <c r="E47" t="n">
         <v>577</v>
@@ -2408,7 +2408,7 @@
         <v>568</v>
       </c>
       <c r="M47" t="n">
-        <v>62370</v>
+        <v>62369</v>
       </c>
     </row>
     <row r="48">
@@ -2418,13 +2418,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4005</v>
+        <v>4003</v>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>4002</v>
+        <v>4003</v>
       </c>
       <c r="E48" t="n">
         <v>599</v>
@@ -2451,7 +2451,7 @@
         <v>602</v>
       </c>
       <c r="M48" t="n">
-        <v>66375</v>
+        <v>66372</v>
       </c>
     </row>
     <row r="49">
@@ -2464,10 +2464,10 @@
         <v>4180</v>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>4176</v>
+        <v>4180</v>
       </c>
       <c r="E49" t="n">
         <v>505</v>
@@ -2494,7 +2494,7 @@
         <v>638</v>
       </c>
       <c r="M49" t="n">
-        <v>70555</v>
+        <v>70552</v>
       </c>
     </row>
     <row r="50">
@@ -2537,7 +2537,7 @@
         <v>666</v>
       </c>
       <c r="M50" t="n">
-        <v>72325</v>
+        <v>72322</v>
       </c>
     </row>
     <row r="51">
@@ -2580,7 +2580,7 @@
         <v>702</v>
       </c>
       <c r="M51" t="n">
-        <v>73440</v>
+        <v>73437</v>
       </c>
     </row>
     <row r="52">
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4383</v>
+        <v>4382</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
         <v>4382</v>
@@ -2623,7 +2623,7 @@
         <v>740</v>
       </c>
       <c r="M52" t="n">
-        <v>77823</v>
+        <v>77819</v>
       </c>
     </row>
     <row r="53">
@@ -2636,10 +2636,10 @@
         <v>3900</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t